--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="358">
   <si>
     <t xml:space="preserve">Elemento </t>
   </si>
@@ -518,187 +518,190 @@
     <t xml:space="preserve">Nota 2: La unica pantalla que si es llamada por las Rasberry es la de paro de emergencia y para quitarla igual la Rasberry lo hace (Esta pantalla se hace visible mientras el paro de emergencia esté activado)</t>
   </si>
   <si>
+    <t xml:space="preserve">Presion hidraulica (40006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR-0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW-10C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presión objetivo hidraulica Deseada (Home)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presión de los pistones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR-0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW-10D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presión objetivo pneumatica deseada en los pistones (Home)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encender proceso de bombeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB-0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB-01002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón para encender proceso de bombeo (Todo trabajo en automatico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recircular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB-0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB-01003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón para recircular material en modo automatico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrar Pantalla 3:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB-0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB-01004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalla cambio de cubeta en modo automatico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerar Local window 0:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB-0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB-01005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqui se cierra la Barra lateral de navegación de pantallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrar Pantalla 2:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB-0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB-01006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalla Ajustes operativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrar Pantalla 4:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB-0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB-01007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalla Confuguraciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrar Pantalla 1:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB-0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB-01008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalla Modo manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón bloquear contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB-0009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB-01009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón para reestablecer el login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este botón manda un 0 en la contraseña para reiniciar la coil de contraseña correcta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón cargar contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB-000A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB-0100A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón para notificar cambios en la contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contraseña usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR-0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW-10E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario usa contraseña para desbloquear atajos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No olvidar que está confirmación debe activar una coil para saber que la contraseña es correcta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abir Local window 0:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB-000C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB-0100C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqui se despliega la pantalla paro de emergencia (Home)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerrar Local window 0:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB-000D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB-0100D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqui se cierra la pantalla paro de emergencia (Home)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La pantalla paro de emergencia se activa cuando se presiona el botón de paro y sólo hasta que se desactiva la señal se sale de la pantalla</t>
+  </si>
+  <si>
     <t xml:space="preserve">Presion hidraulica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR-0006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW-10C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presión objetivo hidraulica Deseada (Home)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presión de los pistones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR-0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW-10D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presión objetivo pneumatica deseada en los pistones (Home)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encender proceso de bombeo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB-0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB-01002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botón para encender proceso de bombeo (Todo trabajo en automatico)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recircular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB-0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB-01003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botón para recircular material en modo automatico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrar Pantalla 3:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB-0004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB-01004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pantalla cambio de cubeta en modo automatico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerar Local window 0:1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB-0005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB-01005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aqui se cierra la Barra lateral de navegación de pantallas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrar Pantalla 2:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB-0006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB-01006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pantalla Ajustes operativos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrar Pantalla 4:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB-0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB-01007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pantalla Confuguraciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrar Pantalla 1:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB-0008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB-01008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pantalla Modo manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botón bloquear contraseña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB-0009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB-01009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botón para reestablecer el login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este botón manda un 0 en la contraseña para reiniciar la coil de contraseña correcta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botón cargar contraseña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB-000A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB-0100A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botón para notificar cambios en la contraseña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contraseña usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR-0008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW-10E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario usa contraseña para desbloquear atajos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No olvidar que está confirmación debe activar una coil para saber que la contraseña es correcta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abir Local window 0:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB-000C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB-0100C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aqui se despliega la pantalla paro de emergencia (Home)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerrar Local window 0:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB-000D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB-0100D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aqui se cierra la pantalla paro de emergencia (Home)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La pantalla paro de emergencia se activa cuando se presiona el botón de paro y sólo hasta que se desactiva la señal se sale de la pantalla</t>
   </si>
   <si>
     <t xml:space="preserve">HR-0009</t>
@@ -1103,7 +1106,7 @@
     <t xml:space="preserve">Tiempo entre recirculado y recirculado</t>
   </si>
   <si>
-    <t xml:space="preserve">Intervalo recirculado ciclico</t>
+    <t xml:space="preserve">Intervalo recirculado ciclico (27)</t>
   </si>
   <si>
     <t xml:space="preserve">HR-001B</t>
@@ -2363,8 +2366,8 @@
   </sheetPr>
   <dimension ref="A1:L308"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A101" activeCellId="0" sqref="A101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4489,19 +4492,19 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="72" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="B91" s="73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D91" s="76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E91" s="70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F91" s="64"/>
       <c r="G91" s="64"/>
@@ -4513,16 +4516,16 @@
         <v>118</v>
       </c>
       <c r="B92" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92" s="70" t="s">
         <v>179</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D92" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="E92" s="70" t="s">
-        <v>178</v>
       </c>
       <c r="F92" s="64"/>
       <c r="G92" s="64"/>
@@ -4531,19 +4534,19 @@
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B93" s="73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D93" s="70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E93" s="70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F93" s="64"/>
       <c r="G93" s="64"/>
@@ -4552,19 +4555,19 @@
     </row>
     <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B94" s="73" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D94" s="70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E94" s="70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F94" s="64"/>
       <c r="G94" s="64"/>
@@ -4573,19 +4576,19 @@
     </row>
     <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B95" s="67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D95" s="70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E95" s="70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F95" s="64"/>
       <c r="G95" s="64"/>
@@ -4594,19 +4597,19 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B96" s="67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D96" s="70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E96" s="70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F96" s="64"/>
       <c r="G96" s="64"/>
@@ -4615,19 +4618,19 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B97" s="67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D97" s="70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E97" s="70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F97" s="64"/>
       <c r="G97" s="64"/>
@@ -4636,19 +4639,19 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B98" s="67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D98" s="74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E98" s="70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F98" s="64"/>
       <c r="G98" s="64"/>
@@ -4657,19 +4660,19 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B99" s="67" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D99" s="70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E99" s="70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F99" s="64"/>
       <c r="G99" s="64"/>
@@ -4681,19 +4684,19 @@
         <v>103</v>
       </c>
       <c r="B100" s="67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D100" s="70" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E100" s="70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F100" s="71" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G100" s="71"/>
       <c r="H100" s="71"/>
@@ -4705,16 +4708,16 @@
         <v>130</v>
       </c>
       <c r="B101" s="67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D101" s="70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E101" s="70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F101" s="64"/>
       <c r="G101" s="64"/>
@@ -4723,19 +4726,19 @@
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B102" s="67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D102" s="70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E102" s="70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F102" s="64"/>
       <c r="G102" s="64"/>
@@ -4744,19 +4747,19 @@
     </row>
     <row r="103" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B103" s="67" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D103" s="70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E103" s="70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F103" s="64"/>
       <c r="G103" s="64"/>
@@ -4765,19 +4768,19 @@
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B104" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D104" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="E104" s="70" t="s">
         <v>226</v>
-      </c>
-      <c r="B104" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="D104" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="E104" s="70" t="s">
-        <v>225</v>
       </c>
       <c r="F104" s="64"/>
       <c r="G104" s="64"/>
@@ -4789,16 +4792,16 @@
         <v>147</v>
       </c>
       <c r="B105" s="67" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D105" s="70" t="s">
         <v>150</v>
       </c>
       <c r="E105" s="70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F105" s="64"/>
       <c r="G105" s="64"/>
@@ -4807,22 +4810,22 @@
     </row>
     <row r="106" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B106" s="73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D106" s="67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E106" s="70" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
@@ -4831,73 +4834,73 @@
     </row>
     <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B107" s="73" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D107" s="67" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E107" s="70" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B108" s="73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D108" s="67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E108" s="70" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B109" s="73" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D109" s="67" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E109" s="70" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="80" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B110" s="67" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D110" s="67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E110" s="70" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
@@ -4906,19 +4909,19 @@
     </row>
     <row r="111" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="80" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B111" s="67" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D111" s="67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E111" s="70" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F111" s="64"/>
       <c r="G111" s="64"/>
@@ -4927,22 +4930,22 @@
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B112" s="67" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D112" s="67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E112" s="70" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
@@ -4950,19 +4953,19 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B113" s="67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D113" s="67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E113" s="70" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G113" s="64"/>
       <c r="H113" s="64"/>
@@ -4970,22 +4973,22 @@
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="80" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B114" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E114" s="70" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F114" s="81" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G114" s="81"/>
       <c r="H114" s="81"/>
@@ -4994,19 +4997,19 @@
     </row>
     <row r="115" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B115" s="67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D115" s="70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E115" s="70" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F115" s="64"/>
       <c r="G115" s="64"/>
@@ -5015,19 +5018,19 @@
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="72" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B116" s="73" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D116" s="67" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E116" s="70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F116" s="64"/>
       <c r="G116" s="64"/>
@@ -5036,19 +5039,19 @@
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="B117" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D117" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="E117" s="70" t="s">
         <v>280</v>
-      </c>
-      <c r="B117" s="73" t="s">
-        <v>281</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="D117" s="67" t="s">
-        <v>283</v>
-      </c>
-      <c r="E117" s="70" t="s">
-        <v>279</v>
       </c>
       <c r="F117" s="64"/>
       <c r="G117" s="64"/>
@@ -5057,19 +5060,19 @@
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="72" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B118" s="73" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D118" s="67" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E118" s="70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F118" s="64"/>
       <c r="G118" s="64"/>
@@ -5078,19 +5081,19 @@
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="72" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B119" s="73" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D119" s="67" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E119" s="70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F119" s="64"/>
       <c r="G119" s="64"/>
@@ -5099,19 +5102,19 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="72" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B120" s="73" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D120" s="67" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E120" s="70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
@@ -5121,19 +5124,19 @@
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="72" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B121" s="73" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D121" s="67" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E121" s="70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F121" s="64"/>
       <c r="G121" s="64"/>
@@ -5142,19 +5145,19 @@
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="72" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B122" s="73" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D122" s="67" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E122" s="70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F122" s="64"/>
       <c r="G122" s="64"/>
@@ -5163,19 +5166,19 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B123" s="67" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D123" s="67" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E123" s="70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F123" s="64"/>
       <c r="G123" s="64"/>
@@ -5184,19 +5187,19 @@
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B124" s="67" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D124" s="67" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E124" s="70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F124" s="64"/>
       <c r="G124" s="64"/>
@@ -5205,19 +5208,19 @@
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B125" s="67" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D125" s="67" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E125" s="70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F125" s="64"/>
       <c r="G125" s="64"/>
@@ -5226,19 +5229,19 @@
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="72" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B126" s="73" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D126" s="67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E126" s="70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F126" s="64"/>
       <c r="G126" s="64"/>
@@ -5247,19 +5250,19 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="72" t="s">
+        <v>322</v>
+      </c>
+      <c r="B127" s="73" t="s">
+        <v>323</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="D127" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="E127" s="70" t="s">
         <v>321</v>
-      </c>
-      <c r="B127" s="73" t="s">
-        <v>322</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="D127" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="E127" s="70" t="s">
-        <v>320</v>
       </c>
       <c r="F127" s="64"/>
       <c r="G127" s="64"/>
@@ -5268,19 +5271,19 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="72" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B128" s="73" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D128" s="67" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E128" s="70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F128" s="64"/>
       <c r="G128" s="64"/>
@@ -5289,19 +5292,19 @@
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="82" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B129" s="73" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D129" s="67" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E129" s="70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F129" s="64"/>
       <c r="G129" s="64"/>
@@ -5310,19 +5313,19 @@
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="72" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B130" s="73" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D130" s="67" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E130" s="70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F130" s="64"/>
       <c r="G130" s="64"/>
@@ -5455,13 +5458,13 @@
     <row r="143" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="83"/>
       <c r="B143" s="84" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C143" s="84" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D143" s="85" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E143" s="67" t="s">
         <v>7</v>
@@ -5486,22 +5489,22 @@
     </row>
     <row r="145" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="87" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B145" s="88" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C145" s="89" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D145" s="90" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E145" s="67" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F145" s="29" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G145" s="64"/>
       <c r="H145" s="64"/>
@@ -5510,19 +5513,19 @@
     <row r="146" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="87"/>
       <c r="B146" s="91" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C146" s="92" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D146" s="93" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E146" s="94" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F146" s="29" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G146" s="64"/>
       <c r="H146" s="64"/>
@@ -5531,13 +5534,13 @@
     <row r="147" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="87"/>
       <c r="B147" s="95" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C147" s="92" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D147" s="93" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E147" s="96" t="s">
         <v>12</v>
@@ -5555,13 +5558,13 @@
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="87"/>
       <c r="B148" s="91" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C148" s="92" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D148" s="93" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E148" s="96" t="s">
         <v>12</v>
@@ -5579,13 +5582,13 @@
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="87"/>
       <c r="B149" s="98" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C149" s="99" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D149" s="100" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E149" s="101" t="s">
         <v>12</v>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -23,10 +23,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B131" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">These goes to the HMI, will add the sensor reading to be displayed here, which are the values from IOLink data</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="358">
-  <si>
-    <t xml:space="preserve">Elemento </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="370">
+  <si>
+    <t xml:space="preserve">Elemento IOLink</t>
   </si>
   <si>
     <t xml:space="preserve">Estado</t>
@@ -1217,6 +1240,150 @@
     <t xml:space="preserve">Contraseña que se seteará para el cliente</t>
   </si>
   <si>
+    <t xml:space="preserve">sensor_material_pressure </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-0030 – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-40048</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor_material_temperature </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-0031 – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-40049</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor_laser_distance </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-0032 -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-40050</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor_pressure_regulator_read_set </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-0033 – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-40051</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor_pressure_regulator_read_real </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-0034 – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-40052</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor_pressure_regulator_valve_read_state </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-0035 – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-40053</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Datos</t>
   </si>
   <si>
@@ -1294,7 +1461,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,8 +1528,28 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1397,6 +1584,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF5CE"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFFFF5CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1650,7 +1843,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1981,6 +2174,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2132,7 +2333,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -2366,8 +2567,8 @@
   </sheetPr>
   <dimension ref="A1:L308"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B137" activeCellId="0" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5333,7 +5534,12 @@
       <c r="I130" s="64"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="64"/>
+      <c r="A131" s="83" t="s">
+        <v>338</v>
+      </c>
+      <c r="B131" s="84" t="s">
+        <v>339</v>
+      </c>
       <c r="C131" s="64"/>
       <c r="D131" s="64"/>
       <c r="E131" s="64"/>
@@ -5343,7 +5549,12 @@
       <c r="I131" s="64"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="64"/>
+      <c r="A132" s="83" t="s">
+        <v>340</v>
+      </c>
+      <c r="B132" s="84" t="s">
+        <v>341</v>
+      </c>
       <c r="C132" s="64"/>
       <c r="D132" s="64"/>
       <c r="E132" s="64"/>
@@ -5353,7 +5564,12 @@
       <c r="I132" s="64"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="64"/>
+      <c r="A133" s="83" t="s">
+        <v>342</v>
+      </c>
+      <c r="B133" s="84" t="s">
+        <v>343</v>
+      </c>
       <c r="C133" s="64"/>
       <c r="D133" s="64"/>
       <c r="E133" s="64"/>
@@ -5363,7 +5579,12 @@
       <c r="I133" s="64"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="64"/>
+      <c r="A134" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="B134" s="84" t="s">
+        <v>345</v>
+      </c>
       <c r="C134" s="64"/>
       <c r="D134" s="64"/>
       <c r="E134" s="64"/>
@@ -5373,7 +5594,12 @@
       <c r="I134" s="64"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="64"/>
+      <c r="A135" s="83" t="s">
+        <v>346</v>
+      </c>
+      <c r="B135" s="84" t="s">
+        <v>347</v>
+      </c>
       <c r="C135" s="64"/>
       <c r="D135" s="64"/>
       <c r="E135" s="64"/>
@@ -5383,7 +5609,12 @@
       <c r="I135" s="64"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="64"/>
+      <c r="A136" s="83" t="s">
+        <v>348</v>
+      </c>
+      <c r="B136" s="84" t="s">
+        <v>349</v>
+      </c>
       <c r="C136" s="64"/>
       <c r="D136" s="64"/>
       <c r="E136" s="64"/>
@@ -5456,15 +5687,15 @@
       <c r="I142" s="64"/>
     </row>
     <row r="143" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="83"/>
-      <c r="B143" s="84" t="s">
-        <v>338</v>
-      </c>
-      <c r="C143" s="84" t="s">
-        <v>339</v>
-      </c>
-      <c r="D143" s="85" t="s">
-        <v>340</v>
+      <c r="A143" s="85"/>
+      <c r="B143" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="C143" s="86" t="s">
+        <v>351</v>
+      </c>
+      <c r="D143" s="87" t="s">
+        <v>352</v>
       </c>
       <c r="E143" s="67" t="s">
         <v>7</v>
@@ -5477,7 +5708,7 @@
       <c r="I143" s="64"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="86"/>
+      <c r="A144" s="88"/>
       <c r="B144" s="64"/>
       <c r="C144" s="64"/>
       <c r="D144" s="64"/>
@@ -5488,64 +5719,64 @@
       <c r="I144" s="64"/>
     </row>
     <row r="145" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="87" t="s">
-        <v>341</v>
-      </c>
-      <c r="B145" s="88" t="s">
-        <v>342</v>
-      </c>
-      <c r="C145" s="89" t="s">
-        <v>343</v>
-      </c>
-      <c r="D145" s="90" t="s">
-        <v>344</v>
+      <c r="A145" s="89" t="s">
+        <v>353</v>
+      </c>
+      <c r="B145" s="90" t="s">
+        <v>354</v>
+      </c>
+      <c r="C145" s="91" t="s">
+        <v>355</v>
+      </c>
+      <c r="D145" s="92" t="s">
+        <v>356</v>
       </c>
       <c r="E145" s="67" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="F145" s="29" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="G145" s="64"/>
       <c r="H145" s="64"/>
       <c r="I145" s="64"/>
     </row>
     <row r="146" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="87"/>
-      <c r="B146" s="91" t="s">
-        <v>347</v>
-      </c>
-      <c r="C146" s="92" t="s">
-        <v>348</v>
-      </c>
-      <c r="D146" s="93" t="s">
-        <v>349</v>
-      </c>
-      <c r="E146" s="94" t="s">
-        <v>350</v>
+      <c r="A146" s="89"/>
+      <c r="B146" s="93" t="s">
+        <v>359</v>
+      </c>
+      <c r="C146" s="94" t="s">
+        <v>360</v>
+      </c>
+      <c r="D146" s="95" t="s">
+        <v>361</v>
+      </c>
+      <c r="E146" s="96" t="s">
+        <v>362</v>
       </c>
       <c r="F146" s="29" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G146" s="64"/>
       <c r="H146" s="64"/>
       <c r="I146" s="64"/>
     </row>
     <row r="147" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="87"/>
-      <c r="B147" s="95" t="s">
-        <v>352</v>
-      </c>
-      <c r="C147" s="92" t="s">
-        <v>353</v>
-      </c>
-      <c r="D147" s="93" t="s">
-        <v>354</v>
-      </c>
-      <c r="E147" s="96" t="s">
+      <c r="A147" s="89"/>
+      <c r="B147" s="97" t="s">
+        <v>364</v>
+      </c>
+      <c r="C147" s="94" t="s">
+        <v>365</v>
+      </c>
+      <c r="D147" s="95" t="s">
+        <v>366</v>
+      </c>
+      <c r="E147" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="F147" s="97" t="s">
+      <c r="F147" s="99" t="s">
         <v>12</v>
       </c>
       <c r="G147" s="64"/>
@@ -5556,20 +5787,20 @@
       <c r="L147" s="64"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="87"/>
-      <c r="B148" s="91" t="s">
-        <v>355</v>
-      </c>
-      <c r="C148" s="92" t="s">
-        <v>353</v>
-      </c>
-      <c r="D148" s="93" t="s">
-        <v>356</v>
-      </c>
-      <c r="E148" s="96" t="s">
+      <c r="A148" s="89"/>
+      <c r="B148" s="93" t="s">
+        <v>367</v>
+      </c>
+      <c r="C148" s="94" t="s">
+        <v>365</v>
+      </c>
+      <c r="D148" s="95" t="s">
+        <v>368</v>
+      </c>
+      <c r="E148" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="F148" s="97" t="s">
+      <c r="F148" s="99" t="s">
         <v>12</v>
       </c>
       <c r="G148" s="64"/>
@@ -5580,20 +5811,20 @@
       <c r="L148" s="64"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="87"/>
-      <c r="B149" s="98" t="s">
+      <c r="A149" s="89"/>
+      <c r="B149" s="100" t="s">
         <v>304</v>
       </c>
-      <c r="C149" s="99" t="s">
-        <v>353</v>
-      </c>
-      <c r="D149" s="100" t="s">
-        <v>357</v>
-      </c>
-      <c r="E149" s="101" t="s">
+      <c r="C149" s="101" t="s">
+        <v>365</v>
+      </c>
+      <c r="D149" s="102" t="s">
+        <v>369</v>
+      </c>
+      <c r="E149" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F149" s="102" t="s">
+      <c r="F149" s="104" t="s">
         <v>12</v>
       </c>
       <c r="G149" s="64"/>
@@ -7407,6 +7638,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Registros para logica" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Registros" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Registros para logica" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Registros" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Registros!$A$1:$J$1</definedName>
@@ -26,7 +26,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>Unknown Author</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B131" authorId="0">
@@ -280,7 +280,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
@@ -291,7 +291,7 @@
       <rPr>
         <b val="true"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
@@ -301,7 +301,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
@@ -316,7 +316,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
@@ -327,7 +327,7 @@
       <rPr>
         <b val="true"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
@@ -337,7 +337,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
@@ -352,7 +352,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
@@ -363,7 +363,7 @@
       <rPr>
         <b val="true"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
@@ -373,7 +373,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
@@ -388,7 +388,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
@@ -399,7 +399,7 @@
       <rPr>
         <b val="true"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
@@ -409,7 +409,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
@@ -424,7 +424,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
@@ -435,7 +435,7 @@
       <rPr>
         <b val="true"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
@@ -445,7 +445,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
@@ -853,25 +853,7 @@
     <t xml:space="preserve">Pantalla cambio de cubeta en modo manual</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Entrar Pantalla 0:0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (21)</t>
-    </r>
+    <t xml:space="preserve">Entrar Pantalla 0:0  (21)</t>
   </si>
   <si>
     <t xml:space="preserve">CB-0015</t>
@@ -1243,145 +1225,37 @@
     <t xml:space="preserve">sensor_material_pressure </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-0030 – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-40048</t>
-    </r>
+    <t xml:space="preserve">HR-0030 – HR-40048</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_material_temperature </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-0031 – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-40049</t>
-    </r>
+    <t xml:space="preserve">HR-0031 – HR-40049</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_laser_distance </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-0032 -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-40050</t>
-    </r>
+    <t xml:space="preserve">HR-0032 -HR-40050</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_pressure_regulator_read_set </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-0033 – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-40051</t>
-    </r>
+    <t xml:space="preserve">HR-0033 – HR-40051</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_pressure_regulator_read_real </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-0034 – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-40052</t>
-    </r>
+    <t xml:space="preserve">HR-0034 – HR-40052</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_pressure_regulator_valve_read_state </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-0035 – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-40053</t>
-    </r>
+    <t xml:space="preserve">HR-0035 – HR-40053</t>
   </si>
   <si>
     <t xml:space="preserve">Datos</t>
@@ -1461,10 +1335,10 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1486,7 +1360,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -1494,7 +1368,7 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -1502,6 +1376,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -1517,26 +1399,13 @@
     <font>
       <b val="true"/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1549,12 +1418,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1564,19 +1439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF70AD47"/>
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFF5CE"/>
       </patternFill>
     </fill>
@@ -1852,27 +1727,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1964,16 +1839,88 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2008,87 +1955,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2104,11 +1979,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2132,11 +2007,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2152,15 +2027,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2172,15 +2047,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2188,11 +2063,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2275,23 +2150,6 @@
     <cellStyle name="Moneda 2" xfId="20"/>
     <cellStyle name="Moneda 3" xfId="21"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2359,180 +2217,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546a"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ed7d31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="ffc000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472c4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70ad47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563c1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954f72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2542,7 +2228,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
@@ -2551,8 +2237,8 @@
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2561,29 +2247,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L308"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B137" activeCellId="0" sqref="B137"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7632,8 +7318,8 @@
     <mergeCell ref="A145:A149"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Registros para logica" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Registros" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Registros para logica" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Registros" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Registros!$A$1:$J$1</definedName>
@@ -26,7 +26,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>Unknown Author</author>
   </authors>
   <commentList>
     <comment ref="B131" authorId="0">
@@ -36,7 +36,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">These goes to the HMI, will add the sensor reading to be displayed here, which are the values from IOLink data</t>
         </r>
@@ -103,7 +102,7 @@
     <t xml:space="preserve">MW101</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensor de distancia </t>
+    <t xml:space="preserve">Sensor de distancia (laser)</t>
   </si>
   <si>
     <t xml:space="preserve">Lectura de distancia</t>
@@ -280,10 +279,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta llena entre el 100 y 80 </t>
     </r>
@@ -294,7 +292,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Lleno</t>
     </r>
@@ -304,7 +301,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -316,10 +312,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta entre el 79 y 50 (</t>
     </r>
@@ -330,7 +325,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Medio-alto</t>
     </r>
@@ -340,7 +334,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -352,10 +345,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta entre el 49 y 30 (</t>
     </r>
@@ -366,7 +358,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Medio</t>
     </r>
@@ -376,7 +367,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -388,10 +378,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta entre el 20 y 10 (</t>
     </r>
@@ -402,7 +391,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Prevacio</t>
     </r>
@@ -412,7 +400,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -424,10 +411,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta entre el 5 hacia abajo (2cm) (</t>
     </r>
@@ -438,7 +424,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Vacio</t>
     </r>
@@ -448,7 +433,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -1225,37 +1209,139 @@
     <t xml:space="preserve">sensor_material_pressure </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0030 – HR-40048</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-0030 – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-40048</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">sensor_material_temperature </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0031 – HR-40049</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-0031 – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-40049</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">sensor_laser_distance </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0032 -HR-40050</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-0032 -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-40050</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">sensor_pressure_regulator_read_set </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0033 – HR-40051</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-0033 – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-40051</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">sensor_pressure_regulator_read_real </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0034 – HR-40052</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-0034 – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-40052</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">sensor_pressure_regulator_valve_read_state </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0035 – HR-40053</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-0035 – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-40053</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Datos</t>
@@ -1335,13 +1421,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1360,25 +1445,22 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1386,50 +1468,45 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="24"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1439,19 +1516,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
+        <fgColor theme="9"/>
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFF5CE"/>
       </patternFill>
     </fill>
@@ -1718,7 +1795,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1727,27 +1804,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1839,16 +1916,52 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1887,20 +2000,36 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1911,59 +2040,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1979,11 +2056,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2007,11 +2084,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2027,15 +2104,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2047,15 +2128,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2063,11 +2144,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2150,6 +2231,23 @@
     <cellStyle name="Moneda 2" xfId="20"/>
     <cellStyle name="Moneda 3" xfId="21"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2217,8 +2315,114 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546a"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="e7e6e6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5b9bd5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ed7d31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a5a5a5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="ffc000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472c4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70ad47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563c1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954f72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2228,17 +2432,19 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2247,29 +2453,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L308"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2330,7 +2536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
       <c r="B3" s="14" t="s">
         <v>16</v>
@@ -2412,7 +2618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
       <c r="B6" s="24" t="s">
         <v>26</v>
@@ -2544,7 +2750,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
@@ -2646,7 +2852,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="B15" s="30" t="s">
         <v>60</v>
@@ -2718,7 +2924,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
       <c r="B18" s="23" t="s">
         <v>68</v>
@@ -2742,7 +2948,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
       <c r="B19" s="23" t="s">
         <v>71</v>
@@ -2796,7 +3002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
       <c r="B21" s="33"/>
       <c r="C21" s="37" t="n">
@@ -2820,7 +3026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
       <c r="B22" s="33"/>
       <c r="C22" s="37" t="n">
@@ -2844,7 +3050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
       <c r="B23" s="33"/>
       <c r="C23" s="37" t="n">
@@ -2868,7 +3074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
       <c r="B24" s="33"/>
       <c r="C24" s="37" t="n">
@@ -2892,7 +3098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
       <c r="B25" s="33"/>
       <c r="C25" s="37" t="n">
@@ -2916,7 +3122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
       <c r="B26" s="33"/>
       <c r="C26" s="37" t="n">
@@ -2940,7 +3146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
       <c r="B27" s="33"/>
       <c r="C27" s="39" t="n">
@@ -2964,7 +3170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
       <c r="B28" s="41" t="s">
         <v>77</v>
@@ -2992,7 +3198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
       <c r="B29" s="41"/>
       <c r="C29" s="37" t="n">
@@ -3016,7 +3222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8"/>
       <c r="B30" s="41"/>
       <c r="C30" s="37" t="n">
@@ -3040,7 +3246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
       <c r="B31" s="41"/>
       <c r="C31" s="37" t="n">
@@ -3064,7 +3270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
       <c r="B32" s="41"/>
       <c r="C32" s="37" t="n">
@@ -3088,7 +3294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
       <c r="B33" s="41"/>
       <c r="C33" s="37" t="n">
@@ -3112,7 +3318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
       <c r="B34" s="41"/>
       <c r="C34" s="37" t="n">
@@ -3136,7 +3342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
       <c r="B35" s="41"/>
       <c r="C35" s="37" t="n">
@@ -3188,7 +3394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
       <c r="B37" s="42"/>
       <c r="C37" s="46" t="n">
@@ -3212,7 +3418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
       <c r="B38" s="42"/>
       <c r="C38" s="46" t="n">
@@ -3236,7 +3442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
       <c r="B39" s="42"/>
       <c r="C39" s="46" t="n">
@@ -3260,7 +3466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
       <c r="B40" s="42"/>
       <c r="C40" s="46" t="n">
@@ -3284,7 +3490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
       <c r="B41" s="42"/>
       <c r="C41" s="46" t="n">
@@ -3308,7 +3514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8"/>
       <c r="B42" s="42"/>
       <c r="C42" s="46" t="n">
@@ -3332,7 +3538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8"/>
       <c r="B43" s="42"/>
       <c r="C43" s="48" t="n">
@@ -3384,7 +3590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
       <c r="B45" s="50"/>
       <c r="C45" s="46" t="n">
@@ -3408,7 +3614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8"/>
       <c r="B46" s="50"/>
       <c r="C46" s="46" t="n">
@@ -3432,7 +3638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8"/>
       <c r="B47" s="50"/>
       <c r="C47" s="46" t="n">
@@ -3456,7 +3662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8"/>
       <c r="B48" s="50"/>
       <c r="C48" s="46" t="n">
@@ -3480,7 +3686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8"/>
       <c r="B49" s="50"/>
       <c r="C49" s="46" t="n">
@@ -3504,7 +3710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8"/>
       <c r="B50" s="50"/>
       <c r="C50" s="46" t="n">
@@ -3528,7 +3734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8"/>
       <c r="B51" s="50"/>
       <c r="C51" s="46" t="n">
@@ -3552,7 +3758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="8"/>
       <c r="B52" s="51" t="s">
         <v>83</v>
@@ -3580,7 +3786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8"/>
       <c r="B53" s="51"/>
       <c r="C53" s="55" t="n">
@@ -3604,7 +3810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
       <c r="B54" s="51"/>
       <c r="C54" s="55" t="n">
@@ -3628,7 +3834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8"/>
       <c r="B55" s="51"/>
       <c r="C55" s="55" t="n">
@@ -3652,7 +3858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8"/>
       <c r="B56" s="51"/>
       <c r="C56" s="55" t="n">
@@ -3676,7 +3882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8"/>
       <c r="B57" s="51"/>
       <c r="C57" s="55" t="n">
@@ -3700,7 +3906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8"/>
       <c r="B58" s="51"/>
       <c r="C58" s="55" t="n">
@@ -3724,7 +3930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8"/>
       <c r="B59" s="51"/>
       <c r="C59" s="57" t="n">
@@ -3776,7 +3982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8"/>
       <c r="B61" s="27"/>
       <c r="C61" s="59" t="n">
@@ -3800,7 +4006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8"/>
       <c r="B62" s="27"/>
       <c r="C62" s="59" t="n">
@@ -3824,7 +4030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8"/>
       <c r="B63" s="27"/>
       <c r="C63" s="59" t="n">
@@ -3848,7 +4054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8"/>
       <c r="B64" s="27"/>
       <c r="C64" s="59" t="n">
@@ -3872,7 +4078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8"/>
       <c r="B65" s="27"/>
       <c r="C65" s="59" t="n">
@@ -3896,7 +4102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8"/>
       <c r="B66" s="27"/>
       <c r="C66" s="59" t="n">
@@ -3920,7 +4126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8"/>
       <c r="B67" s="27"/>
       <c r="C67" s="59" t="n">
@@ -4000,7 +4206,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="64"/>
     </row>
     <row r="71" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4015,6 +4221,7 @@
         <v>98</v>
       </c>
     </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="66" t="s">
         <v>99</v>
@@ -4096,7 +4303,7 @@
       <c r="I76" s="71"/>
       <c r="J76" s="71"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="72" t="s">
         <v>114</v>
       </c>
@@ -4168,7 +4375,7 @@
       </c>
       <c r="F80" s="64"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
         <v>130</v>
       </c>
@@ -4222,7 +4429,7 @@
       </c>
       <c r="F83" s="64"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="23" t="s">
         <v>143</v>
       </c>
@@ -4243,7 +4450,7 @@
       <c r="H84" s="64"/>
       <c r="I84" s="64"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
         <v>147</v>
       </c>
@@ -4264,7 +4471,7 @@
       <c r="H85" s="64"/>
       <c r="I85" s="64"/>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
         <v>151</v>
       </c>
@@ -4288,7 +4495,7 @@
       <c r="I86" s="71"/>
       <c r="J86" s="71"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
         <v>156</v>
       </c>
@@ -4308,7 +4515,7 @@
       <c r="G87" s="64"/>
       <c r="I87" s="64"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="72" t="s">
         <v>160</v>
       </c>
@@ -4377,7 +4584,7 @@
       <c r="I90" s="71"/>
       <c r="J90" s="71"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="72" t="s">
         <v>175</v>
       </c>
@@ -4482,7 +4689,7 @@
       <c r="H95" s="64"/>
       <c r="I95" s="64"/>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="23" t="s">
         <v>195</v>
       </c>
@@ -4503,7 +4710,7 @@
       <c r="H96" s="64"/>
       <c r="I96" s="64"/>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="23" t="s">
         <v>199</v>
       </c>
@@ -4524,7 +4731,7 @@
       <c r="H97" s="64"/>
       <c r="I97" s="64"/>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="23" t="s">
         <v>203</v>
       </c>
@@ -4545,7 +4752,7 @@
       <c r="H98" s="64"/>
       <c r="I98" s="64"/>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="23" t="s">
         <v>207</v>
       </c>
@@ -4590,7 +4797,7 @@
       <c r="I100" s="71"/>
       <c r="J100" s="71"/>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
         <v>130</v>
       </c>
@@ -4611,8 +4818,8 @@
       <c r="H101" s="64"/>
       <c r="I101" s="64"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="23" t="s">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="79" t="s">
         <v>218</v>
       </c>
       <c r="B102" s="67" t="s">
@@ -4653,7 +4860,7 @@
       <c r="H103" s="64"/>
       <c r="I103" s="64"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="23" t="s">
         <v>227</v>
       </c>
@@ -4696,7 +4903,7 @@
       <c r="I105" s="64"/>
     </row>
     <row r="106" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="79" t="s">
+      <c r="A106" s="80" t="s">
         <v>233</v>
       </c>
       <c r="B106" s="73" t="s">
@@ -4736,7 +4943,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="72" t="s">
         <v>243</v>
       </c>
@@ -4753,7 +4960,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="72" t="s">
         <v>247</v>
       </c>
@@ -4771,7 +4978,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="80" t="s">
+      <c r="A110" s="81" t="s">
         <v>251</v>
       </c>
       <c r="B110" s="67" t="s">
@@ -4795,7 +5002,7 @@
       <c r="J110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="80" t="s">
+      <c r="A111" s="81" t="s">
         <v>257</v>
       </c>
       <c r="B111" s="67" t="s">
@@ -4815,7 +5022,7 @@
       <c r="H111" s="64"/>
       <c r="I111" s="64"/>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="23" t="s">
         <v>261</v>
       </c>
@@ -4838,7 +5045,7 @@
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="23" t="s">
         <v>265</v>
       </c>
@@ -4859,7 +5066,7 @@
       <c r="I113" s="64"/>
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="80" t="s">
+      <c r="A114" s="81" t="s">
         <v>268</v>
       </c>
       <c r="B114" s="67" t="s">
@@ -4874,13 +5081,13 @@
       <c r="E114" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="F114" s="81" t="s">
+      <c r="F114" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="G114" s="81"/>
-      <c r="H114" s="81"/>
-      <c r="I114" s="81"/>
-      <c r="J114" s="81"/>
+      <c r="G114" s="82"/>
+      <c r="H114" s="82"/>
+      <c r="I114" s="82"/>
+      <c r="J114" s="82"/>
     </row>
     <row r="115" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
@@ -4903,7 +5110,7 @@
       <c r="H115" s="64"/>
       <c r="I115" s="64"/>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="72" t="s">
         <v>276</v>
       </c>
@@ -4924,7 +5131,7 @@
       <c r="H116" s="64"/>
       <c r="I116" s="64"/>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="72" t="s">
         <v>281</v>
       </c>
@@ -4945,7 +5152,7 @@
       <c r="H117" s="64"/>
       <c r="I117" s="64"/>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="72" t="s">
         <v>285</v>
       </c>
@@ -4966,7 +5173,7 @@
       <c r="H118" s="64"/>
       <c r="I118" s="64"/>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="72" t="s">
         <v>289</v>
       </c>
@@ -4987,7 +5194,7 @@
       <c r="H119" s="64"/>
       <c r="I119" s="64"/>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="72" t="s">
         <v>293</v>
       </c>
@@ -5009,7 +5216,7 @@
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="72" t="s">
         <v>297</v>
       </c>
@@ -5030,7 +5237,7 @@
       <c r="H121" s="64"/>
       <c r="I121" s="64"/>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="72" t="s">
         <v>301</v>
       </c>
@@ -5051,7 +5258,7 @@
       <c r="H122" s="64"/>
       <c r="I122" s="64"/>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
         <v>305</v>
       </c>
@@ -5072,7 +5279,7 @@
       <c r="H123" s="64"/>
       <c r="I123" s="64"/>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
         <v>309</v>
       </c>
@@ -5093,7 +5300,7 @@
       <c r="H124" s="64"/>
       <c r="I124" s="64"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
         <v>313</v>
       </c>
@@ -5114,7 +5321,7 @@
       <c r="H125" s="64"/>
       <c r="I125" s="64"/>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="72" t="s">
         <v>317</v>
       </c>
@@ -5135,7 +5342,7 @@
       <c r="H126" s="64"/>
       <c r="I126" s="64"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="72" t="s">
         <v>322</v>
       </c>
@@ -5156,7 +5363,7 @@
       <c r="H127" s="64"/>
       <c r="I127" s="64"/>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="72" t="s">
         <v>326</v>
       </c>
@@ -5178,7 +5385,7 @@
       <c r="I128" s="64"/>
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="82" t="s">
+      <c r="A129" s="83" t="s">
         <v>330</v>
       </c>
       <c r="B129" s="73" t="s">
@@ -5198,7 +5405,7 @@
       <c r="H129" s="64"/>
       <c r="I129" s="64"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="72" t="s">
         <v>334</v>
       </c>
@@ -5219,11 +5426,11 @@
       <c r="H130" s="64"/>
       <c r="I130" s="64"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="83" t="s">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="84" t="s">
         <v>338</v>
       </c>
-      <c r="B131" s="84" t="s">
+      <c r="B131" s="85" t="s">
         <v>339</v>
       </c>
       <c r="C131" s="64"/>
@@ -5234,11 +5441,11 @@
       <c r="H131" s="64"/>
       <c r="I131" s="64"/>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="83" t="s">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="B132" s="84" t="s">
+      <c r="B132" s="85" t="s">
         <v>341</v>
       </c>
       <c r="C132" s="64"/>
@@ -5249,11 +5456,11 @@
       <c r="H132" s="64"/>
       <c r="I132" s="64"/>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="83" t="s">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="84" t="s">
         <v>342</v>
       </c>
-      <c r="B133" s="84" t="s">
+      <c r="B133" s="85" t="s">
         <v>343</v>
       </c>
       <c r="C133" s="64"/>
@@ -5264,11 +5471,11 @@
       <c r="H133" s="64"/>
       <c r="I133" s="64"/>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="83" t="s">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="84" t="s">
         <v>344</v>
       </c>
-      <c r="B134" s="84" t="s">
+      <c r="B134" s="85" t="s">
         <v>345</v>
       </c>
       <c r="C134" s="64"/>
@@ -5279,11 +5486,11 @@
       <c r="H134" s="64"/>
       <c r="I134" s="64"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="83" t="s">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="B135" s="84" t="s">
+      <c r="B135" s="85" t="s">
         <v>347</v>
       </c>
       <c r="C135" s="64"/>
@@ -5294,11 +5501,11 @@
       <c r="H135" s="64"/>
       <c r="I135" s="64"/>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="83" t="s">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="84" t="s">
         <v>348</v>
       </c>
-      <c r="B136" s="84" t="s">
+      <c r="B136" s="85" t="s">
         <v>349</v>
       </c>
       <c r="C136" s="64"/>
@@ -5309,7 +5516,7 @@
       <c r="H136" s="64"/>
       <c r="I136" s="64"/>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="64"/>
       <c r="C137" s="64"/>
       <c r="D137" s="64"/>
@@ -5319,7 +5526,7 @@
       <c r="H137" s="64"/>
       <c r="I137" s="64"/>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="64"/>
       <c r="C138" s="64"/>
       <c r="D138" s="64"/>
@@ -5329,7 +5536,7 @@
       <c r="H138" s="64"/>
       <c r="I138" s="64"/>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="64"/>
       <c r="C139" s="64"/>
       <c r="D139" s="64"/>
@@ -5339,7 +5546,7 @@
       <c r="H139" s="64"/>
       <c r="I139" s="64"/>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="64"/>
       <c r="B140" s="64"/>
       <c r="C140" s="64"/>
@@ -5350,7 +5557,7 @@
       <c r="H140" s="64"/>
       <c r="I140" s="64"/>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="64"/>
       <c r="B141" s="64"/>
       <c r="C141" s="64"/>
@@ -5361,7 +5568,7 @@
       <c r="H141" s="64"/>
       <c r="I141" s="64"/>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="64"/>
       <c r="B142" s="64"/>
       <c r="C142" s="64"/>
@@ -5373,14 +5580,14 @@
       <c r="I142" s="64"/>
     </row>
     <row r="143" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="85"/>
-      <c r="B143" s="86" t="s">
+      <c r="A143" s="86"/>
+      <c r="B143" s="87" t="s">
         <v>350</v>
       </c>
-      <c r="C143" s="86" t="s">
+      <c r="C143" s="87" t="s">
         <v>351</v>
       </c>
-      <c r="D143" s="87" t="s">
+      <c r="D143" s="88" t="s">
         <v>352</v>
       </c>
       <c r="E143" s="67" t="s">
@@ -5393,8 +5600,8 @@
       <c r="H143" s="64"/>
       <c r="I143" s="64"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="88"/>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="89"/>
       <c r="B144" s="64"/>
       <c r="C144" s="64"/>
       <c r="D144" s="64"/>
@@ -5405,16 +5612,16 @@
       <c r="I144" s="64"/>
     </row>
     <row r="145" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="89" t="s">
+      <c r="A145" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="B145" s="90" t="s">
+      <c r="B145" s="91" t="s">
         <v>354</v>
       </c>
-      <c r="C145" s="91" t="s">
+      <c r="C145" s="92" t="s">
         <v>355</v>
       </c>
-      <c r="D145" s="92" t="s">
+      <c r="D145" s="93" t="s">
         <v>356</v>
       </c>
       <c r="E145" s="67" t="s">
@@ -5428,17 +5635,17 @@
       <c r="I145" s="64"/>
     </row>
     <row r="146" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="89"/>
-      <c r="B146" s="93" t="s">
+      <c r="A146" s="90"/>
+      <c r="B146" s="94" t="s">
         <v>359</v>
       </c>
-      <c r="C146" s="94" t="s">
+      <c r="C146" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="D146" s="95" t="s">
+      <c r="D146" s="96" t="s">
         <v>361</v>
       </c>
-      <c r="E146" s="96" t="s">
+      <c r="E146" s="97" t="s">
         <v>362</v>
       </c>
       <c r="F146" s="29" t="s">
@@ -5449,20 +5656,20 @@
       <c r="I146" s="64"/>
     </row>
     <row r="147" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="89"/>
-      <c r="B147" s="97" t="s">
+      <c r="A147" s="90"/>
+      <c r="B147" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="C147" s="94" t="s">
+      <c r="C147" s="95" t="s">
         <v>365</v>
       </c>
-      <c r="D147" s="95" t="s">
+      <c r="D147" s="96" t="s">
         <v>366</v>
       </c>
-      <c r="E147" s="98" t="s">
+      <c r="E147" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="F147" s="99" t="s">
+      <c r="F147" s="100" t="s">
         <v>12</v>
       </c>
       <c r="G147" s="64"/>
@@ -5472,21 +5679,21 @@
       <c r="K147" s="64"/>
       <c r="L147" s="64"/>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="89"/>
-      <c r="B148" s="93" t="s">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="90"/>
+      <c r="B148" s="94" t="s">
         <v>367</v>
       </c>
-      <c r="C148" s="94" t="s">
+      <c r="C148" s="95" t="s">
         <v>365</v>
       </c>
-      <c r="D148" s="95" t="s">
+      <c r="D148" s="96" t="s">
         <v>368</v>
       </c>
-      <c r="E148" s="98" t="s">
+      <c r="E148" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="F148" s="99" t="s">
+      <c r="F148" s="100" t="s">
         <v>12</v>
       </c>
       <c r="G148" s="64"/>
@@ -5496,21 +5703,21 @@
       <c r="K148" s="64"/>
       <c r="L148" s="64"/>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="89"/>
-      <c r="B149" s="100" t="s">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="90"/>
+      <c r="B149" s="101" t="s">
         <v>304</v>
       </c>
-      <c r="C149" s="101" t="s">
+      <c r="C149" s="102" t="s">
         <v>365</v>
       </c>
-      <c r="D149" s="102" t="s">
+      <c r="D149" s="103" t="s">
         <v>369</v>
       </c>
-      <c r="E149" s="103" t="s">
+      <c r="E149" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="F149" s="104" t="s">
+      <c r="F149" s="105" t="s">
         <v>12</v>
       </c>
       <c r="G149" s="64"/>
@@ -5520,7 +5727,7 @@
       <c r="K149" s="64"/>
       <c r="L149" s="64"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="64"/>
       <c r="B150" s="64"/>
       <c r="C150" s="64"/>
@@ -5534,7 +5741,7 @@
       <c r="K150" s="64"/>
       <c r="L150" s="64"/>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="64"/>
       <c r="B151" s="64"/>
       <c r="C151" s="64"/>
@@ -5548,7 +5755,7 @@
       <c r="K151" s="64"/>
       <c r="L151" s="64"/>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="64"/>
       <c r="B152" s="64"/>
       <c r="C152" s="64"/>
@@ -5562,7 +5769,7 @@
       <c r="K152" s="64"/>
       <c r="L152" s="64"/>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="64"/>
       <c r="B153" s="64"/>
       <c r="C153" s="64"/>
@@ -7318,8 +7525,8 @@
     <mergeCell ref="A145:A149"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Registros para logica" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Registros" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Registros para logica" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Registros" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Registros!$A$1:$J$1</definedName>
@@ -26,7 +26,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>Unknown Author</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B131" authorId="0">
@@ -36,6 +36,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">These goes to the HMI, will add the sensor reading to be displayed here, which are the values from IOLink data</t>
         </r>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="371">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -279,9 +280,10 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta llena entre el 100 y 80 </t>
     </r>
@@ -292,6 +294,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Lleno</t>
     </r>
@@ -301,6 +304,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -312,9 +316,10 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta entre el 79 y 50 (</t>
     </r>
@@ -325,6 +330,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Medio-alto</t>
     </r>
@@ -334,6 +340,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -345,9 +352,10 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta entre el 49 y 30 (</t>
     </r>
@@ -358,6 +366,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Medio</t>
     </r>
@@ -367,6 +376,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -378,9 +388,10 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta entre el 20 y 10 (</t>
     </r>
@@ -391,6 +402,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Prevacio</t>
     </r>
@@ -400,6 +412,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -411,9 +424,10 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta entre el 5 hacia abajo (2cm) (</t>
     </r>
@@ -424,6 +438,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Vacio</t>
     </r>
@@ -433,6 +448,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -1209,139 +1225,40 @@
     <t xml:space="preserve">sensor_material_pressure </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-0030 – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-40048</t>
-    </r>
+    <t xml:space="preserve">HR-0030 – HR-40048</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_material_temperature </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-0031 – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-40049</t>
-    </r>
+    <t xml:space="preserve">HR-0031 – HR-40049</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_laser_distance </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-0032 -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-40050</t>
-    </r>
+    <t xml:space="preserve">HR-0032 -HR-40050</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_pressure_regulator_read_set </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-0033 – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-40051</t>
-    </r>
+    <t xml:space="preserve">HR-0033 – HR-40051</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_pressure_regulator_read_real </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-0034 – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-40052</t>
-    </r>
+    <t xml:space="preserve">HR-0034 – HR-40052</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_pressure_regulator_valve_read_state </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-0035 – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">HR-40053</t>
-    </r>
+    <t xml:space="preserve">HR-0035 – HR-40053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are HMI registers</t>
   </si>
   <si>
     <t xml:space="preserve">Datos</t>
@@ -1421,12 +1338,13 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1445,22 +1363,10 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1468,40 +1374,47 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="24"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFC9211E"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1511,36 +1424,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF70AD47"/>
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
         <bgColor rgb="FFFFF5CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF5CE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD8CE"/>
+        <fgColor rgb="FFFFFFD7"/>
         <bgColor rgb="FFFFF5CE"/>
       </patternFill>
     </fill>
@@ -1795,7 +1714,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1828,7 +1747,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2056,16 +1975,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2080,10 +1995,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2096,10 +2007,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2112,10 +2019,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2124,7 +2027,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2132,11 +2035,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2160,20 +2067,44 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2184,19 +2115,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2231,23 +2158,6 @@
     <cellStyle name="Moneda 2" xfId="20"/>
     <cellStyle name="Moneda 3" xfId="21"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2268,7 +2178,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF5CE"/>
+      <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -2285,7 +2195,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFF5CE"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -2302,7 +2212,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -2315,114 +2225,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546a"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ed7d31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="ffc000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472c4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70ad47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563c1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954f72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2432,7 +2236,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
@@ -2443,8 +2247,8 @@
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2453,29 +2257,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L308"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H146" activeCellId="0" sqref="H146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4239,16 +4043,16 @@
       <c r="A74" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B74" s="67" t="s">
+      <c r="B74" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="68" t="s">
+      <c r="D74" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="E74" s="69" t="s">
+      <c r="E74" s="68" t="s">
         <v>102</v>
       </c>
       <c r="F74" s="64"/>
@@ -4259,82 +4063,82 @@
       <c r="A75" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="67" t="s">
+      <c r="B75" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D75" s="70" t="s">
+      <c r="D75" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="E75" s="70" t="s">
+      <c r="E75" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="F75" s="71" t="s">
+      <c r="F75" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
     </row>
     <row r="76" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B76" s="67" t="s">
+      <c r="B76" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D76" s="70" t="s">
+      <c r="D76" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="E76" s="70" t="s">
+      <c r="E76" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="F76" s="71" t="s">
+      <c r="F76" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="B77" s="73" t="s">
+      <c r="B77" s="71" t="s">
         <v>115</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D77" s="70" t="s">
+      <c r="D77" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="E77" s="70" t="s">
+      <c r="E77" s="69" t="s">
         <v>107</v>
       </c>
       <c r="F77" s="64"/>
     </row>
     <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="72" t="s">
+      <c r="A78" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B78" s="73" t="s">
+      <c r="B78" s="71" t="s">
         <v>119</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D78" s="70" t="s">
+      <c r="D78" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="70" t="s">
+      <c r="E78" s="69" t="s">
         <v>107</v>
       </c>
       <c r="F78" s="64"/>
@@ -4343,16 +4147,16 @@
       <c r="A79" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B79" s="67" t="s">
+      <c r="B79" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D79" s="70" t="s">
+      <c r="D79" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="E79" s="70" t="s">
+      <c r="E79" s="69" t="s">
         <v>107</v>
       </c>
       <c r="F79" s="64"/>
@@ -4361,16 +4165,16 @@
       <c r="A80" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="67" t="s">
+      <c r="B80" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D80" s="70" t="s">
+      <c r="D80" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="E80" s="70" t="s">
+      <c r="E80" s="69" t="s">
         <v>107</v>
       </c>
       <c r="F80" s="64"/>
@@ -4379,16 +4183,16 @@
       <c r="A81" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B81" s="67" t="s">
+      <c r="B81" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D81" s="70" t="s">
+      <c r="D81" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="E81" s="70" t="s">
+      <c r="E81" s="69" t="s">
         <v>107</v>
       </c>
       <c r="F81" s="64"/>
@@ -4397,16 +4201,16 @@
       <c r="A82" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="67" t="s">
+      <c r="B82" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D82" s="70" t="s">
+      <c r="D82" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="E82" s="70" t="s">
+      <c r="E82" s="69" t="s">
         <v>138</v>
       </c>
       <c r="F82" s="64"/>
@@ -4415,16 +4219,16 @@
       <c r="A83" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B83" s="67" t="s">
+      <c r="B83" s="8" t="s">
         <v>140</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D83" s="70" t="s">
+      <c r="D83" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="E83" s="70" t="s">
+      <c r="E83" s="69" t="s">
         <v>138</v>
       </c>
       <c r="F83" s="64"/>
@@ -4433,16 +4237,16 @@
       <c r="A84" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="67" t="s">
+      <c r="B84" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D84" s="70" t="s">
+      <c r="D84" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="E84" s="70" t="s">
+      <c r="E84" s="69" t="s">
         <v>138</v>
       </c>
       <c r="F84" s="64"/>
@@ -4454,16 +4258,16 @@
       <c r="A85" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B85" s="67" t="s">
+      <c r="B85" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D85" s="70" t="s">
+      <c r="D85" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="E85" s="70" t="s">
+      <c r="E85" s="69" t="s">
         <v>138</v>
       </c>
       <c r="F85" s="64"/>
@@ -4475,40 +4279,40 @@
       <c r="A86" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B86" s="67" t="s">
+      <c r="B86" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D86" s="70" t="s">
+      <c r="D86" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="E86" s="70" t="s">
+      <c r="E86" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="71" t="s">
+      <c r="F86" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B87" s="67" t="s">
+      <c r="B87" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="D87" s="70" t="s">
+      <c r="D87" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="E87" s="70" t="s">
+      <c r="E87" s="69" t="s">
         <v>138</v>
       </c>
       <c r="F87" s="64"/>
@@ -4516,43 +4320,43 @@
       <c r="I87" s="64"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="72" t="s">
+      <c r="A88" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="B88" s="73" t="s">
+      <c r="B88" s="71" t="s">
         <v>161</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D88" s="74" t="s">
+      <c r="D88" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="E88" s="70" t="s">
+      <c r="E88" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="F88" s="75" t="s">
+      <c r="F88" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G88" s="75"/>
-      <c r="H88" s="75"/>
-      <c r="I88" s="75"/>
-      <c r="J88" s="75"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
     </row>
     <row r="89" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B89" s="67" t="s">
+      <c r="B89" s="8" t="s">
         <v>166</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D89" s="70" t="s">
+      <c r="D89" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="E89" s="70" t="s">
+      <c r="E89" s="69" t="s">
         <v>107</v>
       </c>
       <c r="F89" s="64"/>
@@ -4564,40 +4368,40 @@
       <c r="A90" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B90" s="67" t="s">
+      <c r="B90" s="8" t="s">
         <v>170</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D90" s="70" t="s">
+      <c r="D90" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="E90" s="70" t="s">
+      <c r="E90" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="F90" s="71" t="s">
+      <c r="F90" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="71"/>
-      <c r="J90" s="71"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="72" t="s">
+      <c r="A91" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="B91" s="73" t="s">
+      <c r="B91" s="71" t="s">
         <v>176</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D91" s="76" t="s">
+      <c r="D91" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="E91" s="70" t="s">
+      <c r="E91" s="69" t="s">
         <v>179</v>
       </c>
       <c r="F91" s="64"/>
@@ -4606,19 +4410,19 @@
       <c r="I91" s="64"/>
     </row>
     <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B92" s="73" t="s">
+      <c r="B92" s="71" t="s">
         <v>180</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D92" s="70" t="s">
+      <c r="D92" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="E92" s="70" t="s">
+      <c r="E92" s="69" t="s">
         <v>179</v>
       </c>
       <c r="F92" s="64"/>
@@ -4627,19 +4431,19 @@
       <c r="I92" s="64"/>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="77" t="s">
+      <c r="A93" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="73" t="s">
+      <c r="B93" s="71" t="s">
         <v>184</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D93" s="70" t="s">
+      <c r="D93" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="E93" s="70" t="s">
+      <c r="E93" s="69" t="s">
         <v>179</v>
       </c>
       <c r="F93" s="64"/>
@@ -4648,19 +4452,19 @@
       <c r="I93" s="64"/>
     </row>
     <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="78" t="s">
+      <c r="A94" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="73" t="s">
+      <c r="B94" s="71" t="s">
         <v>188</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D94" s="70" t="s">
+      <c r="D94" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="E94" s="70" t="s">
+      <c r="E94" s="69" t="s">
         <v>179</v>
       </c>
       <c r="F94" s="64"/>
@@ -4672,16 +4476,16 @@
       <c r="A95" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="B95" s="67" t="s">
+      <c r="B95" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C95" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D95" s="70" t="s">
+      <c r="D95" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="E95" s="70" t="s">
+      <c r="E95" s="69" t="s">
         <v>179</v>
       </c>
       <c r="F95" s="64"/>
@@ -4693,16 +4497,16 @@
       <c r="A96" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="B96" s="67" t="s">
+      <c r="B96" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C96" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="D96" s="70" t="s">
+      <c r="D96" s="69" t="s">
         <v>198</v>
       </c>
-      <c r="E96" s="70" t="s">
+      <c r="E96" s="69" t="s">
         <v>179</v>
       </c>
       <c r="F96" s="64"/>
@@ -4714,16 +4518,16 @@
       <c r="A97" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="B97" s="67" t="s">
+      <c r="B97" s="8" t="s">
         <v>200</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D97" s="70" t="s">
+      <c r="D97" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="E97" s="70" t="s">
+      <c r="E97" s="69" t="s">
         <v>179</v>
       </c>
       <c r="F97" s="64"/>
@@ -4735,16 +4539,16 @@
       <c r="A98" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="B98" s="67" t="s">
+      <c r="B98" s="8" t="s">
         <v>204</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="D98" s="74" t="s">
+      <c r="D98" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="E98" s="70" t="s">
+      <c r="E98" s="69" t="s">
         <v>179</v>
       </c>
       <c r="F98" s="64"/>
@@ -4756,16 +4560,16 @@
       <c r="A99" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B99" s="67" t="s">
+      <c r="B99" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="D99" s="70" t="s">
+      <c r="D99" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="E99" s="70" t="s">
+      <c r="E99" s="69" t="s">
         <v>179</v>
       </c>
       <c r="F99" s="64"/>
@@ -4777,40 +4581,40 @@
       <c r="A100" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="67" t="s">
+      <c r="B100" s="8" t="s">
         <v>211</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="D100" s="70" t="s">
+      <c r="D100" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="E100" s="70" t="s">
+      <c r="E100" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="F100" s="71" t="s">
+      <c r="F100" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="G100" s="71"/>
-      <c r="H100" s="71"/>
-      <c r="I100" s="71"/>
-      <c r="J100" s="71"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B101" s="67" t="s">
+      <c r="B101" s="8" t="s">
         <v>215</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D101" s="70" t="s">
+      <c r="D101" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="E101" s="70" t="s">
+      <c r="E101" s="69" t="s">
         <v>179</v>
       </c>
       <c r="F101" s="64"/>
@@ -4819,19 +4623,19 @@
       <c r="I101" s="64"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="79" t="s">
+      <c r="A102" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="B102" s="67" t="s">
+      <c r="B102" s="8" t="s">
         <v>219</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="D102" s="70" t="s">
+      <c r="D102" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="E102" s="70" t="s">
+      <c r="E102" s="69" t="s">
         <v>179</v>
       </c>
       <c r="F102" s="64"/>
@@ -4843,16 +4647,16 @@
       <c r="A103" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="B103" s="67" t="s">
+      <c r="B103" s="8" t="s">
         <v>223</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="D103" s="70" t="s">
+      <c r="D103" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="E103" s="70" t="s">
+      <c r="E103" s="69" t="s">
         <v>226</v>
       </c>
       <c r="F103" s="64"/>
@@ -4864,16 +4668,16 @@
       <c r="A104" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B104" s="67" t="s">
+      <c r="B104" s="8" t="s">
         <v>228</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="D104" s="70" t="s">
+      <c r="D104" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="E104" s="70" t="s">
+      <c r="E104" s="69" t="s">
         <v>226</v>
       </c>
       <c r="F104" s="64"/>
@@ -4885,16 +4689,16 @@
       <c r="A105" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B105" s="67" t="s">
+      <c r="B105" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="D105" s="70" t="s">
+      <c r="D105" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="E105" s="70" t="s">
+      <c r="E105" s="69" t="s">
         <v>226</v>
       </c>
       <c r="F105" s="64"/>
@@ -4903,19 +4707,19 @@
       <c r="I105" s="64"/>
     </row>
     <row r="106" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="80" t="s">
+      <c r="A106" s="76" t="s">
         <v>233</v>
       </c>
-      <c r="B106" s="73" t="s">
+      <c r="B106" s="71" t="s">
         <v>234</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="D106" s="67" t="s">
+      <c r="D106" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E106" s="70" t="s">
+      <c r="E106" s="69" t="s">
         <v>237</v>
       </c>
       <c r="F106" s="8" t="s">
@@ -4927,70 +4731,70 @@
       <c r="J106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="77" t="s">
+      <c r="A107" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="B107" s="73" t="s">
+      <c r="B107" s="71" t="s">
         <v>240</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D107" s="67" t="s">
+      <c r="D107" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E107" s="70" t="s">
+      <c r="E107" s="69" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="72" t="s">
+      <c r="A108" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="B108" s="73" t="s">
+      <c r="B108" s="71" t="s">
         <v>244</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D108" s="67" t="s">
+      <c r="D108" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E108" s="70" t="s">
+      <c r="E108" s="69" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="72" t="s">
+      <c r="A109" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="B109" s="73" t="s">
+      <c r="B109" s="71" t="s">
         <v>248</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="D109" s="67" t="s">
+      <c r="D109" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="E109" s="70" t="s">
+      <c r="E109" s="69" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="81" t="s">
+      <c r="A110" s="77" t="s">
         <v>251</v>
       </c>
-      <c r="B110" s="67" t="s">
+      <c r="B110" s="8" t="s">
         <v>252</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="D110" s="67" t="s">
+      <c r="D110" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E110" s="70" t="s">
+      <c r="E110" s="69" t="s">
         <v>255</v>
       </c>
       <c r="F110" s="8" t="s">
@@ -5002,19 +4806,19 @@
       <c r="J110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="81" t="s">
+      <c r="A111" s="77" t="s">
         <v>257</v>
       </c>
-      <c r="B111" s="67" t="s">
+      <c r="B111" s="8" t="s">
         <v>258</v>
       </c>
       <c r="C111" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="D111" s="67" t="s">
+      <c r="D111" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="E111" s="70" t="s">
+      <c r="E111" s="69" t="s">
         <v>255</v>
       </c>
       <c r="F111" s="64"/>
@@ -5026,16 +4830,16 @@
       <c r="A112" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="B112" s="67" t="s">
+      <c r="B112" s="8" t="s">
         <v>262</v>
       </c>
       <c r="C112" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="D112" s="67" t="s">
+      <c r="D112" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E112" s="70" t="s">
+      <c r="E112" s="69" t="s">
         <v>255</v>
       </c>
       <c r="F112" s="8" t="s">
@@ -5049,16 +4853,16 @@
       <c r="A113" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="B113" s="67" t="s">
+      <c r="B113" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C113" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D113" s="67" t="s">
+      <c r="D113" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E113" s="70" t="s">
+      <c r="E113" s="69" t="s">
         <v>255</v>
       </c>
       <c r="G113" s="64"/>
@@ -5066,10 +4870,10 @@
       <c r="I113" s="64"/>
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="81" t="s">
+      <c r="A114" s="77" t="s">
         <v>268</v>
       </c>
-      <c r="B114" s="67" t="s">
+      <c r="B114" s="8" t="s">
         <v>269</v>
       </c>
       <c r="C114" s="18" t="s">
@@ -5078,31 +4882,31 @@
       <c r="D114" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="E114" s="70" t="s">
+      <c r="E114" s="69" t="s">
         <v>255</v>
       </c>
-      <c r="F114" s="82" t="s">
+      <c r="F114" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="G114" s="82"/>
-      <c r="H114" s="82"/>
-      <c r="I114" s="82"/>
-      <c r="J114" s="82"/>
+      <c r="G114" s="78"/>
+      <c r="H114" s="78"/>
+      <c r="I114" s="78"/>
+      <c r="J114" s="78"/>
     </row>
     <row r="115" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="B115" s="67" t="s">
+      <c r="B115" s="8" t="s">
         <v>274</v>
       </c>
       <c r="C115" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D115" s="70" t="s">
+      <c r="D115" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="E115" s="70" t="s">
+      <c r="E115" s="69" t="s">
         <v>255</v>
       </c>
       <c r="F115" s="64"/>
@@ -5111,19 +4915,19 @@
       <c r="I115" s="64"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="72" t="s">
+      <c r="A116" s="70" t="s">
         <v>276</v>
       </c>
-      <c r="B116" s="73" t="s">
+      <c r="B116" s="71" t="s">
         <v>277</v>
       </c>
       <c r="C116" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="D116" s="67" t="s">
+      <c r="D116" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E116" s="70" t="s">
+      <c r="E116" s="69" t="s">
         <v>280</v>
       </c>
       <c r="F116" s="64"/>
@@ -5132,19 +4936,19 @@
       <c r="I116" s="64"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="72" t="s">
+      <c r="A117" s="70" t="s">
         <v>281</v>
       </c>
-      <c r="B117" s="73" t="s">
+      <c r="B117" s="71" t="s">
         <v>282</v>
       </c>
       <c r="C117" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="D117" s="67" t="s">
+      <c r="D117" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E117" s="70" t="s">
+      <c r="E117" s="69" t="s">
         <v>280</v>
       </c>
       <c r="F117" s="64"/>
@@ -5153,19 +4957,19 @@
       <c r="I117" s="64"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="72" t="s">
+      <c r="A118" s="70" t="s">
         <v>285</v>
       </c>
-      <c r="B118" s="73" t="s">
+      <c r="B118" s="71" t="s">
         <v>286</v>
       </c>
       <c r="C118" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="D118" s="67" t="s">
+      <c r="D118" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="E118" s="70" t="s">
+      <c r="E118" s="69" t="s">
         <v>280</v>
       </c>
       <c r="F118" s="64"/>
@@ -5174,19 +4978,19 @@
       <c r="I118" s="64"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="72" t="s">
+      <c r="A119" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="B119" s="73" t="s">
+      <c r="B119" s="71" t="s">
         <v>290</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="D119" s="67" t="s">
+      <c r="D119" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E119" s="70" t="s">
+      <c r="E119" s="69" t="s">
         <v>280</v>
       </c>
       <c r="F119" s="64"/>
@@ -5195,19 +4999,19 @@
       <c r="I119" s="64"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="72" t="s">
+      <c r="A120" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="B120" s="73" t="s">
+      <c r="B120" s="71" t="s">
         <v>294</v>
       </c>
       <c r="C120" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="D120" s="67" t="s">
+      <c r="D120" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="E120" s="70" t="s">
+      <c r="E120" s="69" t="s">
         <v>280</v>
       </c>
       <c r="F120" s="8"/>
@@ -5217,19 +5021,19 @@
       <c r="J120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="72" t="s">
+      <c r="A121" s="70" t="s">
         <v>297</v>
       </c>
-      <c r="B121" s="73" t="s">
+      <c r="B121" s="71" t="s">
         <v>298</v>
       </c>
       <c r="C121" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="D121" s="67" t="s">
+      <c r="D121" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="E121" s="70" t="s">
+      <c r="E121" s="69" t="s">
         <v>280</v>
       </c>
       <c r="F121" s="64"/>
@@ -5238,19 +5042,19 @@
       <c r="I121" s="64"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="72" t="s">
+      <c r="A122" s="70" t="s">
         <v>301</v>
       </c>
-      <c r="B122" s="73" t="s">
+      <c r="B122" s="71" t="s">
         <v>302</v>
       </c>
       <c r="C122" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="D122" s="67" t="s">
+      <c r="D122" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E122" s="70" t="s">
+      <c r="E122" s="69" t="s">
         <v>280</v>
       </c>
       <c r="F122" s="64"/>
@@ -5262,16 +5066,16 @@
       <c r="A123" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="B123" s="67" t="s">
+      <c r="B123" s="8" t="s">
         <v>306</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="D123" s="67" t="s">
+      <c r="D123" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E123" s="70" t="s">
+      <c r="E123" s="69" t="s">
         <v>280</v>
       </c>
       <c r="F123" s="64"/>
@@ -5283,16 +5087,16 @@
       <c r="A124" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="B124" s="67" t="s">
+      <c r="B124" s="8" t="s">
         <v>310</v>
       </c>
       <c r="C124" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="D124" s="67" t="s">
+      <c r="D124" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E124" s="70" t="s">
+      <c r="E124" s="69" t="s">
         <v>280</v>
       </c>
       <c r="F124" s="64"/>
@@ -5304,16 +5108,16 @@
       <c r="A125" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="B125" s="67" t="s">
+      <c r="B125" s="8" t="s">
         <v>314</v>
       </c>
       <c r="C125" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="D125" s="67" t="s">
+      <c r="D125" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E125" s="70" t="s">
+      <c r="E125" s="69" t="s">
         <v>280</v>
       </c>
       <c r="F125" s="64"/>
@@ -5322,19 +5126,19 @@
       <c r="I125" s="64"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="72" t="s">
+      <c r="A126" s="70" t="s">
         <v>317</v>
       </c>
-      <c r="B126" s="73" t="s">
+      <c r="B126" s="71" t="s">
         <v>318</v>
       </c>
       <c r="C126" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="D126" s="67" t="s">
+      <c r="D126" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="E126" s="70" t="s">
+      <c r="E126" s="69" t="s">
         <v>321</v>
       </c>
       <c r="F126" s="64"/>
@@ -5343,19 +5147,19 @@
       <c r="I126" s="64"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="72" t="s">
+      <c r="A127" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="B127" s="73" t="s">
+      <c r="B127" s="71" t="s">
         <v>323</v>
       </c>
       <c r="C127" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="D127" s="67" t="s">
+      <c r="D127" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="E127" s="70" t="s">
+      <c r="E127" s="69" t="s">
         <v>321</v>
       </c>
       <c r="F127" s="64"/>
@@ -5364,19 +5168,19 @@
       <c r="I127" s="64"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="72" t="s">
+      <c r="A128" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="B128" s="73" t="s">
+      <c r="B128" s="71" t="s">
         <v>327</v>
       </c>
       <c r="C128" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="D128" s="67" t="s">
+      <c r="D128" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="E128" s="70" t="s">
+      <c r="E128" s="69" t="s">
         <v>321</v>
       </c>
       <c r="F128" s="64"/>
@@ -5385,19 +5189,19 @@
       <c r="I128" s="64"/>
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="83" t="s">
+      <c r="A129" s="79" t="s">
         <v>330</v>
       </c>
-      <c r="B129" s="73" t="s">
+      <c r="B129" s="71" t="s">
         <v>331</v>
       </c>
       <c r="C129" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="D129" s="67" t="s">
+      <c r="D129" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="E129" s="70" t="s">
+      <c r="E129" s="69" t="s">
         <v>321</v>
       </c>
       <c r="F129" s="64"/>
@@ -5406,19 +5210,19 @@
       <c r="I129" s="64"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="72" t="s">
+      <c r="A130" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="B130" s="73" t="s">
+      <c r="B130" s="71" t="s">
         <v>335</v>
       </c>
       <c r="C130" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="D130" s="67" t="s">
+      <c r="D130" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E130" s="70" t="s">
+      <c r="E130" s="69" t="s">
         <v>321</v>
       </c>
       <c r="F130" s="64"/>
@@ -5427,10 +5231,10 @@
       <c r="I130" s="64"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="84" t="s">
+      <c r="A131" s="80" t="s">
         <v>338</v>
       </c>
-      <c r="B131" s="85" t="s">
+      <c r="B131" s="81" t="s">
         <v>339</v>
       </c>
       <c r="C131" s="64"/>
@@ -5442,10 +5246,10 @@
       <c r="I131" s="64"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="84" t="s">
+      <c r="A132" s="80" t="s">
         <v>340</v>
       </c>
-      <c r="B132" s="85" t="s">
+      <c r="B132" s="81" t="s">
         <v>341</v>
       </c>
       <c r="C132" s="64"/>
@@ -5457,10 +5261,10 @@
       <c r="I132" s="64"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="84" t="s">
+      <c r="A133" s="80" t="s">
         <v>342</v>
       </c>
-      <c r="B133" s="85" t="s">
+      <c r="B133" s="81" t="s">
         <v>343</v>
       </c>
       <c r="C133" s="64"/>
@@ -5472,10 +5276,10 @@
       <c r="I133" s="64"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="84" t="s">
+      <c r="A134" s="80" t="s">
         <v>344</v>
       </c>
-      <c r="B134" s="85" t="s">
+      <c r="B134" s="81" t="s">
         <v>345</v>
       </c>
       <c r="C134" s="64"/>
@@ -5487,10 +5291,10 @@
       <c r="I134" s="64"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="84" t="s">
+      <c r="A135" s="80" t="s">
         <v>346</v>
       </c>
-      <c r="B135" s="85" t="s">
+      <c r="B135" s="81" t="s">
         <v>347</v>
       </c>
       <c r="C135" s="64"/>
@@ -5502,10 +5306,10 @@
       <c r="I135" s="64"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="84" t="s">
+      <c r="A136" s="80" t="s">
         <v>348</v>
       </c>
-      <c r="B136" s="85" t="s">
+      <c r="B136" s="81" t="s">
         <v>349</v>
       </c>
       <c r="C136" s="64"/>
@@ -5568,9 +5372,11 @@
       <c r="H141" s="64"/>
       <c r="I141" s="64"/>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="64"/>
-      <c r="B142" s="64"/>
+      <c r="B142" s="82" t="s">
+        <v>350</v>
+      </c>
       <c r="C142" s="64"/>
       <c r="D142" s="64"/>
       <c r="E142" s="64"/>
@@ -5580,17 +5386,17 @@
       <c r="I142" s="64"/>
     </row>
     <row r="143" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="86"/>
-      <c r="B143" s="87" t="s">
-        <v>350</v>
-      </c>
-      <c r="C143" s="87" t="s">
+      <c r="A143" s="83"/>
+      <c r="B143" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="D143" s="88" t="s">
+      <c r="C143" s="84" t="s">
         <v>352</v>
       </c>
-      <c r="E143" s="67" t="s">
+      <c r="D143" s="85" t="s">
+        <v>353</v>
+      </c>
+      <c r="E143" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F143" s="29" t="s">
@@ -5601,7 +5407,7 @@
       <c r="I143" s="64"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="89"/>
+      <c r="A144" s="86"/>
       <c r="B144" s="64"/>
       <c r="C144" s="64"/>
       <c r="D144" s="64"/>
@@ -5612,64 +5418,64 @@
       <c r="I144" s="64"/>
     </row>
     <row r="145" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="90" t="s">
-        <v>353</v>
-      </c>
-      <c r="B145" s="91" t="s">
+      <c r="A145" s="87" t="s">
         <v>354</v>
       </c>
-      <c r="C145" s="92" t="s">
+      <c r="B145" s="88" t="s">
         <v>355</v>
       </c>
-      <c r="D145" s="93" t="s">
+      <c r="C145" s="89" t="s">
         <v>356</v>
       </c>
-      <c r="E145" s="67" t="s">
+      <c r="D145" s="90" t="s">
         <v>357</v>
       </c>
-      <c r="F145" s="29" t="s">
+      <c r="E145" s="91" t="s">
         <v>358</v>
+      </c>
+      <c r="F145" s="92" t="s">
+        <v>359</v>
       </c>
       <c r="G145" s="64"/>
       <c r="H145" s="64"/>
       <c r="I145" s="64"/>
     </row>
     <row r="146" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="90"/>
-      <c r="B146" s="94" t="s">
-        <v>359</v>
-      </c>
-      <c r="C146" s="95" t="s">
+      <c r="A146" s="87"/>
+      <c r="B146" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="D146" s="96" t="s">
+      <c r="C146" s="94" t="s">
         <v>361</v>
       </c>
-      <c r="E146" s="97" t="s">
+      <c r="D146" s="95" t="s">
         <v>362</v>
       </c>
-      <c r="F146" s="29" t="s">
+      <c r="E146" s="96" t="s">
         <v>363</v>
+      </c>
+      <c r="F146" s="92" t="s">
+        <v>364</v>
       </c>
       <c r="G146" s="64"/>
       <c r="H146" s="64"/>
       <c r="I146" s="64"/>
     </row>
     <row r="147" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="90"/>
-      <c r="B147" s="98" t="s">
-        <v>364</v>
-      </c>
-      <c r="C147" s="95" t="s">
+      <c r="A147" s="87"/>
+      <c r="B147" s="97" t="s">
         <v>365</v>
       </c>
-      <c r="D147" s="96" t="s">
+      <c r="C147" s="98" t="s">
         <v>366</v>
       </c>
-      <c r="E147" s="99" t="s">
+      <c r="D147" s="99" t="s">
+        <v>367</v>
+      </c>
+      <c r="E147" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="F147" s="100" t="s">
+      <c r="F147" s="101" t="s">
         <v>12</v>
       </c>
       <c r="G147" s="64"/>
@@ -5680,20 +5486,20 @@
       <c r="L147" s="64"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="90"/>
-      <c r="B148" s="94" t="s">
-        <v>367</v>
-      </c>
-      <c r="C148" s="95" t="s">
-        <v>365</v>
-      </c>
-      <c r="D148" s="96" t="s">
+      <c r="A148" s="87"/>
+      <c r="B148" s="102" t="s">
         <v>368</v>
       </c>
-      <c r="E148" s="99" t="s">
+      <c r="C148" s="98" t="s">
+        <v>366</v>
+      </c>
+      <c r="D148" s="99" t="s">
+        <v>369</v>
+      </c>
+      <c r="E148" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="F148" s="100" t="s">
+      <c r="F148" s="101" t="s">
         <v>12</v>
       </c>
       <c r="G148" s="64"/>
@@ -5704,20 +5510,20 @@
       <c r="L148" s="64"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="90"/>
-      <c r="B149" s="101" t="s">
+      <c r="A149" s="87"/>
+      <c r="B149" s="103" t="s">
         <v>304</v>
       </c>
-      <c r="C149" s="102" t="s">
-        <v>365</v>
-      </c>
-      <c r="D149" s="103" t="s">
-        <v>369</v>
-      </c>
-      <c r="E149" s="104" t="s">
+      <c r="C149" s="104" t="s">
+        <v>366</v>
+      </c>
+      <c r="D149" s="105" t="s">
+        <v>370</v>
+      </c>
+      <c r="E149" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="F149" s="105" t="s">
+      <c r="F149" s="107" t="s">
         <v>12</v>
       </c>
       <c r="G149" s="64"/>
@@ -7525,8 +7331,8 @@
     <mergeCell ref="A145:A149"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -29,7 +29,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="B131" authorId="0">
+    <comment ref="B132" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="374">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -1222,6 +1222,15 @@
     <t xml:space="preserve">Contraseña que se seteará para el cliente</t>
   </si>
   <si>
+    <t xml:space="preserve">Tamaño de cubeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR-0021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seleccio de tamaño de cubeta (1, 2, 3)</t>
+  </si>
+  <si>
     <t xml:space="preserve">sensor_material_pressure </t>
   </si>
   <si>
@@ -1338,7 +1347,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1391,6 +1400,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1714,7 +1729,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2035,7 +2050,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2043,7 +2062,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2261,10 +2280,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L308"/>
+  <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H146" activeCellId="0" sqref="H146"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B131" activeCellId="0" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5231,26 +5250,28 @@
       <c r="I130" s="64"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="80" t="s">
+      <c r="A131" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="B131" s="81" t="s">
+      <c r="B131" s="80" t="s">
         <v>339</v>
       </c>
-      <c r="C131" s="64"/>
-      <c r="D131" s="64"/>
-      <c r="E131" s="64"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E131" s="69"/>
       <c r="F131" s="64"/>
       <c r="G131" s="64"/>
       <c r="H131" s="64"/>
       <c r="I131" s="64"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="80" t="s">
-        <v>340</v>
-      </c>
-      <c r="B132" s="81" t="s">
+      <c r="A132" s="81" t="s">
         <v>341</v>
+      </c>
+      <c r="B132" s="82" t="s">
+        <v>342</v>
       </c>
       <c r="C132" s="64"/>
       <c r="D132" s="64"/>
@@ -5261,11 +5282,11 @@
       <c r="I132" s="64"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="80" t="s">
-        <v>342</v>
-      </c>
-      <c r="B133" s="81" t="s">
+      <c r="A133" s="81" t="s">
         <v>343</v>
+      </c>
+      <c r="B133" s="82" t="s">
+        <v>344</v>
       </c>
       <c r="C133" s="64"/>
       <c r="D133" s="64"/>
@@ -5276,11 +5297,11 @@
       <c r="I133" s="64"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="80" t="s">
-        <v>344</v>
-      </c>
-      <c r="B134" s="81" t="s">
+      <c r="A134" s="81" t="s">
         <v>345</v>
+      </c>
+      <c r="B134" s="82" t="s">
+        <v>346</v>
       </c>
       <c r="C134" s="64"/>
       <c r="D134" s="64"/>
@@ -5291,11 +5312,11 @@
       <c r="I134" s="64"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="80" t="s">
-        <v>346</v>
-      </c>
-      <c r="B135" s="81" t="s">
+      <c r="A135" s="81" t="s">
         <v>347</v>
+      </c>
+      <c r="B135" s="82" t="s">
+        <v>348</v>
       </c>
       <c r="C135" s="64"/>
       <c r="D135" s="64"/>
@@ -5306,11 +5327,11 @@
       <c r="I135" s="64"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="80" t="s">
-        <v>348</v>
-      </c>
-      <c r="B136" s="81" t="s">
+      <c r="A136" s="81" t="s">
         <v>349</v>
+      </c>
+      <c r="B136" s="82" t="s">
+        <v>350</v>
       </c>
       <c r="C136" s="64"/>
       <c r="D136" s="64"/>
@@ -5321,7 +5342,12 @@
       <c r="I136" s="64"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="64"/>
+      <c r="A137" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="B137" s="82" t="s">
+        <v>352</v>
+      </c>
       <c r="C137" s="64"/>
       <c r="D137" s="64"/>
       <c r="E137" s="64"/>
@@ -5351,7 +5377,6 @@
       <c r="I139" s="64"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="64"/>
       <c r="B140" s="64"/>
       <c r="C140" s="64"/>
       <c r="D140" s="64"/>
@@ -5372,11 +5397,9 @@
       <c r="H141" s="64"/>
       <c r="I141" s="64"/>
     </row>
-    <row r="142" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="64"/>
-      <c r="B142" s="82" t="s">
-        <v>350</v>
-      </c>
+      <c r="B142" s="64"/>
       <c r="C142" s="64"/>
       <c r="D142" s="64"/>
       <c r="E142" s="64"/>
@@ -5385,121 +5408,110 @@
       <c r="H142" s="64"/>
       <c r="I142" s="64"/>
     </row>
-    <row r="143" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="83"/>
-      <c r="B143" s="84" t="s">
-        <v>351</v>
-      </c>
-      <c r="C143" s="84" t="s">
-        <v>352</v>
-      </c>
-      <c r="D143" s="85" t="s">
+    <row r="143" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="64"/>
+      <c r="B143" s="83" t="s">
         <v>353</v>
       </c>
-      <c r="E143" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F143" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="C143" s="64"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="64"/>
+      <c r="F143" s="64"/>
       <c r="G143" s="64"/>
       <c r="H143" s="64"/>
       <c r="I143" s="64"/>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="86"/>
-      <c r="B144" s="64"/>
-      <c r="C144" s="64"/>
-      <c r="D144" s="64"/>
-      <c r="E144" s="64"/>
-      <c r="F144" s="64"/>
+    <row r="144" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="84"/>
+      <c r="B144" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="C144" s="85" t="s">
+        <v>355</v>
+      </c>
+      <c r="D144" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" s="29" t="s">
+        <v>8</v>
+      </c>
       <c r="G144" s="64"/>
       <c r="H144" s="64"/>
       <c r="I144" s="64"/>
     </row>
-    <row r="145" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="87" t="s">
-        <v>354</v>
-      </c>
-      <c r="B145" s="88" t="s">
-        <v>355</v>
-      </c>
-      <c r="C145" s="89" t="s">
-        <v>356</v>
-      </c>
-      <c r="D145" s="90" t="s">
-        <v>357</v>
-      </c>
-      <c r="E145" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="F145" s="92" t="s">
-        <v>359</v>
-      </c>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="87"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="64"/>
+      <c r="D145" s="64"/>
+      <c r="E145" s="64"/>
+      <c r="F145" s="64"/>
       <c r="G145" s="64"/>
       <c r="H145" s="64"/>
       <c r="I145" s="64"/>
     </row>
-    <row r="146" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="87"/>
-      <c r="B146" s="93" t="s">
+    <row r="146" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="88" t="s">
+        <v>357</v>
+      </c>
+      <c r="B146" s="89" t="s">
+        <v>358</v>
+      </c>
+      <c r="C146" s="90" t="s">
+        <v>359</v>
+      </c>
+      <c r="D146" s="91" t="s">
         <v>360</v>
       </c>
-      <c r="C146" s="94" t="s">
+      <c r="E146" s="92" t="s">
         <v>361</v>
       </c>
-      <c r="D146" s="95" t="s">
+      <c r="F146" s="93" t="s">
         <v>362</v>
-      </c>
-      <c r="E146" s="96" t="s">
-        <v>363</v>
-      </c>
-      <c r="F146" s="92" t="s">
-        <v>364</v>
       </c>
       <c r="G146" s="64"/>
       <c r="H146" s="64"/>
       <c r="I146" s="64"/>
     </row>
-    <row r="147" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="87"/>
-      <c r="B147" s="97" t="s">
+    <row r="147" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="88"/>
+      <c r="B147" s="94" t="s">
+        <v>363</v>
+      </c>
+      <c r="C147" s="95" t="s">
+        <v>364</v>
+      </c>
+      <c r="D147" s="96" t="s">
         <v>365</v>
       </c>
-      <c r="C147" s="98" t="s">
+      <c r="E147" s="97" t="s">
         <v>366</v>
       </c>
-      <c r="D147" s="99" t="s">
+      <c r="F147" s="93" t="s">
         <v>367</v>
-      </c>
-      <c r="E147" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="F147" s="101" t="s">
-        <v>12</v>
       </c>
       <c r="G147" s="64"/>
       <c r="H147" s="64"/>
       <c r="I147" s="64"/>
-      <c r="J147" s="64"/>
-      <c r="K147" s="64"/>
-      <c r="L147" s="64"/>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="87"/>
-      <c r="B148" s="102" t="s">
+    </row>
+    <row r="148" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="88"/>
+      <c r="B148" s="98" t="s">
         <v>368</v>
       </c>
-      <c r="C148" s="98" t="s">
-        <v>366</v>
-      </c>
-      <c r="D148" s="99" t="s">
+      <c r="C148" s="99" t="s">
         <v>369</v>
       </c>
-      <c r="E148" s="100" t="s">
+      <c r="D148" s="100" t="s">
+        <v>370</v>
+      </c>
+      <c r="E148" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F148" s="101" t="s">
+      <c r="F148" s="102" t="s">
         <v>12</v>
       </c>
       <c r="G148" s="64"/>
@@ -5510,20 +5522,20 @@
       <c r="L148" s="64"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="87"/>
+      <c r="A149" s="88"/>
       <c r="B149" s="103" t="s">
-        <v>304</v>
-      </c>
-      <c r="C149" s="104" t="s">
-        <v>366</v>
-      </c>
-      <c r="D149" s="105" t="s">
-        <v>370</v>
-      </c>
-      <c r="E149" s="106" t="s">
+        <v>371</v>
+      </c>
+      <c r="C149" s="99" t="s">
+        <v>369</v>
+      </c>
+      <c r="D149" s="100" t="s">
+        <v>372</v>
+      </c>
+      <c r="E149" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F149" s="107" t="s">
+      <c r="F149" s="102" t="s">
         <v>12</v>
       </c>
       <c r="G149" s="64"/>
@@ -5534,12 +5546,22 @@
       <c r="L149" s="64"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="64"/>
-      <c r="B150" s="64"/>
-      <c r="C150" s="64"/>
-      <c r="D150" s="64"/>
-      <c r="E150" s="64"/>
-      <c r="F150" s="64"/>
+      <c r="A150" s="88"/>
+      <c r="B150" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="C150" s="105" t="s">
+        <v>369</v>
+      </c>
+      <c r="D150" s="106" t="s">
+        <v>373</v>
+      </c>
+      <c r="E150" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="108" t="s">
+        <v>12</v>
+      </c>
       <c r="G150" s="64"/>
       <c r="H150" s="64"/>
       <c r="I150" s="64"/>
@@ -5589,7 +5611,7 @@
       <c r="K153" s="64"/>
       <c r="L153" s="64"/>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="64"/>
       <c r="B154" s="64"/>
       <c r="C154" s="64"/>
@@ -5599,6 +5621,9 @@
       <c r="G154" s="64"/>
       <c r="H154" s="64"/>
       <c r="I154" s="64"/>
+      <c r="J154" s="64"/>
+      <c r="K154" s="64"/>
+      <c r="L154" s="64"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="64"/>
@@ -7293,6 +7318,17 @@
       <c r="G308" s="64"/>
       <c r="H308" s="64"/>
       <c r="I308" s="64"/>
+    </row>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="64"/>
+      <c r="B309" s="64"/>
+      <c r="C309" s="64"/>
+      <c r="D309" s="64"/>
+      <c r="E309" s="64"/>
+      <c r="F309" s="64"/>
+      <c r="G309" s="64"/>
+      <c r="H309" s="64"/>
+      <c r="I309" s="64"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
@@ -7328,7 +7364,7 @@
     <mergeCell ref="F112:I112"/>
     <mergeCell ref="F114:J114"/>
     <mergeCell ref="F120:J120"/>
-    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="A146:A150"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -942,7 +942,7 @@
     <t xml:space="preserve">Distancia para cubeta vacia configurable</t>
   </si>
   <si>
-    <t xml:space="preserve">Límite de inferior de prevacío</t>
+    <t xml:space="preserve">Límite superior de prevacío</t>
   </si>
   <si>
     <t xml:space="preserve">HR-0010</t>
@@ -2282,8 +2282,8 @@
   </sheetPr>
   <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B131" activeCellId="0" sqref="B131"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D100" activeCellId="0" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -478,7 +478,8 @@
     <t xml:space="preserve">Válvula hidraulica </t>
   </si>
   <si>
-    <t xml:space="preserve">1=OFF Out 1 y Out 2              3=ON OUT 1 y OUT 2 OFF           5= OFF OUT 1 y Out 2 ON                     7= ON Out 1 y Out 2</t>
+    <t xml:space="preserve">1=OFF Out 1 y Out 2
+3=ON OUT 1 y OUT 2 OFF           5= OFF OUT 1 y Out 2 ON                 7= ON Out 1 y Out 2</t>
   </si>
   <si>
     <t xml:space="preserve">La salida dos no se utiliza</t>
@@ -1347,7 +1348,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1381,6 +1382,13 @@
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1C1C1C"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -1462,6 +1470,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF5CE"/>
         <bgColor rgb="FFFFFFD7"/>
       </patternFill>
@@ -1469,12 +1483,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD8CE"/>
-        <bgColor rgb="FFFFF5CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFD7"/>
         <bgColor rgb="FFFFF5CE"/>
       </patternFill>
     </fill>
@@ -1729,7 +1737,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1978,6 +1986,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1990,11 +2006,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2010,115 +2026,115 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2234,7 +2250,7 @@
       <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF1C1C1C"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2282,8 +2298,8 @@
   </sheetPr>
   <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D100" activeCellId="0" sqref="D100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G71" activeCellId="0" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4012,51 +4028,51 @@
       <c r="D69" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="62" t="s">
         <v>93</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="19"/>
-      <c r="H69" s="29" t="s">
+      <c r="H69" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="I69" s="62" t="s">
+      <c r="I69" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="J69" s="63" t="s">
+      <c r="J69" s="65" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="64"/>
+      <c r="E70" s="66"/>
     </row>
     <row r="71" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="65" t="s">
+      <c r="A71" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
       <c r="F71" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="66" t="s">
+      <c r="A73" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="64"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
     </row>
     <row r="74" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
@@ -4068,15 +4084,15 @@
       <c r="C74" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="67" t="s">
+      <c r="D74" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="E74" s="68" t="s">
+      <c r="E74" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="F74" s="64"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="64"/>
+      <c r="F74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
     </row>
     <row r="75" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
@@ -4088,10 +4104,10 @@
       <c r="C75" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D75" s="69" t="s">
+      <c r="D75" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="E75" s="69" t="s">
+      <c r="E75" s="71" t="s">
         <v>107</v>
       </c>
       <c r="F75" s="29" t="s">
@@ -4112,10 +4128,10 @@
       <c r="C76" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D76" s="69" t="s">
+      <c r="D76" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="E76" s="69" t="s">
+      <c r="E76" s="71" t="s">
         <v>107</v>
       </c>
       <c r="F76" s="29" t="s">
@@ -4127,40 +4143,40 @@
       <c r="J76" s="29"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="B77" s="71" t="s">
+      <c r="B77" s="73" t="s">
         <v>115</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D77" s="69" t="s">
+      <c r="D77" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="E77" s="69" t="s">
+      <c r="E77" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F77" s="64"/>
+      <c r="F77" s="66"/>
     </row>
     <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="70" t="s">
+      <c r="A78" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B78" s="71" t="s">
+      <c r="B78" s="73" t="s">
         <v>119</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D78" s="69" t="s">
+      <c r="D78" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="69" t="s">
+      <c r="E78" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F78" s="64"/>
+      <c r="F78" s="66"/>
     </row>
     <row r="79" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="28" t="s">
@@ -4172,13 +4188,13 @@
       <c r="C79" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D79" s="69" t="s">
+      <c r="D79" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="E79" s="69" t="s">
+      <c r="E79" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="64"/>
+      <c r="F79" s="66"/>
     </row>
     <row r="80" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
@@ -4190,13 +4206,13 @@
       <c r="C80" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D80" s="69" t="s">
+      <c r="D80" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="E80" s="69" t="s">
+      <c r="E80" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F80" s="64"/>
+      <c r="F80" s="66"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
@@ -4208,13 +4224,13 @@
       <c r="C81" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D81" s="69" t="s">
+      <c r="D81" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="E81" s="69" t="s">
+      <c r="E81" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F81" s="64"/>
+      <c r="F81" s="66"/>
     </row>
     <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
@@ -4226,13 +4242,13 @@
       <c r="C82" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D82" s="69" t="s">
+      <c r="D82" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="E82" s="69" t="s">
+      <c r="E82" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="F82" s="64"/>
+      <c r="F82" s="66"/>
     </row>
     <row r="83" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="23" t="s">
@@ -4244,13 +4260,13 @@
       <c r="C83" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D83" s="69" t="s">
+      <c r="D83" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="E83" s="69" t="s">
+      <c r="E83" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="F83" s="64"/>
+      <c r="F83" s="66"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="23" t="s">
@@ -4262,16 +4278,16 @@
       <c r="C84" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D84" s="69" t="s">
+      <c r="D84" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="E84" s="69" t="s">
+      <c r="E84" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="64"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
@@ -4283,16 +4299,16 @@
       <c r="C85" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D85" s="69" t="s">
+      <c r="D85" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="E85" s="69" t="s">
+      <c r="E85" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="F85" s="64"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="64"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
@@ -4304,10 +4320,10 @@
       <c r="C86" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D86" s="69" t="s">
+      <c r="D86" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="E86" s="69" t="s">
+      <c r="E86" s="71" t="s">
         <v>138</v>
       </c>
       <c r="F86" s="29" t="s">
@@ -4328,30 +4344,30 @@
       <c r="C87" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="D87" s="69" t="s">
+      <c r="D87" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="E87" s="69" t="s">
+      <c r="E87" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="F87" s="64"/>
-      <c r="G87" s="64"/>
-      <c r="I87" s="64"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="I87" s="66"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="70" t="s">
+      <c r="A88" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="B88" s="71" t="s">
+      <c r="B88" s="73" t="s">
         <v>161</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D88" s="72" t="s">
+      <c r="D88" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="E88" s="69" t="s">
+      <c r="E88" s="71" t="s">
         <v>138</v>
       </c>
       <c r="F88" s="13" t="s">
@@ -4372,16 +4388,16 @@
       <c r="C89" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D89" s="69" t="s">
+      <c r="D89" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="E89" s="69" t="s">
+      <c r="E89" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F89" s="64"/>
-      <c r="G89" s="64"/>
-      <c r="H89" s="64"/>
-      <c r="I89" s="64"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="66"/>
     </row>
     <row r="90" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
@@ -4393,10 +4409,10 @@
       <c r="C90" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D90" s="69" t="s">
+      <c r="D90" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="E90" s="69" t="s">
+      <c r="E90" s="71" t="s">
         <v>173</v>
       </c>
       <c r="F90" s="29" t="s">
@@ -4408,88 +4424,88 @@
       <c r="J90" s="29"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="70" t="s">
+      <c r="A91" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="B91" s="71" t="s">
+      <c r="B91" s="73" t="s">
         <v>176</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D91" s="73" t="s">
+      <c r="D91" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="E91" s="69" t="s">
+      <c r="E91" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F91" s="64"/>
-      <c r="G91" s="64"/>
-      <c r="H91" s="64"/>
-      <c r="I91" s="64"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="66"/>
     </row>
     <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="70" t="s">
+      <c r="A92" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B92" s="71" t="s">
+      <c r="B92" s="73" t="s">
         <v>180</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D92" s="69" t="s">
+      <c r="D92" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="E92" s="69" t="s">
+      <c r="E92" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F92" s="64"/>
-      <c r="G92" s="64"/>
-      <c r="H92" s="64"/>
-      <c r="I92" s="64"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="66"/>
+      <c r="I92" s="66"/>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="74" t="s">
+      <c r="A93" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="71" t="s">
+      <c r="B93" s="73" t="s">
         <v>184</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D93" s="69" t="s">
+      <c r="D93" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="E93" s="69" t="s">
+      <c r="E93" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F93" s="64"/>
-      <c r="G93" s="64"/>
-      <c r="H93" s="64"/>
-      <c r="I93" s="64"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="66"/>
     </row>
     <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="75" t="s">
+      <c r="A94" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="71" t="s">
+      <c r="B94" s="73" t="s">
         <v>188</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D94" s="69" t="s">
+      <c r="D94" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="E94" s="69" t="s">
+      <c r="E94" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F94" s="64"/>
-      <c r="G94" s="64"/>
-      <c r="H94" s="64"/>
-      <c r="I94" s="64"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="66"/>
+      <c r="I94" s="66"/>
     </row>
     <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="23" t="s">
@@ -4501,16 +4517,16 @@
       <c r="C95" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D95" s="69" t="s">
+      <c r="D95" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="E95" s="69" t="s">
+      <c r="E95" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F95" s="64"/>
-      <c r="G95" s="64"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="64"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="23" t="s">
@@ -4522,16 +4538,16 @@
       <c r="C96" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="D96" s="69" t="s">
+      <c r="D96" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E96" s="69" t="s">
+      <c r="E96" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F96" s="64"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="64"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="66"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="23" t="s">
@@ -4543,16 +4559,16 @@
       <c r="C97" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D97" s="69" t="s">
+      <c r="D97" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="E97" s="69" t="s">
+      <c r="E97" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F97" s="64"/>
-      <c r="G97" s="64"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="64"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="66"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="23" t="s">
@@ -4564,16 +4580,16 @@
       <c r="C98" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="D98" s="72" t="s">
+      <c r="D98" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="E98" s="69" t="s">
+      <c r="E98" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F98" s="64"/>
-      <c r="G98" s="64"/>
-      <c r="H98" s="64"/>
-      <c r="I98" s="64"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="66"/>
+      <c r="I98" s="66"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="23" t="s">
@@ -4585,16 +4601,16 @@
       <c r="C99" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="D99" s="69" t="s">
+      <c r="D99" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="E99" s="69" t="s">
+      <c r="E99" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F99" s="64"/>
-      <c r="G99" s="64"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="64"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="66"/>
     </row>
     <row r="100" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
@@ -4606,10 +4622,10 @@
       <c r="C100" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="D100" s="69" t="s">
+      <c r="D100" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="E100" s="69" t="s">
+      <c r="E100" s="71" t="s">
         <v>179</v>
       </c>
       <c r="F100" s="29" t="s">
@@ -4630,16 +4646,16 @@
       <c r="C101" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D101" s="69" t="s">
+      <c r="D101" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="E101" s="69" t="s">
+      <c r="E101" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F101" s="64"/>
-      <c r="G101" s="64"/>
-      <c r="H101" s="64"/>
-      <c r="I101" s="64"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
+      <c r="I101" s="66"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
@@ -4651,16 +4667,16 @@
       <c r="C102" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="D102" s="69" t="s">
+      <c r="D102" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="E102" s="69" t="s">
+      <c r="E102" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F102" s="64"/>
-      <c r="G102" s="64"/>
-      <c r="H102" s="64"/>
-      <c r="I102" s="64"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="66"/>
+      <c r="I102" s="66"/>
     </row>
     <row r="103" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
@@ -4672,16 +4688,16 @@
       <c r="C103" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="D103" s="69" t="s">
+      <c r="D103" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="E103" s="69" t="s">
+      <c r="E103" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="F103" s="64"/>
-      <c r="G103" s="64"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="64"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="66"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="23" t="s">
@@ -4693,16 +4709,16 @@
       <c r="C104" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="D104" s="69" t="s">
+      <c r="D104" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="E104" s="69" t="s">
+      <c r="E104" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="F104" s="64"/>
-      <c r="G104" s="64"/>
-      <c r="H104" s="64"/>
-      <c r="I104" s="64"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="66"/>
+      <c r="I104" s="66"/>
     </row>
     <row r="105" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
@@ -4714,22 +4730,22 @@
       <c r="C105" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="D105" s="69" t="s">
+      <c r="D105" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="E105" s="69" t="s">
+      <c r="E105" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="F105" s="64"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="64"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="66"/>
+      <c r="H105" s="66"/>
+      <c r="I105" s="66"/>
     </row>
     <row r="106" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="76" t="s">
+      <c r="A106" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="B106" s="71" t="s">
+      <c r="B106" s="73" t="s">
         <v>234</v>
       </c>
       <c r="C106" s="18" t="s">
@@ -4738,7 +4754,7 @@
       <c r="D106" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E106" s="69" t="s">
+      <c r="E106" s="71" t="s">
         <v>237</v>
       </c>
       <c r="F106" s="8" t="s">
@@ -4750,10 +4766,10 @@
       <c r="J106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="74" t="s">
+      <c r="A107" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="B107" s="71" t="s">
+      <c r="B107" s="73" t="s">
         <v>240</v>
       </c>
       <c r="C107" s="18" t="s">
@@ -4762,15 +4778,15 @@
       <c r="D107" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E107" s="69" t="s">
+      <c r="E107" s="71" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="70" t="s">
+      <c r="A108" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="B108" s="71" t="s">
+      <c r="B108" s="73" t="s">
         <v>244</v>
       </c>
       <c r="C108" s="18" t="s">
@@ -4779,15 +4795,15 @@
       <c r="D108" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E108" s="69" t="s">
+      <c r="E108" s="71" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="70" t="s">
+      <c r="A109" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="B109" s="71" t="s">
+      <c r="B109" s="73" t="s">
         <v>248</v>
       </c>
       <c r="C109" s="18" t="s">
@@ -4796,12 +4812,12 @@
       <c r="D109" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="E109" s="69" t="s">
+      <c r="E109" s="71" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="77" t="s">
+      <c r="A110" s="79" t="s">
         <v>251</v>
       </c>
       <c r="B110" s="8" t="s">
@@ -4813,7 +4829,7 @@
       <c r="D110" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E110" s="69" t="s">
+      <c r="E110" s="71" t="s">
         <v>255</v>
       </c>
       <c r="F110" s="8" t="s">
@@ -4825,7 +4841,7 @@
       <c r="J110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="77" t="s">
+      <c r="A111" s="79" t="s">
         <v>257</v>
       </c>
       <c r="B111" s="8" t="s">
@@ -4837,13 +4853,13 @@
       <c r="D111" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="E111" s="69" t="s">
+      <c r="E111" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="F111" s="64"/>
-      <c r="G111" s="64"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="64"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="66"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="23" t="s">
@@ -4858,7 +4874,7 @@
       <c r="D112" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E112" s="69" t="s">
+      <c r="E112" s="71" t="s">
         <v>255</v>
       </c>
       <c r="F112" s="8" t="s">
@@ -4881,15 +4897,15 @@
       <c r="D113" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E113" s="69" t="s">
+      <c r="E113" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="G113" s="64"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="64"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="66"/>
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="77" t="s">
+      <c r="A114" s="79" t="s">
         <v>268</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -4901,16 +4917,16 @@
       <c r="D114" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="E114" s="69" t="s">
+      <c r="E114" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="F114" s="78" t="s">
+      <c r="F114" s="80" t="s">
         <v>272</v>
       </c>
-      <c r="G114" s="78"/>
-      <c r="H114" s="78"/>
-      <c r="I114" s="78"/>
-      <c r="J114" s="78"/>
+      <c r="G114" s="80"/>
+      <c r="H114" s="80"/>
+      <c r="I114" s="80"/>
+      <c r="J114" s="80"/>
     </row>
     <row r="115" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
@@ -4922,22 +4938,22 @@
       <c r="C115" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D115" s="69" t="s">
+      <c r="D115" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="E115" s="69" t="s">
+      <c r="E115" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="F115" s="64"/>
-      <c r="G115" s="64"/>
-      <c r="H115" s="64"/>
-      <c r="I115" s="64"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="66"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="70" t="s">
+      <c r="A116" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="B116" s="71" t="s">
+      <c r="B116" s="73" t="s">
         <v>277</v>
       </c>
       <c r="C116" s="18" t="s">
@@ -4946,19 +4962,19 @@
       <c r="D116" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E116" s="69" t="s">
+      <c r="E116" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="F116" s="64"/>
-      <c r="G116" s="64"/>
-      <c r="H116" s="64"/>
-      <c r="I116" s="64"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="66"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="70" t="s">
+      <c r="A117" s="72" t="s">
         <v>281</v>
       </c>
-      <c r="B117" s="71" t="s">
+      <c r="B117" s="73" t="s">
         <v>282</v>
       </c>
       <c r="C117" s="18" t="s">
@@ -4967,19 +4983,19 @@
       <c r="D117" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E117" s="69" t="s">
+      <c r="E117" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="F117" s="64"/>
-      <c r="G117" s="64"/>
-      <c r="H117" s="64"/>
-      <c r="I117" s="64"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="70" t="s">
+      <c r="A118" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="B118" s="71" t="s">
+      <c r="B118" s="73" t="s">
         <v>286</v>
       </c>
       <c r="C118" s="18" t="s">
@@ -4988,19 +5004,19 @@
       <c r="D118" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="E118" s="69" t="s">
+      <c r="E118" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="F118" s="64"/>
-      <c r="G118" s="64"/>
-      <c r="H118" s="64"/>
-      <c r="I118" s="64"/>
+      <c r="F118" s="66"/>
+      <c r="G118" s="66"/>
+      <c r="H118" s="66"/>
+      <c r="I118" s="66"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="70" t="s">
+      <c r="A119" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="B119" s="71" t="s">
+      <c r="B119" s="73" t="s">
         <v>290</v>
       </c>
       <c r="C119" s="18" t="s">
@@ -5009,19 +5025,19 @@
       <c r="D119" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E119" s="69" t="s">
+      <c r="E119" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="F119" s="64"/>
-      <c r="G119" s="64"/>
-      <c r="H119" s="64"/>
-      <c r="I119" s="64"/>
+      <c r="F119" s="66"/>
+      <c r="G119" s="66"/>
+      <c r="H119" s="66"/>
+      <c r="I119" s="66"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="70" t="s">
+      <c r="A120" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="B120" s="71" t="s">
+      <c r="B120" s="73" t="s">
         <v>294</v>
       </c>
       <c r="C120" s="18" t="s">
@@ -5030,7 +5046,7 @@
       <c r="D120" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="E120" s="69" t="s">
+      <c r="E120" s="71" t="s">
         <v>280</v>
       </c>
       <c r="F120" s="8"/>
@@ -5040,10 +5056,10 @@
       <c r="J120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="70" t="s">
+      <c r="A121" s="72" t="s">
         <v>297</v>
       </c>
-      <c r="B121" s="71" t="s">
+      <c r="B121" s="73" t="s">
         <v>298</v>
       </c>
       <c r="C121" s="18" t="s">
@@ -5052,19 +5068,19 @@
       <c r="D121" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="E121" s="69" t="s">
+      <c r="E121" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="F121" s="64"/>
-      <c r="G121" s="64"/>
-      <c r="H121" s="64"/>
-      <c r="I121" s="64"/>
+      <c r="F121" s="66"/>
+      <c r="G121" s="66"/>
+      <c r="H121" s="66"/>
+      <c r="I121" s="66"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="70" t="s">
+      <c r="A122" s="72" t="s">
         <v>301</v>
       </c>
-      <c r="B122" s="71" t="s">
+      <c r="B122" s="73" t="s">
         <v>302</v>
       </c>
       <c r="C122" s="18" t="s">
@@ -5073,13 +5089,13 @@
       <c r="D122" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E122" s="69" t="s">
+      <c r="E122" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="F122" s="64"/>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
-      <c r="I122" s="64"/>
+      <c r="F122" s="66"/>
+      <c r="G122" s="66"/>
+      <c r="H122" s="66"/>
+      <c r="I122" s="66"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
@@ -5094,13 +5110,13 @@
       <c r="D123" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E123" s="69" t="s">
+      <c r="E123" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="F123" s="64"/>
-      <c r="G123" s="64"/>
-      <c r="H123" s="64"/>
-      <c r="I123" s="64"/>
+      <c r="F123" s="66"/>
+      <c r="G123" s="66"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="66"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
@@ -5115,13 +5131,13 @@
       <c r="D124" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E124" s="69" t="s">
+      <c r="E124" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="F124" s="64"/>
-      <c r="G124" s="64"/>
-      <c r="H124" s="64"/>
-      <c r="I124" s="64"/>
+      <c r="F124" s="66"/>
+      <c r="G124" s="66"/>
+      <c r="H124" s="66"/>
+      <c r="I124" s="66"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
@@ -5136,19 +5152,19 @@
       <c r="D125" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E125" s="69" t="s">
+      <c r="E125" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="F125" s="64"/>
-      <c r="G125" s="64"/>
-      <c r="H125" s="64"/>
-      <c r="I125" s="64"/>
+      <c r="F125" s="66"/>
+      <c r="G125" s="66"/>
+      <c r="H125" s="66"/>
+      <c r="I125" s="66"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="70" t="s">
+      <c r="A126" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="B126" s="71" t="s">
+      <c r="B126" s="73" t="s">
         <v>318</v>
       </c>
       <c r="C126" s="18" t="s">
@@ -5157,19 +5173,19 @@
       <c r="D126" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="E126" s="69" t="s">
+      <c r="E126" s="71" t="s">
         <v>321</v>
       </c>
-      <c r="F126" s="64"/>
-      <c r="G126" s="64"/>
-      <c r="H126" s="64"/>
-      <c r="I126" s="64"/>
+      <c r="F126" s="66"/>
+      <c r="G126" s="66"/>
+      <c r="H126" s="66"/>
+      <c r="I126" s="66"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="70" t="s">
+      <c r="A127" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="B127" s="71" t="s">
+      <c r="B127" s="73" t="s">
         <v>323</v>
       </c>
       <c r="C127" s="18" t="s">
@@ -5178,19 +5194,19 @@
       <c r="D127" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="E127" s="69" t="s">
+      <c r="E127" s="71" t="s">
         <v>321</v>
       </c>
-      <c r="F127" s="64"/>
-      <c r="G127" s="64"/>
-      <c r="H127" s="64"/>
-      <c r="I127" s="64"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="66"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="66"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="70" t="s">
+      <c r="A128" s="72" t="s">
         <v>326</v>
       </c>
-      <c r="B128" s="71" t="s">
+      <c r="B128" s="73" t="s">
         <v>327</v>
       </c>
       <c r="C128" s="18" t="s">
@@ -5199,19 +5215,19 @@
       <c r="D128" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="E128" s="69" t="s">
+      <c r="E128" s="71" t="s">
         <v>321</v>
       </c>
-      <c r="F128" s="64"/>
-      <c r="G128" s="64"/>
-      <c r="H128" s="64"/>
-      <c r="I128" s="64"/>
+      <c r="F128" s="66"/>
+      <c r="G128" s="66"/>
+      <c r="H128" s="66"/>
+      <c r="I128" s="66"/>
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="79" t="s">
+      <c r="A129" s="81" t="s">
         <v>330</v>
       </c>
-      <c r="B129" s="71" t="s">
+      <c r="B129" s="73" t="s">
         <v>331</v>
       </c>
       <c r="C129" s="18" t="s">
@@ -5220,19 +5236,19 @@
       <c r="D129" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="E129" s="69" t="s">
+      <c r="E129" s="71" t="s">
         <v>321</v>
       </c>
-      <c r="F129" s="64"/>
-      <c r="G129" s="64"/>
-      <c r="H129" s="64"/>
-      <c r="I129" s="64"/>
+      <c r="F129" s="66"/>
+      <c r="G129" s="66"/>
+      <c r="H129" s="66"/>
+      <c r="I129" s="66"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="70" t="s">
+      <c r="A130" s="72" t="s">
         <v>334</v>
       </c>
-      <c r="B130" s="71" t="s">
+      <c r="B130" s="73" t="s">
         <v>335</v>
       </c>
       <c r="C130" s="18" t="s">
@@ -5241,195 +5257,195 @@
       <c r="D130" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E130" s="69" t="s">
+      <c r="E130" s="71" t="s">
         <v>321</v>
       </c>
-      <c r="F130" s="64"/>
-      <c r="G130" s="64"/>
-      <c r="H130" s="64"/>
-      <c r="I130" s="64"/>
+      <c r="F130" s="66"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="66"/>
+      <c r="I130" s="66"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="70" t="s">
+      <c r="A131" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="B131" s="80" t="s">
+      <c r="B131" s="82" t="s">
         <v>339</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="E131" s="69"/>
-      <c r="F131" s="64"/>
-      <c r="G131" s="64"/>
-      <c r="H131" s="64"/>
-      <c r="I131" s="64"/>
+      <c r="E131" s="71"/>
+      <c r="F131" s="66"/>
+      <c r="G131" s="66"/>
+      <c r="H131" s="66"/>
+      <c r="I131" s="66"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="81" t="s">
+      <c r="A132" s="83" t="s">
         <v>341</v>
       </c>
-      <c r="B132" s="82" t="s">
+      <c r="B132" s="84" t="s">
         <v>342</v>
       </c>
-      <c r="C132" s="64"/>
-      <c r="D132" s="64"/>
-      <c r="E132" s="64"/>
-      <c r="F132" s="64"/>
-      <c r="G132" s="64"/>
-      <c r="H132" s="64"/>
-      <c r="I132" s="64"/>
+      <c r="C132" s="66"/>
+      <c r="D132" s="66"/>
+      <c r="E132" s="66"/>
+      <c r="F132" s="66"/>
+      <c r="G132" s="66"/>
+      <c r="H132" s="66"/>
+      <c r="I132" s="66"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="81" t="s">
+      <c r="A133" s="83" t="s">
         <v>343</v>
       </c>
-      <c r="B133" s="82" t="s">
+      <c r="B133" s="84" t="s">
         <v>344</v>
       </c>
-      <c r="C133" s="64"/>
-      <c r="D133" s="64"/>
-      <c r="E133" s="64"/>
-      <c r="F133" s="64"/>
-      <c r="G133" s="64"/>
-      <c r="H133" s="64"/>
-      <c r="I133" s="64"/>
+      <c r="C133" s="66"/>
+      <c r="D133" s="66"/>
+      <c r="E133" s="66"/>
+      <c r="F133" s="66"/>
+      <c r="G133" s="66"/>
+      <c r="H133" s="66"/>
+      <c r="I133" s="66"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="81" t="s">
+      <c r="A134" s="83" t="s">
         <v>345</v>
       </c>
-      <c r="B134" s="82" t="s">
+      <c r="B134" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="C134" s="64"/>
-      <c r="D134" s="64"/>
-      <c r="E134" s="64"/>
-      <c r="F134" s="64"/>
-      <c r="G134" s="64"/>
-      <c r="H134" s="64"/>
-      <c r="I134" s="64"/>
+      <c r="C134" s="66"/>
+      <c r="D134" s="66"/>
+      <c r="E134" s="66"/>
+      <c r="F134" s="66"/>
+      <c r="G134" s="66"/>
+      <c r="H134" s="66"/>
+      <c r="I134" s="66"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="81" t="s">
+      <c r="A135" s="83" t="s">
         <v>347</v>
       </c>
-      <c r="B135" s="82" t="s">
+      <c r="B135" s="84" t="s">
         <v>348</v>
       </c>
-      <c r="C135" s="64"/>
-      <c r="D135" s="64"/>
-      <c r="E135" s="64"/>
-      <c r="F135" s="64"/>
-      <c r="G135" s="64"/>
-      <c r="H135" s="64"/>
-      <c r="I135" s="64"/>
+      <c r="C135" s="66"/>
+      <c r="D135" s="66"/>
+      <c r="E135" s="66"/>
+      <c r="F135" s="66"/>
+      <c r="G135" s="66"/>
+      <c r="H135" s="66"/>
+      <c r="I135" s="66"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="81" t="s">
+      <c r="A136" s="83" t="s">
         <v>349</v>
       </c>
-      <c r="B136" s="82" t="s">
+      <c r="B136" s="84" t="s">
         <v>350</v>
       </c>
-      <c r="C136" s="64"/>
-      <c r="D136" s="64"/>
-      <c r="E136" s="64"/>
-      <c r="F136" s="64"/>
-      <c r="G136" s="64"/>
-      <c r="H136" s="64"/>
-      <c r="I136" s="64"/>
+      <c r="C136" s="66"/>
+      <c r="D136" s="66"/>
+      <c r="E136" s="66"/>
+      <c r="F136" s="66"/>
+      <c r="G136" s="66"/>
+      <c r="H136" s="66"/>
+      <c r="I136" s="66"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="81" t="s">
+      <c r="A137" s="83" t="s">
         <v>351</v>
       </c>
-      <c r="B137" s="82" t="s">
+      <c r="B137" s="84" t="s">
         <v>352</v>
       </c>
-      <c r="C137" s="64"/>
-      <c r="D137" s="64"/>
-      <c r="E137" s="64"/>
-      <c r="F137" s="64"/>
-      <c r="G137" s="64"/>
-      <c r="H137" s="64"/>
-      <c r="I137" s="64"/>
+      <c r="C137" s="66"/>
+      <c r="D137" s="66"/>
+      <c r="E137" s="66"/>
+      <c r="F137" s="66"/>
+      <c r="G137" s="66"/>
+      <c r="H137" s="66"/>
+      <c r="I137" s="66"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="64"/>
-      <c r="C138" s="64"/>
-      <c r="D138" s="64"/>
-      <c r="E138" s="64"/>
-      <c r="F138" s="64"/>
-      <c r="G138" s="64"/>
-      <c r="H138" s="64"/>
-      <c r="I138" s="64"/>
+      <c r="B138" s="66"/>
+      <c r="C138" s="66"/>
+      <c r="D138" s="66"/>
+      <c r="E138" s="66"/>
+      <c r="F138" s="66"/>
+      <c r="G138" s="66"/>
+      <c r="H138" s="66"/>
+      <c r="I138" s="66"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="64"/>
-      <c r="C139" s="64"/>
-      <c r="D139" s="64"/>
-      <c r="E139" s="64"/>
-      <c r="F139" s="64"/>
-      <c r="G139" s="64"/>
-      <c r="H139" s="64"/>
-      <c r="I139" s="64"/>
+      <c r="B139" s="66"/>
+      <c r="C139" s="66"/>
+      <c r="D139" s="66"/>
+      <c r="E139" s="66"/>
+      <c r="F139" s="66"/>
+      <c r="G139" s="66"/>
+      <c r="H139" s="66"/>
+      <c r="I139" s="66"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="64"/>
-      <c r="C140" s="64"/>
-      <c r="D140" s="64"/>
-      <c r="E140" s="64"/>
-      <c r="F140" s="64"/>
-      <c r="G140" s="64"/>
-      <c r="H140" s="64"/>
-      <c r="I140" s="64"/>
+      <c r="B140" s="66"/>
+      <c r="C140" s="66"/>
+      <c r="D140" s="66"/>
+      <c r="E140" s="66"/>
+      <c r="F140" s="66"/>
+      <c r="G140" s="66"/>
+      <c r="H140" s="66"/>
+      <c r="I140" s="66"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="64"/>
-      <c r="B141" s="64"/>
-      <c r="C141" s="64"/>
-      <c r="D141" s="64"/>
-      <c r="E141" s="64"/>
-      <c r="F141" s="64"/>
-      <c r="G141" s="64"/>
-      <c r="H141" s="64"/>
-      <c r="I141" s="64"/>
+      <c r="A141" s="66"/>
+      <c r="B141" s="66"/>
+      <c r="C141" s="66"/>
+      <c r="D141" s="66"/>
+      <c r="E141" s="66"/>
+      <c r="F141" s="66"/>
+      <c r="G141" s="66"/>
+      <c r="H141" s="66"/>
+      <c r="I141" s="66"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="64"/>
-      <c r="B142" s="64"/>
-      <c r="C142" s="64"/>
-      <c r="D142" s="64"/>
-      <c r="E142" s="64"/>
-      <c r="F142" s="64"/>
-      <c r="G142" s="64"/>
-      <c r="H142" s="64"/>
-      <c r="I142" s="64"/>
+      <c r="A142" s="66"/>
+      <c r="B142" s="66"/>
+      <c r="C142" s="66"/>
+      <c r="D142" s="66"/>
+      <c r="E142" s="66"/>
+      <c r="F142" s="66"/>
+      <c r="G142" s="66"/>
+      <c r="H142" s="66"/>
+      <c r="I142" s="66"/>
     </row>
     <row r="143" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="64"/>
-      <c r="B143" s="83" t="s">
+      <c r="A143" s="66"/>
+      <c r="B143" s="85" t="s">
         <v>353</v>
       </c>
-      <c r="C143" s="64"/>
-      <c r="D143" s="64"/>
-      <c r="E143" s="64"/>
-      <c r="F143" s="64"/>
-      <c r="G143" s="64"/>
-      <c r="H143" s="64"/>
-      <c r="I143" s="64"/>
+      <c r="C143" s="66"/>
+      <c r="D143" s="66"/>
+      <c r="E143" s="66"/>
+      <c r="F143" s="66"/>
+      <c r="G143" s="66"/>
+      <c r="H143" s="66"/>
+      <c r="I143" s="66"/>
     </row>
     <row r="144" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="84"/>
-      <c r="B144" s="85" t="s">
+      <c r="A144" s="86"/>
+      <c r="B144" s="87" t="s">
         <v>354</v>
       </c>
-      <c r="C144" s="85" t="s">
+      <c r="C144" s="87" t="s">
         <v>355</v>
       </c>
-      <c r="D144" s="86" t="s">
+      <c r="D144" s="88" t="s">
         <v>356</v>
       </c>
       <c r="E144" s="8" t="s">
@@ -5438,1897 +5454,1897 @@
       <c r="F144" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G144" s="64"/>
-      <c r="H144" s="64"/>
-      <c r="I144" s="64"/>
+      <c r="G144" s="66"/>
+      <c r="H144" s="66"/>
+      <c r="I144" s="66"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="87"/>
-      <c r="B145" s="64"/>
-      <c r="C145" s="64"/>
-      <c r="D145" s="64"/>
-      <c r="E145" s="64"/>
-      <c r="F145" s="64"/>
-      <c r="G145" s="64"/>
-      <c r="H145" s="64"/>
-      <c r="I145" s="64"/>
+      <c r="A145" s="89"/>
+      <c r="B145" s="66"/>
+      <c r="C145" s="66"/>
+      <c r="D145" s="66"/>
+      <c r="E145" s="66"/>
+      <c r="F145" s="66"/>
+      <c r="G145" s="66"/>
+      <c r="H145" s="66"/>
+      <c r="I145" s="66"/>
     </row>
     <row r="146" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="88" t="s">
+      <c r="A146" s="90" t="s">
         <v>357</v>
       </c>
-      <c r="B146" s="89" t="s">
+      <c r="B146" s="91" t="s">
         <v>358</v>
       </c>
-      <c r="C146" s="90" t="s">
+      <c r="C146" s="92" t="s">
         <v>359</v>
       </c>
-      <c r="D146" s="91" t="s">
+      <c r="D146" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="E146" s="92" t="s">
+      <c r="E146" s="94" t="s">
         <v>361</v>
       </c>
-      <c r="F146" s="93" t="s">
+      <c r="F146" s="95" t="s">
         <v>362</v>
       </c>
-      <c r="G146" s="64"/>
-      <c r="H146" s="64"/>
-      <c r="I146" s="64"/>
+      <c r="G146" s="66"/>
+      <c r="H146" s="66"/>
+      <c r="I146" s="66"/>
     </row>
     <row r="147" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="88"/>
-      <c r="B147" s="94" t="s">
+      <c r="A147" s="90"/>
+      <c r="B147" s="96" t="s">
         <v>363</v>
       </c>
-      <c r="C147" s="95" t="s">
+      <c r="C147" s="97" t="s">
         <v>364</v>
       </c>
-      <c r="D147" s="96" t="s">
+      <c r="D147" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="E147" s="97" t="s">
+      <c r="E147" s="99" t="s">
         <v>366</v>
       </c>
-      <c r="F147" s="93" t="s">
+      <c r="F147" s="95" t="s">
         <v>367</v>
       </c>
-      <c r="G147" s="64"/>
-      <c r="H147" s="64"/>
-      <c r="I147" s="64"/>
+      <c r="G147" s="66"/>
+      <c r="H147" s="66"/>
+      <c r="I147" s="66"/>
     </row>
     <row r="148" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="88"/>
-      <c r="B148" s="98" t="s">
+      <c r="A148" s="90"/>
+      <c r="B148" s="100" t="s">
         <v>368</v>
       </c>
-      <c r="C148" s="99" t="s">
+      <c r="C148" s="101" t="s">
         <v>369</v>
       </c>
-      <c r="D148" s="100" t="s">
+      <c r="D148" s="102" t="s">
         <v>370</v>
       </c>
-      <c r="E148" s="101" t="s">
+      <c r="E148" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F148" s="102" t="s">
+      <c r="F148" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="64"/>
-      <c r="H148" s="64"/>
-      <c r="I148" s="64"/>
-      <c r="J148" s="64"/>
-      <c r="K148" s="64"/>
-      <c r="L148" s="64"/>
+      <c r="G148" s="66"/>
+      <c r="H148" s="66"/>
+      <c r="I148" s="66"/>
+      <c r="J148" s="66"/>
+      <c r="K148" s="66"/>
+      <c r="L148" s="66"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="88"/>
-      <c r="B149" s="103" t="s">
+      <c r="A149" s="90"/>
+      <c r="B149" s="105" t="s">
         <v>371</v>
       </c>
-      <c r="C149" s="99" t="s">
+      <c r="C149" s="101" t="s">
         <v>369</v>
       </c>
-      <c r="D149" s="100" t="s">
+      <c r="D149" s="102" t="s">
         <v>372</v>
       </c>
-      <c r="E149" s="101" t="s">
+      <c r="E149" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="F149" s="102" t="s">
+      <c r="F149" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="64"/>
-      <c r="H149" s="64"/>
-      <c r="I149" s="64"/>
-      <c r="J149" s="64"/>
-      <c r="K149" s="64"/>
-      <c r="L149" s="64"/>
+      <c r="G149" s="66"/>
+      <c r="H149" s="66"/>
+      <c r="I149" s="66"/>
+      <c r="J149" s="66"/>
+      <c r="K149" s="66"/>
+      <c r="L149" s="66"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="88"/>
-      <c r="B150" s="104" t="s">
+      <c r="A150" s="90"/>
+      <c r="B150" s="106" t="s">
         <v>304</v>
       </c>
-      <c r="C150" s="105" t="s">
+      <c r="C150" s="107" t="s">
         <v>369</v>
       </c>
-      <c r="D150" s="106" t="s">
+      <c r="D150" s="108" t="s">
         <v>373</v>
       </c>
-      <c r="E150" s="107" t="s">
+      <c r="E150" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="108" t="s">
+      <c r="F150" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="64"/>
-      <c r="H150" s="64"/>
-      <c r="I150" s="64"/>
-      <c r="J150" s="64"/>
-      <c r="K150" s="64"/>
-      <c r="L150" s="64"/>
+      <c r="G150" s="66"/>
+      <c r="H150" s="66"/>
+      <c r="I150" s="66"/>
+      <c r="J150" s="66"/>
+      <c r="K150" s="66"/>
+      <c r="L150" s="66"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="64"/>
-      <c r="B151" s="64"/>
-      <c r="C151" s="64"/>
-      <c r="D151" s="64"/>
-      <c r="E151" s="64"/>
-      <c r="F151" s="64"/>
-      <c r="G151" s="64"/>
-      <c r="H151" s="64"/>
-      <c r="I151" s="64"/>
-      <c r="J151" s="64"/>
-      <c r="K151" s="64"/>
-      <c r="L151" s="64"/>
+      <c r="A151" s="66"/>
+      <c r="B151" s="66"/>
+      <c r="C151" s="66"/>
+      <c r="D151" s="66"/>
+      <c r="E151" s="66"/>
+      <c r="F151" s="66"/>
+      <c r="G151" s="66"/>
+      <c r="H151" s="66"/>
+      <c r="I151" s="66"/>
+      <c r="J151" s="66"/>
+      <c r="K151" s="66"/>
+      <c r="L151" s="66"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="64"/>
-      <c r="B152" s="64"/>
-      <c r="C152" s="64"/>
-      <c r="D152" s="64"/>
-      <c r="E152" s="64"/>
-      <c r="F152" s="64"/>
-      <c r="G152" s="64"/>
-      <c r="H152" s="64"/>
-      <c r="I152" s="64"/>
-      <c r="J152" s="64"/>
-      <c r="K152" s="64"/>
-      <c r="L152" s="64"/>
+      <c r="A152" s="66"/>
+      <c r="B152" s="66"/>
+      <c r="C152" s="66"/>
+      <c r="D152" s="66"/>
+      <c r="E152" s="66"/>
+      <c r="F152" s="66"/>
+      <c r="G152" s="66"/>
+      <c r="H152" s="66"/>
+      <c r="I152" s="66"/>
+      <c r="J152" s="66"/>
+      <c r="K152" s="66"/>
+      <c r="L152" s="66"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="64"/>
-      <c r="B153" s="64"/>
-      <c r="C153" s="64"/>
-      <c r="D153" s="64"/>
-      <c r="E153" s="64"/>
-      <c r="F153" s="64"/>
-      <c r="G153" s="64"/>
-      <c r="H153" s="64"/>
-      <c r="I153" s="64"/>
-      <c r="J153" s="64"/>
-      <c r="K153" s="64"/>
-      <c r="L153" s="64"/>
+      <c r="A153" s="66"/>
+      <c r="B153" s="66"/>
+      <c r="C153" s="66"/>
+      <c r="D153" s="66"/>
+      <c r="E153" s="66"/>
+      <c r="F153" s="66"/>
+      <c r="G153" s="66"/>
+      <c r="H153" s="66"/>
+      <c r="I153" s="66"/>
+      <c r="J153" s="66"/>
+      <c r="K153" s="66"/>
+      <c r="L153" s="66"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="64"/>
-      <c r="B154" s="64"/>
-      <c r="C154" s="64"/>
-      <c r="D154" s="64"/>
-      <c r="E154" s="64"/>
-      <c r="F154" s="64"/>
-      <c r="G154" s="64"/>
-      <c r="H154" s="64"/>
-      <c r="I154" s="64"/>
-      <c r="J154" s="64"/>
-      <c r="K154" s="64"/>
-      <c r="L154" s="64"/>
+      <c r="A154" s="66"/>
+      <c r="B154" s="66"/>
+      <c r="C154" s="66"/>
+      <c r="D154" s="66"/>
+      <c r="E154" s="66"/>
+      <c r="F154" s="66"/>
+      <c r="G154" s="66"/>
+      <c r="H154" s="66"/>
+      <c r="I154" s="66"/>
+      <c r="J154" s="66"/>
+      <c r="K154" s="66"/>
+      <c r="L154" s="66"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="64"/>
-      <c r="B155" s="64"/>
-      <c r="C155" s="64"/>
-      <c r="D155" s="64"/>
-      <c r="E155" s="64"/>
-      <c r="F155" s="64"/>
-      <c r="G155" s="64"/>
-      <c r="H155" s="64"/>
-      <c r="I155" s="64"/>
+      <c r="A155" s="66"/>
+      <c r="B155" s="66"/>
+      <c r="C155" s="66"/>
+      <c r="D155" s="66"/>
+      <c r="E155" s="66"/>
+      <c r="F155" s="66"/>
+      <c r="G155" s="66"/>
+      <c r="H155" s="66"/>
+      <c r="I155" s="66"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="64"/>
-      <c r="B156" s="64"/>
-      <c r="C156" s="64"/>
-      <c r="D156" s="64"/>
-      <c r="E156" s="64"/>
-      <c r="F156" s="64"/>
-      <c r="G156" s="64"/>
-      <c r="H156" s="64"/>
-      <c r="I156" s="64"/>
+      <c r="A156" s="66"/>
+      <c r="B156" s="66"/>
+      <c r="C156" s="66"/>
+      <c r="D156" s="66"/>
+      <c r="E156" s="66"/>
+      <c r="F156" s="66"/>
+      <c r="G156" s="66"/>
+      <c r="H156" s="66"/>
+      <c r="I156" s="66"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="64"/>
-      <c r="B157" s="64"/>
-      <c r="C157" s="64"/>
-      <c r="D157" s="64"/>
-      <c r="E157" s="64"/>
-      <c r="F157" s="64"/>
-      <c r="G157" s="64"/>
-      <c r="H157" s="64"/>
-      <c r="I157" s="64"/>
+      <c r="A157" s="66"/>
+      <c r="B157" s="66"/>
+      <c r="C157" s="66"/>
+      <c r="D157" s="66"/>
+      <c r="E157" s="66"/>
+      <c r="F157" s="66"/>
+      <c r="G157" s="66"/>
+      <c r="H157" s="66"/>
+      <c r="I157" s="66"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="64"/>
-      <c r="B158" s="64"/>
-      <c r="C158" s="64"/>
-      <c r="D158" s="64"/>
-      <c r="E158" s="64"/>
-      <c r="F158" s="64"/>
-      <c r="G158" s="64"/>
-      <c r="H158" s="64"/>
-      <c r="I158" s="64"/>
+      <c r="A158" s="66"/>
+      <c r="B158" s="66"/>
+      <c r="C158" s="66"/>
+      <c r="D158" s="66"/>
+      <c r="E158" s="66"/>
+      <c r="F158" s="66"/>
+      <c r="G158" s="66"/>
+      <c r="H158" s="66"/>
+      <c r="I158" s="66"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="64"/>
-      <c r="B159" s="64"/>
-      <c r="C159" s="64"/>
-      <c r="D159" s="64"/>
-      <c r="E159" s="64"/>
-      <c r="F159" s="64"/>
-      <c r="G159" s="64"/>
-      <c r="H159" s="64"/>
-      <c r="I159" s="64"/>
+      <c r="A159" s="66"/>
+      <c r="B159" s="66"/>
+      <c r="C159" s="66"/>
+      <c r="D159" s="66"/>
+      <c r="E159" s="66"/>
+      <c r="F159" s="66"/>
+      <c r="G159" s="66"/>
+      <c r="H159" s="66"/>
+      <c r="I159" s="66"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="64"/>
-      <c r="B160" s="64"/>
-      <c r="C160" s="64"/>
-      <c r="D160" s="64"/>
-      <c r="E160" s="64"/>
-      <c r="F160" s="64"/>
-      <c r="G160" s="64"/>
-      <c r="H160" s="64"/>
-      <c r="I160" s="64"/>
+      <c r="A160" s="66"/>
+      <c r="B160" s="66"/>
+      <c r="C160" s="66"/>
+      <c r="D160" s="66"/>
+      <c r="E160" s="66"/>
+      <c r="F160" s="66"/>
+      <c r="G160" s="66"/>
+      <c r="H160" s="66"/>
+      <c r="I160" s="66"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="64"/>
-      <c r="B161" s="64"/>
-      <c r="C161" s="64"/>
-      <c r="D161" s="64"/>
-      <c r="E161" s="64"/>
-      <c r="F161" s="64"/>
-      <c r="G161" s="64"/>
-      <c r="H161" s="64"/>
-      <c r="I161" s="64"/>
+      <c r="A161" s="66"/>
+      <c r="B161" s="66"/>
+      <c r="C161" s="66"/>
+      <c r="D161" s="66"/>
+      <c r="E161" s="66"/>
+      <c r="F161" s="66"/>
+      <c r="G161" s="66"/>
+      <c r="H161" s="66"/>
+      <c r="I161" s="66"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="64"/>
-      <c r="B162" s="64"/>
-      <c r="C162" s="64"/>
-      <c r="D162" s="64"/>
-      <c r="E162" s="64"/>
-      <c r="F162" s="64"/>
-      <c r="G162" s="64"/>
-      <c r="H162" s="64"/>
-      <c r="I162" s="64"/>
+      <c r="A162" s="66"/>
+      <c r="B162" s="66"/>
+      <c r="C162" s="66"/>
+      <c r="D162" s="66"/>
+      <c r="E162" s="66"/>
+      <c r="F162" s="66"/>
+      <c r="G162" s="66"/>
+      <c r="H162" s="66"/>
+      <c r="I162" s="66"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="64"/>
-      <c r="B163" s="64"/>
-      <c r="C163" s="64"/>
-      <c r="D163" s="64"/>
-      <c r="E163" s="64"/>
-      <c r="F163" s="64"/>
-      <c r="G163" s="64"/>
-      <c r="H163" s="64"/>
-      <c r="I163" s="64"/>
+      <c r="A163" s="66"/>
+      <c r="B163" s="66"/>
+      <c r="C163" s="66"/>
+      <c r="D163" s="66"/>
+      <c r="E163" s="66"/>
+      <c r="F163" s="66"/>
+      <c r="G163" s="66"/>
+      <c r="H163" s="66"/>
+      <c r="I163" s="66"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="64"/>
-      <c r="B164" s="64"/>
-      <c r="C164" s="64"/>
-      <c r="D164" s="64"/>
-      <c r="E164" s="64"/>
-      <c r="F164" s="64"/>
-      <c r="G164" s="64"/>
-      <c r="H164" s="64"/>
-      <c r="I164" s="64"/>
+      <c r="A164" s="66"/>
+      <c r="B164" s="66"/>
+      <c r="C164" s="66"/>
+      <c r="D164" s="66"/>
+      <c r="E164" s="66"/>
+      <c r="F164" s="66"/>
+      <c r="G164" s="66"/>
+      <c r="H164" s="66"/>
+      <c r="I164" s="66"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="64"/>
-      <c r="B165" s="64"/>
-      <c r="C165" s="64"/>
-      <c r="D165" s="64"/>
-      <c r="E165" s="64"/>
-      <c r="F165" s="64"/>
-      <c r="G165" s="64"/>
-      <c r="H165" s="64"/>
-      <c r="I165" s="64"/>
+      <c r="A165" s="66"/>
+      <c r="B165" s="66"/>
+      <c r="C165" s="66"/>
+      <c r="D165" s="66"/>
+      <c r="E165" s="66"/>
+      <c r="F165" s="66"/>
+      <c r="G165" s="66"/>
+      <c r="H165" s="66"/>
+      <c r="I165" s="66"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="64"/>
-      <c r="B166" s="64"/>
-      <c r="C166" s="64"/>
-      <c r="D166" s="64"/>
-      <c r="E166" s="64"/>
-      <c r="F166" s="64"/>
-      <c r="G166" s="64"/>
-      <c r="H166" s="64"/>
-      <c r="I166" s="64"/>
+      <c r="A166" s="66"/>
+      <c r="B166" s="66"/>
+      <c r="C166" s="66"/>
+      <c r="D166" s="66"/>
+      <c r="E166" s="66"/>
+      <c r="F166" s="66"/>
+      <c r="G166" s="66"/>
+      <c r="H166" s="66"/>
+      <c r="I166" s="66"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="64"/>
-      <c r="B167" s="64"/>
-      <c r="C167" s="64"/>
-      <c r="D167" s="64"/>
-      <c r="E167" s="64"/>
-      <c r="F167" s="64"/>
-      <c r="G167" s="64"/>
-      <c r="H167" s="64"/>
-      <c r="I167" s="64"/>
+      <c r="A167" s="66"/>
+      <c r="B167" s="66"/>
+      <c r="C167" s="66"/>
+      <c r="D167" s="66"/>
+      <c r="E167" s="66"/>
+      <c r="F167" s="66"/>
+      <c r="G167" s="66"/>
+      <c r="H167" s="66"/>
+      <c r="I167" s="66"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="64"/>
-      <c r="B168" s="64"/>
-      <c r="C168" s="64"/>
-      <c r="D168" s="64"/>
-      <c r="E168" s="64"/>
-      <c r="F168" s="64"/>
-      <c r="G168" s="64"/>
-      <c r="H168" s="64"/>
-      <c r="I168" s="64"/>
+      <c r="A168" s="66"/>
+      <c r="B168" s="66"/>
+      <c r="C168" s="66"/>
+      <c r="D168" s="66"/>
+      <c r="E168" s="66"/>
+      <c r="F168" s="66"/>
+      <c r="G168" s="66"/>
+      <c r="H168" s="66"/>
+      <c r="I168" s="66"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="64"/>
-      <c r="B169" s="64"/>
-      <c r="C169" s="64"/>
-      <c r="D169" s="64"/>
-      <c r="E169" s="64"/>
-      <c r="F169" s="64"/>
-      <c r="G169" s="64"/>
-      <c r="H169" s="64"/>
-      <c r="I169" s="64"/>
+      <c r="A169" s="66"/>
+      <c r="B169" s="66"/>
+      <c r="C169" s="66"/>
+      <c r="D169" s="66"/>
+      <c r="E169" s="66"/>
+      <c r="F169" s="66"/>
+      <c r="G169" s="66"/>
+      <c r="H169" s="66"/>
+      <c r="I169" s="66"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="64"/>
-      <c r="B170" s="64"/>
-      <c r="C170" s="64"/>
-      <c r="D170" s="64"/>
-      <c r="E170" s="64"/>
-      <c r="F170" s="64"/>
-      <c r="G170" s="64"/>
-      <c r="H170" s="64"/>
-      <c r="I170" s="64"/>
+      <c r="A170" s="66"/>
+      <c r="B170" s="66"/>
+      <c r="C170" s="66"/>
+      <c r="D170" s="66"/>
+      <c r="E170" s="66"/>
+      <c r="F170" s="66"/>
+      <c r="G170" s="66"/>
+      <c r="H170" s="66"/>
+      <c r="I170" s="66"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="64"/>
-      <c r="B171" s="64"/>
-      <c r="C171" s="64"/>
-      <c r="D171" s="64"/>
-      <c r="E171" s="64"/>
-      <c r="F171" s="64"/>
-      <c r="G171" s="64"/>
-      <c r="H171" s="64"/>
-      <c r="I171" s="64"/>
+      <c r="A171" s="66"/>
+      <c r="B171" s="66"/>
+      <c r="C171" s="66"/>
+      <c r="D171" s="66"/>
+      <c r="E171" s="66"/>
+      <c r="F171" s="66"/>
+      <c r="G171" s="66"/>
+      <c r="H171" s="66"/>
+      <c r="I171" s="66"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="64"/>
-      <c r="B172" s="64"/>
-      <c r="C172" s="64"/>
-      <c r="D172" s="64"/>
-      <c r="E172" s="64"/>
-      <c r="F172" s="64"/>
-      <c r="G172" s="64"/>
-      <c r="H172" s="64"/>
-      <c r="I172" s="64"/>
+      <c r="A172" s="66"/>
+      <c r="B172" s="66"/>
+      <c r="C172" s="66"/>
+      <c r="D172" s="66"/>
+      <c r="E172" s="66"/>
+      <c r="F172" s="66"/>
+      <c r="G172" s="66"/>
+      <c r="H172" s="66"/>
+      <c r="I172" s="66"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="64"/>
-      <c r="B173" s="64"/>
-      <c r="C173" s="64"/>
-      <c r="D173" s="64"/>
-      <c r="E173" s="64"/>
-      <c r="F173" s="64"/>
-      <c r="G173" s="64"/>
-      <c r="H173" s="64"/>
-      <c r="I173" s="64"/>
+      <c r="A173" s="66"/>
+      <c r="B173" s="66"/>
+      <c r="C173" s="66"/>
+      <c r="D173" s="66"/>
+      <c r="E173" s="66"/>
+      <c r="F173" s="66"/>
+      <c r="G173" s="66"/>
+      <c r="H173" s="66"/>
+      <c r="I173" s="66"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="64"/>
-      <c r="B174" s="64"/>
-      <c r="C174" s="64"/>
-      <c r="D174" s="64"/>
-      <c r="E174" s="64"/>
-      <c r="F174" s="64"/>
-      <c r="G174" s="64"/>
-      <c r="H174" s="64"/>
-      <c r="I174" s="64"/>
+      <c r="A174" s="66"/>
+      <c r="B174" s="66"/>
+      <c r="C174" s="66"/>
+      <c r="D174" s="66"/>
+      <c r="E174" s="66"/>
+      <c r="F174" s="66"/>
+      <c r="G174" s="66"/>
+      <c r="H174" s="66"/>
+      <c r="I174" s="66"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="64"/>
-      <c r="B175" s="64"/>
-      <c r="C175" s="64"/>
-      <c r="D175" s="64"/>
-      <c r="E175" s="64"/>
-      <c r="F175" s="64"/>
-      <c r="G175" s="64"/>
-      <c r="H175" s="64"/>
-      <c r="I175" s="64"/>
+      <c r="A175" s="66"/>
+      <c r="B175" s="66"/>
+      <c r="C175" s="66"/>
+      <c r="D175" s="66"/>
+      <c r="E175" s="66"/>
+      <c r="F175" s="66"/>
+      <c r="G175" s="66"/>
+      <c r="H175" s="66"/>
+      <c r="I175" s="66"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="64"/>
-      <c r="B176" s="64"/>
-      <c r="C176" s="64"/>
-      <c r="D176" s="64"/>
-      <c r="E176" s="64"/>
-      <c r="F176" s="64"/>
-      <c r="G176" s="64"/>
-      <c r="H176" s="64"/>
-      <c r="I176" s="64"/>
+      <c r="A176" s="66"/>
+      <c r="B176" s="66"/>
+      <c r="C176" s="66"/>
+      <c r="D176" s="66"/>
+      <c r="E176" s="66"/>
+      <c r="F176" s="66"/>
+      <c r="G176" s="66"/>
+      <c r="H176" s="66"/>
+      <c r="I176" s="66"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="64"/>
-      <c r="B177" s="64"/>
-      <c r="C177" s="64"/>
-      <c r="D177" s="64"/>
-      <c r="E177" s="64"/>
-      <c r="F177" s="64"/>
-      <c r="G177" s="64"/>
-      <c r="H177" s="64"/>
-      <c r="I177" s="64"/>
+      <c r="A177" s="66"/>
+      <c r="B177" s="66"/>
+      <c r="C177" s="66"/>
+      <c r="D177" s="66"/>
+      <c r="E177" s="66"/>
+      <c r="F177" s="66"/>
+      <c r="G177" s="66"/>
+      <c r="H177" s="66"/>
+      <c r="I177" s="66"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="64"/>
-      <c r="B178" s="64"/>
-      <c r="C178" s="64"/>
-      <c r="D178" s="64"/>
-      <c r="E178" s="64"/>
-      <c r="F178" s="64"/>
-      <c r="G178" s="64"/>
-      <c r="H178" s="64"/>
-      <c r="I178" s="64"/>
+      <c r="A178" s="66"/>
+      <c r="B178" s="66"/>
+      <c r="C178" s="66"/>
+      <c r="D178" s="66"/>
+      <c r="E178" s="66"/>
+      <c r="F178" s="66"/>
+      <c r="G178" s="66"/>
+      <c r="H178" s="66"/>
+      <c r="I178" s="66"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="64"/>
-      <c r="B179" s="64"/>
-      <c r="C179" s="64"/>
-      <c r="D179" s="64"/>
-      <c r="E179" s="64"/>
-      <c r="F179" s="64"/>
-      <c r="G179" s="64"/>
-      <c r="H179" s="64"/>
-      <c r="I179" s="64"/>
+      <c r="A179" s="66"/>
+      <c r="B179" s="66"/>
+      <c r="C179" s="66"/>
+      <c r="D179" s="66"/>
+      <c r="E179" s="66"/>
+      <c r="F179" s="66"/>
+      <c r="G179" s="66"/>
+      <c r="H179" s="66"/>
+      <c r="I179" s="66"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="64"/>
-      <c r="B180" s="64"/>
-      <c r="C180" s="64"/>
-      <c r="D180" s="64"/>
-      <c r="E180" s="64"/>
-      <c r="F180" s="64"/>
-      <c r="G180" s="64"/>
-      <c r="H180" s="64"/>
-      <c r="I180" s="64"/>
+      <c r="A180" s="66"/>
+      <c r="B180" s="66"/>
+      <c r="C180" s="66"/>
+      <c r="D180" s="66"/>
+      <c r="E180" s="66"/>
+      <c r="F180" s="66"/>
+      <c r="G180" s="66"/>
+      <c r="H180" s="66"/>
+      <c r="I180" s="66"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="64"/>
-      <c r="B181" s="64"/>
-      <c r="C181" s="64"/>
-      <c r="D181" s="64"/>
-      <c r="E181" s="64"/>
-      <c r="F181" s="64"/>
-      <c r="G181" s="64"/>
-      <c r="H181" s="64"/>
-      <c r="I181" s="64"/>
+      <c r="A181" s="66"/>
+      <c r="B181" s="66"/>
+      <c r="C181" s="66"/>
+      <c r="D181" s="66"/>
+      <c r="E181" s="66"/>
+      <c r="F181" s="66"/>
+      <c r="G181" s="66"/>
+      <c r="H181" s="66"/>
+      <c r="I181" s="66"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="64"/>
-      <c r="B182" s="64"/>
-      <c r="C182" s="64"/>
-      <c r="D182" s="64"/>
-      <c r="E182" s="64"/>
-      <c r="F182" s="64"/>
-      <c r="G182" s="64"/>
-      <c r="H182" s="64"/>
-      <c r="I182" s="64"/>
+      <c r="A182" s="66"/>
+      <c r="B182" s="66"/>
+      <c r="C182" s="66"/>
+      <c r="D182" s="66"/>
+      <c r="E182" s="66"/>
+      <c r="F182" s="66"/>
+      <c r="G182" s="66"/>
+      <c r="H182" s="66"/>
+      <c r="I182" s="66"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="64"/>
-      <c r="B183" s="64"/>
-      <c r="C183" s="64"/>
-      <c r="D183" s="64"/>
-      <c r="E183" s="64"/>
-      <c r="F183" s="64"/>
-      <c r="G183" s="64"/>
-      <c r="H183" s="64"/>
-      <c r="I183" s="64"/>
+      <c r="A183" s="66"/>
+      <c r="B183" s="66"/>
+      <c r="C183" s="66"/>
+      <c r="D183" s="66"/>
+      <c r="E183" s="66"/>
+      <c r="F183" s="66"/>
+      <c r="G183" s="66"/>
+      <c r="H183" s="66"/>
+      <c r="I183" s="66"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="64"/>
-      <c r="B184" s="64"/>
-      <c r="C184" s="64"/>
-      <c r="D184" s="64"/>
-      <c r="E184" s="64"/>
-      <c r="F184" s="64"/>
-      <c r="G184" s="64"/>
-      <c r="H184" s="64"/>
-      <c r="I184" s="64"/>
+      <c r="A184" s="66"/>
+      <c r="B184" s="66"/>
+      <c r="C184" s="66"/>
+      <c r="D184" s="66"/>
+      <c r="E184" s="66"/>
+      <c r="F184" s="66"/>
+      <c r="G184" s="66"/>
+      <c r="H184" s="66"/>
+      <c r="I184" s="66"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="64"/>
-      <c r="B185" s="64"/>
-      <c r="C185" s="64"/>
-      <c r="D185" s="64"/>
-      <c r="E185" s="64"/>
-      <c r="F185" s="64"/>
-      <c r="G185" s="64"/>
-      <c r="H185" s="64"/>
-      <c r="I185" s="64"/>
+      <c r="A185" s="66"/>
+      <c r="B185" s="66"/>
+      <c r="C185" s="66"/>
+      <c r="D185" s="66"/>
+      <c r="E185" s="66"/>
+      <c r="F185" s="66"/>
+      <c r="G185" s="66"/>
+      <c r="H185" s="66"/>
+      <c r="I185" s="66"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="64"/>
-      <c r="B186" s="64"/>
-      <c r="C186" s="64"/>
-      <c r="D186" s="64"/>
-      <c r="E186" s="64"/>
-      <c r="F186" s="64"/>
-      <c r="G186" s="64"/>
-      <c r="H186" s="64"/>
-      <c r="I186" s="64"/>
+      <c r="A186" s="66"/>
+      <c r="B186" s="66"/>
+      <c r="C186" s="66"/>
+      <c r="D186" s="66"/>
+      <c r="E186" s="66"/>
+      <c r="F186" s="66"/>
+      <c r="G186" s="66"/>
+      <c r="H186" s="66"/>
+      <c r="I186" s="66"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="64"/>
-      <c r="B187" s="64"/>
-      <c r="C187" s="64"/>
-      <c r="D187" s="64"/>
-      <c r="E187" s="64"/>
-      <c r="F187" s="64"/>
-      <c r="G187" s="64"/>
-      <c r="H187" s="64"/>
-      <c r="I187" s="64"/>
+      <c r="A187" s="66"/>
+      <c r="B187" s="66"/>
+      <c r="C187" s="66"/>
+      <c r="D187" s="66"/>
+      <c r="E187" s="66"/>
+      <c r="F187" s="66"/>
+      <c r="G187" s="66"/>
+      <c r="H187" s="66"/>
+      <c r="I187" s="66"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="64"/>
-      <c r="B188" s="64"/>
-      <c r="C188" s="64"/>
-      <c r="D188" s="64"/>
-      <c r="E188" s="64"/>
-      <c r="F188" s="64"/>
-      <c r="G188" s="64"/>
-      <c r="H188" s="64"/>
-      <c r="I188" s="64"/>
+      <c r="A188" s="66"/>
+      <c r="B188" s="66"/>
+      <c r="C188" s="66"/>
+      <c r="D188" s="66"/>
+      <c r="E188" s="66"/>
+      <c r="F188" s="66"/>
+      <c r="G188" s="66"/>
+      <c r="H188" s="66"/>
+      <c r="I188" s="66"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="64"/>
-      <c r="B189" s="64"/>
-      <c r="C189" s="64"/>
-      <c r="D189" s="64"/>
-      <c r="E189" s="64"/>
-      <c r="F189" s="64"/>
-      <c r="G189" s="64"/>
-      <c r="H189" s="64"/>
-      <c r="I189" s="64"/>
+      <c r="A189" s="66"/>
+      <c r="B189" s="66"/>
+      <c r="C189" s="66"/>
+      <c r="D189" s="66"/>
+      <c r="E189" s="66"/>
+      <c r="F189" s="66"/>
+      <c r="G189" s="66"/>
+      <c r="H189" s="66"/>
+      <c r="I189" s="66"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="64"/>
-      <c r="B190" s="64"/>
-      <c r="C190" s="64"/>
-      <c r="D190" s="64"/>
-      <c r="E190" s="64"/>
-      <c r="F190" s="64"/>
-      <c r="G190" s="64"/>
-      <c r="H190" s="64"/>
-      <c r="I190" s="64"/>
+      <c r="A190" s="66"/>
+      <c r="B190" s="66"/>
+      <c r="C190" s="66"/>
+      <c r="D190" s="66"/>
+      <c r="E190" s="66"/>
+      <c r="F190" s="66"/>
+      <c r="G190" s="66"/>
+      <c r="H190" s="66"/>
+      <c r="I190" s="66"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="64"/>
-      <c r="B191" s="64"/>
-      <c r="C191" s="64"/>
-      <c r="D191" s="64"/>
-      <c r="E191" s="64"/>
-      <c r="F191" s="64"/>
-      <c r="G191" s="64"/>
-      <c r="H191" s="64"/>
-      <c r="I191" s="64"/>
+      <c r="A191" s="66"/>
+      <c r="B191" s="66"/>
+      <c r="C191" s="66"/>
+      <c r="D191" s="66"/>
+      <c r="E191" s="66"/>
+      <c r="F191" s="66"/>
+      <c r="G191" s="66"/>
+      <c r="H191" s="66"/>
+      <c r="I191" s="66"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="64"/>
-      <c r="B192" s="64"/>
-      <c r="C192" s="64"/>
-      <c r="D192" s="64"/>
-      <c r="E192" s="64"/>
-      <c r="F192" s="64"/>
-      <c r="G192" s="64"/>
-      <c r="H192" s="64"/>
-      <c r="I192" s="64"/>
+      <c r="A192" s="66"/>
+      <c r="B192" s="66"/>
+      <c r="C192" s="66"/>
+      <c r="D192" s="66"/>
+      <c r="E192" s="66"/>
+      <c r="F192" s="66"/>
+      <c r="G192" s="66"/>
+      <c r="H192" s="66"/>
+      <c r="I192" s="66"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="64"/>
-      <c r="B193" s="64"/>
-      <c r="C193" s="64"/>
-      <c r="D193" s="64"/>
-      <c r="E193" s="64"/>
-      <c r="F193" s="64"/>
-      <c r="G193" s="64"/>
-      <c r="H193" s="64"/>
-      <c r="I193" s="64"/>
+      <c r="A193" s="66"/>
+      <c r="B193" s="66"/>
+      <c r="C193" s="66"/>
+      <c r="D193" s="66"/>
+      <c r="E193" s="66"/>
+      <c r="F193" s="66"/>
+      <c r="G193" s="66"/>
+      <c r="H193" s="66"/>
+      <c r="I193" s="66"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="64"/>
-      <c r="B194" s="64"/>
-      <c r="C194" s="64"/>
-      <c r="D194" s="64"/>
-      <c r="E194" s="64"/>
-      <c r="F194" s="64"/>
-      <c r="G194" s="64"/>
-      <c r="H194" s="64"/>
-      <c r="I194" s="64"/>
+      <c r="A194" s="66"/>
+      <c r="B194" s="66"/>
+      <c r="C194" s="66"/>
+      <c r="D194" s="66"/>
+      <c r="E194" s="66"/>
+      <c r="F194" s="66"/>
+      <c r="G194" s="66"/>
+      <c r="H194" s="66"/>
+      <c r="I194" s="66"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="64"/>
-      <c r="B195" s="64"/>
-      <c r="C195" s="64"/>
-      <c r="D195" s="64"/>
-      <c r="E195" s="64"/>
-      <c r="F195" s="64"/>
-      <c r="G195" s="64"/>
-      <c r="H195" s="64"/>
-      <c r="I195" s="64"/>
+      <c r="A195" s="66"/>
+      <c r="B195" s="66"/>
+      <c r="C195" s="66"/>
+      <c r="D195" s="66"/>
+      <c r="E195" s="66"/>
+      <c r="F195" s="66"/>
+      <c r="G195" s="66"/>
+      <c r="H195" s="66"/>
+      <c r="I195" s="66"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="64"/>
-      <c r="B196" s="64"/>
-      <c r="C196" s="64"/>
-      <c r="D196" s="64"/>
-      <c r="E196" s="64"/>
-      <c r="F196" s="64"/>
-      <c r="G196" s="64"/>
-      <c r="H196" s="64"/>
-      <c r="I196" s="64"/>
+      <c r="A196" s="66"/>
+      <c r="B196" s="66"/>
+      <c r="C196" s="66"/>
+      <c r="D196" s="66"/>
+      <c r="E196" s="66"/>
+      <c r="F196" s="66"/>
+      <c r="G196" s="66"/>
+      <c r="H196" s="66"/>
+      <c r="I196" s="66"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="64"/>
-      <c r="B197" s="64"/>
-      <c r="C197" s="64"/>
-      <c r="D197" s="64"/>
-      <c r="E197" s="64"/>
-      <c r="F197" s="64"/>
-      <c r="G197" s="64"/>
-      <c r="H197" s="64"/>
-      <c r="I197" s="64"/>
+      <c r="A197" s="66"/>
+      <c r="B197" s="66"/>
+      <c r="C197" s="66"/>
+      <c r="D197" s="66"/>
+      <c r="E197" s="66"/>
+      <c r="F197" s="66"/>
+      <c r="G197" s="66"/>
+      <c r="H197" s="66"/>
+      <c r="I197" s="66"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="64"/>
-      <c r="B198" s="64"/>
-      <c r="C198" s="64"/>
-      <c r="D198" s="64"/>
-      <c r="E198" s="64"/>
-      <c r="F198" s="64"/>
-      <c r="G198" s="64"/>
-      <c r="H198" s="64"/>
-      <c r="I198" s="64"/>
+      <c r="A198" s="66"/>
+      <c r="B198" s="66"/>
+      <c r="C198" s="66"/>
+      <c r="D198" s="66"/>
+      <c r="E198" s="66"/>
+      <c r="F198" s="66"/>
+      <c r="G198" s="66"/>
+      <c r="H198" s="66"/>
+      <c r="I198" s="66"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="64"/>
-      <c r="B199" s="64"/>
-      <c r="C199" s="64"/>
-      <c r="D199" s="64"/>
-      <c r="E199" s="64"/>
-      <c r="F199" s="64"/>
-      <c r="G199" s="64"/>
-      <c r="H199" s="64"/>
-      <c r="I199" s="64"/>
+      <c r="A199" s="66"/>
+      <c r="B199" s="66"/>
+      <c r="C199" s="66"/>
+      <c r="D199" s="66"/>
+      <c r="E199" s="66"/>
+      <c r="F199" s="66"/>
+      <c r="G199" s="66"/>
+      <c r="H199" s="66"/>
+      <c r="I199" s="66"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="64"/>
-      <c r="B200" s="64"/>
-      <c r="C200" s="64"/>
-      <c r="D200" s="64"/>
-      <c r="E200" s="64"/>
-      <c r="F200" s="64"/>
-      <c r="G200" s="64"/>
-      <c r="H200" s="64"/>
-      <c r="I200" s="64"/>
+      <c r="A200" s="66"/>
+      <c r="B200" s="66"/>
+      <c r="C200" s="66"/>
+      <c r="D200" s="66"/>
+      <c r="E200" s="66"/>
+      <c r="F200" s="66"/>
+      <c r="G200" s="66"/>
+      <c r="H200" s="66"/>
+      <c r="I200" s="66"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="64"/>
-      <c r="B201" s="64"/>
-      <c r="C201" s="64"/>
-      <c r="D201" s="64"/>
-      <c r="E201" s="64"/>
-      <c r="F201" s="64"/>
-      <c r="G201" s="64"/>
-      <c r="H201" s="64"/>
-      <c r="I201" s="64"/>
+      <c r="A201" s="66"/>
+      <c r="B201" s="66"/>
+      <c r="C201" s="66"/>
+      <c r="D201" s="66"/>
+      <c r="E201" s="66"/>
+      <c r="F201" s="66"/>
+      <c r="G201" s="66"/>
+      <c r="H201" s="66"/>
+      <c r="I201" s="66"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="64"/>
-      <c r="B202" s="64"/>
-      <c r="C202" s="64"/>
-      <c r="D202" s="64"/>
-      <c r="E202" s="64"/>
-      <c r="F202" s="64"/>
-      <c r="G202" s="64"/>
-      <c r="H202" s="64"/>
-      <c r="I202" s="64"/>
+      <c r="A202" s="66"/>
+      <c r="B202" s="66"/>
+      <c r="C202" s="66"/>
+      <c r="D202" s="66"/>
+      <c r="E202" s="66"/>
+      <c r="F202" s="66"/>
+      <c r="G202" s="66"/>
+      <c r="H202" s="66"/>
+      <c r="I202" s="66"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="64"/>
-      <c r="B203" s="64"/>
-      <c r="C203" s="64"/>
-      <c r="D203" s="64"/>
-      <c r="E203" s="64"/>
-      <c r="F203" s="64"/>
-      <c r="G203" s="64"/>
-      <c r="H203" s="64"/>
-      <c r="I203" s="64"/>
+      <c r="A203" s="66"/>
+      <c r="B203" s="66"/>
+      <c r="C203" s="66"/>
+      <c r="D203" s="66"/>
+      <c r="E203" s="66"/>
+      <c r="F203" s="66"/>
+      <c r="G203" s="66"/>
+      <c r="H203" s="66"/>
+      <c r="I203" s="66"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="64"/>
-      <c r="B204" s="64"/>
-      <c r="C204" s="64"/>
-      <c r="D204" s="64"/>
-      <c r="E204" s="64"/>
-      <c r="F204" s="64"/>
-      <c r="G204" s="64"/>
-      <c r="H204" s="64"/>
-      <c r="I204" s="64"/>
+      <c r="A204" s="66"/>
+      <c r="B204" s="66"/>
+      <c r="C204" s="66"/>
+      <c r="D204" s="66"/>
+      <c r="E204" s="66"/>
+      <c r="F204" s="66"/>
+      <c r="G204" s="66"/>
+      <c r="H204" s="66"/>
+      <c r="I204" s="66"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="64"/>
-      <c r="B205" s="64"/>
-      <c r="C205" s="64"/>
-      <c r="D205" s="64"/>
-      <c r="E205" s="64"/>
-      <c r="F205" s="64"/>
-      <c r="G205" s="64"/>
-      <c r="H205" s="64"/>
-      <c r="I205" s="64"/>
+      <c r="A205" s="66"/>
+      <c r="B205" s="66"/>
+      <c r="C205" s="66"/>
+      <c r="D205" s="66"/>
+      <c r="E205" s="66"/>
+      <c r="F205" s="66"/>
+      <c r="G205" s="66"/>
+      <c r="H205" s="66"/>
+      <c r="I205" s="66"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="64"/>
-      <c r="B206" s="64"/>
-      <c r="C206" s="64"/>
-      <c r="D206" s="64"/>
-      <c r="E206" s="64"/>
-      <c r="F206" s="64"/>
-      <c r="G206" s="64"/>
-      <c r="H206" s="64"/>
-      <c r="I206" s="64"/>
+      <c r="A206" s="66"/>
+      <c r="B206" s="66"/>
+      <c r="C206" s="66"/>
+      <c r="D206" s="66"/>
+      <c r="E206" s="66"/>
+      <c r="F206" s="66"/>
+      <c r="G206" s="66"/>
+      <c r="H206" s="66"/>
+      <c r="I206" s="66"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="64"/>
-      <c r="B207" s="64"/>
-      <c r="C207" s="64"/>
-      <c r="D207" s="64"/>
-      <c r="E207" s="64"/>
-      <c r="F207" s="64"/>
-      <c r="G207" s="64"/>
-      <c r="H207" s="64"/>
-      <c r="I207" s="64"/>
+      <c r="A207" s="66"/>
+      <c r="B207" s="66"/>
+      <c r="C207" s="66"/>
+      <c r="D207" s="66"/>
+      <c r="E207" s="66"/>
+      <c r="F207" s="66"/>
+      <c r="G207" s="66"/>
+      <c r="H207" s="66"/>
+      <c r="I207" s="66"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="64"/>
-      <c r="B208" s="64"/>
-      <c r="C208" s="64"/>
-      <c r="D208" s="64"/>
-      <c r="E208" s="64"/>
-      <c r="F208" s="64"/>
-      <c r="G208" s="64"/>
-      <c r="H208" s="64"/>
-      <c r="I208" s="64"/>
+      <c r="A208" s="66"/>
+      <c r="B208" s="66"/>
+      <c r="C208" s="66"/>
+      <c r="D208" s="66"/>
+      <c r="E208" s="66"/>
+      <c r="F208" s="66"/>
+      <c r="G208" s="66"/>
+      <c r="H208" s="66"/>
+      <c r="I208" s="66"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="64"/>
-      <c r="B209" s="64"/>
-      <c r="C209" s="64"/>
-      <c r="D209" s="64"/>
-      <c r="E209" s="64"/>
-      <c r="F209" s="64"/>
-      <c r="G209" s="64"/>
-      <c r="H209" s="64"/>
-      <c r="I209" s="64"/>
+      <c r="A209" s="66"/>
+      <c r="B209" s="66"/>
+      <c r="C209" s="66"/>
+      <c r="D209" s="66"/>
+      <c r="E209" s="66"/>
+      <c r="F209" s="66"/>
+      <c r="G209" s="66"/>
+      <c r="H209" s="66"/>
+      <c r="I209" s="66"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="64"/>
-      <c r="B210" s="64"/>
-      <c r="C210" s="64"/>
-      <c r="D210" s="64"/>
-      <c r="E210" s="64"/>
-      <c r="F210" s="64"/>
-      <c r="G210" s="64"/>
-      <c r="H210" s="64"/>
-      <c r="I210" s="64"/>
+      <c r="A210" s="66"/>
+      <c r="B210" s="66"/>
+      <c r="C210" s="66"/>
+      <c r="D210" s="66"/>
+      <c r="E210" s="66"/>
+      <c r="F210" s="66"/>
+      <c r="G210" s="66"/>
+      <c r="H210" s="66"/>
+      <c r="I210" s="66"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="64"/>
-      <c r="B211" s="64"/>
-      <c r="C211" s="64"/>
-      <c r="D211" s="64"/>
-      <c r="E211" s="64"/>
-      <c r="F211" s="64"/>
-      <c r="G211" s="64"/>
-      <c r="H211" s="64"/>
-      <c r="I211" s="64"/>
+      <c r="A211" s="66"/>
+      <c r="B211" s="66"/>
+      <c r="C211" s="66"/>
+      <c r="D211" s="66"/>
+      <c r="E211" s="66"/>
+      <c r="F211" s="66"/>
+      <c r="G211" s="66"/>
+      <c r="H211" s="66"/>
+      <c r="I211" s="66"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="64"/>
-      <c r="B212" s="64"/>
-      <c r="C212" s="64"/>
-      <c r="D212" s="64"/>
-      <c r="E212" s="64"/>
-      <c r="F212" s="64"/>
-      <c r="G212" s="64"/>
-      <c r="H212" s="64"/>
-      <c r="I212" s="64"/>
+      <c r="A212" s="66"/>
+      <c r="B212" s="66"/>
+      <c r="C212" s="66"/>
+      <c r="D212" s="66"/>
+      <c r="E212" s="66"/>
+      <c r="F212" s="66"/>
+      <c r="G212" s="66"/>
+      <c r="H212" s="66"/>
+      <c r="I212" s="66"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="64"/>
-      <c r="B213" s="64"/>
-      <c r="C213" s="64"/>
-      <c r="D213" s="64"/>
-      <c r="E213" s="64"/>
-      <c r="F213" s="64"/>
-      <c r="G213" s="64"/>
-      <c r="H213" s="64"/>
-      <c r="I213" s="64"/>
+      <c r="A213" s="66"/>
+      <c r="B213" s="66"/>
+      <c r="C213" s="66"/>
+      <c r="D213" s="66"/>
+      <c r="E213" s="66"/>
+      <c r="F213" s="66"/>
+      <c r="G213" s="66"/>
+      <c r="H213" s="66"/>
+      <c r="I213" s="66"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="64"/>
-      <c r="B214" s="64"/>
-      <c r="C214" s="64"/>
-      <c r="D214" s="64"/>
-      <c r="E214" s="64"/>
-      <c r="F214" s="64"/>
-      <c r="G214" s="64"/>
-      <c r="H214" s="64"/>
-      <c r="I214" s="64"/>
+      <c r="A214" s="66"/>
+      <c r="B214" s="66"/>
+      <c r="C214" s="66"/>
+      <c r="D214" s="66"/>
+      <c r="E214" s="66"/>
+      <c r="F214" s="66"/>
+      <c r="G214" s="66"/>
+      <c r="H214" s="66"/>
+      <c r="I214" s="66"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="64"/>
-      <c r="B215" s="64"/>
-      <c r="C215" s="64"/>
-      <c r="D215" s="64"/>
-      <c r="E215" s="64"/>
-      <c r="F215" s="64"/>
-      <c r="G215" s="64"/>
-      <c r="H215" s="64"/>
-      <c r="I215" s="64"/>
+      <c r="A215" s="66"/>
+      <c r="B215" s="66"/>
+      <c r="C215" s="66"/>
+      <c r="D215" s="66"/>
+      <c r="E215" s="66"/>
+      <c r="F215" s="66"/>
+      <c r="G215" s="66"/>
+      <c r="H215" s="66"/>
+      <c r="I215" s="66"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="64"/>
-      <c r="B216" s="64"/>
-      <c r="C216" s="64"/>
-      <c r="D216" s="64"/>
-      <c r="E216" s="64"/>
-      <c r="F216" s="64"/>
-      <c r="G216" s="64"/>
-      <c r="H216" s="64"/>
-      <c r="I216" s="64"/>
+      <c r="A216" s="66"/>
+      <c r="B216" s="66"/>
+      <c r="C216" s="66"/>
+      <c r="D216" s="66"/>
+      <c r="E216" s="66"/>
+      <c r="F216" s="66"/>
+      <c r="G216" s="66"/>
+      <c r="H216" s="66"/>
+      <c r="I216" s="66"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="64"/>
-      <c r="B217" s="64"/>
-      <c r="C217" s="64"/>
-      <c r="D217" s="64"/>
-      <c r="E217" s="64"/>
-      <c r="F217" s="64"/>
-      <c r="G217" s="64"/>
-      <c r="H217" s="64"/>
-      <c r="I217" s="64"/>
+      <c r="A217" s="66"/>
+      <c r="B217" s="66"/>
+      <c r="C217" s="66"/>
+      <c r="D217" s="66"/>
+      <c r="E217" s="66"/>
+      <c r="F217" s="66"/>
+      <c r="G217" s="66"/>
+      <c r="H217" s="66"/>
+      <c r="I217" s="66"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="64"/>
-      <c r="B218" s="64"/>
-      <c r="C218" s="64"/>
-      <c r="D218" s="64"/>
-      <c r="E218" s="64"/>
-      <c r="F218" s="64"/>
-      <c r="G218" s="64"/>
-      <c r="H218" s="64"/>
-      <c r="I218" s="64"/>
+      <c r="A218" s="66"/>
+      <c r="B218" s="66"/>
+      <c r="C218" s="66"/>
+      <c r="D218" s="66"/>
+      <c r="E218" s="66"/>
+      <c r="F218" s="66"/>
+      <c r="G218" s="66"/>
+      <c r="H218" s="66"/>
+      <c r="I218" s="66"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="64"/>
-      <c r="B219" s="64"/>
-      <c r="C219" s="64"/>
-      <c r="D219" s="64"/>
-      <c r="E219" s="64"/>
-      <c r="F219" s="64"/>
-      <c r="G219" s="64"/>
-      <c r="H219" s="64"/>
-      <c r="I219" s="64"/>
+      <c r="A219" s="66"/>
+      <c r="B219" s="66"/>
+      <c r="C219" s="66"/>
+      <c r="D219" s="66"/>
+      <c r="E219" s="66"/>
+      <c r="F219" s="66"/>
+      <c r="G219" s="66"/>
+      <c r="H219" s="66"/>
+      <c r="I219" s="66"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="64"/>
-      <c r="B220" s="64"/>
-      <c r="C220" s="64"/>
-      <c r="D220" s="64"/>
-      <c r="E220" s="64"/>
-      <c r="F220" s="64"/>
-      <c r="G220" s="64"/>
-      <c r="H220" s="64"/>
-      <c r="I220" s="64"/>
+      <c r="A220" s="66"/>
+      <c r="B220" s="66"/>
+      <c r="C220" s="66"/>
+      <c r="D220" s="66"/>
+      <c r="E220" s="66"/>
+      <c r="F220" s="66"/>
+      <c r="G220" s="66"/>
+      <c r="H220" s="66"/>
+      <c r="I220" s="66"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="64"/>
-      <c r="B221" s="64"/>
-      <c r="C221" s="64"/>
-      <c r="D221" s="64"/>
-      <c r="E221" s="64"/>
-      <c r="F221" s="64"/>
-      <c r="G221" s="64"/>
-      <c r="H221" s="64"/>
-      <c r="I221" s="64"/>
+      <c r="A221" s="66"/>
+      <c r="B221" s="66"/>
+      <c r="C221" s="66"/>
+      <c r="D221" s="66"/>
+      <c r="E221" s="66"/>
+      <c r="F221" s="66"/>
+      <c r="G221" s="66"/>
+      <c r="H221" s="66"/>
+      <c r="I221" s="66"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="64"/>
-      <c r="B222" s="64"/>
-      <c r="C222" s="64"/>
-      <c r="D222" s="64"/>
-      <c r="E222" s="64"/>
-      <c r="F222" s="64"/>
-      <c r="G222" s="64"/>
-      <c r="H222" s="64"/>
-      <c r="I222" s="64"/>
+      <c r="A222" s="66"/>
+      <c r="B222" s="66"/>
+      <c r="C222" s="66"/>
+      <c r="D222" s="66"/>
+      <c r="E222" s="66"/>
+      <c r="F222" s="66"/>
+      <c r="G222" s="66"/>
+      <c r="H222" s="66"/>
+      <c r="I222" s="66"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="64"/>
-      <c r="B223" s="64"/>
-      <c r="C223" s="64"/>
-      <c r="D223" s="64"/>
-      <c r="E223" s="64"/>
-      <c r="F223" s="64"/>
-      <c r="G223" s="64"/>
-      <c r="H223" s="64"/>
-      <c r="I223" s="64"/>
+      <c r="A223" s="66"/>
+      <c r="B223" s="66"/>
+      <c r="C223" s="66"/>
+      <c r="D223" s="66"/>
+      <c r="E223" s="66"/>
+      <c r="F223" s="66"/>
+      <c r="G223" s="66"/>
+      <c r="H223" s="66"/>
+      <c r="I223" s="66"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="64"/>
-      <c r="B224" s="64"/>
-      <c r="C224" s="64"/>
-      <c r="D224" s="64"/>
-      <c r="E224" s="64"/>
-      <c r="F224" s="64"/>
-      <c r="G224" s="64"/>
-      <c r="H224" s="64"/>
-      <c r="I224" s="64"/>
+      <c r="A224" s="66"/>
+      <c r="B224" s="66"/>
+      <c r="C224" s="66"/>
+      <c r="D224" s="66"/>
+      <c r="E224" s="66"/>
+      <c r="F224" s="66"/>
+      <c r="G224" s="66"/>
+      <c r="H224" s="66"/>
+      <c r="I224" s="66"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="64"/>
-      <c r="B225" s="64"/>
-      <c r="C225" s="64"/>
-      <c r="D225" s="64"/>
-      <c r="E225" s="64"/>
-      <c r="F225" s="64"/>
-      <c r="G225" s="64"/>
-      <c r="H225" s="64"/>
-      <c r="I225" s="64"/>
+      <c r="A225" s="66"/>
+      <c r="B225" s="66"/>
+      <c r="C225" s="66"/>
+      <c r="D225" s="66"/>
+      <c r="E225" s="66"/>
+      <c r="F225" s="66"/>
+      <c r="G225" s="66"/>
+      <c r="H225" s="66"/>
+      <c r="I225" s="66"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="64"/>
-      <c r="B226" s="64"/>
-      <c r="C226" s="64"/>
-      <c r="D226" s="64"/>
-      <c r="E226" s="64"/>
-      <c r="F226" s="64"/>
-      <c r="G226" s="64"/>
-      <c r="H226" s="64"/>
-      <c r="I226" s="64"/>
+      <c r="A226" s="66"/>
+      <c r="B226" s="66"/>
+      <c r="C226" s="66"/>
+      <c r="D226" s="66"/>
+      <c r="E226" s="66"/>
+      <c r="F226" s="66"/>
+      <c r="G226" s="66"/>
+      <c r="H226" s="66"/>
+      <c r="I226" s="66"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="64"/>
-      <c r="B227" s="64"/>
-      <c r="C227" s="64"/>
-      <c r="D227" s="64"/>
-      <c r="E227" s="64"/>
-      <c r="F227" s="64"/>
-      <c r="G227" s="64"/>
-      <c r="H227" s="64"/>
-      <c r="I227" s="64"/>
+      <c r="A227" s="66"/>
+      <c r="B227" s="66"/>
+      <c r="C227" s="66"/>
+      <c r="D227" s="66"/>
+      <c r="E227" s="66"/>
+      <c r="F227" s="66"/>
+      <c r="G227" s="66"/>
+      <c r="H227" s="66"/>
+      <c r="I227" s="66"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="64"/>
-      <c r="B228" s="64"/>
-      <c r="C228" s="64"/>
-      <c r="D228" s="64"/>
-      <c r="E228" s="64"/>
-      <c r="F228" s="64"/>
-      <c r="G228" s="64"/>
-      <c r="H228" s="64"/>
-      <c r="I228" s="64"/>
+      <c r="A228" s="66"/>
+      <c r="B228" s="66"/>
+      <c r="C228" s="66"/>
+      <c r="D228" s="66"/>
+      <c r="E228" s="66"/>
+      <c r="F228" s="66"/>
+      <c r="G228" s="66"/>
+      <c r="H228" s="66"/>
+      <c r="I228" s="66"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="64"/>
-      <c r="B229" s="64"/>
-      <c r="C229" s="64"/>
-      <c r="D229" s="64"/>
-      <c r="E229" s="64"/>
-      <c r="F229" s="64"/>
-      <c r="G229" s="64"/>
-      <c r="H229" s="64"/>
-      <c r="I229" s="64"/>
+      <c r="A229" s="66"/>
+      <c r="B229" s="66"/>
+      <c r="C229" s="66"/>
+      <c r="D229" s="66"/>
+      <c r="E229" s="66"/>
+      <c r="F229" s="66"/>
+      <c r="G229" s="66"/>
+      <c r="H229" s="66"/>
+      <c r="I229" s="66"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="64"/>
-      <c r="B230" s="64"/>
-      <c r="C230" s="64"/>
-      <c r="D230" s="64"/>
-      <c r="E230" s="64"/>
-      <c r="F230" s="64"/>
-      <c r="G230" s="64"/>
-      <c r="H230" s="64"/>
-      <c r="I230" s="64"/>
+      <c r="A230" s="66"/>
+      <c r="B230" s="66"/>
+      <c r="C230" s="66"/>
+      <c r="D230" s="66"/>
+      <c r="E230" s="66"/>
+      <c r="F230" s="66"/>
+      <c r="G230" s="66"/>
+      <c r="H230" s="66"/>
+      <c r="I230" s="66"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="64"/>
-      <c r="B231" s="64"/>
-      <c r="C231" s="64"/>
-      <c r="D231" s="64"/>
-      <c r="E231" s="64"/>
-      <c r="F231" s="64"/>
-      <c r="G231" s="64"/>
-      <c r="H231" s="64"/>
-      <c r="I231" s="64"/>
+      <c r="A231" s="66"/>
+      <c r="B231" s="66"/>
+      <c r="C231" s="66"/>
+      <c r="D231" s="66"/>
+      <c r="E231" s="66"/>
+      <c r="F231" s="66"/>
+      <c r="G231" s="66"/>
+      <c r="H231" s="66"/>
+      <c r="I231" s="66"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="64"/>
-      <c r="B232" s="64"/>
-      <c r="C232" s="64"/>
-      <c r="D232" s="64"/>
-      <c r="E232" s="64"/>
-      <c r="F232" s="64"/>
-      <c r="G232" s="64"/>
-      <c r="H232" s="64"/>
-      <c r="I232" s="64"/>
+      <c r="A232" s="66"/>
+      <c r="B232" s="66"/>
+      <c r="C232" s="66"/>
+      <c r="D232" s="66"/>
+      <c r="E232" s="66"/>
+      <c r="F232" s="66"/>
+      <c r="G232" s="66"/>
+      <c r="H232" s="66"/>
+      <c r="I232" s="66"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="64"/>
-      <c r="B233" s="64"/>
-      <c r="C233" s="64"/>
-      <c r="D233" s="64"/>
-      <c r="E233" s="64"/>
-      <c r="F233" s="64"/>
-      <c r="G233" s="64"/>
-      <c r="H233" s="64"/>
-      <c r="I233" s="64"/>
+      <c r="A233" s="66"/>
+      <c r="B233" s="66"/>
+      <c r="C233" s="66"/>
+      <c r="D233" s="66"/>
+      <c r="E233" s="66"/>
+      <c r="F233" s="66"/>
+      <c r="G233" s="66"/>
+      <c r="H233" s="66"/>
+      <c r="I233" s="66"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="64"/>
-      <c r="B234" s="64"/>
-      <c r="C234" s="64"/>
-      <c r="D234" s="64"/>
-      <c r="E234" s="64"/>
-      <c r="F234" s="64"/>
-      <c r="G234" s="64"/>
-      <c r="H234" s="64"/>
-      <c r="I234" s="64"/>
+      <c r="A234" s="66"/>
+      <c r="B234" s="66"/>
+      <c r="C234" s="66"/>
+      <c r="D234" s="66"/>
+      <c r="E234" s="66"/>
+      <c r="F234" s="66"/>
+      <c r="G234" s="66"/>
+      <c r="H234" s="66"/>
+      <c r="I234" s="66"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="64"/>
-      <c r="B235" s="64"/>
-      <c r="C235" s="64"/>
-      <c r="D235" s="64"/>
-      <c r="E235" s="64"/>
-      <c r="F235" s="64"/>
-      <c r="G235" s="64"/>
-      <c r="H235" s="64"/>
-      <c r="I235" s="64"/>
+      <c r="A235" s="66"/>
+      <c r="B235" s="66"/>
+      <c r="C235" s="66"/>
+      <c r="D235" s="66"/>
+      <c r="E235" s="66"/>
+      <c r="F235" s="66"/>
+      <c r="G235" s="66"/>
+      <c r="H235" s="66"/>
+      <c r="I235" s="66"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="64"/>
-      <c r="B236" s="64"/>
-      <c r="C236" s="64"/>
-      <c r="D236" s="64"/>
-      <c r="E236" s="64"/>
-      <c r="F236" s="64"/>
-      <c r="G236" s="64"/>
-      <c r="H236" s="64"/>
-      <c r="I236" s="64"/>
+      <c r="A236" s="66"/>
+      <c r="B236" s="66"/>
+      <c r="C236" s="66"/>
+      <c r="D236" s="66"/>
+      <c r="E236" s="66"/>
+      <c r="F236" s="66"/>
+      <c r="G236" s="66"/>
+      <c r="H236" s="66"/>
+      <c r="I236" s="66"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="64"/>
-      <c r="B237" s="64"/>
-      <c r="C237" s="64"/>
-      <c r="D237" s="64"/>
-      <c r="E237" s="64"/>
-      <c r="F237" s="64"/>
-      <c r="G237" s="64"/>
-      <c r="H237" s="64"/>
-      <c r="I237" s="64"/>
+      <c r="A237" s="66"/>
+      <c r="B237" s="66"/>
+      <c r="C237" s="66"/>
+      <c r="D237" s="66"/>
+      <c r="E237" s="66"/>
+      <c r="F237" s="66"/>
+      <c r="G237" s="66"/>
+      <c r="H237" s="66"/>
+      <c r="I237" s="66"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="64"/>
-      <c r="B238" s="64"/>
-      <c r="C238" s="64"/>
-      <c r="D238" s="64"/>
-      <c r="E238" s="64"/>
-      <c r="F238" s="64"/>
-      <c r="G238" s="64"/>
-      <c r="H238" s="64"/>
-      <c r="I238" s="64"/>
+      <c r="A238" s="66"/>
+      <c r="B238" s="66"/>
+      <c r="C238" s="66"/>
+      <c r="D238" s="66"/>
+      <c r="E238" s="66"/>
+      <c r="F238" s="66"/>
+      <c r="G238" s="66"/>
+      <c r="H238" s="66"/>
+      <c r="I238" s="66"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="64"/>
-      <c r="B239" s="64"/>
-      <c r="C239" s="64"/>
-      <c r="D239" s="64"/>
-      <c r="E239" s="64"/>
-      <c r="F239" s="64"/>
-      <c r="G239" s="64"/>
-      <c r="H239" s="64"/>
-      <c r="I239" s="64"/>
+      <c r="A239" s="66"/>
+      <c r="B239" s="66"/>
+      <c r="C239" s="66"/>
+      <c r="D239" s="66"/>
+      <c r="E239" s="66"/>
+      <c r="F239" s="66"/>
+      <c r="G239" s="66"/>
+      <c r="H239" s="66"/>
+      <c r="I239" s="66"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="64"/>
-      <c r="B240" s="64"/>
-      <c r="C240" s="64"/>
-      <c r="D240" s="64"/>
-      <c r="E240" s="64"/>
-      <c r="F240" s="64"/>
-      <c r="G240" s="64"/>
-      <c r="H240" s="64"/>
-      <c r="I240" s="64"/>
+      <c r="A240" s="66"/>
+      <c r="B240" s="66"/>
+      <c r="C240" s="66"/>
+      <c r="D240" s="66"/>
+      <c r="E240" s="66"/>
+      <c r="F240" s="66"/>
+      <c r="G240" s="66"/>
+      <c r="H240" s="66"/>
+      <c r="I240" s="66"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="64"/>
-      <c r="B241" s="64"/>
-      <c r="C241" s="64"/>
-      <c r="D241" s="64"/>
-      <c r="E241" s="64"/>
-      <c r="F241" s="64"/>
-      <c r="G241" s="64"/>
-      <c r="H241" s="64"/>
-      <c r="I241" s="64"/>
+      <c r="A241" s="66"/>
+      <c r="B241" s="66"/>
+      <c r="C241" s="66"/>
+      <c r="D241" s="66"/>
+      <c r="E241" s="66"/>
+      <c r="F241" s="66"/>
+      <c r="G241" s="66"/>
+      <c r="H241" s="66"/>
+      <c r="I241" s="66"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="64"/>
-      <c r="B242" s="64"/>
-      <c r="C242" s="64"/>
-      <c r="D242" s="64"/>
-      <c r="E242" s="64"/>
-      <c r="F242" s="64"/>
-      <c r="G242" s="64"/>
-      <c r="H242" s="64"/>
-      <c r="I242" s="64"/>
+      <c r="A242" s="66"/>
+      <c r="B242" s="66"/>
+      <c r="C242" s="66"/>
+      <c r="D242" s="66"/>
+      <c r="E242" s="66"/>
+      <c r="F242" s="66"/>
+      <c r="G242" s="66"/>
+      <c r="H242" s="66"/>
+      <c r="I242" s="66"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="64"/>
-      <c r="B243" s="64"/>
-      <c r="C243" s="64"/>
-      <c r="D243" s="64"/>
-      <c r="E243" s="64"/>
-      <c r="F243" s="64"/>
-      <c r="G243" s="64"/>
-      <c r="H243" s="64"/>
-      <c r="I243" s="64"/>
+      <c r="A243" s="66"/>
+      <c r="B243" s="66"/>
+      <c r="C243" s="66"/>
+      <c r="D243" s="66"/>
+      <c r="E243" s="66"/>
+      <c r="F243" s="66"/>
+      <c r="G243" s="66"/>
+      <c r="H243" s="66"/>
+      <c r="I243" s="66"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="64"/>
-      <c r="B244" s="64"/>
-      <c r="C244" s="64"/>
-      <c r="D244" s="64"/>
-      <c r="E244" s="64"/>
-      <c r="F244" s="64"/>
-      <c r="G244" s="64"/>
-      <c r="H244" s="64"/>
-      <c r="I244" s="64"/>
+      <c r="A244" s="66"/>
+      <c r="B244" s="66"/>
+      <c r="C244" s="66"/>
+      <c r="D244" s="66"/>
+      <c r="E244" s="66"/>
+      <c r="F244" s="66"/>
+      <c r="G244" s="66"/>
+      <c r="H244" s="66"/>
+      <c r="I244" s="66"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="64"/>
-      <c r="B245" s="64"/>
-      <c r="C245" s="64"/>
-      <c r="D245" s="64"/>
-      <c r="E245" s="64"/>
-      <c r="F245" s="64"/>
-      <c r="G245" s="64"/>
-      <c r="H245" s="64"/>
-      <c r="I245" s="64"/>
+      <c r="A245" s="66"/>
+      <c r="B245" s="66"/>
+      <c r="C245" s="66"/>
+      <c r="D245" s="66"/>
+      <c r="E245" s="66"/>
+      <c r="F245" s="66"/>
+      <c r="G245" s="66"/>
+      <c r="H245" s="66"/>
+      <c r="I245" s="66"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="64"/>
-      <c r="B246" s="64"/>
-      <c r="C246" s="64"/>
-      <c r="D246" s="64"/>
-      <c r="E246" s="64"/>
-      <c r="F246" s="64"/>
-      <c r="G246" s="64"/>
-      <c r="H246" s="64"/>
-      <c r="I246" s="64"/>
+      <c r="A246" s="66"/>
+      <c r="B246" s="66"/>
+      <c r="C246" s="66"/>
+      <c r="D246" s="66"/>
+      <c r="E246" s="66"/>
+      <c r="F246" s="66"/>
+      <c r="G246" s="66"/>
+      <c r="H246" s="66"/>
+      <c r="I246" s="66"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="64"/>
-      <c r="B247" s="64"/>
-      <c r="C247" s="64"/>
-      <c r="D247" s="64"/>
-      <c r="E247" s="64"/>
-      <c r="F247" s="64"/>
-      <c r="G247" s="64"/>
-      <c r="H247" s="64"/>
-      <c r="I247" s="64"/>
+      <c r="A247" s="66"/>
+      <c r="B247" s="66"/>
+      <c r="C247" s="66"/>
+      <c r="D247" s="66"/>
+      <c r="E247" s="66"/>
+      <c r="F247" s="66"/>
+      <c r="G247" s="66"/>
+      <c r="H247" s="66"/>
+      <c r="I247" s="66"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="64"/>
-      <c r="B248" s="64"/>
-      <c r="C248" s="64"/>
-      <c r="D248" s="64"/>
-      <c r="E248" s="64"/>
-      <c r="F248" s="64"/>
-      <c r="G248" s="64"/>
-      <c r="H248" s="64"/>
-      <c r="I248" s="64"/>
+      <c r="A248" s="66"/>
+      <c r="B248" s="66"/>
+      <c r="C248" s="66"/>
+      <c r="D248" s="66"/>
+      <c r="E248" s="66"/>
+      <c r="F248" s="66"/>
+      <c r="G248" s="66"/>
+      <c r="H248" s="66"/>
+      <c r="I248" s="66"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="64"/>
-      <c r="B249" s="64"/>
-      <c r="C249" s="64"/>
-      <c r="D249" s="64"/>
-      <c r="E249" s="64"/>
-      <c r="F249" s="64"/>
-      <c r="G249" s="64"/>
-      <c r="H249" s="64"/>
-      <c r="I249" s="64"/>
+      <c r="A249" s="66"/>
+      <c r="B249" s="66"/>
+      <c r="C249" s="66"/>
+      <c r="D249" s="66"/>
+      <c r="E249" s="66"/>
+      <c r="F249" s="66"/>
+      <c r="G249" s="66"/>
+      <c r="H249" s="66"/>
+      <c r="I249" s="66"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="64"/>
-      <c r="B250" s="64"/>
-      <c r="C250" s="64"/>
-      <c r="D250" s="64"/>
-      <c r="E250" s="64"/>
-      <c r="F250" s="64"/>
-      <c r="G250" s="64"/>
-      <c r="H250" s="64"/>
-      <c r="I250" s="64"/>
+      <c r="A250" s="66"/>
+      <c r="B250" s="66"/>
+      <c r="C250" s="66"/>
+      <c r="D250" s="66"/>
+      <c r="E250" s="66"/>
+      <c r="F250" s="66"/>
+      <c r="G250" s="66"/>
+      <c r="H250" s="66"/>
+      <c r="I250" s="66"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="64"/>
-      <c r="B251" s="64"/>
-      <c r="C251" s="64"/>
-      <c r="D251" s="64"/>
-      <c r="E251" s="64"/>
-      <c r="F251" s="64"/>
-      <c r="G251" s="64"/>
-      <c r="H251" s="64"/>
-      <c r="I251" s="64"/>
+      <c r="A251" s="66"/>
+      <c r="B251" s="66"/>
+      <c r="C251" s="66"/>
+      <c r="D251" s="66"/>
+      <c r="E251" s="66"/>
+      <c r="F251" s="66"/>
+      <c r="G251" s="66"/>
+      <c r="H251" s="66"/>
+      <c r="I251" s="66"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="64"/>
-      <c r="B252" s="64"/>
-      <c r="C252" s="64"/>
-      <c r="D252" s="64"/>
-      <c r="E252" s="64"/>
-      <c r="F252" s="64"/>
-      <c r="G252" s="64"/>
-      <c r="H252" s="64"/>
-      <c r="I252" s="64"/>
+      <c r="A252" s="66"/>
+      <c r="B252" s="66"/>
+      <c r="C252" s="66"/>
+      <c r="D252" s="66"/>
+      <c r="E252" s="66"/>
+      <c r="F252" s="66"/>
+      <c r="G252" s="66"/>
+      <c r="H252" s="66"/>
+      <c r="I252" s="66"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="64"/>
-      <c r="B253" s="64"/>
-      <c r="C253" s="64"/>
-      <c r="D253" s="64"/>
-      <c r="E253" s="64"/>
-      <c r="F253" s="64"/>
-      <c r="G253" s="64"/>
-      <c r="H253" s="64"/>
-      <c r="I253" s="64"/>
+      <c r="A253" s="66"/>
+      <c r="B253" s="66"/>
+      <c r="C253" s="66"/>
+      <c r="D253" s="66"/>
+      <c r="E253" s="66"/>
+      <c r="F253" s="66"/>
+      <c r="G253" s="66"/>
+      <c r="H253" s="66"/>
+      <c r="I253" s="66"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="64"/>
-      <c r="B254" s="64"/>
-      <c r="C254" s="64"/>
-      <c r="D254" s="64"/>
-      <c r="E254" s="64"/>
-      <c r="F254" s="64"/>
-      <c r="G254" s="64"/>
-      <c r="H254" s="64"/>
-      <c r="I254" s="64"/>
+      <c r="A254" s="66"/>
+      <c r="B254" s="66"/>
+      <c r="C254" s="66"/>
+      <c r="D254" s="66"/>
+      <c r="E254" s="66"/>
+      <c r="F254" s="66"/>
+      <c r="G254" s="66"/>
+      <c r="H254" s="66"/>
+      <c r="I254" s="66"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="64"/>
-      <c r="B255" s="64"/>
-      <c r="C255" s="64"/>
-      <c r="D255" s="64"/>
-      <c r="E255" s="64"/>
-      <c r="F255" s="64"/>
-      <c r="G255" s="64"/>
-      <c r="H255" s="64"/>
-      <c r="I255" s="64"/>
+      <c r="A255" s="66"/>
+      <c r="B255" s="66"/>
+      <c r="C255" s="66"/>
+      <c r="D255" s="66"/>
+      <c r="E255" s="66"/>
+      <c r="F255" s="66"/>
+      <c r="G255" s="66"/>
+      <c r="H255" s="66"/>
+      <c r="I255" s="66"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="64"/>
-      <c r="B256" s="64"/>
-      <c r="C256" s="64"/>
-      <c r="D256" s="64"/>
-      <c r="E256" s="64"/>
-      <c r="F256" s="64"/>
-      <c r="G256" s="64"/>
-      <c r="H256" s="64"/>
-      <c r="I256" s="64"/>
+      <c r="A256" s="66"/>
+      <c r="B256" s="66"/>
+      <c r="C256" s="66"/>
+      <c r="D256" s="66"/>
+      <c r="E256" s="66"/>
+      <c r="F256" s="66"/>
+      <c r="G256" s="66"/>
+      <c r="H256" s="66"/>
+      <c r="I256" s="66"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="64"/>
-      <c r="B257" s="64"/>
-      <c r="C257" s="64"/>
-      <c r="D257" s="64"/>
-      <c r="E257" s="64"/>
-      <c r="F257" s="64"/>
-      <c r="G257" s="64"/>
-      <c r="H257" s="64"/>
-      <c r="I257" s="64"/>
+      <c r="A257" s="66"/>
+      <c r="B257" s="66"/>
+      <c r="C257" s="66"/>
+      <c r="D257" s="66"/>
+      <c r="E257" s="66"/>
+      <c r="F257" s="66"/>
+      <c r="G257" s="66"/>
+      <c r="H257" s="66"/>
+      <c r="I257" s="66"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="64"/>
-      <c r="B258" s="64"/>
-      <c r="C258" s="64"/>
-      <c r="D258" s="64"/>
-      <c r="E258" s="64"/>
-      <c r="F258" s="64"/>
-      <c r="G258" s="64"/>
-      <c r="H258" s="64"/>
-      <c r="I258" s="64"/>
+      <c r="A258" s="66"/>
+      <c r="B258" s="66"/>
+      <c r="C258" s="66"/>
+      <c r="D258" s="66"/>
+      <c r="E258" s="66"/>
+      <c r="F258" s="66"/>
+      <c r="G258" s="66"/>
+      <c r="H258" s="66"/>
+      <c r="I258" s="66"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="64"/>
-      <c r="B259" s="64"/>
-      <c r="C259" s="64"/>
-      <c r="D259" s="64"/>
-      <c r="E259" s="64"/>
-      <c r="F259" s="64"/>
-      <c r="G259" s="64"/>
-      <c r="H259" s="64"/>
-      <c r="I259" s="64"/>
+      <c r="A259" s="66"/>
+      <c r="B259" s="66"/>
+      <c r="C259" s="66"/>
+      <c r="D259" s="66"/>
+      <c r="E259" s="66"/>
+      <c r="F259" s="66"/>
+      <c r="G259" s="66"/>
+      <c r="H259" s="66"/>
+      <c r="I259" s="66"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="64"/>
-      <c r="B260" s="64"/>
-      <c r="C260" s="64"/>
-      <c r="D260" s="64"/>
-      <c r="E260" s="64"/>
-      <c r="F260" s="64"/>
-      <c r="G260" s="64"/>
-      <c r="H260" s="64"/>
-      <c r="I260" s="64"/>
+      <c r="A260" s="66"/>
+      <c r="B260" s="66"/>
+      <c r="C260" s="66"/>
+      <c r="D260" s="66"/>
+      <c r="E260" s="66"/>
+      <c r="F260" s="66"/>
+      <c r="G260" s="66"/>
+      <c r="H260" s="66"/>
+      <c r="I260" s="66"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="64"/>
-      <c r="B261" s="64"/>
-      <c r="C261" s="64"/>
-      <c r="D261" s="64"/>
-      <c r="E261" s="64"/>
-      <c r="F261" s="64"/>
-      <c r="G261" s="64"/>
-      <c r="H261" s="64"/>
-      <c r="I261" s="64"/>
+      <c r="A261" s="66"/>
+      <c r="B261" s="66"/>
+      <c r="C261" s="66"/>
+      <c r="D261" s="66"/>
+      <c r="E261" s="66"/>
+      <c r="F261" s="66"/>
+      <c r="G261" s="66"/>
+      <c r="H261" s="66"/>
+      <c r="I261" s="66"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="64"/>
-      <c r="B262" s="64"/>
-      <c r="C262" s="64"/>
-      <c r="D262" s="64"/>
-      <c r="E262" s="64"/>
-      <c r="F262" s="64"/>
-      <c r="G262" s="64"/>
-      <c r="H262" s="64"/>
-      <c r="I262" s="64"/>
+      <c r="A262" s="66"/>
+      <c r="B262" s="66"/>
+      <c r="C262" s="66"/>
+      <c r="D262" s="66"/>
+      <c r="E262" s="66"/>
+      <c r="F262" s="66"/>
+      <c r="G262" s="66"/>
+      <c r="H262" s="66"/>
+      <c r="I262" s="66"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="64"/>
-      <c r="B263" s="64"/>
-      <c r="C263" s="64"/>
-      <c r="D263" s="64"/>
-      <c r="E263" s="64"/>
-      <c r="F263" s="64"/>
-      <c r="G263" s="64"/>
-      <c r="H263" s="64"/>
-      <c r="I263" s="64"/>
+      <c r="A263" s="66"/>
+      <c r="B263" s="66"/>
+      <c r="C263" s="66"/>
+      <c r="D263" s="66"/>
+      <c r="E263" s="66"/>
+      <c r="F263" s="66"/>
+      <c r="G263" s="66"/>
+      <c r="H263" s="66"/>
+      <c r="I263" s="66"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="64"/>
-      <c r="B264" s="64"/>
-      <c r="C264" s="64"/>
-      <c r="D264" s="64"/>
-      <c r="E264" s="64"/>
-      <c r="F264" s="64"/>
-      <c r="G264" s="64"/>
-      <c r="H264" s="64"/>
-      <c r="I264" s="64"/>
+      <c r="A264" s="66"/>
+      <c r="B264" s="66"/>
+      <c r="C264" s="66"/>
+      <c r="D264" s="66"/>
+      <c r="E264" s="66"/>
+      <c r="F264" s="66"/>
+      <c r="G264" s="66"/>
+      <c r="H264" s="66"/>
+      <c r="I264" s="66"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="64"/>
-      <c r="B265" s="64"/>
-      <c r="C265" s="64"/>
-      <c r="D265" s="64"/>
-      <c r="E265" s="64"/>
-      <c r="F265" s="64"/>
-      <c r="G265" s="64"/>
-      <c r="H265" s="64"/>
-      <c r="I265" s="64"/>
+      <c r="A265" s="66"/>
+      <c r="B265" s="66"/>
+      <c r="C265" s="66"/>
+      <c r="D265" s="66"/>
+      <c r="E265" s="66"/>
+      <c r="F265" s="66"/>
+      <c r="G265" s="66"/>
+      <c r="H265" s="66"/>
+      <c r="I265" s="66"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="64"/>
-      <c r="B266" s="64"/>
-      <c r="C266" s="64"/>
-      <c r="D266" s="64"/>
-      <c r="E266" s="64"/>
-      <c r="F266" s="64"/>
-      <c r="G266" s="64"/>
-      <c r="H266" s="64"/>
-      <c r="I266" s="64"/>
+      <c r="A266" s="66"/>
+      <c r="B266" s="66"/>
+      <c r="C266" s="66"/>
+      <c r="D266" s="66"/>
+      <c r="E266" s="66"/>
+      <c r="F266" s="66"/>
+      <c r="G266" s="66"/>
+      <c r="H266" s="66"/>
+      <c r="I266" s="66"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="64"/>
-      <c r="B267" s="64"/>
-      <c r="C267" s="64"/>
-      <c r="D267" s="64"/>
-      <c r="E267" s="64"/>
-      <c r="F267" s="64"/>
-      <c r="G267" s="64"/>
-      <c r="H267" s="64"/>
-      <c r="I267" s="64"/>
+      <c r="A267" s="66"/>
+      <c r="B267" s="66"/>
+      <c r="C267" s="66"/>
+      <c r="D267" s="66"/>
+      <c r="E267" s="66"/>
+      <c r="F267" s="66"/>
+      <c r="G267" s="66"/>
+      <c r="H267" s="66"/>
+      <c r="I267" s="66"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="64"/>
-      <c r="B268" s="64"/>
-      <c r="C268" s="64"/>
-      <c r="D268" s="64"/>
-      <c r="E268" s="64"/>
-      <c r="F268" s="64"/>
-      <c r="G268" s="64"/>
-      <c r="H268" s="64"/>
-      <c r="I268" s="64"/>
+      <c r="A268" s="66"/>
+      <c r="B268" s="66"/>
+      <c r="C268" s="66"/>
+      <c r="D268" s="66"/>
+      <c r="E268" s="66"/>
+      <c r="F268" s="66"/>
+      <c r="G268" s="66"/>
+      <c r="H268" s="66"/>
+      <c r="I268" s="66"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="64"/>
-      <c r="B269" s="64"/>
-      <c r="C269" s="64"/>
-      <c r="D269" s="64"/>
-      <c r="E269" s="64"/>
-      <c r="F269" s="64"/>
-      <c r="G269" s="64"/>
-      <c r="H269" s="64"/>
-      <c r="I269" s="64"/>
+      <c r="A269" s="66"/>
+      <c r="B269" s="66"/>
+      <c r="C269" s="66"/>
+      <c r="D269" s="66"/>
+      <c r="E269" s="66"/>
+      <c r="F269" s="66"/>
+      <c r="G269" s="66"/>
+      <c r="H269" s="66"/>
+      <c r="I269" s="66"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="64"/>
-      <c r="B270" s="64"/>
-      <c r="C270" s="64"/>
-      <c r="D270" s="64"/>
-      <c r="E270" s="64"/>
-      <c r="F270" s="64"/>
-      <c r="G270" s="64"/>
-      <c r="H270" s="64"/>
-      <c r="I270" s="64"/>
+      <c r="A270" s="66"/>
+      <c r="B270" s="66"/>
+      <c r="C270" s="66"/>
+      <c r="D270" s="66"/>
+      <c r="E270" s="66"/>
+      <c r="F270" s="66"/>
+      <c r="G270" s="66"/>
+      <c r="H270" s="66"/>
+      <c r="I270" s="66"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="64"/>
-      <c r="B271" s="64"/>
-      <c r="C271" s="64"/>
-      <c r="D271" s="64"/>
-      <c r="E271" s="64"/>
-      <c r="F271" s="64"/>
-      <c r="G271" s="64"/>
-      <c r="H271" s="64"/>
-      <c r="I271" s="64"/>
+      <c r="A271" s="66"/>
+      <c r="B271" s="66"/>
+      <c r="C271" s="66"/>
+      <c r="D271" s="66"/>
+      <c r="E271" s="66"/>
+      <c r="F271" s="66"/>
+      <c r="G271" s="66"/>
+      <c r="H271" s="66"/>
+      <c r="I271" s="66"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="64"/>
-      <c r="B272" s="64"/>
-      <c r="C272" s="64"/>
-      <c r="D272" s="64"/>
-      <c r="E272" s="64"/>
-      <c r="F272" s="64"/>
-      <c r="G272" s="64"/>
-      <c r="H272" s="64"/>
-      <c r="I272" s="64"/>
+      <c r="A272" s="66"/>
+      <c r="B272" s="66"/>
+      <c r="C272" s="66"/>
+      <c r="D272" s="66"/>
+      <c r="E272" s="66"/>
+      <c r="F272" s="66"/>
+      <c r="G272" s="66"/>
+      <c r="H272" s="66"/>
+      <c r="I272" s="66"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="64"/>
-      <c r="B273" s="64"/>
-      <c r="C273" s="64"/>
-      <c r="D273" s="64"/>
-      <c r="E273" s="64"/>
-      <c r="F273" s="64"/>
-      <c r="G273" s="64"/>
-      <c r="H273" s="64"/>
-      <c r="I273" s="64"/>
+      <c r="A273" s="66"/>
+      <c r="B273" s="66"/>
+      <c r="C273" s="66"/>
+      <c r="D273" s="66"/>
+      <c r="E273" s="66"/>
+      <c r="F273" s="66"/>
+      <c r="G273" s="66"/>
+      <c r="H273" s="66"/>
+      <c r="I273" s="66"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="64"/>
-      <c r="B274" s="64"/>
-      <c r="C274" s="64"/>
-      <c r="D274" s="64"/>
-      <c r="E274" s="64"/>
-      <c r="F274" s="64"/>
-      <c r="G274" s="64"/>
-      <c r="H274" s="64"/>
-      <c r="I274" s="64"/>
+      <c r="A274" s="66"/>
+      <c r="B274" s="66"/>
+      <c r="C274" s="66"/>
+      <c r="D274" s="66"/>
+      <c r="E274" s="66"/>
+      <c r="F274" s="66"/>
+      <c r="G274" s="66"/>
+      <c r="H274" s="66"/>
+      <c r="I274" s="66"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="64"/>
-      <c r="B275" s="64"/>
-      <c r="C275" s="64"/>
-      <c r="D275" s="64"/>
-      <c r="E275" s="64"/>
-      <c r="F275" s="64"/>
-      <c r="G275" s="64"/>
-      <c r="H275" s="64"/>
-      <c r="I275" s="64"/>
+      <c r="A275" s="66"/>
+      <c r="B275" s="66"/>
+      <c r="C275" s="66"/>
+      <c r="D275" s="66"/>
+      <c r="E275" s="66"/>
+      <c r="F275" s="66"/>
+      <c r="G275" s="66"/>
+      <c r="H275" s="66"/>
+      <c r="I275" s="66"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="64"/>
-      <c r="B276" s="64"/>
-      <c r="C276" s="64"/>
-      <c r="D276" s="64"/>
-      <c r="E276" s="64"/>
-      <c r="F276" s="64"/>
-      <c r="G276" s="64"/>
-      <c r="H276" s="64"/>
-      <c r="I276" s="64"/>
+      <c r="A276" s="66"/>
+      <c r="B276" s="66"/>
+      <c r="C276" s="66"/>
+      <c r="D276" s="66"/>
+      <c r="E276" s="66"/>
+      <c r="F276" s="66"/>
+      <c r="G276" s="66"/>
+      <c r="H276" s="66"/>
+      <c r="I276" s="66"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="64"/>
-      <c r="B277" s="64"/>
-      <c r="C277" s="64"/>
-      <c r="D277" s="64"/>
-      <c r="E277" s="64"/>
-      <c r="F277" s="64"/>
-      <c r="G277" s="64"/>
-      <c r="H277" s="64"/>
-      <c r="I277" s="64"/>
+      <c r="A277" s="66"/>
+      <c r="B277" s="66"/>
+      <c r="C277" s="66"/>
+      <c r="D277" s="66"/>
+      <c r="E277" s="66"/>
+      <c r="F277" s="66"/>
+      <c r="G277" s="66"/>
+      <c r="H277" s="66"/>
+      <c r="I277" s="66"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="64"/>
-      <c r="B278" s="64"/>
-      <c r="C278" s="64"/>
-      <c r="D278" s="64"/>
-      <c r="E278" s="64"/>
-      <c r="F278" s="64"/>
-      <c r="G278" s="64"/>
-      <c r="H278" s="64"/>
-      <c r="I278" s="64"/>
+      <c r="A278" s="66"/>
+      <c r="B278" s="66"/>
+      <c r="C278" s="66"/>
+      <c r="D278" s="66"/>
+      <c r="E278" s="66"/>
+      <c r="F278" s="66"/>
+      <c r="G278" s="66"/>
+      <c r="H278" s="66"/>
+      <c r="I278" s="66"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="64"/>
-      <c r="B279" s="64"/>
-      <c r="C279" s="64"/>
-      <c r="D279" s="64"/>
-      <c r="E279" s="64"/>
-      <c r="F279" s="64"/>
-      <c r="G279" s="64"/>
-      <c r="H279" s="64"/>
-      <c r="I279" s="64"/>
+      <c r="A279" s="66"/>
+      <c r="B279" s="66"/>
+      <c r="C279" s="66"/>
+      <c r="D279" s="66"/>
+      <c r="E279" s="66"/>
+      <c r="F279" s="66"/>
+      <c r="G279" s="66"/>
+      <c r="H279" s="66"/>
+      <c r="I279" s="66"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="64"/>
-      <c r="B280" s="64"/>
-      <c r="C280" s="64"/>
-      <c r="D280" s="64"/>
-      <c r="E280" s="64"/>
-      <c r="F280" s="64"/>
-      <c r="G280" s="64"/>
-      <c r="H280" s="64"/>
-      <c r="I280" s="64"/>
+      <c r="A280" s="66"/>
+      <c r="B280" s="66"/>
+      <c r="C280" s="66"/>
+      <c r="D280" s="66"/>
+      <c r="E280" s="66"/>
+      <c r="F280" s="66"/>
+      <c r="G280" s="66"/>
+      <c r="H280" s="66"/>
+      <c r="I280" s="66"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="64"/>
-      <c r="B281" s="64"/>
-      <c r="C281" s="64"/>
-      <c r="D281" s="64"/>
-      <c r="E281" s="64"/>
-      <c r="F281" s="64"/>
-      <c r="G281" s="64"/>
-      <c r="H281" s="64"/>
-      <c r="I281" s="64"/>
+      <c r="A281" s="66"/>
+      <c r="B281" s="66"/>
+      <c r="C281" s="66"/>
+      <c r="D281" s="66"/>
+      <c r="E281" s="66"/>
+      <c r="F281" s="66"/>
+      <c r="G281" s="66"/>
+      <c r="H281" s="66"/>
+      <c r="I281" s="66"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="64"/>
-      <c r="B282" s="64"/>
-      <c r="C282" s="64"/>
-      <c r="D282" s="64"/>
-      <c r="E282" s="64"/>
-      <c r="F282" s="64"/>
-      <c r="G282" s="64"/>
-      <c r="H282" s="64"/>
-      <c r="I282" s="64"/>
+      <c r="A282" s="66"/>
+      <c r="B282" s="66"/>
+      <c r="C282" s="66"/>
+      <c r="D282" s="66"/>
+      <c r="E282" s="66"/>
+      <c r="F282" s="66"/>
+      <c r="G282" s="66"/>
+      <c r="H282" s="66"/>
+      <c r="I282" s="66"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="64"/>
-      <c r="B283" s="64"/>
-      <c r="C283" s="64"/>
-      <c r="D283" s="64"/>
-      <c r="E283" s="64"/>
-      <c r="F283" s="64"/>
-      <c r="G283" s="64"/>
-      <c r="H283" s="64"/>
-      <c r="I283" s="64"/>
+      <c r="A283" s="66"/>
+      <c r="B283" s="66"/>
+      <c r="C283" s="66"/>
+      <c r="D283" s="66"/>
+      <c r="E283" s="66"/>
+      <c r="F283" s="66"/>
+      <c r="G283" s="66"/>
+      <c r="H283" s="66"/>
+      <c r="I283" s="66"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="64"/>
-      <c r="B284" s="64"/>
-      <c r="C284" s="64"/>
-      <c r="D284" s="64"/>
-      <c r="E284" s="64"/>
-      <c r="F284" s="64"/>
-      <c r="G284" s="64"/>
-      <c r="H284" s="64"/>
-      <c r="I284" s="64"/>
+      <c r="A284" s="66"/>
+      <c r="B284" s="66"/>
+      <c r="C284" s="66"/>
+      <c r="D284" s="66"/>
+      <c r="E284" s="66"/>
+      <c r="F284" s="66"/>
+      <c r="G284" s="66"/>
+      <c r="H284" s="66"/>
+      <c r="I284" s="66"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="64"/>
-      <c r="B285" s="64"/>
-      <c r="C285" s="64"/>
-      <c r="D285" s="64"/>
-      <c r="E285" s="64"/>
-      <c r="F285" s="64"/>
-      <c r="G285" s="64"/>
-      <c r="H285" s="64"/>
-      <c r="I285" s="64"/>
+      <c r="A285" s="66"/>
+      <c r="B285" s="66"/>
+      <c r="C285" s="66"/>
+      <c r="D285" s="66"/>
+      <c r="E285" s="66"/>
+      <c r="F285" s="66"/>
+      <c r="G285" s="66"/>
+      <c r="H285" s="66"/>
+      <c r="I285" s="66"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="64"/>
-      <c r="B286" s="64"/>
-      <c r="C286" s="64"/>
-      <c r="D286" s="64"/>
-      <c r="E286" s="64"/>
-      <c r="F286" s="64"/>
-      <c r="G286" s="64"/>
-      <c r="H286" s="64"/>
-      <c r="I286" s="64"/>
+      <c r="A286" s="66"/>
+      <c r="B286" s="66"/>
+      <c r="C286" s="66"/>
+      <c r="D286" s="66"/>
+      <c r="E286" s="66"/>
+      <c r="F286" s="66"/>
+      <c r="G286" s="66"/>
+      <c r="H286" s="66"/>
+      <c r="I286" s="66"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="64"/>
-      <c r="B287" s="64"/>
-      <c r="C287" s="64"/>
-      <c r="D287" s="64"/>
-      <c r="E287" s="64"/>
-      <c r="F287" s="64"/>
-      <c r="G287" s="64"/>
-      <c r="H287" s="64"/>
-      <c r="I287" s="64"/>
+      <c r="A287" s="66"/>
+      <c r="B287" s="66"/>
+      <c r="C287" s="66"/>
+      <c r="D287" s="66"/>
+      <c r="E287" s="66"/>
+      <c r="F287" s="66"/>
+      <c r="G287" s="66"/>
+      <c r="H287" s="66"/>
+      <c r="I287" s="66"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="64"/>
-      <c r="B288" s="64"/>
-      <c r="C288" s="64"/>
-      <c r="D288" s="64"/>
-      <c r="E288" s="64"/>
-      <c r="F288" s="64"/>
-      <c r="G288" s="64"/>
-      <c r="H288" s="64"/>
-      <c r="I288" s="64"/>
+      <c r="A288" s="66"/>
+      <c r="B288" s="66"/>
+      <c r="C288" s="66"/>
+      <c r="D288" s="66"/>
+      <c r="E288" s="66"/>
+      <c r="F288" s="66"/>
+      <c r="G288" s="66"/>
+      <c r="H288" s="66"/>
+      <c r="I288" s="66"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="64"/>
-      <c r="B289" s="64"/>
-      <c r="C289" s="64"/>
-      <c r="D289" s="64"/>
-      <c r="E289" s="64"/>
-      <c r="F289" s="64"/>
-      <c r="G289" s="64"/>
-      <c r="H289" s="64"/>
-      <c r="I289" s="64"/>
+      <c r="A289" s="66"/>
+      <c r="B289" s="66"/>
+      <c r="C289" s="66"/>
+      <c r="D289" s="66"/>
+      <c r="E289" s="66"/>
+      <c r="F289" s="66"/>
+      <c r="G289" s="66"/>
+      <c r="H289" s="66"/>
+      <c r="I289" s="66"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="64"/>
-      <c r="B290" s="64"/>
-      <c r="C290" s="64"/>
-      <c r="D290" s="64"/>
-      <c r="E290" s="64"/>
-      <c r="F290" s="64"/>
-      <c r="G290" s="64"/>
-      <c r="H290" s="64"/>
-      <c r="I290" s="64"/>
+      <c r="A290" s="66"/>
+      <c r="B290" s="66"/>
+      <c r="C290" s="66"/>
+      <c r="D290" s="66"/>
+      <c r="E290" s="66"/>
+      <c r="F290" s="66"/>
+      <c r="G290" s="66"/>
+      <c r="H290" s="66"/>
+      <c r="I290" s="66"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="64"/>
-      <c r="B291" s="64"/>
-      <c r="C291" s="64"/>
-      <c r="D291" s="64"/>
-      <c r="E291" s="64"/>
-      <c r="F291" s="64"/>
-      <c r="G291" s="64"/>
-      <c r="H291" s="64"/>
-      <c r="I291" s="64"/>
+      <c r="A291" s="66"/>
+      <c r="B291" s="66"/>
+      <c r="C291" s="66"/>
+      <c r="D291" s="66"/>
+      <c r="E291" s="66"/>
+      <c r="F291" s="66"/>
+      <c r="G291" s="66"/>
+      <c r="H291" s="66"/>
+      <c r="I291" s="66"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="64"/>
-      <c r="B292" s="64"/>
-      <c r="C292" s="64"/>
-      <c r="D292" s="64"/>
-      <c r="E292" s="64"/>
-      <c r="F292" s="64"/>
-      <c r="G292" s="64"/>
-      <c r="H292" s="64"/>
-      <c r="I292" s="64"/>
+      <c r="A292" s="66"/>
+      <c r="B292" s="66"/>
+      <c r="C292" s="66"/>
+      <c r="D292" s="66"/>
+      <c r="E292" s="66"/>
+      <c r="F292" s="66"/>
+      <c r="G292" s="66"/>
+      <c r="H292" s="66"/>
+      <c r="I292" s="66"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="64"/>
-      <c r="B293" s="64"/>
-      <c r="C293" s="64"/>
-      <c r="D293" s="64"/>
-      <c r="E293" s="64"/>
-      <c r="F293" s="64"/>
-      <c r="G293" s="64"/>
-      <c r="H293" s="64"/>
-      <c r="I293" s="64"/>
+      <c r="A293" s="66"/>
+      <c r="B293" s="66"/>
+      <c r="C293" s="66"/>
+      <c r="D293" s="66"/>
+      <c r="E293" s="66"/>
+      <c r="F293" s="66"/>
+      <c r="G293" s="66"/>
+      <c r="H293" s="66"/>
+      <c r="I293" s="66"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="64"/>
-      <c r="B294" s="64"/>
-      <c r="C294" s="64"/>
-      <c r="D294" s="64"/>
-      <c r="E294" s="64"/>
-      <c r="F294" s="64"/>
-      <c r="G294" s="64"/>
-      <c r="H294" s="64"/>
-      <c r="I294" s="64"/>
+      <c r="A294" s="66"/>
+      <c r="B294" s="66"/>
+      <c r="C294" s="66"/>
+      <c r="D294" s="66"/>
+      <c r="E294" s="66"/>
+      <c r="F294" s="66"/>
+      <c r="G294" s="66"/>
+      <c r="H294" s="66"/>
+      <c r="I294" s="66"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="64"/>
-      <c r="B295" s="64"/>
-      <c r="C295" s="64"/>
-      <c r="D295" s="64"/>
-      <c r="E295" s="64"/>
-      <c r="F295" s="64"/>
-      <c r="G295" s="64"/>
-      <c r="H295" s="64"/>
-      <c r="I295" s="64"/>
+      <c r="A295" s="66"/>
+      <c r="B295" s="66"/>
+      <c r="C295" s="66"/>
+      <c r="D295" s="66"/>
+      <c r="E295" s="66"/>
+      <c r="F295" s="66"/>
+      <c r="G295" s="66"/>
+      <c r="H295" s="66"/>
+      <c r="I295" s="66"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="64"/>
-      <c r="B296" s="64"/>
-      <c r="C296" s="64"/>
-      <c r="D296" s="64"/>
-      <c r="E296" s="64"/>
-      <c r="F296" s="64"/>
-      <c r="G296" s="64"/>
-      <c r="H296" s="64"/>
-      <c r="I296" s="64"/>
+      <c r="A296" s="66"/>
+      <c r="B296" s="66"/>
+      <c r="C296" s="66"/>
+      <c r="D296" s="66"/>
+      <c r="E296" s="66"/>
+      <c r="F296" s="66"/>
+      <c r="G296" s="66"/>
+      <c r="H296" s="66"/>
+      <c r="I296" s="66"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="64"/>
-      <c r="B297" s="64"/>
-      <c r="C297" s="64"/>
-      <c r="D297" s="64"/>
-      <c r="E297" s="64"/>
-      <c r="F297" s="64"/>
-      <c r="G297" s="64"/>
-      <c r="H297" s="64"/>
-      <c r="I297" s="64"/>
+      <c r="A297" s="66"/>
+      <c r="B297" s="66"/>
+      <c r="C297" s="66"/>
+      <c r="D297" s="66"/>
+      <c r="E297" s="66"/>
+      <c r="F297" s="66"/>
+      <c r="G297" s="66"/>
+      <c r="H297" s="66"/>
+      <c r="I297" s="66"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="64"/>
-      <c r="B298" s="64"/>
-      <c r="C298" s="64"/>
-      <c r="D298" s="64"/>
-      <c r="E298" s="64"/>
-      <c r="F298" s="64"/>
-      <c r="G298" s="64"/>
-      <c r="H298" s="64"/>
-      <c r="I298" s="64"/>
+      <c r="A298" s="66"/>
+      <c r="B298" s="66"/>
+      <c r="C298" s="66"/>
+      <c r="D298" s="66"/>
+      <c r="E298" s="66"/>
+      <c r="F298" s="66"/>
+      <c r="G298" s="66"/>
+      <c r="H298" s="66"/>
+      <c r="I298" s="66"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="64"/>
-      <c r="B299" s="64"/>
-      <c r="C299" s="64"/>
-      <c r="D299" s="64"/>
-      <c r="E299" s="64"/>
-      <c r="F299" s="64"/>
-      <c r="G299" s="64"/>
-      <c r="H299" s="64"/>
-      <c r="I299" s="64"/>
+      <c r="A299" s="66"/>
+      <c r="B299" s="66"/>
+      <c r="C299" s="66"/>
+      <c r="D299" s="66"/>
+      <c r="E299" s="66"/>
+      <c r="F299" s="66"/>
+      <c r="G299" s="66"/>
+      <c r="H299" s="66"/>
+      <c r="I299" s="66"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="64"/>
-      <c r="B300" s="64"/>
-      <c r="C300" s="64"/>
-      <c r="D300" s="64"/>
-      <c r="E300" s="64"/>
-      <c r="F300" s="64"/>
-      <c r="G300" s="64"/>
-      <c r="H300" s="64"/>
-      <c r="I300" s="64"/>
+      <c r="A300" s="66"/>
+      <c r="B300" s="66"/>
+      <c r="C300" s="66"/>
+      <c r="D300" s="66"/>
+      <c r="E300" s="66"/>
+      <c r="F300" s="66"/>
+      <c r="G300" s="66"/>
+      <c r="H300" s="66"/>
+      <c r="I300" s="66"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="64"/>
-      <c r="B301" s="64"/>
-      <c r="C301" s="64"/>
-      <c r="D301" s="64"/>
-      <c r="E301" s="64"/>
-      <c r="F301" s="64"/>
-      <c r="G301" s="64"/>
-      <c r="H301" s="64"/>
-      <c r="I301" s="64"/>
+      <c r="A301" s="66"/>
+      <c r="B301" s="66"/>
+      <c r="C301" s="66"/>
+      <c r="D301" s="66"/>
+      <c r="E301" s="66"/>
+      <c r="F301" s="66"/>
+      <c r="G301" s="66"/>
+      <c r="H301" s="66"/>
+      <c r="I301" s="66"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="64"/>
-      <c r="B302" s="64"/>
-      <c r="C302" s="64"/>
-      <c r="D302" s="64"/>
-      <c r="E302" s="64"/>
-      <c r="F302" s="64"/>
-      <c r="G302" s="64"/>
-      <c r="H302" s="64"/>
-      <c r="I302" s="64"/>
+      <c r="A302" s="66"/>
+      <c r="B302" s="66"/>
+      <c r="C302" s="66"/>
+      <c r="D302" s="66"/>
+      <c r="E302" s="66"/>
+      <c r="F302" s="66"/>
+      <c r="G302" s="66"/>
+      <c r="H302" s="66"/>
+      <c r="I302" s="66"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="64"/>
-      <c r="B303" s="64"/>
-      <c r="C303" s="64"/>
-      <c r="D303" s="64"/>
-      <c r="E303" s="64"/>
-      <c r="F303" s="64"/>
-      <c r="G303" s="64"/>
-      <c r="H303" s="64"/>
-      <c r="I303" s="64"/>
+      <c r="A303" s="66"/>
+      <c r="B303" s="66"/>
+      <c r="C303" s="66"/>
+      <c r="D303" s="66"/>
+      <c r="E303" s="66"/>
+      <c r="F303" s="66"/>
+      <c r="G303" s="66"/>
+      <c r="H303" s="66"/>
+      <c r="I303" s="66"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="64"/>
-      <c r="B304" s="64"/>
-      <c r="C304" s="64"/>
-      <c r="D304" s="64"/>
-      <c r="E304" s="64"/>
-      <c r="F304" s="64"/>
-      <c r="G304" s="64"/>
-      <c r="H304" s="64"/>
-      <c r="I304" s="64"/>
+      <c r="A304" s="66"/>
+      <c r="B304" s="66"/>
+      <c r="C304" s="66"/>
+      <c r="D304" s="66"/>
+      <c r="E304" s="66"/>
+      <c r="F304" s="66"/>
+      <c r="G304" s="66"/>
+      <c r="H304" s="66"/>
+      <c r="I304" s="66"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="64"/>
-      <c r="B305" s="64"/>
-      <c r="C305" s="64"/>
-      <c r="D305" s="64"/>
-      <c r="E305" s="64"/>
-      <c r="F305" s="64"/>
-      <c r="G305" s="64"/>
-      <c r="H305" s="64"/>
-      <c r="I305" s="64"/>
+      <c r="A305" s="66"/>
+      <c r="B305" s="66"/>
+      <c r="C305" s="66"/>
+      <c r="D305" s="66"/>
+      <c r="E305" s="66"/>
+      <c r="F305" s="66"/>
+      <c r="G305" s="66"/>
+      <c r="H305" s="66"/>
+      <c r="I305" s="66"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="64"/>
-      <c r="B306" s="64"/>
-      <c r="C306" s="64"/>
-      <c r="D306" s="64"/>
-      <c r="E306" s="64"/>
-      <c r="F306" s="64"/>
-      <c r="G306" s="64"/>
-      <c r="H306" s="64"/>
-      <c r="I306" s="64"/>
+      <c r="A306" s="66"/>
+      <c r="B306" s="66"/>
+      <c r="C306" s="66"/>
+      <c r="D306" s="66"/>
+      <c r="E306" s="66"/>
+      <c r="F306" s="66"/>
+      <c r="G306" s="66"/>
+      <c r="H306" s="66"/>
+      <c r="I306" s="66"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="64"/>
-      <c r="B307" s="64"/>
-      <c r="C307" s="64"/>
-      <c r="D307" s="64"/>
-      <c r="E307" s="64"/>
-      <c r="F307" s="64"/>
-      <c r="G307" s="64"/>
-      <c r="H307" s="64"/>
-      <c r="I307" s="64"/>
+      <c r="A307" s="66"/>
+      <c r="B307" s="66"/>
+      <c r="C307" s="66"/>
+      <c r="D307" s="66"/>
+      <c r="E307" s="66"/>
+      <c r="F307" s="66"/>
+      <c r="G307" s="66"/>
+      <c r="H307" s="66"/>
+      <c r="I307" s="66"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="64"/>
-      <c r="B308" s="64"/>
-      <c r="C308" s="64"/>
-      <c r="D308" s="64"/>
-      <c r="E308" s="64"/>
-      <c r="F308" s="64"/>
-      <c r="G308" s="64"/>
-      <c r="H308" s="64"/>
-      <c r="I308" s="64"/>
+      <c r="A308" s="66"/>
+      <c r="B308" s="66"/>
+      <c r="C308" s="66"/>
+      <c r="D308" s="66"/>
+      <c r="E308" s="66"/>
+      <c r="F308" s="66"/>
+      <c r="G308" s="66"/>
+      <c r="H308" s="66"/>
+      <c r="I308" s="66"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="64"/>
-      <c r="B309" s="64"/>
-      <c r="C309" s="64"/>
-      <c r="D309" s="64"/>
-      <c r="E309" s="64"/>
-      <c r="F309" s="64"/>
-      <c r="G309" s="64"/>
-      <c r="H309" s="64"/>
-      <c r="I309" s="64"/>
+      <c r="A309" s="66"/>
+      <c r="B309" s="66"/>
+      <c r="C309" s="66"/>
+      <c r="D309" s="66"/>
+      <c r="E309" s="66"/>
+      <c r="F309" s="66"/>
+      <c r="G309" s="66"/>
+      <c r="H309" s="66"/>
+      <c r="I309" s="66"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="375">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -1134,6 +1134,11 @@
   </si>
   <si>
     <t xml:space="preserve">Selecciona el volumen de la cubeta 19L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this seems to save the 
+bucket size so we don’t need 
+HR-0021</t>
   </si>
   <si>
     <t xml:space="preserve">Botón Volumen 2</t>
@@ -1437,7 +1442,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1478,6 +1483,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF5CE"/>
         <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAA95"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
@@ -1737,7 +1748,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2062,6 +2073,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2070,11 +2085,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2232,7 +2247,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFF5CE"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFAA95"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FF3366FF"/>
@@ -2268,7 +2283,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F127:F129 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2298,8 +2313,8 @@
   </sheetPr>
   <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G71" activeCellId="0" sqref="G71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F129" activeCellId="0" sqref="F127:F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5097,7 +5112,7 @@
       <c r="H122" s="66"/>
       <c r="I122" s="66"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
         <v>305</v>
       </c>
@@ -5113,23 +5128,25 @@
       <c r="E123" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="F123" s="66"/>
+      <c r="F123" s="81" t="s">
+        <v>309</v>
+      </c>
       <c r="G123" s="66"/>
       <c r="H123" s="66"/>
       <c r="I123" s="66"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E124" s="71" t="s">
         <v>280</v>
@@ -5141,16 +5158,16 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E125" s="71" t="s">
         <v>280</v>
@@ -5162,19 +5179,19 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="72" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B126" s="73" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E126" s="71" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F126" s="66"/>
       <c r="G126" s="66"/>
@@ -5183,19 +5200,19 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="B127" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E127" s="71" t="s">
         <v>322</v>
-      </c>
-      <c r="B127" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E127" s="71" t="s">
-        <v>321</v>
       </c>
       <c r="F127" s="66"/>
       <c r="G127" s="66"/>
@@ -5204,19 +5221,19 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="72" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B128" s="73" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E128" s="71" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F128" s="66"/>
       <c r="G128" s="66"/>
@@ -5224,20 +5241,20 @@
       <c r="I128" s="66"/>
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="81" t="s">
-        <v>330</v>
+      <c r="A129" s="82" t="s">
+        <v>331</v>
       </c>
       <c r="B129" s="73" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E129" s="71" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F129" s="66"/>
       <c r="G129" s="66"/>
@@ -5246,19 +5263,19 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="72" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B130" s="73" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E130" s="71" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F130" s="66"/>
       <c r="G130" s="66"/>
@@ -5267,14 +5284,14 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="72" t="s">
-        <v>338</v>
-      </c>
-      <c r="B131" s="82" t="s">
         <v>339</v>
+      </c>
+      <c r="B131" s="83" t="s">
+        <v>340</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E131" s="71"/>
       <c r="F131" s="66"/>
@@ -5283,11 +5300,11 @@
       <c r="I131" s="66"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="83" t="s">
-        <v>341</v>
-      </c>
-      <c r="B132" s="84" t="s">
+      <c r="A132" s="84" t="s">
         <v>342</v>
+      </c>
+      <c r="B132" s="85" t="s">
+        <v>343</v>
       </c>
       <c r="C132" s="66"/>
       <c r="D132" s="66"/>
@@ -5298,11 +5315,11 @@
       <c r="I132" s="66"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="83" t="s">
-        <v>343</v>
-      </c>
-      <c r="B133" s="84" t="s">
+      <c r="A133" s="84" t="s">
         <v>344</v>
+      </c>
+      <c r="B133" s="85" t="s">
+        <v>345</v>
       </c>
       <c r="C133" s="66"/>
       <c r="D133" s="66"/>
@@ -5313,11 +5330,11 @@
       <c r="I133" s="66"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="83" t="s">
-        <v>345</v>
-      </c>
-      <c r="B134" s="84" t="s">
+      <c r="A134" s="84" t="s">
         <v>346</v>
+      </c>
+      <c r="B134" s="85" t="s">
+        <v>347</v>
       </c>
       <c r="C134" s="66"/>
       <c r="D134" s="66"/>
@@ -5328,11 +5345,11 @@
       <c r="I134" s="66"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="83" t="s">
-        <v>347</v>
-      </c>
-      <c r="B135" s="84" t="s">
+      <c r="A135" s="84" t="s">
         <v>348</v>
+      </c>
+      <c r="B135" s="85" t="s">
+        <v>349</v>
       </c>
       <c r="C135" s="66"/>
       <c r="D135" s="66"/>
@@ -5343,11 +5360,11 @@
       <c r="I135" s="66"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="83" t="s">
-        <v>349</v>
-      </c>
-      <c r="B136" s="84" t="s">
+      <c r="A136" s="84" t="s">
         <v>350</v>
+      </c>
+      <c r="B136" s="85" t="s">
+        <v>351</v>
       </c>
       <c r="C136" s="66"/>
       <c r="D136" s="66"/>
@@ -5358,11 +5375,11 @@
       <c r="I136" s="66"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="83" t="s">
-        <v>351</v>
-      </c>
-      <c r="B137" s="84" t="s">
+      <c r="A137" s="84" t="s">
         <v>352</v>
+      </c>
+      <c r="B137" s="85" t="s">
+        <v>353</v>
       </c>
       <c r="C137" s="66"/>
       <c r="D137" s="66"/>
@@ -5426,8 +5443,8 @@
     </row>
     <row r="143" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="66"/>
-      <c r="B143" s="85" t="s">
-        <v>353</v>
+      <c r="B143" s="86" t="s">
+        <v>354</v>
       </c>
       <c r="C143" s="66"/>
       <c r="D143" s="66"/>
@@ -5438,15 +5455,15 @@
       <c r="I143" s="66"/>
     </row>
     <row r="144" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="86"/>
-      <c r="B144" s="87" t="s">
-        <v>354</v>
-      </c>
-      <c r="C144" s="87" t="s">
+      <c r="A144" s="87"/>
+      <c r="B144" s="88" t="s">
         <v>355</v>
       </c>
-      <c r="D144" s="88" t="s">
+      <c r="C144" s="88" t="s">
         <v>356</v>
+      </c>
+      <c r="D144" s="89" t="s">
+        <v>357</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>7</v>
@@ -5459,7 +5476,7 @@
       <c r="I144" s="66"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="89"/>
+      <c r="A145" s="90"/>
       <c r="B145" s="66"/>
       <c r="C145" s="66"/>
       <c r="D145" s="66"/>
@@ -5470,64 +5487,64 @@
       <c r="I145" s="66"/>
     </row>
     <row r="146" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="90" t="s">
-        <v>357</v>
-      </c>
-      <c r="B146" s="91" t="s">
+      <c r="A146" s="91" t="s">
         <v>358</v>
       </c>
-      <c r="C146" s="92" t="s">
+      <c r="B146" s="92" t="s">
         <v>359</v>
       </c>
-      <c r="D146" s="93" t="s">
+      <c r="C146" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="E146" s="94" t="s">
+      <c r="D146" s="94" t="s">
         <v>361</v>
       </c>
-      <c r="F146" s="95" t="s">
+      <c r="E146" s="95" t="s">
         <v>362</v>
+      </c>
+      <c r="F146" s="96" t="s">
+        <v>363</v>
       </c>
       <c r="G146" s="66"/>
       <c r="H146" s="66"/>
       <c r="I146" s="66"/>
     </row>
     <row r="147" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="90"/>
-      <c r="B147" s="96" t="s">
-        <v>363</v>
-      </c>
-      <c r="C147" s="97" t="s">
+      <c r="A147" s="91"/>
+      <c r="B147" s="97" t="s">
         <v>364</v>
       </c>
-      <c r="D147" s="98" t="s">
+      <c r="C147" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="E147" s="99" t="s">
+      <c r="D147" s="99" t="s">
         <v>366</v>
       </c>
-      <c r="F147" s="95" t="s">
+      <c r="E147" s="100" t="s">
         <v>367</v>
+      </c>
+      <c r="F147" s="96" t="s">
+        <v>368</v>
       </c>
       <c r="G147" s="66"/>
       <c r="H147" s="66"/>
       <c r="I147" s="66"/>
     </row>
     <row r="148" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="90"/>
-      <c r="B148" s="100" t="s">
-        <v>368</v>
-      </c>
-      <c r="C148" s="101" t="s">
+      <c r="A148" s="91"/>
+      <c r="B148" s="101" t="s">
         <v>369</v>
       </c>
-      <c r="D148" s="102" t="s">
+      <c r="C148" s="102" t="s">
         <v>370</v>
       </c>
-      <c r="E148" s="103" t="s">
+      <c r="D148" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="E148" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="F148" s="104" t="s">
+      <c r="F148" s="105" t="s">
         <v>12</v>
       </c>
       <c r="G148" s="66"/>
@@ -5538,20 +5555,20 @@
       <c r="L148" s="66"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="90"/>
-      <c r="B149" s="105" t="s">
-        <v>371</v>
-      </c>
-      <c r="C149" s="101" t="s">
-        <v>369</v>
-      </c>
-      <c r="D149" s="102" t="s">
+      <c r="A149" s="91"/>
+      <c r="B149" s="106" t="s">
         <v>372</v>
       </c>
-      <c r="E149" s="103" t="s">
+      <c r="C149" s="102" t="s">
+        <v>370</v>
+      </c>
+      <c r="D149" s="103" t="s">
+        <v>373</v>
+      </c>
+      <c r="E149" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="F149" s="104" t="s">
+      <c r="F149" s="105" t="s">
         <v>12</v>
       </c>
       <c r="G149" s="66"/>
@@ -5562,20 +5579,20 @@
       <c r="L149" s="66"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="90"/>
-      <c r="B150" s="106" t="s">
+      <c r="A150" s="91"/>
+      <c r="B150" s="107" t="s">
         <v>304</v>
       </c>
-      <c r="C150" s="107" t="s">
-        <v>369</v>
-      </c>
-      <c r="D150" s="108" t="s">
-        <v>373</v>
-      </c>
-      <c r="E150" s="109" t="s">
+      <c r="C150" s="108" t="s">
+        <v>370</v>
+      </c>
+      <c r="D150" s="109" t="s">
+        <v>374</v>
+      </c>
+      <c r="E150" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="110" t="s">
+      <c r="F150" s="111" t="s">
         <v>12</v>
       </c>
       <c r="G150" s="66"/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="376">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t xml:space="preserve">Registro Modbus necesario en Rasberry-Pi Para programación HMI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action= 14</t>
   </si>
   <si>
     <t xml:space="preserve">Función </t>
@@ -1442,7 +1445,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1477,6 +1480,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFD7"/>
         <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1748,7 +1757,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2025,6 +2034,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2037,14 +2050,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2053,19 +2074,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2073,23 +2094,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2224,7 +2245,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -2283,7 +2304,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F127:F129 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2313,8 +2334,8 @@
   </sheetPr>
   <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F129" activeCellId="0" sqref="F127:F129"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H74" activeCellId="0" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4085,13 +4106,15 @@
       <c r="D73" s="68"/>
       <c r="E73" s="68"/>
       <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="66" t="s">
+        <v>100</v>
+      </c>
       <c r="I73" s="66"/>
     </row>
     <row r="74" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>7</v>
@@ -4099,11 +4122,11 @@
       <c r="C74" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="E74" s="70" t="s">
+      <c r="D74" s="70" t="s">
         <v>102</v>
+      </c>
+      <c r="E74" s="71" t="s">
+        <v>103</v>
       </c>
       <c r="F74" s="66"/>
       <c r="H74" s="66"/>
@@ -4111,22 +4134,22 @@
     </row>
     <row r="75" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="E75" s="71" t="s">
+      <c r="D75" s="72" t="s">
         <v>107</v>
       </c>
+      <c r="E75" s="72" t="s">
+        <v>108</v>
+      </c>
       <c r="F75" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
@@ -4135,22 +4158,22 @@
     </row>
     <row r="76" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D76" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="E76" s="71" t="s">
-        <v>107</v>
+      <c r="D76" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" s="72" t="s">
+        <v>108</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
@@ -4158,146 +4181,146 @@
       <c r="J76" s="29"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="B77" s="73" t="s">
+      <c r="A77" s="73" t="s">
         <v>115</v>
       </c>
+      <c r="B77" s="74" t="s">
+        <v>116</v>
+      </c>
       <c r="C77" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D77" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="E77" s="71" t="s">
-        <v>107</v>
+      <c r="D77" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" s="72" t="s">
+        <v>108</v>
       </c>
       <c r="F77" s="66"/>
     </row>
     <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="B78" s="73" t="s">
+      <c r="A78" s="73" t="s">
         <v>119</v>
       </c>
+      <c r="B78" s="74" t="s">
+        <v>120</v>
+      </c>
       <c r="C78" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D78" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="71" t="s">
-        <v>107</v>
+      <c r="D78" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" s="72" t="s">
+        <v>108</v>
       </c>
       <c r="F78" s="66"/>
     </row>
     <row r="79" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="28" t="s">
-        <v>122</v>
+      <c r="A79" s="75" t="s">
+        <v>123</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D79" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="E79" s="71" t="s">
-        <v>107</v>
+      <c r="D79" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E79" s="72" t="s">
+        <v>108</v>
       </c>
       <c r="F79" s="66"/>
     </row>
     <row r="80" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="23" t="s">
-        <v>126</v>
+      <c r="A80" s="76" t="s">
+        <v>127</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D80" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="E80" s="71" t="s">
-        <v>107</v>
+      <c r="D80" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" s="72" t="s">
+        <v>108</v>
       </c>
       <c r="F80" s="66"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D81" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="E81" s="71" t="s">
-        <v>107</v>
+      <c r="D81" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" s="72" t="s">
+        <v>108</v>
       </c>
       <c r="F81" s="66"/>
     </row>
     <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D82" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="E82" s="71" t="s">
+      <c r="D82" s="72" t="s">
         <v>138</v>
+      </c>
+      <c r="E82" s="72" t="s">
+        <v>139</v>
       </c>
       <c r="F82" s="66"/>
     </row>
     <row r="83" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="E83" s="72" t="s">
         <v>139</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D83" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="E83" s="71" t="s">
-        <v>138</v>
       </c>
       <c r="F83" s="66"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D84" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="E84" s="71" t="s">
-        <v>138</v>
+      <c r="D84" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="E84" s="72" t="s">
+        <v>139</v>
       </c>
       <c r="F84" s="66"/>
       <c r="G84" s="66"/>
@@ -4306,19 +4329,19 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D85" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="E85" s="71" t="s">
-        <v>138</v>
+      <c r="D85" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="E85" s="72" t="s">
+        <v>139</v>
       </c>
       <c r="F85" s="66"/>
       <c r="G85" s="66"/>
@@ -4327,22 +4350,22 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D86" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="E86" s="71" t="s">
-        <v>138</v>
+      <c r="D86" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" s="72" t="s">
+        <v>139</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G86" s="29"/>
       <c r="H86" s="29"/>
@@ -4351,42 +4374,42 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D87" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="E87" s="71" t="s">
-        <v>138</v>
+      <c r="D87" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87" s="72" t="s">
+        <v>139</v>
       </c>
       <c r="F87" s="66"/>
       <c r="G87" s="66"/>
       <c r="I87" s="66"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="B88" s="73" t="s">
+      <c r="A88" s="73" t="s">
         <v>161</v>
       </c>
+      <c r="B88" s="74" t="s">
+        <v>162</v>
+      </c>
       <c r="C88" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D88" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="E88" s="71" t="s">
-        <v>138</v>
+      <c r="D88" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="E88" s="72" t="s">
+        <v>139</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
@@ -4395,19 +4418,19 @@
     </row>
     <row r="89" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D89" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="E89" s="71" t="s">
-        <v>107</v>
+      <c r="D89" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="E89" s="72" t="s">
+        <v>108</v>
       </c>
       <c r="F89" s="66"/>
       <c r="G89" s="66"/>
@@ -4416,22 +4439,22 @@
     </row>
     <row r="90" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D90" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="E90" s="71" t="s">
+      <c r="D90" s="72" t="s">
         <v>173</v>
       </c>
+      <c r="E90" s="72" t="s">
+        <v>174</v>
+      </c>
       <c r="F90" s="29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
@@ -4439,20 +4462,20 @@
       <c r="J90" s="29"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="B91" s="73" t="s">
+      <c r="A91" s="73" t="s">
         <v>176</v>
       </c>
+      <c r="B91" s="74" t="s">
+        <v>177</v>
+      </c>
       <c r="C91" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D91" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="E91" s="71" t="s">
+      <c r="D91" s="78" t="s">
         <v>179</v>
+      </c>
+      <c r="E91" s="72" t="s">
+        <v>180</v>
       </c>
       <c r="F91" s="66"/>
       <c r="G91" s="66"/>
@@ -4460,20 +4483,20 @@
       <c r="I91" s="66"/>
     </row>
     <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="B92" s="73" t="s">
+      <c r="A92" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D92" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="E92" s="72" t="s">
         <v>180</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D92" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="E92" s="71" t="s">
-        <v>179</v>
       </c>
       <c r="F92" s="66"/>
       <c r="G92" s="66"/>
@@ -4481,20 +4504,20 @@
       <c r="I92" s="66"/>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93" s="73" t="s">
+      <c r="A93" s="79" t="s">
         <v>184</v>
       </c>
+      <c r="B93" s="74" t="s">
+        <v>185</v>
+      </c>
       <c r="C93" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D93" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="E93" s="71" t="s">
-        <v>179</v>
+      <c r="D93" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="E93" s="72" t="s">
+        <v>180</v>
       </c>
       <c r="F93" s="66"/>
       <c r="G93" s="66"/>
@@ -4502,20 +4525,20 @@
       <c r="I93" s="66"/>
     </row>
     <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="B94" s="73" t="s">
+      <c r="A94" s="80" t="s">
         <v>188</v>
       </c>
+      <c r="B94" s="74" t="s">
+        <v>189</v>
+      </c>
       <c r="C94" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="D94" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="E94" s="71" t="s">
-        <v>179</v>
+      <c r="D94" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="E94" s="72" t="s">
+        <v>180</v>
       </c>
       <c r="F94" s="66"/>
       <c r="G94" s="66"/>
@@ -4523,20 +4546,20 @@
       <c r="I94" s="66"/>
     </row>
     <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="23" t="s">
-        <v>191</v>
+      <c r="A95" s="76" t="s">
+        <v>192</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="D95" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="E95" s="71" t="s">
-        <v>179</v>
+      <c r="D95" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="E95" s="72" t="s">
+        <v>180</v>
       </c>
       <c r="F95" s="66"/>
       <c r="G95" s="66"/>
@@ -4544,20 +4567,20 @@
       <c r="I95" s="66"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="23" t="s">
-        <v>195</v>
+      <c r="A96" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="D96" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E96" s="71" t="s">
-        <v>179</v>
+      <c r="D96" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="72" t="s">
+        <v>180</v>
       </c>
       <c r="F96" s="66"/>
       <c r="G96" s="66"/>
@@ -4565,20 +4588,20 @@
       <c r="I96" s="66"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="23" t="s">
-        <v>199</v>
+      <c r="A97" s="76" t="s">
+        <v>200</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D97" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="E97" s="71" t="s">
-        <v>179</v>
+      <c r="D97" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="E97" s="72" t="s">
+        <v>180</v>
       </c>
       <c r="F97" s="66"/>
       <c r="G97" s="66"/>
@@ -4586,20 +4609,20 @@
       <c r="I97" s="66"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="23" t="s">
-        <v>203</v>
+      <c r="A98" s="76" t="s">
+        <v>204</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="D98" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="E98" s="71" t="s">
-        <v>179</v>
+      <c r="D98" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="E98" s="72" t="s">
+        <v>180</v>
       </c>
       <c r="F98" s="66"/>
       <c r="G98" s="66"/>
@@ -4607,20 +4630,20 @@
       <c r="I98" s="66"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="23" t="s">
-        <v>207</v>
+      <c r="A99" s="76" t="s">
+        <v>208</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D99" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="E99" s="71" t="s">
-        <v>179</v>
+      <c r="D99" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="E99" s="72" t="s">
+        <v>180</v>
       </c>
       <c r="F99" s="66"/>
       <c r="G99" s="66"/>
@@ -4629,22 +4652,22 @@
     </row>
     <row r="100" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D100" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="E100" s="71" t="s">
-        <v>179</v>
+      <c r="D100" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="E100" s="72" t="s">
+        <v>180</v>
       </c>
       <c r="F100" s="29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G100" s="29"/>
       <c r="H100" s="29"/>
@@ -4653,19 +4676,19 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D101" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="E101" s="71" t="s">
-        <v>179</v>
+      <c r="D101" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="E101" s="72" t="s">
+        <v>180</v>
       </c>
       <c r="F101" s="66"/>
       <c r="G101" s="66"/>
@@ -4674,19 +4697,19 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="D102" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="E102" s="71" t="s">
-        <v>179</v>
+      <c r="D102" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="E102" s="72" t="s">
+        <v>180</v>
       </c>
       <c r="F102" s="66"/>
       <c r="G102" s="66"/>
@@ -4694,20 +4717,20 @@
       <c r="I102" s="66"/>
     </row>
     <row r="103" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="23" t="s">
-        <v>222</v>
+      <c r="A103" s="76" t="s">
+        <v>223</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="D103" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="E103" s="71" t="s">
+      <c r="D103" s="72" t="s">
         <v>226</v>
+      </c>
+      <c r="E103" s="72" t="s">
+        <v>227</v>
       </c>
       <c r="F103" s="66"/>
       <c r="G103" s="66"/>
@@ -4715,20 +4738,20 @@
       <c r="I103" s="66"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="23" t="s">
+      <c r="A104" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D104" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="E104" s="72" t="s">
         <v>227</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="D104" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="E104" s="71" t="s">
-        <v>226</v>
       </c>
       <c r="F104" s="66"/>
       <c r="G104" s="66"/>
@@ -4737,19 +4760,19 @@
     </row>
     <row r="105" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="D105" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="E105" s="71" t="s">
-        <v>226</v>
+        <v>233</v>
+      </c>
+      <c r="D105" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="E105" s="72" t="s">
+        <v>227</v>
       </c>
       <c r="F105" s="66"/>
       <c r="G105" s="66"/>
@@ -4757,23 +4780,23 @@
       <c r="I105" s="66"/>
     </row>
     <row r="106" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="78" t="s">
-        <v>233</v>
-      </c>
-      <c r="B106" s="73" t="s">
+      <c r="A106" s="81" t="s">
         <v>234</v>
       </c>
+      <c r="B106" s="74" t="s">
+        <v>235</v>
+      </c>
       <c r="C106" s="18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E106" s="71" t="s">
         <v>237</v>
       </c>
+      <c r="E106" s="72" t="s">
+        <v>238</v>
+      </c>
       <c r="F106" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
@@ -4781,74 +4804,74 @@
       <c r="J106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="B107" s="73" t="s">
+      <c r="A107" s="79" t="s">
         <v>240</v>
       </c>
+      <c r="B107" s="74" t="s">
+        <v>241</v>
+      </c>
       <c r="C107" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E107" s="71" t="s">
-        <v>237</v>
+        <v>243</v>
+      </c>
+      <c r="E107" s="72" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="72" t="s">
-        <v>243</v>
-      </c>
-      <c r="B108" s="73" t="s">
+      <c r="A108" s="73" t="s">
         <v>244</v>
       </c>
+      <c r="B108" s="74" t="s">
+        <v>245</v>
+      </c>
       <c r="C108" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E108" s="71" t="s">
-        <v>237</v>
+        <v>247</v>
+      </c>
+      <c r="E108" s="72" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="72" t="s">
-        <v>247</v>
-      </c>
-      <c r="B109" s="73" t="s">
+      <c r="A109" s="73" t="s">
         <v>248</v>
       </c>
+      <c r="B109" s="74" t="s">
+        <v>249</v>
+      </c>
       <c r="C109" s="18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E109" s="71" t="s">
-        <v>237</v>
+        <v>251</v>
+      </c>
+      <c r="E109" s="72" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="79" t="s">
-        <v>251</v>
+      <c r="A110" s="82" t="s">
+        <v>252</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E110" s="71" t="s">
         <v>255</v>
       </c>
+      <c r="E110" s="72" t="s">
+        <v>256</v>
+      </c>
       <c r="F110" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
@@ -4856,20 +4879,20 @@
       <c r="J110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="79" t="s">
-        <v>257</v>
+      <c r="A111" s="82" t="s">
+        <v>258</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E111" s="71" t="s">
-        <v>255</v>
+        <v>261</v>
+      </c>
+      <c r="E111" s="72" t="s">
+        <v>256</v>
       </c>
       <c r="F111" s="66"/>
       <c r="G111" s="66"/>
@@ -4877,87 +4900,87 @@
       <c r="I111" s="66"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="23" t="s">
-        <v>261</v>
+      <c r="A112" s="76" t="s">
+        <v>262</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E112" s="71" t="s">
-        <v>255</v>
+        <v>199</v>
+      </c>
+      <c r="E112" s="72" t="s">
+        <v>256</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="23" t="s">
-        <v>265</v>
+      <c r="A113" s="76" t="s">
+        <v>266</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E113" s="71" t="s">
-        <v>255</v>
+        <v>203</v>
+      </c>
+      <c r="E113" s="72" t="s">
+        <v>256</v>
       </c>
       <c r="G113" s="66"/>
       <c r="H113" s="66"/>
       <c r="I113" s="66"/>
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="79" t="s">
-        <v>268</v>
+      <c r="A114" s="82" t="s">
+        <v>269</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="E114" s="71" t="s">
-        <v>255</v>
-      </c>
-      <c r="F114" s="80" t="s">
         <v>272</v>
       </c>
-      <c r="G114" s="80"/>
-      <c r="H114" s="80"/>
-      <c r="I114" s="80"/>
-      <c r="J114" s="80"/>
+      <c r="E114" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="F114" s="83" t="s">
+        <v>273</v>
+      </c>
+      <c r="G114" s="83"/>
+      <c r="H114" s="83"/>
+      <c r="I114" s="83"/>
+      <c r="J114" s="83"/>
     </row>
     <row r="115" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="D115" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="E115" s="71" t="s">
-        <v>255</v>
+        <v>276</v>
+      </c>
+      <c r="D115" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="E115" s="72" t="s">
+        <v>256</v>
       </c>
       <c r="F115" s="66"/>
       <c r="G115" s="66"/>
@@ -4965,20 +4988,20 @@
       <c r="I115" s="66"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="72" t="s">
-        <v>276</v>
-      </c>
-      <c r="B116" s="73" t="s">
+      <c r="A116" s="73" t="s">
         <v>277</v>
       </c>
+      <c r="B116" s="74" t="s">
+        <v>278</v>
+      </c>
       <c r="C116" s="18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E116" s="71" t="s">
         <v>280</v>
+      </c>
+      <c r="E116" s="72" t="s">
+        <v>281</v>
       </c>
       <c r="F116" s="66"/>
       <c r="G116" s="66"/>
@@ -4986,20 +5009,20 @@
       <c r="I116" s="66"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="72" t="s">
+      <c r="A117" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="B117" s="74" t="s">
+        <v>283</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E117" s="72" t="s">
         <v>281</v>
-      </c>
-      <c r="B117" s="73" t="s">
-        <v>282</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E117" s="71" t="s">
-        <v>280</v>
       </c>
       <c r="F117" s="66"/>
       <c r="G117" s="66"/>
@@ -5007,20 +5030,20 @@
       <c r="I117" s="66"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="72" t="s">
-        <v>285</v>
-      </c>
-      <c r="B118" s="73" t="s">
+      <c r="A118" s="73" t="s">
         <v>286</v>
       </c>
+      <c r="B118" s="74" t="s">
+        <v>287</v>
+      </c>
       <c r="C118" s="18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E118" s="71" t="s">
-        <v>280</v>
+        <v>289</v>
+      </c>
+      <c r="E118" s="72" t="s">
+        <v>281</v>
       </c>
       <c r="F118" s="66"/>
       <c r="G118" s="66"/>
@@ -5028,20 +5051,20 @@
       <c r="I118" s="66"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="72" t="s">
-        <v>289</v>
-      </c>
-      <c r="B119" s="73" t="s">
+      <c r="A119" s="73" t="s">
         <v>290</v>
       </c>
+      <c r="B119" s="74" t="s">
+        <v>291</v>
+      </c>
       <c r="C119" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E119" s="71" t="s">
-        <v>280</v>
+        <v>293</v>
+      </c>
+      <c r="E119" s="72" t="s">
+        <v>281</v>
       </c>
       <c r="F119" s="66"/>
       <c r="G119" s="66"/>
@@ -5049,20 +5072,20 @@
       <c r="I119" s="66"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="72" t="s">
-        <v>293</v>
-      </c>
-      <c r="B120" s="73" t="s">
+      <c r="A120" s="73" t="s">
         <v>294</v>
       </c>
+      <c r="B120" s="74" t="s">
+        <v>295</v>
+      </c>
       <c r="C120" s="18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E120" s="71" t="s">
-        <v>280</v>
+        <v>297</v>
+      </c>
+      <c r="E120" s="72" t="s">
+        <v>281</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
@@ -5071,20 +5094,20 @@
       <c r="J120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="72" t="s">
-        <v>297</v>
-      </c>
-      <c r="B121" s="73" t="s">
+      <c r="A121" s="73" t="s">
         <v>298</v>
       </c>
+      <c r="B121" s="74" t="s">
+        <v>299</v>
+      </c>
       <c r="C121" s="18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E121" s="71" t="s">
-        <v>280</v>
+        <v>301</v>
+      </c>
+      <c r="E121" s="72" t="s">
+        <v>281</v>
       </c>
       <c r="F121" s="66"/>
       <c r="G121" s="66"/>
@@ -5092,20 +5115,20 @@
       <c r="I121" s="66"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="72" t="s">
-        <v>301</v>
-      </c>
-      <c r="B122" s="73" t="s">
+      <c r="A122" s="73" t="s">
         <v>302</v>
       </c>
+      <c r="B122" s="74" t="s">
+        <v>303</v>
+      </c>
       <c r="C122" s="18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E122" s="71" t="s">
-        <v>280</v>
+        <v>305</v>
+      </c>
+      <c r="E122" s="72" t="s">
+        <v>281</v>
       </c>
       <c r="F122" s="66"/>
       <c r="G122" s="66"/>
@@ -5114,22 +5137,22 @@
     </row>
     <row r="123" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E123" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="F123" s="81" t="s">
         <v>309</v>
+      </c>
+      <c r="E123" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="F123" s="84" t="s">
+        <v>310</v>
       </c>
       <c r="G123" s="66"/>
       <c r="H123" s="66"/>
@@ -5137,19 +5160,19 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E124" s="71" t="s">
-        <v>280</v>
+        <v>314</v>
+      </c>
+      <c r="E124" s="72" t="s">
+        <v>281</v>
       </c>
       <c r="F124" s="66"/>
       <c r="G124" s="66"/>
@@ -5158,19 +5181,19 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="E125" s="71" t="s">
-        <v>280</v>
+        <v>318</v>
+      </c>
+      <c r="E125" s="72" t="s">
+        <v>281</v>
       </c>
       <c r="F125" s="66"/>
       <c r="G125" s="66"/>
@@ -5178,20 +5201,20 @@
       <c r="I125" s="66"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="72" t="s">
-        <v>318</v>
-      </c>
-      <c r="B126" s="73" t="s">
+      <c r="A126" s="73" t="s">
         <v>319</v>
       </c>
+      <c r="B126" s="74" t="s">
+        <v>320</v>
+      </c>
       <c r="C126" s="18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E126" s="71" t="s">
         <v>322</v>
+      </c>
+      <c r="E126" s="72" t="s">
+        <v>323</v>
       </c>
       <c r="F126" s="66"/>
       <c r="G126" s="66"/>
@@ -5199,20 +5222,20 @@
       <c r="I126" s="66"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="72" t="s">
+      <c r="A127" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="B127" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E127" s="72" t="s">
         <v>323</v>
-      </c>
-      <c r="B127" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="E127" s="71" t="s">
-        <v>322</v>
       </c>
       <c r="F127" s="66"/>
       <c r="G127" s="66"/>
@@ -5220,20 +5243,20 @@
       <c r="I127" s="66"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="72" t="s">
-        <v>327</v>
-      </c>
-      <c r="B128" s="73" t="s">
+      <c r="A128" s="73" t="s">
         <v>328</v>
       </c>
+      <c r="B128" s="74" t="s">
+        <v>329</v>
+      </c>
       <c r="C128" s="18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E128" s="71" t="s">
-        <v>322</v>
+        <v>331</v>
+      </c>
+      <c r="E128" s="72" t="s">
+        <v>323</v>
       </c>
       <c r="F128" s="66"/>
       <c r="G128" s="66"/>
@@ -5241,20 +5264,20 @@
       <c r="I128" s="66"/>
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="82" t="s">
-        <v>331</v>
-      </c>
-      <c r="B129" s="73" t="s">
+      <c r="A129" s="85" t="s">
         <v>332</v>
       </c>
+      <c r="B129" s="74" t="s">
+        <v>333</v>
+      </c>
       <c r="C129" s="18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="E129" s="71" t="s">
-        <v>322</v>
+        <v>335</v>
+      </c>
+      <c r="E129" s="72" t="s">
+        <v>323</v>
       </c>
       <c r="F129" s="66"/>
       <c r="G129" s="66"/>
@@ -5262,20 +5285,20 @@
       <c r="I129" s="66"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="72" t="s">
-        <v>335</v>
-      </c>
-      <c r="B130" s="73" t="s">
+      <c r="A130" s="73" t="s">
         <v>336</v>
       </c>
+      <c r="B130" s="74" t="s">
+        <v>337</v>
+      </c>
       <c r="C130" s="18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="E130" s="71" t="s">
-        <v>322</v>
+        <v>339</v>
+      </c>
+      <c r="E130" s="72" t="s">
+        <v>323</v>
       </c>
       <c r="F130" s="66"/>
       <c r="G130" s="66"/>
@@ -5283,28 +5306,28 @@
       <c r="I130" s="66"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="72" t="s">
-        <v>339</v>
-      </c>
-      <c r="B131" s="83" t="s">
+      <c r="A131" s="73" t="s">
         <v>340</v>
+      </c>
+      <c r="B131" s="86" t="s">
+        <v>341</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E131" s="71"/>
+        <v>342</v>
+      </c>
+      <c r="E131" s="72"/>
       <c r="F131" s="66"/>
       <c r="G131" s="66"/>
       <c r="H131" s="66"/>
       <c r="I131" s="66"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="84" t="s">
-        <v>342</v>
-      </c>
-      <c r="B132" s="85" t="s">
+      <c r="A132" s="87" t="s">
         <v>343</v>
+      </c>
+      <c r="B132" s="88" t="s">
+        <v>344</v>
       </c>
       <c r="C132" s="66"/>
       <c r="D132" s="66"/>
@@ -5315,11 +5338,11 @@
       <c r="I132" s="66"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="84" t="s">
-        <v>344</v>
-      </c>
-      <c r="B133" s="85" t="s">
+      <c r="A133" s="87" t="s">
         <v>345</v>
+      </c>
+      <c r="B133" s="88" t="s">
+        <v>346</v>
       </c>
       <c r="C133" s="66"/>
       <c r="D133" s="66"/>
@@ -5330,11 +5353,11 @@
       <c r="I133" s="66"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="84" t="s">
-        <v>346</v>
-      </c>
-      <c r="B134" s="85" t="s">
+      <c r="A134" s="87" t="s">
         <v>347</v>
+      </c>
+      <c r="B134" s="88" t="s">
+        <v>348</v>
       </c>
       <c r="C134" s="66"/>
       <c r="D134" s="66"/>
@@ -5345,11 +5368,11 @@
       <c r="I134" s="66"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="84" t="s">
-        <v>348</v>
-      </c>
-      <c r="B135" s="85" t="s">
+      <c r="A135" s="87" t="s">
         <v>349</v>
+      </c>
+      <c r="B135" s="88" t="s">
+        <v>350</v>
       </c>
       <c r="C135" s="66"/>
       <c r="D135" s="66"/>
@@ -5360,11 +5383,11 @@
       <c r="I135" s="66"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="84" t="s">
-        <v>350</v>
-      </c>
-      <c r="B136" s="85" t="s">
+      <c r="A136" s="87" t="s">
         <v>351</v>
+      </c>
+      <c r="B136" s="88" t="s">
+        <v>352</v>
       </c>
       <c r="C136" s="66"/>
       <c r="D136" s="66"/>
@@ -5375,11 +5398,11 @@
       <c r="I136" s="66"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="84" t="s">
-        <v>352</v>
-      </c>
-      <c r="B137" s="85" t="s">
+      <c r="A137" s="87" t="s">
         <v>353</v>
+      </c>
+      <c r="B137" s="88" t="s">
+        <v>354</v>
       </c>
       <c r="C137" s="66"/>
       <c r="D137" s="66"/>
@@ -5443,8 +5466,8 @@
     </row>
     <row r="143" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="66"/>
-      <c r="B143" s="86" t="s">
-        <v>354</v>
+      <c r="B143" s="89" t="s">
+        <v>355</v>
       </c>
       <c r="C143" s="66"/>
       <c r="D143" s="66"/>
@@ -5455,15 +5478,15 @@
       <c r="I143" s="66"/>
     </row>
     <row r="144" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="87"/>
-      <c r="B144" s="88" t="s">
-        <v>355</v>
-      </c>
-      <c r="C144" s="88" t="s">
+      <c r="A144" s="90"/>
+      <c r="B144" s="91" t="s">
         <v>356</v>
       </c>
-      <c r="D144" s="89" t="s">
+      <c r="C144" s="91" t="s">
         <v>357</v>
+      </c>
+      <c r="D144" s="92" t="s">
+        <v>358</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>7</v>
@@ -5476,7 +5499,7 @@
       <c r="I144" s="66"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="90"/>
+      <c r="A145" s="93"/>
       <c r="B145" s="66"/>
       <c r="C145" s="66"/>
       <c r="D145" s="66"/>
@@ -5487,64 +5510,64 @@
       <c r="I145" s="66"/>
     </row>
     <row r="146" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="B146" s="92" t="s">
+      <c r="A146" s="94" t="s">
         <v>359</v>
       </c>
-      <c r="C146" s="93" t="s">
+      <c r="B146" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="D146" s="94" t="s">
+      <c r="C146" s="96" t="s">
         <v>361</v>
       </c>
-      <c r="E146" s="95" t="s">
+      <c r="D146" s="97" t="s">
         <v>362</v>
       </c>
-      <c r="F146" s="96" t="s">
+      <c r="E146" s="98" t="s">
         <v>363</v>
+      </c>
+      <c r="F146" s="99" t="s">
+        <v>364</v>
       </c>
       <c r="G146" s="66"/>
       <c r="H146" s="66"/>
       <c r="I146" s="66"/>
     </row>
     <row r="147" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="91"/>
-      <c r="B147" s="97" t="s">
-        <v>364</v>
-      </c>
-      <c r="C147" s="98" t="s">
+      <c r="A147" s="94"/>
+      <c r="B147" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="D147" s="99" t="s">
+      <c r="C147" s="101" t="s">
         <v>366</v>
       </c>
-      <c r="E147" s="100" t="s">
+      <c r="D147" s="102" t="s">
         <v>367</v>
       </c>
-      <c r="F147" s="96" t="s">
+      <c r="E147" s="103" t="s">
         <v>368</v>
+      </c>
+      <c r="F147" s="99" t="s">
+        <v>369</v>
       </c>
       <c r="G147" s="66"/>
       <c r="H147" s="66"/>
       <c r="I147" s="66"/>
     </row>
     <row r="148" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="91"/>
-      <c r="B148" s="101" t="s">
-        <v>369</v>
-      </c>
-      <c r="C148" s="102" t="s">
+      <c r="A148" s="94"/>
+      <c r="B148" s="104" t="s">
         <v>370</v>
       </c>
-      <c r="D148" s="103" t="s">
+      <c r="C148" s="105" t="s">
         <v>371</v>
       </c>
-      <c r="E148" s="104" t="s">
+      <c r="D148" s="106" t="s">
+        <v>372</v>
+      </c>
+      <c r="E148" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="F148" s="105" t="s">
+      <c r="F148" s="108" t="s">
         <v>12</v>
       </c>
       <c r="G148" s="66"/>
@@ -5555,20 +5578,20 @@
       <c r="L148" s="66"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="91"/>
-      <c r="B149" s="106" t="s">
-        <v>372</v>
-      </c>
-      <c r="C149" s="102" t="s">
-        <v>370</v>
-      </c>
-      <c r="D149" s="103" t="s">
+      <c r="A149" s="94"/>
+      <c r="B149" s="109" t="s">
         <v>373</v>
       </c>
-      <c r="E149" s="104" t="s">
+      <c r="C149" s="105" t="s">
+        <v>371</v>
+      </c>
+      <c r="D149" s="106" t="s">
+        <v>374</v>
+      </c>
+      <c r="E149" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="F149" s="105" t="s">
+      <c r="F149" s="108" t="s">
         <v>12</v>
       </c>
       <c r="G149" s="66"/>
@@ -5579,20 +5602,20 @@
       <c r="L149" s="66"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="91"/>
-      <c r="B150" s="107" t="s">
-        <v>304</v>
-      </c>
-      <c r="C150" s="108" t="s">
-        <v>370</v>
-      </c>
-      <c r="D150" s="109" t="s">
-        <v>374</v>
-      </c>
-      <c r="E150" s="110" t="s">
+      <c r="A150" s="94"/>
+      <c r="B150" s="110" t="s">
+        <v>305</v>
+      </c>
+      <c r="C150" s="111" t="s">
+        <v>371</v>
+      </c>
+      <c r="D150" s="112" t="s">
+        <v>375</v>
+      </c>
+      <c r="E150" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="111" t="s">
+      <c r="F150" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G150" s="66"/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -190,7 +190,28 @@
     <t xml:space="preserve">MW108</t>
   </si>
   <si>
-    <t xml:space="preserve">Manifold</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Manifold
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(apply in control)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Activar manifold</t>
@@ -2334,8 +2355,8 @@
   </sheetPr>
   <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H74" activeCellId="0" sqref="H74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -36,7 +36,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">These goes to the HMI, will add the sensor reading to be displayed here, which are the values from IOLink data</t>
         </r>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="377">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -196,7 +195,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Manifold
 </t>
@@ -208,7 +206,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(apply in control)</t>
     </r>
@@ -304,7 +301,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta llena entre el 100 y 80 </t>
     </r>
@@ -315,7 +311,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Lleno</t>
     </r>
@@ -325,7 +320,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -340,7 +334,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta entre el 79 y 50 (</t>
     </r>
@@ -351,7 +344,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Medio-alto</t>
     </r>
@@ -361,7 +353,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -376,7 +367,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta entre el 49 y 30 (</t>
     </r>
@@ -387,7 +377,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Medio</t>
     </r>
@@ -397,7 +386,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -412,7 +400,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta entre el 20 y 10 (</t>
     </r>
@@ -423,7 +410,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Prevacio</t>
     </r>
@@ -433,7 +419,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -448,7 +433,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta entre el 5 hacia abajo (2cm) (</t>
     </r>
@@ -459,7 +443,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Vacio</t>
     </r>
@@ -469,7 +452,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -1264,37 +1246,37 @@
     <t xml:space="preserve">sensor_material_pressure </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0030 – HR-40048</t>
+    <t xml:space="preserve">HR-0022 – HR-40034</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_material_temperature </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0031 – HR-40049</t>
+    <t xml:space="preserve">HR-0023 – HR-40035</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_laser_distance </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0032 -HR-40050</t>
+    <t xml:space="preserve">HR-0024 -HR-40036</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_pressure_regulator_read_set </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0033 – HR-40051</t>
+    <t xml:space="preserve">HR-0025 – HR-40037</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_pressure_regulator_read_real </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0034 – HR-40052</t>
+    <t xml:space="preserve">HR-0026 – HR-40038</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_pressure_regulator_valve_read_state </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0035 – HR-40053</t>
+    <t xml:space="preserve">HR-0027 – HR-40039</t>
   </si>
   <si>
     <t xml:space="preserve">These are HMI registers</t>
@@ -1358,6 +1340,12 @@
     <t xml:space="preserve">
 valor mayor o igual a 1= tiempo en segundos de duración
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">need to
+Validate this
+To know 
+If we need a reg this seems to be HR-001A</t>
   </si>
   <si>
     <t xml:space="preserve">Tiempo de duración recirculado ciclico</t>
@@ -1375,15 +1363,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot; $&quot;* #,##0.00\ ;&quot;-$&quot;* #,##0.00\ ;&quot; $&quot;* \-#\ ;\ @\ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1405,7 +1392,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1413,14 +1399,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF1C1C1C"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1428,18 +1412,10 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1449,7 +1425,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1457,13 +1432,11 @@
       <color rgb="FFC9211E"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1778,7 +1751,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2123,11 +2096,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2135,7 +2104,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2328,16 +2297,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="5" style="0" width="10.68"/>
   </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2355,11 +2323,11 @@
   </sheetPr>
   <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G149" activeCellId="0" sqref="G149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.42"/>
@@ -4117,7 +4085,6 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="68" t="s">
         <v>99</v>
@@ -5330,7 +5297,7 @@
       <c r="A131" s="73" t="s">
         <v>340</v>
       </c>
-      <c r="B131" s="86" t="s">
+      <c r="B131" s="74" t="s">
         <v>341</v>
       </c>
       <c r="C131" s="18"/>
@@ -5344,10 +5311,10 @@
       <c r="I131" s="66"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="87" t="s">
+      <c r="A132" s="86" t="s">
         <v>343</v>
       </c>
-      <c r="B132" s="88" t="s">
+      <c r="B132" s="87" t="s">
         <v>344</v>
       </c>
       <c r="C132" s="66"/>
@@ -5359,10 +5326,10 @@
       <c r="I132" s="66"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="87" t="s">
+      <c r="A133" s="86" t="s">
         <v>345</v>
       </c>
-      <c r="B133" s="88" t="s">
+      <c r="B133" s="87" t="s">
         <v>346</v>
       </c>
       <c r="C133" s="66"/>
@@ -5374,10 +5341,10 @@
       <c r="I133" s="66"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="87" t="s">
+      <c r="A134" s="86" t="s">
         <v>347</v>
       </c>
-      <c r="B134" s="88" t="s">
+      <c r="B134" s="87" t="s">
         <v>348</v>
       </c>
       <c r="C134" s="66"/>
@@ -5389,10 +5356,10 @@
       <c r="I134" s="66"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="87" t="s">
+      <c r="A135" s="86" t="s">
         <v>349</v>
       </c>
-      <c r="B135" s="88" t="s">
+      <c r="B135" s="87" t="s">
         <v>350</v>
       </c>
       <c r="C135" s="66"/>
@@ -5404,10 +5371,10 @@
       <c r="I135" s="66"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="87" t="s">
+      <c r="A136" s="86" t="s">
         <v>351</v>
       </c>
-      <c r="B136" s="88" t="s">
+      <c r="B136" s="87" t="s">
         <v>352</v>
       </c>
       <c r="C136" s="66"/>
@@ -5419,10 +5386,10 @@
       <c r="I136" s="66"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="87" t="s">
+      <c r="A137" s="86" t="s">
         <v>353</v>
       </c>
-      <c r="B137" s="88" t="s">
+      <c r="B137" s="87" t="s">
         <v>354</v>
       </c>
       <c r="C137" s="66"/>
@@ -5487,7 +5454,7 @@
     </row>
     <row r="143" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="66"/>
-      <c r="B143" s="89" t="s">
+      <c r="B143" s="88" t="s">
         <v>355</v>
       </c>
       <c r="C143" s="66"/>
@@ -5499,14 +5466,14 @@
       <c r="I143" s="66"/>
     </row>
     <row r="144" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="90"/>
-      <c r="B144" s="91" t="s">
+      <c r="A144" s="89"/>
+      <c r="B144" s="90" t="s">
         <v>356</v>
       </c>
-      <c r="C144" s="91" t="s">
+      <c r="C144" s="90" t="s">
         <v>357</v>
       </c>
-      <c r="D144" s="92" t="s">
+      <c r="D144" s="91" t="s">
         <v>358</v>
       </c>
       <c r="E144" s="8" t="s">
@@ -5520,7 +5487,7 @@
       <c r="I144" s="66"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="93"/>
+      <c r="A145" s="92"/>
       <c r="B145" s="66"/>
       <c r="C145" s="66"/>
       <c r="D145" s="66"/>
@@ -5531,22 +5498,22 @@
       <c r="I145" s="66"/>
     </row>
     <row r="146" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="94" t="s">
+      <c r="A146" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="B146" s="95" t="s">
+      <c r="B146" s="94" t="s">
         <v>360</v>
       </c>
-      <c r="C146" s="96" t="s">
+      <c r="C146" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="D146" s="97" t="s">
+      <c r="D146" s="96" t="s">
         <v>362</v>
       </c>
-      <c r="E146" s="98" t="s">
+      <c r="E146" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="F146" s="99" t="s">
+      <c r="F146" s="98" t="s">
         <v>364</v>
       </c>
       <c r="G146" s="66"/>
@@ -5554,20 +5521,20 @@
       <c r="I146" s="66"/>
     </row>
     <row r="147" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="94"/>
-      <c r="B147" s="100" t="s">
+      <c r="A147" s="93"/>
+      <c r="B147" s="99" t="s">
         <v>365</v>
       </c>
-      <c r="C147" s="101" t="s">
+      <c r="C147" s="100" t="s">
         <v>366</v>
       </c>
-      <c r="D147" s="102" t="s">
+      <c r="D147" s="101" t="s">
         <v>367</v>
       </c>
-      <c r="E147" s="103" t="s">
+      <c r="E147" s="102" t="s">
         <v>368</v>
       </c>
-      <c r="F147" s="99" t="s">
+      <c r="F147" s="98" t="s">
         <v>369</v>
       </c>
       <c r="G147" s="66"/>
@@ -5575,23 +5542,25 @@
       <c r="I147" s="66"/>
     </row>
     <row r="148" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="94"/>
-      <c r="B148" s="104" t="s">
+      <c r="A148" s="93"/>
+      <c r="B148" s="103" t="s">
         <v>370</v>
       </c>
-      <c r="C148" s="105" t="s">
+      <c r="C148" s="104" t="s">
         <v>371</v>
       </c>
-      <c r="D148" s="106" t="s">
+      <c r="D148" s="105" t="s">
         <v>372</v>
       </c>
-      <c r="E148" s="107" t="s">
+      <c r="E148" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="F148" s="108" t="s">
+      <c r="F148" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="66"/>
+      <c r="G148" s="84" t="s">
+        <v>373</v>
+      </c>
       <c r="H148" s="66"/>
       <c r="I148" s="66"/>
       <c r="J148" s="66"/>
@@ -5599,20 +5568,20 @@
       <c r="L148" s="66"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="94"/>
-      <c r="B149" s="109" t="s">
-        <v>373</v>
-      </c>
-      <c r="C149" s="105" t="s">
+      <c r="A149" s="93"/>
+      <c r="B149" s="108" t="s">
+        <v>374</v>
+      </c>
+      <c r="C149" s="104" t="s">
         <v>371</v>
       </c>
-      <c r="D149" s="106" t="s">
-        <v>374</v>
-      </c>
-      <c r="E149" s="107" t="s">
+      <c r="D149" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="E149" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="F149" s="108" t="s">
+      <c r="F149" s="107" t="s">
         <v>12</v>
       </c>
       <c r="G149" s="66"/>
@@ -5623,20 +5592,20 @@
       <c r="L149" s="66"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="94"/>
-      <c r="B150" s="110" t="s">
+      <c r="A150" s="93"/>
+      <c r="B150" s="109" t="s">
         <v>305</v>
       </c>
-      <c r="C150" s="111" t="s">
+      <c r="C150" s="110" t="s">
         <v>371</v>
       </c>
-      <c r="D150" s="112" t="s">
-        <v>375</v>
-      </c>
-      <c r="E150" s="113" t="s">
+      <c r="D150" s="111" t="s">
+        <v>376</v>
+      </c>
+      <c r="E150" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="114" t="s">
+      <c r="F150" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G150" s="66"/>
@@ -5702,7 +5671,7 @@
       <c r="K154" s="66"/>
       <c r="L154" s="66"/>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="66"/>
       <c r="B155" s="66"/>
       <c r="C155" s="66"/>
@@ -5713,7 +5682,7 @@
       <c r="H155" s="66"/>
       <c r="I155" s="66"/>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="66"/>
       <c r="B156" s="66"/>
       <c r="C156" s="66"/>
@@ -5724,7 +5693,7 @@
       <c r="H156" s="66"/>
       <c r="I156" s="66"/>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="66"/>
       <c r="B157" s="66"/>
       <c r="C157" s="66"/>
@@ -5735,7 +5704,7 @@
       <c r="H157" s="66"/>
       <c r="I157" s="66"/>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="66"/>
       <c r="B158" s="66"/>
       <c r="C158" s="66"/>
@@ -5746,7 +5715,7 @@
       <c r="H158" s="66"/>
       <c r="I158" s="66"/>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="66"/>
       <c r="B159" s="66"/>
       <c r="C159" s="66"/>
@@ -5757,7 +5726,7 @@
       <c r="H159" s="66"/>
       <c r="I159" s="66"/>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="66"/>
       <c r="B160" s="66"/>
       <c r="C160" s="66"/>
@@ -5768,7 +5737,7 @@
       <c r="H160" s="66"/>
       <c r="I160" s="66"/>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="66"/>
       <c r="B161" s="66"/>
       <c r="C161" s="66"/>
@@ -5779,7 +5748,7 @@
       <c r="H161" s="66"/>
       <c r="I161" s="66"/>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="66"/>
       <c r="B162" s="66"/>
       <c r="C162" s="66"/>
@@ -5790,7 +5759,7 @@
       <c r="H162" s="66"/>
       <c r="I162" s="66"/>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="66"/>
       <c r="B163" s="66"/>
       <c r="C163" s="66"/>
@@ -5801,7 +5770,7 @@
       <c r="H163" s="66"/>
       <c r="I163" s="66"/>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="66"/>
       <c r="B164" s="66"/>
       <c r="C164" s="66"/>
@@ -5812,7 +5781,7 @@
       <c r="H164" s="66"/>
       <c r="I164" s="66"/>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="66"/>
       <c r="B165" s="66"/>
       <c r="C165" s="66"/>
@@ -5823,7 +5792,7 @@
       <c r="H165" s="66"/>
       <c r="I165" s="66"/>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="66"/>
       <c r="B166" s="66"/>
       <c r="C166" s="66"/>
@@ -5834,7 +5803,7 @@
       <c r="H166" s="66"/>
       <c r="I166" s="66"/>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="66"/>
       <c r="B167" s="66"/>
       <c r="C167" s="66"/>
@@ -5845,7 +5814,7 @@
       <c r="H167" s="66"/>
       <c r="I167" s="66"/>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="66"/>
       <c r="B168" s="66"/>
       <c r="C168" s="66"/>
@@ -5856,7 +5825,7 @@
       <c r="H168" s="66"/>
       <c r="I168" s="66"/>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="66"/>
       <c r="B169" s="66"/>
       <c r="C169" s="66"/>
@@ -5867,7 +5836,7 @@
       <c r="H169" s="66"/>
       <c r="I169" s="66"/>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="66"/>
       <c r="B170" s="66"/>
       <c r="C170" s="66"/>
@@ -5878,7 +5847,7 @@
       <c r="H170" s="66"/>
       <c r="I170" s="66"/>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="66"/>
       <c r="B171" s="66"/>
       <c r="C171" s="66"/>
@@ -5889,7 +5858,7 @@
       <c r="H171" s="66"/>
       <c r="I171" s="66"/>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="66"/>
       <c r="B172" s="66"/>
       <c r="C172" s="66"/>
@@ -5900,7 +5869,7 @@
       <c r="H172" s="66"/>
       <c r="I172" s="66"/>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="66"/>
       <c r="B173" s="66"/>
       <c r="C173" s="66"/>
@@ -5911,7 +5880,7 @@
       <c r="H173" s="66"/>
       <c r="I173" s="66"/>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="66"/>
       <c r="B174" s="66"/>
       <c r="C174" s="66"/>
@@ -5922,7 +5891,7 @@
       <c r="H174" s="66"/>
       <c r="I174" s="66"/>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="66"/>
       <c r="B175" s="66"/>
       <c r="C175" s="66"/>
@@ -5933,7 +5902,7 @@
       <c r="H175" s="66"/>
       <c r="I175" s="66"/>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="66"/>
       <c r="B176" s="66"/>
       <c r="C176" s="66"/>
@@ -5944,7 +5913,7 @@
       <c r="H176" s="66"/>
       <c r="I176" s="66"/>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="66"/>
       <c r="B177" s="66"/>
       <c r="C177" s="66"/>
@@ -5955,7 +5924,7 @@
       <c r="H177" s="66"/>
       <c r="I177" s="66"/>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="66"/>
       <c r="B178" s="66"/>
       <c r="C178" s="66"/>
@@ -5966,7 +5935,7 @@
       <c r="H178" s="66"/>
       <c r="I178" s="66"/>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="66"/>
       <c r="B179" s="66"/>
       <c r="C179" s="66"/>
@@ -5977,7 +5946,7 @@
       <c r="H179" s="66"/>
       <c r="I179" s="66"/>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="66"/>
       <c r="B180" s="66"/>
       <c r="C180" s="66"/>
@@ -5988,7 +5957,7 @@
       <c r="H180" s="66"/>
       <c r="I180" s="66"/>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="66"/>
       <c r="B181" s="66"/>
       <c r="C181" s="66"/>
@@ -5999,7 +5968,7 @@
       <c r="H181" s="66"/>
       <c r="I181" s="66"/>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="66"/>
       <c r="B182" s="66"/>
       <c r="C182" s="66"/>
@@ -6010,7 +5979,7 @@
       <c r="H182" s="66"/>
       <c r="I182" s="66"/>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="66"/>
       <c r="B183" s="66"/>
       <c r="C183" s="66"/>
@@ -6021,7 +5990,7 @@
       <c r="H183" s="66"/>
       <c r="I183" s="66"/>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="66"/>
       <c r="B184" s="66"/>
       <c r="C184" s="66"/>
@@ -6032,7 +6001,7 @@
       <c r="H184" s="66"/>
       <c r="I184" s="66"/>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="66"/>
       <c r="B185" s="66"/>
       <c r="C185" s="66"/>
@@ -6043,7 +6012,7 @@
       <c r="H185" s="66"/>
       <c r="I185" s="66"/>
     </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="66"/>
       <c r="B186" s="66"/>
       <c r="C186" s="66"/>
@@ -6054,7 +6023,7 @@
       <c r="H186" s="66"/>
       <c r="I186" s="66"/>
     </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="66"/>
       <c r="B187" s="66"/>
       <c r="C187" s="66"/>
@@ -6065,7 +6034,7 @@
       <c r="H187" s="66"/>
       <c r="I187" s="66"/>
     </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="66"/>
       <c r="B188" s="66"/>
       <c r="C188" s="66"/>
@@ -6076,7 +6045,7 @@
       <c r="H188" s="66"/>
       <c r="I188" s="66"/>
     </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="66"/>
       <c r="B189" s="66"/>
       <c r="C189" s="66"/>
@@ -6087,7 +6056,7 @@
       <c r="H189" s="66"/>
       <c r="I189" s="66"/>
     </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="66"/>
       <c r="B190" s="66"/>
       <c r="C190" s="66"/>
@@ -6098,7 +6067,7 @@
       <c r="H190" s="66"/>
       <c r="I190" s="66"/>
     </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="66"/>
       <c r="B191" s="66"/>
       <c r="C191" s="66"/>
@@ -6109,7 +6078,7 @@
       <c r="H191" s="66"/>
       <c r="I191" s="66"/>
     </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="66"/>
       <c r="B192" s="66"/>
       <c r="C192" s="66"/>
@@ -6120,7 +6089,7 @@
       <c r="H192" s="66"/>
       <c r="I192" s="66"/>
     </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="66"/>
       <c r="B193" s="66"/>
       <c r="C193" s="66"/>
@@ -6131,7 +6100,7 @@
       <c r="H193" s="66"/>
       <c r="I193" s="66"/>
     </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="66"/>
       <c r="B194" s="66"/>
       <c r="C194" s="66"/>
@@ -6142,7 +6111,7 @@
       <c r="H194" s="66"/>
       <c r="I194" s="66"/>
     </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="66"/>
       <c r="B195" s="66"/>
       <c r="C195" s="66"/>
@@ -6153,7 +6122,7 @@
       <c r="H195" s="66"/>
       <c r="I195" s="66"/>
     </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="66"/>
       <c r="B196" s="66"/>
       <c r="C196" s="66"/>
@@ -6164,7 +6133,7 @@
       <c r="H196" s="66"/>
       <c r="I196" s="66"/>
     </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="66"/>
       <c r="B197" s="66"/>
       <c r="C197" s="66"/>
@@ -6175,7 +6144,7 @@
       <c r="H197" s="66"/>
       <c r="I197" s="66"/>
     </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="66"/>
       <c r="B198" s="66"/>
       <c r="C198" s="66"/>
@@ -6186,7 +6155,7 @@
       <c r="H198" s="66"/>
       <c r="I198" s="66"/>
     </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="66"/>
       <c r="B199" s="66"/>
       <c r="C199" s="66"/>
@@ -6197,7 +6166,7 @@
       <c r="H199" s="66"/>
       <c r="I199" s="66"/>
     </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="66"/>
       <c r="B200" s="66"/>
       <c r="C200" s="66"/>
@@ -6208,7 +6177,7 @@
       <c r="H200" s="66"/>
       <c r="I200" s="66"/>
     </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="66"/>
       <c r="B201" s="66"/>
       <c r="C201" s="66"/>
@@ -6219,7 +6188,7 @@
       <c r="H201" s="66"/>
       <c r="I201" s="66"/>
     </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="66"/>
       <c r="B202" s="66"/>
       <c r="C202" s="66"/>
@@ -6230,7 +6199,7 @@
       <c r="H202" s="66"/>
       <c r="I202" s="66"/>
     </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="66"/>
       <c r="B203" s="66"/>
       <c r="C203" s="66"/>
@@ -6241,7 +6210,7 @@
       <c r="H203" s="66"/>
       <c r="I203" s="66"/>
     </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="66"/>
       <c r="B204" s="66"/>
       <c r="C204" s="66"/>
@@ -6252,7 +6221,7 @@
       <c r="H204" s="66"/>
       <c r="I204" s="66"/>
     </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="66"/>
       <c r="B205" s="66"/>
       <c r="C205" s="66"/>
@@ -6263,7 +6232,7 @@
       <c r="H205" s="66"/>
       <c r="I205" s="66"/>
     </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="66"/>
       <c r="B206" s="66"/>
       <c r="C206" s="66"/>
@@ -6274,7 +6243,7 @@
       <c r="H206" s="66"/>
       <c r="I206" s="66"/>
     </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="66"/>
       <c r="B207" s="66"/>
       <c r="C207" s="66"/>
@@ -6285,7 +6254,7 @@
       <c r="H207" s="66"/>
       <c r="I207" s="66"/>
     </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="66"/>
       <c r="B208" s="66"/>
       <c r="C208" s="66"/>
@@ -6296,7 +6265,7 @@
       <c r="H208" s="66"/>
       <c r="I208" s="66"/>
     </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="66"/>
       <c r="B209" s="66"/>
       <c r="C209" s="66"/>
@@ -6307,7 +6276,7 @@
       <c r="H209" s="66"/>
       <c r="I209" s="66"/>
     </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="66"/>
       <c r="B210" s="66"/>
       <c r="C210" s="66"/>
@@ -6318,7 +6287,7 @@
       <c r="H210" s="66"/>
       <c r="I210" s="66"/>
     </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="66"/>
       <c r="B211" s="66"/>
       <c r="C211" s="66"/>
@@ -6329,7 +6298,7 @@
       <c r="H211" s="66"/>
       <c r="I211" s="66"/>
     </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="66"/>
       <c r="B212" s="66"/>
       <c r="C212" s="66"/>
@@ -6340,7 +6309,7 @@
       <c r="H212" s="66"/>
       <c r="I212" s="66"/>
     </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="66"/>
       <c r="B213" s="66"/>
       <c r="C213" s="66"/>
@@ -6351,7 +6320,7 @@
       <c r="H213" s="66"/>
       <c r="I213" s="66"/>
     </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="66"/>
       <c r="B214" s="66"/>
       <c r="C214" s="66"/>
@@ -6362,7 +6331,7 @@
       <c r="H214" s="66"/>
       <c r="I214" s="66"/>
     </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="66"/>
       <c r="B215" s="66"/>
       <c r="C215" s="66"/>
@@ -6373,7 +6342,7 @@
       <c r="H215" s="66"/>
       <c r="I215" s="66"/>
     </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="66"/>
       <c r="B216" s="66"/>
       <c r="C216" s="66"/>
@@ -6384,7 +6353,7 @@
       <c r="H216" s="66"/>
       <c r="I216" s="66"/>
     </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="66"/>
       <c r="B217" s="66"/>
       <c r="C217" s="66"/>
@@ -6395,7 +6364,7 @@
       <c r="H217" s="66"/>
       <c r="I217" s="66"/>
     </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="66"/>
       <c r="B218" s="66"/>
       <c r="C218" s="66"/>
@@ -6406,7 +6375,7 @@
       <c r="H218" s="66"/>
       <c r="I218" s="66"/>
     </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="66"/>
       <c r="B219" s="66"/>
       <c r="C219" s="66"/>
@@ -6417,7 +6386,7 @@
       <c r="H219" s="66"/>
       <c r="I219" s="66"/>
     </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="66"/>
       <c r="B220" s="66"/>
       <c r="C220" s="66"/>
@@ -6428,7 +6397,7 @@
       <c r="H220" s="66"/>
       <c r="I220" s="66"/>
     </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="66"/>
       <c r="B221" s="66"/>
       <c r="C221" s="66"/>
@@ -6439,7 +6408,7 @@
       <c r="H221" s="66"/>
       <c r="I221" s="66"/>
     </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="66"/>
       <c r="B222" s="66"/>
       <c r="C222" s="66"/>
@@ -6450,7 +6419,7 @@
       <c r="H222" s="66"/>
       <c r="I222" s="66"/>
     </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="66"/>
       <c r="B223" s="66"/>
       <c r="C223" s="66"/>
@@ -6461,7 +6430,7 @@
       <c r="H223" s="66"/>
       <c r="I223" s="66"/>
     </row>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="66"/>
       <c r="B224" s="66"/>
       <c r="C224" s="66"/>
@@ -6472,7 +6441,7 @@
       <c r="H224" s="66"/>
       <c r="I224" s="66"/>
     </row>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="66"/>
       <c r="B225" s="66"/>
       <c r="C225" s="66"/>
@@ -6483,7 +6452,7 @@
       <c r="H225" s="66"/>
       <c r="I225" s="66"/>
     </row>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="66"/>
       <c r="B226" s="66"/>
       <c r="C226" s="66"/>
@@ -6494,7 +6463,7 @@
       <c r="H226" s="66"/>
       <c r="I226" s="66"/>
     </row>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="66"/>
       <c r="B227" s="66"/>
       <c r="C227" s="66"/>
@@ -6505,7 +6474,7 @@
       <c r="H227" s="66"/>
       <c r="I227" s="66"/>
     </row>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="66"/>
       <c r="B228" s="66"/>
       <c r="C228" s="66"/>
@@ -6516,7 +6485,7 @@
       <c r="H228" s="66"/>
       <c r="I228" s="66"/>
     </row>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="66"/>
       <c r="B229" s="66"/>
       <c r="C229" s="66"/>
@@ -6527,7 +6496,7 @@
       <c r="H229" s="66"/>
       <c r="I229" s="66"/>
     </row>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="66"/>
       <c r="B230" s="66"/>
       <c r="C230" s="66"/>
@@ -6538,7 +6507,7 @@
       <c r="H230" s="66"/>
       <c r="I230" s="66"/>
     </row>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="66"/>
       <c r="B231" s="66"/>
       <c r="C231" s="66"/>
@@ -6549,7 +6518,7 @@
       <c r="H231" s="66"/>
       <c r="I231" s="66"/>
     </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="66"/>
       <c r="B232" s="66"/>
       <c r="C232" s="66"/>
@@ -6560,7 +6529,7 @@
       <c r="H232" s="66"/>
       <c r="I232" s="66"/>
     </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="66"/>
       <c r="B233" s="66"/>
       <c r="C233" s="66"/>
@@ -6571,7 +6540,7 @@
       <c r="H233" s="66"/>
       <c r="I233" s="66"/>
     </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="66"/>
       <c r="B234" s="66"/>
       <c r="C234" s="66"/>
@@ -6582,7 +6551,7 @@
       <c r="H234" s="66"/>
       <c r="I234" s="66"/>
     </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="66"/>
       <c r="B235" s="66"/>
       <c r="C235" s="66"/>
@@ -6593,7 +6562,7 @@
       <c r="H235" s="66"/>
       <c r="I235" s="66"/>
     </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="66"/>
       <c r="B236" s="66"/>
       <c r="C236" s="66"/>
@@ -6604,7 +6573,7 @@
       <c r="H236" s="66"/>
       <c r="I236" s="66"/>
     </row>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="66"/>
       <c r="B237" s="66"/>
       <c r="C237" s="66"/>
@@ -6615,7 +6584,7 @@
       <c r="H237" s="66"/>
       <c r="I237" s="66"/>
     </row>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="66"/>
       <c r="B238" s="66"/>
       <c r="C238" s="66"/>
@@ -6626,7 +6595,7 @@
       <c r="H238" s="66"/>
       <c r="I238" s="66"/>
     </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="66"/>
       <c r="B239" s="66"/>
       <c r="C239" s="66"/>
@@ -6637,7 +6606,7 @@
       <c r="H239" s="66"/>
       <c r="I239" s="66"/>
     </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="66"/>
       <c r="B240" s="66"/>
       <c r="C240" s="66"/>
@@ -6648,7 +6617,7 @@
       <c r="H240" s="66"/>
       <c r="I240" s="66"/>
     </row>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="66"/>
       <c r="B241" s="66"/>
       <c r="C241" s="66"/>
@@ -6659,7 +6628,7 @@
       <c r="H241" s="66"/>
       <c r="I241" s="66"/>
     </row>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="66"/>
       <c r="B242" s="66"/>
       <c r="C242" s="66"/>
@@ -6670,7 +6639,7 @@
       <c r="H242" s="66"/>
       <c r="I242" s="66"/>
     </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="66"/>
       <c r="B243" s="66"/>
       <c r="C243" s="66"/>
@@ -6681,7 +6650,7 @@
       <c r="H243" s="66"/>
       <c r="I243" s="66"/>
     </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="66"/>
       <c r="B244" s="66"/>
       <c r="C244" s="66"/>
@@ -6692,7 +6661,7 @@
       <c r="H244" s="66"/>
       <c r="I244" s="66"/>
     </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="66"/>
       <c r="B245" s="66"/>
       <c r="C245" s="66"/>
@@ -6703,7 +6672,7 @@
       <c r="H245" s="66"/>
       <c r="I245" s="66"/>
     </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="66"/>
       <c r="B246" s="66"/>
       <c r="C246" s="66"/>
@@ -6714,7 +6683,7 @@
       <c r="H246" s="66"/>
       <c r="I246" s="66"/>
     </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="66"/>
       <c r="B247" s="66"/>
       <c r="C247" s="66"/>
@@ -6725,7 +6694,7 @@
       <c r="H247" s="66"/>
       <c r="I247" s="66"/>
     </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="66"/>
       <c r="B248" s="66"/>
       <c r="C248" s="66"/>
@@ -6736,7 +6705,7 @@
       <c r="H248" s="66"/>
       <c r="I248" s="66"/>
     </row>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="66"/>
       <c r="B249" s="66"/>
       <c r="C249" s="66"/>
@@ -6747,7 +6716,7 @@
       <c r="H249" s="66"/>
       <c r="I249" s="66"/>
     </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="66"/>
       <c r="B250" s="66"/>
       <c r="C250" s="66"/>
@@ -6758,7 +6727,7 @@
       <c r="H250" s="66"/>
       <c r="I250" s="66"/>
     </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="66"/>
       <c r="B251" s="66"/>
       <c r="C251" s="66"/>
@@ -6769,7 +6738,7 @@
       <c r="H251" s="66"/>
       <c r="I251" s="66"/>
     </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="66"/>
       <c r="B252" s="66"/>
       <c r="C252" s="66"/>
@@ -6780,7 +6749,7 @@
       <c r="H252" s="66"/>
       <c r="I252" s="66"/>
     </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="66"/>
       <c r="B253" s="66"/>
       <c r="C253" s="66"/>
@@ -6791,7 +6760,7 @@
       <c r="H253" s="66"/>
       <c r="I253" s="66"/>
     </row>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="66"/>
       <c r="B254" s="66"/>
       <c r="C254" s="66"/>
@@ -6802,7 +6771,7 @@
       <c r="H254" s="66"/>
       <c r="I254" s="66"/>
     </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="66"/>
       <c r="B255" s="66"/>
       <c r="C255" s="66"/>
@@ -6813,7 +6782,7 @@
       <c r="H255" s="66"/>
       <c r="I255" s="66"/>
     </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="66"/>
       <c r="B256" s="66"/>
       <c r="C256" s="66"/>
@@ -6824,7 +6793,7 @@
       <c r="H256" s="66"/>
       <c r="I256" s="66"/>
     </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="66"/>
       <c r="B257" s="66"/>
       <c r="C257" s="66"/>
@@ -6835,7 +6804,7 @@
       <c r="H257" s="66"/>
       <c r="I257" s="66"/>
     </row>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="66"/>
       <c r="B258" s="66"/>
       <c r="C258" s="66"/>
@@ -6846,7 +6815,7 @@
       <c r="H258" s="66"/>
       <c r="I258" s="66"/>
     </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="66"/>
       <c r="B259" s="66"/>
       <c r="C259" s="66"/>
@@ -6857,7 +6826,7 @@
       <c r="H259" s="66"/>
       <c r="I259" s="66"/>
     </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="66"/>
       <c r="B260" s="66"/>
       <c r="C260" s="66"/>
@@ -6868,7 +6837,7 @@
       <c r="H260" s="66"/>
       <c r="I260" s="66"/>
     </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="66"/>
       <c r="B261" s="66"/>
       <c r="C261" s="66"/>
@@ -6879,7 +6848,7 @@
       <c r="H261" s="66"/>
       <c r="I261" s="66"/>
     </row>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="66"/>
       <c r="B262" s="66"/>
       <c r="C262" s="66"/>
@@ -6890,7 +6859,7 @@
       <c r="H262" s="66"/>
       <c r="I262" s="66"/>
     </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="66"/>
       <c r="B263" s="66"/>
       <c r="C263" s="66"/>
@@ -6901,7 +6870,7 @@
       <c r="H263" s="66"/>
       <c r="I263" s="66"/>
     </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="66"/>
       <c r="B264" s="66"/>
       <c r="C264" s="66"/>
@@ -6912,7 +6881,7 @@
       <c r="H264" s="66"/>
       <c r="I264" s="66"/>
     </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="66"/>
       <c r="B265" s="66"/>
       <c r="C265" s="66"/>
@@ -6923,7 +6892,7 @@
       <c r="H265" s="66"/>
       <c r="I265" s="66"/>
     </row>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="66"/>
       <c r="B266" s="66"/>
       <c r="C266" s="66"/>
@@ -6934,7 +6903,7 @@
       <c r="H266" s="66"/>
       <c r="I266" s="66"/>
     </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="66"/>
       <c r="B267" s="66"/>
       <c r="C267" s="66"/>
@@ -6945,7 +6914,7 @@
       <c r="H267" s="66"/>
       <c r="I267" s="66"/>
     </row>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="66"/>
       <c r="B268" s="66"/>
       <c r="C268" s="66"/>
@@ -6956,7 +6925,7 @@
       <c r="H268" s="66"/>
       <c r="I268" s="66"/>
     </row>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="66"/>
       <c r="B269" s="66"/>
       <c r="C269" s="66"/>
@@ -6967,7 +6936,7 @@
       <c r="H269" s="66"/>
       <c r="I269" s="66"/>
     </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="66"/>
       <c r="B270" s="66"/>
       <c r="C270" s="66"/>
@@ -6978,7 +6947,7 @@
       <c r="H270" s="66"/>
       <c r="I270" s="66"/>
     </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="66"/>
       <c r="B271" s="66"/>
       <c r="C271" s="66"/>
@@ -6989,7 +6958,7 @@
       <c r="H271" s="66"/>
       <c r="I271" s="66"/>
     </row>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="66"/>
       <c r="B272" s="66"/>
       <c r="C272" s="66"/>
@@ -7000,7 +6969,7 @@
       <c r="H272" s="66"/>
       <c r="I272" s="66"/>
     </row>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="66"/>
       <c r="B273" s="66"/>
       <c r="C273" s="66"/>
@@ -7011,7 +6980,7 @@
       <c r="H273" s="66"/>
       <c r="I273" s="66"/>
     </row>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="66"/>
       <c r="B274" s="66"/>
       <c r="C274" s="66"/>
@@ -7022,7 +6991,7 @@
       <c r="H274" s="66"/>
       <c r="I274" s="66"/>
     </row>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="66"/>
       <c r="B275" s="66"/>
       <c r="C275" s="66"/>
@@ -7033,7 +7002,7 @@
       <c r="H275" s="66"/>
       <c r="I275" s="66"/>
     </row>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="66"/>
       <c r="B276" s="66"/>
       <c r="C276" s="66"/>
@@ -7044,7 +7013,7 @@
       <c r="H276" s="66"/>
       <c r="I276" s="66"/>
     </row>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="66"/>
       <c r="B277" s="66"/>
       <c r="C277" s="66"/>
@@ -7055,7 +7024,7 @@
       <c r="H277" s="66"/>
       <c r="I277" s="66"/>
     </row>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="66"/>
       <c r="B278" s="66"/>
       <c r="C278" s="66"/>
@@ -7066,7 +7035,7 @@
       <c r="H278" s="66"/>
       <c r="I278" s="66"/>
     </row>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="66"/>
       <c r="B279" s="66"/>
       <c r="C279" s="66"/>
@@ -7077,7 +7046,7 @@
       <c r="H279" s="66"/>
       <c r="I279" s="66"/>
     </row>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="66"/>
       <c r="B280" s="66"/>
       <c r="C280" s="66"/>
@@ -7088,7 +7057,7 @@
       <c r="H280" s="66"/>
       <c r="I280" s="66"/>
     </row>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="66"/>
       <c r="B281" s="66"/>
       <c r="C281" s="66"/>
@@ -7099,7 +7068,7 @@
       <c r="H281" s="66"/>
       <c r="I281" s="66"/>
     </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="66"/>
       <c r="B282" s="66"/>
       <c r="C282" s="66"/>
@@ -7110,7 +7079,7 @@
       <c r="H282" s="66"/>
       <c r="I282" s="66"/>
     </row>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="66"/>
       <c r="B283" s="66"/>
       <c r="C283" s="66"/>
@@ -7121,7 +7090,7 @@
       <c r="H283" s="66"/>
       <c r="I283" s="66"/>
     </row>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="66"/>
       <c r="B284" s="66"/>
       <c r="C284" s="66"/>
@@ -7132,7 +7101,7 @@
       <c r="H284" s="66"/>
       <c r="I284" s="66"/>
     </row>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="66"/>
       <c r="B285" s="66"/>
       <c r="C285" s="66"/>
@@ -7143,7 +7112,7 @@
       <c r="H285" s="66"/>
       <c r="I285" s="66"/>
     </row>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="66"/>
       <c r="B286" s="66"/>
       <c r="C286" s="66"/>
@@ -7154,7 +7123,7 @@
       <c r="H286" s="66"/>
       <c r="I286" s="66"/>
     </row>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="66"/>
       <c r="B287" s="66"/>
       <c r="C287" s="66"/>
@@ -7165,7 +7134,7 @@
       <c r="H287" s="66"/>
       <c r="I287" s="66"/>
     </row>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="66"/>
       <c r="B288" s="66"/>
       <c r="C288" s="66"/>
@@ -7176,7 +7145,7 @@
       <c r="H288" s="66"/>
       <c r="I288" s="66"/>
     </row>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="66"/>
       <c r="B289" s="66"/>
       <c r="C289" s="66"/>
@@ -7187,7 +7156,7 @@
       <c r="H289" s="66"/>
       <c r="I289" s="66"/>
     </row>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="66"/>
       <c r="B290" s="66"/>
       <c r="C290" s="66"/>
@@ -7198,7 +7167,7 @@
       <c r="H290" s="66"/>
       <c r="I290" s="66"/>
     </row>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="66"/>
       <c r="B291" s="66"/>
       <c r="C291" s="66"/>
@@ -7209,7 +7178,7 @@
       <c r="H291" s="66"/>
       <c r="I291" s="66"/>
     </row>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="66"/>
       <c r="B292" s="66"/>
       <c r="C292" s="66"/>
@@ -7220,7 +7189,7 @@
       <c r="H292" s="66"/>
       <c r="I292" s="66"/>
     </row>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="66"/>
       <c r="B293" s="66"/>
       <c r="C293" s="66"/>
@@ -7231,7 +7200,7 @@
       <c r="H293" s="66"/>
       <c r="I293" s="66"/>
     </row>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="66"/>
       <c r="B294" s="66"/>
       <c r="C294" s="66"/>
@@ -7242,7 +7211,7 @@
       <c r="H294" s="66"/>
       <c r="I294" s="66"/>
     </row>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="66"/>
       <c r="B295" s="66"/>
       <c r="C295" s="66"/>
@@ -7253,7 +7222,7 @@
       <c r="H295" s="66"/>
       <c r="I295" s="66"/>
     </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="66"/>
       <c r="B296" s="66"/>
       <c r="C296" s="66"/>
@@ -7264,7 +7233,7 @@
       <c r="H296" s="66"/>
       <c r="I296" s="66"/>
     </row>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="66"/>
       <c r="B297" s="66"/>
       <c r="C297" s="66"/>
@@ -7275,7 +7244,7 @@
       <c r="H297" s="66"/>
       <c r="I297" s="66"/>
     </row>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="66"/>
       <c r="B298" s="66"/>
       <c r="C298" s="66"/>
@@ -7286,7 +7255,7 @@
       <c r="H298" s="66"/>
       <c r="I298" s="66"/>
     </row>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="66"/>
       <c r="B299" s="66"/>
       <c r="C299" s="66"/>
@@ -7297,7 +7266,7 @@
       <c r="H299" s="66"/>
       <c r="I299" s="66"/>
     </row>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="66"/>
       <c r="B300" s="66"/>
       <c r="C300" s="66"/>
@@ -7308,7 +7277,7 @@
       <c r="H300" s="66"/>
       <c r="I300" s="66"/>
     </row>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="66"/>
       <c r="B301" s="66"/>
       <c r="C301" s="66"/>
@@ -7319,7 +7288,7 @@
       <c r="H301" s="66"/>
       <c r="I301" s="66"/>
     </row>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="66"/>
       <c r="B302" s="66"/>
       <c r="C302" s="66"/>
@@ -7330,7 +7299,7 @@
       <c r="H302" s="66"/>
       <c r="I302" s="66"/>
     </row>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="66"/>
       <c r="B303" s="66"/>
       <c r="C303" s="66"/>
@@ -7341,7 +7310,7 @@
       <c r="H303" s="66"/>
       <c r="I303" s="66"/>
     </row>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="66"/>
       <c r="B304" s="66"/>
       <c r="C304" s="66"/>
@@ -7352,7 +7321,7 @@
       <c r="H304" s="66"/>
       <c r="I304" s="66"/>
     </row>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="66"/>
       <c r="B305" s="66"/>
       <c r="C305" s="66"/>
@@ -7363,7 +7332,7 @@
       <c r="H305" s="66"/>
       <c r="I305" s="66"/>
     </row>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="66"/>
       <c r="B306" s="66"/>
       <c r="C306" s="66"/>
@@ -7374,7 +7343,7 @@
       <c r="H306" s="66"/>
       <c r="I306" s="66"/>
     </row>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="66"/>
       <c r="B307" s="66"/>
       <c r="C307" s="66"/>
@@ -7385,7 +7354,7 @@
       <c r="H307" s="66"/>
       <c r="I307" s="66"/>
     </row>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="66"/>
       <c r="B308" s="66"/>
       <c r="C308" s="66"/>
@@ -7396,7 +7365,7 @@
       <c r="H308" s="66"/>
       <c r="I308" s="66"/>
     </row>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="66"/>
       <c r="B309" s="66"/>
       <c r="C309" s="66"/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="378">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -976,14 +976,7 @@
     <t xml:space="preserve">3:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Botón para 
-mantener arriba
-despresurizado retractil,
-romper vació Y
-subir pistones 
-Al llegar a distancia 
-optima apagar 
-romper vacio</t>
+    <t xml:space="preserve">this seems to save the  bucket size so we don’t need  HR-0021</t>
   </si>
   <si>
     <t xml:space="preserve">Botón para cambio de cubeta next (Paso 2)</t>
@@ -996,6 +989,10 @@
   </si>
   <si>
     <t xml:space="preserve">Botón para desplegar botón de subir y bajar pistones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we need to make sure
+To send this action events to the control</t>
   </si>
   <si>
     <t xml:space="preserve">Bajar pistones</t>
@@ -1751,7 +1748,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2082,6 +2079,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2323,8 +2324,8 @@
   </sheetPr>
   <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G149" activeCellId="0" sqref="G149"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G116" activeCellId="0" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4882,20 +4883,22 @@
       <c r="E111" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="F111" s="66"/>
+      <c r="F111" s="83" t="s">
+        <v>262</v>
+      </c>
       <c r="G111" s="66"/>
       <c r="H111" s="66"/>
       <c r="I111" s="66"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="76" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>199</v>
@@ -4904,7 +4907,7 @@
         <v>256</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
@@ -4912,13 +4915,13 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="76" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>203</v>
@@ -4932,37 +4935,37 @@
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="82" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E114" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="F114" s="83" t="s">
-        <v>273</v>
-      </c>
-      <c r="G114" s="83"/>
-      <c r="H114" s="83"/>
-      <c r="I114" s="83"/>
-      <c r="J114" s="83"/>
+      <c r="F114" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="G114" s="84"/>
+      <c r="H114" s="84"/>
+      <c r="I114" s="84"/>
+      <c r="J114" s="84"/>
     </row>
     <row r="115" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D115" s="72" t="s">
         <v>222</v>
@@ -4977,19 +4980,19 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="73" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B116" s="74" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E116" s="72" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F116" s="66"/>
       <c r="G116" s="66"/>
@@ -4998,19 +5001,19 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="B117" s="74" t="s">
+        <v>284</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E117" s="72" t="s">
         <v>282</v>
-      </c>
-      <c r="B117" s="74" t="s">
-        <v>283</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E117" s="72" t="s">
-        <v>281</v>
       </c>
       <c r="F117" s="66"/>
       <c r="G117" s="66"/>
@@ -5019,19 +5022,19 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="73" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B118" s="74" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E118" s="72" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F118" s="66"/>
       <c r="G118" s="66"/>
@@ -5040,19 +5043,19 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B119" s="74" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E119" s="72" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F119" s="66"/>
       <c r="G119" s="66"/>
@@ -5061,19 +5064,19 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="73" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B120" s="74" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E120" s="72" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
@@ -5083,19 +5086,19 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="73" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B121" s="74" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E121" s="72" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F121" s="66"/>
       <c r="G121" s="66"/>
@@ -5104,19 +5107,19 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="73" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B122" s="74" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E122" s="72" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F122" s="66"/>
       <c r="G122" s="66"/>
@@ -5125,22 +5128,22 @@
     </row>
     <row r="123" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E123" s="72" t="s">
-        <v>281</v>
-      </c>
-      <c r="F123" s="84" t="s">
-        <v>310</v>
+        <v>282</v>
+      </c>
+      <c r="F123" s="85" t="s">
+        <v>311</v>
       </c>
       <c r="G123" s="66"/>
       <c r="H123" s="66"/>
@@ -5148,19 +5151,19 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E124" s="72" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F124" s="66"/>
       <c r="G124" s="66"/>
@@ -5169,19 +5172,19 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E125" s="72" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F125" s="66"/>
       <c r="G125" s="66"/>
@@ -5190,19 +5193,19 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="73" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B126" s="74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E126" s="72" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F126" s="66"/>
       <c r="G126" s="66"/>
@@ -5211,19 +5214,19 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="73" t="s">
+        <v>325</v>
+      </c>
+      <c r="B127" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E127" s="72" t="s">
         <v>324</v>
-      </c>
-      <c r="B127" s="74" t="s">
-        <v>325</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E127" s="72" t="s">
-        <v>323</v>
       </c>
       <c r="F127" s="66"/>
       <c r="G127" s="66"/>
@@ -5232,19 +5235,19 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="73" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B128" s="74" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E128" s="72" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F128" s="66"/>
       <c r="G128" s="66"/>
@@ -5252,20 +5255,20 @@
       <c r="I128" s="66"/>
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="85" t="s">
-        <v>332</v>
+      <c r="A129" s="86" t="s">
+        <v>333</v>
       </c>
       <c r="B129" s="74" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E129" s="72" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F129" s="66"/>
       <c r="G129" s="66"/>
@@ -5274,19 +5277,19 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="73" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B130" s="74" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E130" s="72" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F130" s="66"/>
       <c r="G130" s="66"/>
@@ -5295,14 +5298,14 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="73" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B131" s="74" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E131" s="72"/>
       <c r="F131" s="66"/>
@@ -5311,11 +5314,11 @@
       <c r="I131" s="66"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="86" t="s">
-        <v>343</v>
-      </c>
-      <c r="B132" s="87" t="s">
+      <c r="A132" s="87" t="s">
         <v>344</v>
+      </c>
+      <c r="B132" s="88" t="s">
+        <v>345</v>
       </c>
       <c r="C132" s="66"/>
       <c r="D132" s="66"/>
@@ -5326,11 +5329,11 @@
       <c r="I132" s="66"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="86" t="s">
-        <v>345</v>
-      </c>
-      <c r="B133" s="87" t="s">
+      <c r="A133" s="87" t="s">
         <v>346</v>
+      </c>
+      <c r="B133" s="88" t="s">
+        <v>347</v>
       </c>
       <c r="C133" s="66"/>
       <c r="D133" s="66"/>
@@ -5341,11 +5344,11 @@
       <c r="I133" s="66"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="86" t="s">
-        <v>347</v>
-      </c>
-      <c r="B134" s="87" t="s">
+      <c r="A134" s="87" t="s">
         <v>348</v>
+      </c>
+      <c r="B134" s="88" t="s">
+        <v>349</v>
       </c>
       <c r="C134" s="66"/>
       <c r="D134" s="66"/>
@@ -5356,11 +5359,11 @@
       <c r="I134" s="66"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="86" t="s">
-        <v>349</v>
-      </c>
-      <c r="B135" s="87" t="s">
+      <c r="A135" s="87" t="s">
         <v>350</v>
+      </c>
+      <c r="B135" s="88" t="s">
+        <v>351</v>
       </c>
       <c r="C135" s="66"/>
       <c r="D135" s="66"/>
@@ -5371,11 +5374,11 @@
       <c r="I135" s="66"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="86" t="s">
-        <v>351</v>
-      </c>
-      <c r="B136" s="87" t="s">
+      <c r="A136" s="87" t="s">
         <v>352</v>
+      </c>
+      <c r="B136" s="88" t="s">
+        <v>353</v>
       </c>
       <c r="C136" s="66"/>
       <c r="D136" s="66"/>
@@ -5386,11 +5389,11 @@
       <c r="I136" s="66"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="86" t="s">
-        <v>353</v>
-      </c>
-      <c r="B137" s="87" t="s">
+      <c r="A137" s="87" t="s">
         <v>354</v>
+      </c>
+      <c r="B137" s="88" t="s">
+        <v>355</v>
       </c>
       <c r="C137" s="66"/>
       <c r="D137" s="66"/>
@@ -5454,8 +5457,8 @@
     </row>
     <row r="143" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="66"/>
-      <c r="B143" s="88" t="s">
-        <v>355</v>
+      <c r="B143" s="89" t="s">
+        <v>356</v>
       </c>
       <c r="C143" s="66"/>
       <c r="D143" s="66"/>
@@ -5466,15 +5469,15 @@
       <c r="I143" s="66"/>
     </row>
     <row r="144" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="89"/>
-      <c r="B144" s="90" t="s">
-        <v>356</v>
-      </c>
-      <c r="C144" s="90" t="s">
+      <c r="A144" s="90"/>
+      <c r="B144" s="91" t="s">
         <v>357</v>
       </c>
-      <c r="D144" s="91" t="s">
+      <c r="C144" s="91" t="s">
         <v>358</v>
+      </c>
+      <c r="D144" s="92" t="s">
+        <v>359</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>7</v>
@@ -5487,7 +5490,7 @@
       <c r="I144" s="66"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="92"/>
+      <c r="A145" s="93"/>
       <c r="B145" s="66"/>
       <c r="C145" s="66"/>
       <c r="D145" s="66"/>
@@ -5498,68 +5501,68 @@
       <c r="I145" s="66"/>
     </row>
     <row r="146" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="93" t="s">
-        <v>359</v>
-      </c>
-      <c r="B146" s="94" t="s">
+      <c r="A146" s="94" t="s">
         <v>360</v>
       </c>
-      <c r="C146" s="95" t="s">
+      <c r="B146" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="D146" s="96" t="s">
+      <c r="C146" s="96" t="s">
         <v>362</v>
       </c>
-      <c r="E146" s="97" t="s">
+      <c r="D146" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="F146" s="98" t="s">
+      <c r="E146" s="98" t="s">
         <v>364</v>
+      </c>
+      <c r="F146" s="99" t="s">
+        <v>365</v>
       </c>
       <c r="G146" s="66"/>
       <c r="H146" s="66"/>
       <c r="I146" s="66"/>
     </row>
     <row r="147" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="93"/>
-      <c r="B147" s="99" t="s">
-        <v>365</v>
-      </c>
-      <c r="C147" s="100" t="s">
+      <c r="A147" s="94"/>
+      <c r="B147" s="100" t="s">
         <v>366</v>
       </c>
-      <c r="D147" s="101" t="s">
+      <c r="C147" s="101" t="s">
         <v>367</v>
       </c>
-      <c r="E147" s="102" t="s">
+      <c r="D147" s="102" t="s">
         <v>368</v>
       </c>
-      <c r="F147" s="98" t="s">
+      <c r="E147" s="103" t="s">
         <v>369</v>
+      </c>
+      <c r="F147" s="99" t="s">
+        <v>370</v>
       </c>
       <c r="G147" s="66"/>
       <c r="H147" s="66"/>
       <c r="I147" s="66"/>
     </row>
     <row r="148" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="93"/>
-      <c r="B148" s="103" t="s">
-        <v>370</v>
-      </c>
-      <c r="C148" s="104" t="s">
+      <c r="A148" s="94"/>
+      <c r="B148" s="104" t="s">
         <v>371</v>
       </c>
-      <c r="D148" s="105" t="s">
+      <c r="C148" s="105" t="s">
         <v>372</v>
       </c>
-      <c r="E148" s="106" t="s">
+      <c r="D148" s="106" t="s">
+        <v>373</v>
+      </c>
+      <c r="E148" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="F148" s="107" t="s">
+      <c r="F148" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="84" t="s">
-        <v>373</v>
+      <c r="G148" s="85" t="s">
+        <v>374</v>
       </c>
       <c r="H148" s="66"/>
       <c r="I148" s="66"/>
@@ -5568,20 +5571,20 @@
       <c r="L148" s="66"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="93"/>
-      <c r="B149" s="108" t="s">
-        <v>374</v>
-      </c>
-      <c r="C149" s="104" t="s">
-        <v>371</v>
-      </c>
-      <c r="D149" s="105" t="s">
+      <c r="A149" s="94"/>
+      <c r="B149" s="109" t="s">
         <v>375</v>
       </c>
-      <c r="E149" s="106" t="s">
+      <c r="C149" s="105" t="s">
+        <v>372</v>
+      </c>
+      <c r="D149" s="106" t="s">
+        <v>376</v>
+      </c>
+      <c r="E149" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="F149" s="107" t="s">
+      <c r="F149" s="108" t="s">
         <v>12</v>
       </c>
       <c r="G149" s="66"/>
@@ -5592,20 +5595,20 @@
       <c r="L149" s="66"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="93"/>
-      <c r="B150" s="109" t="s">
-        <v>305</v>
-      </c>
-      <c r="C150" s="110" t="s">
-        <v>371</v>
-      </c>
-      <c r="D150" s="111" t="s">
-        <v>376</v>
-      </c>
-      <c r="E150" s="112" t="s">
+      <c r="A150" s="94"/>
+      <c r="B150" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="C150" s="111" t="s">
+        <v>372</v>
+      </c>
+      <c r="D150" s="112" t="s">
+        <v>377</v>
+      </c>
+      <c r="E150" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="113" t="s">
+      <c r="F150" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G150" s="66"/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="381">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -1219,6 +1219,10 @@
     <t xml:space="preserve">Tiempo maximo de bomba encendida para el botón manual</t>
   </si>
   <si>
+    <t xml:space="preserve">que bomba es esta,
+Recircular??</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contraseña cliente</t>
   </si>
   <si>
@@ -1352,6 +1356,32 @@
   </si>
   <si>
     <t xml:space="preserve">0=Modo ciclico apagdo (tiempo en minutos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">How to know this condition??
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Se quiere activar
+el recirculado?</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1362,7 +1392,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot; $&quot;* #,##0.00\ ;&quot;-$&quot;* #,##0.00\ ;&quot; $&quot;* \-#\ ;\ @\ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1431,17 +1461,30 @@
       <family val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1487,8 +1530,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFAA95"/>
-        <bgColor rgb="FFFF8080"/>
+        <fgColor rgb="FF0093D9"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -1748,7 +1791,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="118">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1865,20 +1908,100 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1913,87 +2036,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2001,7 +2052,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2025,7 +2076,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2041,22 +2092,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2065,19 +2116,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2089,19 +2140,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2129,39 +2180,39 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2206,6 +2257,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2235,7 +2290,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0093D9"/>
       <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -2256,10 +2311,10 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FFFFF5CE"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFFAA95"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FF3366FF"/>
@@ -2324,8 +2379,8 @@
   </sheetPr>
   <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G116" activeCellId="0" sqref="G116"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C157" activeCellId="0" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2619,245 +2674,245 @@
       <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="23" t="n">
+      <c r="C11" s="29" t="n">
         <v>5051</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="23" t="n">
+      <c r="E11" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="23" t="n">
+      <c r="C12" s="29" t="n">
         <v>5052</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="29" t="s">
         <v>52</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="29"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="23" t="n">
+      <c r="C13" s="29" t="n">
         <v>5052</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="28" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="31" t="s">
         <v>56</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="29"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="23" t="n">
+      <c r="C14" s="29" t="n">
         <v>5052</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="28" t="s">
+      <c r="G14" s="29"/>
+      <c r="H14" s="31" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="J14" s="29"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="30" t="n">
+      <c r="C15" s="32" t="n">
         <v>5052</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="32" t="s">
+      <c r="G15" s="32"/>
+      <c r="H15" s="34" t="s">
         <v>61</v>
       </c>
       <c r="I15" s="12"/>
-      <c r="J15" s="29"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="23" t="n">
+      <c r="C16" s="29" t="n">
         <v>5052</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="28" t="s">
+      <c r="G16" s="29"/>
+      <c r="H16" s="31" t="s">
         <v>64</v>
       </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="29"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="23" t="n">
+      <c r="C17" s="29" t="n">
         <v>5052</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="28" t="s">
+      <c r="G17" s="29"/>
+      <c r="H17" s="31" t="s">
         <v>67</v>
       </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="29"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="23" t="n">
+      <c r="C18" s="29" t="n">
         <v>5052</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23" t="s">
+      <c r="G18" s="29"/>
+      <c r="H18" s="29" t="s">
         <v>70</v>
       </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="29"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="23" t="n">
+      <c r="C19" s="29" t="n">
         <v>5052</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23" t="s">
+      <c r="G19" s="29"/>
+      <c r="H19" s="29" t="s">
         <v>73</v>
       </c>
       <c r="I19" s="12"/>
-      <c r="J19" s="29"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="34" t="n">
+      <c r="C20" s="36" t="n">
         <v>6060</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="34" t="n">
+      <c r="E20" s="36" t="n">
         <v>22</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36" t="s">
+      <c r="G20" s="37"/>
+      <c r="H20" s="38" t="s">
         <v>76</v>
       </c>
       <c r="I20" s="21" t="s">
@@ -2869,21 +2924,21 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="37" t="n">
+      <c r="B21" s="35"/>
+      <c r="C21" s="39" t="n">
         <v>6061</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="37" t="n">
+      <c r="E21" s="39" t="n">
         <v>3628</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="36"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="38"/>
       <c r="I21" s="21" t="s">
         <v>14</v>
       </c>
@@ -2893,21 +2948,21 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="37" t="n">
+      <c r="B22" s="35"/>
+      <c r="C22" s="39" t="n">
         <v>6062</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="37" t="n">
+      <c r="E22" s="39" t="n">
         <v>256</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="36"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="21" t="s">
         <v>14</v>
       </c>
@@ -2917,21 +2972,21 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="37" t="n">
+      <c r="B23" s="35"/>
+      <c r="C23" s="39" t="n">
         <v>6063</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="37" t="n">
+      <c r="E23" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="36"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="38"/>
       <c r="I23" s="21" t="s">
         <v>14</v>
       </c>
@@ -2941,21 +2996,21 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="37" t="n">
+      <c r="B24" s="35"/>
+      <c r="C24" s="39" t="n">
         <v>6064</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="37" t="n">
+      <c r="E24" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="36"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="38"/>
       <c r="I24" s="21" t="s">
         <v>14</v>
       </c>
@@ -2965,21 +3020,21 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="37" t="n">
+      <c r="B25" s="35"/>
+      <c r="C25" s="39" t="n">
         <v>6065</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="37" t="n">
+      <c r="E25" s="39" t="n">
         <v>256</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="36"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="38"/>
       <c r="I25" s="21" t="s">
         <v>14</v>
       </c>
@@ -2989,21 +3044,21 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="37" t="n">
+      <c r="B26" s="35"/>
+      <c r="C26" s="39" t="n">
         <v>6066</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="37" t="n">
+      <c r="E26" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="36"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="21" t="s">
         <v>14</v>
       </c>
@@ -3013,21 +3068,21 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="39" t="n">
+      <c r="B27" s="35"/>
+      <c r="C27" s="41" t="n">
         <v>6067</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="39" t="n">
+      <c r="E27" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="36"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="38"/>
       <c r="I27" s="21" t="s">
         <v>14</v>
       </c>
@@ -3037,23 +3092,23 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="37" t="n">
+      <c r="C28" s="39" t="n">
         <v>6060</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="37" t="n">
+      <c r="E28" s="39" t="n">
         <v>16</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="36" t="s">
+      <c r="G28" s="40"/>
+      <c r="H28" s="38" t="s">
         <v>78</v>
       </c>
       <c r="I28" s="21" t="s">
@@ -3065,21 +3120,21 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="37" t="n">
+      <c r="B29" s="43"/>
+      <c r="C29" s="39" t="n">
         <v>6061</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="37" t="n">
+      <c r="E29" s="39" t="n">
         <v>3328</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="36"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="38"/>
       <c r="I29" s="21" t="s">
         <v>14</v>
       </c>
@@ -3089,21 +3144,21 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="37" t="n">
+      <c r="B30" s="43"/>
+      <c r="C30" s="39" t="n">
         <v>6062</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="37" t="n">
+      <c r="E30" s="39" t="n">
         <v>5645</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="36"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="38"/>
       <c r="I30" s="21" t="s">
         <v>14</v>
       </c>
@@ -3113,21 +3168,21 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="37" t="n">
+      <c r="B31" s="43"/>
+      <c r="C31" s="39" t="n">
         <v>6063</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="37" t="n">
+      <c r="E31" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="36"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="38"/>
       <c r="I31" s="21" t="s">
         <v>14</v>
       </c>
@@ -3137,21 +3192,21 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="37" t="n">
+      <c r="B32" s="43"/>
+      <c r="C32" s="39" t="n">
         <v>6064</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="37" t="n">
+      <c r="E32" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="36"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="38"/>
       <c r="I32" s="21" t="s">
         <v>14</v>
       </c>
@@ -3161,21 +3216,21 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="37" t="n">
+      <c r="B33" s="43"/>
+      <c r="C33" s="39" t="n">
         <v>6065</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="37" t="n">
+      <c r="E33" s="39" t="n">
         <v>256</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="36"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="38"/>
       <c r="I33" s="21" t="s">
         <v>14</v>
       </c>
@@ -3185,21 +3240,21 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="37" t="n">
+      <c r="B34" s="43"/>
+      <c r="C34" s="39" t="n">
         <v>6066</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="37" t="n">
+      <c r="E34" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="36"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="38"/>
       <c r="I34" s="21" t="s">
         <v>14</v>
       </c>
@@ -3209,21 +3264,21 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="37" t="n">
+      <c r="B35" s="43"/>
+      <c r="C35" s="39" t="n">
         <v>6067</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="37" t="n">
+      <c r="E35" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="38"/>
-      <c r="H35" s="36"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="38"/>
       <c r="I35" s="21" t="s">
         <v>14</v>
       </c>
@@ -3233,23 +3288,23 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8"/>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="43" t="n">
+      <c r="C36" s="45" t="n">
         <v>6060</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="43" t="n">
+      <c r="E36" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="45" t="s">
+      <c r="G36" s="46"/>
+      <c r="H36" s="47" t="s">
         <v>80</v>
       </c>
       <c r="I36" s="21" t="s">
@@ -3261,21 +3316,21 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="46" t="n">
+      <c r="B37" s="44"/>
+      <c r="C37" s="48" t="n">
         <v>6061</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="46" t="n">
+      <c r="E37" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="45"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="47"/>
       <c r="I37" s="21" t="s">
         <v>14</v>
       </c>
@@ -3285,21 +3340,21 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="46" t="n">
+      <c r="B38" s="44"/>
+      <c r="C38" s="48" t="n">
         <v>6062</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="46" t="n">
+      <c r="E38" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="47"/>
-      <c r="H38" s="45"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="47"/>
       <c r="I38" s="21" t="s">
         <v>14</v>
       </c>
@@ -3309,21 +3364,21 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="46" t="n">
+      <c r="B39" s="44"/>
+      <c r="C39" s="48" t="n">
         <v>6063</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="46" t="n">
+      <c r="E39" s="48" t="n">
         <v>1046</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="47"/>
-      <c r="H39" s="45"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="47"/>
       <c r="I39" s="21" t="s">
         <v>14</v>
       </c>
@@ -3333,21 +3388,21 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="46" t="n">
+      <c r="B40" s="44"/>
+      <c r="C40" s="48" t="n">
         <v>6064</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="46" t="n">
+      <c r="E40" s="48" t="n">
         <v>3328</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="47"/>
-      <c r="H40" s="45"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="47"/>
       <c r="I40" s="21" t="s">
         <v>14</v>
       </c>
@@ -3357,21 +3412,21 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="46" t="n">
+      <c r="B41" s="44"/>
+      <c r="C41" s="48" t="n">
         <v>6065</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="46" t="n">
+      <c r="E41" s="48" t="n">
         <v>260</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="47"/>
-      <c r="H41" s="45"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="47"/>
       <c r="I41" s="21" t="s">
         <v>14</v>
       </c>
@@ -3381,21 +3436,21 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="46" t="n">
+      <c r="B42" s="44"/>
+      <c r="C42" s="48" t="n">
         <v>6066</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="46" t="n">
+      <c r="E42" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="47"/>
-      <c r="H42" s="45"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="47"/>
       <c r="I42" s="21" t="s">
         <v>14</v>
       </c>
@@ -3405,21 +3460,21 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="48" t="n">
+      <c r="B43" s="44"/>
+      <c r="C43" s="50" t="n">
         <v>6067</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="48" t="n">
+      <c r="E43" s="50" t="n">
         <v>1024</v>
       </c>
-      <c r="F43" s="48" t="s">
+      <c r="F43" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="45"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="47"/>
       <c r="I43" s="21" t="s">
         <v>14</v>
       </c>
@@ -3429,23 +3484,23 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8"/>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="46" t="n">
+      <c r="C44" s="48" t="n">
         <v>6060</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="46" t="n">
+      <c r="E44" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="47"/>
-      <c r="H44" s="45" t="s">
+      <c r="G44" s="49"/>
+      <c r="H44" s="47" t="s">
         <v>82</v>
       </c>
       <c r="I44" s="21" t="s">
@@ -3457,21 +3512,21 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="46" t="n">
+      <c r="B45" s="52"/>
+      <c r="C45" s="48" t="n">
         <v>6061</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="46" t="n">
+      <c r="E45" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="47"/>
-      <c r="H45" s="45"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="47"/>
       <c r="I45" s="21" t="s">
         <v>14</v>
       </c>
@@ -3481,21 +3536,21 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="46" t="n">
+      <c r="B46" s="52"/>
+      <c r="C46" s="48" t="n">
         <v>6062</v>
       </c>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="46" t="n">
+      <c r="E46" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F46" s="46" t="s">
+      <c r="F46" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="47"/>
-      <c r="H46" s="45"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="47"/>
       <c r="I46" s="21" t="s">
         <v>14</v>
       </c>
@@ -3505,21 +3560,21 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="46" t="n">
+      <c r="B47" s="52"/>
+      <c r="C47" s="48" t="n">
         <v>6063</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="46" t="n">
+      <c r="E47" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="F47" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="47"/>
-      <c r="H47" s="45"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="47"/>
       <c r="I47" s="21" t="s">
         <v>14</v>
       </c>
@@ -3529,21 +3584,21 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="46" t="n">
+      <c r="B48" s="52"/>
+      <c r="C48" s="48" t="n">
         <v>6064</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="46" t="n">
+      <c r="E48" s="48" t="n">
         <v>3332</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="47"/>
-      <c r="H48" s="45"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="47"/>
       <c r="I48" s="21" t="s">
         <v>14</v>
       </c>
@@ -3553,21 +3608,21 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="46" t="n">
+      <c r="B49" s="52"/>
+      <c r="C49" s="48" t="n">
         <v>6065</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="46" t="n">
+      <c r="E49" s="48" t="n">
         <v>1549</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="47"/>
-      <c r="H49" s="45"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="47"/>
       <c r="I49" s="21" t="s">
         <v>14</v>
       </c>
@@ -3577,21 +3632,21 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="46" t="n">
+      <c r="B50" s="52"/>
+      <c r="C50" s="48" t="n">
         <v>6066</v>
       </c>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="46" t="n">
+      <c r="E50" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="47"/>
-      <c r="H50" s="45"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="47"/>
       <c r="I50" s="21" t="s">
         <v>14</v>
       </c>
@@ -3601,21 +3656,21 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="46" t="n">
+      <c r="B51" s="52"/>
+      <c r="C51" s="48" t="n">
         <v>6067</v>
       </c>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="46" t="n">
+      <c r="E51" s="48" t="n">
         <v>1024</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="47"/>
-      <c r="H51" s="45"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="47"/>
       <c r="I51" s="21" t="s">
         <v>14</v>
       </c>
@@ -3625,23 +3680,23 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="8"/>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="52" t="n">
+      <c r="C52" s="54" t="n">
         <v>6060</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="D52" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="52" t="n">
+      <c r="E52" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="F52" s="52" t="s">
+      <c r="F52" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54" t="s">
+      <c r="G52" s="55"/>
+      <c r="H52" s="56" t="s">
         <v>84</v>
       </c>
       <c r="I52" s="21" t="s">
@@ -3653,21 +3708,21 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="55" t="n">
+      <c r="B53" s="53"/>
+      <c r="C53" s="57" t="n">
         <v>6061</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="55" t="n">
+      <c r="E53" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="F53" s="55" t="s">
+      <c r="F53" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="56"/>
-      <c r="H53" s="54"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="56"/>
       <c r="I53" s="21" t="s">
         <v>14</v>
       </c>
@@ -3677,21 +3732,21 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="55" t="n">
+      <c r="B54" s="53"/>
+      <c r="C54" s="57" t="n">
         <v>6062</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="55" t="n">
+      <c r="E54" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="F54" s="55" t="s">
+      <c r="F54" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="56"/>
-      <c r="H54" s="54"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="56"/>
       <c r="I54" s="21" t="s">
         <v>14</v>
       </c>
@@ -3701,21 +3756,21 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="55" t="n">
+      <c r="B55" s="53"/>
+      <c r="C55" s="57" t="n">
         <v>6063</v>
       </c>
-      <c r="D55" s="55" t="s">
+      <c r="D55" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="55" t="n">
+      <c r="E55" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="56"/>
-      <c r="H55" s="54"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="56"/>
       <c r="I55" s="21" t="s">
         <v>14</v>
       </c>
@@ -3725,21 +3780,21 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="55" t="n">
+      <c r="B56" s="53"/>
+      <c r="C56" s="57" t="n">
         <v>6064</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="55" t="n">
+      <c r="E56" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="F56" s="55" t="s">
+      <c r="F56" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="56"/>
-      <c r="H56" s="54"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="56"/>
       <c r="I56" s="21" t="s">
         <v>14</v>
       </c>
@@ -3749,21 +3804,21 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="55" t="n">
+      <c r="B57" s="53"/>
+      <c r="C57" s="57" t="n">
         <v>6065</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="55" t="n">
+      <c r="E57" s="57" t="n">
         <v>13</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="54"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="56"/>
       <c r="I57" s="21" t="s">
         <v>14</v>
       </c>
@@ -3773,21 +3828,21 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="55" t="n">
+      <c r="B58" s="53"/>
+      <c r="C58" s="57" t="n">
         <v>6066</v>
       </c>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="55" t="n">
+      <c r="E58" s="57" t="n">
         <v>15</v>
       </c>
-      <c r="F58" s="55" t="s">
+      <c r="F58" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="56"/>
-      <c r="H58" s="54"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="56"/>
       <c r="I58" s="21" t="s">
         <v>14</v>
       </c>
@@ -3797,21 +3852,21 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="57" t="n">
+      <c r="B59" s="53"/>
+      <c r="C59" s="59" t="n">
         <v>6067</v>
       </c>
-      <c r="D59" s="57" t="s">
+      <c r="D59" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="57" t="n">
+      <c r="E59" s="59" t="n">
         <v>256</v>
       </c>
-      <c r="F59" s="57" t="s">
+      <c r="F59" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="58"/>
-      <c r="H59" s="54"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="56"/>
       <c r="I59" s="21" t="s">
         <v>14</v>
       </c>
@@ -3824,20 +3879,20 @@
       <c r="B60" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="59" t="n">
+      <c r="C60" s="61" t="n">
         <v>6060</v>
       </c>
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="59" t="n">
+      <c r="E60" s="61" t="n">
         <v>23</v>
       </c>
-      <c r="F60" s="59" t="s">
+      <c r="F60" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="60"/>
-      <c r="H60" s="61" t="s">
+      <c r="G60" s="62"/>
+      <c r="H60" s="63" t="s">
         <v>86</v>
       </c>
       <c r="I60" s="21" t="s">
@@ -3850,20 +3905,20 @@
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8"/>
       <c r="B61" s="27"/>
-      <c r="C61" s="59" t="n">
+      <c r="C61" s="61" t="n">
         <v>6061</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E61" s="59" t="n">
+      <c r="E61" s="61" t="n">
         <v>1024</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="60"/>
-      <c r="H61" s="61"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="63"/>
       <c r="I61" s="21" t="s">
         <v>14</v>
       </c>
@@ -3874,20 +3929,20 @@
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8"/>
       <c r="B62" s="27"/>
-      <c r="C62" s="59" t="n">
+      <c r="C62" s="61" t="n">
         <v>6062</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="59" t="n">
+      <c r="E62" s="61" t="n">
         <v>5892</v>
       </c>
-      <c r="F62" s="59" t="s">
+      <c r="F62" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="60"/>
-      <c r="H62" s="61"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="63"/>
       <c r="I62" s="21" t="s">
         <v>14</v>
       </c>
@@ -3898,20 +3953,20 @@
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8"/>
       <c r="B63" s="27"/>
-      <c r="C63" s="59" t="n">
+      <c r="C63" s="61" t="n">
         <v>6063</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="59" t="n">
+      <c r="E63" s="61" t="n">
         <v>23</v>
       </c>
-      <c r="F63" s="59" t="s">
+      <c r="F63" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="60"/>
-      <c r="H63" s="61"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="63"/>
       <c r="I63" s="21" t="s">
         <v>14</v>
       </c>
@@ -3922,20 +3977,20 @@
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8"/>
       <c r="B64" s="27"/>
-      <c r="C64" s="59" t="n">
+      <c r="C64" s="61" t="n">
         <v>6064</v>
       </c>
-      <c r="D64" s="59" t="s">
+      <c r="D64" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="59" t="n">
+      <c r="E64" s="61" t="n">
         <v>1024</v>
       </c>
-      <c r="F64" s="59" t="s">
+      <c r="F64" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="60"/>
-      <c r="H64" s="61"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="63"/>
       <c r="I64" s="21" t="s">
         <v>14</v>
       </c>
@@ -3946,20 +4001,20 @@
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8"/>
       <c r="B65" s="27"/>
-      <c r="C65" s="59" t="n">
+      <c r="C65" s="61" t="n">
         <v>6065</v>
       </c>
-      <c r="D65" s="59" t="s">
+      <c r="D65" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="59" t="n">
+      <c r="E65" s="61" t="n">
         <v>5892</v>
       </c>
-      <c r="F65" s="59" t="s">
+      <c r="F65" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="60"/>
-      <c r="H65" s="61"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="63"/>
       <c r="I65" s="21" t="s">
         <v>14</v>
       </c>
@@ -3970,20 +4025,20 @@
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8"/>
       <c r="B66" s="27"/>
-      <c r="C66" s="59" t="n">
+      <c r="C66" s="61" t="n">
         <v>6066</v>
       </c>
-      <c r="D66" s="59" t="s">
+      <c r="D66" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E66" s="59" t="n">
+      <c r="E66" s="61" t="n">
         <v>4119</v>
       </c>
-      <c r="F66" s="59" t="s">
+      <c r="F66" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="60"/>
-      <c r="H66" s="61"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="63"/>
       <c r="I66" s="21" t="s">
         <v>14</v>
       </c>
@@ -3994,20 +4049,20 @@
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8"/>
       <c r="B67" s="27"/>
-      <c r="C67" s="59" t="n">
+      <c r="C67" s="61" t="n">
         <v>6067</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E67" s="59" t="n">
+      <c r="E67" s="61" t="n">
         <v>1024</v>
       </c>
-      <c r="F67" s="59" t="s">
+      <c r="F67" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="60"/>
-      <c r="H67" s="61"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="63"/>
       <c r="I67" s="21" t="s">
         <v>14</v>
       </c>
@@ -4054,52 +4109,52 @@
       <c r="D69" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E69" s="62" t="s">
+      <c r="E69" s="64" t="s">
         <v>93</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="19"/>
-      <c r="H69" s="63" t="s">
+      <c r="H69" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="I69" s="64" t="s">
+      <c r="I69" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="J69" s="65" t="s">
+      <c r="J69" s="67" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="66"/>
+      <c r="E70" s="68"/>
     </row>
     <row r="71" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="67" t="s">
+      <c r="A71" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="B71" s="67"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
       <c r="F71" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="68" t="s">
+      <c r="A73" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="68"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="69"/>
-      <c r="H73" s="66" t="s">
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="I73" s="66"/>
+      <c r="I73" s="68"/>
     </row>
     <row r="74" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
@@ -4111,15 +4166,15 @@
       <c r="C74" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="70" t="s">
+      <c r="D74" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="E74" s="71" t="s">
+      <c r="E74" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="F74" s="66"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="66"/>
+      <c r="F74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
     </row>
     <row r="75" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
@@ -4131,19 +4186,19 @@
       <c r="C75" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D75" s="72" t="s">
+      <c r="D75" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="E75" s="72" t="s">
+      <c r="E75" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="F75" s="29" t="s">
+      <c r="F75" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
     </row>
     <row r="76" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
@@ -4155,58 +4210,58 @@
       <c r="C76" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D76" s="72" t="s">
+      <c r="D76" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="E76" s="72" t="s">
+      <c r="E76" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="F76" s="29" t="s">
+      <c r="F76" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="B77" s="74" t="s">
+      <c r="B77" s="76" t="s">
         <v>116</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="72" t="s">
+      <c r="D77" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="E77" s="72" t="s">
+      <c r="E77" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="F77" s="66"/>
+      <c r="F77" s="68"/>
     </row>
     <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="73" t="s">
+      <c r="A78" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="B78" s="74" t="s">
+      <c r="B78" s="76" t="s">
         <v>120</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D78" s="72" t="s">
+      <c r="D78" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="E78" s="72" t="s">
+      <c r="E78" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="F78" s="66"/>
+      <c r="F78" s="68"/>
     </row>
     <row r="79" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="75" t="s">
+      <c r="A79" s="77" t="s">
         <v>123</v>
       </c>
       <c r="B79" s="8" t="s">
@@ -4215,16 +4270,16 @@
       <c r="C79" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D79" s="72" t="s">
+      <c r="D79" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="E79" s="72" t="s">
+      <c r="E79" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="F79" s="66"/>
+      <c r="F79" s="68"/>
     </row>
     <row r="80" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="76" t="s">
+      <c r="A80" s="78" t="s">
         <v>127</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -4233,13 +4288,13 @@
       <c r="C80" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D80" s="72" t="s">
+      <c r="D80" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="72" t="s">
+      <c r="E80" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="F80" s="66"/>
+      <c r="F80" s="68"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
@@ -4251,13 +4306,13 @@
       <c r="C81" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D81" s="72" t="s">
+      <c r="D81" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="E81" s="72" t="s">
+      <c r="E81" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="F81" s="66"/>
+      <c r="F81" s="68"/>
     </row>
     <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
@@ -4269,13 +4324,13 @@
       <c r="C82" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D82" s="72" t="s">
+      <c r="D82" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="E82" s="72" t="s">
+      <c r="E82" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="F82" s="66"/>
+      <c r="F82" s="68"/>
     </row>
     <row r="83" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="23" t="s">
@@ -4287,13 +4342,13 @@
       <c r="C83" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D83" s="72" t="s">
+      <c r="D83" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="E83" s="72" t="s">
+      <c r="E83" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="F83" s="66"/>
+      <c r="F83" s="68"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="23" t="s">
@@ -4305,16 +4360,16 @@
       <c r="C84" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="D84" s="72" t="s">
+      <c r="D84" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E84" s="72" t="s">
+      <c r="E84" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="68"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
@@ -4326,16 +4381,16 @@
       <c r="C85" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D85" s="72" t="s">
+      <c r="D85" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="E85" s="72" t="s">
+      <c r="E85" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="66"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
@@ -4347,19 +4402,19 @@
       <c r="C86" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D86" s="72" t="s">
+      <c r="D86" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="E86" s="72" t="s">
+      <c r="E86" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="F86" s="29" t="s">
+      <c r="F86" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
@@ -4371,30 +4426,30 @@
       <c r="C87" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D87" s="72" t="s">
+      <c r="D87" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="E87" s="72" t="s">
+      <c r="E87" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="I87" s="66"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="68"/>
+      <c r="I87" s="68"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="73" t="s">
+      <c r="A88" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="B88" s="74" t="s">
+      <c r="B88" s="76" t="s">
         <v>162</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D88" s="77" t="s">
+      <c r="D88" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="E88" s="72" t="s">
+      <c r="E88" s="74" t="s">
         <v>139</v>
       </c>
       <c r="F88" s="13" t="s">
@@ -4415,16 +4470,16 @@
       <c r="C89" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D89" s="72" t="s">
+      <c r="D89" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="E89" s="72" t="s">
+      <c r="E89" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="66"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="68"/>
+      <c r="I89" s="68"/>
     </row>
     <row r="90" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
@@ -4436,106 +4491,106 @@
       <c r="C90" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D90" s="72" t="s">
+      <c r="D90" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="E90" s="72" t="s">
+      <c r="E90" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="F90" s="29" t="s">
+      <c r="F90" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="73" t="s">
+      <c r="A91" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="B91" s="74" t="s">
+      <c r="B91" s="76" t="s">
         <v>177</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="78" t="s">
+      <c r="D91" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="E91" s="72" t="s">
+      <c r="E91" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="66"/>
+      <c r="F91" s="68"/>
+      <c r="G91" s="68"/>
+      <c r="H91" s="68"/>
+      <c r="I91" s="68"/>
     </row>
     <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="73" t="s">
+      <c r="A92" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="B92" s="74" t="s">
+      <c r="B92" s="76" t="s">
         <v>181</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="D92" s="72" t="s">
+      <c r="D92" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="E92" s="72" t="s">
+      <c r="E92" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="F92" s="66"/>
-      <c r="G92" s="66"/>
-      <c r="H92" s="66"/>
-      <c r="I92" s="66"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="79" t="s">
+      <c r="A93" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="74" t="s">
+      <c r="B93" s="76" t="s">
         <v>185</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D93" s="72" t="s">
+      <c r="D93" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="E93" s="72" t="s">
+      <c r="E93" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="66"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="68"/>
+      <c r="H93" s="68"/>
+      <c r="I93" s="68"/>
     </row>
     <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="80" t="s">
+      <c r="A94" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="B94" s="74" t="s">
+      <c r="B94" s="76" t="s">
         <v>189</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="72" t="s">
+      <c r="D94" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="E94" s="72" t="s">
+      <c r="E94" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="F94" s="66"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="66"/>
-      <c r="I94" s="66"/>
+      <c r="F94" s="68"/>
+      <c r="G94" s="68"/>
+      <c r="H94" s="68"/>
+      <c r="I94" s="68"/>
     </row>
     <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="76" t="s">
+      <c r="A95" s="78" t="s">
         <v>192</v>
       </c>
       <c r="B95" s="8" t="s">
@@ -4544,19 +4599,19 @@
       <c r="C95" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D95" s="72" t="s">
+      <c r="D95" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="E95" s="72" t="s">
+      <c r="E95" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="68"/>
+      <c r="H95" s="68"/>
+      <c r="I95" s="68"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="76" t="s">
+      <c r="A96" s="78" t="s">
         <v>196</v>
       </c>
       <c r="B96" s="8" t="s">
@@ -4565,19 +4620,19 @@
       <c r="C96" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="D96" s="72" t="s">
+      <c r="D96" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="72" t="s">
+      <c r="E96" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="F96" s="66"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="66"/>
-      <c r="I96" s="66"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="68"/>
+      <c r="H96" s="68"/>
+      <c r="I96" s="68"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="76" t="s">
+      <c r="A97" s="78" t="s">
         <v>200</v>
       </c>
       <c r="B97" s="8" t="s">
@@ -4586,19 +4641,19 @@
       <c r="C97" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="D97" s="72" t="s">
+      <c r="D97" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="E97" s="72" t="s">
+      <c r="E97" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="66"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="68"/>
+      <c r="H97" s="68"/>
+      <c r="I97" s="68"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="76" t="s">
+      <c r="A98" s="78" t="s">
         <v>204</v>
       </c>
       <c r="B98" s="8" t="s">
@@ -4607,19 +4662,19 @@
       <c r="C98" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D98" s="77" t="s">
+      <c r="D98" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="E98" s="72" t="s">
+      <c r="E98" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="F98" s="66"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="66"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="68"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="76" t="s">
+      <c r="A99" s="78" t="s">
         <v>208</v>
       </c>
       <c r="B99" s="8" t="s">
@@ -4628,16 +4683,16 @@
       <c r="C99" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D99" s="72" t="s">
+      <c r="D99" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="E99" s="72" t="s">
+      <c r="E99" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="66"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="68"/>
     </row>
     <row r="100" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
@@ -4649,19 +4704,19 @@
       <c r="C100" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="D100" s="72" t="s">
+      <c r="D100" s="74" t="s">
         <v>214</v>
       </c>
-      <c r="E100" s="72" t="s">
+      <c r="E100" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="F100" s="29" t="s">
+      <c r="F100" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
@@ -4673,16 +4728,16 @@
       <c r="C101" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D101" s="72" t="s">
+      <c r="D101" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="E101" s="72" t="s">
+      <c r="E101" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="66"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="68"/>
+      <c r="I101" s="68"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
@@ -4694,19 +4749,19 @@
       <c r="C102" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="D102" s="72" t="s">
+      <c r="D102" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="E102" s="72" t="s">
+      <c r="E102" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="F102" s="66"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="66"/>
-      <c r="I102" s="66"/>
+      <c r="F102" s="68"/>
+      <c r="G102" s="68"/>
+      <c r="H102" s="68"/>
+      <c r="I102" s="68"/>
     </row>
     <row r="103" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="76" t="s">
+      <c r="A103" s="78" t="s">
         <v>223</v>
       </c>
       <c r="B103" s="8" t="s">
@@ -4715,19 +4770,19 @@
       <c r="C103" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D103" s="72" t="s">
+      <c r="D103" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="E103" s="72" t="s">
+      <c r="E103" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="68"/>
+      <c r="H103" s="68"/>
+      <c r="I103" s="68"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="76" t="s">
+      <c r="A104" s="78" t="s">
         <v>228</v>
       </c>
       <c r="B104" s="8" t="s">
@@ -4736,16 +4791,16 @@
       <c r="C104" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D104" s="72" t="s">
+      <c r="D104" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="E104" s="72" t="s">
+      <c r="E104" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="F104" s="66"/>
-      <c r="G104" s="66"/>
-      <c r="H104" s="66"/>
-      <c r="I104" s="66"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="68"/>
+      <c r="H104" s="68"/>
+      <c r="I104" s="68"/>
     </row>
     <row r="105" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
@@ -4757,22 +4812,22 @@
       <c r="C105" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="D105" s="72" t="s">
+      <c r="D105" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="E105" s="72" t="s">
+      <c r="E105" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="F105" s="66"/>
-      <c r="G105" s="66"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="66"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="68"/>
+      <c r="H105" s="68"/>
+      <c r="I105" s="68"/>
     </row>
     <row r="106" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="81" t="s">
+      <c r="A106" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="B106" s="74" t="s">
+      <c r="B106" s="76" t="s">
         <v>235</v>
       </c>
       <c r="C106" s="18" t="s">
@@ -4781,7 +4836,7 @@
       <c r="D106" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E106" s="72" t="s">
+      <c r="E106" s="74" t="s">
         <v>238</v>
       </c>
       <c r="F106" s="8" t="s">
@@ -4793,10 +4848,10 @@
       <c r="J106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="79" t="s">
+      <c r="A107" s="81" t="s">
         <v>240</v>
       </c>
-      <c r="B107" s="74" t="s">
+      <c r="B107" s="76" t="s">
         <v>241</v>
       </c>
       <c r="C107" s="18" t="s">
@@ -4805,15 +4860,15 @@
       <c r="D107" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E107" s="72" t="s">
+      <c r="E107" s="74" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="73" t="s">
+      <c r="A108" s="75" t="s">
         <v>244</v>
       </c>
-      <c r="B108" s="74" t="s">
+      <c r="B108" s="76" t="s">
         <v>245</v>
       </c>
       <c r="C108" s="18" t="s">
@@ -4822,15 +4877,15 @@
       <c r="D108" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E108" s="72" t="s">
+      <c r="E108" s="74" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="73" t="s">
+      <c r="A109" s="75" t="s">
         <v>248</v>
       </c>
-      <c r="B109" s="74" t="s">
+      <c r="B109" s="76" t="s">
         <v>249</v>
       </c>
       <c r="C109" s="18" t="s">
@@ -4839,12 +4894,12 @@
       <c r="D109" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E109" s="72" t="s">
+      <c r="E109" s="74" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="82" t="s">
+      <c r="A110" s="84" t="s">
         <v>252</v>
       </c>
       <c r="B110" s="8" t="s">
@@ -4856,7 +4911,7 @@
       <c r="D110" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="E110" s="72" t="s">
+      <c r="E110" s="74" t="s">
         <v>256</v>
       </c>
       <c r="F110" s="8" t="s">
@@ -4868,7 +4923,7 @@
       <c r="J110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="82" t="s">
+      <c r="A111" s="84" t="s">
         <v>258</v>
       </c>
       <c r="B111" s="8" t="s">
@@ -4880,18 +4935,18 @@
       <c r="D111" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E111" s="72" t="s">
+      <c r="E111" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="F111" s="83" t="s">
+      <c r="F111" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="G111" s="66"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="66"/>
+      <c r="G111" s="68"/>
+      <c r="H111" s="68"/>
+      <c r="I111" s="68"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="76" t="s">
+      <c r="A112" s="78" t="s">
         <v>263</v>
       </c>
       <c r="B112" s="8" t="s">
@@ -4903,7 +4958,7 @@
       <c r="D112" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E112" s="72" t="s">
+      <c r="E112" s="74" t="s">
         <v>256</v>
       </c>
       <c r="F112" s="8" t="s">
@@ -4914,7 +4969,7 @@
       <c r="I112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="76" t="s">
+      <c r="A113" s="78" t="s">
         <v>267</v>
       </c>
       <c r="B113" s="8" t="s">
@@ -4926,15 +4981,15 @@
       <c r="D113" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E113" s="72" t="s">
+      <c r="E113" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="G113" s="66"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="66"/>
+      <c r="G113" s="68"/>
+      <c r="H113" s="68"/>
+      <c r="I113" s="68"/>
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="82" t="s">
+      <c r="A114" s="84" t="s">
         <v>270</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -4946,16 +5001,16 @@
       <c r="D114" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="E114" s="72" t="s">
+      <c r="E114" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="F114" s="84" t="s">
+      <c r="F114" s="86" t="s">
         <v>274</v>
       </c>
-      <c r="G114" s="84"/>
-      <c r="H114" s="84"/>
-      <c r="I114" s="84"/>
-      <c r="J114" s="84"/>
+      <c r="G114" s="86"/>
+      <c r="H114" s="86"/>
+      <c r="I114" s="86"/>
+      <c r="J114" s="86"/>
     </row>
     <row r="115" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
@@ -4967,22 +5022,22 @@
       <c r="C115" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="D115" s="72" t="s">
+      <c r="D115" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="E115" s="72" t="s">
+      <c r="E115" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="F115" s="66"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="66"/>
-      <c r="I115" s="66"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="68"/>
+      <c r="H115" s="68"/>
+      <c r="I115" s="68"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="73" t="s">
+      <c r="A116" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="B116" s="74" t="s">
+      <c r="B116" s="76" t="s">
         <v>279</v>
       </c>
       <c r="C116" s="18" t="s">
@@ -4991,19 +5046,19 @@
       <c r="D116" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="E116" s="72" t="s">
+      <c r="E116" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="F116" s="66"/>
-      <c r="G116" s="66"/>
-      <c r="H116" s="66"/>
-      <c r="I116" s="66"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="68"/>
+      <c r="H116" s="68"/>
+      <c r="I116" s="68"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="73" t="s">
+      <c r="A117" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="B117" s="74" t="s">
+      <c r="B117" s="76" t="s">
         <v>284</v>
       </c>
       <c r="C117" s="18" t="s">
@@ -5012,19 +5067,19 @@
       <c r="D117" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E117" s="72" t="s">
+      <c r="E117" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
+      <c r="H117" s="68"/>
+      <c r="I117" s="68"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="73" t="s">
+      <c r="A118" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="B118" s="74" t="s">
+      <c r="B118" s="76" t="s">
         <v>288</v>
       </c>
       <c r="C118" s="18" t="s">
@@ -5033,19 +5088,19 @@
       <c r="D118" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E118" s="72" t="s">
+      <c r="E118" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="F118" s="66"/>
-      <c r="G118" s="66"/>
-      <c r="H118" s="66"/>
-      <c r="I118" s="66"/>
+      <c r="F118" s="68"/>
+      <c r="G118" s="68"/>
+      <c r="H118" s="68"/>
+      <c r="I118" s="68"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="73" t="s">
+      <c r="A119" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="B119" s="74" t="s">
+      <c r="B119" s="76" t="s">
         <v>292</v>
       </c>
       <c r="C119" s="18" t="s">
@@ -5054,19 +5109,19 @@
       <c r="D119" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E119" s="72" t="s">
+      <c r="E119" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="F119" s="66"/>
-      <c r="G119" s="66"/>
-      <c r="H119" s="66"/>
-      <c r="I119" s="66"/>
+      <c r="F119" s="68"/>
+      <c r="G119" s="68"/>
+      <c r="H119" s="68"/>
+      <c r="I119" s="68"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="73" t="s">
+      <c r="A120" s="75" t="s">
         <v>295</v>
       </c>
-      <c r="B120" s="74" t="s">
+      <c r="B120" s="76" t="s">
         <v>296</v>
       </c>
       <c r="C120" s="18" t="s">
@@ -5075,7 +5130,7 @@
       <c r="D120" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E120" s="72" t="s">
+      <c r="E120" s="74" t="s">
         <v>282</v>
       </c>
       <c r="F120" s="8"/>
@@ -5085,10 +5140,10 @@
       <c r="J120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="73" t="s">
+      <c r="A121" s="75" t="s">
         <v>299</v>
       </c>
-      <c r="B121" s="74" t="s">
+      <c r="B121" s="76" t="s">
         <v>300</v>
       </c>
       <c r="C121" s="18" t="s">
@@ -5097,19 +5152,19 @@
       <c r="D121" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E121" s="72" t="s">
+      <c r="E121" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="F121" s="66"/>
-      <c r="G121" s="66"/>
-      <c r="H121" s="66"/>
-      <c r="I121" s="66"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="68"/>
+      <c r="H121" s="68"/>
+      <c r="I121" s="68"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="73" t="s">
+      <c r="A122" s="75" t="s">
         <v>303</v>
       </c>
-      <c r="B122" s="74" t="s">
+      <c r="B122" s="76" t="s">
         <v>304</v>
       </c>
       <c r="C122" s="18" t="s">
@@ -5118,13 +5173,13 @@
       <c r="D122" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E122" s="72" t="s">
+      <c r="E122" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="F122" s="66"/>
-      <c r="G122" s="66"/>
-      <c r="H122" s="66"/>
-      <c r="I122" s="66"/>
+      <c r="F122" s="68"/>
+      <c r="G122" s="68"/>
+      <c r="H122" s="68"/>
+      <c r="I122" s="68"/>
     </row>
     <row r="123" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
@@ -5139,15 +5194,15 @@
       <c r="D123" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E123" s="72" t="s">
+      <c r="E123" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="F123" s="85" t="s">
+      <c r="F123" s="87" t="s">
         <v>311</v>
       </c>
-      <c r="G123" s="66"/>
-      <c r="H123" s="66"/>
-      <c r="I123" s="66"/>
+      <c r="G123" s="68"/>
+      <c r="H123" s="68"/>
+      <c r="I123" s="68"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
@@ -5162,13 +5217,13 @@
       <c r="D124" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E124" s="72" t="s">
+      <c r="E124" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="F124" s="66"/>
-      <c r="G124" s="66"/>
-      <c r="H124" s="66"/>
-      <c r="I124" s="66"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="68"/>
+      <c r="H124" s="68"/>
+      <c r="I124" s="68"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
@@ -5183,19 +5238,19 @@
       <c r="D125" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E125" s="72" t="s">
+      <c r="E125" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="F125" s="66"/>
-      <c r="G125" s="66"/>
-      <c r="H125" s="66"/>
-      <c r="I125" s="66"/>
+      <c r="F125" s="68"/>
+      <c r="G125" s="68"/>
+      <c r="H125" s="68"/>
+      <c r="I125" s="68"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="73" t="s">
+      <c r="A126" s="75" t="s">
         <v>320</v>
       </c>
-      <c r="B126" s="74" t="s">
+      <c r="B126" s="76" t="s">
         <v>321</v>
       </c>
       <c r="C126" s="18" t="s">
@@ -5204,19 +5259,19 @@
       <c r="D126" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="E126" s="72" t="s">
+      <c r="E126" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="F126" s="66"/>
-      <c r="G126" s="66"/>
-      <c r="H126" s="66"/>
-      <c r="I126" s="66"/>
+      <c r="F126" s="68"/>
+      <c r="G126" s="68"/>
+      <c r="H126" s="68"/>
+      <c r="I126" s="68"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="73" t="s">
+      <c r="A127" s="75" t="s">
         <v>325</v>
       </c>
-      <c r="B127" s="74" t="s">
+      <c r="B127" s="76" t="s">
         <v>326</v>
       </c>
       <c r="C127" s="18" t="s">
@@ -5225,19 +5280,19 @@
       <c r="D127" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E127" s="72" t="s">
+      <c r="E127" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="F127" s="66"/>
-      <c r="G127" s="66"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="66"/>
+      <c r="F127" s="68"/>
+      <c r="G127" s="68"/>
+      <c r="H127" s="68"/>
+      <c r="I127" s="68"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="73" t="s">
+      <c r="A128" s="75" t="s">
         <v>329</v>
       </c>
-      <c r="B128" s="74" t="s">
+      <c r="B128" s="76" t="s">
         <v>330</v>
       </c>
       <c r="C128" s="18" t="s">
@@ -5246,19 +5301,19 @@
       <c r="D128" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E128" s="72" t="s">
+      <c r="E128" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="F128" s="66"/>
-      <c r="G128" s="66"/>
-      <c r="H128" s="66"/>
-      <c r="I128" s="66"/>
+      <c r="F128" s="68"/>
+      <c r="G128" s="68"/>
+      <c r="H128" s="68"/>
+      <c r="I128" s="68"/>
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="86" t="s">
+      <c r="A129" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="B129" s="74" t="s">
+      <c r="B129" s="76" t="s">
         <v>334</v>
       </c>
       <c r="C129" s="18" t="s">
@@ -5267,2117 +5322,2123 @@
       <c r="D129" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="E129" s="72" t="s">
+      <c r="E129" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="F129" s="66"/>
-      <c r="G129" s="66"/>
-      <c r="H129" s="66"/>
-      <c r="I129" s="66"/>
+      <c r="F129" s="87" t="s">
+        <v>337</v>
+      </c>
+      <c r="G129" s="68"/>
+      <c r="H129" s="68"/>
+      <c r="I129" s="68"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="73" t="s">
-        <v>337</v>
-      </c>
-      <c r="B130" s="74" t="s">
+      <c r="A130" s="75" t="s">
         <v>338</v>
       </c>
+      <c r="B130" s="76" t="s">
+        <v>339</v>
+      </c>
       <c r="C130" s="18" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="E130" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="E130" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="F130" s="66"/>
-      <c r="G130" s="66"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="66"/>
+      <c r="F130" s="68"/>
+      <c r="G130" s="68"/>
+      <c r="H130" s="68"/>
+      <c r="I130" s="68"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="73" t="s">
-        <v>341</v>
-      </c>
-      <c r="B131" s="74" t="s">
+      <c r="A131" s="75" t="s">
         <v>342</v>
+      </c>
+      <c r="B131" s="76" t="s">
+        <v>343</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E131" s="72"/>
-      <c r="F131" s="66"/>
-      <c r="G131" s="66"/>
-      <c r="H131" s="66"/>
-      <c r="I131" s="66"/>
+        <v>344</v>
+      </c>
+      <c r="E131" s="74"/>
+      <c r="F131" s="68"/>
+      <c r="G131" s="68"/>
+      <c r="H131" s="68"/>
+      <c r="I131" s="68"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="87" t="s">
-        <v>344</v>
-      </c>
-      <c r="B132" s="88" t="s">
+      <c r="A132" s="89" t="s">
         <v>345</v>
       </c>
-      <c r="C132" s="66"/>
-      <c r="D132" s="66"/>
-      <c r="E132" s="66"/>
-      <c r="F132" s="66"/>
-      <c r="G132" s="66"/>
-      <c r="H132" s="66"/>
-      <c r="I132" s="66"/>
+      <c r="B132" s="90" t="s">
+        <v>346</v>
+      </c>
+      <c r="C132" s="68"/>
+      <c r="D132" s="68"/>
+      <c r="E132" s="68"/>
+      <c r="F132" s="68"/>
+      <c r="G132" s="68"/>
+      <c r="H132" s="68"/>
+      <c r="I132" s="68"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="87" t="s">
-        <v>346</v>
-      </c>
-      <c r="B133" s="88" t="s">
+      <c r="A133" s="89" t="s">
         <v>347</v>
       </c>
-      <c r="C133" s="66"/>
-      <c r="D133" s="66"/>
-      <c r="E133" s="66"/>
-      <c r="F133" s="66"/>
-      <c r="G133" s="66"/>
-      <c r="H133" s="66"/>
-      <c r="I133" s="66"/>
+      <c r="B133" s="90" t="s">
+        <v>348</v>
+      </c>
+      <c r="C133" s="68"/>
+      <c r="D133" s="68"/>
+      <c r="E133" s="68"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="68"/>
+      <c r="H133" s="68"/>
+      <c r="I133" s="68"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="87" t="s">
-        <v>348</v>
-      </c>
-      <c r="B134" s="88" t="s">
+      <c r="A134" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="C134" s="66"/>
-      <c r="D134" s="66"/>
-      <c r="E134" s="66"/>
-      <c r="F134" s="66"/>
-      <c r="G134" s="66"/>
-      <c r="H134" s="66"/>
-      <c r="I134" s="66"/>
+      <c r="B134" s="90" t="s">
+        <v>350</v>
+      </c>
+      <c r="C134" s="68"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="68"/>
+      <c r="F134" s="68"/>
+      <c r="G134" s="68"/>
+      <c r="H134" s="68"/>
+      <c r="I134" s="68"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="87" t="s">
-        <v>350</v>
-      </c>
-      <c r="B135" s="88" t="s">
+      <c r="A135" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="C135" s="66"/>
-      <c r="D135" s="66"/>
-      <c r="E135" s="66"/>
-      <c r="F135" s="66"/>
-      <c r="G135" s="66"/>
-      <c r="H135" s="66"/>
-      <c r="I135" s="66"/>
+      <c r="B135" s="90" t="s">
+        <v>352</v>
+      </c>
+      <c r="C135" s="68"/>
+      <c r="D135" s="68"/>
+      <c r="E135" s="68"/>
+      <c r="F135" s="68"/>
+      <c r="G135" s="68"/>
+      <c r="H135" s="68"/>
+      <c r="I135" s="68"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="87" t="s">
-        <v>352</v>
-      </c>
-      <c r="B136" s="88" t="s">
+      <c r="A136" s="89" t="s">
         <v>353</v>
       </c>
-      <c r="C136" s="66"/>
-      <c r="D136" s="66"/>
-      <c r="E136" s="66"/>
-      <c r="F136" s="66"/>
-      <c r="G136" s="66"/>
-      <c r="H136" s="66"/>
-      <c r="I136" s="66"/>
+      <c r="B136" s="90" t="s">
+        <v>354</v>
+      </c>
+      <c r="C136" s="68"/>
+      <c r="D136" s="68"/>
+      <c r="E136" s="68"/>
+      <c r="F136" s="68"/>
+      <c r="G136" s="68"/>
+      <c r="H136" s="68"/>
+      <c r="I136" s="68"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="87" t="s">
-        <v>354</v>
-      </c>
-      <c r="B137" s="88" t="s">
+      <c r="A137" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="C137" s="66"/>
-      <c r="D137" s="66"/>
-      <c r="E137" s="66"/>
-      <c r="F137" s="66"/>
-      <c r="G137" s="66"/>
-      <c r="H137" s="66"/>
-      <c r="I137" s="66"/>
+      <c r="B137" s="90" t="s">
+        <v>356</v>
+      </c>
+      <c r="C137" s="68"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="68"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="68"/>
+      <c r="H137" s="68"/>
+      <c r="I137" s="68"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="66"/>
-      <c r="C138" s="66"/>
-      <c r="D138" s="66"/>
-      <c r="E138" s="66"/>
-      <c r="F138" s="66"/>
-      <c r="G138" s="66"/>
-      <c r="H138" s="66"/>
-      <c r="I138" s="66"/>
+      <c r="B138" s="68"/>
+      <c r="C138" s="68"/>
+      <c r="D138" s="68"/>
+      <c r="E138" s="68"/>
+      <c r="F138" s="68"/>
+      <c r="G138" s="68"/>
+      <c r="H138" s="68"/>
+      <c r="I138" s="68"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="66"/>
-      <c r="C139" s="66"/>
-      <c r="D139" s="66"/>
-      <c r="E139" s="66"/>
-      <c r="F139" s="66"/>
-      <c r="G139" s="66"/>
-      <c r="H139" s="66"/>
-      <c r="I139" s="66"/>
+      <c r="B139" s="68"/>
+      <c r="C139" s="68"/>
+      <c r="D139" s="68"/>
+      <c r="E139" s="68"/>
+      <c r="F139" s="68"/>
+      <c r="G139" s="68"/>
+      <c r="H139" s="68"/>
+      <c r="I139" s="68"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="66"/>
-      <c r="C140" s="66"/>
-      <c r="D140" s="66"/>
-      <c r="E140" s="66"/>
-      <c r="F140" s="66"/>
-      <c r="G140" s="66"/>
-      <c r="H140" s="66"/>
-      <c r="I140" s="66"/>
+      <c r="B140" s="68"/>
+      <c r="C140" s="68"/>
+      <c r="D140" s="68"/>
+      <c r="E140" s="68"/>
+      <c r="F140" s="68"/>
+      <c r="G140" s="68"/>
+      <c r="H140" s="68"/>
+      <c r="I140" s="68"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="66"/>
-      <c r="B141" s="66"/>
-      <c r="C141" s="66"/>
-      <c r="D141" s="66"/>
-      <c r="E141" s="66"/>
-      <c r="F141" s="66"/>
-      <c r="G141" s="66"/>
-      <c r="H141" s="66"/>
-      <c r="I141" s="66"/>
+      <c r="A141" s="68"/>
+      <c r="B141" s="68"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="68"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="68"/>
+      <c r="H141" s="68"/>
+      <c r="I141" s="68"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="66"/>
-      <c r="B142" s="66"/>
-      <c r="C142" s="66"/>
-      <c r="D142" s="66"/>
-      <c r="E142" s="66"/>
-      <c r="F142" s="66"/>
-      <c r="G142" s="66"/>
-      <c r="H142" s="66"/>
-      <c r="I142" s="66"/>
+      <c r="A142" s="68"/>
+      <c r="B142" s="68"/>
+      <c r="C142" s="68"/>
+      <c r="D142" s="68"/>
+      <c r="E142" s="68"/>
+      <c r="F142" s="68"/>
+      <c r="G142" s="68"/>
+      <c r="H142" s="68"/>
+      <c r="I142" s="68"/>
     </row>
     <row r="143" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="66"/>
-      <c r="B143" s="89" t="s">
-        <v>356</v>
-      </c>
-      <c r="C143" s="66"/>
-      <c r="D143" s="66"/>
-      <c r="E143" s="66"/>
-      <c r="F143" s="66"/>
-      <c r="G143" s="66"/>
-      <c r="H143" s="66"/>
-      <c r="I143" s="66"/>
+      <c r="A143" s="68"/>
+      <c r="B143" s="91" t="s">
+        <v>357</v>
+      </c>
+      <c r="C143" s="68"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="68"/>
+      <c r="F143" s="68"/>
+      <c r="G143" s="68"/>
+      <c r="H143" s="68"/>
+      <c r="I143" s="68"/>
     </row>
     <row r="144" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="90"/>
-      <c r="B144" s="91" t="s">
-        <v>357</v>
-      </c>
-      <c r="C144" s="91" t="s">
+      <c r="A144" s="92"/>
+      <c r="B144" s="93" t="s">
         <v>358</v>
       </c>
-      <c r="D144" s="92" t="s">
+      <c r="C144" s="93" t="s">
         <v>359</v>
+      </c>
+      <c r="D144" s="94" t="s">
+        <v>360</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F144" s="29" t="s">
+      <c r="F144" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G144" s="66"/>
-      <c r="H144" s="66"/>
-      <c r="I144" s="66"/>
+      <c r="G144" s="68"/>
+      <c r="H144" s="68"/>
+      <c r="I144" s="68"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="93"/>
-      <c r="B145" s="66"/>
-      <c r="C145" s="66"/>
-      <c r="D145" s="66"/>
-      <c r="E145" s="66"/>
-      <c r="F145" s="66"/>
-      <c r="G145" s="66"/>
-      <c r="H145" s="66"/>
-      <c r="I145" s="66"/>
+      <c r="A145" s="95"/>
+      <c r="B145" s="68"/>
+      <c r="C145" s="68"/>
+      <c r="D145" s="68"/>
+      <c r="E145" s="68"/>
+      <c r="F145" s="68"/>
+      <c r="G145" s="68"/>
+      <c r="H145" s="68"/>
+      <c r="I145" s="68"/>
     </row>
     <row r="146" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="94" t="s">
-        <v>360</v>
-      </c>
-      <c r="B146" s="95" t="s">
+      <c r="A146" s="96" t="s">
         <v>361</v>
       </c>
-      <c r="C146" s="96" t="s">
+      <c r="B146" s="97" t="s">
         <v>362</v>
       </c>
-      <c r="D146" s="97" t="s">
+      <c r="C146" s="98" t="s">
         <v>363</v>
       </c>
-      <c r="E146" s="98" t="s">
+      <c r="D146" s="99" t="s">
         <v>364</v>
       </c>
-      <c r="F146" s="99" t="s">
+      <c r="E146" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="G146" s="66"/>
-      <c r="H146" s="66"/>
-      <c r="I146" s="66"/>
+      <c r="F146" s="101" t="s">
+        <v>366</v>
+      </c>
+      <c r="G146" s="68"/>
+      <c r="H146" s="68"/>
+      <c r="I146" s="68"/>
     </row>
     <row r="147" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="94"/>
-      <c r="B147" s="100" t="s">
-        <v>366</v>
-      </c>
-      <c r="C147" s="101" t="s">
+      <c r="A147" s="96"/>
+      <c r="B147" s="102" t="s">
         <v>367</v>
       </c>
-      <c r="D147" s="102" t="s">
+      <c r="C147" s="103" t="s">
         <v>368</v>
       </c>
-      <c r="E147" s="103" t="s">
+      <c r="D147" s="104" t="s">
         <v>369</v>
       </c>
-      <c r="F147" s="99" t="s">
+      <c r="E147" s="105" t="s">
         <v>370</v>
       </c>
-      <c r="G147" s="66"/>
-      <c r="H147" s="66"/>
-      <c r="I147" s="66"/>
+      <c r="F147" s="101" t="s">
+        <v>371</v>
+      </c>
+      <c r="G147" s="68"/>
+      <c r="H147" s="68"/>
+      <c r="I147" s="68"/>
     </row>
     <row r="148" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="94"/>
-      <c r="B148" s="104" t="s">
-        <v>371</v>
-      </c>
-      <c r="C148" s="105" t="s">
+      <c r="A148" s="96"/>
+      <c r="B148" s="106" t="s">
         <v>372</v>
       </c>
-      <c r="D148" s="106" t="s">
+      <c r="C148" s="107" t="s">
         <v>373</v>
       </c>
-      <c r="E148" s="107" t="s">
+      <c r="D148" s="108" t="s">
+        <v>374</v>
+      </c>
+      <c r="E148" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="F148" s="108" t="s">
+      <c r="F148" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="85" t="s">
-        <v>374</v>
-      </c>
-      <c r="H148" s="66"/>
-      <c r="I148" s="66"/>
-      <c r="J148" s="66"/>
-      <c r="K148" s="66"/>
-      <c r="L148" s="66"/>
+      <c r="G148" s="87" t="s">
+        <v>375</v>
+      </c>
+      <c r="H148" s="68"/>
+      <c r="I148" s="68"/>
+      <c r="J148" s="68"/>
+      <c r="K148" s="68"/>
+      <c r="L148" s="68"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="94"/>
-      <c r="B149" s="109" t="s">
-        <v>375</v>
-      </c>
-      <c r="C149" s="105" t="s">
-        <v>372</v>
-      </c>
-      <c r="D149" s="106" t="s">
+      <c r="A149" s="96"/>
+      <c r="B149" s="111" t="s">
         <v>376</v>
       </c>
-      <c r="E149" s="107" t="s">
+      <c r="C149" s="107" t="s">
+        <v>373</v>
+      </c>
+      <c r="D149" s="108" t="s">
+        <v>377</v>
+      </c>
+      <c r="E149" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="F149" s="108" t="s">
+      <c r="F149" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="66"/>
-      <c r="H149" s="66"/>
-      <c r="I149" s="66"/>
-      <c r="J149" s="66"/>
-      <c r="K149" s="66"/>
-      <c r="L149" s="66"/>
+      <c r="G149" s="68"/>
+      <c r="H149" s="68"/>
+      <c r="I149" s="68"/>
+      <c r="J149" s="68"/>
+      <c r="K149" s="68"/>
+      <c r="L149" s="68"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="94"/>
-      <c r="B150" s="110" t="s">
+      <c r="A150" s="96"/>
+      <c r="B150" s="112" t="s">
         <v>306</v>
       </c>
-      <c r="C150" s="111" t="s">
-        <v>372</v>
-      </c>
-      <c r="D150" s="112" t="s">
-        <v>377</v>
-      </c>
-      <c r="E150" s="113" t="s">
+      <c r="C150" s="113" t="s">
+        <v>373</v>
+      </c>
+      <c r="D150" s="114" t="s">
+        <v>378</v>
+      </c>
+      <c r="E150" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="114" t="s">
+      <c r="F150" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="66"/>
-      <c r="H150" s="66"/>
-      <c r="I150" s="66"/>
-      <c r="J150" s="66"/>
-      <c r="K150" s="66"/>
-      <c r="L150" s="66"/>
+      <c r="G150" s="68"/>
+      <c r="H150" s="68"/>
+      <c r="I150" s="68"/>
+      <c r="J150" s="68"/>
+      <c r="K150" s="68"/>
+      <c r="L150" s="68"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="66"/>
-      <c r="B151" s="66"/>
-      <c r="C151" s="66"/>
-      <c r="D151" s="66"/>
-      <c r="E151" s="66"/>
-      <c r="F151" s="66"/>
-      <c r="G151" s="66"/>
-      <c r="H151" s="66"/>
-      <c r="I151" s="66"/>
-      <c r="J151" s="66"/>
-      <c r="K151" s="66"/>
-      <c r="L151" s="66"/>
+      <c r="A151" s="68"/>
+      <c r="B151" s="68"/>
+      <c r="C151" s="68"/>
+      <c r="D151" s="68"/>
+      <c r="E151" s="68"/>
+      <c r="F151" s="68"/>
+      <c r="G151" s="68"/>
+      <c r="H151" s="68"/>
+      <c r="I151" s="68"/>
+      <c r="J151" s="68"/>
+      <c r="K151" s="68"/>
+      <c r="L151" s="68"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="66"/>
-      <c r="B152" s="66"/>
-      <c r="C152" s="66"/>
-      <c r="D152" s="66"/>
-      <c r="E152" s="66"/>
-      <c r="F152" s="66"/>
-      <c r="G152" s="66"/>
-      <c r="H152" s="66"/>
-      <c r="I152" s="66"/>
-      <c r="J152" s="66"/>
-      <c r="K152" s="66"/>
-      <c r="L152" s="66"/>
+      <c r="A152" s="68"/>
+      <c r="B152" s="68"/>
+      <c r="C152" s="68"/>
+      <c r="D152" s="68"/>
+      <c r="E152" s="68"/>
+      <c r="F152" s="68"/>
+      <c r="G152" s="68"/>
+      <c r="H152" s="68"/>
+      <c r="I152" s="68"/>
+      <c r="J152" s="68"/>
+      <c r="K152" s="68"/>
+      <c r="L152" s="68"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="66"/>
-      <c r="B153" s="66"/>
-      <c r="C153" s="66"/>
-      <c r="D153" s="66"/>
-      <c r="E153" s="66"/>
-      <c r="F153" s="66"/>
-      <c r="G153" s="66"/>
-      <c r="H153" s="66"/>
-      <c r="I153" s="66"/>
-      <c r="J153" s="66"/>
-      <c r="K153" s="66"/>
-      <c r="L153" s="66"/>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="66"/>
-      <c r="B154" s="66"/>
-      <c r="C154" s="66"/>
-      <c r="D154" s="66"/>
-      <c r="E154" s="66"/>
-      <c r="F154" s="66"/>
-      <c r="G154" s="66"/>
-      <c r="H154" s="66"/>
-      <c r="I154" s="66"/>
-      <c r="J154" s="66"/>
-      <c r="K154" s="66"/>
-      <c r="L154" s="66"/>
+      <c r="A153" s="68"/>
+      <c r="B153" s="68"/>
+      <c r="C153" s="68"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="68"/>
+      <c r="F153" s="68"/>
+      <c r="G153" s="68"/>
+      <c r="H153" s="68"/>
+      <c r="I153" s="68"/>
+      <c r="J153" s="68"/>
+      <c r="K153" s="68"/>
+      <c r="L153" s="68"/>
+    </row>
+    <row r="154" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="117" t="s">
+        <v>379</v>
+      </c>
+      <c r="B154" s="87" t="s">
+        <v>380</v>
+      </c>
+      <c r="C154" s="68"/>
+      <c r="D154" s="68"/>
+      <c r="E154" s="68"/>
+      <c r="F154" s="68"/>
+      <c r="G154" s="68"/>
+      <c r="H154" s="68"/>
+      <c r="I154" s="68"/>
+      <c r="J154" s="68"/>
+      <c r="K154" s="68"/>
+      <c r="L154" s="68"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="66"/>
-      <c r="B155" s="66"/>
-      <c r="C155" s="66"/>
-      <c r="D155" s="66"/>
-      <c r="E155" s="66"/>
-      <c r="F155" s="66"/>
-      <c r="G155" s="66"/>
-      <c r="H155" s="66"/>
-      <c r="I155" s="66"/>
+      <c r="A155" s="68"/>
+      <c r="B155" s="68"/>
+      <c r="C155" s="68"/>
+      <c r="D155" s="68"/>
+      <c r="E155" s="68"/>
+      <c r="F155" s="68"/>
+      <c r="G155" s="68"/>
+      <c r="H155" s="68"/>
+      <c r="I155" s="68"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="66"/>
-      <c r="B156" s="66"/>
-      <c r="C156" s="66"/>
-      <c r="D156" s="66"/>
-      <c r="E156" s="66"/>
-      <c r="F156" s="66"/>
-      <c r="G156" s="66"/>
-      <c r="H156" s="66"/>
-      <c r="I156" s="66"/>
+      <c r="A156" s="68"/>
+      <c r="B156" s="68"/>
+      <c r="C156" s="68"/>
+      <c r="D156" s="68"/>
+      <c r="E156" s="68"/>
+      <c r="F156" s="68"/>
+      <c r="G156" s="68"/>
+      <c r="H156" s="68"/>
+      <c r="I156" s="68"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="66"/>
-      <c r="B157" s="66"/>
-      <c r="C157" s="66"/>
-      <c r="D157" s="66"/>
-      <c r="E157" s="66"/>
-      <c r="F157" s="66"/>
-      <c r="G157" s="66"/>
-      <c r="H157" s="66"/>
-      <c r="I157" s="66"/>
+      <c r="A157" s="68"/>
+      <c r="B157" s="68"/>
+      <c r="C157" s="68"/>
+      <c r="D157" s="68"/>
+      <c r="E157" s="68"/>
+      <c r="F157" s="68"/>
+      <c r="G157" s="68"/>
+      <c r="H157" s="68"/>
+      <c r="I157" s="68"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="66"/>
-      <c r="B158" s="66"/>
-      <c r="C158" s="66"/>
-      <c r="D158" s="66"/>
-      <c r="E158" s="66"/>
-      <c r="F158" s="66"/>
-      <c r="G158" s="66"/>
-      <c r="H158" s="66"/>
-      <c r="I158" s="66"/>
+      <c r="A158" s="68"/>
+      <c r="B158" s="68"/>
+      <c r="C158" s="68"/>
+      <c r="D158" s="68"/>
+      <c r="E158" s="68"/>
+      <c r="F158" s="68"/>
+      <c r="G158" s="68"/>
+      <c r="H158" s="68"/>
+      <c r="I158" s="68"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="66"/>
-      <c r="B159" s="66"/>
-      <c r="C159" s="66"/>
-      <c r="D159" s="66"/>
-      <c r="E159" s="66"/>
-      <c r="F159" s="66"/>
-      <c r="G159" s="66"/>
-      <c r="H159" s="66"/>
-      <c r="I159" s="66"/>
+      <c r="A159" s="68"/>
+      <c r="B159" s="68"/>
+      <c r="C159" s="68"/>
+      <c r="D159" s="68"/>
+      <c r="E159" s="68"/>
+      <c r="F159" s="68"/>
+      <c r="G159" s="68"/>
+      <c r="H159" s="68"/>
+      <c r="I159" s="68"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="66"/>
-      <c r="B160" s="66"/>
-      <c r="C160" s="66"/>
-      <c r="D160" s="66"/>
-      <c r="E160" s="66"/>
-      <c r="F160" s="66"/>
-      <c r="G160" s="66"/>
-      <c r="H160" s="66"/>
-      <c r="I160" s="66"/>
+      <c r="A160" s="68"/>
+      <c r="B160" s="68"/>
+      <c r="C160" s="68"/>
+      <c r="D160" s="68"/>
+      <c r="E160" s="68"/>
+      <c r="F160" s="68"/>
+      <c r="G160" s="68"/>
+      <c r="H160" s="68"/>
+      <c r="I160" s="68"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="66"/>
-      <c r="B161" s="66"/>
-      <c r="C161" s="66"/>
-      <c r="D161" s="66"/>
-      <c r="E161" s="66"/>
-      <c r="F161" s="66"/>
-      <c r="G161" s="66"/>
-      <c r="H161" s="66"/>
-      <c r="I161" s="66"/>
+      <c r="A161" s="68"/>
+      <c r="B161" s="68"/>
+      <c r="C161" s="68"/>
+      <c r="D161" s="68"/>
+      <c r="E161" s="68"/>
+      <c r="F161" s="68"/>
+      <c r="G161" s="68"/>
+      <c r="H161" s="68"/>
+      <c r="I161" s="68"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="66"/>
-      <c r="B162" s="66"/>
-      <c r="C162" s="66"/>
-      <c r="D162" s="66"/>
-      <c r="E162" s="66"/>
-      <c r="F162" s="66"/>
-      <c r="G162" s="66"/>
-      <c r="H162" s="66"/>
-      <c r="I162" s="66"/>
+      <c r="A162" s="68"/>
+      <c r="B162" s="68"/>
+      <c r="C162" s="68"/>
+      <c r="D162" s="68"/>
+      <c r="E162" s="68"/>
+      <c r="F162" s="68"/>
+      <c r="G162" s="68"/>
+      <c r="H162" s="68"/>
+      <c r="I162" s="68"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="66"/>
-      <c r="B163" s="66"/>
-      <c r="C163" s="66"/>
-      <c r="D163" s="66"/>
-      <c r="E163" s="66"/>
-      <c r="F163" s="66"/>
-      <c r="G163" s="66"/>
-      <c r="H163" s="66"/>
-      <c r="I163" s="66"/>
+      <c r="A163" s="68"/>
+      <c r="B163" s="68"/>
+      <c r="C163" s="68"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="68"/>
+      <c r="F163" s="68"/>
+      <c r="G163" s="68"/>
+      <c r="H163" s="68"/>
+      <c r="I163" s="68"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="66"/>
-      <c r="B164" s="66"/>
-      <c r="C164" s="66"/>
-      <c r="D164" s="66"/>
-      <c r="E164" s="66"/>
-      <c r="F164" s="66"/>
-      <c r="G164" s="66"/>
-      <c r="H164" s="66"/>
-      <c r="I164" s="66"/>
+      <c r="A164" s="68"/>
+      <c r="B164" s="68"/>
+      <c r="C164" s="68"/>
+      <c r="D164" s="68"/>
+      <c r="E164" s="68"/>
+      <c r="F164" s="68"/>
+      <c r="G164" s="68"/>
+      <c r="H164" s="68"/>
+      <c r="I164" s="68"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="66"/>
-      <c r="B165" s="66"/>
-      <c r="C165" s="66"/>
-      <c r="D165" s="66"/>
-      <c r="E165" s="66"/>
-      <c r="F165" s="66"/>
-      <c r="G165" s="66"/>
-      <c r="H165" s="66"/>
-      <c r="I165" s="66"/>
+      <c r="A165" s="68"/>
+      <c r="B165" s="68"/>
+      <c r="C165" s="68"/>
+      <c r="D165" s="68"/>
+      <c r="E165" s="68"/>
+      <c r="F165" s="68"/>
+      <c r="G165" s="68"/>
+      <c r="H165" s="68"/>
+      <c r="I165" s="68"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="66"/>
-      <c r="B166" s="66"/>
-      <c r="C166" s="66"/>
-      <c r="D166" s="66"/>
-      <c r="E166" s="66"/>
-      <c r="F166" s="66"/>
-      <c r="G166" s="66"/>
-      <c r="H166" s="66"/>
-      <c r="I166" s="66"/>
+      <c r="A166" s="68"/>
+      <c r="B166" s="68"/>
+      <c r="C166" s="68"/>
+      <c r="D166" s="68"/>
+      <c r="E166" s="68"/>
+      <c r="F166" s="68"/>
+      <c r="G166" s="68"/>
+      <c r="H166" s="68"/>
+      <c r="I166" s="68"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="66"/>
-      <c r="B167" s="66"/>
-      <c r="C167" s="66"/>
-      <c r="D167" s="66"/>
-      <c r="E167" s="66"/>
-      <c r="F167" s="66"/>
-      <c r="G167" s="66"/>
-      <c r="H167" s="66"/>
-      <c r="I167" s="66"/>
+      <c r="A167" s="68"/>
+      <c r="B167" s="68"/>
+      <c r="C167" s="68"/>
+      <c r="D167" s="68"/>
+      <c r="E167" s="68"/>
+      <c r="F167" s="68"/>
+      <c r="G167" s="68"/>
+      <c r="H167" s="68"/>
+      <c r="I167" s="68"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="66"/>
-      <c r="B168" s="66"/>
-      <c r="C168" s="66"/>
-      <c r="D168" s="66"/>
-      <c r="E168" s="66"/>
-      <c r="F168" s="66"/>
-      <c r="G168" s="66"/>
-      <c r="H168" s="66"/>
-      <c r="I168" s="66"/>
+      <c r="A168" s="68"/>
+      <c r="B168" s="68"/>
+      <c r="C168" s="68"/>
+      <c r="D168" s="68"/>
+      <c r="E168" s="68"/>
+      <c r="F168" s="68"/>
+      <c r="G168" s="68"/>
+      <c r="H168" s="68"/>
+      <c r="I168" s="68"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="66"/>
-      <c r="B169" s="66"/>
-      <c r="C169" s="66"/>
-      <c r="D169" s="66"/>
-      <c r="E169" s="66"/>
-      <c r="F169" s="66"/>
-      <c r="G169" s="66"/>
-      <c r="H169" s="66"/>
-      <c r="I169" s="66"/>
+      <c r="A169" s="68"/>
+      <c r="B169" s="68"/>
+      <c r="C169" s="68"/>
+      <c r="D169" s="68"/>
+      <c r="E169" s="68"/>
+      <c r="F169" s="68"/>
+      <c r="G169" s="68"/>
+      <c r="H169" s="68"/>
+      <c r="I169" s="68"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="66"/>
-      <c r="B170" s="66"/>
-      <c r="C170" s="66"/>
-      <c r="D170" s="66"/>
-      <c r="E170" s="66"/>
-      <c r="F170" s="66"/>
-      <c r="G170" s="66"/>
-      <c r="H170" s="66"/>
-      <c r="I170" s="66"/>
+      <c r="A170" s="68"/>
+      <c r="B170" s="68"/>
+      <c r="C170" s="68"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="68"/>
+      <c r="F170" s="68"/>
+      <c r="G170" s="68"/>
+      <c r="H170" s="68"/>
+      <c r="I170" s="68"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="66"/>
-      <c r="B171" s="66"/>
-      <c r="C171" s="66"/>
-      <c r="D171" s="66"/>
-      <c r="E171" s="66"/>
-      <c r="F171" s="66"/>
-      <c r="G171" s="66"/>
-      <c r="H171" s="66"/>
-      <c r="I171" s="66"/>
+      <c r="A171" s="68"/>
+      <c r="B171" s="68"/>
+      <c r="C171" s="68"/>
+      <c r="D171" s="68"/>
+      <c r="E171" s="68"/>
+      <c r="F171" s="68"/>
+      <c r="G171" s="68"/>
+      <c r="H171" s="68"/>
+      <c r="I171" s="68"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="66"/>
-      <c r="B172" s="66"/>
-      <c r="C172" s="66"/>
-      <c r="D172" s="66"/>
-      <c r="E172" s="66"/>
-      <c r="F172" s="66"/>
-      <c r="G172" s="66"/>
-      <c r="H172" s="66"/>
-      <c r="I172" s="66"/>
+      <c r="A172" s="68"/>
+      <c r="B172" s="68"/>
+      <c r="C172" s="68"/>
+      <c r="D172" s="68"/>
+      <c r="E172" s="68"/>
+      <c r="F172" s="68"/>
+      <c r="G172" s="68"/>
+      <c r="H172" s="68"/>
+      <c r="I172" s="68"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="66"/>
-      <c r="B173" s="66"/>
-      <c r="C173" s="66"/>
-      <c r="D173" s="66"/>
-      <c r="E173" s="66"/>
-      <c r="F173" s="66"/>
-      <c r="G173" s="66"/>
-      <c r="H173" s="66"/>
-      <c r="I173" s="66"/>
+      <c r="A173" s="68"/>
+      <c r="B173" s="68"/>
+      <c r="C173" s="68"/>
+      <c r="D173" s="68"/>
+      <c r="E173" s="68"/>
+      <c r="F173" s="68"/>
+      <c r="G173" s="68"/>
+      <c r="H173" s="68"/>
+      <c r="I173" s="68"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="66"/>
-      <c r="B174" s="66"/>
-      <c r="C174" s="66"/>
-      <c r="D174" s="66"/>
-      <c r="E174" s="66"/>
-      <c r="F174" s="66"/>
-      <c r="G174" s="66"/>
-      <c r="H174" s="66"/>
-      <c r="I174" s="66"/>
+      <c r="A174" s="68"/>
+      <c r="B174" s="68"/>
+      <c r="C174" s="68"/>
+      <c r="D174" s="68"/>
+      <c r="E174" s="68"/>
+      <c r="F174" s="68"/>
+      <c r="G174" s="68"/>
+      <c r="H174" s="68"/>
+      <c r="I174" s="68"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="66"/>
-      <c r="B175" s="66"/>
-      <c r="C175" s="66"/>
-      <c r="D175" s="66"/>
-      <c r="E175" s="66"/>
-      <c r="F175" s="66"/>
-      <c r="G175" s="66"/>
-      <c r="H175" s="66"/>
-      <c r="I175" s="66"/>
+      <c r="A175" s="68"/>
+      <c r="B175" s="68"/>
+      <c r="C175" s="68"/>
+      <c r="D175" s="68"/>
+      <c r="E175" s="68"/>
+      <c r="F175" s="68"/>
+      <c r="G175" s="68"/>
+      <c r="H175" s="68"/>
+      <c r="I175" s="68"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="66"/>
-      <c r="B176" s="66"/>
-      <c r="C176" s="66"/>
-      <c r="D176" s="66"/>
-      <c r="E176" s="66"/>
-      <c r="F176" s="66"/>
-      <c r="G176" s="66"/>
-      <c r="H176" s="66"/>
-      <c r="I176" s="66"/>
+      <c r="A176" s="68"/>
+      <c r="B176" s="68"/>
+      <c r="C176" s="68"/>
+      <c r="D176" s="68"/>
+      <c r="E176" s="68"/>
+      <c r="F176" s="68"/>
+      <c r="G176" s="68"/>
+      <c r="H176" s="68"/>
+      <c r="I176" s="68"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="66"/>
-      <c r="B177" s="66"/>
-      <c r="C177" s="66"/>
-      <c r="D177" s="66"/>
-      <c r="E177" s="66"/>
-      <c r="F177" s="66"/>
-      <c r="G177" s="66"/>
-      <c r="H177" s="66"/>
-      <c r="I177" s="66"/>
+      <c r="A177" s="68"/>
+      <c r="B177" s="68"/>
+      <c r="C177" s="68"/>
+      <c r="D177" s="68"/>
+      <c r="E177" s="68"/>
+      <c r="F177" s="68"/>
+      <c r="G177" s="68"/>
+      <c r="H177" s="68"/>
+      <c r="I177" s="68"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="66"/>
-      <c r="B178" s="66"/>
-      <c r="C178" s="66"/>
-      <c r="D178" s="66"/>
-      <c r="E178" s="66"/>
-      <c r="F178" s="66"/>
-      <c r="G178" s="66"/>
-      <c r="H178" s="66"/>
-      <c r="I178" s="66"/>
+      <c r="A178" s="68"/>
+      <c r="B178" s="68"/>
+      <c r="C178" s="68"/>
+      <c r="D178" s="68"/>
+      <c r="E178" s="68"/>
+      <c r="F178" s="68"/>
+      <c r="G178" s="68"/>
+      <c r="H178" s="68"/>
+      <c r="I178" s="68"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="66"/>
-      <c r="B179" s="66"/>
-      <c r="C179" s="66"/>
-      <c r="D179" s="66"/>
-      <c r="E179" s="66"/>
-      <c r="F179" s="66"/>
-      <c r="G179" s="66"/>
-      <c r="H179" s="66"/>
-      <c r="I179" s="66"/>
+      <c r="A179" s="68"/>
+      <c r="B179" s="68"/>
+      <c r="C179" s="68"/>
+      <c r="D179" s="68"/>
+      <c r="E179" s="68"/>
+      <c r="F179" s="68"/>
+      <c r="G179" s="68"/>
+      <c r="H179" s="68"/>
+      <c r="I179" s="68"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="66"/>
-      <c r="B180" s="66"/>
-      <c r="C180" s="66"/>
-      <c r="D180" s="66"/>
-      <c r="E180" s="66"/>
-      <c r="F180" s="66"/>
-      <c r="G180" s="66"/>
-      <c r="H180" s="66"/>
-      <c r="I180" s="66"/>
+      <c r="A180" s="68"/>
+      <c r="B180" s="68"/>
+      <c r="C180" s="68"/>
+      <c r="D180" s="68"/>
+      <c r="E180" s="68"/>
+      <c r="F180" s="68"/>
+      <c r="G180" s="68"/>
+      <c r="H180" s="68"/>
+      <c r="I180" s="68"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="66"/>
-      <c r="B181" s="66"/>
-      <c r="C181" s="66"/>
-      <c r="D181" s="66"/>
-      <c r="E181" s="66"/>
-      <c r="F181" s="66"/>
-      <c r="G181" s="66"/>
-      <c r="H181" s="66"/>
-      <c r="I181" s="66"/>
+      <c r="A181" s="68"/>
+      <c r="B181" s="68"/>
+      <c r="C181" s="68"/>
+      <c r="D181" s="68"/>
+      <c r="E181" s="68"/>
+      <c r="F181" s="68"/>
+      <c r="G181" s="68"/>
+      <c r="H181" s="68"/>
+      <c r="I181" s="68"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="66"/>
-      <c r="B182" s="66"/>
-      <c r="C182" s="66"/>
-      <c r="D182" s="66"/>
-      <c r="E182" s="66"/>
-      <c r="F182" s="66"/>
-      <c r="G182" s="66"/>
-      <c r="H182" s="66"/>
-      <c r="I182" s="66"/>
+      <c r="A182" s="68"/>
+      <c r="B182" s="68"/>
+      <c r="C182" s="68"/>
+      <c r="D182" s="68"/>
+      <c r="E182" s="68"/>
+      <c r="F182" s="68"/>
+      <c r="G182" s="68"/>
+      <c r="H182" s="68"/>
+      <c r="I182" s="68"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="66"/>
-      <c r="B183" s="66"/>
-      <c r="C183" s="66"/>
-      <c r="D183" s="66"/>
-      <c r="E183" s="66"/>
-      <c r="F183" s="66"/>
-      <c r="G183" s="66"/>
-      <c r="H183" s="66"/>
-      <c r="I183" s="66"/>
+      <c r="A183" s="68"/>
+      <c r="B183" s="68"/>
+      <c r="C183" s="68"/>
+      <c r="D183" s="68"/>
+      <c r="E183" s="68"/>
+      <c r="F183" s="68"/>
+      <c r="G183" s="68"/>
+      <c r="H183" s="68"/>
+      <c r="I183" s="68"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="66"/>
-      <c r="B184" s="66"/>
-      <c r="C184" s="66"/>
-      <c r="D184" s="66"/>
-      <c r="E184" s="66"/>
-      <c r="F184" s="66"/>
-      <c r="G184" s="66"/>
-      <c r="H184" s="66"/>
-      <c r="I184" s="66"/>
+      <c r="A184" s="68"/>
+      <c r="B184" s="68"/>
+      <c r="C184" s="68"/>
+      <c r="D184" s="68"/>
+      <c r="E184" s="68"/>
+      <c r="F184" s="68"/>
+      <c r="G184" s="68"/>
+      <c r="H184" s="68"/>
+      <c r="I184" s="68"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="66"/>
-      <c r="B185" s="66"/>
-      <c r="C185" s="66"/>
-      <c r="D185" s="66"/>
-      <c r="E185" s="66"/>
-      <c r="F185" s="66"/>
-      <c r="G185" s="66"/>
-      <c r="H185" s="66"/>
-      <c r="I185" s="66"/>
+      <c r="A185" s="68"/>
+      <c r="B185" s="68"/>
+      <c r="C185" s="68"/>
+      <c r="D185" s="68"/>
+      <c r="E185" s="68"/>
+      <c r="F185" s="68"/>
+      <c r="G185" s="68"/>
+      <c r="H185" s="68"/>
+      <c r="I185" s="68"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="66"/>
-      <c r="B186" s="66"/>
-      <c r="C186" s="66"/>
-      <c r="D186" s="66"/>
-      <c r="E186" s="66"/>
-      <c r="F186" s="66"/>
-      <c r="G186" s="66"/>
-      <c r="H186" s="66"/>
-      <c r="I186" s="66"/>
+      <c r="A186" s="68"/>
+      <c r="B186" s="68"/>
+      <c r="C186" s="68"/>
+      <c r="D186" s="68"/>
+      <c r="E186" s="68"/>
+      <c r="F186" s="68"/>
+      <c r="G186" s="68"/>
+      <c r="H186" s="68"/>
+      <c r="I186" s="68"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="66"/>
-      <c r="B187" s="66"/>
-      <c r="C187" s="66"/>
-      <c r="D187" s="66"/>
-      <c r="E187" s="66"/>
-      <c r="F187" s="66"/>
-      <c r="G187" s="66"/>
-      <c r="H187" s="66"/>
-      <c r="I187" s="66"/>
+      <c r="A187" s="68"/>
+      <c r="B187" s="68"/>
+      <c r="C187" s="68"/>
+      <c r="D187" s="68"/>
+      <c r="E187" s="68"/>
+      <c r="F187" s="68"/>
+      <c r="G187" s="68"/>
+      <c r="H187" s="68"/>
+      <c r="I187" s="68"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="66"/>
-      <c r="B188" s="66"/>
-      <c r="C188" s="66"/>
-      <c r="D188" s="66"/>
-      <c r="E188" s="66"/>
-      <c r="F188" s="66"/>
-      <c r="G188" s="66"/>
-      <c r="H188" s="66"/>
-      <c r="I188" s="66"/>
+      <c r="A188" s="68"/>
+      <c r="B188" s="68"/>
+      <c r="C188" s="68"/>
+      <c r="D188" s="68"/>
+      <c r="E188" s="68"/>
+      <c r="F188" s="68"/>
+      <c r="G188" s="68"/>
+      <c r="H188" s="68"/>
+      <c r="I188" s="68"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="66"/>
-      <c r="B189" s="66"/>
-      <c r="C189" s="66"/>
-      <c r="D189" s="66"/>
-      <c r="E189" s="66"/>
-      <c r="F189" s="66"/>
-      <c r="G189" s="66"/>
-      <c r="H189" s="66"/>
-      <c r="I189" s="66"/>
+      <c r="A189" s="68"/>
+      <c r="B189" s="68"/>
+      <c r="C189" s="68"/>
+      <c r="D189" s="68"/>
+      <c r="E189" s="68"/>
+      <c r="F189" s="68"/>
+      <c r="G189" s="68"/>
+      <c r="H189" s="68"/>
+      <c r="I189" s="68"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="66"/>
-      <c r="B190" s="66"/>
-      <c r="C190" s="66"/>
-      <c r="D190" s="66"/>
-      <c r="E190" s="66"/>
-      <c r="F190" s="66"/>
-      <c r="G190" s="66"/>
-      <c r="H190" s="66"/>
-      <c r="I190" s="66"/>
+      <c r="A190" s="68"/>
+      <c r="B190" s="68"/>
+      <c r="C190" s="68"/>
+      <c r="D190" s="68"/>
+      <c r="E190" s="68"/>
+      <c r="F190" s="68"/>
+      <c r="G190" s="68"/>
+      <c r="H190" s="68"/>
+      <c r="I190" s="68"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="66"/>
-      <c r="B191" s="66"/>
-      <c r="C191" s="66"/>
-      <c r="D191" s="66"/>
-      <c r="E191" s="66"/>
-      <c r="F191" s="66"/>
-      <c r="G191" s="66"/>
-      <c r="H191" s="66"/>
-      <c r="I191" s="66"/>
+      <c r="A191" s="68"/>
+      <c r="B191" s="68"/>
+      <c r="C191" s="68"/>
+      <c r="D191" s="68"/>
+      <c r="E191" s="68"/>
+      <c r="F191" s="68"/>
+      <c r="G191" s="68"/>
+      <c r="H191" s="68"/>
+      <c r="I191" s="68"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="66"/>
-      <c r="B192" s="66"/>
-      <c r="C192" s="66"/>
-      <c r="D192" s="66"/>
-      <c r="E192" s="66"/>
-      <c r="F192" s="66"/>
-      <c r="G192" s="66"/>
-      <c r="H192" s="66"/>
-      <c r="I192" s="66"/>
+      <c r="A192" s="68"/>
+      <c r="B192" s="68"/>
+      <c r="C192" s="68"/>
+      <c r="D192" s="68"/>
+      <c r="E192" s="68"/>
+      <c r="F192" s="68"/>
+      <c r="G192" s="68"/>
+      <c r="H192" s="68"/>
+      <c r="I192" s="68"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="66"/>
-      <c r="B193" s="66"/>
-      <c r="C193" s="66"/>
-      <c r="D193" s="66"/>
-      <c r="E193" s="66"/>
-      <c r="F193" s="66"/>
-      <c r="G193" s="66"/>
-      <c r="H193" s="66"/>
-      <c r="I193" s="66"/>
+      <c r="A193" s="68"/>
+      <c r="B193" s="68"/>
+      <c r="C193" s="68"/>
+      <c r="D193" s="68"/>
+      <c r="E193" s="68"/>
+      <c r="F193" s="68"/>
+      <c r="G193" s="68"/>
+      <c r="H193" s="68"/>
+      <c r="I193" s="68"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="66"/>
-      <c r="B194" s="66"/>
-      <c r="C194" s="66"/>
-      <c r="D194" s="66"/>
-      <c r="E194" s="66"/>
-      <c r="F194" s="66"/>
-      <c r="G194" s="66"/>
-      <c r="H194" s="66"/>
-      <c r="I194" s="66"/>
+      <c r="A194" s="68"/>
+      <c r="B194" s="68"/>
+      <c r="C194" s="68"/>
+      <c r="D194" s="68"/>
+      <c r="E194" s="68"/>
+      <c r="F194" s="68"/>
+      <c r="G194" s="68"/>
+      <c r="H194" s="68"/>
+      <c r="I194" s="68"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="66"/>
-      <c r="B195" s="66"/>
-      <c r="C195" s="66"/>
-      <c r="D195" s="66"/>
-      <c r="E195" s="66"/>
-      <c r="F195" s="66"/>
-      <c r="G195" s="66"/>
-      <c r="H195" s="66"/>
-      <c r="I195" s="66"/>
+      <c r="A195" s="68"/>
+      <c r="B195" s="68"/>
+      <c r="C195" s="68"/>
+      <c r="D195" s="68"/>
+      <c r="E195" s="68"/>
+      <c r="F195" s="68"/>
+      <c r="G195" s="68"/>
+      <c r="H195" s="68"/>
+      <c r="I195" s="68"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="66"/>
-      <c r="B196" s="66"/>
-      <c r="C196" s="66"/>
-      <c r="D196" s="66"/>
-      <c r="E196" s="66"/>
-      <c r="F196" s="66"/>
-      <c r="G196" s="66"/>
-      <c r="H196" s="66"/>
-      <c r="I196" s="66"/>
+      <c r="A196" s="68"/>
+      <c r="B196" s="68"/>
+      <c r="C196" s="68"/>
+      <c r="D196" s="68"/>
+      <c r="E196" s="68"/>
+      <c r="F196" s="68"/>
+      <c r="G196" s="68"/>
+      <c r="H196" s="68"/>
+      <c r="I196" s="68"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="66"/>
-      <c r="B197" s="66"/>
-      <c r="C197" s="66"/>
-      <c r="D197" s="66"/>
-      <c r="E197" s="66"/>
-      <c r="F197" s="66"/>
-      <c r="G197" s="66"/>
-      <c r="H197" s="66"/>
-      <c r="I197" s="66"/>
+      <c r="A197" s="68"/>
+      <c r="B197" s="68"/>
+      <c r="C197" s="68"/>
+      <c r="D197" s="68"/>
+      <c r="E197" s="68"/>
+      <c r="F197" s="68"/>
+      <c r="G197" s="68"/>
+      <c r="H197" s="68"/>
+      <c r="I197" s="68"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="66"/>
-      <c r="B198" s="66"/>
-      <c r="C198" s="66"/>
-      <c r="D198" s="66"/>
-      <c r="E198" s="66"/>
-      <c r="F198" s="66"/>
-      <c r="G198" s="66"/>
-      <c r="H198" s="66"/>
-      <c r="I198" s="66"/>
+      <c r="A198" s="68"/>
+      <c r="B198" s="68"/>
+      <c r="C198" s="68"/>
+      <c r="D198" s="68"/>
+      <c r="E198" s="68"/>
+      <c r="F198" s="68"/>
+      <c r="G198" s="68"/>
+      <c r="H198" s="68"/>
+      <c r="I198" s="68"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="66"/>
-      <c r="B199" s="66"/>
-      <c r="C199" s="66"/>
-      <c r="D199" s="66"/>
-      <c r="E199" s="66"/>
-      <c r="F199" s="66"/>
-      <c r="G199" s="66"/>
-      <c r="H199" s="66"/>
-      <c r="I199" s="66"/>
+      <c r="A199" s="68"/>
+      <c r="B199" s="68"/>
+      <c r="C199" s="68"/>
+      <c r="D199" s="68"/>
+      <c r="E199" s="68"/>
+      <c r="F199" s="68"/>
+      <c r="G199" s="68"/>
+      <c r="H199" s="68"/>
+      <c r="I199" s="68"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="66"/>
-      <c r="B200" s="66"/>
-      <c r="C200" s="66"/>
-      <c r="D200" s="66"/>
-      <c r="E200" s="66"/>
-      <c r="F200" s="66"/>
-      <c r="G200" s="66"/>
-      <c r="H200" s="66"/>
-      <c r="I200" s="66"/>
+      <c r="A200" s="68"/>
+      <c r="B200" s="68"/>
+      <c r="C200" s="68"/>
+      <c r="D200" s="68"/>
+      <c r="E200" s="68"/>
+      <c r="F200" s="68"/>
+      <c r="G200" s="68"/>
+      <c r="H200" s="68"/>
+      <c r="I200" s="68"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="66"/>
-      <c r="B201" s="66"/>
-      <c r="C201" s="66"/>
-      <c r="D201" s="66"/>
-      <c r="E201" s="66"/>
-      <c r="F201" s="66"/>
-      <c r="G201" s="66"/>
-      <c r="H201" s="66"/>
-      <c r="I201" s="66"/>
+      <c r="A201" s="68"/>
+      <c r="B201" s="68"/>
+      <c r="C201" s="68"/>
+      <c r="D201" s="68"/>
+      <c r="E201" s="68"/>
+      <c r="F201" s="68"/>
+      <c r="G201" s="68"/>
+      <c r="H201" s="68"/>
+      <c r="I201" s="68"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="66"/>
-      <c r="B202" s="66"/>
-      <c r="C202" s="66"/>
-      <c r="D202" s="66"/>
-      <c r="E202" s="66"/>
-      <c r="F202" s="66"/>
-      <c r="G202" s="66"/>
-      <c r="H202" s="66"/>
-      <c r="I202" s="66"/>
+      <c r="A202" s="68"/>
+      <c r="B202" s="68"/>
+      <c r="C202" s="68"/>
+      <c r="D202" s="68"/>
+      <c r="E202" s="68"/>
+      <c r="F202" s="68"/>
+      <c r="G202" s="68"/>
+      <c r="H202" s="68"/>
+      <c r="I202" s="68"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="66"/>
-      <c r="B203" s="66"/>
-      <c r="C203" s="66"/>
-      <c r="D203" s="66"/>
-      <c r="E203" s="66"/>
-      <c r="F203" s="66"/>
-      <c r="G203" s="66"/>
-      <c r="H203" s="66"/>
-      <c r="I203" s="66"/>
+      <c r="A203" s="68"/>
+      <c r="B203" s="68"/>
+      <c r="C203" s="68"/>
+      <c r="D203" s="68"/>
+      <c r="E203" s="68"/>
+      <c r="F203" s="68"/>
+      <c r="G203" s="68"/>
+      <c r="H203" s="68"/>
+      <c r="I203" s="68"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="66"/>
-      <c r="B204" s="66"/>
-      <c r="C204" s="66"/>
-      <c r="D204" s="66"/>
-      <c r="E204" s="66"/>
-      <c r="F204" s="66"/>
-      <c r="G204" s="66"/>
-      <c r="H204" s="66"/>
-      <c r="I204" s="66"/>
+      <c r="A204" s="68"/>
+      <c r="B204" s="68"/>
+      <c r="C204" s="68"/>
+      <c r="D204" s="68"/>
+      <c r="E204" s="68"/>
+      <c r="F204" s="68"/>
+      <c r="G204" s="68"/>
+      <c r="H204" s="68"/>
+      <c r="I204" s="68"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="66"/>
-      <c r="B205" s="66"/>
-      <c r="C205" s="66"/>
-      <c r="D205" s="66"/>
-      <c r="E205" s="66"/>
-      <c r="F205" s="66"/>
-      <c r="G205" s="66"/>
-      <c r="H205" s="66"/>
-      <c r="I205" s="66"/>
+      <c r="A205" s="68"/>
+      <c r="B205" s="68"/>
+      <c r="C205" s="68"/>
+      <c r="D205" s="68"/>
+      <c r="E205" s="68"/>
+      <c r="F205" s="68"/>
+      <c r="G205" s="68"/>
+      <c r="H205" s="68"/>
+      <c r="I205" s="68"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="66"/>
-      <c r="B206" s="66"/>
-      <c r="C206" s="66"/>
-      <c r="D206" s="66"/>
-      <c r="E206" s="66"/>
-      <c r="F206" s="66"/>
-      <c r="G206" s="66"/>
-      <c r="H206" s="66"/>
-      <c r="I206" s="66"/>
+      <c r="A206" s="68"/>
+      <c r="B206" s="68"/>
+      <c r="C206" s="68"/>
+      <c r="D206" s="68"/>
+      <c r="E206" s="68"/>
+      <c r="F206" s="68"/>
+      <c r="G206" s="68"/>
+      <c r="H206" s="68"/>
+      <c r="I206" s="68"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="66"/>
-      <c r="B207" s="66"/>
-      <c r="C207" s="66"/>
-      <c r="D207" s="66"/>
-      <c r="E207" s="66"/>
-      <c r="F207" s="66"/>
-      <c r="G207" s="66"/>
-      <c r="H207" s="66"/>
-      <c r="I207" s="66"/>
+      <c r="A207" s="68"/>
+      <c r="B207" s="68"/>
+      <c r="C207" s="68"/>
+      <c r="D207" s="68"/>
+      <c r="E207" s="68"/>
+      <c r="F207" s="68"/>
+      <c r="G207" s="68"/>
+      <c r="H207" s="68"/>
+      <c r="I207" s="68"/>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="66"/>
-      <c r="B208" s="66"/>
-      <c r="C208" s="66"/>
-      <c r="D208" s="66"/>
-      <c r="E208" s="66"/>
-      <c r="F208" s="66"/>
-      <c r="G208" s="66"/>
-      <c r="H208" s="66"/>
-      <c r="I208" s="66"/>
+      <c r="A208" s="68"/>
+      <c r="B208" s="68"/>
+      <c r="C208" s="68"/>
+      <c r="D208" s="68"/>
+      <c r="E208" s="68"/>
+      <c r="F208" s="68"/>
+      <c r="G208" s="68"/>
+      <c r="H208" s="68"/>
+      <c r="I208" s="68"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="66"/>
-      <c r="B209" s="66"/>
-      <c r="C209" s="66"/>
-      <c r="D209" s="66"/>
-      <c r="E209" s="66"/>
-      <c r="F209" s="66"/>
-      <c r="G209" s="66"/>
-      <c r="H209" s="66"/>
-      <c r="I209" s="66"/>
+      <c r="A209" s="68"/>
+      <c r="B209" s="68"/>
+      <c r="C209" s="68"/>
+      <c r="D209" s="68"/>
+      <c r="E209" s="68"/>
+      <c r="F209" s="68"/>
+      <c r="G209" s="68"/>
+      <c r="H209" s="68"/>
+      <c r="I209" s="68"/>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="66"/>
-      <c r="B210" s="66"/>
-      <c r="C210" s="66"/>
-      <c r="D210" s="66"/>
-      <c r="E210" s="66"/>
-      <c r="F210" s="66"/>
-      <c r="G210" s="66"/>
-      <c r="H210" s="66"/>
-      <c r="I210" s="66"/>
+      <c r="A210" s="68"/>
+      <c r="B210" s="68"/>
+      <c r="C210" s="68"/>
+      <c r="D210" s="68"/>
+      <c r="E210" s="68"/>
+      <c r="F210" s="68"/>
+      <c r="G210" s="68"/>
+      <c r="H210" s="68"/>
+      <c r="I210" s="68"/>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="66"/>
-      <c r="B211" s="66"/>
-      <c r="C211" s="66"/>
-      <c r="D211" s="66"/>
-      <c r="E211" s="66"/>
-      <c r="F211" s="66"/>
-      <c r="G211" s="66"/>
-      <c r="H211" s="66"/>
-      <c r="I211" s="66"/>
+      <c r="A211" s="68"/>
+      <c r="B211" s="68"/>
+      <c r="C211" s="68"/>
+      <c r="D211" s="68"/>
+      <c r="E211" s="68"/>
+      <c r="F211" s="68"/>
+      <c r="G211" s="68"/>
+      <c r="H211" s="68"/>
+      <c r="I211" s="68"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="66"/>
-      <c r="B212" s="66"/>
-      <c r="C212" s="66"/>
-      <c r="D212" s="66"/>
-      <c r="E212" s="66"/>
-      <c r="F212" s="66"/>
-      <c r="G212" s="66"/>
-      <c r="H212" s="66"/>
-      <c r="I212" s="66"/>
+      <c r="A212" s="68"/>
+      <c r="B212" s="68"/>
+      <c r="C212" s="68"/>
+      <c r="D212" s="68"/>
+      <c r="E212" s="68"/>
+      <c r="F212" s="68"/>
+      <c r="G212" s="68"/>
+      <c r="H212" s="68"/>
+      <c r="I212" s="68"/>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="66"/>
-      <c r="B213" s="66"/>
-      <c r="C213" s="66"/>
-      <c r="D213" s="66"/>
-      <c r="E213" s="66"/>
-      <c r="F213" s="66"/>
-      <c r="G213" s="66"/>
-      <c r="H213" s="66"/>
-      <c r="I213" s="66"/>
+      <c r="A213" s="68"/>
+      <c r="B213" s="68"/>
+      <c r="C213" s="68"/>
+      <c r="D213" s="68"/>
+      <c r="E213" s="68"/>
+      <c r="F213" s="68"/>
+      <c r="G213" s="68"/>
+      <c r="H213" s="68"/>
+      <c r="I213" s="68"/>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="66"/>
-      <c r="B214" s="66"/>
-      <c r="C214" s="66"/>
-      <c r="D214" s="66"/>
-      <c r="E214" s="66"/>
-      <c r="F214" s="66"/>
-      <c r="G214" s="66"/>
-      <c r="H214" s="66"/>
-      <c r="I214" s="66"/>
+      <c r="A214" s="68"/>
+      <c r="B214" s="68"/>
+      <c r="C214" s="68"/>
+      <c r="D214" s="68"/>
+      <c r="E214" s="68"/>
+      <c r="F214" s="68"/>
+      <c r="G214" s="68"/>
+      <c r="H214" s="68"/>
+      <c r="I214" s="68"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="66"/>
-      <c r="B215" s="66"/>
-      <c r="C215" s="66"/>
-      <c r="D215" s="66"/>
-      <c r="E215" s="66"/>
-      <c r="F215" s="66"/>
-      <c r="G215" s="66"/>
-      <c r="H215" s="66"/>
-      <c r="I215" s="66"/>
+      <c r="A215" s="68"/>
+      <c r="B215" s="68"/>
+      <c r="C215" s="68"/>
+      <c r="D215" s="68"/>
+      <c r="E215" s="68"/>
+      <c r="F215" s="68"/>
+      <c r="G215" s="68"/>
+      <c r="H215" s="68"/>
+      <c r="I215" s="68"/>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="66"/>
-      <c r="B216" s="66"/>
-      <c r="C216" s="66"/>
-      <c r="D216" s="66"/>
-      <c r="E216" s="66"/>
-      <c r="F216" s="66"/>
-      <c r="G216" s="66"/>
-      <c r="H216" s="66"/>
-      <c r="I216" s="66"/>
+      <c r="A216" s="68"/>
+      <c r="B216" s="68"/>
+      <c r="C216" s="68"/>
+      <c r="D216" s="68"/>
+      <c r="E216" s="68"/>
+      <c r="F216" s="68"/>
+      <c r="G216" s="68"/>
+      <c r="H216" s="68"/>
+      <c r="I216" s="68"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="66"/>
-      <c r="B217" s="66"/>
-      <c r="C217" s="66"/>
-      <c r="D217" s="66"/>
-      <c r="E217" s="66"/>
-      <c r="F217" s="66"/>
-      <c r="G217" s="66"/>
-      <c r="H217" s="66"/>
-      <c r="I217" s="66"/>
+      <c r="A217" s="68"/>
+      <c r="B217" s="68"/>
+      <c r="C217" s="68"/>
+      <c r="D217" s="68"/>
+      <c r="E217" s="68"/>
+      <c r="F217" s="68"/>
+      <c r="G217" s="68"/>
+      <c r="H217" s="68"/>
+      <c r="I217" s="68"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="66"/>
-      <c r="B218" s="66"/>
-      <c r="C218" s="66"/>
-      <c r="D218" s="66"/>
-      <c r="E218" s="66"/>
-      <c r="F218" s="66"/>
-      <c r="G218" s="66"/>
-      <c r="H218" s="66"/>
-      <c r="I218" s="66"/>
+      <c r="A218" s="68"/>
+      <c r="B218" s="68"/>
+      <c r="C218" s="68"/>
+      <c r="D218" s="68"/>
+      <c r="E218" s="68"/>
+      <c r="F218" s="68"/>
+      <c r="G218" s="68"/>
+      <c r="H218" s="68"/>
+      <c r="I218" s="68"/>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="66"/>
-      <c r="B219" s="66"/>
-      <c r="C219" s="66"/>
-      <c r="D219" s="66"/>
-      <c r="E219" s="66"/>
-      <c r="F219" s="66"/>
-      <c r="G219" s="66"/>
-      <c r="H219" s="66"/>
-      <c r="I219" s="66"/>
+      <c r="A219" s="68"/>
+      <c r="B219" s="68"/>
+      <c r="C219" s="68"/>
+      <c r="D219" s="68"/>
+      <c r="E219" s="68"/>
+      <c r="F219" s="68"/>
+      <c r="G219" s="68"/>
+      <c r="H219" s="68"/>
+      <c r="I219" s="68"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="66"/>
-      <c r="B220" s="66"/>
-      <c r="C220" s="66"/>
-      <c r="D220" s="66"/>
-      <c r="E220" s="66"/>
-      <c r="F220" s="66"/>
-      <c r="G220" s="66"/>
-      <c r="H220" s="66"/>
-      <c r="I220" s="66"/>
+      <c r="A220" s="68"/>
+      <c r="B220" s="68"/>
+      <c r="C220" s="68"/>
+      <c r="D220" s="68"/>
+      <c r="E220" s="68"/>
+      <c r="F220" s="68"/>
+      <c r="G220" s="68"/>
+      <c r="H220" s="68"/>
+      <c r="I220" s="68"/>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="66"/>
-      <c r="B221" s="66"/>
-      <c r="C221" s="66"/>
-      <c r="D221" s="66"/>
-      <c r="E221" s="66"/>
-      <c r="F221" s="66"/>
-      <c r="G221" s="66"/>
-      <c r="H221" s="66"/>
-      <c r="I221" s="66"/>
+      <c r="A221" s="68"/>
+      <c r="B221" s="68"/>
+      <c r="C221" s="68"/>
+      <c r="D221" s="68"/>
+      <c r="E221" s="68"/>
+      <c r="F221" s="68"/>
+      <c r="G221" s="68"/>
+      <c r="H221" s="68"/>
+      <c r="I221" s="68"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="66"/>
-      <c r="B222" s="66"/>
-      <c r="C222" s="66"/>
-      <c r="D222" s="66"/>
-      <c r="E222" s="66"/>
-      <c r="F222" s="66"/>
-      <c r="G222" s="66"/>
-      <c r="H222" s="66"/>
-      <c r="I222" s="66"/>
+      <c r="A222" s="68"/>
+      <c r="B222" s="68"/>
+      <c r="C222" s="68"/>
+      <c r="D222" s="68"/>
+      <c r="E222" s="68"/>
+      <c r="F222" s="68"/>
+      <c r="G222" s="68"/>
+      <c r="H222" s="68"/>
+      <c r="I222" s="68"/>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="66"/>
-      <c r="B223" s="66"/>
-      <c r="C223" s="66"/>
-      <c r="D223" s="66"/>
-      <c r="E223" s="66"/>
-      <c r="F223" s="66"/>
-      <c r="G223" s="66"/>
-      <c r="H223" s="66"/>
-      <c r="I223" s="66"/>
+      <c r="A223" s="68"/>
+      <c r="B223" s="68"/>
+      <c r="C223" s="68"/>
+      <c r="D223" s="68"/>
+      <c r="E223" s="68"/>
+      <c r="F223" s="68"/>
+      <c r="G223" s="68"/>
+      <c r="H223" s="68"/>
+      <c r="I223" s="68"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="66"/>
-      <c r="B224" s="66"/>
-      <c r="C224" s="66"/>
-      <c r="D224" s="66"/>
-      <c r="E224" s="66"/>
-      <c r="F224" s="66"/>
-      <c r="G224" s="66"/>
-      <c r="H224" s="66"/>
-      <c r="I224" s="66"/>
+      <c r="A224" s="68"/>
+      <c r="B224" s="68"/>
+      <c r="C224" s="68"/>
+      <c r="D224" s="68"/>
+      <c r="E224" s="68"/>
+      <c r="F224" s="68"/>
+      <c r="G224" s="68"/>
+      <c r="H224" s="68"/>
+      <c r="I224" s="68"/>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="66"/>
-      <c r="B225" s="66"/>
-      <c r="C225" s="66"/>
-      <c r="D225" s="66"/>
-      <c r="E225" s="66"/>
-      <c r="F225" s="66"/>
-      <c r="G225" s="66"/>
-      <c r="H225" s="66"/>
-      <c r="I225" s="66"/>
+      <c r="A225" s="68"/>
+      <c r="B225" s="68"/>
+      <c r="C225" s="68"/>
+      <c r="D225" s="68"/>
+      <c r="E225" s="68"/>
+      <c r="F225" s="68"/>
+      <c r="G225" s="68"/>
+      <c r="H225" s="68"/>
+      <c r="I225" s="68"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="66"/>
-      <c r="B226" s="66"/>
-      <c r="C226" s="66"/>
-      <c r="D226" s="66"/>
-      <c r="E226" s="66"/>
-      <c r="F226" s="66"/>
-      <c r="G226" s="66"/>
-      <c r="H226" s="66"/>
-      <c r="I226" s="66"/>
+      <c r="A226" s="68"/>
+      <c r="B226" s="68"/>
+      <c r="C226" s="68"/>
+      <c r="D226" s="68"/>
+      <c r="E226" s="68"/>
+      <c r="F226" s="68"/>
+      <c r="G226" s="68"/>
+      <c r="H226" s="68"/>
+      <c r="I226" s="68"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="66"/>
-      <c r="B227" s="66"/>
-      <c r="C227" s="66"/>
-      <c r="D227" s="66"/>
-      <c r="E227" s="66"/>
-      <c r="F227" s="66"/>
-      <c r="G227" s="66"/>
-      <c r="H227" s="66"/>
-      <c r="I227" s="66"/>
+      <c r="A227" s="68"/>
+      <c r="B227" s="68"/>
+      <c r="C227" s="68"/>
+      <c r="D227" s="68"/>
+      <c r="E227" s="68"/>
+      <c r="F227" s="68"/>
+      <c r="G227" s="68"/>
+      <c r="H227" s="68"/>
+      <c r="I227" s="68"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="66"/>
-      <c r="B228" s="66"/>
-      <c r="C228" s="66"/>
-      <c r="D228" s="66"/>
-      <c r="E228" s="66"/>
-      <c r="F228" s="66"/>
-      <c r="G228" s="66"/>
-      <c r="H228" s="66"/>
-      <c r="I228" s="66"/>
+      <c r="A228" s="68"/>
+      <c r="B228" s="68"/>
+      <c r="C228" s="68"/>
+      <c r="D228" s="68"/>
+      <c r="E228" s="68"/>
+      <c r="F228" s="68"/>
+      <c r="G228" s="68"/>
+      <c r="H228" s="68"/>
+      <c r="I228" s="68"/>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="66"/>
-      <c r="B229" s="66"/>
-      <c r="C229" s="66"/>
-      <c r="D229" s="66"/>
-      <c r="E229" s="66"/>
-      <c r="F229" s="66"/>
-      <c r="G229" s="66"/>
-      <c r="H229" s="66"/>
-      <c r="I229" s="66"/>
+      <c r="A229" s="68"/>
+      <c r="B229" s="68"/>
+      <c r="C229" s="68"/>
+      <c r="D229" s="68"/>
+      <c r="E229" s="68"/>
+      <c r="F229" s="68"/>
+      <c r="G229" s="68"/>
+      <c r="H229" s="68"/>
+      <c r="I229" s="68"/>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="66"/>
-      <c r="B230" s="66"/>
-      <c r="C230" s="66"/>
-      <c r="D230" s="66"/>
-      <c r="E230" s="66"/>
-      <c r="F230" s="66"/>
-      <c r="G230" s="66"/>
-      <c r="H230" s="66"/>
-      <c r="I230" s="66"/>
+      <c r="A230" s="68"/>
+      <c r="B230" s="68"/>
+      <c r="C230" s="68"/>
+      <c r="D230" s="68"/>
+      <c r="E230" s="68"/>
+      <c r="F230" s="68"/>
+      <c r="G230" s="68"/>
+      <c r="H230" s="68"/>
+      <c r="I230" s="68"/>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="66"/>
-      <c r="B231" s="66"/>
-      <c r="C231" s="66"/>
-      <c r="D231" s="66"/>
-      <c r="E231" s="66"/>
-      <c r="F231" s="66"/>
-      <c r="G231" s="66"/>
-      <c r="H231" s="66"/>
-      <c r="I231" s="66"/>
+      <c r="A231" s="68"/>
+      <c r="B231" s="68"/>
+      <c r="C231" s="68"/>
+      <c r="D231" s="68"/>
+      <c r="E231" s="68"/>
+      <c r="F231" s="68"/>
+      <c r="G231" s="68"/>
+      <c r="H231" s="68"/>
+      <c r="I231" s="68"/>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="66"/>
-      <c r="B232" s="66"/>
-      <c r="C232" s="66"/>
-      <c r="D232" s="66"/>
-      <c r="E232" s="66"/>
-      <c r="F232" s="66"/>
-      <c r="G232" s="66"/>
-      <c r="H232" s="66"/>
-      <c r="I232" s="66"/>
+      <c r="A232" s="68"/>
+      <c r="B232" s="68"/>
+      <c r="C232" s="68"/>
+      <c r="D232" s="68"/>
+      <c r="E232" s="68"/>
+      <c r="F232" s="68"/>
+      <c r="G232" s="68"/>
+      <c r="H232" s="68"/>
+      <c r="I232" s="68"/>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="66"/>
-      <c r="B233" s="66"/>
-      <c r="C233" s="66"/>
-      <c r="D233" s="66"/>
-      <c r="E233" s="66"/>
-      <c r="F233" s="66"/>
-      <c r="G233" s="66"/>
-      <c r="H233" s="66"/>
-      <c r="I233" s="66"/>
+      <c r="A233" s="68"/>
+      <c r="B233" s="68"/>
+      <c r="C233" s="68"/>
+      <c r="D233" s="68"/>
+      <c r="E233" s="68"/>
+      <c r="F233" s="68"/>
+      <c r="G233" s="68"/>
+      <c r="H233" s="68"/>
+      <c r="I233" s="68"/>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="66"/>
-      <c r="B234" s="66"/>
-      <c r="C234" s="66"/>
-      <c r="D234" s="66"/>
-      <c r="E234" s="66"/>
-      <c r="F234" s="66"/>
-      <c r="G234" s="66"/>
-      <c r="H234" s="66"/>
-      <c r="I234" s="66"/>
+      <c r="A234" s="68"/>
+      <c r="B234" s="68"/>
+      <c r="C234" s="68"/>
+      <c r="D234" s="68"/>
+      <c r="E234" s="68"/>
+      <c r="F234" s="68"/>
+      <c r="G234" s="68"/>
+      <c r="H234" s="68"/>
+      <c r="I234" s="68"/>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="66"/>
-      <c r="B235" s="66"/>
-      <c r="C235" s="66"/>
-      <c r="D235" s="66"/>
-      <c r="E235" s="66"/>
-      <c r="F235" s="66"/>
-      <c r="G235" s="66"/>
-      <c r="H235" s="66"/>
-      <c r="I235" s="66"/>
+      <c r="A235" s="68"/>
+      <c r="B235" s="68"/>
+      <c r="C235" s="68"/>
+      <c r="D235" s="68"/>
+      <c r="E235" s="68"/>
+      <c r="F235" s="68"/>
+      <c r="G235" s="68"/>
+      <c r="H235" s="68"/>
+      <c r="I235" s="68"/>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="66"/>
-      <c r="B236" s="66"/>
-      <c r="C236" s="66"/>
-      <c r="D236" s="66"/>
-      <c r="E236" s="66"/>
-      <c r="F236" s="66"/>
-      <c r="G236" s="66"/>
-      <c r="H236" s="66"/>
-      <c r="I236" s="66"/>
+      <c r="A236" s="68"/>
+      <c r="B236" s="68"/>
+      <c r="C236" s="68"/>
+      <c r="D236" s="68"/>
+      <c r="E236" s="68"/>
+      <c r="F236" s="68"/>
+      <c r="G236" s="68"/>
+      <c r="H236" s="68"/>
+      <c r="I236" s="68"/>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="66"/>
-      <c r="B237" s="66"/>
-      <c r="C237" s="66"/>
-      <c r="D237" s="66"/>
-      <c r="E237" s="66"/>
-      <c r="F237" s="66"/>
-      <c r="G237" s="66"/>
-      <c r="H237" s="66"/>
-      <c r="I237" s="66"/>
+      <c r="A237" s="68"/>
+      <c r="B237" s="68"/>
+      <c r="C237" s="68"/>
+      <c r="D237" s="68"/>
+      <c r="E237" s="68"/>
+      <c r="F237" s="68"/>
+      <c r="G237" s="68"/>
+      <c r="H237" s="68"/>
+      <c r="I237" s="68"/>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="66"/>
-      <c r="B238" s="66"/>
-      <c r="C238" s="66"/>
-      <c r="D238" s="66"/>
-      <c r="E238" s="66"/>
-      <c r="F238" s="66"/>
-      <c r="G238" s="66"/>
-      <c r="H238" s="66"/>
-      <c r="I238" s="66"/>
+      <c r="A238" s="68"/>
+      <c r="B238" s="68"/>
+      <c r="C238" s="68"/>
+      <c r="D238" s="68"/>
+      <c r="E238" s="68"/>
+      <c r="F238" s="68"/>
+      <c r="G238" s="68"/>
+      <c r="H238" s="68"/>
+      <c r="I238" s="68"/>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="66"/>
-      <c r="B239" s="66"/>
-      <c r="C239" s="66"/>
-      <c r="D239" s="66"/>
-      <c r="E239" s="66"/>
-      <c r="F239" s="66"/>
-      <c r="G239" s="66"/>
-      <c r="H239" s="66"/>
-      <c r="I239" s="66"/>
+      <c r="A239" s="68"/>
+      <c r="B239" s="68"/>
+      <c r="C239" s="68"/>
+      <c r="D239" s="68"/>
+      <c r="E239" s="68"/>
+      <c r="F239" s="68"/>
+      <c r="G239" s="68"/>
+      <c r="H239" s="68"/>
+      <c r="I239" s="68"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="66"/>
-      <c r="B240" s="66"/>
-      <c r="C240" s="66"/>
-      <c r="D240" s="66"/>
-      <c r="E240" s="66"/>
-      <c r="F240" s="66"/>
-      <c r="G240" s="66"/>
-      <c r="H240" s="66"/>
-      <c r="I240" s="66"/>
+      <c r="A240" s="68"/>
+      <c r="B240" s="68"/>
+      <c r="C240" s="68"/>
+      <c r="D240" s="68"/>
+      <c r="E240" s="68"/>
+      <c r="F240" s="68"/>
+      <c r="G240" s="68"/>
+      <c r="H240" s="68"/>
+      <c r="I240" s="68"/>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="66"/>
-      <c r="B241" s="66"/>
-      <c r="C241" s="66"/>
-      <c r="D241" s="66"/>
-      <c r="E241" s="66"/>
-      <c r="F241" s="66"/>
-      <c r="G241" s="66"/>
-      <c r="H241" s="66"/>
-      <c r="I241" s="66"/>
+      <c r="A241" s="68"/>
+      <c r="B241" s="68"/>
+      <c r="C241" s="68"/>
+      <c r="D241" s="68"/>
+      <c r="E241" s="68"/>
+      <c r="F241" s="68"/>
+      <c r="G241" s="68"/>
+      <c r="H241" s="68"/>
+      <c r="I241" s="68"/>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="66"/>
-      <c r="B242" s="66"/>
-      <c r="C242" s="66"/>
-      <c r="D242" s="66"/>
-      <c r="E242" s="66"/>
-      <c r="F242" s="66"/>
-      <c r="G242" s="66"/>
-      <c r="H242" s="66"/>
-      <c r="I242" s="66"/>
+      <c r="A242" s="68"/>
+      <c r="B242" s="68"/>
+      <c r="C242" s="68"/>
+      <c r="D242" s="68"/>
+      <c r="E242" s="68"/>
+      <c r="F242" s="68"/>
+      <c r="G242" s="68"/>
+      <c r="H242" s="68"/>
+      <c r="I242" s="68"/>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="66"/>
-      <c r="B243" s="66"/>
-      <c r="C243" s="66"/>
-      <c r="D243" s="66"/>
-      <c r="E243" s="66"/>
-      <c r="F243" s="66"/>
-      <c r="G243" s="66"/>
-      <c r="H243" s="66"/>
-      <c r="I243" s="66"/>
+      <c r="A243" s="68"/>
+      <c r="B243" s="68"/>
+      <c r="C243" s="68"/>
+      <c r="D243" s="68"/>
+      <c r="E243" s="68"/>
+      <c r="F243" s="68"/>
+      <c r="G243" s="68"/>
+      <c r="H243" s="68"/>
+      <c r="I243" s="68"/>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="66"/>
-      <c r="B244" s="66"/>
-      <c r="C244" s="66"/>
-      <c r="D244" s="66"/>
-      <c r="E244" s="66"/>
-      <c r="F244" s="66"/>
-      <c r="G244" s="66"/>
-      <c r="H244" s="66"/>
-      <c r="I244" s="66"/>
+      <c r="A244" s="68"/>
+      <c r="B244" s="68"/>
+      <c r="C244" s="68"/>
+      <c r="D244" s="68"/>
+      <c r="E244" s="68"/>
+      <c r="F244" s="68"/>
+      <c r="G244" s="68"/>
+      <c r="H244" s="68"/>
+      <c r="I244" s="68"/>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="66"/>
-      <c r="B245" s="66"/>
-      <c r="C245" s="66"/>
-      <c r="D245" s="66"/>
-      <c r="E245" s="66"/>
-      <c r="F245" s="66"/>
-      <c r="G245" s="66"/>
-      <c r="H245" s="66"/>
-      <c r="I245" s="66"/>
+      <c r="A245" s="68"/>
+      <c r="B245" s="68"/>
+      <c r="C245" s="68"/>
+      <c r="D245" s="68"/>
+      <c r="E245" s="68"/>
+      <c r="F245" s="68"/>
+      <c r="G245" s="68"/>
+      <c r="H245" s="68"/>
+      <c r="I245" s="68"/>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="66"/>
-      <c r="B246" s="66"/>
-      <c r="C246" s="66"/>
-      <c r="D246" s="66"/>
-      <c r="E246" s="66"/>
-      <c r="F246" s="66"/>
-      <c r="G246" s="66"/>
-      <c r="H246" s="66"/>
-      <c r="I246" s="66"/>
+      <c r="A246" s="68"/>
+      <c r="B246" s="68"/>
+      <c r="C246" s="68"/>
+      <c r="D246" s="68"/>
+      <c r="E246" s="68"/>
+      <c r="F246" s="68"/>
+      <c r="G246" s="68"/>
+      <c r="H246" s="68"/>
+      <c r="I246" s="68"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="66"/>
-      <c r="B247" s="66"/>
-      <c r="C247" s="66"/>
-      <c r="D247" s="66"/>
-      <c r="E247" s="66"/>
-      <c r="F247" s="66"/>
-      <c r="G247" s="66"/>
-      <c r="H247" s="66"/>
-      <c r="I247" s="66"/>
+      <c r="A247" s="68"/>
+      <c r="B247" s="68"/>
+      <c r="C247" s="68"/>
+      <c r="D247" s="68"/>
+      <c r="E247" s="68"/>
+      <c r="F247" s="68"/>
+      <c r="G247" s="68"/>
+      <c r="H247" s="68"/>
+      <c r="I247" s="68"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="66"/>
-      <c r="B248" s="66"/>
-      <c r="C248" s="66"/>
-      <c r="D248" s="66"/>
-      <c r="E248" s="66"/>
-      <c r="F248" s="66"/>
-      <c r="G248" s="66"/>
-      <c r="H248" s="66"/>
-      <c r="I248" s="66"/>
+      <c r="A248" s="68"/>
+      <c r="B248" s="68"/>
+      <c r="C248" s="68"/>
+      <c r="D248" s="68"/>
+      <c r="E248" s="68"/>
+      <c r="F248" s="68"/>
+      <c r="G248" s="68"/>
+      <c r="H248" s="68"/>
+      <c r="I248" s="68"/>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="66"/>
-      <c r="B249" s="66"/>
-      <c r="C249" s="66"/>
-      <c r="D249" s="66"/>
-      <c r="E249" s="66"/>
-      <c r="F249" s="66"/>
-      <c r="G249" s="66"/>
-      <c r="H249" s="66"/>
-      <c r="I249" s="66"/>
+      <c r="A249" s="68"/>
+      <c r="B249" s="68"/>
+      <c r="C249" s="68"/>
+      <c r="D249" s="68"/>
+      <c r="E249" s="68"/>
+      <c r="F249" s="68"/>
+      <c r="G249" s="68"/>
+      <c r="H249" s="68"/>
+      <c r="I249" s="68"/>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="66"/>
-      <c r="B250" s="66"/>
-      <c r="C250" s="66"/>
-      <c r="D250" s="66"/>
-      <c r="E250" s="66"/>
-      <c r="F250" s="66"/>
-      <c r="G250" s="66"/>
-      <c r="H250" s="66"/>
-      <c r="I250" s="66"/>
+      <c r="A250" s="68"/>
+      <c r="B250" s="68"/>
+      <c r="C250" s="68"/>
+      <c r="D250" s="68"/>
+      <c r="E250" s="68"/>
+      <c r="F250" s="68"/>
+      <c r="G250" s="68"/>
+      <c r="H250" s="68"/>
+      <c r="I250" s="68"/>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="66"/>
-      <c r="B251" s="66"/>
-      <c r="C251" s="66"/>
-      <c r="D251" s="66"/>
-      <c r="E251" s="66"/>
-      <c r="F251" s="66"/>
-      <c r="G251" s="66"/>
-      <c r="H251" s="66"/>
-      <c r="I251" s="66"/>
+      <c r="A251" s="68"/>
+      <c r="B251" s="68"/>
+      <c r="C251" s="68"/>
+      <c r="D251" s="68"/>
+      <c r="E251" s="68"/>
+      <c r="F251" s="68"/>
+      <c r="G251" s="68"/>
+      <c r="H251" s="68"/>
+      <c r="I251" s="68"/>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="66"/>
-      <c r="B252" s="66"/>
-      <c r="C252" s="66"/>
-      <c r="D252" s="66"/>
-      <c r="E252" s="66"/>
-      <c r="F252" s="66"/>
-      <c r="G252" s="66"/>
-      <c r="H252" s="66"/>
-      <c r="I252" s="66"/>
+      <c r="A252" s="68"/>
+      <c r="B252" s="68"/>
+      <c r="C252" s="68"/>
+      <c r="D252" s="68"/>
+      <c r="E252" s="68"/>
+      <c r="F252" s="68"/>
+      <c r="G252" s="68"/>
+      <c r="H252" s="68"/>
+      <c r="I252" s="68"/>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="66"/>
-      <c r="B253" s="66"/>
-      <c r="C253" s="66"/>
-      <c r="D253" s="66"/>
-      <c r="E253" s="66"/>
-      <c r="F253" s="66"/>
-      <c r="G253" s="66"/>
-      <c r="H253" s="66"/>
-      <c r="I253" s="66"/>
+      <c r="A253" s="68"/>
+      <c r="B253" s="68"/>
+      <c r="C253" s="68"/>
+      <c r="D253" s="68"/>
+      <c r="E253" s="68"/>
+      <c r="F253" s="68"/>
+      <c r="G253" s="68"/>
+      <c r="H253" s="68"/>
+      <c r="I253" s="68"/>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="66"/>
-      <c r="B254" s="66"/>
-      <c r="C254" s="66"/>
-      <c r="D254" s="66"/>
-      <c r="E254" s="66"/>
-      <c r="F254" s="66"/>
-      <c r="G254" s="66"/>
-      <c r="H254" s="66"/>
-      <c r="I254" s="66"/>
+      <c r="A254" s="68"/>
+      <c r="B254" s="68"/>
+      <c r="C254" s="68"/>
+      <c r="D254" s="68"/>
+      <c r="E254" s="68"/>
+      <c r="F254" s="68"/>
+      <c r="G254" s="68"/>
+      <c r="H254" s="68"/>
+      <c r="I254" s="68"/>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="66"/>
-      <c r="B255" s="66"/>
-      <c r="C255" s="66"/>
-      <c r="D255" s="66"/>
-      <c r="E255" s="66"/>
-      <c r="F255" s="66"/>
-      <c r="G255" s="66"/>
-      <c r="H255" s="66"/>
-      <c r="I255" s="66"/>
+      <c r="A255" s="68"/>
+      <c r="B255" s="68"/>
+      <c r="C255" s="68"/>
+      <c r="D255" s="68"/>
+      <c r="E255" s="68"/>
+      <c r="F255" s="68"/>
+      <c r="G255" s="68"/>
+      <c r="H255" s="68"/>
+      <c r="I255" s="68"/>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="66"/>
-      <c r="B256" s="66"/>
-      <c r="C256" s="66"/>
-      <c r="D256" s="66"/>
-      <c r="E256" s="66"/>
-      <c r="F256" s="66"/>
-      <c r="G256" s="66"/>
-      <c r="H256" s="66"/>
-      <c r="I256" s="66"/>
+      <c r="A256" s="68"/>
+      <c r="B256" s="68"/>
+      <c r="C256" s="68"/>
+      <c r="D256" s="68"/>
+      <c r="E256" s="68"/>
+      <c r="F256" s="68"/>
+      <c r="G256" s="68"/>
+      <c r="H256" s="68"/>
+      <c r="I256" s="68"/>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="66"/>
-      <c r="B257" s="66"/>
-      <c r="C257" s="66"/>
-      <c r="D257" s="66"/>
-      <c r="E257" s="66"/>
-      <c r="F257" s="66"/>
-      <c r="G257" s="66"/>
-      <c r="H257" s="66"/>
-      <c r="I257" s="66"/>
+      <c r="A257" s="68"/>
+      <c r="B257" s="68"/>
+      <c r="C257" s="68"/>
+      <c r="D257" s="68"/>
+      <c r="E257" s="68"/>
+      <c r="F257" s="68"/>
+      <c r="G257" s="68"/>
+      <c r="H257" s="68"/>
+      <c r="I257" s="68"/>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="66"/>
-      <c r="B258" s="66"/>
-      <c r="C258" s="66"/>
-      <c r="D258" s="66"/>
-      <c r="E258" s="66"/>
-      <c r="F258" s="66"/>
-      <c r="G258" s="66"/>
-      <c r="H258" s="66"/>
-      <c r="I258" s="66"/>
+      <c r="A258" s="68"/>
+      <c r="B258" s="68"/>
+      <c r="C258" s="68"/>
+      <c r="D258" s="68"/>
+      <c r="E258" s="68"/>
+      <c r="F258" s="68"/>
+      <c r="G258" s="68"/>
+      <c r="H258" s="68"/>
+      <c r="I258" s="68"/>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="66"/>
-      <c r="B259" s="66"/>
-      <c r="C259" s="66"/>
-      <c r="D259" s="66"/>
-      <c r="E259" s="66"/>
-      <c r="F259" s="66"/>
-      <c r="G259" s="66"/>
-      <c r="H259" s="66"/>
-      <c r="I259" s="66"/>
+      <c r="A259" s="68"/>
+      <c r="B259" s="68"/>
+      <c r="C259" s="68"/>
+      <c r="D259" s="68"/>
+      <c r="E259" s="68"/>
+      <c r="F259" s="68"/>
+      <c r="G259" s="68"/>
+      <c r="H259" s="68"/>
+      <c r="I259" s="68"/>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="66"/>
-      <c r="B260" s="66"/>
-      <c r="C260" s="66"/>
-      <c r="D260" s="66"/>
-      <c r="E260" s="66"/>
-      <c r="F260" s="66"/>
-      <c r="G260" s="66"/>
-      <c r="H260" s="66"/>
-      <c r="I260" s="66"/>
+      <c r="A260" s="68"/>
+      <c r="B260" s="68"/>
+      <c r="C260" s="68"/>
+      <c r="D260" s="68"/>
+      <c r="E260" s="68"/>
+      <c r="F260" s="68"/>
+      <c r="G260" s="68"/>
+      <c r="H260" s="68"/>
+      <c r="I260" s="68"/>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="66"/>
-      <c r="B261" s="66"/>
-      <c r="C261" s="66"/>
-      <c r="D261" s="66"/>
-      <c r="E261" s="66"/>
-      <c r="F261" s="66"/>
-      <c r="G261" s="66"/>
-      <c r="H261" s="66"/>
-      <c r="I261" s="66"/>
+      <c r="A261" s="68"/>
+      <c r="B261" s="68"/>
+      <c r="C261" s="68"/>
+      <c r="D261" s="68"/>
+      <c r="E261" s="68"/>
+      <c r="F261" s="68"/>
+      <c r="G261" s="68"/>
+      <c r="H261" s="68"/>
+      <c r="I261" s="68"/>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="66"/>
-      <c r="B262" s="66"/>
-      <c r="C262" s="66"/>
-      <c r="D262" s="66"/>
-      <c r="E262" s="66"/>
-      <c r="F262" s="66"/>
-      <c r="G262" s="66"/>
-      <c r="H262" s="66"/>
-      <c r="I262" s="66"/>
+      <c r="A262" s="68"/>
+      <c r="B262" s="68"/>
+      <c r="C262" s="68"/>
+      <c r="D262" s="68"/>
+      <c r="E262" s="68"/>
+      <c r="F262" s="68"/>
+      <c r="G262" s="68"/>
+      <c r="H262" s="68"/>
+      <c r="I262" s="68"/>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="66"/>
-      <c r="B263" s="66"/>
-      <c r="C263" s="66"/>
-      <c r="D263" s="66"/>
-      <c r="E263" s="66"/>
-      <c r="F263" s="66"/>
-      <c r="G263" s="66"/>
-      <c r="H263" s="66"/>
-      <c r="I263" s="66"/>
+      <c r="A263" s="68"/>
+      <c r="B263" s="68"/>
+      <c r="C263" s="68"/>
+      <c r="D263" s="68"/>
+      <c r="E263" s="68"/>
+      <c r="F263" s="68"/>
+      <c r="G263" s="68"/>
+      <c r="H263" s="68"/>
+      <c r="I263" s="68"/>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="66"/>
-      <c r="B264" s="66"/>
-      <c r="C264" s="66"/>
-      <c r="D264" s="66"/>
-      <c r="E264" s="66"/>
-      <c r="F264" s="66"/>
-      <c r="G264" s="66"/>
-      <c r="H264" s="66"/>
-      <c r="I264" s="66"/>
+      <c r="A264" s="68"/>
+      <c r="B264" s="68"/>
+      <c r="C264" s="68"/>
+      <c r="D264" s="68"/>
+      <c r="E264" s="68"/>
+      <c r="F264" s="68"/>
+      <c r="G264" s="68"/>
+      <c r="H264" s="68"/>
+      <c r="I264" s="68"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="66"/>
-      <c r="B265" s="66"/>
-      <c r="C265" s="66"/>
-      <c r="D265" s="66"/>
-      <c r="E265" s="66"/>
-      <c r="F265" s="66"/>
-      <c r="G265" s="66"/>
-      <c r="H265" s="66"/>
-      <c r="I265" s="66"/>
+      <c r="A265" s="68"/>
+      <c r="B265" s="68"/>
+      <c r="C265" s="68"/>
+      <c r="D265" s="68"/>
+      <c r="E265" s="68"/>
+      <c r="F265" s="68"/>
+      <c r="G265" s="68"/>
+      <c r="H265" s="68"/>
+      <c r="I265" s="68"/>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="66"/>
-      <c r="B266" s="66"/>
-      <c r="C266" s="66"/>
-      <c r="D266" s="66"/>
-      <c r="E266" s="66"/>
-      <c r="F266" s="66"/>
-      <c r="G266" s="66"/>
-      <c r="H266" s="66"/>
-      <c r="I266" s="66"/>
+      <c r="A266" s="68"/>
+      <c r="B266" s="68"/>
+      <c r="C266" s="68"/>
+      <c r="D266" s="68"/>
+      <c r="E266" s="68"/>
+      <c r="F266" s="68"/>
+      <c r="G266" s="68"/>
+      <c r="H266" s="68"/>
+      <c r="I266" s="68"/>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="66"/>
-      <c r="B267" s="66"/>
-      <c r="C267" s="66"/>
-      <c r="D267" s="66"/>
-      <c r="E267" s="66"/>
-      <c r="F267" s="66"/>
-      <c r="G267" s="66"/>
-      <c r="H267" s="66"/>
-      <c r="I267" s="66"/>
+      <c r="A267" s="68"/>
+      <c r="B267" s="68"/>
+      <c r="C267" s="68"/>
+      <c r="D267" s="68"/>
+      <c r="E267" s="68"/>
+      <c r="F267" s="68"/>
+      <c r="G267" s="68"/>
+      <c r="H267" s="68"/>
+      <c r="I267" s="68"/>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="66"/>
-      <c r="B268" s="66"/>
-      <c r="C268" s="66"/>
-      <c r="D268" s="66"/>
-      <c r="E268" s="66"/>
-      <c r="F268" s="66"/>
-      <c r="G268" s="66"/>
-      <c r="H268" s="66"/>
-      <c r="I268" s="66"/>
+      <c r="A268" s="68"/>
+      <c r="B268" s="68"/>
+      <c r="C268" s="68"/>
+      <c r="D268" s="68"/>
+      <c r="E268" s="68"/>
+      <c r="F268" s="68"/>
+      <c r="G268" s="68"/>
+      <c r="H268" s="68"/>
+      <c r="I268" s="68"/>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="66"/>
-      <c r="B269" s="66"/>
-      <c r="C269" s="66"/>
-      <c r="D269" s="66"/>
-      <c r="E269" s="66"/>
-      <c r="F269" s="66"/>
-      <c r="G269" s="66"/>
-      <c r="H269" s="66"/>
-      <c r="I269" s="66"/>
+      <c r="A269" s="68"/>
+      <c r="B269" s="68"/>
+      <c r="C269" s="68"/>
+      <c r="D269" s="68"/>
+      <c r="E269" s="68"/>
+      <c r="F269" s="68"/>
+      <c r="G269" s="68"/>
+      <c r="H269" s="68"/>
+      <c r="I269" s="68"/>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="66"/>
-      <c r="B270" s="66"/>
-      <c r="C270" s="66"/>
-      <c r="D270" s="66"/>
-      <c r="E270" s="66"/>
-      <c r="F270" s="66"/>
-      <c r="G270" s="66"/>
-      <c r="H270" s="66"/>
-      <c r="I270" s="66"/>
+      <c r="A270" s="68"/>
+      <c r="B270" s="68"/>
+      <c r="C270" s="68"/>
+      <c r="D270" s="68"/>
+      <c r="E270" s="68"/>
+      <c r="F270" s="68"/>
+      <c r="G270" s="68"/>
+      <c r="H270" s="68"/>
+      <c r="I270" s="68"/>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="66"/>
-      <c r="B271" s="66"/>
-      <c r="C271" s="66"/>
-      <c r="D271" s="66"/>
-      <c r="E271" s="66"/>
-      <c r="F271" s="66"/>
-      <c r="G271" s="66"/>
-      <c r="H271" s="66"/>
-      <c r="I271" s="66"/>
+      <c r="A271" s="68"/>
+      <c r="B271" s="68"/>
+      <c r="C271" s="68"/>
+      <c r="D271" s="68"/>
+      <c r="E271" s="68"/>
+      <c r="F271" s="68"/>
+      <c r="G271" s="68"/>
+      <c r="H271" s="68"/>
+      <c r="I271" s="68"/>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="66"/>
-      <c r="B272" s="66"/>
-      <c r="C272" s="66"/>
-      <c r="D272" s="66"/>
-      <c r="E272" s="66"/>
-      <c r="F272" s="66"/>
-      <c r="G272" s="66"/>
-      <c r="H272" s="66"/>
-      <c r="I272" s="66"/>
+      <c r="A272" s="68"/>
+      <c r="B272" s="68"/>
+      <c r="C272" s="68"/>
+      <c r="D272" s="68"/>
+      <c r="E272" s="68"/>
+      <c r="F272" s="68"/>
+      <c r="G272" s="68"/>
+      <c r="H272" s="68"/>
+      <c r="I272" s="68"/>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="66"/>
-      <c r="B273" s="66"/>
-      <c r="C273" s="66"/>
-      <c r="D273" s="66"/>
-      <c r="E273" s="66"/>
-      <c r="F273" s="66"/>
-      <c r="G273" s="66"/>
-      <c r="H273" s="66"/>
-      <c r="I273" s="66"/>
+      <c r="A273" s="68"/>
+      <c r="B273" s="68"/>
+      <c r="C273" s="68"/>
+      <c r="D273" s="68"/>
+      <c r="E273" s="68"/>
+      <c r="F273" s="68"/>
+      <c r="G273" s="68"/>
+      <c r="H273" s="68"/>
+      <c r="I273" s="68"/>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="66"/>
-      <c r="B274" s="66"/>
-      <c r="C274" s="66"/>
-      <c r="D274" s="66"/>
-      <c r="E274" s="66"/>
-      <c r="F274" s="66"/>
-      <c r="G274" s="66"/>
-      <c r="H274" s="66"/>
-      <c r="I274" s="66"/>
+      <c r="A274" s="68"/>
+      <c r="B274" s="68"/>
+      <c r="C274" s="68"/>
+      <c r="D274" s="68"/>
+      <c r="E274" s="68"/>
+      <c r="F274" s="68"/>
+      <c r="G274" s="68"/>
+      <c r="H274" s="68"/>
+      <c r="I274" s="68"/>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="66"/>
-      <c r="B275" s="66"/>
-      <c r="C275" s="66"/>
-      <c r="D275" s="66"/>
-      <c r="E275" s="66"/>
-      <c r="F275" s="66"/>
-      <c r="G275" s="66"/>
-      <c r="H275" s="66"/>
-      <c r="I275" s="66"/>
+      <c r="A275" s="68"/>
+      <c r="B275" s="68"/>
+      <c r="C275" s="68"/>
+      <c r="D275" s="68"/>
+      <c r="E275" s="68"/>
+      <c r="F275" s="68"/>
+      <c r="G275" s="68"/>
+      <c r="H275" s="68"/>
+      <c r="I275" s="68"/>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="66"/>
-      <c r="B276" s="66"/>
-      <c r="C276" s="66"/>
-      <c r="D276" s="66"/>
-      <c r="E276" s="66"/>
-      <c r="F276" s="66"/>
-      <c r="G276" s="66"/>
-      <c r="H276" s="66"/>
-      <c r="I276" s="66"/>
+      <c r="A276" s="68"/>
+      <c r="B276" s="68"/>
+      <c r="C276" s="68"/>
+      <c r="D276" s="68"/>
+      <c r="E276" s="68"/>
+      <c r="F276" s="68"/>
+      <c r="G276" s="68"/>
+      <c r="H276" s="68"/>
+      <c r="I276" s="68"/>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="66"/>
-      <c r="B277" s="66"/>
-      <c r="C277" s="66"/>
-      <c r="D277" s="66"/>
-      <c r="E277" s="66"/>
-      <c r="F277" s="66"/>
-      <c r="G277" s="66"/>
-      <c r="H277" s="66"/>
-      <c r="I277" s="66"/>
+      <c r="A277" s="68"/>
+      <c r="B277" s="68"/>
+      <c r="C277" s="68"/>
+      <c r="D277" s="68"/>
+      <c r="E277" s="68"/>
+      <c r="F277" s="68"/>
+      <c r="G277" s="68"/>
+      <c r="H277" s="68"/>
+      <c r="I277" s="68"/>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="66"/>
-      <c r="B278" s="66"/>
-      <c r="C278" s="66"/>
-      <c r="D278" s="66"/>
-      <c r="E278" s="66"/>
-      <c r="F278" s="66"/>
-      <c r="G278" s="66"/>
-      <c r="H278" s="66"/>
-      <c r="I278" s="66"/>
+      <c r="A278" s="68"/>
+      <c r="B278" s="68"/>
+      <c r="C278" s="68"/>
+      <c r="D278" s="68"/>
+      <c r="E278" s="68"/>
+      <c r="F278" s="68"/>
+      <c r="G278" s="68"/>
+      <c r="H278" s="68"/>
+      <c r="I278" s="68"/>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="66"/>
-      <c r="B279" s="66"/>
-      <c r="C279" s="66"/>
-      <c r="D279" s="66"/>
-      <c r="E279" s="66"/>
-      <c r="F279" s="66"/>
-      <c r="G279" s="66"/>
-      <c r="H279" s="66"/>
-      <c r="I279" s="66"/>
+      <c r="A279" s="68"/>
+      <c r="B279" s="68"/>
+      <c r="C279" s="68"/>
+      <c r="D279" s="68"/>
+      <c r="E279" s="68"/>
+      <c r="F279" s="68"/>
+      <c r="G279" s="68"/>
+      <c r="H279" s="68"/>
+      <c r="I279" s="68"/>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="66"/>
-      <c r="B280" s="66"/>
-      <c r="C280" s="66"/>
-      <c r="D280" s="66"/>
-      <c r="E280" s="66"/>
-      <c r="F280" s="66"/>
-      <c r="G280" s="66"/>
-      <c r="H280" s="66"/>
-      <c r="I280" s="66"/>
+      <c r="A280" s="68"/>
+      <c r="B280" s="68"/>
+      <c r="C280" s="68"/>
+      <c r="D280" s="68"/>
+      <c r="E280" s="68"/>
+      <c r="F280" s="68"/>
+      <c r="G280" s="68"/>
+      <c r="H280" s="68"/>
+      <c r="I280" s="68"/>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="66"/>
-      <c r="B281" s="66"/>
-      <c r="C281" s="66"/>
-      <c r="D281" s="66"/>
-      <c r="E281" s="66"/>
-      <c r="F281" s="66"/>
-      <c r="G281" s="66"/>
-      <c r="H281" s="66"/>
-      <c r="I281" s="66"/>
+      <c r="A281" s="68"/>
+      <c r="B281" s="68"/>
+      <c r="C281" s="68"/>
+      <c r="D281" s="68"/>
+      <c r="E281" s="68"/>
+      <c r="F281" s="68"/>
+      <c r="G281" s="68"/>
+      <c r="H281" s="68"/>
+      <c r="I281" s="68"/>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="66"/>
-      <c r="B282" s="66"/>
-      <c r="C282" s="66"/>
-      <c r="D282" s="66"/>
-      <c r="E282" s="66"/>
-      <c r="F282" s="66"/>
-      <c r="G282" s="66"/>
-      <c r="H282" s="66"/>
-      <c r="I282" s="66"/>
+      <c r="A282" s="68"/>
+      <c r="B282" s="68"/>
+      <c r="C282" s="68"/>
+      <c r="D282" s="68"/>
+      <c r="E282" s="68"/>
+      <c r="F282" s="68"/>
+      <c r="G282" s="68"/>
+      <c r="H282" s="68"/>
+      <c r="I282" s="68"/>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="66"/>
-      <c r="B283" s="66"/>
-      <c r="C283" s="66"/>
-      <c r="D283" s="66"/>
-      <c r="E283" s="66"/>
-      <c r="F283" s="66"/>
-      <c r="G283" s="66"/>
-      <c r="H283" s="66"/>
-      <c r="I283" s="66"/>
+      <c r="A283" s="68"/>
+      <c r="B283" s="68"/>
+      <c r="C283" s="68"/>
+      <c r="D283" s="68"/>
+      <c r="E283" s="68"/>
+      <c r="F283" s="68"/>
+      <c r="G283" s="68"/>
+      <c r="H283" s="68"/>
+      <c r="I283" s="68"/>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="66"/>
-      <c r="B284" s="66"/>
-      <c r="C284" s="66"/>
-      <c r="D284" s="66"/>
-      <c r="E284" s="66"/>
-      <c r="F284" s="66"/>
-      <c r="G284" s="66"/>
-      <c r="H284" s="66"/>
-      <c r="I284" s="66"/>
+      <c r="A284" s="68"/>
+      <c r="B284" s="68"/>
+      <c r="C284" s="68"/>
+      <c r="D284" s="68"/>
+      <c r="E284" s="68"/>
+      <c r="F284" s="68"/>
+      <c r="G284" s="68"/>
+      <c r="H284" s="68"/>
+      <c r="I284" s="68"/>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="66"/>
-      <c r="B285" s="66"/>
-      <c r="C285" s="66"/>
-      <c r="D285" s="66"/>
-      <c r="E285" s="66"/>
-      <c r="F285" s="66"/>
-      <c r="G285" s="66"/>
-      <c r="H285" s="66"/>
-      <c r="I285" s="66"/>
+      <c r="A285" s="68"/>
+      <c r="B285" s="68"/>
+      <c r="C285" s="68"/>
+      <c r="D285" s="68"/>
+      <c r="E285" s="68"/>
+      <c r="F285" s="68"/>
+      <c r="G285" s="68"/>
+      <c r="H285" s="68"/>
+      <c r="I285" s="68"/>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="66"/>
-      <c r="B286" s="66"/>
-      <c r="C286" s="66"/>
-      <c r="D286" s="66"/>
-      <c r="E286" s="66"/>
-      <c r="F286" s="66"/>
-      <c r="G286" s="66"/>
-      <c r="H286" s="66"/>
-      <c r="I286" s="66"/>
+      <c r="A286" s="68"/>
+      <c r="B286" s="68"/>
+      <c r="C286" s="68"/>
+      <c r="D286" s="68"/>
+      <c r="E286" s="68"/>
+      <c r="F286" s="68"/>
+      <c r="G286" s="68"/>
+      <c r="H286" s="68"/>
+      <c r="I286" s="68"/>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="66"/>
-      <c r="B287" s="66"/>
-      <c r="C287" s="66"/>
-      <c r="D287" s="66"/>
-      <c r="E287" s="66"/>
-      <c r="F287" s="66"/>
-      <c r="G287" s="66"/>
-      <c r="H287" s="66"/>
-      <c r="I287" s="66"/>
+      <c r="A287" s="68"/>
+      <c r="B287" s="68"/>
+      <c r="C287" s="68"/>
+      <c r="D287" s="68"/>
+      <c r="E287" s="68"/>
+      <c r="F287" s="68"/>
+      <c r="G287" s="68"/>
+      <c r="H287" s="68"/>
+      <c r="I287" s="68"/>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="66"/>
-      <c r="B288" s="66"/>
-      <c r="C288" s="66"/>
-      <c r="D288" s="66"/>
-      <c r="E288" s="66"/>
-      <c r="F288" s="66"/>
-      <c r="G288" s="66"/>
-      <c r="H288" s="66"/>
-      <c r="I288" s="66"/>
+      <c r="A288" s="68"/>
+      <c r="B288" s="68"/>
+      <c r="C288" s="68"/>
+      <c r="D288" s="68"/>
+      <c r="E288" s="68"/>
+      <c r="F288" s="68"/>
+      <c r="G288" s="68"/>
+      <c r="H288" s="68"/>
+      <c r="I288" s="68"/>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="66"/>
-      <c r="B289" s="66"/>
-      <c r="C289" s="66"/>
-      <c r="D289" s="66"/>
-      <c r="E289" s="66"/>
-      <c r="F289" s="66"/>
-      <c r="G289" s="66"/>
-      <c r="H289" s="66"/>
-      <c r="I289" s="66"/>
+      <c r="A289" s="68"/>
+      <c r="B289" s="68"/>
+      <c r="C289" s="68"/>
+      <c r="D289" s="68"/>
+      <c r="E289" s="68"/>
+      <c r="F289" s="68"/>
+      <c r="G289" s="68"/>
+      <c r="H289" s="68"/>
+      <c r="I289" s="68"/>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="66"/>
-      <c r="B290" s="66"/>
-      <c r="C290" s="66"/>
-      <c r="D290" s="66"/>
-      <c r="E290" s="66"/>
-      <c r="F290" s="66"/>
-      <c r="G290" s="66"/>
-      <c r="H290" s="66"/>
-      <c r="I290" s="66"/>
+      <c r="A290" s="68"/>
+      <c r="B290" s="68"/>
+      <c r="C290" s="68"/>
+      <c r="D290" s="68"/>
+      <c r="E290" s="68"/>
+      <c r="F290" s="68"/>
+      <c r="G290" s="68"/>
+      <c r="H290" s="68"/>
+      <c r="I290" s="68"/>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="66"/>
-      <c r="B291" s="66"/>
-      <c r="C291" s="66"/>
-      <c r="D291" s="66"/>
-      <c r="E291" s="66"/>
-      <c r="F291" s="66"/>
-      <c r="G291" s="66"/>
-      <c r="H291" s="66"/>
-      <c r="I291" s="66"/>
+      <c r="A291" s="68"/>
+      <c r="B291" s="68"/>
+      <c r="C291" s="68"/>
+      <c r="D291" s="68"/>
+      <c r="E291" s="68"/>
+      <c r="F291" s="68"/>
+      <c r="G291" s="68"/>
+      <c r="H291" s="68"/>
+      <c r="I291" s="68"/>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="66"/>
-      <c r="B292" s="66"/>
-      <c r="C292" s="66"/>
-      <c r="D292" s="66"/>
-      <c r="E292" s="66"/>
-      <c r="F292" s="66"/>
-      <c r="G292" s="66"/>
-      <c r="H292" s="66"/>
-      <c r="I292" s="66"/>
+      <c r="A292" s="68"/>
+      <c r="B292" s="68"/>
+      <c r="C292" s="68"/>
+      <c r="D292" s="68"/>
+      <c r="E292" s="68"/>
+      <c r="F292" s="68"/>
+      <c r="G292" s="68"/>
+      <c r="H292" s="68"/>
+      <c r="I292" s="68"/>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="66"/>
-      <c r="B293" s="66"/>
-      <c r="C293" s="66"/>
-      <c r="D293" s="66"/>
-      <c r="E293" s="66"/>
-      <c r="F293" s="66"/>
-      <c r="G293" s="66"/>
-      <c r="H293" s="66"/>
-      <c r="I293" s="66"/>
+      <c r="A293" s="68"/>
+      <c r="B293" s="68"/>
+      <c r="C293" s="68"/>
+      <c r="D293" s="68"/>
+      <c r="E293" s="68"/>
+      <c r="F293" s="68"/>
+      <c r="G293" s="68"/>
+      <c r="H293" s="68"/>
+      <c r="I293" s="68"/>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="66"/>
-      <c r="B294" s="66"/>
-      <c r="C294" s="66"/>
-      <c r="D294" s="66"/>
-      <c r="E294" s="66"/>
-      <c r="F294" s="66"/>
-      <c r="G294" s="66"/>
-      <c r="H294" s="66"/>
-      <c r="I294" s="66"/>
+      <c r="A294" s="68"/>
+      <c r="B294" s="68"/>
+      <c r="C294" s="68"/>
+      <c r="D294" s="68"/>
+      <c r="E294" s="68"/>
+      <c r="F294" s="68"/>
+      <c r="G294" s="68"/>
+      <c r="H294" s="68"/>
+      <c r="I294" s="68"/>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="66"/>
-      <c r="B295" s="66"/>
-      <c r="C295" s="66"/>
-      <c r="D295" s="66"/>
-      <c r="E295" s="66"/>
-      <c r="F295" s="66"/>
-      <c r="G295" s="66"/>
-      <c r="H295" s="66"/>
-      <c r="I295" s="66"/>
+      <c r="A295" s="68"/>
+      <c r="B295" s="68"/>
+      <c r="C295" s="68"/>
+      <c r="D295" s="68"/>
+      <c r="E295" s="68"/>
+      <c r="F295" s="68"/>
+      <c r="G295" s="68"/>
+      <c r="H295" s="68"/>
+      <c r="I295" s="68"/>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="66"/>
-      <c r="B296" s="66"/>
-      <c r="C296" s="66"/>
-      <c r="D296" s="66"/>
-      <c r="E296" s="66"/>
-      <c r="F296" s="66"/>
-      <c r="G296" s="66"/>
-      <c r="H296" s="66"/>
-      <c r="I296" s="66"/>
+      <c r="A296" s="68"/>
+      <c r="B296" s="68"/>
+      <c r="C296" s="68"/>
+      <c r="D296" s="68"/>
+      <c r="E296" s="68"/>
+      <c r="F296" s="68"/>
+      <c r="G296" s="68"/>
+      <c r="H296" s="68"/>
+      <c r="I296" s="68"/>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="66"/>
-      <c r="B297" s="66"/>
-      <c r="C297" s="66"/>
-      <c r="D297" s="66"/>
-      <c r="E297" s="66"/>
-      <c r="F297" s="66"/>
-      <c r="G297" s="66"/>
-      <c r="H297" s="66"/>
-      <c r="I297" s="66"/>
+      <c r="A297" s="68"/>
+      <c r="B297" s="68"/>
+      <c r="C297" s="68"/>
+      <c r="D297" s="68"/>
+      <c r="E297" s="68"/>
+      <c r="F297" s="68"/>
+      <c r="G297" s="68"/>
+      <c r="H297" s="68"/>
+      <c r="I297" s="68"/>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="66"/>
-      <c r="B298" s="66"/>
-      <c r="C298" s="66"/>
-      <c r="D298" s="66"/>
-      <c r="E298" s="66"/>
-      <c r="F298" s="66"/>
-      <c r="G298" s="66"/>
-      <c r="H298" s="66"/>
-      <c r="I298" s="66"/>
+      <c r="A298" s="68"/>
+      <c r="B298" s="68"/>
+      <c r="C298" s="68"/>
+      <c r="D298" s="68"/>
+      <c r="E298" s="68"/>
+      <c r="F298" s="68"/>
+      <c r="G298" s="68"/>
+      <c r="H298" s="68"/>
+      <c r="I298" s="68"/>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="66"/>
-      <c r="B299" s="66"/>
-      <c r="C299" s="66"/>
-      <c r="D299" s="66"/>
-      <c r="E299" s="66"/>
-      <c r="F299" s="66"/>
-      <c r="G299" s="66"/>
-      <c r="H299" s="66"/>
-      <c r="I299" s="66"/>
+      <c r="A299" s="68"/>
+      <c r="B299" s="68"/>
+      <c r="C299" s="68"/>
+      <c r="D299" s="68"/>
+      <c r="E299" s="68"/>
+      <c r="F299" s="68"/>
+      <c r="G299" s="68"/>
+      <c r="H299" s="68"/>
+      <c r="I299" s="68"/>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="66"/>
-      <c r="B300" s="66"/>
-      <c r="C300" s="66"/>
-      <c r="D300" s="66"/>
-      <c r="E300" s="66"/>
-      <c r="F300" s="66"/>
-      <c r="G300" s="66"/>
-      <c r="H300" s="66"/>
-      <c r="I300" s="66"/>
+      <c r="A300" s="68"/>
+      <c r="B300" s="68"/>
+      <c r="C300" s="68"/>
+      <c r="D300" s="68"/>
+      <c r="E300" s="68"/>
+      <c r="F300" s="68"/>
+      <c r="G300" s="68"/>
+      <c r="H300" s="68"/>
+      <c r="I300" s="68"/>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="66"/>
-      <c r="B301" s="66"/>
-      <c r="C301" s="66"/>
-      <c r="D301" s="66"/>
-      <c r="E301" s="66"/>
-      <c r="F301" s="66"/>
-      <c r="G301" s="66"/>
-      <c r="H301" s="66"/>
-      <c r="I301" s="66"/>
+      <c r="A301" s="68"/>
+      <c r="B301" s="68"/>
+      <c r="C301" s="68"/>
+      <c r="D301" s="68"/>
+      <c r="E301" s="68"/>
+      <c r="F301" s="68"/>
+      <c r="G301" s="68"/>
+      <c r="H301" s="68"/>
+      <c r="I301" s="68"/>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="66"/>
-      <c r="B302" s="66"/>
-      <c r="C302" s="66"/>
-      <c r="D302" s="66"/>
-      <c r="E302" s="66"/>
-      <c r="F302" s="66"/>
-      <c r="G302" s="66"/>
-      <c r="H302" s="66"/>
-      <c r="I302" s="66"/>
+      <c r="A302" s="68"/>
+      <c r="B302" s="68"/>
+      <c r="C302" s="68"/>
+      <c r="D302" s="68"/>
+      <c r="E302" s="68"/>
+      <c r="F302" s="68"/>
+      <c r="G302" s="68"/>
+      <c r="H302" s="68"/>
+      <c r="I302" s="68"/>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="66"/>
-      <c r="B303" s="66"/>
-      <c r="C303" s="66"/>
-      <c r="D303" s="66"/>
-      <c r="E303" s="66"/>
-      <c r="F303" s="66"/>
-      <c r="G303" s="66"/>
-      <c r="H303" s="66"/>
-      <c r="I303" s="66"/>
+      <c r="A303" s="68"/>
+      <c r="B303" s="68"/>
+      <c r="C303" s="68"/>
+      <c r="D303" s="68"/>
+      <c r="E303" s="68"/>
+      <c r="F303" s="68"/>
+      <c r="G303" s="68"/>
+      <c r="H303" s="68"/>
+      <c r="I303" s="68"/>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="66"/>
-      <c r="B304" s="66"/>
-      <c r="C304" s="66"/>
-      <c r="D304" s="66"/>
-      <c r="E304" s="66"/>
-      <c r="F304" s="66"/>
-      <c r="G304" s="66"/>
-      <c r="H304" s="66"/>
-      <c r="I304" s="66"/>
+      <c r="A304" s="68"/>
+      <c r="B304" s="68"/>
+      <c r="C304" s="68"/>
+      <c r="D304" s="68"/>
+      <c r="E304" s="68"/>
+      <c r="F304" s="68"/>
+      <c r="G304" s="68"/>
+      <c r="H304" s="68"/>
+      <c r="I304" s="68"/>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="66"/>
-      <c r="B305" s="66"/>
-      <c r="C305" s="66"/>
-      <c r="D305" s="66"/>
-      <c r="E305" s="66"/>
-      <c r="F305" s="66"/>
-      <c r="G305" s="66"/>
-      <c r="H305" s="66"/>
-      <c r="I305" s="66"/>
+      <c r="A305" s="68"/>
+      <c r="B305" s="68"/>
+      <c r="C305" s="68"/>
+      <c r="D305" s="68"/>
+      <c r="E305" s="68"/>
+      <c r="F305" s="68"/>
+      <c r="G305" s="68"/>
+      <c r="H305" s="68"/>
+      <c r="I305" s="68"/>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="66"/>
-      <c r="B306" s="66"/>
-      <c r="C306" s="66"/>
-      <c r="D306" s="66"/>
-      <c r="E306" s="66"/>
-      <c r="F306" s="66"/>
-      <c r="G306" s="66"/>
-      <c r="H306" s="66"/>
-      <c r="I306" s="66"/>
+      <c r="A306" s="68"/>
+      <c r="B306" s="68"/>
+      <c r="C306" s="68"/>
+      <c r="D306" s="68"/>
+      <c r="E306" s="68"/>
+      <c r="F306" s="68"/>
+      <c r="G306" s="68"/>
+      <c r="H306" s="68"/>
+      <c r="I306" s="68"/>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="66"/>
-      <c r="B307" s="66"/>
-      <c r="C307" s="66"/>
-      <c r="D307" s="66"/>
-      <c r="E307" s="66"/>
-      <c r="F307" s="66"/>
-      <c r="G307" s="66"/>
-      <c r="H307" s="66"/>
-      <c r="I307" s="66"/>
+      <c r="A307" s="68"/>
+      <c r="B307" s="68"/>
+      <c r="C307" s="68"/>
+      <c r="D307" s="68"/>
+      <c r="E307" s="68"/>
+      <c r="F307" s="68"/>
+      <c r="G307" s="68"/>
+      <c r="H307" s="68"/>
+      <c r="I307" s="68"/>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="66"/>
-      <c r="B308" s="66"/>
-      <c r="C308" s="66"/>
-      <c r="D308" s="66"/>
-      <c r="E308" s="66"/>
-      <c r="F308" s="66"/>
-      <c r="G308" s="66"/>
-      <c r="H308" s="66"/>
-      <c r="I308" s="66"/>
+      <c r="A308" s="68"/>
+      <c r="B308" s="68"/>
+      <c r="C308" s="68"/>
+      <c r="D308" s="68"/>
+      <c r="E308" s="68"/>
+      <c r="F308" s="68"/>
+      <c r="G308" s="68"/>
+      <c r="H308" s="68"/>
+      <c r="I308" s="68"/>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="66"/>
-      <c r="B309" s="66"/>
-      <c r="C309" s="66"/>
-      <c r="D309" s="66"/>
-      <c r="E309" s="66"/>
-      <c r="F309" s="66"/>
-      <c r="G309" s="66"/>
-      <c r="H309" s="66"/>
-      <c r="I309" s="66"/>
+      <c r="A309" s="68"/>
+      <c r="B309" s="68"/>
+      <c r="C309" s="68"/>
+      <c r="D309" s="68"/>
+      <c r="E309" s="68"/>
+      <c r="F309" s="68"/>
+      <c r="G309" s="68"/>
+      <c r="H309" s="68"/>
+      <c r="I309" s="68"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="382">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -1115,6 +1115,9 @@
     <t xml:space="preserve">Tiempo entre recirculado y recirculado</t>
   </si>
   <si>
+    <t xml:space="preserve">in seconds?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Intervalo recirculado ciclico (27)</t>
   </si>
   <si>
@@ -1219,7 +1222,7 @@
     <t xml:space="preserve">Tiempo maximo de bomba encendida para el botón manual</t>
   </si>
   <si>
-    <t xml:space="preserve">que bomba es esta,
+    <t xml:space="preserve">What pupm is this
 Recircular??</t>
   </si>
   <si>
@@ -1791,7 +1794,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2138,6 +2141,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2379,8 +2386,8 @@
   </sheetPr>
   <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C157" activeCellId="0" sqref="C157"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F121" activeCellId="0" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5155,23 +5162,25 @@
       <c r="E121" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="F121" s="68"/>
+      <c r="F121" s="87" t="s">
+        <v>303</v>
+      </c>
       <c r="G121" s="68"/>
       <c r="H121" s="68"/>
       <c r="I121" s="68"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="75" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B122" s="76" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E122" s="74" t="s">
         <v>282</v>
@@ -5183,22 +5192,22 @@
     </row>
     <row r="123" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E123" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="F123" s="87" t="s">
-        <v>311</v>
+      <c r="F123" s="88" t="s">
+        <v>312</v>
       </c>
       <c r="G123" s="68"/>
       <c r="H123" s="68"/>
@@ -5206,16 +5215,16 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E124" s="74" t="s">
         <v>282</v>
@@ -5227,16 +5236,16 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E125" s="74" t="s">
         <v>282</v>
@@ -5248,19 +5257,19 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B126" s="76" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E126" s="74" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F126" s="68"/>
       <c r="G126" s="68"/>
@@ -5269,19 +5278,19 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="75" t="s">
+        <v>326</v>
+      </c>
+      <c r="B127" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E127" s="74" t="s">
         <v>325</v>
-      </c>
-      <c r="B127" s="76" t="s">
-        <v>326</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E127" s="74" t="s">
-        <v>324</v>
       </c>
       <c r="F127" s="68"/>
       <c r="G127" s="68"/>
@@ -5290,19 +5299,19 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="75" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B128" s="76" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E128" s="74" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F128" s="68"/>
       <c r="G128" s="68"/>
@@ -5310,23 +5319,23 @@
       <c r="I128" s="68"/>
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="88" t="s">
-        <v>333</v>
+      <c r="A129" s="89" t="s">
+        <v>334</v>
       </c>
       <c r="B129" s="76" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E129" s="74" t="s">
-        <v>324</v>
-      </c>
-      <c r="F129" s="87" t="s">
-        <v>337</v>
+        <v>325</v>
+      </c>
+      <c r="F129" s="88" t="s">
+        <v>338</v>
       </c>
       <c r="G129" s="68"/>
       <c r="H129" s="68"/>
@@ -5334,19 +5343,19 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="75" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B130" s="76" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E130" s="74" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F130" s="68"/>
       <c r="G130" s="68"/>
@@ -5355,14 +5364,14 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="75" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B131" s="76" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E131" s="74"/>
       <c r="F131" s="68"/>
@@ -5371,11 +5380,11 @@
       <c r="I131" s="68"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="89" t="s">
-        <v>345</v>
-      </c>
-      <c r="B132" s="90" t="s">
+      <c r="A132" s="90" t="s">
         <v>346</v>
+      </c>
+      <c r="B132" s="91" t="s">
+        <v>347</v>
       </c>
       <c r="C132" s="68"/>
       <c r="D132" s="68"/>
@@ -5386,11 +5395,11 @@
       <c r="I132" s="68"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="89" t="s">
-        <v>347</v>
-      </c>
-      <c r="B133" s="90" t="s">
+      <c r="A133" s="90" t="s">
         <v>348</v>
+      </c>
+      <c r="B133" s="91" t="s">
+        <v>349</v>
       </c>
       <c r="C133" s="68"/>
       <c r="D133" s="68"/>
@@ -5401,11 +5410,11 @@
       <c r="I133" s="68"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="B134" s="90" t="s">
+      <c r="A134" s="90" t="s">
         <v>350</v>
+      </c>
+      <c r="B134" s="91" t="s">
+        <v>351</v>
       </c>
       <c r="C134" s="68"/>
       <c r="D134" s="68"/>
@@ -5416,11 +5425,11 @@
       <c r="I134" s="68"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="B135" s="90" t="s">
+      <c r="A135" s="90" t="s">
         <v>352</v>
+      </c>
+      <c r="B135" s="91" t="s">
+        <v>353</v>
       </c>
       <c r="C135" s="68"/>
       <c r="D135" s="68"/>
@@ -5431,11 +5440,11 @@
       <c r="I135" s="68"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="89" t="s">
-        <v>353</v>
-      </c>
-      <c r="B136" s="90" t="s">
+      <c r="A136" s="90" t="s">
         <v>354</v>
+      </c>
+      <c r="B136" s="91" t="s">
+        <v>355</v>
       </c>
       <c r="C136" s="68"/>
       <c r="D136" s="68"/>
@@ -5446,11 +5455,11 @@
       <c r="I136" s="68"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="89" t="s">
-        <v>355</v>
-      </c>
-      <c r="B137" s="90" t="s">
+      <c r="A137" s="90" t="s">
         <v>356</v>
+      </c>
+      <c r="B137" s="91" t="s">
+        <v>357</v>
       </c>
       <c r="C137" s="68"/>
       <c r="D137" s="68"/>
@@ -5514,8 +5523,8 @@
     </row>
     <row r="143" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="68"/>
-      <c r="B143" s="91" t="s">
-        <v>357</v>
+      <c r="B143" s="92" t="s">
+        <v>358</v>
       </c>
       <c r="C143" s="68"/>
       <c r="D143" s="68"/>
@@ -5526,15 +5535,15 @@
       <c r="I143" s="68"/>
     </row>
     <row r="144" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="92"/>
-      <c r="B144" s="93" t="s">
-        <v>358</v>
-      </c>
-      <c r="C144" s="93" t="s">
+      <c r="A144" s="93"/>
+      <c r="B144" s="94" t="s">
         <v>359</v>
       </c>
-      <c r="D144" s="94" t="s">
+      <c r="C144" s="94" t="s">
         <v>360</v>
+      </c>
+      <c r="D144" s="95" t="s">
+        <v>361</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>7</v>
@@ -5547,7 +5556,7 @@
       <c r="I144" s="68"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="95"/>
+      <c r="A145" s="96"/>
       <c r="B145" s="68"/>
       <c r="C145" s="68"/>
       <c r="D145" s="68"/>
@@ -5558,68 +5567,68 @@
       <c r="I145" s="68"/>
     </row>
     <row r="146" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="96" t="s">
-        <v>361</v>
-      </c>
-      <c r="B146" s="97" t="s">
+      <c r="A146" s="97" t="s">
         <v>362</v>
       </c>
-      <c r="C146" s="98" t="s">
+      <c r="B146" s="98" t="s">
         <v>363</v>
       </c>
-      <c r="D146" s="99" t="s">
+      <c r="C146" s="99" t="s">
         <v>364</v>
       </c>
-      <c r="E146" s="100" t="s">
+      <c r="D146" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="F146" s="101" t="s">
+      <c r="E146" s="101" t="s">
         <v>366</v>
+      </c>
+      <c r="F146" s="102" t="s">
+        <v>367</v>
       </c>
       <c r="G146" s="68"/>
       <c r="H146" s="68"/>
       <c r="I146" s="68"/>
     </row>
     <row r="147" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="96"/>
-      <c r="B147" s="102" t="s">
-        <v>367</v>
-      </c>
-      <c r="C147" s="103" t="s">
+      <c r="A147" s="97"/>
+      <c r="B147" s="103" t="s">
         <v>368</v>
       </c>
-      <c r="D147" s="104" t="s">
+      <c r="C147" s="104" t="s">
         <v>369</v>
       </c>
-      <c r="E147" s="105" t="s">
+      <c r="D147" s="105" t="s">
         <v>370</v>
       </c>
-      <c r="F147" s="101" t="s">
+      <c r="E147" s="106" t="s">
         <v>371</v>
+      </c>
+      <c r="F147" s="102" t="s">
+        <v>372</v>
       </c>
       <c r="G147" s="68"/>
       <c r="H147" s="68"/>
       <c r="I147" s="68"/>
     </row>
     <row r="148" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="96"/>
-      <c r="B148" s="106" t="s">
-        <v>372</v>
-      </c>
-      <c r="C148" s="107" t="s">
+      <c r="A148" s="97"/>
+      <c r="B148" s="107" t="s">
         <v>373</v>
       </c>
-      <c r="D148" s="108" t="s">
+      <c r="C148" s="108" t="s">
         <v>374</v>
       </c>
-      <c r="E148" s="109" t="s">
+      <c r="D148" s="109" t="s">
+        <v>375</v>
+      </c>
+      <c r="E148" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="F148" s="110" t="s">
+      <c r="F148" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="87" t="s">
-        <v>375</v>
+      <c r="G148" s="88" t="s">
+        <v>376</v>
       </c>
       <c r="H148" s="68"/>
       <c r="I148" s="68"/>
@@ -5628,20 +5637,20 @@
       <c r="L148" s="68"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="96"/>
-      <c r="B149" s="111" t="s">
-        <v>376</v>
-      </c>
-      <c r="C149" s="107" t="s">
-        <v>373</v>
-      </c>
-      <c r="D149" s="108" t="s">
+      <c r="A149" s="97"/>
+      <c r="B149" s="112" t="s">
         <v>377</v>
       </c>
-      <c r="E149" s="109" t="s">
+      <c r="C149" s="108" t="s">
+        <v>374</v>
+      </c>
+      <c r="D149" s="109" t="s">
+        <v>378</v>
+      </c>
+      <c r="E149" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="F149" s="110" t="s">
+      <c r="F149" s="111" t="s">
         <v>12</v>
       </c>
       <c r="G149" s="68"/>
@@ -5652,20 +5661,20 @@
       <c r="L149" s="68"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="96"/>
-      <c r="B150" s="112" t="s">
-        <v>306</v>
-      </c>
-      <c r="C150" s="113" t="s">
-        <v>373</v>
-      </c>
-      <c r="D150" s="114" t="s">
-        <v>378</v>
-      </c>
-      <c r="E150" s="115" t="s">
+      <c r="A150" s="97"/>
+      <c r="B150" s="113" t="s">
+        <v>307</v>
+      </c>
+      <c r="C150" s="114" t="s">
+        <v>374</v>
+      </c>
+      <c r="D150" s="115" t="s">
+        <v>379</v>
+      </c>
+      <c r="E150" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="116" t="s">
+      <c r="F150" s="117" t="s">
         <v>12</v>
       </c>
       <c r="G150" s="68"/>
@@ -5718,11 +5727,11 @@
       <c r="L153" s="68"/>
     </row>
     <row r="154" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="117" t="s">
-        <v>379</v>
-      </c>
-      <c r="B154" s="87" t="s">
+      <c r="A154" s="118" t="s">
         <v>380</v>
+      </c>
+      <c r="B154" s="88" t="s">
+        <v>381</v>
       </c>
       <c r="C154" s="68"/>
       <c r="D154" s="68"/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -36,6 +36,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">These goes to the HMI, will add the sensor reading to be displayed here, which are the values from IOLink data</t>
         </r>
@@ -195,6 +196,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Manifold
 </t>
@@ -206,6 +208,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(apply in control)</t>
     </r>
@@ -301,6 +304,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta llena entre el 100 y 80 </t>
     </r>
@@ -311,6 +315,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Lleno</t>
     </r>
@@ -320,6 +325,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -334,6 +340,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta entre el 79 y 50 (</t>
     </r>
@@ -344,6 +351,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Medio-alto</t>
     </r>
@@ -353,6 +361,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -367,6 +376,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta entre el 49 y 30 (</t>
     </r>
@@ -377,6 +387,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Medio</t>
     </r>
@@ -386,6 +397,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -400,6 +412,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta entre el 20 y 10 (</t>
     </r>
@@ -410,6 +423,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Prevacio</t>
     </r>
@@ -419,6 +433,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -433,6 +448,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta entre el 5 hacia abajo (2cm) (</t>
     </r>
@@ -443,6 +459,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Vacio</t>
     </r>
@@ -452,6 +469,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -1370,6 +1388,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">How to know this condition??
 </t>
@@ -1381,6 +1400,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Se quiere activar
 el recirculado?</t>
@@ -1401,6 +1421,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1422,6 +1443,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1429,12 +1451,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF1C1C1C"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1442,6 +1466,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1449,12 +1474,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1462,6 +1489,7 @@
       <color rgb="FFC9211E"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1469,11 +1497,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2360,7 +2390,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
@@ -2386,8 +2416,8 @@
   </sheetPr>
   <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F121" activeCellId="0" sqref="F121"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D139" activeCellId="0" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2395,12 +2425,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="24.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="11.43"/>
   </cols>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="383">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -1376,6 +1376,9 @@
     <t xml:space="preserve">tiempo en segundos</t>
   </si>
   <si>
+    <t xml:space="preserve">why are these NA if need to know the values?</t>
+  </si>
+  <si>
     <t xml:space="preserve">0=Modo ciclico apagdo (tiempo en minutos)</t>
   </si>
   <si>
@@ -1415,7 +1418,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot; $&quot;* #,##0.00\ ;&quot;-$&quot;* #,##0.00\ ;&quot; $&quot;* \-#\ ;\ @\ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1490,6 +1493,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1824,7 +1833,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2277,6 +2286,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2297,7 +2310,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2387,7 +2404,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G153:G154 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2416,8 +2433,8 @@
   </sheetPr>
   <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D139" activeCellId="0" sqref="D139"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G153" activeCellId="0" sqref="G153:G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5666,7 +5683,7 @@
       <c r="K148" s="68"/>
       <c r="L148" s="68"/>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="97"/>
       <c r="B149" s="112" t="s">
         <v>377</v>
@@ -5683,7 +5700,9 @@
       <c r="F149" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="68"/>
+      <c r="G149" s="113" t="s">
+        <v>379</v>
+      </c>
       <c r="H149" s="68"/>
       <c r="I149" s="68"/>
       <c r="J149" s="68"/>
@@ -5692,19 +5711,19 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="97"/>
-      <c r="B150" s="113" t="s">
+      <c r="B150" s="114" t="s">
         <v>307</v>
       </c>
-      <c r="C150" s="114" t="s">
+      <c r="C150" s="115" t="s">
         <v>374</v>
       </c>
-      <c r="D150" s="115" t="s">
-        <v>379</v>
-      </c>
-      <c r="E150" s="116" t="s">
+      <c r="D150" s="116" t="s">
+        <v>380</v>
+      </c>
+      <c r="E150" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="117" t="s">
+      <c r="F150" s="118" t="s">
         <v>12</v>
       </c>
       <c r="G150" s="68"/>
@@ -5722,7 +5741,7 @@
       <c r="E151" s="68"/>
       <c r="F151" s="68"/>
       <c r="G151" s="68"/>
-      <c r="H151" s="68"/>
+      <c r="H151" s="119"/>
       <c r="I151" s="68"/>
       <c r="J151" s="68"/>
       <c r="K151" s="68"/>
@@ -5757,11 +5776,11 @@
       <c r="L153" s="68"/>
     </row>
     <row r="154" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="118" t="s">
-        <v>380</v>
+      <c r="A154" s="120" t="s">
+        <v>381</v>
       </c>
       <c r="B154" s="88" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C154" s="68"/>
       <c r="D154" s="68"/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="384">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -1353,7 +1353,27 @@
     <t xml:space="preserve">MB-01023 A MB-01027</t>
   </si>
   <si>
-    <t xml:space="preserve">Selección de tiempo de duración de recirculado manual o de modo ciclico</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Selección de tiempo de duración de recirculado manual </t>
+    </r>
+    <r>
+      <rPr>
+        <strike val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">o de modo ciclico</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Entero</t>
@@ -1377,6 +1397,9 @@
   </si>
   <si>
     <t xml:space="preserve">why are these NA if need to know the values?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervalo entre recirculado manual y recirculado ciclico</t>
   </si>
   <si>
     <t xml:space="preserve">0=Modo ciclico apagdo (tiempo en minutos)</t>
@@ -1418,7 +1441,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot; $&quot;* #,##0.00\ ;&quot;-$&quot;* #,##0.00\ ;&quot; $&quot;* \-#\ ;\ @\ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1490,6 +1513,14 @@
       <b val="true"/>
       <sz val="14"/>
       <color rgb="FFC9211E"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -2286,7 +2317,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2310,11 +2341,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2404,7 +2435,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G153:G154 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2434,7 +2465,7 @@
   <dimension ref="A1:L309"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G153" activeCellId="0" sqref="G153:G154"/>
+      <selection pane="topLeft" activeCell="E154" activeCellId="0" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5657,7 +5688,7 @@
       <c r="H147" s="68"/>
       <c r="I147" s="68"/>
     </row>
-    <row r="148" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="97"/>
       <c r="B148" s="107" t="s">
         <v>373</v>
@@ -5712,13 +5743,13 @@
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="97"/>
       <c r="B150" s="114" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="C150" s="115" t="s">
         <v>374</v>
       </c>
       <c r="D150" s="116" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E150" s="117" t="s">
         <v>12</v>
@@ -5777,10 +5808,10 @@
     </row>
     <row r="154" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="120" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B154" s="88" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C154" s="68"/>
       <c r="D154" s="68"/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="386">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -1268,7 +1268,8 @@
     <t xml:space="preserve">sensor_material_pressure </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0022 – HR-40034</t>
+    <t xml:space="preserve">HEX --------DEC
+HR-0022 – HR-40034</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_material_temperature </t>
@@ -1299,6 +1300,12 @@
   </si>
   <si>
     <t xml:space="preserve">HR-0027 – HR-40039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor_manual_recycle_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH-0028 – HR-40040</t>
   </si>
   <si>
     <t xml:space="preserve">These are HMI registers</t>
@@ -1441,7 +1448,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot; $&quot;* #,##0.00\ ;&quot;-$&quot;* #,##0.00\ ;&quot; $&quot;* \-#\ ;\ @\ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1524,12 +1531,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1864,7 +1865,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="119">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2230,7 +2231,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2317,10 +2318,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2341,11 +2338,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2438,7 +2431,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
@@ -2464,8 +2457,8 @@
   </sheetPr>
   <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E154" activeCellId="0" sqref="E154"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A122" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B138" activeCellId="0" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5457,7 +5450,7 @@
       <c r="H131" s="68"/>
       <c r="I131" s="68"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="90" t="s">
         <v>346</v>
       </c>
@@ -5548,7 +5541,12 @@
       <c r="I137" s="68"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="68"/>
+      <c r="A138" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B138" s="68" t="s">
+        <v>359</v>
+      </c>
       <c r="C138" s="68"/>
       <c r="D138" s="68"/>
       <c r="E138" s="68"/>
@@ -5602,7 +5600,7 @@
     <row r="143" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="68"/>
       <c r="B143" s="92" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C143" s="68"/>
       <c r="D143" s="68"/>
@@ -5615,13 +5613,13 @@
     <row r="144" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="93"/>
       <c r="B144" s="94" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C144" s="94" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D144" s="95" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>7</v>
@@ -5646,22 +5644,22 @@
     </row>
     <row r="146" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="97" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B146" s="98" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C146" s="99" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D146" s="100" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E146" s="101" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F146" s="102" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G146" s="68"/>
       <c r="H146" s="68"/>
@@ -5670,19 +5668,19 @@
     <row r="147" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="97"/>
       <c r="B147" s="103" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C147" s="104" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D147" s="105" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E147" s="106" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F147" s="102" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G147" s="68"/>
       <c r="H147" s="68"/>
@@ -5691,13 +5689,13 @@
     <row r="148" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="97"/>
       <c r="B148" s="107" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C148" s="108" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D148" s="109" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E148" s="110" t="s">
         <v>12</v>
@@ -5706,7 +5704,7 @@
         <v>12</v>
       </c>
       <c r="G148" s="88" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H148" s="68"/>
       <c r="I148" s="68"/>
@@ -5717,13 +5715,13 @@
     <row r="149" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="97"/>
       <c r="B149" s="112" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C149" s="108" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D149" s="109" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E149" s="110" t="s">
         <v>12</v>
@@ -5731,8 +5729,8 @@
       <c r="F149" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="113" t="s">
-        <v>379</v>
+      <c r="G149" s="88" t="s">
+        <v>381</v>
       </c>
       <c r="H149" s="68"/>
       <c r="I149" s="68"/>
@@ -5742,19 +5740,19 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="97"/>
-      <c r="B150" s="114" t="s">
-        <v>380</v>
-      </c>
-      <c r="C150" s="115" t="s">
-        <v>374</v>
-      </c>
-      <c r="D150" s="116" t="s">
-        <v>381</v>
-      </c>
-      <c r="E150" s="117" t="s">
+      <c r="B150" s="113" t="s">
+        <v>382</v>
+      </c>
+      <c r="C150" s="114" t="s">
+        <v>376</v>
+      </c>
+      <c r="D150" s="115" t="s">
+        <v>383</v>
+      </c>
+      <c r="E150" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="118" t="s">
+      <c r="F150" s="117" t="s">
         <v>12</v>
       </c>
       <c r="G150" s="68"/>
@@ -5772,7 +5770,7 @@
       <c r="E151" s="68"/>
       <c r="F151" s="68"/>
       <c r="G151" s="68"/>
-      <c r="H151" s="119"/>
+      <c r="H151" s="68"/>
       <c r="I151" s="68"/>
       <c r="J151" s="68"/>
       <c r="K151" s="68"/>
@@ -5807,11 +5805,11 @@
       <c r="L153" s="68"/>
     </row>
     <row r="154" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="120" t="s">
-        <v>382</v>
+      <c r="A154" s="118" t="s">
+        <v>384</v>
       </c>
       <c r="B154" s="88" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C154" s="68"/>
       <c r="D154" s="68"/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -29,7 +29,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="B132" authorId="0">
+    <comment ref="B133" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="389">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -1265,47 +1265,57 @@
     <t xml:space="preserve">seleccio de tamaño de cubeta (1, 2, 3)</t>
   </si>
   <si>
+    <t xml:space="preserve">bares de presion limite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR-0022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor_manual_recycle_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEX --------DEC
+HR-0023 – HR-40035</t>
+  </si>
+  <si>
     <t xml:space="preserve">sensor_material_pressure </t>
   </si>
   <si>
-    <t xml:space="preserve">HEX --------DEC
-HR-0022 – HR-40034</t>
+    <t xml:space="preserve">
+HR-0024 – HR-40036</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_material_temperature </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0023 – HR-40035</t>
+    <t xml:space="preserve">HR-0025 – HR-40037</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_laser_distance </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0024 -HR-40036</t>
+    <t xml:space="preserve">HR-0026 -HR-40038</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_pressure_regulator_read_set </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0025 – HR-40037</t>
+    <t xml:space="preserve">HR-0027 – HR-40039</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_pressure_regulator_read_real </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0026 – HR-40038</t>
+    <t xml:space="preserve">HR-0028 – HR-40040</t>
   </si>
   <si>
     <t xml:space="preserve">sensor_pressure_regulator_valve_read_state </t>
   </si>
   <si>
-    <t xml:space="preserve">HR-0027 – HR-40039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensor_manual_recycle_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HH-0028 – HR-40040</t>
+    <t xml:space="preserve">HR-0029 – HR-40041</t>
   </si>
   <si>
     <t xml:space="preserve">These are HMI registers</t>
@@ -1448,7 +1458,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot; $&quot;* #,##0.00\ ;&quot;-$&quot;* #,##0.00\ ;&quot; $&quot;* \-#\ ;\ @\ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1508,6 +1518,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF1E6A39"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1865,7 +1889,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2226,7 +2250,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2234,7 +2262,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2338,7 +2370,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2364,7 +2396,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF1E6A39"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -2455,10 +2487,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L309"/>
+  <dimension ref="A1:L311"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A122" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B138" activeCellId="0" sqref="B138"/>
+      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5450,42 +5482,44 @@
       <c r="H131" s="68"/>
       <c r="I131" s="68"/>
     </row>
-    <row r="132" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="90" t="s">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="B132" s="91" t="s">
+      <c r="B132" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="C132" s="68"/>
-      <c r="D132" s="68"/>
-      <c r="E132" s="68"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="90" t="s">
+        <v>348</v>
+      </c>
       <c r="F132" s="68"/>
       <c r="G132" s="68"/>
       <c r="H132" s="68"/>
       <c r="I132" s="68"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="90" t="s">
-        <v>348</v>
-      </c>
-      <c r="B133" s="91" t="s">
+    <row r="133" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="91" t="s">
         <v>349</v>
       </c>
-      <c r="C133" s="68"/>
-      <c r="D133" s="68"/>
-      <c r="E133" s="68"/>
+      <c r="B133" s="92" t="s">
+        <v>350</v>
+      </c>
+      <c r="C133" s="18"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="74"/>
       <c r="F133" s="68"/>
       <c r="G133" s="68"/>
       <c r="H133" s="68"/>
       <c r="I133" s="68"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="90" t="s">
-        <v>350</v>
-      </c>
-      <c r="B134" s="91" t="s">
+    <row r="134" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="93" t="s">
         <v>351</v>
+      </c>
+      <c r="B134" s="92" t="s">
+        <v>352</v>
       </c>
       <c r="C134" s="68"/>
       <c r="D134" s="68"/>
@@ -5496,11 +5530,11 @@
       <c r="I134" s="68"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="90" t="s">
-        <v>352</v>
-      </c>
-      <c r="B135" s="91" t="s">
+      <c r="A135" s="93" t="s">
         <v>353</v>
+      </c>
+      <c r="B135" s="92" t="s">
+        <v>354</v>
       </c>
       <c r="C135" s="68"/>
       <c r="D135" s="68"/>
@@ -5511,11 +5545,11 @@
       <c r="I135" s="68"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="90" t="s">
-        <v>354</v>
-      </c>
-      <c r="B136" s="91" t="s">
+      <c r="A136" s="93" t="s">
         <v>355</v>
+      </c>
+      <c r="B136" s="92" t="s">
+        <v>356</v>
       </c>
       <c r="C136" s="68"/>
       <c r="D136" s="68"/>
@@ -5526,11 +5560,11 @@
       <c r="I136" s="68"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="90" t="s">
-        <v>356</v>
-      </c>
-      <c r="B137" s="91" t="s">
+      <c r="A137" s="93" t="s">
         <v>357</v>
+      </c>
+      <c r="B137" s="92" t="s">
+        <v>358</v>
       </c>
       <c r="C137" s="68"/>
       <c r="D137" s="68"/>
@@ -5541,11 +5575,11 @@
       <c r="I137" s="68"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B138" s="68" t="s">
+      <c r="A138" s="93" t="s">
         <v>359</v>
+      </c>
+      <c r="B138" s="92" t="s">
+        <v>360</v>
       </c>
       <c r="C138" s="68"/>
       <c r="D138" s="68"/>
@@ -5556,7 +5590,12 @@
       <c r="I138" s="68"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="68"/>
+      <c r="A139" s="93" t="s">
+        <v>361</v>
+      </c>
+      <c r="B139" s="92" t="s">
+        <v>362</v>
+      </c>
       <c r="C139" s="68"/>
       <c r="D139" s="68"/>
       <c r="E139" s="68"/>
@@ -5576,7 +5615,6 @@
       <c r="I140" s="68"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="68"/>
       <c r="B141" s="68"/>
       <c r="C141" s="68"/>
       <c r="D141" s="68"/>
@@ -5587,7 +5625,6 @@
       <c r="I141" s="68"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="68"/>
       <c r="B142" s="68"/>
       <c r="C142" s="68"/>
       <c r="D142" s="68"/>
@@ -5597,11 +5634,9 @@
       <c r="H142" s="68"/>
       <c r="I142" s="68"/>
     </row>
-    <row r="143" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="68"/>
-      <c r="B143" s="92" t="s">
-        <v>360</v>
-      </c>
+      <c r="B143" s="68"/>
       <c r="C143" s="68"/>
       <c r="D143" s="68"/>
       <c r="E143" s="68"/>
@@ -5610,30 +5645,22 @@
       <c r="H143" s="68"/>
       <c r="I143" s="68"/>
     </row>
-    <row r="144" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="93"/>
-      <c r="B144" s="94" t="s">
-        <v>361</v>
-      </c>
-      <c r="C144" s="94" t="s">
-        <v>362</v>
-      </c>
-      <c r="D144" s="95" t="s">
-        <v>363</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F144" s="30" t="s">
-        <v>8</v>
-      </c>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="68"/>
+      <c r="B144" s="68"/>
+      <c r="C144" s="68"/>
+      <c r="D144" s="68"/>
+      <c r="E144" s="68"/>
+      <c r="F144" s="68"/>
       <c r="G144" s="68"/>
       <c r="H144" s="68"/>
       <c r="I144" s="68"/>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="96"/>
-      <c r="B145" s="68"/>
+    <row r="145" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="68"/>
+      <c r="B145" s="94" t="s">
+        <v>363</v>
+      </c>
       <c r="C145" s="68"/>
       <c r="D145" s="68"/>
       <c r="E145" s="68"/>
@@ -5642,134 +5669,128 @@
       <c r="H145" s="68"/>
       <c r="I145" s="68"/>
     </row>
-    <row r="146" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="97" t="s">
+    <row r="146" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="95"/>
+      <c r="B146" s="96" t="s">
         <v>364</v>
       </c>
-      <c r="B146" s="98" t="s">
+      <c r="C146" s="96" t="s">
         <v>365</v>
       </c>
-      <c r="C146" s="99" t="s">
+      <c r="D146" s="97" t="s">
         <v>366</v>
       </c>
-      <c r="D146" s="100" t="s">
-        <v>367</v>
-      </c>
-      <c r="E146" s="101" t="s">
-        <v>368</v>
-      </c>
-      <c r="F146" s="102" t="s">
-        <v>369</v>
+      <c r="E146" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="G146" s="68"/>
       <c r="H146" s="68"/>
       <c r="I146" s="68"/>
     </row>
-    <row r="147" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="97"/>
-      <c r="B147" s="103" t="s">
-        <v>370</v>
-      </c>
-      <c r="C147" s="104" t="s">
-        <v>371</v>
-      </c>
-      <c r="D147" s="105" t="s">
-        <v>372</v>
-      </c>
-      <c r="E147" s="106" t="s">
-        <v>373</v>
-      </c>
-      <c r="F147" s="102" t="s">
-        <v>374</v>
-      </c>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="98"/>
+      <c r="B147" s="68"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="68"/>
+      <c r="F147" s="68"/>
       <c r="G147" s="68"/>
       <c r="H147" s="68"/>
       <c r="I147" s="68"/>
     </row>
-    <row r="148" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="97"/>
-      <c r="B148" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="C148" s="108" t="s">
-        <v>376</v>
-      </c>
-      <c r="D148" s="109" t="s">
-        <v>377</v>
-      </c>
-      <c r="E148" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="F148" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" s="88" t="s">
-        <v>378</v>
-      </c>
+    <row r="148" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="99" t="s">
+        <v>367</v>
+      </c>
+      <c r="B148" s="100" t="s">
+        <v>368</v>
+      </c>
+      <c r="C148" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D148" s="102" t="s">
+        <v>370</v>
+      </c>
+      <c r="E148" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="F148" s="104" t="s">
+        <v>372</v>
+      </c>
+      <c r="G148" s="68"/>
       <c r="H148" s="68"/>
       <c r="I148" s="68"/>
-      <c r="J148" s="68"/>
-      <c r="K148" s="68"/>
-      <c r="L148" s="68"/>
-    </row>
-    <row r="149" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="97"/>
-      <c r="B149" s="112" t="s">
-        <v>379</v>
-      </c>
-      <c r="C149" s="108" t="s">
+    </row>
+    <row r="149" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="99"/>
+      <c r="B149" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="C149" s="106" t="s">
+        <v>374</v>
+      </c>
+      <c r="D149" s="107" t="s">
+        <v>375</v>
+      </c>
+      <c r="E149" s="108" t="s">
         <v>376</v>
       </c>
-      <c r="D149" s="109" t="s">
-        <v>380</v>
-      </c>
-      <c r="E149" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" s="88" t="s">
-        <v>381</v>
-      </c>
+      <c r="F149" s="104" t="s">
+        <v>377</v>
+      </c>
+      <c r="G149" s="68"/>
       <c r="H149" s="68"/>
       <c r="I149" s="68"/>
-      <c r="J149" s="68"/>
-      <c r="K149" s="68"/>
-      <c r="L149" s="68"/>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="97"/>
-      <c r="B150" s="113" t="s">
-        <v>382</v>
-      </c>
-      <c r="C150" s="114" t="s">
-        <v>376</v>
-      </c>
-      <c r="D150" s="115" t="s">
-        <v>383</v>
-      </c>
-      <c r="E150" s="116" t="s">
+    </row>
+    <row r="150" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="99"/>
+      <c r="B150" s="109" t="s">
+        <v>378</v>
+      </c>
+      <c r="C150" s="110" t="s">
+        <v>379</v>
+      </c>
+      <c r="D150" s="111" t="s">
+        <v>380</v>
+      </c>
+      <c r="E150" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="117" t="s">
+      <c r="F150" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="68"/>
+      <c r="G150" s="88" t="s">
+        <v>381</v>
+      </c>
       <c r="H150" s="68"/>
       <c r="I150" s="68"/>
       <c r="J150" s="68"/>
       <c r="K150" s="68"/>
       <c r="L150" s="68"/>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="68"/>
-      <c r="B151" s="68"/>
-      <c r="C151" s="68"/>
-      <c r="D151" s="68"/>
-      <c r="E151" s="68"/>
-      <c r="F151" s="68"/>
-      <c r="G151" s="68"/>
+    <row r="151" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="99"/>
+      <c r="B151" s="114" t="s">
+        <v>382</v>
+      </c>
+      <c r="C151" s="110" t="s">
+        <v>379</v>
+      </c>
+      <c r="D151" s="111" t="s">
+        <v>383</v>
+      </c>
+      <c r="E151" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="88" t="s">
+        <v>384</v>
+      </c>
       <c r="H151" s="68"/>
       <c r="I151" s="68"/>
       <c r="J151" s="68"/>
@@ -5777,12 +5798,22 @@
       <c r="L151" s="68"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="68"/>
-      <c r="B152" s="68"/>
-      <c r="C152" s="68"/>
-      <c r="D152" s="68"/>
-      <c r="E152" s="68"/>
-      <c r="F152" s="68"/>
+      <c r="A152" s="99"/>
+      <c r="B152" s="115" t="s">
+        <v>385</v>
+      </c>
+      <c r="C152" s="116" t="s">
+        <v>379</v>
+      </c>
+      <c r="D152" s="117" t="s">
+        <v>386</v>
+      </c>
+      <c r="E152" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" s="119" t="s">
+        <v>12</v>
+      </c>
       <c r="G152" s="68"/>
       <c r="H152" s="68"/>
       <c r="I152" s="68"/>
@@ -5804,13 +5835,9 @@
       <c r="K153" s="68"/>
       <c r="L153" s="68"/>
     </row>
-    <row r="154" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="118" t="s">
-        <v>384</v>
-      </c>
-      <c r="B154" s="88" t="s">
-        <v>385</v>
-      </c>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="68"/>
+      <c r="B154" s="68"/>
       <c r="C154" s="68"/>
       <c r="D154" s="68"/>
       <c r="E154" s="68"/>
@@ -5832,10 +5859,17 @@
       <c r="G155" s="68"/>
       <c r="H155" s="68"/>
       <c r="I155" s="68"/>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="68"/>
-      <c r="B156" s="68"/>
+      <c r="J155" s="68"/>
+      <c r="K155" s="68"/>
+      <c r="L155" s="68"/>
+    </row>
+    <row r="156" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="120" t="s">
+        <v>387</v>
+      </c>
+      <c r="B156" s="88" t="s">
+        <v>388</v>
+      </c>
       <c r="C156" s="68"/>
       <c r="D156" s="68"/>
       <c r="E156" s="68"/>
@@ -5843,6 +5877,9 @@
       <c r="G156" s="68"/>
       <c r="H156" s="68"/>
       <c r="I156" s="68"/>
+      <c r="J156" s="68"/>
+      <c r="K156" s="68"/>
+      <c r="L156" s="68"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="68"/>
@@ -7526,6 +7563,28 @@
       <c r="G309" s="68"/>
       <c r="H309" s="68"/>
       <c r="I309" s="68"/>
+    </row>
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="68"/>
+      <c r="B310" s="68"/>
+      <c r="C310" s="68"/>
+      <c r="D310" s="68"/>
+      <c r="E310" s="68"/>
+      <c r="F310" s="68"/>
+      <c r="G310" s="68"/>
+      <c r="H310" s="68"/>
+      <c r="I310" s="68"/>
+    </row>
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="68"/>
+      <c r="B311" s="68"/>
+      <c r="C311" s="68"/>
+      <c r="D311" s="68"/>
+      <c r="E311" s="68"/>
+      <c r="F311" s="68"/>
+      <c r="G311" s="68"/>
+      <c r="H311" s="68"/>
+      <c r="I311" s="68"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
@@ -7561,7 +7620,7 @@
     <mergeCell ref="F112:I112"/>
     <mergeCell ref="F114:J114"/>
     <mergeCell ref="F120:J120"/>
-    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A148:A152"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="390">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -329,6 +329,9 @@
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">need to know how to calculate the state distance based on the bucket size</t>
   </si>
   <si>
     <t xml:space="preserve">4 segmentos verdes y ultimo segmento girando en blanco</t>
@@ -1498,6 +1501,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF1C1C1C"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1526,12 +1535,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1598,6 +1601,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0093D9"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
@@ -1624,12 +1633,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF5CE"/>
         <bgColor rgb="FFFFFFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0093D9"/>
-        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -1889,7 +1892,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2046,6 +2049,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2066,39 +2073,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2134,15 +2141,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2150,7 +2157,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2166,15 +2173,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2190,22 +2197,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2214,19 +2221,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2238,23 +2245,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2290,39 +2297,39 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2370,7 +2377,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2463,7 +2470,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
@@ -2489,8 +2496,8 @@
   </sheetPr>
   <dimension ref="A1:L311"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A122" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2505,7 +2512,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="49.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3031,23 +3040,26 @@
       <c r="J20" s="22" t="s">
         <v>14</v>
       </c>
+      <c r="L20" s="39" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
       <c r="B21" s="35"/>
-      <c r="C21" s="39" t="n">
+      <c r="C21" s="40" t="n">
         <v>6061</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="39" t="n">
+      <c r="E21" s="40" t="n">
         <v>3628</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="38"/>
       <c r="I21" s="21" t="s">
         <v>14</v>
@@ -3059,19 +3071,19 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
       <c r="B22" s="35"/>
-      <c r="C22" s="39" t="n">
+      <c r="C22" s="40" t="n">
         <v>6062</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="39" t="n">
+      <c r="E22" s="40" t="n">
         <v>256</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="40"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="38"/>
       <c r="I22" s="21" t="s">
         <v>14</v>
@@ -3083,19 +3095,19 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="39" t="n">
+      <c r="C23" s="40" t="n">
         <v>6063</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="39" t="n">
+      <c r="E23" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="40"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="38"/>
       <c r="I23" s="21" t="s">
         <v>14</v>
@@ -3107,19 +3119,19 @@
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
       <c r="B24" s="35"/>
-      <c r="C24" s="39" t="n">
+      <c r="C24" s="40" t="n">
         <v>6064</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="39" t="n">
+      <c r="E24" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="40"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="38"/>
       <c r="I24" s="21" t="s">
         <v>14</v>
@@ -3131,19 +3143,19 @@
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
       <c r="B25" s="35"/>
-      <c r="C25" s="39" t="n">
+      <c r="C25" s="40" t="n">
         <v>6065</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="39" t="n">
+      <c r="E25" s="40" t="n">
         <v>256</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="40"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="38"/>
       <c r="I25" s="21" t="s">
         <v>14</v>
@@ -3155,19 +3167,19 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="39" t="n">
+      <c r="C26" s="40" t="n">
         <v>6066</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="39" t="n">
+      <c r="E26" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="40"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="38"/>
       <c r="I26" s="21" t="s">
         <v>14</v>
@@ -3179,19 +3191,19 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="41" t="n">
+      <c r="C27" s="42" t="n">
         <v>6067</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="41" t="n">
+      <c r="E27" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="42"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="38"/>
       <c r="I27" s="21" t="s">
         <v>14</v>
@@ -3202,24 +3214,24 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
-      <c r="B28" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="39" t="n">
+      <c r="B28" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="40" t="n">
         <v>6060</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="39" t="n">
+      <c r="E28" s="40" t="n">
         <v>16</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>14</v>
@@ -3230,20 +3242,20 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="39" t="n">
+      <c r="B29" s="44"/>
+      <c r="C29" s="40" t="n">
         <v>6061</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="39" t="n">
+      <c r="E29" s="40" t="n">
         <v>3328</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="40"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="38"/>
       <c r="I29" s="21" t="s">
         <v>14</v>
@@ -3254,20 +3266,20 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="39" t="n">
+      <c r="B30" s="44"/>
+      <c r="C30" s="40" t="n">
         <v>6062</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="39" t="n">
+      <c r="E30" s="40" t="n">
         <v>5645</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="40"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="38"/>
       <c r="I30" s="21" t="s">
         <v>14</v>
@@ -3278,20 +3290,20 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="39" t="n">
+      <c r="B31" s="44"/>
+      <c r="C31" s="40" t="n">
         <v>6063</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="39" t="n">
+      <c r="E31" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="40"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="38"/>
       <c r="I31" s="21" t="s">
         <v>14</v>
@@ -3302,20 +3314,20 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="39" t="n">
+      <c r="B32" s="44"/>
+      <c r="C32" s="40" t="n">
         <v>6064</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="39" t="n">
+      <c r="E32" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="40"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="38"/>
       <c r="I32" s="21" t="s">
         <v>14</v>
@@ -3326,20 +3338,20 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="39" t="n">
+      <c r="B33" s="44"/>
+      <c r="C33" s="40" t="n">
         <v>6065</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="39" t="n">
+      <c r="E33" s="40" t="n">
         <v>256</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="40"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="38"/>
       <c r="I33" s="21" t="s">
         <v>14</v>
@@ -3350,20 +3362,20 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="39" t="n">
+      <c r="B34" s="44"/>
+      <c r="C34" s="40" t="n">
         <v>6066</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="39" t="n">
+      <c r="E34" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="40"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="38"/>
       <c r="I34" s="21" t="s">
         <v>14</v>
@@ -3374,20 +3386,20 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="39" t="n">
+      <c r="B35" s="44"/>
+      <c r="C35" s="40" t="n">
         <v>6067</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="39" t="n">
+      <c r="E35" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="40"/>
+      <c r="G35" s="41"/>
       <c r="H35" s="38"/>
       <c r="I35" s="21" t="s">
         <v>14</v>
@@ -3398,24 +3410,24 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8"/>
-      <c r="B36" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="45" t="n">
+      <c r="B36" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="46" t="n">
         <v>6060</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="45" t="n">
+      <c r="E36" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="46"/>
-      <c r="H36" s="47" t="s">
-        <v>80</v>
+      <c r="G36" s="47"/>
+      <c r="H36" s="48" t="s">
+        <v>81</v>
       </c>
       <c r="I36" s="21" t="s">
         <v>14</v>
@@ -3426,21 +3438,21 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="48" t="n">
+      <c r="B37" s="45"/>
+      <c r="C37" s="49" t="n">
         <v>6061</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="48" t="n">
+      <c r="E37" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="49"/>
-      <c r="H37" s="47"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="48"/>
       <c r="I37" s="21" t="s">
         <v>14</v>
       </c>
@@ -3450,21 +3462,21 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="48" t="n">
+      <c r="B38" s="45"/>
+      <c r="C38" s="49" t="n">
         <v>6062</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="48" t="n">
+      <c r="E38" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="49"/>
-      <c r="H38" s="47"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="48"/>
       <c r="I38" s="21" t="s">
         <v>14</v>
       </c>
@@ -3474,21 +3486,21 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="48" t="n">
+      <c r="B39" s="45"/>
+      <c r="C39" s="49" t="n">
         <v>6063</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="48" t="n">
+      <c r="E39" s="49" t="n">
         <v>1046</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="47"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="48"/>
       <c r="I39" s="21" t="s">
         <v>14</v>
       </c>
@@ -3498,21 +3510,21 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="48" t="n">
+      <c r="B40" s="45"/>
+      <c r="C40" s="49" t="n">
         <v>6064</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="48" t="n">
+      <c r="E40" s="49" t="n">
         <v>3328</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="49"/>
-      <c r="H40" s="47"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="48"/>
       <c r="I40" s="21" t="s">
         <v>14</v>
       </c>
@@ -3522,21 +3534,21 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="48" t="n">
+      <c r="B41" s="45"/>
+      <c r="C41" s="49" t="n">
         <v>6065</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="48" t="n">
+      <c r="E41" s="49" t="n">
         <v>260</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="47"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="48"/>
       <c r="I41" s="21" t="s">
         <v>14</v>
       </c>
@@ -3546,21 +3558,21 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="48" t="n">
+      <c r="B42" s="45"/>
+      <c r="C42" s="49" t="n">
         <v>6066</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="48" t="n">
+      <c r="E42" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="49"/>
-      <c r="H42" s="47"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="48"/>
       <c r="I42" s="21" t="s">
         <v>14</v>
       </c>
@@ -3570,21 +3582,21 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="50" t="n">
+      <c r="B43" s="45"/>
+      <c r="C43" s="51" t="n">
         <v>6067</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="50" t="n">
+      <c r="E43" s="51" t="n">
         <v>1024</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="51"/>
-      <c r="H43" s="47"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="48"/>
       <c r="I43" s="21" t="s">
         <v>14</v>
       </c>
@@ -3594,24 +3606,24 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8"/>
-      <c r="B44" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="48" t="n">
+      <c r="B44" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="49" t="n">
         <v>6060</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="48" t="n">
+      <c r="E44" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="F44" s="48" t="s">
+      <c r="F44" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="49"/>
-      <c r="H44" s="47" t="s">
-        <v>82</v>
+      <c r="G44" s="50"/>
+      <c r="H44" s="48" t="s">
+        <v>83</v>
       </c>
       <c r="I44" s="21" t="s">
         <v>14</v>
@@ -3622,21 +3634,21 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="48" t="n">
+      <c r="B45" s="53"/>
+      <c r="C45" s="49" t="n">
         <v>6061</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="48" t="n">
+      <c r="E45" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="49"/>
-      <c r="H45" s="47"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="48"/>
       <c r="I45" s="21" t="s">
         <v>14</v>
       </c>
@@ -3646,21 +3658,21 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="48" t="n">
+      <c r="B46" s="53"/>
+      <c r="C46" s="49" t="n">
         <v>6062</v>
       </c>
-      <c r="D46" s="48" t="s">
+      <c r="D46" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="48" t="n">
+      <c r="E46" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="F46" s="48" t="s">
+      <c r="F46" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="49"/>
-      <c r="H46" s="47"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="48"/>
       <c r="I46" s="21" t="s">
         <v>14</v>
       </c>
@@ -3670,21 +3682,21 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="48" t="n">
+      <c r="B47" s="53"/>
+      <c r="C47" s="49" t="n">
         <v>6063</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="48" t="n">
+      <c r="E47" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="49"/>
-      <c r="H47" s="47"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="48"/>
       <c r="I47" s="21" t="s">
         <v>14</v>
       </c>
@@ -3694,21 +3706,21 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="48" t="n">
+      <c r="B48" s="53"/>
+      <c r="C48" s="49" t="n">
         <v>6064</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="48" t="n">
+      <c r="E48" s="49" t="n">
         <v>3332</v>
       </c>
-      <c r="F48" s="48" t="s">
+      <c r="F48" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="49"/>
-      <c r="H48" s="47"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="48"/>
       <c r="I48" s="21" t="s">
         <v>14</v>
       </c>
@@ -3718,21 +3730,21 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="48" t="n">
+      <c r="B49" s="53"/>
+      <c r="C49" s="49" t="n">
         <v>6065</v>
       </c>
-      <c r="D49" s="48" t="s">
+      <c r="D49" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="48" t="n">
+      <c r="E49" s="49" t="n">
         <v>1549</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="49"/>
-      <c r="H49" s="47"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="48"/>
       <c r="I49" s="21" t="s">
         <v>14</v>
       </c>
@@ -3742,21 +3754,21 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="48" t="n">
+      <c r="B50" s="53"/>
+      <c r="C50" s="49" t="n">
         <v>6066</v>
       </c>
-      <c r="D50" s="48" t="s">
+      <c r="D50" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="48" t="n">
+      <c r="E50" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="49"/>
-      <c r="H50" s="47"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="48"/>
       <c r="I50" s="21" t="s">
         <v>14</v>
       </c>
@@ -3766,21 +3778,21 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="48" t="n">
+      <c r="B51" s="53"/>
+      <c r="C51" s="49" t="n">
         <v>6067</v>
       </c>
-      <c r="D51" s="48" t="s">
+      <c r="D51" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="48" t="n">
+      <c r="E51" s="49" t="n">
         <v>1024</v>
       </c>
-      <c r="F51" s="48" t="s">
+      <c r="F51" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="49"/>
-      <c r="H51" s="47"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="48"/>
       <c r="I51" s="21" t="s">
         <v>14</v>
       </c>
@@ -3790,24 +3802,24 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="8"/>
-      <c r="B52" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="54" t="n">
+      <c r="B52" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="55" t="n">
         <v>6060</v>
       </c>
-      <c r="D52" s="54" t="s">
+      <c r="D52" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="54" t="n">
+      <c r="E52" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="F52" s="54" t="s">
+      <c r="F52" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="55"/>
-      <c r="H52" s="56" t="s">
-        <v>84</v>
+      <c r="G52" s="56"/>
+      <c r="H52" s="57" t="s">
+        <v>85</v>
       </c>
       <c r="I52" s="21" t="s">
         <v>14</v>
@@ -3818,21 +3830,21 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="57" t="n">
+      <c r="B53" s="54"/>
+      <c r="C53" s="58" t="n">
         <v>6061</v>
       </c>
-      <c r="D53" s="57" t="s">
+      <c r="D53" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="57" t="n">
+      <c r="E53" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="F53" s="57" t="s">
+      <c r="F53" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="58"/>
-      <c r="H53" s="56"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="57"/>
       <c r="I53" s="21" t="s">
         <v>14</v>
       </c>
@@ -3842,21 +3854,21 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="57" t="n">
+      <c r="B54" s="54"/>
+      <c r="C54" s="58" t="n">
         <v>6062</v>
       </c>
-      <c r="D54" s="57" t="s">
+      <c r="D54" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="57" t="n">
+      <c r="E54" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="F54" s="57" t="s">
+      <c r="F54" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="58"/>
-      <c r="H54" s="56"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="57"/>
       <c r="I54" s="21" t="s">
         <v>14</v>
       </c>
@@ -3866,21 +3878,21 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="57" t="n">
+      <c r="B55" s="54"/>
+      <c r="C55" s="58" t="n">
         <v>6063</v>
       </c>
-      <c r="D55" s="57" t="s">
+      <c r="D55" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="57" t="n">
+      <c r="E55" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="F55" s="57" t="s">
+      <c r="F55" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="58"/>
-      <c r="H55" s="56"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="57"/>
       <c r="I55" s="21" t="s">
         <v>14</v>
       </c>
@@ -3890,21 +3902,21 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="57" t="n">
+      <c r="B56" s="54"/>
+      <c r="C56" s="58" t="n">
         <v>6064</v>
       </c>
-      <c r="D56" s="57" t="s">
+      <c r="D56" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="57" t="n">
+      <c r="E56" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="F56" s="57" t="s">
+      <c r="F56" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="58"/>
-      <c r="H56" s="56"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="57"/>
       <c r="I56" s="21" t="s">
         <v>14</v>
       </c>
@@ -3914,21 +3926,21 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="57" t="n">
+      <c r="B57" s="54"/>
+      <c r="C57" s="58" t="n">
         <v>6065</v>
       </c>
-      <c r="D57" s="57" t="s">
+      <c r="D57" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="57" t="n">
+      <c r="E57" s="58" t="n">
         <v>13</v>
       </c>
-      <c r="F57" s="57" t="s">
+      <c r="F57" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="58"/>
-      <c r="H57" s="56"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="57"/>
       <c r="I57" s="21" t="s">
         <v>14</v>
       </c>
@@ -3938,21 +3950,21 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="57" t="n">
+      <c r="B58" s="54"/>
+      <c r="C58" s="58" t="n">
         <v>6066</v>
       </c>
-      <c r="D58" s="57" t="s">
+      <c r="D58" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="57" t="n">
+      <c r="E58" s="58" t="n">
         <v>15</v>
       </c>
-      <c r="F58" s="57" t="s">
+      <c r="F58" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="58"/>
-      <c r="H58" s="56"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="57"/>
       <c r="I58" s="21" t="s">
         <v>14</v>
       </c>
@@ -3962,21 +3974,21 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="59" t="n">
+      <c r="B59" s="54"/>
+      <c r="C59" s="60" t="n">
         <v>6067</v>
       </c>
-      <c r="D59" s="59" t="s">
+      <c r="D59" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="59" t="n">
+      <c r="E59" s="60" t="n">
         <v>256</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="60"/>
-      <c r="H59" s="56"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="57"/>
       <c r="I59" s="21" t="s">
         <v>14</v>
       </c>
@@ -3987,23 +3999,23 @@
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="8"/>
       <c r="B60" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="61" t="n">
+        <v>86</v>
+      </c>
+      <c r="C60" s="62" t="n">
         <v>6060</v>
       </c>
-      <c r="D60" s="61" t="s">
+      <c r="D60" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="61" t="n">
+      <c r="E60" s="62" t="n">
         <v>23</v>
       </c>
-      <c r="F60" s="61" t="s">
+      <c r="F60" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="62"/>
-      <c r="H60" s="63" t="s">
-        <v>86</v>
+      <c r="G60" s="63"/>
+      <c r="H60" s="64" t="s">
+        <v>87</v>
       </c>
       <c r="I60" s="21" t="s">
         <v>14</v>
@@ -4015,20 +4027,20 @@
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8"/>
       <c r="B61" s="27"/>
-      <c r="C61" s="61" t="n">
+      <c r="C61" s="62" t="n">
         <v>6061</v>
       </c>
-      <c r="D61" s="61" t="s">
+      <c r="D61" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E61" s="61" t="n">
+      <c r="E61" s="62" t="n">
         <v>1024</v>
       </c>
-      <c r="F61" s="61" t="s">
+      <c r="F61" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="62"/>
-      <c r="H61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="64"/>
       <c r="I61" s="21" t="s">
         <v>14</v>
       </c>
@@ -4039,20 +4051,20 @@
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8"/>
       <c r="B62" s="27"/>
-      <c r="C62" s="61" t="n">
+      <c r="C62" s="62" t="n">
         <v>6062</v>
       </c>
-      <c r="D62" s="61" t="s">
+      <c r="D62" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="61" t="n">
+      <c r="E62" s="62" t="n">
         <v>5892</v>
       </c>
-      <c r="F62" s="61" t="s">
+      <c r="F62" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="62"/>
-      <c r="H62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="64"/>
       <c r="I62" s="21" t="s">
         <v>14</v>
       </c>
@@ -4063,20 +4075,20 @@
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8"/>
       <c r="B63" s="27"/>
-      <c r="C63" s="61" t="n">
+      <c r="C63" s="62" t="n">
         <v>6063</v>
       </c>
-      <c r="D63" s="61" t="s">
+      <c r="D63" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="61" t="n">
+      <c r="E63" s="62" t="n">
         <v>23</v>
       </c>
-      <c r="F63" s="61" t="s">
+      <c r="F63" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="62"/>
-      <c r="H63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="64"/>
       <c r="I63" s="21" t="s">
         <v>14</v>
       </c>
@@ -4087,20 +4099,20 @@
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8"/>
       <c r="B64" s="27"/>
-      <c r="C64" s="61" t="n">
+      <c r="C64" s="62" t="n">
         <v>6064</v>
       </c>
-      <c r="D64" s="61" t="s">
+      <c r="D64" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="61" t="n">
+      <c r="E64" s="62" t="n">
         <v>1024</v>
       </c>
-      <c r="F64" s="61" t="s">
+      <c r="F64" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="62"/>
-      <c r="H64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="64"/>
       <c r="I64" s="21" t="s">
         <v>14</v>
       </c>
@@ -4111,20 +4123,20 @@
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8"/>
       <c r="B65" s="27"/>
-      <c r="C65" s="61" t="n">
+      <c r="C65" s="62" t="n">
         <v>6065</v>
       </c>
-      <c r="D65" s="61" t="s">
+      <c r="D65" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="61" t="n">
+      <c r="E65" s="62" t="n">
         <v>5892</v>
       </c>
-      <c r="F65" s="61" t="s">
+      <c r="F65" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="62"/>
-      <c r="H65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="64"/>
       <c r="I65" s="21" t="s">
         <v>14</v>
       </c>
@@ -4135,20 +4147,20 @@
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8"/>
       <c r="B66" s="27"/>
-      <c r="C66" s="61" t="n">
+      <c r="C66" s="62" t="n">
         <v>6066</v>
       </c>
-      <c r="D66" s="61" t="s">
+      <c r="D66" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E66" s="61" t="n">
+      <c r="E66" s="62" t="n">
         <v>4119</v>
       </c>
-      <c r="F66" s="61" t="s">
+      <c r="F66" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="62"/>
-      <c r="H66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="64"/>
       <c r="I66" s="21" t="s">
         <v>14</v>
       </c>
@@ -4159,20 +4171,20 @@
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8"/>
       <c r="B67" s="27"/>
-      <c r="C67" s="61" t="n">
+      <c r="C67" s="62" t="n">
         <v>6067</v>
       </c>
-      <c r="D67" s="61" t="s">
+      <c r="D67" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E67" s="61" t="n">
+      <c r="E67" s="62" t="n">
         <v>1024</v>
       </c>
-      <c r="F67" s="61" t="s">
+      <c r="F67" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="62"/>
-      <c r="H67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="64"/>
       <c r="I67" s="21" t="s">
         <v>14</v>
       </c>
@@ -4183,7 +4195,7 @@
     <row r="68" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8"/>
       <c r="B68" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C68" s="17" t="n">
         <v>6052</v>
@@ -4192,7 +4204,7 @@
         <v>32</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>12</v>
@@ -4200,18 +4212,18 @@
       <c r="G68" s="19"/>
       <c r="H68" s="20"/>
       <c r="I68" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69" s="17" t="n">
         <v>7051</v>
@@ -4219,56 +4231,56 @@
       <c r="D69" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E69" s="64" t="s">
-        <v>93</v>
+      <c r="E69" s="65" t="s">
+        <v>94</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="19"/>
-      <c r="H69" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="I69" s="66" t="s">
+      <c r="H69" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="J69" s="67" t="s">
+      <c r="I69" s="67" t="s">
         <v>96</v>
       </c>
+      <c r="J69" s="68" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="68"/>
+      <c r="E70" s="69"/>
     </row>
     <row r="71" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
+      <c r="A71" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="70"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
       <c r="F71" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="68" t="s">
+      <c r="A73" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I73" s="68"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="I73" s="69"/>
     </row>
     <row r="74" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>7</v>
@@ -4276,34 +4288,34 @@
       <c r="C74" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" s="73" t="s">
+      <c r="D74" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="F74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
+      <c r="E74" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="F74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
     </row>
     <row r="75" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D75" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="E75" s="74" t="s">
+      <c r="D75" s="75" t="s">
         <v>108</v>
       </c>
+      <c r="E75" s="75" t="s">
+        <v>109</v>
+      </c>
       <c r="F75" s="30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G75" s="30"/>
       <c r="H75" s="30"/>
@@ -4312,22 +4324,22 @@
     </row>
     <row r="76" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="E76" s="74" t="s">
-        <v>108</v>
+      <c r="D76" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="E76" s="75" t="s">
+        <v>109</v>
       </c>
       <c r="F76" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G76" s="30"/>
       <c r="H76" s="30"/>
@@ -4335,191 +4347,191 @@
       <c r="J76" s="30"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="B77" s="76" t="s">
+      <c r="A77" s="76" t="s">
         <v>116</v>
       </c>
+      <c r="B77" s="77" t="s">
+        <v>117</v>
+      </c>
       <c r="C77" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D77" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="E77" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="F77" s="68"/>
+      <c r="D77" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="E77" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" s="69"/>
     </row>
     <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="B78" s="76" t="s">
+      <c r="A78" s="76" t="s">
         <v>120</v>
       </c>
+      <c r="B78" s="77" t="s">
+        <v>121</v>
+      </c>
       <c r="C78" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D78" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="E78" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="F78" s="68"/>
+      <c r="D78" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E78" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="69"/>
     </row>
     <row r="79" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="77" t="s">
-        <v>123</v>
+      <c r="A79" s="78" t="s">
+        <v>124</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D79" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="E79" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="F79" s="68"/>
+      <c r="D79" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="E79" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="F79" s="69"/>
     </row>
     <row r="80" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="78" t="s">
-        <v>127</v>
+      <c r="A80" s="79" t="s">
+        <v>128</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D80" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="F80" s="68"/>
+      <c r="D80" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="F80" s="69"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D81" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="E81" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="F81" s="68"/>
+      <c r="D81" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="E81" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="F81" s="69"/>
     </row>
     <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D82" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="E82" s="74" t="s">
+      <c r="D82" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="F82" s="68"/>
+      <c r="E82" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F82" s="69"/>
     </row>
     <row r="83" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D83" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="E83" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="F83" s="68"/>
+      <c r="F83" s="69"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="E84" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="F84" s="68"/>
-      <c r="G84" s="68"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="68"/>
+      <c r="D84" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="E84" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="69"/>
+      <c r="I84" s="69"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D85" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="E85" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
+      <c r="D85" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="E85" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F85" s="69"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="69"/>
+      <c r="I85" s="69"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D86" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="E86" s="74" t="s">
-        <v>139</v>
+      <c r="D86" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="E86" s="75" t="s">
+        <v>140</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G86" s="30"/>
       <c r="H86" s="30"/>
@@ -4528,42 +4540,42 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D87" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="E87" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="F87" s="68"/>
-      <c r="G87" s="68"/>
-      <c r="I87" s="68"/>
+      <c r="D87" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="E87" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F87" s="69"/>
+      <c r="G87" s="69"/>
+      <c r="I87" s="69"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="75" t="s">
-        <v>161</v>
-      </c>
-      <c r="B88" s="76" t="s">
+      <c r="A88" s="76" t="s">
         <v>162</v>
       </c>
+      <c r="B88" s="77" t="s">
+        <v>163</v>
+      </c>
       <c r="C88" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D88" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="E88" s="74" t="s">
-        <v>139</v>
+      <c r="D88" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88" s="75" t="s">
+        <v>140</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
@@ -4572,43 +4584,43 @@
     </row>
     <row r="89" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D89" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="E89" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="F89" s="68"/>
-      <c r="G89" s="68"/>
-      <c r="H89" s="68"/>
-      <c r="I89" s="68"/>
+      <c r="D89" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="E89" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="F89" s="69"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="69"/>
     </row>
     <row r="90" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D90" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="E90" s="74" t="s">
+      <c r="D90" s="75" t="s">
         <v>174</v>
       </c>
+      <c r="E90" s="75" t="s">
+        <v>175</v>
+      </c>
       <c r="F90" s="30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G90" s="30"/>
       <c r="H90" s="30"/>
@@ -4616,212 +4628,212 @@
       <c r="J90" s="30"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="B91" s="76" t="s">
+      <c r="A91" s="76" t="s">
         <v>177</v>
       </c>
+      <c r="B91" s="77" t="s">
+        <v>178</v>
+      </c>
       <c r="C91" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D91" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="E91" s="74" t="s">
+      <c r="D91" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="F91" s="68"/>
-      <c r="G91" s="68"/>
-      <c r="H91" s="68"/>
-      <c r="I91" s="68"/>
+      <c r="E91" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F91" s="69"/>
+      <c r="G91" s="69"/>
+      <c r="H91" s="69"/>
+      <c r="I91" s="69"/>
     </row>
     <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="B92" s="76" t="s">
+      <c r="A92" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="E92" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="C92" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D92" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="E92" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="B93" s="76" t="s">
+      <c r="A93" s="82" t="s">
         <v>185</v>
       </c>
+      <c r="B93" s="77" t="s">
+        <v>186</v>
+      </c>
       <c r="C93" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D93" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="E93" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="F93" s="68"/>
-      <c r="G93" s="68"/>
-      <c r="H93" s="68"/>
-      <c r="I93" s="68"/>
+      <c r="D93" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="E93" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F93" s="69"/>
+      <c r="G93" s="69"/>
+      <c r="H93" s="69"/>
+      <c r="I93" s="69"/>
     </row>
     <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="B94" s="76" t="s">
+      <c r="A94" s="83" t="s">
         <v>189</v>
       </c>
+      <c r="B94" s="77" t="s">
+        <v>190</v>
+      </c>
       <c r="C94" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D94" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="E94" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="F94" s="68"/>
-      <c r="G94" s="68"/>
-      <c r="H94" s="68"/>
-      <c r="I94" s="68"/>
+      <c r="D94" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="E94" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F94" s="69"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="69"/>
+      <c r="I94" s="69"/>
     </row>
     <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="78" t="s">
-        <v>192</v>
+      <c r="A95" s="79" t="s">
+        <v>193</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="D95" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="E95" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="F95" s="68"/>
-      <c r="G95" s="68"/>
-      <c r="H95" s="68"/>
-      <c r="I95" s="68"/>
+      <c r="D95" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="E95" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F95" s="69"/>
+      <c r="G95" s="69"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="69"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="78" t="s">
-        <v>196</v>
+      <c r="A96" s="79" t="s">
+        <v>197</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D96" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="F96" s="68"/>
-      <c r="G96" s="68"/>
-      <c r="H96" s="68"/>
-      <c r="I96" s="68"/>
+      <c r="D96" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="E96" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F96" s="69"/>
+      <c r="G96" s="69"/>
+      <c r="H96" s="69"/>
+      <c r="I96" s="69"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="78" t="s">
-        <v>200</v>
+      <c r="A97" s="79" t="s">
+        <v>201</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D97" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="E97" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="F97" s="68"/>
-      <c r="G97" s="68"/>
-      <c r="H97" s="68"/>
-      <c r="I97" s="68"/>
+      <c r="D97" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F97" s="69"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="69"/>
+      <c r="I97" s="69"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="78" t="s">
-        <v>204</v>
+      <c r="A98" s="79" t="s">
+        <v>205</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D98" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="E98" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="F98" s="68"/>
-      <c r="G98" s="68"/>
-      <c r="H98" s="68"/>
-      <c r="I98" s="68"/>
+      <c r="D98" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="E98" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="69"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="78" t="s">
-        <v>208</v>
+      <c r="A99" s="79" t="s">
+        <v>209</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D99" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="E99" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="68"/>
+      <c r="D99" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="E99" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
     </row>
     <row r="100" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D100" s="74" t="s">
         <v>214</v>
       </c>
-      <c r="E100" s="74" t="s">
-        <v>180</v>
+      <c r="D100" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="E100" s="75" t="s">
+        <v>181</v>
       </c>
       <c r="F100" s="30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G100" s="30"/>
       <c r="H100" s="30"/>
@@ -4830,127 +4842,127 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="D101" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="E101" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="F101" s="68"/>
-      <c r="G101" s="68"/>
-      <c r="H101" s="68"/>
-      <c r="I101" s="68"/>
+      <c r="D101" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="E101" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F101" s="69"/>
+      <c r="G101" s="69"/>
+      <c r="H101" s="69"/>
+      <c r="I101" s="69"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D102" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="E102" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="F102" s="68"/>
-      <c r="G102" s="68"/>
-      <c r="H102" s="68"/>
-      <c r="I102" s="68"/>
+      <c r="D102" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="E102" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F102" s="69"/>
+      <c r="G102" s="69"/>
+      <c r="H102" s="69"/>
+      <c r="I102" s="69"/>
     </row>
     <row r="103" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="78" t="s">
-        <v>223</v>
+      <c r="A103" s="79" t="s">
+        <v>224</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="D103" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="E103" s="74" t="s">
+      <c r="D103" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="F103" s="68"/>
-      <c r="G103" s="68"/>
-      <c r="H103" s="68"/>
-      <c r="I103" s="68"/>
+      <c r="E103" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="F103" s="69"/>
+      <c r="G103" s="69"/>
+      <c r="H103" s="69"/>
+      <c r="I103" s="69"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="78" t="s">
+      <c r="A104" s="79" t="s">
+        <v>229</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D104" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="E104" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="D104" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="E104" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="F104" s="68"/>
-      <c r="G104" s="68"/>
-      <c r="H104" s="68"/>
-      <c r="I104" s="68"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="69"/>
+      <c r="H104" s="69"/>
+      <c r="I104" s="69"/>
     </row>
     <row r="105" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="D105" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="E105" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="F105" s="68"/>
-      <c r="G105" s="68"/>
-      <c r="H105" s="68"/>
-      <c r="I105" s="68"/>
+        <v>234</v>
+      </c>
+      <c r="D105" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="E105" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="F105" s="69"/>
+      <c r="G105" s="69"/>
+      <c r="H105" s="69"/>
+      <c r="I105" s="69"/>
     </row>
     <row r="106" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="83" t="s">
-        <v>234</v>
-      </c>
-      <c r="B106" s="76" t="s">
+      <c r="A106" s="84" t="s">
         <v>235</v>
       </c>
+      <c r="B106" s="77" t="s">
+        <v>236</v>
+      </c>
       <c r="C106" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E106" s="74" t="s">
         <v>238</v>
       </c>
+      <c r="E106" s="75" t="s">
+        <v>239</v>
+      </c>
       <c r="F106" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
@@ -4958,74 +4970,74 @@
       <c r="J106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="81" t="s">
-        <v>240</v>
-      </c>
-      <c r="B107" s="76" t="s">
+      <c r="A107" s="82" t="s">
         <v>241</v>
       </c>
+      <c r="B107" s="77" t="s">
+        <v>242</v>
+      </c>
       <c r="C107" s="18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E107" s="74" t="s">
-        <v>238</v>
+        <v>244</v>
+      </c>
+      <c r="E107" s="75" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="B108" s="76" t="s">
+      <c r="A108" s="76" t="s">
         <v>245</v>
       </c>
+      <c r="B108" s="77" t="s">
+        <v>246</v>
+      </c>
       <c r="C108" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E108" s="74" t="s">
-        <v>238</v>
+        <v>248</v>
+      </c>
+      <c r="E108" s="75" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="75" t="s">
-        <v>248</v>
-      </c>
-      <c r="B109" s="76" t="s">
+      <c r="A109" s="76" t="s">
         <v>249</v>
       </c>
+      <c r="B109" s="77" t="s">
+        <v>250</v>
+      </c>
       <c r="C109" s="18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E109" s="74" t="s">
-        <v>238</v>
+        <v>252</v>
+      </c>
+      <c r="E109" s="75" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="84" t="s">
-        <v>252</v>
+      <c r="A110" s="85" t="s">
+        <v>253</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E110" s="74" t="s">
         <v>256</v>
       </c>
+      <c r="E110" s="75" t="s">
+        <v>257</v>
+      </c>
       <c r="F110" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
@@ -5033,215 +5045,215 @@
       <c r="J110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="84" t="s">
-        <v>258</v>
+      <c r="A111" s="85" t="s">
+        <v>259</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E111" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="F111" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="G111" s="68"/>
-      <c r="H111" s="68"/>
-      <c r="I111" s="68"/>
+      <c r="E111" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="F111" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="69"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="78" t="s">
-        <v>263</v>
+      <c r="A112" s="79" t="s">
+        <v>264</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E112" s="74" t="s">
-        <v>256</v>
+        <v>200</v>
+      </c>
+      <c r="E112" s="75" t="s">
+        <v>257</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="78" t="s">
-        <v>267</v>
+      <c r="A113" s="79" t="s">
+        <v>268</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E113" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="G113" s="68"/>
-      <c r="H113" s="68"/>
-      <c r="I113" s="68"/>
+        <v>204</v>
+      </c>
+      <c r="E113" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="G113" s="69"/>
+      <c r="H113" s="69"/>
+      <c r="I113" s="69"/>
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="84" t="s">
-        <v>270</v>
+      <c r="A114" s="85" t="s">
+        <v>271</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="E114" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="F114" s="86" t="s">
         <v>274</v>
       </c>
-      <c r="G114" s="86"/>
-      <c r="H114" s="86"/>
-      <c r="I114" s="86"/>
-      <c r="J114" s="86"/>
+      <c r="E114" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="F114" s="87" t="s">
+        <v>275</v>
+      </c>
+      <c r="G114" s="87"/>
+      <c r="H114" s="87"/>
+      <c r="I114" s="87"/>
+      <c r="J114" s="87"/>
     </row>
     <row r="115" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="D115" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="E115" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="F115" s="68"/>
-      <c r="G115" s="68"/>
-      <c r="H115" s="68"/>
-      <c r="I115" s="68"/>
+        <v>278</v>
+      </c>
+      <c r="D115" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="E115" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="F115" s="69"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="69"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="B116" s="76" t="s">
+      <c r="A116" s="76" t="s">
         <v>279</v>
       </c>
+      <c r="B116" s="77" t="s">
+        <v>280</v>
+      </c>
       <c r="C116" s="18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E116" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="F116" s="68"/>
-      <c r="G116" s="68"/>
-      <c r="H116" s="68"/>
-      <c r="I116" s="68"/>
+      <c r="E116" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="F116" s="69"/>
+      <c r="G116" s="69"/>
+      <c r="H116" s="69"/>
+      <c r="I116" s="69"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="75" t="s">
+      <c r="A117" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="B117" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E117" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="B117" s="76" t="s">
-        <v>284</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E117" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="F117" s="68"/>
-      <c r="G117" s="68"/>
-      <c r="H117" s="68"/>
-      <c r="I117" s="68"/>
+      <c r="F117" s="69"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="69"/>
+      <c r="I117" s="69"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="75" t="s">
-        <v>287</v>
-      </c>
-      <c r="B118" s="76" t="s">
+      <c r="A118" s="76" t="s">
         <v>288</v>
       </c>
+      <c r="B118" s="77" t="s">
+        <v>289</v>
+      </c>
       <c r="C118" s="18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E118" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="F118" s="68"/>
-      <c r="G118" s="68"/>
-      <c r="H118" s="68"/>
-      <c r="I118" s="68"/>
+        <v>291</v>
+      </c>
+      <c r="E118" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="F118" s="69"/>
+      <c r="G118" s="69"/>
+      <c r="H118" s="69"/>
+      <c r="I118" s="69"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="75" t="s">
-        <v>291</v>
-      </c>
-      <c r="B119" s="76" t="s">
+      <c r="A119" s="76" t="s">
         <v>292</v>
       </c>
+      <c r="B119" s="77" t="s">
+        <v>293</v>
+      </c>
       <c r="C119" s="18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E119" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="F119" s="68"/>
-      <c r="G119" s="68"/>
-      <c r="H119" s="68"/>
-      <c r="I119" s="68"/>
+        <v>295</v>
+      </c>
+      <c r="E119" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="F119" s="69"/>
+      <c r="G119" s="69"/>
+      <c r="H119" s="69"/>
+      <c r="I119" s="69"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="B120" s="76" t="s">
+      <c r="A120" s="76" t="s">
         <v>296</v>
       </c>
+      <c r="B120" s="77" t="s">
+        <v>297</v>
+      </c>
       <c r="C120" s="18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E120" s="74" t="s">
-        <v>282</v>
+        <v>299</v>
+      </c>
+      <c r="E120" s="75" t="s">
+        <v>283</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
@@ -5250,435 +5262,435 @@
       <c r="J120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="B121" s="76" t="s">
+      <c r="A121" s="76" t="s">
         <v>300</v>
       </c>
+      <c r="B121" s="77" t="s">
+        <v>301</v>
+      </c>
       <c r="C121" s="18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E121" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="F121" s="87" t="s">
         <v>303</v>
       </c>
-      <c r="G121" s="68"/>
-      <c r="H121" s="68"/>
-      <c r="I121" s="68"/>
+      <c r="E121" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="F121" s="88" t="s">
+        <v>304</v>
+      </c>
+      <c r="G121" s="69"/>
+      <c r="H121" s="69"/>
+      <c r="I121" s="69"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="75" t="s">
-        <v>304</v>
-      </c>
-      <c r="B122" s="76" t="s">
+      <c r="A122" s="76" t="s">
         <v>305</v>
       </c>
+      <c r="B122" s="77" t="s">
+        <v>306</v>
+      </c>
       <c r="C122" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E122" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="F122" s="68"/>
-      <c r="G122" s="68"/>
-      <c r="H122" s="68"/>
-      <c r="I122" s="68"/>
+        <v>308</v>
+      </c>
+      <c r="E122" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="F122" s="69"/>
+      <c r="G122" s="69"/>
+      <c r="H122" s="69"/>
+      <c r="I122" s="69"/>
     </row>
     <row r="123" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E123" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="F123" s="88" t="s">
         <v>312</v>
       </c>
-      <c r="G123" s="68"/>
-      <c r="H123" s="68"/>
-      <c r="I123" s="68"/>
+      <c r="E123" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="F123" s="89" t="s">
+        <v>313</v>
+      </c>
+      <c r="G123" s="69"/>
+      <c r="H123" s="69"/>
+      <c r="I123" s="69"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E124" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="F124" s="68"/>
-      <c r="G124" s="68"/>
-      <c r="H124" s="68"/>
-      <c r="I124" s="68"/>
+        <v>317</v>
+      </c>
+      <c r="E124" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="69"/>
+      <c r="I124" s="69"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="E125" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="F125" s="68"/>
-      <c r="G125" s="68"/>
-      <c r="H125" s="68"/>
-      <c r="I125" s="68"/>
+        <v>321</v>
+      </c>
+      <c r="E125" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="F125" s="69"/>
+      <c r="G125" s="69"/>
+      <c r="H125" s="69"/>
+      <c r="I125" s="69"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="75" t="s">
-        <v>321</v>
-      </c>
-      <c r="B126" s="76" t="s">
+      <c r="A126" s="76" t="s">
         <v>322</v>
       </c>
+      <c r="B126" s="77" t="s">
+        <v>323</v>
+      </c>
       <c r="C126" s="18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E126" s="74" t="s">
         <v>325</v>
       </c>
-      <c r="F126" s="68"/>
-      <c r="G126" s="68"/>
-      <c r="H126" s="68"/>
-      <c r="I126" s="68"/>
+      <c r="E126" s="75" t="s">
+        <v>326</v>
+      </c>
+      <c r="F126" s="69"/>
+      <c r="G126" s="69"/>
+      <c r="H126" s="69"/>
+      <c r="I126" s="69"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="75" t="s">
+      <c r="A127" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="B127" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E127" s="75" t="s">
         <v>326</v>
       </c>
-      <c r="B127" s="76" t="s">
-        <v>327</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E127" s="74" t="s">
-        <v>325</v>
-      </c>
-      <c r="F127" s="68"/>
-      <c r="G127" s="68"/>
-      <c r="H127" s="68"/>
-      <c r="I127" s="68"/>
+      <c r="F127" s="69"/>
+      <c r="G127" s="69"/>
+      <c r="H127" s="69"/>
+      <c r="I127" s="69"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="B128" s="76" t="s">
+      <c r="A128" s="76" t="s">
         <v>331</v>
       </c>
+      <c r="B128" s="77" t="s">
+        <v>332</v>
+      </c>
       <c r="C128" s="18" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E128" s="74" t="s">
-        <v>325</v>
-      </c>
-      <c r="F128" s="68"/>
-      <c r="G128" s="68"/>
-      <c r="H128" s="68"/>
-      <c r="I128" s="68"/>
+        <v>334</v>
+      </c>
+      <c r="E128" s="75" t="s">
+        <v>326</v>
+      </c>
+      <c r="F128" s="69"/>
+      <c r="G128" s="69"/>
+      <c r="H128" s="69"/>
+      <c r="I128" s="69"/>
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="89" t="s">
-        <v>334</v>
-      </c>
-      <c r="B129" s="76" t="s">
+      <c r="A129" s="90" t="s">
         <v>335</v>
       </c>
+      <c r="B129" s="77" t="s">
+        <v>336</v>
+      </c>
       <c r="C129" s="18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E129" s="74" t="s">
-        <v>325</v>
-      </c>
-      <c r="F129" s="88" t="s">
         <v>338</v>
       </c>
-      <c r="G129" s="68"/>
-      <c r="H129" s="68"/>
-      <c r="I129" s="68"/>
+      <c r="E129" s="75" t="s">
+        <v>326</v>
+      </c>
+      <c r="F129" s="89" t="s">
+        <v>339</v>
+      </c>
+      <c r="G129" s="69"/>
+      <c r="H129" s="69"/>
+      <c r="I129" s="69"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="75" t="s">
-        <v>339</v>
-      </c>
-      <c r="B130" s="76" t="s">
+      <c r="A130" s="76" t="s">
         <v>340</v>
       </c>
+      <c r="B130" s="77" t="s">
+        <v>341</v>
+      </c>
       <c r="C130" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="E130" s="74" t="s">
-        <v>325</v>
-      </c>
-      <c r="F130" s="68"/>
-      <c r="G130" s="68"/>
-      <c r="H130" s="68"/>
-      <c r="I130" s="68"/>
+        <v>343</v>
+      </c>
+      <c r="E130" s="75" t="s">
+        <v>326</v>
+      </c>
+      <c r="F130" s="69"/>
+      <c r="G130" s="69"/>
+      <c r="H130" s="69"/>
+      <c r="I130" s="69"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="75" t="s">
-        <v>343</v>
-      </c>
-      <c r="B131" s="76" t="s">
+      <c r="A131" s="76" t="s">
         <v>344</v>
+      </c>
+      <c r="B131" s="77" t="s">
+        <v>345</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="E131" s="74"/>
-      <c r="F131" s="68"/>
-      <c r="G131" s="68"/>
-      <c r="H131" s="68"/>
-      <c r="I131" s="68"/>
+        <v>346</v>
+      </c>
+      <c r="E131" s="75"/>
+      <c r="F131" s="69"/>
+      <c r="G131" s="69"/>
+      <c r="H131" s="69"/>
+      <c r="I131" s="69"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="75" t="s">
-        <v>346</v>
-      </c>
-      <c r="B132" s="76" t="s">
+      <c r="A132" s="76" t="s">
         <v>347</v>
+      </c>
+      <c r="B132" s="77" t="s">
+        <v>348</v>
       </c>
       <c r="C132" s="18"/>
       <c r="D132" s="8"/>
-      <c r="E132" s="90" t="s">
-        <v>348</v>
-      </c>
-      <c r="F132" s="68"/>
-      <c r="G132" s="68"/>
-      <c r="H132" s="68"/>
-      <c r="I132" s="68"/>
+      <c r="E132" s="91" t="s">
+        <v>349</v>
+      </c>
+      <c r="F132" s="69"/>
+      <c r="G132" s="69"/>
+      <c r="H132" s="69"/>
+      <c r="I132" s="69"/>
     </row>
     <row r="133" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="91" t="s">
-        <v>349</v>
-      </c>
-      <c r="B133" s="92" t="s">
+      <c r="A133" s="92" t="s">
         <v>350</v>
+      </c>
+      <c r="B133" s="93" t="s">
+        <v>351</v>
       </c>
       <c r="C133" s="18"/>
       <c r="D133" s="8"/>
-      <c r="E133" s="74"/>
-      <c r="F133" s="68"/>
-      <c r="G133" s="68"/>
-      <c r="H133" s="68"/>
-      <c r="I133" s="68"/>
+      <c r="E133" s="75"/>
+      <c r="F133" s="69"/>
+      <c r="G133" s="69"/>
+      <c r="H133" s="69"/>
+      <c r="I133" s="69"/>
     </row>
     <row r="134" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="93" t="s">
-        <v>351</v>
-      </c>
-      <c r="B134" s="92" t="s">
+      <c r="A134" s="94" t="s">
         <v>352</v>
       </c>
-      <c r="C134" s="68"/>
-      <c r="D134" s="68"/>
-      <c r="E134" s="68"/>
-      <c r="F134" s="68"/>
-      <c r="G134" s="68"/>
-      <c r="H134" s="68"/>
-      <c r="I134" s="68"/>
+      <c r="B134" s="93" t="s">
+        <v>353</v>
+      </c>
+      <c r="C134" s="69"/>
+      <c r="D134" s="69"/>
+      <c r="E134" s="69"/>
+      <c r="F134" s="69"/>
+      <c r="G134" s="69"/>
+      <c r="H134" s="69"/>
+      <c r="I134" s="69"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="93" t="s">
-        <v>353</v>
-      </c>
-      <c r="B135" s="92" t="s">
+      <c r="A135" s="94" t="s">
         <v>354</v>
       </c>
-      <c r="C135" s="68"/>
-      <c r="D135" s="68"/>
-      <c r="E135" s="68"/>
-      <c r="F135" s="68"/>
-      <c r="G135" s="68"/>
-      <c r="H135" s="68"/>
-      <c r="I135" s="68"/>
+      <c r="B135" s="93" t="s">
+        <v>355</v>
+      </c>
+      <c r="C135" s="69"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="69"/>
+      <c r="F135" s="69"/>
+      <c r="G135" s="69"/>
+      <c r="H135" s="69"/>
+      <c r="I135" s="69"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="93" t="s">
-        <v>355</v>
-      </c>
-      <c r="B136" s="92" t="s">
+      <c r="A136" s="94" t="s">
         <v>356</v>
       </c>
-      <c r="C136" s="68"/>
-      <c r="D136" s="68"/>
-      <c r="E136" s="68"/>
-      <c r="F136" s="68"/>
-      <c r="G136" s="68"/>
-      <c r="H136" s="68"/>
-      <c r="I136" s="68"/>
+      <c r="B136" s="93" t="s">
+        <v>357</v>
+      </c>
+      <c r="C136" s="69"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="69"/>
+      <c r="F136" s="69"/>
+      <c r="G136" s="69"/>
+      <c r="H136" s="69"/>
+      <c r="I136" s="69"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="93" t="s">
-        <v>357</v>
-      </c>
-      <c r="B137" s="92" t="s">
+      <c r="A137" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="C137" s="68"/>
-      <c r="D137" s="68"/>
-      <c r="E137" s="68"/>
-      <c r="F137" s="68"/>
-      <c r="G137" s="68"/>
-      <c r="H137" s="68"/>
-      <c r="I137" s="68"/>
+      <c r="B137" s="93" t="s">
+        <v>359</v>
+      </c>
+      <c r="C137" s="69"/>
+      <c r="D137" s="69"/>
+      <c r="E137" s="69"/>
+      <c r="F137" s="69"/>
+      <c r="G137" s="69"/>
+      <c r="H137" s="69"/>
+      <c r="I137" s="69"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="93" t="s">
-        <v>359</v>
-      </c>
-      <c r="B138" s="92" t="s">
+      <c r="A138" s="94" t="s">
         <v>360</v>
       </c>
-      <c r="C138" s="68"/>
-      <c r="D138" s="68"/>
-      <c r="E138" s="68"/>
-      <c r="F138" s="68"/>
-      <c r="G138" s="68"/>
-      <c r="H138" s="68"/>
-      <c r="I138" s="68"/>
+      <c r="B138" s="93" t="s">
+        <v>361</v>
+      </c>
+      <c r="C138" s="69"/>
+      <c r="D138" s="69"/>
+      <c r="E138" s="69"/>
+      <c r="F138" s="69"/>
+      <c r="G138" s="69"/>
+      <c r="H138" s="69"/>
+      <c r="I138" s="69"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="93" t="s">
-        <v>361</v>
-      </c>
-      <c r="B139" s="92" t="s">
+      <c r="A139" s="94" t="s">
         <v>362</v>
       </c>
-      <c r="C139" s="68"/>
-      <c r="D139" s="68"/>
-      <c r="E139" s="68"/>
-      <c r="F139" s="68"/>
-      <c r="G139" s="68"/>
-      <c r="H139" s="68"/>
-      <c r="I139" s="68"/>
+      <c r="B139" s="93" t="s">
+        <v>363</v>
+      </c>
+      <c r="C139" s="69"/>
+      <c r="D139" s="69"/>
+      <c r="E139" s="69"/>
+      <c r="F139" s="69"/>
+      <c r="G139" s="69"/>
+      <c r="H139" s="69"/>
+      <c r="I139" s="69"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="68"/>
-      <c r="C140" s="68"/>
-      <c r="D140" s="68"/>
-      <c r="E140" s="68"/>
-      <c r="F140" s="68"/>
-      <c r="G140" s="68"/>
-      <c r="H140" s="68"/>
-      <c r="I140" s="68"/>
+      <c r="B140" s="69"/>
+      <c r="C140" s="69"/>
+      <c r="D140" s="69"/>
+      <c r="E140" s="69"/>
+      <c r="F140" s="69"/>
+      <c r="G140" s="69"/>
+      <c r="H140" s="69"/>
+      <c r="I140" s="69"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="68"/>
-      <c r="C141" s="68"/>
-      <c r="D141" s="68"/>
-      <c r="E141" s="68"/>
-      <c r="F141" s="68"/>
-      <c r="G141" s="68"/>
-      <c r="H141" s="68"/>
-      <c r="I141" s="68"/>
+      <c r="B141" s="69"/>
+      <c r="C141" s="69"/>
+      <c r="D141" s="69"/>
+      <c r="E141" s="69"/>
+      <c r="F141" s="69"/>
+      <c r="G141" s="69"/>
+      <c r="H141" s="69"/>
+      <c r="I141" s="69"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="68"/>
-      <c r="C142" s="68"/>
-      <c r="D142" s="68"/>
-      <c r="E142" s="68"/>
-      <c r="F142" s="68"/>
-      <c r="G142" s="68"/>
-      <c r="H142" s="68"/>
-      <c r="I142" s="68"/>
+      <c r="B142" s="69"/>
+      <c r="C142" s="69"/>
+      <c r="D142" s="69"/>
+      <c r="E142" s="69"/>
+      <c r="F142" s="69"/>
+      <c r="G142" s="69"/>
+      <c r="H142" s="69"/>
+      <c r="I142" s="69"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="68"/>
-      <c r="B143" s="68"/>
-      <c r="C143" s="68"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="68"/>
-      <c r="F143" s="68"/>
-      <c r="G143" s="68"/>
-      <c r="H143" s="68"/>
-      <c r="I143" s="68"/>
+      <c r="A143" s="69"/>
+      <c r="B143" s="69"/>
+      <c r="C143" s="69"/>
+      <c r="D143" s="69"/>
+      <c r="E143" s="69"/>
+      <c r="F143" s="69"/>
+      <c r="G143" s="69"/>
+      <c r="H143" s="69"/>
+      <c r="I143" s="69"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="68"/>
-      <c r="B144" s="68"/>
-      <c r="C144" s="68"/>
-      <c r="D144" s="68"/>
-      <c r="E144" s="68"/>
-      <c r="F144" s="68"/>
-      <c r="G144" s="68"/>
-      <c r="H144" s="68"/>
-      <c r="I144" s="68"/>
+      <c r="A144" s="69"/>
+      <c r="B144" s="69"/>
+      <c r="C144" s="69"/>
+      <c r="D144" s="69"/>
+      <c r="E144" s="69"/>
+      <c r="F144" s="69"/>
+      <c r="G144" s="69"/>
+      <c r="H144" s="69"/>
+      <c r="I144" s="69"/>
     </row>
     <row r="145" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="68"/>
-      <c r="B145" s="94" t="s">
-        <v>363</v>
-      </c>
-      <c r="C145" s="68"/>
-      <c r="D145" s="68"/>
-      <c r="E145" s="68"/>
-      <c r="F145" s="68"/>
-      <c r="G145" s="68"/>
-      <c r="H145" s="68"/>
-      <c r="I145" s="68"/>
+      <c r="A145" s="69"/>
+      <c r="B145" s="95" t="s">
+        <v>364</v>
+      </c>
+      <c r="C145" s="69"/>
+      <c r="D145" s="69"/>
+      <c r="E145" s="69"/>
+      <c r="F145" s="69"/>
+      <c r="G145" s="69"/>
+      <c r="H145" s="69"/>
+      <c r="I145" s="69"/>
     </row>
     <row r="146" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="95"/>
-      <c r="B146" s="96" t="s">
-        <v>364</v>
-      </c>
-      <c r="C146" s="96" t="s">
+      <c r="A146" s="96"/>
+      <c r="B146" s="97" t="s">
         <v>365</v>
       </c>
-      <c r="D146" s="97" t="s">
+      <c r="C146" s="97" t="s">
         <v>366</v>
+      </c>
+      <c r="D146" s="98" t="s">
+        <v>367</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>7</v>
@@ -5686,1905 +5698,1905 @@
       <c r="F146" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G146" s="68"/>
-      <c r="H146" s="68"/>
-      <c r="I146" s="68"/>
+      <c r="G146" s="69"/>
+      <c r="H146" s="69"/>
+      <c r="I146" s="69"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="98"/>
-      <c r="B147" s="68"/>
-      <c r="C147" s="68"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="68"/>
-      <c r="F147" s="68"/>
-      <c r="G147" s="68"/>
-      <c r="H147" s="68"/>
-      <c r="I147" s="68"/>
+      <c r="A147" s="99"/>
+      <c r="B147" s="69"/>
+      <c r="C147" s="69"/>
+      <c r="D147" s="69"/>
+      <c r="E147" s="69"/>
+      <c r="F147" s="69"/>
+      <c r="G147" s="69"/>
+      <c r="H147" s="69"/>
+      <c r="I147" s="69"/>
     </row>
     <row r="148" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="99" t="s">
-        <v>367</v>
-      </c>
-      <c r="B148" s="100" t="s">
+      <c r="A148" s="100" t="s">
         <v>368</v>
       </c>
-      <c r="C148" s="101" t="s">
+      <c r="B148" s="101" t="s">
         <v>369</v>
       </c>
-      <c r="D148" s="102" t="s">
+      <c r="C148" s="102" t="s">
         <v>370</v>
       </c>
-      <c r="E148" s="103" t="s">
+      <c r="D148" s="103" t="s">
         <v>371</v>
       </c>
-      <c r="F148" s="104" t="s">
+      <c r="E148" s="104" t="s">
         <v>372</v>
       </c>
-      <c r="G148" s="68"/>
-      <c r="H148" s="68"/>
-      <c r="I148" s="68"/>
+      <c r="F148" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="G148" s="69"/>
+      <c r="H148" s="69"/>
+      <c r="I148" s="69"/>
     </row>
     <row r="149" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="99"/>
-      <c r="B149" s="105" t="s">
-        <v>373</v>
-      </c>
-      <c r="C149" s="106" t="s">
+      <c r="A149" s="100"/>
+      <c r="B149" s="106" t="s">
         <v>374</v>
       </c>
-      <c r="D149" s="107" t="s">
+      <c r="C149" s="107" t="s">
         <v>375</v>
       </c>
-      <c r="E149" s="108" t="s">
+      <c r="D149" s="108" t="s">
         <v>376</v>
       </c>
-      <c r="F149" s="104" t="s">
+      <c r="E149" s="109" t="s">
         <v>377</v>
       </c>
-      <c r="G149" s="68"/>
-      <c r="H149" s="68"/>
-      <c r="I149" s="68"/>
+      <c r="F149" s="105" t="s">
+        <v>378</v>
+      </c>
+      <c r="G149" s="69"/>
+      <c r="H149" s="69"/>
+      <c r="I149" s="69"/>
     </row>
     <row r="150" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="99"/>
-      <c r="B150" s="109" t="s">
-        <v>378</v>
-      </c>
-      <c r="C150" s="110" t="s">
+      <c r="A150" s="100"/>
+      <c r="B150" s="110" t="s">
         <v>379</v>
       </c>
-      <c r="D150" s="111" t="s">
+      <c r="C150" s="111" t="s">
         <v>380</v>
       </c>
-      <c r="E150" s="112" t="s">
+      <c r="D150" s="112" t="s">
+        <v>381</v>
+      </c>
+      <c r="E150" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="113" t="s">
+      <c r="F150" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="88" t="s">
-        <v>381</v>
-      </c>
-      <c r="H150" s="68"/>
-      <c r="I150" s="68"/>
-      <c r="J150" s="68"/>
-      <c r="K150" s="68"/>
-      <c r="L150" s="68"/>
+      <c r="G150" s="89" t="s">
+        <v>382</v>
+      </c>
+      <c r="H150" s="69"/>
+      <c r="I150" s="69"/>
+      <c r="J150" s="69"/>
+      <c r="K150" s="69"/>
+      <c r="L150" s="69"/>
     </row>
     <row r="151" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="99"/>
-      <c r="B151" s="114" t="s">
-        <v>382</v>
-      </c>
-      <c r="C151" s="110" t="s">
-        <v>379</v>
-      </c>
-      <c r="D151" s="111" t="s">
+      <c r="A151" s="100"/>
+      <c r="B151" s="115" t="s">
         <v>383</v>
       </c>
-      <c r="E151" s="112" t="s">
+      <c r="C151" s="111" t="s">
+        <v>380</v>
+      </c>
+      <c r="D151" s="112" t="s">
+        <v>384</v>
+      </c>
+      <c r="E151" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="F151" s="113" t="s">
+      <c r="F151" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="G151" s="88" t="s">
-        <v>384</v>
-      </c>
-      <c r="H151" s="68"/>
-      <c r="I151" s="68"/>
-      <c r="J151" s="68"/>
-      <c r="K151" s="68"/>
-      <c r="L151" s="68"/>
+      <c r="G151" s="89" t="s">
+        <v>385</v>
+      </c>
+      <c r="H151" s="69"/>
+      <c r="I151" s="69"/>
+      <c r="J151" s="69"/>
+      <c r="K151" s="69"/>
+      <c r="L151" s="69"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="99"/>
-      <c r="B152" s="115" t="s">
-        <v>385</v>
-      </c>
-      <c r="C152" s="116" t="s">
-        <v>379</v>
-      </c>
-      <c r="D152" s="117" t="s">
+      <c r="A152" s="100"/>
+      <c r="B152" s="116" t="s">
         <v>386</v>
       </c>
-      <c r="E152" s="118" t="s">
+      <c r="C152" s="117" t="s">
+        <v>380</v>
+      </c>
+      <c r="D152" s="118" t="s">
+        <v>387</v>
+      </c>
+      <c r="E152" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="F152" s="119" t="s">
+      <c r="F152" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="G152" s="68"/>
-      <c r="H152" s="68"/>
-      <c r="I152" s="68"/>
-      <c r="J152" s="68"/>
-      <c r="K152" s="68"/>
-      <c r="L152" s="68"/>
+      <c r="G152" s="69"/>
+      <c r="H152" s="69"/>
+      <c r="I152" s="69"/>
+      <c r="J152" s="69"/>
+      <c r="K152" s="69"/>
+      <c r="L152" s="69"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="68"/>
-      <c r="B153" s="68"/>
-      <c r="C153" s="68"/>
-      <c r="D153" s="68"/>
-      <c r="E153" s="68"/>
-      <c r="F153" s="68"/>
-      <c r="G153" s="68"/>
-      <c r="H153" s="68"/>
-      <c r="I153" s="68"/>
-      <c r="J153" s="68"/>
-      <c r="K153" s="68"/>
-      <c r="L153" s="68"/>
+      <c r="A153" s="69"/>
+      <c r="B153" s="69"/>
+      <c r="C153" s="69"/>
+      <c r="D153" s="69"/>
+      <c r="E153" s="69"/>
+      <c r="F153" s="69"/>
+      <c r="G153" s="69"/>
+      <c r="H153" s="69"/>
+      <c r="I153" s="69"/>
+      <c r="J153" s="69"/>
+      <c r="K153" s="69"/>
+      <c r="L153" s="69"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="68"/>
-      <c r="B154" s="68"/>
-      <c r="C154" s="68"/>
-      <c r="D154" s="68"/>
-      <c r="E154" s="68"/>
-      <c r="F154" s="68"/>
-      <c r="G154" s="68"/>
-      <c r="H154" s="68"/>
-      <c r="I154" s="68"/>
-      <c r="J154" s="68"/>
-      <c r="K154" s="68"/>
-      <c r="L154" s="68"/>
+      <c r="A154" s="69"/>
+      <c r="B154" s="69"/>
+      <c r="C154" s="69"/>
+      <c r="D154" s="69"/>
+      <c r="E154" s="69"/>
+      <c r="F154" s="69"/>
+      <c r="G154" s="69"/>
+      <c r="H154" s="69"/>
+      <c r="I154" s="69"/>
+      <c r="J154" s="69"/>
+      <c r="K154" s="69"/>
+      <c r="L154" s="69"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="68"/>
-      <c r="B155" s="68"/>
-      <c r="C155" s="68"/>
-      <c r="D155" s="68"/>
-      <c r="E155" s="68"/>
-      <c r="F155" s="68"/>
-      <c r="G155" s="68"/>
-      <c r="H155" s="68"/>
-      <c r="I155" s="68"/>
-      <c r="J155" s="68"/>
-      <c r="K155" s="68"/>
-      <c r="L155" s="68"/>
+      <c r="A155" s="69"/>
+      <c r="B155" s="69"/>
+      <c r="C155" s="69"/>
+      <c r="D155" s="69"/>
+      <c r="E155" s="69"/>
+      <c r="F155" s="69"/>
+      <c r="G155" s="69"/>
+      <c r="H155" s="69"/>
+      <c r="I155" s="69"/>
+      <c r="J155" s="69"/>
+      <c r="K155" s="69"/>
+      <c r="L155" s="69"/>
     </row>
     <row r="156" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="120" t="s">
-        <v>387</v>
-      </c>
-      <c r="B156" s="88" t="s">
+      <c r="A156" s="121" t="s">
         <v>388</v>
       </c>
-      <c r="C156" s="68"/>
-      <c r="D156" s="68"/>
-      <c r="E156" s="68"/>
-      <c r="F156" s="68"/>
-      <c r="G156" s="68"/>
-      <c r="H156" s="68"/>
-      <c r="I156" s="68"/>
-      <c r="J156" s="68"/>
-      <c r="K156" s="68"/>
-      <c r="L156" s="68"/>
+      <c r="B156" s="89" t="s">
+        <v>389</v>
+      </c>
+      <c r="C156" s="69"/>
+      <c r="D156" s="69"/>
+      <c r="E156" s="69"/>
+      <c r="F156" s="69"/>
+      <c r="G156" s="69"/>
+      <c r="H156" s="69"/>
+      <c r="I156" s="69"/>
+      <c r="J156" s="69"/>
+      <c r="K156" s="69"/>
+      <c r="L156" s="69"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="68"/>
-      <c r="B157" s="68"/>
-      <c r="C157" s="68"/>
-      <c r="D157" s="68"/>
-      <c r="E157" s="68"/>
-      <c r="F157" s="68"/>
-      <c r="G157" s="68"/>
-      <c r="H157" s="68"/>
-      <c r="I157" s="68"/>
+      <c r="A157" s="69"/>
+      <c r="B157" s="69"/>
+      <c r="C157" s="69"/>
+      <c r="D157" s="69"/>
+      <c r="E157" s="69"/>
+      <c r="F157" s="69"/>
+      <c r="G157" s="69"/>
+      <c r="H157" s="69"/>
+      <c r="I157" s="69"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="68"/>
-      <c r="B158" s="68"/>
-      <c r="C158" s="68"/>
-      <c r="D158" s="68"/>
-      <c r="E158" s="68"/>
-      <c r="F158" s="68"/>
-      <c r="G158" s="68"/>
-      <c r="H158" s="68"/>
-      <c r="I158" s="68"/>
+      <c r="A158" s="69"/>
+      <c r="B158" s="69"/>
+      <c r="C158" s="69"/>
+      <c r="D158" s="69"/>
+      <c r="E158" s="69"/>
+      <c r="F158" s="69"/>
+      <c r="G158" s="69"/>
+      <c r="H158" s="69"/>
+      <c r="I158" s="69"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="68"/>
-      <c r="B159" s="68"/>
-      <c r="C159" s="68"/>
-      <c r="D159" s="68"/>
-      <c r="E159" s="68"/>
-      <c r="F159" s="68"/>
-      <c r="G159" s="68"/>
-      <c r="H159" s="68"/>
-      <c r="I159" s="68"/>
+      <c r="A159" s="69"/>
+      <c r="B159" s="69"/>
+      <c r="C159" s="69"/>
+      <c r="D159" s="69"/>
+      <c r="E159" s="69"/>
+      <c r="F159" s="69"/>
+      <c r="G159" s="69"/>
+      <c r="H159" s="69"/>
+      <c r="I159" s="69"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="68"/>
-      <c r="B160" s="68"/>
-      <c r="C160" s="68"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="68"/>
-      <c r="F160" s="68"/>
-      <c r="G160" s="68"/>
-      <c r="H160" s="68"/>
-      <c r="I160" s="68"/>
+      <c r="A160" s="69"/>
+      <c r="B160" s="69"/>
+      <c r="C160" s="69"/>
+      <c r="D160" s="69"/>
+      <c r="E160" s="69"/>
+      <c r="F160" s="69"/>
+      <c r="G160" s="69"/>
+      <c r="H160" s="69"/>
+      <c r="I160" s="69"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="68"/>
-      <c r="B161" s="68"/>
-      <c r="C161" s="68"/>
-      <c r="D161" s="68"/>
-      <c r="E161" s="68"/>
-      <c r="F161" s="68"/>
-      <c r="G161" s="68"/>
-      <c r="H161" s="68"/>
-      <c r="I161" s="68"/>
+      <c r="A161" s="69"/>
+      <c r="B161" s="69"/>
+      <c r="C161" s="69"/>
+      <c r="D161" s="69"/>
+      <c r="E161" s="69"/>
+      <c r="F161" s="69"/>
+      <c r="G161" s="69"/>
+      <c r="H161" s="69"/>
+      <c r="I161" s="69"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="68"/>
-      <c r="B162" s="68"/>
-      <c r="C162" s="68"/>
-      <c r="D162" s="68"/>
-      <c r="E162" s="68"/>
-      <c r="F162" s="68"/>
-      <c r="G162" s="68"/>
-      <c r="H162" s="68"/>
-      <c r="I162" s="68"/>
+      <c r="A162" s="69"/>
+      <c r="B162" s="69"/>
+      <c r="C162" s="69"/>
+      <c r="D162" s="69"/>
+      <c r="E162" s="69"/>
+      <c r="F162" s="69"/>
+      <c r="G162" s="69"/>
+      <c r="H162" s="69"/>
+      <c r="I162" s="69"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="68"/>
-      <c r="B163" s="68"/>
-      <c r="C163" s="68"/>
-      <c r="D163" s="68"/>
-      <c r="E163" s="68"/>
-      <c r="F163" s="68"/>
-      <c r="G163" s="68"/>
-      <c r="H163" s="68"/>
-      <c r="I163" s="68"/>
+      <c r="A163" s="69"/>
+      <c r="B163" s="69"/>
+      <c r="C163" s="69"/>
+      <c r="D163" s="69"/>
+      <c r="E163" s="69"/>
+      <c r="F163" s="69"/>
+      <c r="G163" s="69"/>
+      <c r="H163" s="69"/>
+      <c r="I163" s="69"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="68"/>
-      <c r="B164" s="68"/>
-      <c r="C164" s="68"/>
-      <c r="D164" s="68"/>
-      <c r="E164" s="68"/>
-      <c r="F164" s="68"/>
-      <c r="G164" s="68"/>
-      <c r="H164" s="68"/>
-      <c r="I164" s="68"/>
+      <c r="A164" s="69"/>
+      <c r="B164" s="69"/>
+      <c r="C164" s="69"/>
+      <c r="D164" s="69"/>
+      <c r="E164" s="69"/>
+      <c r="F164" s="69"/>
+      <c r="G164" s="69"/>
+      <c r="H164" s="69"/>
+      <c r="I164" s="69"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="68"/>
-      <c r="B165" s="68"/>
-      <c r="C165" s="68"/>
-      <c r="D165" s="68"/>
-      <c r="E165" s="68"/>
-      <c r="F165" s="68"/>
-      <c r="G165" s="68"/>
-      <c r="H165" s="68"/>
-      <c r="I165" s="68"/>
+      <c r="A165" s="69"/>
+      <c r="B165" s="69"/>
+      <c r="C165" s="69"/>
+      <c r="D165" s="69"/>
+      <c r="E165" s="69"/>
+      <c r="F165" s="69"/>
+      <c r="G165" s="69"/>
+      <c r="H165" s="69"/>
+      <c r="I165" s="69"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="68"/>
-      <c r="B166" s="68"/>
-      <c r="C166" s="68"/>
-      <c r="D166" s="68"/>
-      <c r="E166" s="68"/>
-      <c r="F166" s="68"/>
-      <c r="G166" s="68"/>
-      <c r="H166" s="68"/>
-      <c r="I166" s="68"/>
+      <c r="A166" s="69"/>
+      <c r="B166" s="69"/>
+      <c r="C166" s="69"/>
+      <c r="D166" s="69"/>
+      <c r="E166" s="69"/>
+      <c r="F166" s="69"/>
+      <c r="G166" s="69"/>
+      <c r="H166" s="69"/>
+      <c r="I166" s="69"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="68"/>
-      <c r="B167" s="68"/>
-      <c r="C167" s="68"/>
-      <c r="D167" s="68"/>
-      <c r="E167" s="68"/>
-      <c r="F167" s="68"/>
-      <c r="G167" s="68"/>
-      <c r="H167" s="68"/>
-      <c r="I167" s="68"/>
+      <c r="A167" s="69"/>
+      <c r="B167" s="69"/>
+      <c r="C167" s="69"/>
+      <c r="D167" s="69"/>
+      <c r="E167" s="69"/>
+      <c r="F167" s="69"/>
+      <c r="G167" s="69"/>
+      <c r="H167" s="69"/>
+      <c r="I167" s="69"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="68"/>
-      <c r="B168" s="68"/>
-      <c r="C168" s="68"/>
-      <c r="D168" s="68"/>
-      <c r="E168" s="68"/>
-      <c r="F168" s="68"/>
-      <c r="G168" s="68"/>
-      <c r="H168" s="68"/>
-      <c r="I168" s="68"/>
+      <c r="A168" s="69"/>
+      <c r="B168" s="69"/>
+      <c r="C168" s="69"/>
+      <c r="D168" s="69"/>
+      <c r="E168" s="69"/>
+      <c r="F168" s="69"/>
+      <c r="G168" s="69"/>
+      <c r="H168" s="69"/>
+      <c r="I168" s="69"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="68"/>
-      <c r="B169" s="68"/>
-      <c r="C169" s="68"/>
-      <c r="D169" s="68"/>
-      <c r="E169" s="68"/>
-      <c r="F169" s="68"/>
-      <c r="G169" s="68"/>
-      <c r="H169" s="68"/>
-      <c r="I169" s="68"/>
+      <c r="A169" s="69"/>
+      <c r="B169" s="69"/>
+      <c r="C169" s="69"/>
+      <c r="D169" s="69"/>
+      <c r="E169" s="69"/>
+      <c r="F169" s="69"/>
+      <c r="G169" s="69"/>
+      <c r="H169" s="69"/>
+      <c r="I169" s="69"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="68"/>
-      <c r="B170" s="68"/>
-      <c r="C170" s="68"/>
-      <c r="D170" s="68"/>
-      <c r="E170" s="68"/>
-      <c r="F170" s="68"/>
-      <c r="G170" s="68"/>
-      <c r="H170" s="68"/>
-      <c r="I170" s="68"/>
+      <c r="A170" s="69"/>
+      <c r="B170" s="69"/>
+      <c r="C170" s="69"/>
+      <c r="D170" s="69"/>
+      <c r="E170" s="69"/>
+      <c r="F170" s="69"/>
+      <c r="G170" s="69"/>
+      <c r="H170" s="69"/>
+      <c r="I170" s="69"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="68"/>
-      <c r="B171" s="68"/>
-      <c r="C171" s="68"/>
-      <c r="D171" s="68"/>
-      <c r="E171" s="68"/>
-      <c r="F171" s="68"/>
-      <c r="G171" s="68"/>
-      <c r="H171" s="68"/>
-      <c r="I171" s="68"/>
+      <c r="A171" s="69"/>
+      <c r="B171" s="69"/>
+      <c r="C171" s="69"/>
+      <c r="D171" s="69"/>
+      <c r="E171" s="69"/>
+      <c r="F171" s="69"/>
+      <c r="G171" s="69"/>
+      <c r="H171" s="69"/>
+      <c r="I171" s="69"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="68"/>
-      <c r="B172" s="68"/>
-      <c r="C172" s="68"/>
-      <c r="D172" s="68"/>
-      <c r="E172" s="68"/>
-      <c r="F172" s="68"/>
-      <c r="G172" s="68"/>
-      <c r="H172" s="68"/>
-      <c r="I172" s="68"/>
+      <c r="A172" s="69"/>
+      <c r="B172" s="69"/>
+      <c r="C172" s="69"/>
+      <c r="D172" s="69"/>
+      <c r="E172" s="69"/>
+      <c r="F172" s="69"/>
+      <c r="G172" s="69"/>
+      <c r="H172" s="69"/>
+      <c r="I172" s="69"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="68"/>
-      <c r="B173" s="68"/>
-      <c r="C173" s="68"/>
-      <c r="D173" s="68"/>
-      <c r="E173" s="68"/>
-      <c r="F173" s="68"/>
-      <c r="G173" s="68"/>
-      <c r="H173" s="68"/>
-      <c r="I173" s="68"/>
+      <c r="A173" s="69"/>
+      <c r="B173" s="69"/>
+      <c r="C173" s="69"/>
+      <c r="D173" s="69"/>
+      <c r="E173" s="69"/>
+      <c r="F173" s="69"/>
+      <c r="G173" s="69"/>
+      <c r="H173" s="69"/>
+      <c r="I173" s="69"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="68"/>
-      <c r="B174" s="68"/>
-      <c r="C174" s="68"/>
-      <c r="D174" s="68"/>
-      <c r="E174" s="68"/>
-      <c r="F174" s="68"/>
-      <c r="G174" s="68"/>
-      <c r="H174" s="68"/>
-      <c r="I174" s="68"/>
+      <c r="A174" s="69"/>
+      <c r="B174" s="69"/>
+      <c r="C174" s="69"/>
+      <c r="D174" s="69"/>
+      <c r="E174" s="69"/>
+      <c r="F174" s="69"/>
+      <c r="G174" s="69"/>
+      <c r="H174" s="69"/>
+      <c r="I174" s="69"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="68"/>
-      <c r="B175" s="68"/>
-      <c r="C175" s="68"/>
-      <c r="D175" s="68"/>
-      <c r="E175" s="68"/>
-      <c r="F175" s="68"/>
-      <c r="G175" s="68"/>
-      <c r="H175" s="68"/>
-      <c r="I175" s="68"/>
+      <c r="A175" s="69"/>
+      <c r="B175" s="69"/>
+      <c r="C175" s="69"/>
+      <c r="D175" s="69"/>
+      <c r="E175" s="69"/>
+      <c r="F175" s="69"/>
+      <c r="G175" s="69"/>
+      <c r="H175" s="69"/>
+      <c r="I175" s="69"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="68"/>
-      <c r="B176" s="68"/>
-      <c r="C176" s="68"/>
-      <c r="D176" s="68"/>
-      <c r="E176" s="68"/>
-      <c r="F176" s="68"/>
-      <c r="G176" s="68"/>
-      <c r="H176" s="68"/>
-      <c r="I176" s="68"/>
+      <c r="A176" s="69"/>
+      <c r="B176" s="69"/>
+      <c r="C176" s="69"/>
+      <c r="D176" s="69"/>
+      <c r="E176" s="69"/>
+      <c r="F176" s="69"/>
+      <c r="G176" s="69"/>
+      <c r="H176" s="69"/>
+      <c r="I176" s="69"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="68"/>
-      <c r="B177" s="68"/>
-      <c r="C177" s="68"/>
-      <c r="D177" s="68"/>
-      <c r="E177" s="68"/>
-      <c r="F177" s="68"/>
-      <c r="G177" s="68"/>
-      <c r="H177" s="68"/>
-      <c r="I177" s="68"/>
+      <c r="A177" s="69"/>
+      <c r="B177" s="69"/>
+      <c r="C177" s="69"/>
+      <c r="D177" s="69"/>
+      <c r="E177" s="69"/>
+      <c r="F177" s="69"/>
+      <c r="G177" s="69"/>
+      <c r="H177" s="69"/>
+      <c r="I177" s="69"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="68"/>
-      <c r="B178" s="68"/>
-      <c r="C178" s="68"/>
-      <c r="D178" s="68"/>
-      <c r="E178" s="68"/>
-      <c r="F178" s="68"/>
-      <c r="G178" s="68"/>
-      <c r="H178" s="68"/>
-      <c r="I178" s="68"/>
+      <c r="A178" s="69"/>
+      <c r="B178" s="69"/>
+      <c r="C178" s="69"/>
+      <c r="D178" s="69"/>
+      <c r="E178" s="69"/>
+      <c r="F178" s="69"/>
+      <c r="G178" s="69"/>
+      <c r="H178" s="69"/>
+      <c r="I178" s="69"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="68"/>
-      <c r="B179" s="68"/>
-      <c r="C179" s="68"/>
-      <c r="D179" s="68"/>
-      <c r="E179" s="68"/>
-      <c r="F179" s="68"/>
-      <c r="G179" s="68"/>
-      <c r="H179" s="68"/>
-      <c r="I179" s="68"/>
+      <c r="A179" s="69"/>
+      <c r="B179" s="69"/>
+      <c r="C179" s="69"/>
+      <c r="D179" s="69"/>
+      <c r="E179" s="69"/>
+      <c r="F179" s="69"/>
+      <c r="G179" s="69"/>
+      <c r="H179" s="69"/>
+      <c r="I179" s="69"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="68"/>
-      <c r="B180" s="68"/>
-      <c r="C180" s="68"/>
-      <c r="D180" s="68"/>
-      <c r="E180" s="68"/>
-      <c r="F180" s="68"/>
-      <c r="G180" s="68"/>
-      <c r="H180" s="68"/>
-      <c r="I180" s="68"/>
+      <c r="A180" s="69"/>
+      <c r="B180" s="69"/>
+      <c r="C180" s="69"/>
+      <c r="D180" s="69"/>
+      <c r="E180" s="69"/>
+      <c r="F180" s="69"/>
+      <c r="G180" s="69"/>
+      <c r="H180" s="69"/>
+      <c r="I180" s="69"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="68"/>
-      <c r="B181" s="68"/>
-      <c r="C181" s="68"/>
-      <c r="D181" s="68"/>
-      <c r="E181" s="68"/>
-      <c r="F181" s="68"/>
-      <c r="G181" s="68"/>
-      <c r="H181" s="68"/>
-      <c r="I181" s="68"/>
+      <c r="A181" s="69"/>
+      <c r="B181" s="69"/>
+      <c r="C181" s="69"/>
+      <c r="D181" s="69"/>
+      <c r="E181" s="69"/>
+      <c r="F181" s="69"/>
+      <c r="G181" s="69"/>
+      <c r="H181" s="69"/>
+      <c r="I181" s="69"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="68"/>
-      <c r="B182" s="68"/>
-      <c r="C182" s="68"/>
-      <c r="D182" s="68"/>
-      <c r="E182" s="68"/>
-      <c r="F182" s="68"/>
-      <c r="G182" s="68"/>
-      <c r="H182" s="68"/>
-      <c r="I182" s="68"/>
+      <c r="A182" s="69"/>
+      <c r="B182" s="69"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="69"/>
+      <c r="E182" s="69"/>
+      <c r="F182" s="69"/>
+      <c r="G182" s="69"/>
+      <c r="H182" s="69"/>
+      <c r="I182" s="69"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="68"/>
-      <c r="B183" s="68"/>
-      <c r="C183" s="68"/>
-      <c r="D183" s="68"/>
-      <c r="E183" s="68"/>
-      <c r="F183" s="68"/>
-      <c r="G183" s="68"/>
-      <c r="H183" s="68"/>
-      <c r="I183" s="68"/>
+      <c r="A183" s="69"/>
+      <c r="B183" s="69"/>
+      <c r="C183" s="69"/>
+      <c r="D183" s="69"/>
+      <c r="E183" s="69"/>
+      <c r="F183" s="69"/>
+      <c r="G183" s="69"/>
+      <c r="H183" s="69"/>
+      <c r="I183" s="69"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="68"/>
-      <c r="B184" s="68"/>
-      <c r="C184" s="68"/>
-      <c r="D184" s="68"/>
-      <c r="E184" s="68"/>
-      <c r="F184" s="68"/>
-      <c r="G184" s="68"/>
-      <c r="H184" s="68"/>
-      <c r="I184" s="68"/>
+      <c r="A184" s="69"/>
+      <c r="B184" s="69"/>
+      <c r="C184" s="69"/>
+      <c r="D184" s="69"/>
+      <c r="E184" s="69"/>
+      <c r="F184" s="69"/>
+      <c r="G184" s="69"/>
+      <c r="H184" s="69"/>
+      <c r="I184" s="69"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="68"/>
-      <c r="B185" s="68"/>
-      <c r="C185" s="68"/>
-      <c r="D185" s="68"/>
-      <c r="E185" s="68"/>
-      <c r="F185" s="68"/>
-      <c r="G185" s="68"/>
-      <c r="H185" s="68"/>
-      <c r="I185" s="68"/>
+      <c r="A185" s="69"/>
+      <c r="B185" s="69"/>
+      <c r="C185" s="69"/>
+      <c r="D185" s="69"/>
+      <c r="E185" s="69"/>
+      <c r="F185" s="69"/>
+      <c r="G185" s="69"/>
+      <c r="H185" s="69"/>
+      <c r="I185" s="69"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="68"/>
-      <c r="B186" s="68"/>
-      <c r="C186" s="68"/>
-      <c r="D186" s="68"/>
-      <c r="E186" s="68"/>
-      <c r="F186" s="68"/>
-      <c r="G186" s="68"/>
-      <c r="H186" s="68"/>
-      <c r="I186" s="68"/>
+      <c r="A186" s="69"/>
+      <c r="B186" s="69"/>
+      <c r="C186" s="69"/>
+      <c r="D186" s="69"/>
+      <c r="E186" s="69"/>
+      <c r="F186" s="69"/>
+      <c r="G186" s="69"/>
+      <c r="H186" s="69"/>
+      <c r="I186" s="69"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="68"/>
-      <c r="B187" s="68"/>
-      <c r="C187" s="68"/>
-      <c r="D187" s="68"/>
-      <c r="E187" s="68"/>
-      <c r="F187" s="68"/>
-      <c r="G187" s="68"/>
-      <c r="H187" s="68"/>
-      <c r="I187" s="68"/>
+      <c r="A187" s="69"/>
+      <c r="B187" s="69"/>
+      <c r="C187" s="69"/>
+      <c r="D187" s="69"/>
+      <c r="E187" s="69"/>
+      <c r="F187" s="69"/>
+      <c r="G187" s="69"/>
+      <c r="H187" s="69"/>
+      <c r="I187" s="69"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="68"/>
-      <c r="B188" s="68"/>
-      <c r="C188" s="68"/>
-      <c r="D188" s="68"/>
-      <c r="E188" s="68"/>
-      <c r="F188" s="68"/>
-      <c r="G188" s="68"/>
-      <c r="H188" s="68"/>
-      <c r="I188" s="68"/>
+      <c r="A188" s="69"/>
+      <c r="B188" s="69"/>
+      <c r="C188" s="69"/>
+      <c r="D188" s="69"/>
+      <c r="E188" s="69"/>
+      <c r="F188" s="69"/>
+      <c r="G188" s="69"/>
+      <c r="H188" s="69"/>
+      <c r="I188" s="69"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="68"/>
-      <c r="B189" s="68"/>
-      <c r="C189" s="68"/>
-      <c r="D189" s="68"/>
-      <c r="E189" s="68"/>
-      <c r="F189" s="68"/>
-      <c r="G189" s="68"/>
-      <c r="H189" s="68"/>
-      <c r="I189" s="68"/>
+      <c r="A189" s="69"/>
+      <c r="B189" s="69"/>
+      <c r="C189" s="69"/>
+      <c r="D189" s="69"/>
+      <c r="E189" s="69"/>
+      <c r="F189" s="69"/>
+      <c r="G189" s="69"/>
+      <c r="H189" s="69"/>
+      <c r="I189" s="69"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="68"/>
-      <c r="B190" s="68"/>
-      <c r="C190" s="68"/>
-      <c r="D190" s="68"/>
-      <c r="E190" s="68"/>
-      <c r="F190" s="68"/>
-      <c r="G190" s="68"/>
-      <c r="H190" s="68"/>
-      <c r="I190" s="68"/>
+      <c r="A190" s="69"/>
+      <c r="B190" s="69"/>
+      <c r="C190" s="69"/>
+      <c r="D190" s="69"/>
+      <c r="E190" s="69"/>
+      <c r="F190" s="69"/>
+      <c r="G190" s="69"/>
+      <c r="H190" s="69"/>
+      <c r="I190" s="69"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="68"/>
-      <c r="B191" s="68"/>
-      <c r="C191" s="68"/>
-      <c r="D191" s="68"/>
-      <c r="E191" s="68"/>
-      <c r="F191" s="68"/>
-      <c r="G191" s="68"/>
-      <c r="H191" s="68"/>
-      <c r="I191" s="68"/>
+      <c r="A191" s="69"/>
+      <c r="B191" s="69"/>
+      <c r="C191" s="69"/>
+      <c r="D191" s="69"/>
+      <c r="E191" s="69"/>
+      <c r="F191" s="69"/>
+      <c r="G191" s="69"/>
+      <c r="H191" s="69"/>
+      <c r="I191" s="69"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="68"/>
-      <c r="B192" s="68"/>
-      <c r="C192" s="68"/>
-      <c r="D192" s="68"/>
-      <c r="E192" s="68"/>
-      <c r="F192" s="68"/>
-      <c r="G192" s="68"/>
-      <c r="H192" s="68"/>
-      <c r="I192" s="68"/>
+      <c r="A192" s="69"/>
+      <c r="B192" s="69"/>
+      <c r="C192" s="69"/>
+      <c r="D192" s="69"/>
+      <c r="E192" s="69"/>
+      <c r="F192" s="69"/>
+      <c r="G192" s="69"/>
+      <c r="H192" s="69"/>
+      <c r="I192" s="69"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="68"/>
-      <c r="B193" s="68"/>
-      <c r="C193" s="68"/>
-      <c r="D193" s="68"/>
-      <c r="E193" s="68"/>
-      <c r="F193" s="68"/>
-      <c r="G193" s="68"/>
-      <c r="H193" s="68"/>
-      <c r="I193" s="68"/>
+      <c r="A193" s="69"/>
+      <c r="B193" s="69"/>
+      <c r="C193" s="69"/>
+      <c r="D193" s="69"/>
+      <c r="E193" s="69"/>
+      <c r="F193" s="69"/>
+      <c r="G193" s="69"/>
+      <c r="H193" s="69"/>
+      <c r="I193" s="69"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="68"/>
-      <c r="B194" s="68"/>
-      <c r="C194" s="68"/>
-      <c r="D194" s="68"/>
-      <c r="E194" s="68"/>
-      <c r="F194" s="68"/>
-      <c r="G194" s="68"/>
-      <c r="H194" s="68"/>
-      <c r="I194" s="68"/>
+      <c r="A194" s="69"/>
+      <c r="B194" s="69"/>
+      <c r="C194" s="69"/>
+      <c r="D194" s="69"/>
+      <c r="E194" s="69"/>
+      <c r="F194" s="69"/>
+      <c r="G194" s="69"/>
+      <c r="H194" s="69"/>
+      <c r="I194" s="69"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="68"/>
-      <c r="B195" s="68"/>
-      <c r="C195" s="68"/>
-      <c r="D195" s="68"/>
-      <c r="E195" s="68"/>
-      <c r="F195" s="68"/>
-      <c r="G195" s="68"/>
-      <c r="H195" s="68"/>
-      <c r="I195" s="68"/>
+      <c r="A195" s="69"/>
+      <c r="B195" s="69"/>
+      <c r="C195" s="69"/>
+      <c r="D195" s="69"/>
+      <c r="E195" s="69"/>
+      <c r="F195" s="69"/>
+      <c r="G195" s="69"/>
+      <c r="H195" s="69"/>
+      <c r="I195" s="69"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="68"/>
-      <c r="B196" s="68"/>
-      <c r="C196" s="68"/>
-      <c r="D196" s="68"/>
-      <c r="E196" s="68"/>
-      <c r="F196" s="68"/>
-      <c r="G196" s="68"/>
-      <c r="H196" s="68"/>
-      <c r="I196" s="68"/>
+      <c r="A196" s="69"/>
+      <c r="B196" s="69"/>
+      <c r="C196" s="69"/>
+      <c r="D196" s="69"/>
+      <c r="E196" s="69"/>
+      <c r="F196" s="69"/>
+      <c r="G196" s="69"/>
+      <c r="H196" s="69"/>
+      <c r="I196" s="69"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="68"/>
-      <c r="B197" s="68"/>
-      <c r="C197" s="68"/>
-      <c r="D197" s="68"/>
-      <c r="E197" s="68"/>
-      <c r="F197" s="68"/>
-      <c r="G197" s="68"/>
-      <c r="H197" s="68"/>
-      <c r="I197" s="68"/>
+      <c r="A197" s="69"/>
+      <c r="B197" s="69"/>
+      <c r="C197" s="69"/>
+      <c r="D197" s="69"/>
+      <c r="E197" s="69"/>
+      <c r="F197" s="69"/>
+      <c r="G197" s="69"/>
+      <c r="H197" s="69"/>
+      <c r="I197" s="69"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="68"/>
-      <c r="B198" s="68"/>
-      <c r="C198" s="68"/>
-      <c r="D198" s="68"/>
-      <c r="E198" s="68"/>
-      <c r="F198" s="68"/>
-      <c r="G198" s="68"/>
-      <c r="H198" s="68"/>
-      <c r="I198" s="68"/>
+      <c r="A198" s="69"/>
+      <c r="B198" s="69"/>
+      <c r="C198" s="69"/>
+      <c r="D198" s="69"/>
+      <c r="E198" s="69"/>
+      <c r="F198" s="69"/>
+      <c r="G198" s="69"/>
+      <c r="H198" s="69"/>
+      <c r="I198" s="69"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="68"/>
-      <c r="B199" s="68"/>
-      <c r="C199" s="68"/>
-      <c r="D199" s="68"/>
-      <c r="E199" s="68"/>
-      <c r="F199" s="68"/>
-      <c r="G199" s="68"/>
-      <c r="H199" s="68"/>
-      <c r="I199" s="68"/>
+      <c r="A199" s="69"/>
+      <c r="B199" s="69"/>
+      <c r="C199" s="69"/>
+      <c r="D199" s="69"/>
+      <c r="E199" s="69"/>
+      <c r="F199" s="69"/>
+      <c r="G199" s="69"/>
+      <c r="H199" s="69"/>
+      <c r="I199" s="69"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="68"/>
-      <c r="B200" s="68"/>
-      <c r="C200" s="68"/>
-      <c r="D200" s="68"/>
-      <c r="E200" s="68"/>
-      <c r="F200" s="68"/>
-      <c r="G200" s="68"/>
-      <c r="H200" s="68"/>
-      <c r="I200" s="68"/>
+      <c r="A200" s="69"/>
+      <c r="B200" s="69"/>
+      <c r="C200" s="69"/>
+      <c r="D200" s="69"/>
+      <c r="E200" s="69"/>
+      <c r="F200" s="69"/>
+      <c r="G200" s="69"/>
+      <c r="H200" s="69"/>
+      <c r="I200" s="69"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="68"/>
-      <c r="B201" s="68"/>
-      <c r="C201" s="68"/>
-      <c r="D201" s="68"/>
-      <c r="E201" s="68"/>
-      <c r="F201" s="68"/>
-      <c r="G201" s="68"/>
-      <c r="H201" s="68"/>
-      <c r="I201" s="68"/>
+      <c r="A201" s="69"/>
+      <c r="B201" s="69"/>
+      <c r="C201" s="69"/>
+      <c r="D201" s="69"/>
+      <c r="E201" s="69"/>
+      <c r="F201" s="69"/>
+      <c r="G201" s="69"/>
+      <c r="H201" s="69"/>
+      <c r="I201" s="69"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="68"/>
-      <c r="B202" s="68"/>
-      <c r="C202" s="68"/>
-      <c r="D202" s="68"/>
-      <c r="E202" s="68"/>
-      <c r="F202" s="68"/>
-      <c r="G202" s="68"/>
-      <c r="H202" s="68"/>
-      <c r="I202" s="68"/>
+      <c r="A202" s="69"/>
+      <c r="B202" s="69"/>
+      <c r="C202" s="69"/>
+      <c r="D202" s="69"/>
+      <c r="E202" s="69"/>
+      <c r="F202" s="69"/>
+      <c r="G202" s="69"/>
+      <c r="H202" s="69"/>
+      <c r="I202" s="69"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="68"/>
-      <c r="B203" s="68"/>
-      <c r="C203" s="68"/>
-      <c r="D203" s="68"/>
-      <c r="E203" s="68"/>
-      <c r="F203" s="68"/>
-      <c r="G203" s="68"/>
-      <c r="H203" s="68"/>
-      <c r="I203" s="68"/>
+      <c r="A203" s="69"/>
+      <c r="B203" s="69"/>
+      <c r="C203" s="69"/>
+      <c r="D203" s="69"/>
+      <c r="E203" s="69"/>
+      <c r="F203" s="69"/>
+      <c r="G203" s="69"/>
+      <c r="H203" s="69"/>
+      <c r="I203" s="69"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="68"/>
-      <c r="B204" s="68"/>
-      <c r="C204" s="68"/>
-      <c r="D204" s="68"/>
-      <c r="E204" s="68"/>
-      <c r="F204" s="68"/>
-      <c r="G204" s="68"/>
-      <c r="H204" s="68"/>
-      <c r="I204" s="68"/>
+      <c r="A204" s="69"/>
+      <c r="B204" s="69"/>
+      <c r="C204" s="69"/>
+      <c r="D204" s="69"/>
+      <c r="E204" s="69"/>
+      <c r="F204" s="69"/>
+      <c r="G204" s="69"/>
+      <c r="H204" s="69"/>
+      <c r="I204" s="69"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="68"/>
-      <c r="B205" s="68"/>
-      <c r="C205" s="68"/>
-      <c r="D205" s="68"/>
-      <c r="E205" s="68"/>
-      <c r="F205" s="68"/>
-      <c r="G205" s="68"/>
-      <c r="H205" s="68"/>
-      <c r="I205" s="68"/>
+      <c r="A205" s="69"/>
+      <c r="B205" s="69"/>
+      <c r="C205" s="69"/>
+      <c r="D205" s="69"/>
+      <c r="E205" s="69"/>
+      <c r="F205" s="69"/>
+      <c r="G205" s="69"/>
+      <c r="H205" s="69"/>
+      <c r="I205" s="69"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="68"/>
-      <c r="B206" s="68"/>
-      <c r="C206" s="68"/>
-      <c r="D206" s="68"/>
-      <c r="E206" s="68"/>
-      <c r="F206" s="68"/>
-      <c r="G206" s="68"/>
-      <c r="H206" s="68"/>
-      <c r="I206" s="68"/>
+      <c r="A206" s="69"/>
+      <c r="B206" s="69"/>
+      <c r="C206" s="69"/>
+      <c r="D206" s="69"/>
+      <c r="E206" s="69"/>
+      <c r="F206" s="69"/>
+      <c r="G206" s="69"/>
+      <c r="H206" s="69"/>
+      <c r="I206" s="69"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="68"/>
-      <c r="B207" s="68"/>
-      <c r="C207" s="68"/>
-      <c r="D207" s="68"/>
-      <c r="E207" s="68"/>
-      <c r="F207" s="68"/>
-      <c r="G207" s="68"/>
-      <c r="H207" s="68"/>
-      <c r="I207" s="68"/>
+      <c r="A207" s="69"/>
+      <c r="B207" s="69"/>
+      <c r="C207" s="69"/>
+      <c r="D207" s="69"/>
+      <c r="E207" s="69"/>
+      <c r="F207" s="69"/>
+      <c r="G207" s="69"/>
+      <c r="H207" s="69"/>
+      <c r="I207" s="69"/>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="68"/>
-      <c r="B208" s="68"/>
-      <c r="C208" s="68"/>
-      <c r="D208" s="68"/>
-      <c r="E208" s="68"/>
-      <c r="F208" s="68"/>
-      <c r="G208" s="68"/>
-      <c r="H208" s="68"/>
-      <c r="I208" s="68"/>
+      <c r="A208" s="69"/>
+      <c r="B208" s="69"/>
+      <c r="C208" s="69"/>
+      <c r="D208" s="69"/>
+      <c r="E208" s="69"/>
+      <c r="F208" s="69"/>
+      <c r="G208" s="69"/>
+      <c r="H208" s="69"/>
+      <c r="I208" s="69"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="68"/>
-      <c r="B209" s="68"/>
-      <c r="C209" s="68"/>
-      <c r="D209" s="68"/>
-      <c r="E209" s="68"/>
-      <c r="F209" s="68"/>
-      <c r="G209" s="68"/>
-      <c r="H209" s="68"/>
-      <c r="I209" s="68"/>
+      <c r="A209" s="69"/>
+      <c r="B209" s="69"/>
+      <c r="C209" s="69"/>
+      <c r="D209" s="69"/>
+      <c r="E209" s="69"/>
+      <c r="F209" s="69"/>
+      <c r="G209" s="69"/>
+      <c r="H209" s="69"/>
+      <c r="I209" s="69"/>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="68"/>
-      <c r="B210" s="68"/>
-      <c r="C210" s="68"/>
-      <c r="D210" s="68"/>
-      <c r="E210" s="68"/>
-      <c r="F210" s="68"/>
-      <c r="G210" s="68"/>
-      <c r="H210" s="68"/>
-      <c r="I210" s="68"/>
+      <c r="A210" s="69"/>
+      <c r="B210" s="69"/>
+      <c r="C210" s="69"/>
+      <c r="D210" s="69"/>
+      <c r="E210" s="69"/>
+      <c r="F210" s="69"/>
+      <c r="G210" s="69"/>
+      <c r="H210" s="69"/>
+      <c r="I210" s="69"/>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="68"/>
-      <c r="B211" s="68"/>
-      <c r="C211" s="68"/>
-      <c r="D211" s="68"/>
-      <c r="E211" s="68"/>
-      <c r="F211" s="68"/>
-      <c r="G211" s="68"/>
-      <c r="H211" s="68"/>
-      <c r="I211" s="68"/>
+      <c r="A211" s="69"/>
+      <c r="B211" s="69"/>
+      <c r="C211" s="69"/>
+      <c r="D211" s="69"/>
+      <c r="E211" s="69"/>
+      <c r="F211" s="69"/>
+      <c r="G211" s="69"/>
+      <c r="H211" s="69"/>
+      <c r="I211" s="69"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="68"/>
-      <c r="B212" s="68"/>
-      <c r="C212" s="68"/>
-      <c r="D212" s="68"/>
-      <c r="E212" s="68"/>
-      <c r="F212" s="68"/>
-      <c r="G212" s="68"/>
-      <c r="H212" s="68"/>
-      <c r="I212" s="68"/>
+      <c r="A212" s="69"/>
+      <c r="B212" s="69"/>
+      <c r="C212" s="69"/>
+      <c r="D212" s="69"/>
+      <c r="E212" s="69"/>
+      <c r="F212" s="69"/>
+      <c r="G212" s="69"/>
+      <c r="H212" s="69"/>
+      <c r="I212" s="69"/>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="68"/>
-      <c r="B213" s="68"/>
-      <c r="C213" s="68"/>
-      <c r="D213" s="68"/>
-      <c r="E213" s="68"/>
-      <c r="F213" s="68"/>
-      <c r="G213" s="68"/>
-      <c r="H213" s="68"/>
-      <c r="I213" s="68"/>
+      <c r="A213" s="69"/>
+      <c r="B213" s="69"/>
+      <c r="C213" s="69"/>
+      <c r="D213" s="69"/>
+      <c r="E213" s="69"/>
+      <c r="F213" s="69"/>
+      <c r="G213" s="69"/>
+      <c r="H213" s="69"/>
+      <c r="I213" s="69"/>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="68"/>
-      <c r="B214" s="68"/>
-      <c r="C214" s="68"/>
-      <c r="D214" s="68"/>
-      <c r="E214" s="68"/>
-      <c r="F214" s="68"/>
-      <c r="G214" s="68"/>
-      <c r="H214" s="68"/>
-      <c r="I214" s="68"/>
+      <c r="A214" s="69"/>
+      <c r="B214" s="69"/>
+      <c r="C214" s="69"/>
+      <c r="D214" s="69"/>
+      <c r="E214" s="69"/>
+      <c r="F214" s="69"/>
+      <c r="G214" s="69"/>
+      <c r="H214" s="69"/>
+      <c r="I214" s="69"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="68"/>
-      <c r="B215" s="68"/>
-      <c r="C215" s="68"/>
-      <c r="D215" s="68"/>
-      <c r="E215" s="68"/>
-      <c r="F215" s="68"/>
-      <c r="G215" s="68"/>
-      <c r="H215" s="68"/>
-      <c r="I215" s="68"/>
+      <c r="A215" s="69"/>
+      <c r="B215" s="69"/>
+      <c r="C215" s="69"/>
+      <c r="D215" s="69"/>
+      <c r="E215" s="69"/>
+      <c r="F215" s="69"/>
+      <c r="G215" s="69"/>
+      <c r="H215" s="69"/>
+      <c r="I215" s="69"/>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="68"/>
-      <c r="B216" s="68"/>
-      <c r="C216" s="68"/>
-      <c r="D216" s="68"/>
-      <c r="E216" s="68"/>
-      <c r="F216" s="68"/>
-      <c r="G216" s="68"/>
-      <c r="H216" s="68"/>
-      <c r="I216" s="68"/>
+      <c r="A216" s="69"/>
+      <c r="B216" s="69"/>
+      <c r="C216" s="69"/>
+      <c r="D216" s="69"/>
+      <c r="E216" s="69"/>
+      <c r="F216" s="69"/>
+      <c r="G216" s="69"/>
+      <c r="H216" s="69"/>
+      <c r="I216" s="69"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="68"/>
-      <c r="B217" s="68"/>
-      <c r="C217" s="68"/>
-      <c r="D217" s="68"/>
-      <c r="E217" s="68"/>
-      <c r="F217" s="68"/>
-      <c r="G217" s="68"/>
-      <c r="H217" s="68"/>
-      <c r="I217" s="68"/>
+      <c r="A217" s="69"/>
+      <c r="B217" s="69"/>
+      <c r="C217" s="69"/>
+      <c r="D217" s="69"/>
+      <c r="E217" s="69"/>
+      <c r="F217" s="69"/>
+      <c r="G217" s="69"/>
+      <c r="H217" s="69"/>
+      <c r="I217" s="69"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="68"/>
-      <c r="B218" s="68"/>
-      <c r="C218" s="68"/>
-      <c r="D218" s="68"/>
-      <c r="E218" s="68"/>
-      <c r="F218" s="68"/>
-      <c r="G218" s="68"/>
-      <c r="H218" s="68"/>
-      <c r="I218" s="68"/>
+      <c r="A218" s="69"/>
+      <c r="B218" s="69"/>
+      <c r="C218" s="69"/>
+      <c r="D218" s="69"/>
+      <c r="E218" s="69"/>
+      <c r="F218" s="69"/>
+      <c r="G218" s="69"/>
+      <c r="H218" s="69"/>
+      <c r="I218" s="69"/>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="68"/>
-      <c r="B219" s="68"/>
-      <c r="C219" s="68"/>
-      <c r="D219" s="68"/>
-      <c r="E219" s="68"/>
-      <c r="F219" s="68"/>
-      <c r="G219" s="68"/>
-      <c r="H219" s="68"/>
-      <c r="I219" s="68"/>
+      <c r="A219" s="69"/>
+      <c r="B219" s="69"/>
+      <c r="C219" s="69"/>
+      <c r="D219" s="69"/>
+      <c r="E219" s="69"/>
+      <c r="F219" s="69"/>
+      <c r="G219" s="69"/>
+      <c r="H219" s="69"/>
+      <c r="I219" s="69"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="68"/>
-      <c r="B220" s="68"/>
-      <c r="C220" s="68"/>
-      <c r="D220" s="68"/>
-      <c r="E220" s="68"/>
-      <c r="F220" s="68"/>
-      <c r="G220" s="68"/>
-      <c r="H220" s="68"/>
-      <c r="I220" s="68"/>
+      <c r="A220" s="69"/>
+      <c r="B220" s="69"/>
+      <c r="C220" s="69"/>
+      <c r="D220" s="69"/>
+      <c r="E220" s="69"/>
+      <c r="F220" s="69"/>
+      <c r="G220" s="69"/>
+      <c r="H220" s="69"/>
+      <c r="I220" s="69"/>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="68"/>
-      <c r="B221" s="68"/>
-      <c r="C221" s="68"/>
-      <c r="D221" s="68"/>
-      <c r="E221" s="68"/>
-      <c r="F221" s="68"/>
-      <c r="G221" s="68"/>
-      <c r="H221" s="68"/>
-      <c r="I221" s="68"/>
+      <c r="A221" s="69"/>
+      <c r="B221" s="69"/>
+      <c r="C221" s="69"/>
+      <c r="D221" s="69"/>
+      <c r="E221" s="69"/>
+      <c r="F221" s="69"/>
+      <c r="G221" s="69"/>
+      <c r="H221" s="69"/>
+      <c r="I221" s="69"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="68"/>
-      <c r="B222" s="68"/>
-      <c r="C222" s="68"/>
-      <c r="D222" s="68"/>
-      <c r="E222" s="68"/>
-      <c r="F222" s="68"/>
-      <c r="G222" s="68"/>
-      <c r="H222" s="68"/>
-      <c r="I222" s="68"/>
+      <c r="A222" s="69"/>
+      <c r="B222" s="69"/>
+      <c r="C222" s="69"/>
+      <c r="D222" s="69"/>
+      <c r="E222" s="69"/>
+      <c r="F222" s="69"/>
+      <c r="G222" s="69"/>
+      <c r="H222" s="69"/>
+      <c r="I222" s="69"/>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="68"/>
-      <c r="B223" s="68"/>
-      <c r="C223" s="68"/>
-      <c r="D223" s="68"/>
-      <c r="E223" s="68"/>
-      <c r="F223" s="68"/>
-      <c r="G223" s="68"/>
-      <c r="H223" s="68"/>
-      <c r="I223" s="68"/>
+      <c r="A223" s="69"/>
+      <c r="B223" s="69"/>
+      <c r="C223" s="69"/>
+      <c r="D223" s="69"/>
+      <c r="E223" s="69"/>
+      <c r="F223" s="69"/>
+      <c r="G223" s="69"/>
+      <c r="H223" s="69"/>
+      <c r="I223" s="69"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="68"/>
-      <c r="B224" s="68"/>
-      <c r="C224" s="68"/>
-      <c r="D224" s="68"/>
-      <c r="E224" s="68"/>
-      <c r="F224" s="68"/>
-      <c r="G224" s="68"/>
-      <c r="H224" s="68"/>
-      <c r="I224" s="68"/>
+      <c r="A224" s="69"/>
+      <c r="B224" s="69"/>
+      <c r="C224" s="69"/>
+      <c r="D224" s="69"/>
+      <c r="E224" s="69"/>
+      <c r="F224" s="69"/>
+      <c r="G224" s="69"/>
+      <c r="H224" s="69"/>
+      <c r="I224" s="69"/>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="68"/>
-      <c r="B225" s="68"/>
-      <c r="C225" s="68"/>
-      <c r="D225" s="68"/>
-      <c r="E225" s="68"/>
-      <c r="F225" s="68"/>
-      <c r="G225" s="68"/>
-      <c r="H225" s="68"/>
-      <c r="I225" s="68"/>
+      <c r="A225" s="69"/>
+      <c r="B225" s="69"/>
+      <c r="C225" s="69"/>
+      <c r="D225" s="69"/>
+      <c r="E225" s="69"/>
+      <c r="F225" s="69"/>
+      <c r="G225" s="69"/>
+      <c r="H225" s="69"/>
+      <c r="I225" s="69"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="68"/>
-      <c r="B226" s="68"/>
-      <c r="C226" s="68"/>
-      <c r="D226" s="68"/>
-      <c r="E226" s="68"/>
-      <c r="F226" s="68"/>
-      <c r="G226" s="68"/>
-      <c r="H226" s="68"/>
-      <c r="I226" s="68"/>
+      <c r="A226" s="69"/>
+      <c r="B226" s="69"/>
+      <c r="C226" s="69"/>
+      <c r="D226" s="69"/>
+      <c r="E226" s="69"/>
+      <c r="F226" s="69"/>
+      <c r="G226" s="69"/>
+      <c r="H226" s="69"/>
+      <c r="I226" s="69"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="68"/>
-      <c r="B227" s="68"/>
-      <c r="C227" s="68"/>
-      <c r="D227" s="68"/>
-      <c r="E227" s="68"/>
-      <c r="F227" s="68"/>
-      <c r="G227" s="68"/>
-      <c r="H227" s="68"/>
-      <c r="I227" s="68"/>
+      <c r="A227" s="69"/>
+      <c r="B227" s="69"/>
+      <c r="C227" s="69"/>
+      <c r="D227" s="69"/>
+      <c r="E227" s="69"/>
+      <c r="F227" s="69"/>
+      <c r="G227" s="69"/>
+      <c r="H227" s="69"/>
+      <c r="I227" s="69"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="68"/>
-      <c r="B228" s="68"/>
-      <c r="C228" s="68"/>
-      <c r="D228" s="68"/>
-      <c r="E228" s="68"/>
-      <c r="F228" s="68"/>
-      <c r="G228" s="68"/>
-      <c r="H228" s="68"/>
-      <c r="I228" s="68"/>
+      <c r="A228" s="69"/>
+      <c r="B228" s="69"/>
+      <c r="C228" s="69"/>
+      <c r="D228" s="69"/>
+      <c r="E228" s="69"/>
+      <c r="F228" s="69"/>
+      <c r="G228" s="69"/>
+      <c r="H228" s="69"/>
+      <c r="I228" s="69"/>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="68"/>
-      <c r="B229" s="68"/>
-      <c r="C229" s="68"/>
-      <c r="D229" s="68"/>
-      <c r="E229" s="68"/>
-      <c r="F229" s="68"/>
-      <c r="G229" s="68"/>
-      <c r="H229" s="68"/>
-      <c r="I229" s="68"/>
+      <c r="A229" s="69"/>
+      <c r="B229" s="69"/>
+      <c r="C229" s="69"/>
+      <c r="D229" s="69"/>
+      <c r="E229" s="69"/>
+      <c r="F229" s="69"/>
+      <c r="G229" s="69"/>
+      <c r="H229" s="69"/>
+      <c r="I229" s="69"/>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="68"/>
-      <c r="B230" s="68"/>
-      <c r="C230" s="68"/>
-      <c r="D230" s="68"/>
-      <c r="E230" s="68"/>
-      <c r="F230" s="68"/>
-      <c r="G230" s="68"/>
-      <c r="H230" s="68"/>
-      <c r="I230" s="68"/>
+      <c r="A230" s="69"/>
+      <c r="B230" s="69"/>
+      <c r="C230" s="69"/>
+      <c r="D230" s="69"/>
+      <c r="E230" s="69"/>
+      <c r="F230" s="69"/>
+      <c r="G230" s="69"/>
+      <c r="H230" s="69"/>
+      <c r="I230" s="69"/>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="68"/>
-      <c r="B231" s="68"/>
-      <c r="C231" s="68"/>
-      <c r="D231" s="68"/>
-      <c r="E231" s="68"/>
-      <c r="F231" s="68"/>
-      <c r="G231" s="68"/>
-      <c r="H231" s="68"/>
-      <c r="I231" s="68"/>
+      <c r="A231" s="69"/>
+      <c r="B231" s="69"/>
+      <c r="C231" s="69"/>
+      <c r="D231" s="69"/>
+      <c r="E231" s="69"/>
+      <c r="F231" s="69"/>
+      <c r="G231" s="69"/>
+      <c r="H231" s="69"/>
+      <c r="I231" s="69"/>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="68"/>
-      <c r="B232" s="68"/>
-      <c r="C232" s="68"/>
-      <c r="D232" s="68"/>
-      <c r="E232" s="68"/>
-      <c r="F232" s="68"/>
-      <c r="G232" s="68"/>
-      <c r="H232" s="68"/>
-      <c r="I232" s="68"/>
+      <c r="A232" s="69"/>
+      <c r="B232" s="69"/>
+      <c r="C232" s="69"/>
+      <c r="D232" s="69"/>
+      <c r="E232" s="69"/>
+      <c r="F232" s="69"/>
+      <c r="G232" s="69"/>
+      <c r="H232" s="69"/>
+      <c r="I232" s="69"/>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="68"/>
-      <c r="B233" s="68"/>
-      <c r="C233" s="68"/>
-      <c r="D233" s="68"/>
-      <c r="E233" s="68"/>
-      <c r="F233" s="68"/>
-      <c r="G233" s="68"/>
-      <c r="H233" s="68"/>
-      <c r="I233" s="68"/>
+      <c r="A233" s="69"/>
+      <c r="B233" s="69"/>
+      <c r="C233" s="69"/>
+      <c r="D233" s="69"/>
+      <c r="E233" s="69"/>
+      <c r="F233" s="69"/>
+      <c r="G233" s="69"/>
+      <c r="H233" s="69"/>
+      <c r="I233" s="69"/>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="68"/>
-      <c r="B234" s="68"/>
-      <c r="C234" s="68"/>
-      <c r="D234" s="68"/>
-      <c r="E234" s="68"/>
-      <c r="F234" s="68"/>
-      <c r="G234" s="68"/>
-      <c r="H234" s="68"/>
-      <c r="I234" s="68"/>
+      <c r="A234" s="69"/>
+      <c r="B234" s="69"/>
+      <c r="C234" s="69"/>
+      <c r="D234" s="69"/>
+      <c r="E234" s="69"/>
+      <c r="F234" s="69"/>
+      <c r="G234" s="69"/>
+      <c r="H234" s="69"/>
+      <c r="I234" s="69"/>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="68"/>
-      <c r="B235" s="68"/>
-      <c r="C235" s="68"/>
-      <c r="D235" s="68"/>
-      <c r="E235" s="68"/>
-      <c r="F235" s="68"/>
-      <c r="G235" s="68"/>
-      <c r="H235" s="68"/>
-      <c r="I235" s="68"/>
+      <c r="A235" s="69"/>
+      <c r="B235" s="69"/>
+      <c r="C235" s="69"/>
+      <c r="D235" s="69"/>
+      <c r="E235" s="69"/>
+      <c r="F235" s="69"/>
+      <c r="G235" s="69"/>
+      <c r="H235" s="69"/>
+      <c r="I235" s="69"/>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="68"/>
-      <c r="B236" s="68"/>
-      <c r="C236" s="68"/>
-      <c r="D236" s="68"/>
-      <c r="E236" s="68"/>
-      <c r="F236" s="68"/>
-      <c r="G236" s="68"/>
-      <c r="H236" s="68"/>
-      <c r="I236" s="68"/>
+      <c r="A236" s="69"/>
+      <c r="B236" s="69"/>
+      <c r="C236" s="69"/>
+      <c r="D236" s="69"/>
+      <c r="E236" s="69"/>
+      <c r="F236" s="69"/>
+      <c r="G236" s="69"/>
+      <c r="H236" s="69"/>
+      <c r="I236" s="69"/>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="68"/>
-      <c r="B237" s="68"/>
-      <c r="C237" s="68"/>
-      <c r="D237" s="68"/>
-      <c r="E237" s="68"/>
-      <c r="F237" s="68"/>
-      <c r="G237" s="68"/>
-      <c r="H237" s="68"/>
-      <c r="I237" s="68"/>
+      <c r="A237" s="69"/>
+      <c r="B237" s="69"/>
+      <c r="C237" s="69"/>
+      <c r="D237" s="69"/>
+      <c r="E237" s="69"/>
+      <c r="F237" s="69"/>
+      <c r="G237" s="69"/>
+      <c r="H237" s="69"/>
+      <c r="I237" s="69"/>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="68"/>
-      <c r="B238" s="68"/>
-      <c r="C238" s="68"/>
-      <c r="D238" s="68"/>
-      <c r="E238" s="68"/>
-      <c r="F238" s="68"/>
-      <c r="G238" s="68"/>
-      <c r="H238" s="68"/>
-      <c r="I238" s="68"/>
+      <c r="A238" s="69"/>
+      <c r="B238" s="69"/>
+      <c r="C238" s="69"/>
+      <c r="D238" s="69"/>
+      <c r="E238" s="69"/>
+      <c r="F238" s="69"/>
+      <c r="G238" s="69"/>
+      <c r="H238" s="69"/>
+      <c r="I238" s="69"/>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="68"/>
-      <c r="B239" s="68"/>
-      <c r="C239" s="68"/>
-      <c r="D239" s="68"/>
-      <c r="E239" s="68"/>
-      <c r="F239" s="68"/>
-      <c r="G239" s="68"/>
-      <c r="H239" s="68"/>
-      <c r="I239" s="68"/>
+      <c r="A239" s="69"/>
+      <c r="B239" s="69"/>
+      <c r="C239" s="69"/>
+      <c r="D239" s="69"/>
+      <c r="E239" s="69"/>
+      <c r="F239" s="69"/>
+      <c r="G239" s="69"/>
+      <c r="H239" s="69"/>
+      <c r="I239" s="69"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="68"/>
-      <c r="B240" s="68"/>
-      <c r="C240" s="68"/>
-      <c r="D240" s="68"/>
-      <c r="E240" s="68"/>
-      <c r="F240" s="68"/>
-      <c r="G240" s="68"/>
-      <c r="H240" s="68"/>
-      <c r="I240" s="68"/>
+      <c r="A240" s="69"/>
+      <c r="B240" s="69"/>
+      <c r="C240" s="69"/>
+      <c r="D240" s="69"/>
+      <c r="E240" s="69"/>
+      <c r="F240" s="69"/>
+      <c r="G240" s="69"/>
+      <c r="H240" s="69"/>
+      <c r="I240" s="69"/>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="68"/>
-      <c r="B241" s="68"/>
-      <c r="C241" s="68"/>
-      <c r="D241" s="68"/>
-      <c r="E241" s="68"/>
-      <c r="F241" s="68"/>
-      <c r="G241" s="68"/>
-      <c r="H241" s="68"/>
-      <c r="I241" s="68"/>
+      <c r="A241" s="69"/>
+      <c r="B241" s="69"/>
+      <c r="C241" s="69"/>
+      <c r="D241" s="69"/>
+      <c r="E241" s="69"/>
+      <c r="F241" s="69"/>
+      <c r="G241" s="69"/>
+      <c r="H241" s="69"/>
+      <c r="I241" s="69"/>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="68"/>
-      <c r="B242" s="68"/>
-      <c r="C242" s="68"/>
-      <c r="D242" s="68"/>
-      <c r="E242" s="68"/>
-      <c r="F242" s="68"/>
-      <c r="G242" s="68"/>
-      <c r="H242" s="68"/>
-      <c r="I242" s="68"/>
+      <c r="A242" s="69"/>
+      <c r="B242" s="69"/>
+      <c r="C242" s="69"/>
+      <c r="D242" s="69"/>
+      <c r="E242" s="69"/>
+      <c r="F242" s="69"/>
+      <c r="G242" s="69"/>
+      <c r="H242" s="69"/>
+      <c r="I242" s="69"/>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="68"/>
-      <c r="B243" s="68"/>
-      <c r="C243" s="68"/>
-      <c r="D243" s="68"/>
-      <c r="E243" s="68"/>
-      <c r="F243" s="68"/>
-      <c r="G243" s="68"/>
-      <c r="H243" s="68"/>
-      <c r="I243" s="68"/>
+      <c r="A243" s="69"/>
+      <c r="B243" s="69"/>
+      <c r="C243" s="69"/>
+      <c r="D243" s="69"/>
+      <c r="E243" s="69"/>
+      <c r="F243" s="69"/>
+      <c r="G243" s="69"/>
+      <c r="H243" s="69"/>
+      <c r="I243" s="69"/>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="68"/>
-      <c r="B244" s="68"/>
-      <c r="C244" s="68"/>
-      <c r="D244" s="68"/>
-      <c r="E244" s="68"/>
-      <c r="F244" s="68"/>
-      <c r="G244" s="68"/>
-      <c r="H244" s="68"/>
-      <c r="I244" s="68"/>
+      <c r="A244" s="69"/>
+      <c r="B244" s="69"/>
+      <c r="C244" s="69"/>
+      <c r="D244" s="69"/>
+      <c r="E244" s="69"/>
+      <c r="F244" s="69"/>
+      <c r="G244" s="69"/>
+      <c r="H244" s="69"/>
+      <c r="I244" s="69"/>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="68"/>
-      <c r="B245" s="68"/>
-      <c r="C245" s="68"/>
-      <c r="D245" s="68"/>
-      <c r="E245" s="68"/>
-      <c r="F245" s="68"/>
-      <c r="G245" s="68"/>
-      <c r="H245" s="68"/>
-      <c r="I245" s="68"/>
+      <c r="A245" s="69"/>
+      <c r="B245" s="69"/>
+      <c r="C245" s="69"/>
+      <c r="D245" s="69"/>
+      <c r="E245" s="69"/>
+      <c r="F245" s="69"/>
+      <c r="G245" s="69"/>
+      <c r="H245" s="69"/>
+      <c r="I245" s="69"/>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="68"/>
-      <c r="B246" s="68"/>
-      <c r="C246" s="68"/>
-      <c r="D246" s="68"/>
-      <c r="E246" s="68"/>
-      <c r="F246" s="68"/>
-      <c r="G246" s="68"/>
-      <c r="H246" s="68"/>
-      <c r="I246" s="68"/>
+      <c r="A246" s="69"/>
+      <c r="B246" s="69"/>
+      <c r="C246" s="69"/>
+      <c r="D246" s="69"/>
+      <c r="E246" s="69"/>
+      <c r="F246" s="69"/>
+      <c r="G246" s="69"/>
+      <c r="H246" s="69"/>
+      <c r="I246" s="69"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="68"/>
-      <c r="B247" s="68"/>
-      <c r="C247" s="68"/>
-      <c r="D247" s="68"/>
-      <c r="E247" s="68"/>
-      <c r="F247" s="68"/>
-      <c r="G247" s="68"/>
-      <c r="H247" s="68"/>
-      <c r="I247" s="68"/>
+      <c r="A247" s="69"/>
+      <c r="B247" s="69"/>
+      <c r="C247" s="69"/>
+      <c r="D247" s="69"/>
+      <c r="E247" s="69"/>
+      <c r="F247" s="69"/>
+      <c r="G247" s="69"/>
+      <c r="H247" s="69"/>
+      <c r="I247" s="69"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="68"/>
-      <c r="B248" s="68"/>
-      <c r="C248" s="68"/>
-      <c r="D248" s="68"/>
-      <c r="E248" s="68"/>
-      <c r="F248" s="68"/>
-      <c r="G248" s="68"/>
-      <c r="H248" s="68"/>
-      <c r="I248" s="68"/>
+      <c r="A248" s="69"/>
+      <c r="B248" s="69"/>
+      <c r="C248" s="69"/>
+      <c r="D248" s="69"/>
+      <c r="E248" s="69"/>
+      <c r="F248" s="69"/>
+      <c r="G248" s="69"/>
+      <c r="H248" s="69"/>
+      <c r="I248" s="69"/>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="68"/>
-      <c r="B249" s="68"/>
-      <c r="C249" s="68"/>
-      <c r="D249" s="68"/>
-      <c r="E249" s="68"/>
-      <c r="F249" s="68"/>
-      <c r="G249" s="68"/>
-      <c r="H249" s="68"/>
-      <c r="I249" s="68"/>
+      <c r="A249" s="69"/>
+      <c r="B249" s="69"/>
+      <c r="C249" s="69"/>
+      <c r="D249" s="69"/>
+      <c r="E249" s="69"/>
+      <c r="F249" s="69"/>
+      <c r="G249" s="69"/>
+      <c r="H249" s="69"/>
+      <c r="I249" s="69"/>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="68"/>
-      <c r="B250" s="68"/>
-      <c r="C250" s="68"/>
-      <c r="D250" s="68"/>
-      <c r="E250" s="68"/>
-      <c r="F250" s="68"/>
-      <c r="G250" s="68"/>
-      <c r="H250" s="68"/>
-      <c r="I250" s="68"/>
+      <c r="A250" s="69"/>
+      <c r="B250" s="69"/>
+      <c r="C250" s="69"/>
+      <c r="D250" s="69"/>
+      <c r="E250" s="69"/>
+      <c r="F250" s="69"/>
+      <c r="G250" s="69"/>
+      <c r="H250" s="69"/>
+      <c r="I250" s="69"/>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="68"/>
-      <c r="B251" s="68"/>
-      <c r="C251" s="68"/>
-      <c r="D251" s="68"/>
-      <c r="E251" s="68"/>
-      <c r="F251" s="68"/>
-      <c r="G251" s="68"/>
-      <c r="H251" s="68"/>
-      <c r="I251" s="68"/>
+      <c r="A251" s="69"/>
+      <c r="B251" s="69"/>
+      <c r="C251" s="69"/>
+      <c r="D251" s="69"/>
+      <c r="E251" s="69"/>
+      <c r="F251" s="69"/>
+      <c r="G251" s="69"/>
+      <c r="H251" s="69"/>
+      <c r="I251" s="69"/>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="68"/>
-      <c r="B252" s="68"/>
-      <c r="C252" s="68"/>
-      <c r="D252" s="68"/>
-      <c r="E252" s="68"/>
-      <c r="F252" s="68"/>
-      <c r="G252" s="68"/>
-      <c r="H252" s="68"/>
-      <c r="I252" s="68"/>
+      <c r="A252" s="69"/>
+      <c r="B252" s="69"/>
+      <c r="C252" s="69"/>
+      <c r="D252" s="69"/>
+      <c r="E252" s="69"/>
+      <c r="F252" s="69"/>
+      <c r="G252" s="69"/>
+      <c r="H252" s="69"/>
+      <c r="I252" s="69"/>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="68"/>
-      <c r="B253" s="68"/>
-      <c r="C253" s="68"/>
-      <c r="D253" s="68"/>
-      <c r="E253" s="68"/>
-      <c r="F253" s="68"/>
-      <c r="G253" s="68"/>
-      <c r="H253" s="68"/>
-      <c r="I253" s="68"/>
+      <c r="A253" s="69"/>
+      <c r="B253" s="69"/>
+      <c r="C253" s="69"/>
+      <c r="D253" s="69"/>
+      <c r="E253" s="69"/>
+      <c r="F253" s="69"/>
+      <c r="G253" s="69"/>
+      <c r="H253" s="69"/>
+      <c r="I253" s="69"/>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="68"/>
-      <c r="B254" s="68"/>
-      <c r="C254" s="68"/>
-      <c r="D254" s="68"/>
-      <c r="E254" s="68"/>
-      <c r="F254" s="68"/>
-      <c r="G254" s="68"/>
-      <c r="H254" s="68"/>
-      <c r="I254" s="68"/>
+      <c r="A254" s="69"/>
+      <c r="B254" s="69"/>
+      <c r="C254" s="69"/>
+      <c r="D254" s="69"/>
+      <c r="E254" s="69"/>
+      <c r="F254" s="69"/>
+      <c r="G254" s="69"/>
+      <c r="H254" s="69"/>
+      <c r="I254" s="69"/>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="68"/>
-      <c r="B255" s="68"/>
-      <c r="C255" s="68"/>
-      <c r="D255" s="68"/>
-      <c r="E255" s="68"/>
-      <c r="F255" s="68"/>
-      <c r="G255" s="68"/>
-      <c r="H255" s="68"/>
-      <c r="I255" s="68"/>
+      <c r="A255" s="69"/>
+      <c r="B255" s="69"/>
+      <c r="C255" s="69"/>
+      <c r="D255" s="69"/>
+      <c r="E255" s="69"/>
+      <c r="F255" s="69"/>
+      <c r="G255" s="69"/>
+      <c r="H255" s="69"/>
+      <c r="I255" s="69"/>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="68"/>
-      <c r="B256" s="68"/>
-      <c r="C256" s="68"/>
-      <c r="D256" s="68"/>
-      <c r="E256" s="68"/>
-      <c r="F256" s="68"/>
-      <c r="G256" s="68"/>
-      <c r="H256" s="68"/>
-      <c r="I256" s="68"/>
+      <c r="A256" s="69"/>
+      <c r="B256" s="69"/>
+      <c r="C256" s="69"/>
+      <c r="D256" s="69"/>
+      <c r="E256" s="69"/>
+      <c r="F256" s="69"/>
+      <c r="G256" s="69"/>
+      <c r="H256" s="69"/>
+      <c r="I256" s="69"/>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="68"/>
-      <c r="B257" s="68"/>
-      <c r="C257" s="68"/>
-      <c r="D257" s="68"/>
-      <c r="E257" s="68"/>
-      <c r="F257" s="68"/>
-      <c r="G257" s="68"/>
-      <c r="H257" s="68"/>
-      <c r="I257" s="68"/>
+      <c r="A257" s="69"/>
+      <c r="B257" s="69"/>
+      <c r="C257" s="69"/>
+      <c r="D257" s="69"/>
+      <c r="E257" s="69"/>
+      <c r="F257" s="69"/>
+      <c r="G257" s="69"/>
+      <c r="H257" s="69"/>
+      <c r="I257" s="69"/>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="68"/>
-      <c r="B258" s="68"/>
-      <c r="C258" s="68"/>
-      <c r="D258" s="68"/>
-      <c r="E258" s="68"/>
-      <c r="F258" s="68"/>
-      <c r="G258" s="68"/>
-      <c r="H258" s="68"/>
-      <c r="I258" s="68"/>
+      <c r="A258" s="69"/>
+      <c r="B258" s="69"/>
+      <c r="C258" s="69"/>
+      <c r="D258" s="69"/>
+      <c r="E258" s="69"/>
+      <c r="F258" s="69"/>
+      <c r="G258" s="69"/>
+      <c r="H258" s="69"/>
+      <c r="I258" s="69"/>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="68"/>
-      <c r="B259" s="68"/>
-      <c r="C259" s="68"/>
-      <c r="D259" s="68"/>
-      <c r="E259" s="68"/>
-      <c r="F259" s="68"/>
-      <c r="G259" s="68"/>
-      <c r="H259" s="68"/>
-      <c r="I259" s="68"/>
+      <c r="A259" s="69"/>
+      <c r="B259" s="69"/>
+      <c r="C259" s="69"/>
+      <c r="D259" s="69"/>
+      <c r="E259" s="69"/>
+      <c r="F259" s="69"/>
+      <c r="G259" s="69"/>
+      <c r="H259" s="69"/>
+      <c r="I259" s="69"/>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="68"/>
-      <c r="B260" s="68"/>
-      <c r="C260" s="68"/>
-      <c r="D260" s="68"/>
-      <c r="E260" s="68"/>
-      <c r="F260" s="68"/>
-      <c r="G260" s="68"/>
-      <c r="H260" s="68"/>
-      <c r="I260" s="68"/>
+      <c r="A260" s="69"/>
+      <c r="B260" s="69"/>
+      <c r="C260" s="69"/>
+      <c r="D260" s="69"/>
+      <c r="E260" s="69"/>
+      <c r="F260" s="69"/>
+      <c r="G260" s="69"/>
+      <c r="H260" s="69"/>
+      <c r="I260" s="69"/>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="68"/>
-      <c r="B261" s="68"/>
-      <c r="C261" s="68"/>
-      <c r="D261" s="68"/>
-      <c r="E261" s="68"/>
-      <c r="F261" s="68"/>
-      <c r="G261" s="68"/>
-      <c r="H261" s="68"/>
-      <c r="I261" s="68"/>
+      <c r="A261" s="69"/>
+      <c r="B261" s="69"/>
+      <c r="C261" s="69"/>
+      <c r="D261" s="69"/>
+      <c r="E261" s="69"/>
+      <c r="F261" s="69"/>
+      <c r="G261" s="69"/>
+      <c r="H261" s="69"/>
+      <c r="I261" s="69"/>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="68"/>
-      <c r="B262" s="68"/>
-      <c r="C262" s="68"/>
-      <c r="D262" s="68"/>
-      <c r="E262" s="68"/>
-      <c r="F262" s="68"/>
-      <c r="G262" s="68"/>
-      <c r="H262" s="68"/>
-      <c r="I262" s="68"/>
+      <c r="A262" s="69"/>
+      <c r="B262" s="69"/>
+      <c r="C262" s="69"/>
+      <c r="D262" s="69"/>
+      <c r="E262" s="69"/>
+      <c r="F262" s="69"/>
+      <c r="G262" s="69"/>
+      <c r="H262" s="69"/>
+      <c r="I262" s="69"/>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="68"/>
-      <c r="B263" s="68"/>
-      <c r="C263" s="68"/>
-      <c r="D263" s="68"/>
-      <c r="E263" s="68"/>
-      <c r="F263" s="68"/>
-      <c r="G263" s="68"/>
-      <c r="H263" s="68"/>
-      <c r="I263" s="68"/>
+      <c r="A263" s="69"/>
+      <c r="B263" s="69"/>
+      <c r="C263" s="69"/>
+      <c r="D263" s="69"/>
+      <c r="E263" s="69"/>
+      <c r="F263" s="69"/>
+      <c r="G263" s="69"/>
+      <c r="H263" s="69"/>
+      <c r="I263" s="69"/>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="68"/>
-      <c r="B264" s="68"/>
-      <c r="C264" s="68"/>
-      <c r="D264" s="68"/>
-      <c r="E264" s="68"/>
-      <c r="F264" s="68"/>
-      <c r="G264" s="68"/>
-      <c r="H264" s="68"/>
-      <c r="I264" s="68"/>
+      <c r="A264" s="69"/>
+      <c r="B264" s="69"/>
+      <c r="C264" s="69"/>
+      <c r="D264" s="69"/>
+      <c r="E264" s="69"/>
+      <c r="F264" s="69"/>
+      <c r="G264" s="69"/>
+      <c r="H264" s="69"/>
+      <c r="I264" s="69"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="68"/>
-      <c r="B265" s="68"/>
-      <c r="C265" s="68"/>
-      <c r="D265" s="68"/>
-      <c r="E265" s="68"/>
-      <c r="F265" s="68"/>
-      <c r="G265" s="68"/>
-      <c r="H265" s="68"/>
-      <c r="I265" s="68"/>
+      <c r="A265" s="69"/>
+      <c r="B265" s="69"/>
+      <c r="C265" s="69"/>
+      <c r="D265" s="69"/>
+      <c r="E265" s="69"/>
+      <c r="F265" s="69"/>
+      <c r="G265" s="69"/>
+      <c r="H265" s="69"/>
+      <c r="I265" s="69"/>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="68"/>
-      <c r="B266" s="68"/>
-      <c r="C266" s="68"/>
-      <c r="D266" s="68"/>
-      <c r="E266" s="68"/>
-      <c r="F266" s="68"/>
-      <c r="G266" s="68"/>
-      <c r="H266" s="68"/>
-      <c r="I266" s="68"/>
+      <c r="A266" s="69"/>
+      <c r="B266" s="69"/>
+      <c r="C266" s="69"/>
+      <c r="D266" s="69"/>
+      <c r="E266" s="69"/>
+      <c r="F266" s="69"/>
+      <c r="G266" s="69"/>
+      <c r="H266" s="69"/>
+      <c r="I266" s="69"/>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="68"/>
-      <c r="B267" s="68"/>
-      <c r="C267" s="68"/>
-      <c r="D267" s="68"/>
-      <c r="E267" s="68"/>
-      <c r="F267" s="68"/>
-      <c r="G267" s="68"/>
-      <c r="H267" s="68"/>
-      <c r="I267" s="68"/>
+      <c r="A267" s="69"/>
+      <c r="B267" s="69"/>
+      <c r="C267" s="69"/>
+      <c r="D267" s="69"/>
+      <c r="E267" s="69"/>
+      <c r="F267" s="69"/>
+      <c r="G267" s="69"/>
+      <c r="H267" s="69"/>
+      <c r="I267" s="69"/>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="68"/>
-      <c r="B268" s="68"/>
-      <c r="C268" s="68"/>
-      <c r="D268" s="68"/>
-      <c r="E268" s="68"/>
-      <c r="F268" s="68"/>
-      <c r="G268" s="68"/>
-      <c r="H268" s="68"/>
-      <c r="I268" s="68"/>
+      <c r="A268" s="69"/>
+      <c r="B268" s="69"/>
+      <c r="C268" s="69"/>
+      <c r="D268" s="69"/>
+      <c r="E268" s="69"/>
+      <c r="F268" s="69"/>
+      <c r="G268" s="69"/>
+      <c r="H268" s="69"/>
+      <c r="I268" s="69"/>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="68"/>
-      <c r="B269" s="68"/>
-      <c r="C269" s="68"/>
-      <c r="D269" s="68"/>
-      <c r="E269" s="68"/>
-      <c r="F269" s="68"/>
-      <c r="G269" s="68"/>
-      <c r="H269" s="68"/>
-      <c r="I269" s="68"/>
+      <c r="A269" s="69"/>
+      <c r="B269" s="69"/>
+      <c r="C269" s="69"/>
+      <c r="D269" s="69"/>
+      <c r="E269" s="69"/>
+      <c r="F269" s="69"/>
+      <c r="G269" s="69"/>
+      <c r="H269" s="69"/>
+      <c r="I269" s="69"/>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="68"/>
-      <c r="B270" s="68"/>
-      <c r="C270" s="68"/>
-      <c r="D270" s="68"/>
-      <c r="E270" s="68"/>
-      <c r="F270" s="68"/>
-      <c r="G270" s="68"/>
-      <c r="H270" s="68"/>
-      <c r="I270" s="68"/>
+      <c r="A270" s="69"/>
+      <c r="B270" s="69"/>
+      <c r="C270" s="69"/>
+      <c r="D270" s="69"/>
+      <c r="E270" s="69"/>
+      <c r="F270" s="69"/>
+      <c r="G270" s="69"/>
+      <c r="H270" s="69"/>
+      <c r="I270" s="69"/>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="68"/>
-      <c r="B271" s="68"/>
-      <c r="C271" s="68"/>
-      <c r="D271" s="68"/>
-      <c r="E271" s="68"/>
-      <c r="F271" s="68"/>
-      <c r="G271" s="68"/>
-      <c r="H271" s="68"/>
-      <c r="I271" s="68"/>
+      <c r="A271" s="69"/>
+      <c r="B271" s="69"/>
+      <c r="C271" s="69"/>
+      <c r="D271" s="69"/>
+      <c r="E271" s="69"/>
+      <c r="F271" s="69"/>
+      <c r="G271" s="69"/>
+      <c r="H271" s="69"/>
+      <c r="I271" s="69"/>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="68"/>
-      <c r="B272" s="68"/>
-      <c r="C272" s="68"/>
-      <c r="D272" s="68"/>
-      <c r="E272" s="68"/>
-      <c r="F272" s="68"/>
-      <c r="G272" s="68"/>
-      <c r="H272" s="68"/>
-      <c r="I272" s="68"/>
+      <c r="A272" s="69"/>
+      <c r="B272" s="69"/>
+      <c r="C272" s="69"/>
+      <c r="D272" s="69"/>
+      <c r="E272" s="69"/>
+      <c r="F272" s="69"/>
+      <c r="G272" s="69"/>
+      <c r="H272" s="69"/>
+      <c r="I272" s="69"/>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="68"/>
-      <c r="B273" s="68"/>
-      <c r="C273" s="68"/>
-      <c r="D273" s="68"/>
-      <c r="E273" s="68"/>
-      <c r="F273" s="68"/>
-      <c r="G273" s="68"/>
-      <c r="H273" s="68"/>
-      <c r="I273" s="68"/>
+      <c r="A273" s="69"/>
+      <c r="B273" s="69"/>
+      <c r="C273" s="69"/>
+      <c r="D273" s="69"/>
+      <c r="E273" s="69"/>
+      <c r="F273" s="69"/>
+      <c r="G273" s="69"/>
+      <c r="H273" s="69"/>
+      <c r="I273" s="69"/>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="68"/>
-      <c r="B274" s="68"/>
-      <c r="C274" s="68"/>
-      <c r="D274" s="68"/>
-      <c r="E274" s="68"/>
-      <c r="F274" s="68"/>
-      <c r="G274" s="68"/>
-      <c r="H274" s="68"/>
-      <c r="I274" s="68"/>
+      <c r="A274" s="69"/>
+      <c r="B274" s="69"/>
+      <c r="C274" s="69"/>
+      <c r="D274" s="69"/>
+      <c r="E274" s="69"/>
+      <c r="F274" s="69"/>
+      <c r="G274" s="69"/>
+      <c r="H274" s="69"/>
+      <c r="I274" s="69"/>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="68"/>
-      <c r="B275" s="68"/>
-      <c r="C275" s="68"/>
-      <c r="D275" s="68"/>
-      <c r="E275" s="68"/>
-      <c r="F275" s="68"/>
-      <c r="G275" s="68"/>
-      <c r="H275" s="68"/>
-      <c r="I275" s="68"/>
+      <c r="A275" s="69"/>
+      <c r="B275" s="69"/>
+      <c r="C275" s="69"/>
+      <c r="D275" s="69"/>
+      <c r="E275" s="69"/>
+      <c r="F275" s="69"/>
+      <c r="G275" s="69"/>
+      <c r="H275" s="69"/>
+      <c r="I275" s="69"/>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="68"/>
-      <c r="B276" s="68"/>
-      <c r="C276" s="68"/>
-      <c r="D276" s="68"/>
-      <c r="E276" s="68"/>
-      <c r="F276" s="68"/>
-      <c r="G276" s="68"/>
-      <c r="H276" s="68"/>
-      <c r="I276" s="68"/>
+      <c r="A276" s="69"/>
+      <c r="B276" s="69"/>
+      <c r="C276" s="69"/>
+      <c r="D276" s="69"/>
+      <c r="E276" s="69"/>
+      <c r="F276" s="69"/>
+      <c r="G276" s="69"/>
+      <c r="H276" s="69"/>
+      <c r="I276" s="69"/>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="68"/>
-      <c r="B277" s="68"/>
-      <c r="C277" s="68"/>
-      <c r="D277" s="68"/>
-      <c r="E277" s="68"/>
-      <c r="F277" s="68"/>
-      <c r="G277" s="68"/>
-      <c r="H277" s="68"/>
-      <c r="I277" s="68"/>
+      <c r="A277" s="69"/>
+      <c r="B277" s="69"/>
+      <c r="C277" s="69"/>
+      <c r="D277" s="69"/>
+      <c r="E277" s="69"/>
+      <c r="F277" s="69"/>
+      <c r="G277" s="69"/>
+      <c r="H277" s="69"/>
+      <c r="I277" s="69"/>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="68"/>
-      <c r="B278" s="68"/>
-      <c r="C278" s="68"/>
-      <c r="D278" s="68"/>
-      <c r="E278" s="68"/>
-      <c r="F278" s="68"/>
-      <c r="G278" s="68"/>
-      <c r="H278" s="68"/>
-      <c r="I278" s="68"/>
+      <c r="A278" s="69"/>
+      <c r="B278" s="69"/>
+      <c r="C278" s="69"/>
+      <c r="D278" s="69"/>
+      <c r="E278" s="69"/>
+      <c r="F278" s="69"/>
+      <c r="G278" s="69"/>
+      <c r="H278" s="69"/>
+      <c r="I278" s="69"/>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="68"/>
-      <c r="B279" s="68"/>
-      <c r="C279" s="68"/>
-      <c r="D279" s="68"/>
-      <c r="E279" s="68"/>
-      <c r="F279" s="68"/>
-      <c r="G279" s="68"/>
-      <c r="H279" s="68"/>
-      <c r="I279" s="68"/>
+      <c r="A279" s="69"/>
+      <c r="B279" s="69"/>
+      <c r="C279" s="69"/>
+      <c r="D279" s="69"/>
+      <c r="E279" s="69"/>
+      <c r="F279" s="69"/>
+      <c r="G279" s="69"/>
+      <c r="H279" s="69"/>
+      <c r="I279" s="69"/>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="68"/>
-      <c r="B280" s="68"/>
-      <c r="C280" s="68"/>
-      <c r="D280" s="68"/>
-      <c r="E280" s="68"/>
-      <c r="F280" s="68"/>
-      <c r="G280" s="68"/>
-      <c r="H280" s="68"/>
-      <c r="I280" s="68"/>
+      <c r="A280" s="69"/>
+      <c r="B280" s="69"/>
+      <c r="C280" s="69"/>
+      <c r="D280" s="69"/>
+      <c r="E280" s="69"/>
+      <c r="F280" s="69"/>
+      <c r="G280" s="69"/>
+      <c r="H280" s="69"/>
+      <c r="I280" s="69"/>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="68"/>
-      <c r="B281" s="68"/>
-      <c r="C281" s="68"/>
-      <c r="D281" s="68"/>
-      <c r="E281" s="68"/>
-      <c r="F281" s="68"/>
-      <c r="G281" s="68"/>
-      <c r="H281" s="68"/>
-      <c r="I281" s="68"/>
+      <c r="A281" s="69"/>
+      <c r="B281" s="69"/>
+      <c r="C281" s="69"/>
+      <c r="D281" s="69"/>
+      <c r="E281" s="69"/>
+      <c r="F281" s="69"/>
+      <c r="G281" s="69"/>
+      <c r="H281" s="69"/>
+      <c r="I281" s="69"/>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="68"/>
-      <c r="B282" s="68"/>
-      <c r="C282" s="68"/>
-      <c r="D282" s="68"/>
-      <c r="E282" s="68"/>
-      <c r="F282" s="68"/>
-      <c r="G282" s="68"/>
-      <c r="H282" s="68"/>
-      <c r="I282" s="68"/>
+      <c r="A282" s="69"/>
+      <c r="B282" s="69"/>
+      <c r="C282" s="69"/>
+      <c r="D282" s="69"/>
+      <c r="E282" s="69"/>
+      <c r="F282" s="69"/>
+      <c r="G282" s="69"/>
+      <c r="H282" s="69"/>
+      <c r="I282" s="69"/>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="68"/>
-      <c r="B283" s="68"/>
-      <c r="C283" s="68"/>
-      <c r="D283" s="68"/>
-      <c r="E283" s="68"/>
-      <c r="F283" s="68"/>
-      <c r="G283" s="68"/>
-      <c r="H283" s="68"/>
-      <c r="I283" s="68"/>
+      <c r="A283" s="69"/>
+      <c r="B283" s="69"/>
+      <c r="C283" s="69"/>
+      <c r="D283" s="69"/>
+      <c r="E283" s="69"/>
+      <c r="F283" s="69"/>
+      <c r="G283" s="69"/>
+      <c r="H283" s="69"/>
+      <c r="I283" s="69"/>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="68"/>
-      <c r="B284" s="68"/>
-      <c r="C284" s="68"/>
-      <c r="D284" s="68"/>
-      <c r="E284" s="68"/>
-      <c r="F284" s="68"/>
-      <c r="G284" s="68"/>
-      <c r="H284" s="68"/>
-      <c r="I284" s="68"/>
+      <c r="A284" s="69"/>
+      <c r="B284" s="69"/>
+      <c r="C284" s="69"/>
+      <c r="D284" s="69"/>
+      <c r="E284" s="69"/>
+      <c r="F284" s="69"/>
+      <c r="G284" s="69"/>
+      <c r="H284" s="69"/>
+      <c r="I284" s="69"/>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="68"/>
-      <c r="B285" s="68"/>
-      <c r="C285" s="68"/>
-      <c r="D285" s="68"/>
-      <c r="E285" s="68"/>
-      <c r="F285" s="68"/>
-      <c r="G285" s="68"/>
-      <c r="H285" s="68"/>
-      <c r="I285" s="68"/>
+      <c r="A285" s="69"/>
+      <c r="B285" s="69"/>
+      <c r="C285" s="69"/>
+      <c r="D285" s="69"/>
+      <c r="E285" s="69"/>
+      <c r="F285" s="69"/>
+      <c r="G285" s="69"/>
+      <c r="H285" s="69"/>
+      <c r="I285" s="69"/>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="68"/>
-      <c r="B286" s="68"/>
-      <c r="C286" s="68"/>
-      <c r="D286" s="68"/>
-      <c r="E286" s="68"/>
-      <c r="F286" s="68"/>
-      <c r="G286" s="68"/>
-      <c r="H286" s="68"/>
-      <c r="I286" s="68"/>
+      <c r="A286" s="69"/>
+      <c r="B286" s="69"/>
+      <c r="C286" s="69"/>
+      <c r="D286" s="69"/>
+      <c r="E286" s="69"/>
+      <c r="F286" s="69"/>
+      <c r="G286" s="69"/>
+      <c r="H286" s="69"/>
+      <c r="I286" s="69"/>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="68"/>
-      <c r="B287" s="68"/>
-      <c r="C287" s="68"/>
-      <c r="D287" s="68"/>
-      <c r="E287" s="68"/>
-      <c r="F287" s="68"/>
-      <c r="G287" s="68"/>
-      <c r="H287" s="68"/>
-      <c r="I287" s="68"/>
+      <c r="A287" s="69"/>
+      <c r="B287" s="69"/>
+      <c r="C287" s="69"/>
+      <c r="D287" s="69"/>
+      <c r="E287" s="69"/>
+      <c r="F287" s="69"/>
+      <c r="G287" s="69"/>
+      <c r="H287" s="69"/>
+      <c r="I287" s="69"/>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="68"/>
-      <c r="B288" s="68"/>
-      <c r="C288" s="68"/>
-      <c r="D288" s="68"/>
-      <c r="E288" s="68"/>
-      <c r="F288" s="68"/>
-      <c r="G288" s="68"/>
-      <c r="H288" s="68"/>
-      <c r="I288" s="68"/>
+      <c r="A288" s="69"/>
+      <c r="B288" s="69"/>
+      <c r="C288" s="69"/>
+      <c r="D288" s="69"/>
+      <c r="E288" s="69"/>
+      <c r="F288" s="69"/>
+      <c r="G288" s="69"/>
+      <c r="H288" s="69"/>
+      <c r="I288" s="69"/>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="68"/>
-      <c r="B289" s="68"/>
-      <c r="C289" s="68"/>
-      <c r="D289" s="68"/>
-      <c r="E289" s="68"/>
-      <c r="F289" s="68"/>
-      <c r="G289" s="68"/>
-      <c r="H289" s="68"/>
-      <c r="I289" s="68"/>
+      <c r="A289" s="69"/>
+      <c r="B289" s="69"/>
+      <c r="C289" s="69"/>
+      <c r="D289" s="69"/>
+      <c r="E289" s="69"/>
+      <c r="F289" s="69"/>
+      <c r="G289" s="69"/>
+      <c r="H289" s="69"/>
+      <c r="I289" s="69"/>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="68"/>
-      <c r="B290" s="68"/>
-      <c r="C290" s="68"/>
-      <c r="D290" s="68"/>
-      <c r="E290" s="68"/>
-      <c r="F290" s="68"/>
-      <c r="G290" s="68"/>
-      <c r="H290" s="68"/>
-      <c r="I290" s="68"/>
+      <c r="A290" s="69"/>
+      <c r="B290" s="69"/>
+      <c r="C290" s="69"/>
+      <c r="D290" s="69"/>
+      <c r="E290" s="69"/>
+      <c r="F290" s="69"/>
+      <c r="G290" s="69"/>
+      <c r="H290" s="69"/>
+      <c r="I290" s="69"/>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="68"/>
-      <c r="B291" s="68"/>
-      <c r="C291" s="68"/>
-      <c r="D291" s="68"/>
-      <c r="E291" s="68"/>
-      <c r="F291" s="68"/>
-      <c r="G291" s="68"/>
-      <c r="H291" s="68"/>
-      <c r="I291" s="68"/>
+      <c r="A291" s="69"/>
+      <c r="B291" s="69"/>
+      <c r="C291" s="69"/>
+      <c r="D291" s="69"/>
+      <c r="E291" s="69"/>
+      <c r="F291" s="69"/>
+      <c r="G291" s="69"/>
+      <c r="H291" s="69"/>
+      <c r="I291" s="69"/>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="68"/>
-      <c r="B292" s="68"/>
-      <c r="C292" s="68"/>
-      <c r="D292" s="68"/>
-      <c r="E292" s="68"/>
-      <c r="F292" s="68"/>
-      <c r="G292" s="68"/>
-      <c r="H292" s="68"/>
-      <c r="I292" s="68"/>
+      <c r="A292" s="69"/>
+      <c r="B292" s="69"/>
+      <c r="C292" s="69"/>
+      <c r="D292" s="69"/>
+      <c r="E292" s="69"/>
+      <c r="F292" s="69"/>
+      <c r="G292" s="69"/>
+      <c r="H292" s="69"/>
+      <c r="I292" s="69"/>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="68"/>
-      <c r="B293" s="68"/>
-      <c r="C293" s="68"/>
-      <c r="D293" s="68"/>
-      <c r="E293" s="68"/>
-      <c r="F293" s="68"/>
-      <c r="G293" s="68"/>
-      <c r="H293" s="68"/>
-      <c r="I293" s="68"/>
+      <c r="A293" s="69"/>
+      <c r="B293" s="69"/>
+      <c r="C293" s="69"/>
+      <c r="D293" s="69"/>
+      <c r="E293" s="69"/>
+      <c r="F293" s="69"/>
+      <c r="G293" s="69"/>
+      <c r="H293" s="69"/>
+      <c r="I293" s="69"/>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="68"/>
-      <c r="B294" s="68"/>
-      <c r="C294" s="68"/>
-      <c r="D294" s="68"/>
-      <c r="E294" s="68"/>
-      <c r="F294" s="68"/>
-      <c r="G294" s="68"/>
-      <c r="H294" s="68"/>
-      <c r="I294" s="68"/>
+      <c r="A294" s="69"/>
+      <c r="B294" s="69"/>
+      <c r="C294" s="69"/>
+      <c r="D294" s="69"/>
+      <c r="E294" s="69"/>
+      <c r="F294" s="69"/>
+      <c r="G294" s="69"/>
+      <c r="H294" s="69"/>
+      <c r="I294" s="69"/>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="68"/>
-      <c r="B295" s="68"/>
-      <c r="C295" s="68"/>
-      <c r="D295" s="68"/>
-      <c r="E295" s="68"/>
-      <c r="F295" s="68"/>
-      <c r="G295" s="68"/>
-      <c r="H295" s="68"/>
-      <c r="I295" s="68"/>
+      <c r="A295" s="69"/>
+      <c r="B295" s="69"/>
+      <c r="C295" s="69"/>
+      <c r="D295" s="69"/>
+      <c r="E295" s="69"/>
+      <c r="F295" s="69"/>
+      <c r="G295" s="69"/>
+      <c r="H295" s="69"/>
+      <c r="I295" s="69"/>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="68"/>
-      <c r="B296" s="68"/>
-      <c r="C296" s="68"/>
-      <c r="D296" s="68"/>
-      <c r="E296" s="68"/>
-      <c r="F296" s="68"/>
-      <c r="G296" s="68"/>
-      <c r="H296" s="68"/>
-      <c r="I296" s="68"/>
+      <c r="A296" s="69"/>
+      <c r="B296" s="69"/>
+      <c r="C296" s="69"/>
+      <c r="D296" s="69"/>
+      <c r="E296" s="69"/>
+      <c r="F296" s="69"/>
+      <c r="G296" s="69"/>
+      <c r="H296" s="69"/>
+      <c r="I296" s="69"/>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="68"/>
-      <c r="B297" s="68"/>
-      <c r="C297" s="68"/>
-      <c r="D297" s="68"/>
-      <c r="E297" s="68"/>
-      <c r="F297" s="68"/>
-      <c r="G297" s="68"/>
-      <c r="H297" s="68"/>
-      <c r="I297" s="68"/>
+      <c r="A297" s="69"/>
+      <c r="B297" s="69"/>
+      <c r="C297" s="69"/>
+      <c r="D297" s="69"/>
+      <c r="E297" s="69"/>
+      <c r="F297" s="69"/>
+      <c r="G297" s="69"/>
+      <c r="H297" s="69"/>
+      <c r="I297" s="69"/>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="68"/>
-      <c r="B298" s="68"/>
-      <c r="C298" s="68"/>
-      <c r="D298" s="68"/>
-      <c r="E298" s="68"/>
-      <c r="F298" s="68"/>
-      <c r="G298" s="68"/>
-      <c r="H298" s="68"/>
-      <c r="I298" s="68"/>
+      <c r="A298" s="69"/>
+      <c r="B298" s="69"/>
+      <c r="C298" s="69"/>
+      <c r="D298" s="69"/>
+      <c r="E298" s="69"/>
+      <c r="F298" s="69"/>
+      <c r="G298" s="69"/>
+      <c r="H298" s="69"/>
+      <c r="I298" s="69"/>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="68"/>
-      <c r="B299" s="68"/>
-      <c r="C299" s="68"/>
-      <c r="D299" s="68"/>
-      <c r="E299" s="68"/>
-      <c r="F299" s="68"/>
-      <c r="G299" s="68"/>
-      <c r="H299" s="68"/>
-      <c r="I299" s="68"/>
+      <c r="A299" s="69"/>
+      <c r="B299" s="69"/>
+      <c r="C299" s="69"/>
+      <c r="D299" s="69"/>
+      <c r="E299" s="69"/>
+      <c r="F299" s="69"/>
+      <c r="G299" s="69"/>
+      <c r="H299" s="69"/>
+      <c r="I299" s="69"/>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="68"/>
-      <c r="B300" s="68"/>
-      <c r="C300" s="68"/>
-      <c r="D300" s="68"/>
-      <c r="E300" s="68"/>
-      <c r="F300" s="68"/>
-      <c r="G300" s="68"/>
-      <c r="H300" s="68"/>
-      <c r="I300" s="68"/>
+      <c r="A300" s="69"/>
+      <c r="B300" s="69"/>
+      <c r="C300" s="69"/>
+      <c r="D300" s="69"/>
+      <c r="E300" s="69"/>
+      <c r="F300" s="69"/>
+      <c r="G300" s="69"/>
+      <c r="H300" s="69"/>
+      <c r="I300" s="69"/>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="68"/>
-      <c r="B301" s="68"/>
-      <c r="C301" s="68"/>
-      <c r="D301" s="68"/>
-      <c r="E301" s="68"/>
-      <c r="F301" s="68"/>
-      <c r="G301" s="68"/>
-      <c r="H301" s="68"/>
-      <c r="I301" s="68"/>
+      <c r="A301" s="69"/>
+      <c r="B301" s="69"/>
+      <c r="C301" s="69"/>
+      <c r="D301" s="69"/>
+      <c r="E301" s="69"/>
+      <c r="F301" s="69"/>
+      <c r="G301" s="69"/>
+      <c r="H301" s="69"/>
+      <c r="I301" s="69"/>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="68"/>
-      <c r="B302" s="68"/>
-      <c r="C302" s="68"/>
-      <c r="D302" s="68"/>
-      <c r="E302" s="68"/>
-      <c r="F302" s="68"/>
-      <c r="G302" s="68"/>
-      <c r="H302" s="68"/>
-      <c r="I302" s="68"/>
+      <c r="A302" s="69"/>
+      <c r="B302" s="69"/>
+      <c r="C302" s="69"/>
+      <c r="D302" s="69"/>
+      <c r="E302" s="69"/>
+      <c r="F302" s="69"/>
+      <c r="G302" s="69"/>
+      <c r="H302" s="69"/>
+      <c r="I302" s="69"/>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="68"/>
-      <c r="B303" s="68"/>
-      <c r="C303" s="68"/>
-      <c r="D303" s="68"/>
-      <c r="E303" s="68"/>
-      <c r="F303" s="68"/>
-      <c r="G303" s="68"/>
-      <c r="H303" s="68"/>
-      <c r="I303" s="68"/>
+      <c r="A303" s="69"/>
+      <c r="B303" s="69"/>
+      <c r="C303" s="69"/>
+      <c r="D303" s="69"/>
+      <c r="E303" s="69"/>
+      <c r="F303" s="69"/>
+      <c r="G303" s="69"/>
+      <c r="H303" s="69"/>
+      <c r="I303" s="69"/>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="68"/>
-      <c r="B304" s="68"/>
-      <c r="C304" s="68"/>
-      <c r="D304" s="68"/>
-      <c r="E304" s="68"/>
-      <c r="F304" s="68"/>
-      <c r="G304" s="68"/>
-      <c r="H304" s="68"/>
-      <c r="I304" s="68"/>
+      <c r="A304" s="69"/>
+      <c r="B304" s="69"/>
+      <c r="C304" s="69"/>
+      <c r="D304" s="69"/>
+      <c r="E304" s="69"/>
+      <c r="F304" s="69"/>
+      <c r="G304" s="69"/>
+      <c r="H304" s="69"/>
+      <c r="I304" s="69"/>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="68"/>
-      <c r="B305" s="68"/>
-      <c r="C305" s="68"/>
-      <c r="D305" s="68"/>
-      <c r="E305" s="68"/>
-      <c r="F305" s="68"/>
-      <c r="G305" s="68"/>
-      <c r="H305" s="68"/>
-      <c r="I305" s="68"/>
+      <c r="A305" s="69"/>
+      <c r="B305" s="69"/>
+      <c r="C305" s="69"/>
+      <c r="D305" s="69"/>
+      <c r="E305" s="69"/>
+      <c r="F305" s="69"/>
+      <c r="G305" s="69"/>
+      <c r="H305" s="69"/>
+      <c r="I305" s="69"/>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="68"/>
-      <c r="B306" s="68"/>
-      <c r="C306" s="68"/>
-      <c r="D306" s="68"/>
-      <c r="E306" s="68"/>
-      <c r="F306" s="68"/>
-      <c r="G306" s="68"/>
-      <c r="H306" s="68"/>
-      <c r="I306" s="68"/>
+      <c r="A306" s="69"/>
+      <c r="B306" s="69"/>
+      <c r="C306" s="69"/>
+      <c r="D306" s="69"/>
+      <c r="E306" s="69"/>
+      <c r="F306" s="69"/>
+      <c r="G306" s="69"/>
+      <c r="H306" s="69"/>
+      <c r="I306" s="69"/>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="68"/>
-      <c r="B307" s="68"/>
-      <c r="C307" s="68"/>
-      <c r="D307" s="68"/>
-      <c r="E307" s="68"/>
-      <c r="F307" s="68"/>
-      <c r="G307" s="68"/>
-      <c r="H307" s="68"/>
-      <c r="I307" s="68"/>
+      <c r="A307" s="69"/>
+      <c r="B307" s="69"/>
+      <c r="C307" s="69"/>
+      <c r="D307" s="69"/>
+      <c r="E307" s="69"/>
+      <c r="F307" s="69"/>
+      <c r="G307" s="69"/>
+      <c r="H307" s="69"/>
+      <c r="I307" s="69"/>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="68"/>
-      <c r="B308" s="68"/>
-      <c r="C308" s="68"/>
-      <c r="D308" s="68"/>
-      <c r="E308" s="68"/>
-      <c r="F308" s="68"/>
-      <c r="G308" s="68"/>
-      <c r="H308" s="68"/>
-      <c r="I308" s="68"/>
+      <c r="A308" s="69"/>
+      <c r="B308" s="69"/>
+      <c r="C308" s="69"/>
+      <c r="D308" s="69"/>
+      <c r="E308" s="69"/>
+      <c r="F308" s="69"/>
+      <c r="G308" s="69"/>
+      <c r="H308" s="69"/>
+      <c r="I308" s="69"/>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="68"/>
-      <c r="B309" s="68"/>
-      <c r="C309" s="68"/>
-      <c r="D309" s="68"/>
-      <c r="E309" s="68"/>
-      <c r="F309" s="68"/>
-      <c r="G309" s="68"/>
-      <c r="H309" s="68"/>
-      <c r="I309" s="68"/>
+      <c r="A309" s="69"/>
+      <c r="B309" s="69"/>
+      <c r="C309" s="69"/>
+      <c r="D309" s="69"/>
+      <c r="E309" s="69"/>
+      <c r="F309" s="69"/>
+      <c r="G309" s="69"/>
+      <c r="H309" s="69"/>
+      <c r="I309" s="69"/>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="68"/>
-      <c r="B310" s="68"/>
-      <c r="C310" s="68"/>
-      <c r="D310" s="68"/>
-      <c r="E310" s="68"/>
-      <c r="F310" s="68"/>
-      <c r="G310" s="68"/>
-      <c r="H310" s="68"/>
-      <c r="I310" s="68"/>
+      <c r="A310" s="69"/>
+      <c r="B310" s="69"/>
+      <c r="C310" s="69"/>
+      <c r="D310" s="69"/>
+      <c r="E310" s="69"/>
+      <c r="F310" s="69"/>
+      <c r="G310" s="69"/>
+      <c r="H310" s="69"/>
+      <c r="I310" s="69"/>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="68"/>
-      <c r="B311" s="68"/>
-      <c r="C311" s="68"/>
-      <c r="D311" s="68"/>
-      <c r="E311" s="68"/>
-      <c r="F311" s="68"/>
-      <c r="G311" s="68"/>
-      <c r="H311" s="68"/>
-      <c r="I311" s="68"/>
+      <c r="A311" s="69"/>
+      <c r="B311" s="69"/>
+      <c r="C311" s="69"/>
+      <c r="D311" s="69"/>
+      <c r="E311" s="69"/>
+      <c r="F311" s="69"/>
+      <c r="G311" s="69"/>
+      <c r="H311" s="69"/>
+      <c r="I311" s="69"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -238,7 +238,8 @@
     <t xml:space="preserve">Binario (0000 00 0 0000 0000)=ON</t>
   </si>
   <si>
-    <t xml:space="preserve">Aire para vacio</t>
+    <t xml:space="preserve">Aire para vacio
+Is this value correct??</t>
   </si>
   <si>
     <t xml:space="preserve">Activacion Solenoide 3</t>
@@ -1589,6 +1590,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0093D9"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFC9211E"/>
       </patternFill>
@@ -1597,12 +1604,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
         <bgColor rgb="FF339966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0093D9"/>
-        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -1892,7 +1893,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2017,20 +2018,100 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2049,10 +2130,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2069,78 +2146,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2245,11 +2250,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2377,7 +2382,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2496,8 +2501,8 @@
   </sheetPr>
   <dimension ref="A1:L311"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2843,7 +2848,7 @@
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
       <c r="B13" s="29" t="s">
         <v>54</v>
@@ -2885,7 +2890,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="29"/>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="32" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="12"/>
@@ -2893,23 +2898,23 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="32" t="n">
+      <c r="C15" s="33" t="n">
         <v>5052</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="34" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="35" t="s">
         <v>61</v>
       </c>
       <c r="I15" s="12"/>
@@ -2933,7 +2938,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="32" t="s">
         <v>64</v>
       </c>
       <c r="I16" s="12"/>
@@ -2957,7 +2962,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="29"/>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="32" t="s">
         <v>67</v>
       </c>
       <c r="I17" s="12"/>
@@ -3015,23 +3020,23 @@
       <c r="A20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="36" t="n">
+      <c r="C20" s="37" t="n">
         <v>6060</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="36" t="n">
+      <c r="E20" s="37" t="n">
         <v>22</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38" t="s">
+      <c r="G20" s="38"/>
+      <c r="H20" s="39" t="s">
         <v>76</v>
       </c>
       <c r="I20" s="21" t="s">
@@ -3040,27 +3045,27 @@
       <c r="J20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="39" t="s">
+      <c r="L20" s="40" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="40" t="n">
+      <c r="B21" s="36"/>
+      <c r="C21" s="41" t="n">
         <v>6061</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="40" t="n">
+      <c r="E21" s="41" t="n">
         <v>3628</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="38"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="21" t="s">
         <v>14</v>
       </c>
@@ -3070,21 +3075,21 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="40" t="n">
+      <c r="B22" s="36"/>
+      <c r="C22" s="41" t="n">
         <v>6062</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="40" t="n">
+      <c r="E22" s="41" t="n">
         <v>256</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="38"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="21" t="s">
         <v>14</v>
       </c>
@@ -3094,21 +3099,21 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="40" t="n">
+      <c r="B23" s="36"/>
+      <c r="C23" s="41" t="n">
         <v>6063</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="40" t="n">
+      <c r="E23" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="38"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="21" t="s">
         <v>14</v>
       </c>
@@ -3118,21 +3123,21 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="40" t="n">
+      <c r="B24" s="36"/>
+      <c r="C24" s="41" t="n">
         <v>6064</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="40" t="n">
+      <c r="E24" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="38"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="21" t="s">
         <v>14</v>
       </c>
@@ -3142,21 +3147,21 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="40" t="n">
+      <c r="B25" s="36"/>
+      <c r="C25" s="41" t="n">
         <v>6065</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="40" t="n">
+      <c r="E25" s="41" t="n">
         <v>256</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="38"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="21" t="s">
         <v>14</v>
       </c>
@@ -3166,21 +3171,21 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="40" t="n">
+      <c r="B26" s="36"/>
+      <c r="C26" s="41" t="n">
         <v>6066</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="40" t="n">
+      <c r="E26" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="38"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="21" t="s">
         <v>14</v>
       </c>
@@ -3190,21 +3195,21 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="42" t="n">
+      <c r="B27" s="36"/>
+      <c r="C27" s="43" t="n">
         <v>6067</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="42" t="n">
+      <c r="E27" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="38"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="21" t="s">
         <v>14</v>
       </c>
@@ -3214,23 +3219,23 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="40" t="n">
+      <c r="C28" s="41" t="n">
         <v>6060</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="40" t="n">
+      <c r="E28" s="41" t="n">
         <v>16</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="38" t="s">
+      <c r="G28" s="42"/>
+      <c r="H28" s="39" t="s">
         <v>79</v>
       </c>
       <c r="I28" s="21" t="s">
@@ -3242,21 +3247,21 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="40" t="n">
+      <c r="B29" s="45"/>
+      <c r="C29" s="41" t="n">
         <v>6061</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="40" t="n">
+      <c r="E29" s="41" t="n">
         <v>3328</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="38"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="39"/>
       <c r="I29" s="21" t="s">
         <v>14</v>
       </c>
@@ -3266,21 +3271,21 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="40" t="n">
+      <c r="B30" s="45"/>
+      <c r="C30" s="41" t="n">
         <v>6062</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="40" t="n">
+      <c r="E30" s="41" t="n">
         <v>5645</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="41"/>
-      <c r="H30" s="38"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="39"/>
       <c r="I30" s="21" t="s">
         <v>14</v>
       </c>
@@ -3290,21 +3295,21 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="40" t="n">
+      <c r="B31" s="45"/>
+      <c r="C31" s="41" t="n">
         <v>6063</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="40" t="n">
+      <c r="E31" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="41"/>
-      <c r="H31" s="38"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="39"/>
       <c r="I31" s="21" t="s">
         <v>14</v>
       </c>
@@ -3314,21 +3319,21 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="40" t="n">
+      <c r="B32" s="45"/>
+      <c r="C32" s="41" t="n">
         <v>6064</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="40" t="n">
+      <c r="E32" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="41"/>
-      <c r="H32" s="38"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="21" t="s">
         <v>14</v>
       </c>
@@ -3338,21 +3343,21 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="40" t="n">
+      <c r="B33" s="45"/>
+      <c r="C33" s="41" t="n">
         <v>6065</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="40" t="n">
+      <c r="E33" s="41" t="n">
         <v>256</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="41"/>
-      <c r="H33" s="38"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="21" t="s">
         <v>14</v>
       </c>
@@ -3362,21 +3367,21 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="40" t="n">
+      <c r="B34" s="45"/>
+      <c r="C34" s="41" t="n">
         <v>6066</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="40" t="n">
+      <c r="E34" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="38"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="21" t="s">
         <v>14</v>
       </c>
@@ -3386,21 +3391,21 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="40" t="n">
+      <c r="B35" s="45"/>
+      <c r="C35" s="41" t="n">
         <v>6067</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="40" t="n">
+      <c r="E35" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="38"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="21" t="s">
         <v>14</v>
       </c>
@@ -3410,23 +3415,23 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8"/>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="46" t="n">
+      <c r="C36" s="47" t="n">
         <v>6060</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="46" t="n">
+      <c r="E36" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="48" t="s">
+      <c r="G36" s="48"/>
+      <c r="H36" s="49" t="s">
         <v>81</v>
       </c>
       <c r="I36" s="21" t="s">
@@ -3438,21 +3443,21 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="49" t="n">
+      <c r="B37" s="46"/>
+      <c r="C37" s="50" t="n">
         <v>6061</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="49" t="n">
+      <c r="E37" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="48"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="49"/>
       <c r="I37" s="21" t="s">
         <v>14</v>
       </c>
@@ -3462,21 +3467,21 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="49" t="n">
+      <c r="B38" s="46"/>
+      <c r="C38" s="50" t="n">
         <v>6062</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="49" t="n">
+      <c r="E38" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="F38" s="49" t="s">
+      <c r="F38" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="50"/>
-      <c r="H38" s="48"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="49"/>
       <c r="I38" s="21" t="s">
         <v>14</v>
       </c>
@@ -3486,21 +3491,21 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="49" t="n">
+      <c r="B39" s="46"/>
+      <c r="C39" s="50" t="n">
         <v>6063</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="49" t="n">
+      <c r="E39" s="50" t="n">
         <v>1046</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="50"/>
-      <c r="H39" s="48"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="49"/>
       <c r="I39" s="21" t="s">
         <v>14</v>
       </c>
@@ -3510,21 +3515,21 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="49" t="n">
+      <c r="B40" s="46"/>
+      <c r="C40" s="50" t="n">
         <v>6064</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="49" t="n">
+      <c r="E40" s="50" t="n">
         <v>3328</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="48"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="49"/>
       <c r="I40" s="21" t="s">
         <v>14</v>
       </c>
@@ -3534,21 +3539,21 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="49" t="n">
+      <c r="B41" s="46"/>
+      <c r="C41" s="50" t="n">
         <v>6065</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="49" t="n">
+      <c r="E41" s="50" t="n">
         <v>260</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="50"/>
-      <c r="H41" s="48"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="49"/>
       <c r="I41" s="21" t="s">
         <v>14</v>
       </c>
@@ -3558,21 +3563,21 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="49" t="n">
+      <c r="B42" s="46"/>
+      <c r="C42" s="50" t="n">
         <v>6066</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="49" t="n">
+      <c r="E42" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="50"/>
-      <c r="H42" s="48"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="21" t="s">
         <v>14</v>
       </c>
@@ -3582,21 +3587,21 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="51" t="n">
+      <c r="B43" s="46"/>
+      <c r="C43" s="52" t="n">
         <v>6067</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="51" t="n">
+      <c r="E43" s="52" t="n">
         <v>1024</v>
       </c>
-      <c r="F43" s="51" t="s">
+      <c r="F43" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="48"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="21" t="s">
         <v>14</v>
       </c>
@@ -3606,23 +3611,23 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8"/>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="49" t="n">
+      <c r="C44" s="50" t="n">
         <v>6060</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="49" t="n">
+      <c r="E44" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="F44" s="49" t="s">
+      <c r="F44" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="50"/>
-      <c r="H44" s="48" t="s">
+      <c r="G44" s="51"/>
+      <c r="H44" s="49" t="s">
         <v>83</v>
       </c>
       <c r="I44" s="21" t="s">
@@ -3634,21 +3639,21 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="49" t="n">
+      <c r="B45" s="54"/>
+      <c r="C45" s="50" t="n">
         <v>6061</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="49" t="n">
+      <c r="E45" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="50"/>
-      <c r="H45" s="48"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="49"/>
       <c r="I45" s="21" t="s">
         <v>14</v>
       </c>
@@ -3658,21 +3663,21 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="49" t="n">
+      <c r="B46" s="54"/>
+      <c r="C46" s="50" t="n">
         <v>6062</v>
       </c>
-      <c r="D46" s="49" t="s">
+      <c r="D46" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="49" t="n">
+      <c r="E46" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="F46" s="49" t="s">
+      <c r="F46" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="50"/>
-      <c r="H46" s="48"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="49"/>
       <c r="I46" s="21" t="s">
         <v>14</v>
       </c>
@@ -3682,21 +3687,21 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="49" t="n">
+      <c r="B47" s="54"/>
+      <c r="C47" s="50" t="n">
         <v>6063</v>
       </c>
-      <c r="D47" s="49" t="s">
+      <c r="D47" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="49" t="n">
+      <c r="E47" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="F47" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="50"/>
-      <c r="H47" s="48"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="49"/>
       <c r="I47" s="21" t="s">
         <v>14</v>
       </c>
@@ -3706,21 +3711,21 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="49" t="n">
+      <c r="B48" s="54"/>
+      <c r="C48" s="50" t="n">
         <v>6064</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="49" t="n">
+      <c r="E48" s="50" t="n">
         <v>3332</v>
       </c>
-      <c r="F48" s="49" t="s">
+      <c r="F48" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="50"/>
-      <c r="H48" s="48"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="49"/>
       <c r="I48" s="21" t="s">
         <v>14</v>
       </c>
@@ -3730,21 +3735,21 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="49" t="n">
+      <c r="B49" s="54"/>
+      <c r="C49" s="50" t="n">
         <v>6065</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="49" t="n">
+      <c r="E49" s="50" t="n">
         <v>1549</v>
       </c>
-      <c r="F49" s="49" t="s">
+      <c r="F49" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="50"/>
-      <c r="H49" s="48"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="49"/>
       <c r="I49" s="21" t="s">
         <v>14</v>
       </c>
@@ -3754,21 +3759,21 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="49" t="n">
+      <c r="B50" s="54"/>
+      <c r="C50" s="50" t="n">
         <v>6066</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="49" t="n">
+      <c r="E50" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="F50" s="49" t="s">
+      <c r="F50" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="50"/>
-      <c r="H50" s="48"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="49"/>
       <c r="I50" s="21" t="s">
         <v>14</v>
       </c>
@@ -3778,21 +3783,21 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="49" t="n">
+      <c r="B51" s="54"/>
+      <c r="C51" s="50" t="n">
         <v>6067</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="49" t="n">
+      <c r="E51" s="50" t="n">
         <v>1024</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="50"/>
-      <c r="H51" s="48"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="49"/>
       <c r="I51" s="21" t="s">
         <v>14</v>
       </c>
@@ -3802,23 +3807,23 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="8"/>
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="55" t="n">
+      <c r="C52" s="56" t="n">
         <v>6060</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="55" t="n">
+      <c r="E52" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="F52" s="55" t="s">
+      <c r="F52" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="56"/>
-      <c r="H52" s="57" t="s">
+      <c r="G52" s="57"/>
+      <c r="H52" s="58" t="s">
         <v>85</v>
       </c>
       <c r="I52" s="21" t="s">
@@ -3830,21 +3835,21 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="58" t="n">
+      <c r="B53" s="55"/>
+      <c r="C53" s="59" t="n">
         <v>6061</v>
       </c>
-      <c r="D53" s="58" t="s">
+      <c r="D53" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="58" t="n">
+      <c r="E53" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="F53" s="58" t="s">
+      <c r="F53" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="59"/>
-      <c r="H53" s="57"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="58"/>
       <c r="I53" s="21" t="s">
         <v>14</v>
       </c>
@@ -3854,21 +3859,21 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="58" t="n">
+      <c r="B54" s="55"/>
+      <c r="C54" s="59" t="n">
         <v>6062</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D54" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="58" t="n">
+      <c r="E54" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="F54" s="58" t="s">
+      <c r="F54" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="59"/>
-      <c r="H54" s="57"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="58"/>
       <c r="I54" s="21" t="s">
         <v>14</v>
       </c>
@@ -3878,21 +3883,21 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="58" t="n">
+      <c r="B55" s="55"/>
+      <c r="C55" s="59" t="n">
         <v>6063</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="58" t="n">
+      <c r="E55" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="F55" s="58" t="s">
+      <c r="F55" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="59"/>
-      <c r="H55" s="57"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="58"/>
       <c r="I55" s="21" t="s">
         <v>14</v>
       </c>
@@ -3902,21 +3907,21 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="58" t="n">
+      <c r="B56" s="55"/>
+      <c r="C56" s="59" t="n">
         <v>6064</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D56" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="58" t="n">
+      <c r="E56" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="F56" s="58" t="s">
+      <c r="F56" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="59"/>
-      <c r="H56" s="57"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="58"/>
       <c r="I56" s="21" t="s">
         <v>14</v>
       </c>
@@ -3926,21 +3931,21 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="58" t="n">
+      <c r="B57" s="55"/>
+      <c r="C57" s="59" t="n">
         <v>6065</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D57" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="58" t="n">
+      <c r="E57" s="59" t="n">
         <v>13</v>
       </c>
-      <c r="F57" s="58" t="s">
+      <c r="F57" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="59"/>
-      <c r="H57" s="57"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="58"/>
       <c r="I57" s="21" t="s">
         <v>14</v>
       </c>
@@ -3950,21 +3955,21 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="58" t="n">
+      <c r="B58" s="55"/>
+      <c r="C58" s="59" t="n">
         <v>6066</v>
       </c>
-      <c r="D58" s="58" t="s">
+      <c r="D58" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="58" t="n">
+      <c r="E58" s="59" t="n">
         <v>15</v>
       </c>
-      <c r="F58" s="58" t="s">
+      <c r="F58" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="59"/>
-      <c r="H58" s="57"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="58"/>
       <c r="I58" s="21" t="s">
         <v>14</v>
       </c>
@@ -3974,21 +3979,21 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="60" t="n">
+      <c r="B59" s="55"/>
+      <c r="C59" s="61" t="n">
         <v>6067</v>
       </c>
-      <c r="D59" s="60" t="s">
+      <c r="D59" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="60" t="n">
+      <c r="E59" s="61" t="n">
         <v>256</v>
       </c>
-      <c r="F59" s="60" t="s">
+      <c r="F59" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="61"/>
-      <c r="H59" s="57"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="58"/>
       <c r="I59" s="21" t="s">
         <v>14</v>
       </c>
@@ -4001,20 +4006,20 @@
       <c r="B60" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="62" t="n">
+      <c r="C60" s="63" t="n">
         <v>6060</v>
       </c>
-      <c r="D60" s="62" t="s">
+      <c r="D60" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="62" t="n">
+      <c r="E60" s="63" t="n">
         <v>23</v>
       </c>
-      <c r="F60" s="62" t="s">
+      <c r="F60" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="63"/>
-      <c r="H60" s="64" t="s">
+      <c r="G60" s="64"/>
+      <c r="H60" s="65" t="s">
         <v>87</v>
       </c>
       <c r="I60" s="21" t="s">
@@ -4027,20 +4032,20 @@
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8"/>
       <c r="B61" s="27"/>
-      <c r="C61" s="62" t="n">
+      <c r="C61" s="63" t="n">
         <v>6061</v>
       </c>
-      <c r="D61" s="62" t="s">
+      <c r="D61" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E61" s="62" t="n">
+      <c r="E61" s="63" t="n">
         <v>1024</v>
       </c>
-      <c r="F61" s="62" t="s">
+      <c r="F61" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="63"/>
-      <c r="H61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="65"/>
       <c r="I61" s="21" t="s">
         <v>14</v>
       </c>
@@ -4051,20 +4056,20 @@
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8"/>
       <c r="B62" s="27"/>
-      <c r="C62" s="62" t="n">
+      <c r="C62" s="63" t="n">
         <v>6062</v>
       </c>
-      <c r="D62" s="62" t="s">
+      <c r="D62" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="62" t="n">
+      <c r="E62" s="63" t="n">
         <v>5892</v>
       </c>
-      <c r="F62" s="62" t="s">
+      <c r="F62" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="63"/>
-      <c r="H62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="65"/>
       <c r="I62" s="21" t="s">
         <v>14</v>
       </c>
@@ -4075,20 +4080,20 @@
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8"/>
       <c r="B63" s="27"/>
-      <c r="C63" s="62" t="n">
+      <c r="C63" s="63" t="n">
         <v>6063</v>
       </c>
-      <c r="D63" s="62" t="s">
+      <c r="D63" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="62" t="n">
+      <c r="E63" s="63" t="n">
         <v>23</v>
       </c>
-      <c r="F63" s="62" t="s">
+      <c r="F63" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="63"/>
-      <c r="H63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="65"/>
       <c r="I63" s="21" t="s">
         <v>14</v>
       </c>
@@ -4099,20 +4104,20 @@
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8"/>
       <c r="B64" s="27"/>
-      <c r="C64" s="62" t="n">
+      <c r="C64" s="63" t="n">
         <v>6064</v>
       </c>
-      <c r="D64" s="62" t="s">
+      <c r="D64" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="62" t="n">
+      <c r="E64" s="63" t="n">
         <v>1024</v>
       </c>
-      <c r="F64" s="62" t="s">
+      <c r="F64" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="63"/>
-      <c r="H64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="65"/>
       <c r="I64" s="21" t="s">
         <v>14</v>
       </c>
@@ -4123,20 +4128,20 @@
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8"/>
       <c r="B65" s="27"/>
-      <c r="C65" s="62" t="n">
+      <c r="C65" s="63" t="n">
         <v>6065</v>
       </c>
-      <c r="D65" s="62" t="s">
+      <c r="D65" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="62" t="n">
+      <c r="E65" s="63" t="n">
         <v>5892</v>
       </c>
-      <c r="F65" s="62" t="s">
+      <c r="F65" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="63"/>
-      <c r="H65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="65"/>
       <c r="I65" s="21" t="s">
         <v>14</v>
       </c>
@@ -4147,20 +4152,20 @@
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8"/>
       <c r="B66" s="27"/>
-      <c r="C66" s="62" t="n">
+      <c r="C66" s="63" t="n">
         <v>6066</v>
       </c>
-      <c r="D66" s="62" t="s">
+      <c r="D66" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E66" s="62" t="n">
+      <c r="E66" s="63" t="n">
         <v>4119</v>
       </c>
-      <c r="F66" s="62" t="s">
+      <c r="F66" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="63"/>
-      <c r="H66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="65"/>
       <c r="I66" s="21" t="s">
         <v>14</v>
       </c>
@@ -4171,20 +4176,20 @@
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8"/>
       <c r="B67" s="27"/>
-      <c r="C67" s="62" t="n">
+      <c r="C67" s="63" t="n">
         <v>6067</v>
       </c>
-      <c r="D67" s="62" t="s">
+      <c r="D67" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E67" s="62" t="n">
+      <c r="E67" s="63" t="n">
         <v>1024</v>
       </c>
-      <c r="F67" s="62" t="s">
+      <c r="F67" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="63"/>
-      <c r="H67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="65"/>
       <c r="I67" s="21" t="s">
         <v>14</v>
       </c>
@@ -4231,52 +4236,52 @@
       <c r="D69" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E69" s="65" t="s">
+      <c r="E69" s="66" t="s">
         <v>94</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="19"/>
-      <c r="H69" s="66" t="s">
+      <c r="H69" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="I69" s="67" t="s">
+      <c r="I69" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="J69" s="68" t="s">
+      <c r="J69" s="69" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="69"/>
+      <c r="E70" s="70"/>
     </row>
     <row r="71" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="70" t="s">
+      <c r="A71" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
       <c r="F71" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="71" t="s">
+      <c r="A73" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="71"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="69"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="69" t="s">
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="69"/>
+      <c r="I73" s="70"/>
     </row>
     <row r="74" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
@@ -4288,15 +4293,15 @@
       <c r="C74" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="73" t="s">
+      <c r="D74" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="E74" s="74" t="s">
+      <c r="E74" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="F74" s="69"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="69"/>
+      <c r="F74" s="70"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="70"/>
     </row>
     <row r="75" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
@@ -4308,10 +4313,10 @@
       <c r="C75" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D75" s="75" t="s">
+      <c r="D75" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="E75" s="75" t="s">
+      <c r="E75" s="76" t="s">
         <v>109</v>
       </c>
       <c r="F75" s="30" t="s">
@@ -4332,10 +4337,10 @@
       <c r="C76" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D76" s="75" t="s">
+      <c r="D76" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="75" t="s">
+      <c r="E76" s="76" t="s">
         <v>109</v>
       </c>
       <c r="F76" s="30" t="s">
@@ -4347,43 +4352,43 @@
       <c r="J76" s="30"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="76" t="s">
+      <c r="A77" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="77" t="s">
+      <c r="B77" s="78" t="s">
         <v>117</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="75" t="s">
+      <c r="D77" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="E77" s="75" t="s">
+      <c r="E77" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="F77" s="69"/>
+      <c r="F77" s="70"/>
     </row>
     <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="76" t="s">
+      <c r="A78" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="77" t="s">
+      <c r="B78" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="75" t="s">
+      <c r="D78" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="E78" s="75" t="s">
+      <c r="E78" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="F78" s="69"/>
+      <c r="F78" s="70"/>
     </row>
     <row r="79" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="78" t="s">
+      <c r="A79" s="79" t="s">
         <v>124</v>
       </c>
       <c r="B79" s="8" t="s">
@@ -4392,16 +4397,16 @@
       <c r="C79" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D79" s="75" t="s">
+      <c r="D79" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="E79" s="75" t="s">
+      <c r="E79" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="F79" s="69"/>
+      <c r="F79" s="70"/>
     </row>
     <row r="80" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="79" t="s">
+      <c r="A80" s="80" t="s">
         <v>128</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -4410,13 +4415,13 @@
       <c r="C80" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D80" s="75" t="s">
+      <c r="D80" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="75" t="s">
+      <c r="E80" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="F80" s="69"/>
+      <c r="F80" s="70"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
@@ -4428,13 +4433,13 @@
       <c r="C81" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D81" s="75" t="s">
+      <c r="D81" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="E81" s="75" t="s">
+      <c r="E81" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="F81" s="69"/>
+      <c r="F81" s="70"/>
     </row>
     <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
@@ -4446,13 +4451,13 @@
       <c r="C82" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D82" s="75" t="s">
+      <c r="D82" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="E82" s="75" t="s">
+      <c r="E82" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="F82" s="69"/>
+      <c r="F82" s="70"/>
     </row>
     <row r="83" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="23" t="s">
@@ -4464,13 +4469,13 @@
       <c r="C83" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D83" s="75" t="s">
+      <c r="D83" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="E83" s="75" t="s">
+      <c r="E83" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="F83" s="69"/>
+      <c r="F83" s="70"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="23" t="s">
@@ -4482,16 +4487,16 @@
       <c r="C84" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D84" s="75" t="s">
+      <c r="D84" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="E84" s="75" t="s">
+      <c r="E84" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="69"/>
-      <c r="I84" s="69"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="70"/>
+      <c r="H84" s="70"/>
+      <c r="I84" s="70"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
@@ -4503,16 +4508,16 @@
       <c r="C85" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D85" s="75" t="s">
+      <c r="D85" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="E85" s="75" t="s">
+      <c r="E85" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="F85" s="69"/>
-      <c r="G85" s="69"/>
-      <c r="H85" s="69"/>
-      <c r="I85" s="69"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="70"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
@@ -4524,10 +4529,10 @@
       <c r="C86" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D86" s="75" t="s">
+      <c r="D86" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="E86" s="75" t="s">
+      <c r="E86" s="76" t="s">
         <v>140</v>
       </c>
       <c r="F86" s="30" t="s">
@@ -4548,30 +4553,30 @@
       <c r="C87" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D87" s="75" t="s">
+      <c r="D87" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="E87" s="75" t="s">
+      <c r="E87" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="F87" s="69"/>
-      <c r="G87" s="69"/>
-      <c r="I87" s="69"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="I87" s="70"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="76" t="s">
+      <c r="A88" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="B88" s="77" t="s">
+      <c r="B88" s="78" t="s">
         <v>163</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D88" s="80" t="s">
+      <c r="D88" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="E88" s="75" t="s">
+      <c r="E88" s="76" t="s">
         <v>140</v>
       </c>
       <c r="F88" s="13" t="s">
@@ -4592,16 +4597,16 @@
       <c r="C89" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D89" s="75" t="s">
+      <c r="D89" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="E89" s="75" t="s">
+      <c r="E89" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="F89" s="69"/>
-      <c r="G89" s="69"/>
-      <c r="H89" s="69"/>
-      <c r="I89" s="69"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="70"/>
     </row>
     <row r="90" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
@@ -4613,10 +4618,10 @@
       <c r="C90" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D90" s="75" t="s">
+      <c r="D90" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="E90" s="75" t="s">
+      <c r="E90" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F90" s="30" t="s">
@@ -4628,91 +4633,91 @@
       <c r="J90" s="30"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="76" t="s">
+      <c r="A91" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="B91" s="77" t="s">
+      <c r="B91" s="78" t="s">
         <v>178</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D91" s="81" t="s">
+      <c r="D91" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="E91" s="75" t="s">
+      <c r="E91" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="F91" s="69"/>
-      <c r="G91" s="69"/>
-      <c r="H91" s="69"/>
-      <c r="I91" s="69"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="70"/>
+      <c r="I91" s="70"/>
     </row>
     <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="76" t="s">
+      <c r="A92" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B92" s="77" t="s">
+      <c r="B92" s="78" t="s">
         <v>182</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="D92" s="75" t="s">
+      <c r="D92" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="E92" s="75" t="s">
+      <c r="E92" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="69"/>
+      <c r="F92" s="70"/>
+      <c r="G92" s="70"/>
+      <c r="H92" s="70"/>
+      <c r="I92" s="70"/>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="82" t="s">
+      <c r="A93" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="B93" s="77" t="s">
+      <c r="B93" s="78" t="s">
         <v>186</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="D93" s="75" t="s">
+      <c r="D93" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="E93" s="75" t="s">
+      <c r="E93" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="F93" s="69"/>
-      <c r="G93" s="69"/>
-      <c r="H93" s="69"/>
-      <c r="I93" s="69"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="70"/>
+      <c r="H93" s="70"/>
+      <c r="I93" s="70"/>
     </row>
     <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="83" t="s">
+      <c r="A94" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="77" t="s">
+      <c r="B94" s="78" t="s">
         <v>190</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D94" s="75" t="s">
+      <c r="D94" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="E94" s="75" t="s">
+      <c r="E94" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="F94" s="69"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="69"/>
-      <c r="I94" s="69"/>
+      <c r="F94" s="70"/>
+      <c r="G94" s="70"/>
+      <c r="H94" s="70"/>
+      <c r="I94" s="70"/>
     </row>
     <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="79" t="s">
+      <c r="A95" s="80" t="s">
         <v>193</v>
       </c>
       <c r="B95" s="8" t="s">
@@ -4721,19 +4726,19 @@
       <c r="C95" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D95" s="75" t="s">
+      <c r="D95" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="E95" s="75" t="s">
+      <c r="E95" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="F95" s="69"/>
-      <c r="G95" s="69"/>
-      <c r="H95" s="69"/>
-      <c r="I95" s="69"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="70"/>
+      <c r="H95" s="70"/>
+      <c r="I95" s="70"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="79" t="s">
+      <c r="A96" s="80" t="s">
         <v>197</v>
       </c>
       <c r="B96" s="8" t="s">
@@ -4742,19 +4747,19 @@
       <c r="C96" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="D96" s="75" t="s">
+      <c r="D96" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="E96" s="75" t="s">
+      <c r="E96" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="F96" s="69"/>
-      <c r="G96" s="69"/>
-      <c r="H96" s="69"/>
-      <c r="I96" s="69"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="70"/>
+      <c r="H96" s="70"/>
+      <c r="I96" s="70"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="79" t="s">
+      <c r="A97" s="80" t="s">
         <v>201</v>
       </c>
       <c r="B97" s="8" t="s">
@@ -4763,19 +4768,19 @@
       <c r="C97" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="D97" s="75" t="s">
+      <c r="D97" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="E97" s="75" t="s">
+      <c r="E97" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="F97" s="69"/>
-      <c r="G97" s="69"/>
-      <c r="H97" s="69"/>
-      <c r="I97" s="69"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="70"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="70"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="79" t="s">
+      <c r="A98" s="80" t="s">
         <v>205</v>
       </c>
       <c r="B98" s="8" t="s">
@@ -4784,19 +4789,19 @@
       <c r="C98" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="D98" s="80" t="s">
+      <c r="D98" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="E98" s="75" t="s">
+      <c r="E98" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="69"/>
-      <c r="I98" s="69"/>
+      <c r="F98" s="70"/>
+      <c r="G98" s="70"/>
+      <c r="H98" s="70"/>
+      <c r="I98" s="70"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="79" t="s">
+      <c r="A99" s="80" t="s">
         <v>209</v>
       </c>
       <c r="B99" s="8" t="s">
@@ -4805,16 +4810,16 @@
       <c r="C99" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="D99" s="75" t="s">
+      <c r="D99" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="E99" s="75" t="s">
+      <c r="E99" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="69"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="70"/>
     </row>
     <row r="100" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
@@ -4826,10 +4831,10 @@
       <c r="C100" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="D100" s="75" t="s">
+      <c r="D100" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="E100" s="75" t="s">
+      <c r="E100" s="76" t="s">
         <v>181</v>
       </c>
       <c r="F100" s="30" t="s">
@@ -4850,16 +4855,16 @@
       <c r="C101" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="D101" s="75" t="s">
+      <c r="D101" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="E101" s="75" t="s">
+      <c r="E101" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="F101" s="69"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="69"/>
-      <c r="I101" s="69"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="70"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
@@ -4871,19 +4876,19 @@
       <c r="C102" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="D102" s="75" t="s">
+      <c r="D102" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="E102" s="75" t="s">
+      <c r="E102" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="69"/>
+      <c r="F102" s="70"/>
+      <c r="G102" s="70"/>
+      <c r="H102" s="70"/>
+      <c r="I102" s="70"/>
     </row>
     <row r="103" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="79" t="s">
+      <c r="A103" s="80" t="s">
         <v>224</v>
       </c>
       <c r="B103" s="8" t="s">
@@ -4892,19 +4897,19 @@
       <c r="C103" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="D103" s="75" t="s">
+      <c r="D103" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="E103" s="75" t="s">
+      <c r="E103" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="F103" s="69"/>
-      <c r="G103" s="69"/>
-      <c r="H103" s="69"/>
-      <c r="I103" s="69"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="70"/>
+      <c r="H103" s="70"/>
+      <c r="I103" s="70"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="79" t="s">
+      <c r="A104" s="80" t="s">
         <v>229</v>
       </c>
       <c r="B104" s="8" t="s">
@@ -4913,16 +4918,16 @@
       <c r="C104" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D104" s="75" t="s">
+      <c r="D104" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="E104" s="75" t="s">
+      <c r="E104" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="F104" s="69"/>
-      <c r="G104" s="69"/>
-      <c r="H104" s="69"/>
-      <c r="I104" s="69"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="70"/>
+      <c r="H104" s="70"/>
+      <c r="I104" s="70"/>
     </row>
     <row r="105" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
@@ -4934,22 +4939,22 @@
       <c r="C105" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="D105" s="75" t="s">
+      <c r="D105" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="E105" s="75" t="s">
+      <c r="E105" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="F105" s="69"/>
-      <c r="G105" s="69"/>
-      <c r="H105" s="69"/>
-      <c r="I105" s="69"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="70"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="70"/>
     </row>
     <row r="106" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="84" t="s">
+      <c r="A106" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="B106" s="77" t="s">
+      <c r="B106" s="78" t="s">
         <v>236</v>
       </c>
       <c r="C106" s="18" t="s">
@@ -4958,7 +4963,7 @@
       <c r="D106" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E106" s="75" t="s">
+      <c r="E106" s="76" t="s">
         <v>239</v>
       </c>
       <c r="F106" s="8" t="s">
@@ -4970,10 +4975,10 @@
       <c r="J106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="82" t="s">
+      <c r="A107" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="B107" s="77" t="s">
+      <c r="B107" s="78" t="s">
         <v>242</v>
       </c>
       <c r="C107" s="18" t="s">
@@ -4982,15 +4987,15 @@
       <c r="D107" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="E107" s="75" t="s">
+      <c r="E107" s="76" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="76" t="s">
+      <c r="A108" s="77" t="s">
         <v>245</v>
       </c>
-      <c r="B108" s="77" t="s">
+      <c r="B108" s="78" t="s">
         <v>246</v>
       </c>
       <c r="C108" s="18" t="s">
@@ -4999,15 +5004,15 @@
       <c r="D108" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="E108" s="75" t="s">
+      <c r="E108" s="76" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="76" t="s">
+      <c r="A109" s="77" t="s">
         <v>249</v>
       </c>
-      <c r="B109" s="77" t="s">
+      <c r="B109" s="78" t="s">
         <v>250</v>
       </c>
       <c r="C109" s="18" t="s">
@@ -5016,12 +5021,12 @@
       <c r="D109" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E109" s="75" t="s">
+      <c r="E109" s="76" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="85" t="s">
+      <c r="A110" s="86" t="s">
         <v>253</v>
       </c>
       <c r="B110" s="8" t="s">
@@ -5033,7 +5038,7 @@
       <c r="D110" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E110" s="75" t="s">
+      <c r="E110" s="76" t="s">
         <v>257</v>
       </c>
       <c r="F110" s="8" t="s">
@@ -5045,7 +5050,7 @@
       <c r="J110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="85" t="s">
+      <c r="A111" s="86" t="s">
         <v>259</v>
       </c>
       <c r="B111" s="8" t="s">
@@ -5057,18 +5062,18 @@
       <c r="D111" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E111" s="75" t="s">
+      <c r="E111" s="76" t="s">
         <v>257</v>
       </c>
-      <c r="F111" s="86" t="s">
+      <c r="F111" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="G111" s="69"/>
-      <c r="H111" s="69"/>
-      <c r="I111" s="69"/>
+      <c r="G111" s="70"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="70"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="79" t="s">
+      <c r="A112" s="80" t="s">
         <v>264</v>
       </c>
       <c r="B112" s="8" t="s">
@@ -5080,7 +5085,7 @@
       <c r="D112" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E112" s="75" t="s">
+      <c r="E112" s="76" t="s">
         <v>257</v>
       </c>
       <c r="F112" s="8" t="s">
@@ -5091,7 +5096,7 @@
       <c r="I112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="79" t="s">
+      <c r="A113" s="80" t="s">
         <v>268</v>
       </c>
       <c r="B113" s="8" t="s">
@@ -5103,15 +5108,15 @@
       <c r="D113" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E113" s="75" t="s">
+      <c r="E113" s="76" t="s">
         <v>257</v>
       </c>
-      <c r="G113" s="69"/>
-      <c r="H113" s="69"/>
-      <c r="I113" s="69"/>
+      <c r="G113" s="70"/>
+      <c r="H113" s="70"/>
+      <c r="I113" s="70"/>
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="85" t="s">
+      <c r="A114" s="86" t="s">
         <v>271</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -5123,16 +5128,16 @@
       <c r="D114" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E114" s="75" t="s">
+      <c r="E114" s="76" t="s">
         <v>257</v>
       </c>
-      <c r="F114" s="87" t="s">
+      <c r="F114" s="88" t="s">
         <v>275</v>
       </c>
-      <c r="G114" s="87"/>
-      <c r="H114" s="87"/>
-      <c r="I114" s="87"/>
-      <c r="J114" s="87"/>
+      <c r="G114" s="88"/>
+      <c r="H114" s="88"/>
+      <c r="I114" s="88"/>
+      <c r="J114" s="88"/>
     </row>
     <row r="115" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
@@ -5144,22 +5149,22 @@
       <c r="C115" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="D115" s="75" t="s">
+      <c r="D115" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="E115" s="75" t="s">
+      <c r="E115" s="76" t="s">
         <v>257</v>
       </c>
-      <c r="F115" s="69"/>
-      <c r="G115" s="69"/>
-      <c r="H115" s="69"/>
-      <c r="I115" s="69"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
+      <c r="H115" s="70"/>
+      <c r="I115" s="70"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="76" t="s">
+      <c r="A116" s="77" t="s">
         <v>279</v>
       </c>
-      <c r="B116" s="77" t="s">
+      <c r="B116" s="78" t="s">
         <v>280</v>
       </c>
       <c r="C116" s="18" t="s">
@@ -5168,19 +5173,19 @@
       <c r="D116" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="E116" s="75" t="s">
+      <c r="E116" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="F116" s="69"/>
-      <c r="G116" s="69"/>
-      <c r="H116" s="69"/>
-      <c r="I116" s="69"/>
+      <c r="F116" s="70"/>
+      <c r="G116" s="70"/>
+      <c r="H116" s="70"/>
+      <c r="I116" s="70"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="76" t="s">
+      <c r="A117" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="B117" s="77" t="s">
+      <c r="B117" s="78" t="s">
         <v>285</v>
       </c>
       <c r="C117" s="18" t="s">
@@ -5189,19 +5194,19 @@
       <c r="D117" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E117" s="75" t="s">
+      <c r="E117" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="69"/>
-      <c r="I117" s="69"/>
+      <c r="F117" s="70"/>
+      <c r="G117" s="70"/>
+      <c r="H117" s="70"/>
+      <c r="I117" s="70"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="76" t="s">
+      <c r="A118" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="B118" s="77" t="s">
+      <c r="B118" s="78" t="s">
         <v>289</v>
       </c>
       <c r="C118" s="18" t="s">
@@ -5210,19 +5215,19 @@
       <c r="D118" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E118" s="75" t="s">
+      <c r="E118" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="F118" s="69"/>
-      <c r="G118" s="69"/>
-      <c r="H118" s="69"/>
-      <c r="I118" s="69"/>
+      <c r="F118" s="70"/>
+      <c r="G118" s="70"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="70"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="76" t="s">
+      <c r="A119" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="B119" s="77" t="s">
+      <c r="B119" s="78" t="s">
         <v>293</v>
       </c>
       <c r="C119" s="18" t="s">
@@ -5231,19 +5236,19 @@
       <c r="D119" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E119" s="75" t="s">
+      <c r="E119" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="F119" s="69"/>
-      <c r="G119" s="69"/>
-      <c r="H119" s="69"/>
-      <c r="I119" s="69"/>
+      <c r="F119" s="70"/>
+      <c r="G119" s="70"/>
+      <c r="H119" s="70"/>
+      <c r="I119" s="70"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="76" t="s">
+      <c r="A120" s="77" t="s">
         <v>296</v>
       </c>
-      <c r="B120" s="77" t="s">
+      <c r="B120" s="78" t="s">
         <v>297</v>
       </c>
       <c r="C120" s="18" t="s">
@@ -5252,7 +5257,7 @@
       <c r="D120" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E120" s="75" t="s">
+      <c r="E120" s="76" t="s">
         <v>283</v>
       </c>
       <c r="F120" s="8"/>
@@ -5262,10 +5267,10 @@
       <c r="J120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="76" t="s">
+      <c r="A121" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="B121" s="77" t="s">
+      <c r="B121" s="78" t="s">
         <v>301</v>
       </c>
       <c r="C121" s="18" t="s">
@@ -5274,21 +5279,21 @@
       <c r="D121" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="E121" s="75" t="s">
+      <c r="E121" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="F121" s="88" t="s">
+      <c r="F121" s="89" t="s">
         <v>304</v>
       </c>
-      <c r="G121" s="69"/>
-      <c r="H121" s="69"/>
-      <c r="I121" s="69"/>
+      <c r="G121" s="70"/>
+      <c r="H121" s="70"/>
+      <c r="I121" s="70"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="77" t="s">
         <v>305</v>
       </c>
-      <c r="B122" s="77" t="s">
+      <c r="B122" s="78" t="s">
         <v>306</v>
       </c>
       <c r="C122" s="18" t="s">
@@ -5297,13 +5302,13 @@
       <c r="D122" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E122" s="75" t="s">
+      <c r="E122" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="F122" s="69"/>
-      <c r="G122" s="69"/>
-      <c r="H122" s="69"/>
-      <c r="I122" s="69"/>
+      <c r="F122" s="70"/>
+      <c r="G122" s="70"/>
+      <c r="H122" s="70"/>
+      <c r="I122" s="70"/>
     </row>
     <row r="123" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
@@ -5318,15 +5323,15 @@
       <c r="D123" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E123" s="75" t="s">
+      <c r="E123" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="F123" s="89" t="s">
+      <c r="F123" s="90" t="s">
         <v>313</v>
       </c>
-      <c r="G123" s="69"/>
-      <c r="H123" s="69"/>
-      <c r="I123" s="69"/>
+      <c r="G123" s="70"/>
+      <c r="H123" s="70"/>
+      <c r="I123" s="70"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
@@ -5341,13 +5346,13 @@
       <c r="D124" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="E124" s="75" t="s">
+      <c r="E124" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="F124" s="69"/>
-      <c r="G124" s="69"/>
-      <c r="H124" s="69"/>
-      <c r="I124" s="69"/>
+      <c r="F124" s="70"/>
+      <c r="G124" s="70"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="70"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
@@ -5362,19 +5367,19 @@
       <c r="D125" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="E125" s="75" t="s">
+      <c r="E125" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="F125" s="69"/>
-      <c r="G125" s="69"/>
-      <c r="H125" s="69"/>
-      <c r="I125" s="69"/>
+      <c r="F125" s="70"/>
+      <c r="G125" s="70"/>
+      <c r="H125" s="70"/>
+      <c r="I125" s="70"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="76" t="s">
+      <c r="A126" s="77" t="s">
         <v>322</v>
       </c>
-      <c r="B126" s="77" t="s">
+      <c r="B126" s="78" t="s">
         <v>323</v>
       </c>
       <c r="C126" s="18" t="s">
@@ -5383,19 +5388,19 @@
       <c r="D126" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="E126" s="75" t="s">
+      <c r="E126" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="F126" s="69"/>
-      <c r="G126" s="69"/>
-      <c r="H126" s="69"/>
-      <c r="I126" s="69"/>
+      <c r="F126" s="70"/>
+      <c r="G126" s="70"/>
+      <c r="H126" s="70"/>
+      <c r="I126" s="70"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="76" t="s">
+      <c r="A127" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="B127" s="77" t="s">
+      <c r="B127" s="78" t="s">
         <v>328</v>
       </c>
       <c r="C127" s="18" t="s">
@@ -5404,19 +5409,19 @@
       <c r="D127" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E127" s="75" t="s">
+      <c r="E127" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="F127" s="69"/>
-      <c r="G127" s="69"/>
-      <c r="H127" s="69"/>
-      <c r="I127" s="69"/>
+      <c r="F127" s="70"/>
+      <c r="G127" s="70"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="70"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="76" t="s">
+      <c r="A128" s="77" t="s">
         <v>331</v>
       </c>
-      <c r="B128" s="77" t="s">
+      <c r="B128" s="78" t="s">
         <v>332</v>
       </c>
       <c r="C128" s="18" t="s">
@@ -5425,19 +5430,19 @@
       <c r="D128" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E128" s="75" t="s">
+      <c r="E128" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="F128" s="69"/>
-      <c r="G128" s="69"/>
-      <c r="H128" s="69"/>
-      <c r="I128" s="69"/>
+      <c r="F128" s="70"/>
+      <c r="G128" s="70"/>
+      <c r="H128" s="70"/>
+      <c r="I128" s="70"/>
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="90" t="s">
+      <c r="A129" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="B129" s="77" t="s">
+      <c r="B129" s="78" t="s">
         <v>336</v>
       </c>
       <c r="C129" s="18" t="s">
@@ -5446,21 +5451,21 @@
       <c r="D129" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="E129" s="75" t="s">
+      <c r="E129" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="F129" s="89" t="s">
+      <c r="F129" s="90" t="s">
         <v>339</v>
       </c>
-      <c r="G129" s="69"/>
-      <c r="H129" s="69"/>
-      <c r="I129" s="69"/>
+      <c r="G129" s="70"/>
+      <c r="H129" s="70"/>
+      <c r="I129" s="70"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="76" t="s">
+      <c r="A130" s="77" t="s">
         <v>340</v>
       </c>
-      <c r="B130" s="77" t="s">
+      <c r="B130" s="78" t="s">
         <v>341</v>
       </c>
       <c r="C130" s="18" t="s">
@@ -5469,227 +5474,227 @@
       <c r="D130" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="E130" s="75" t="s">
+      <c r="E130" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="F130" s="69"/>
-      <c r="G130" s="69"/>
-      <c r="H130" s="69"/>
-      <c r="I130" s="69"/>
+      <c r="F130" s="70"/>
+      <c r="G130" s="70"/>
+      <c r="H130" s="70"/>
+      <c r="I130" s="70"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="76" t="s">
+      <c r="A131" s="77" t="s">
         <v>344</v>
       </c>
-      <c r="B131" s="77" t="s">
+      <c r="B131" s="78" t="s">
         <v>345</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="E131" s="75"/>
-      <c r="F131" s="69"/>
-      <c r="G131" s="69"/>
-      <c r="H131" s="69"/>
-      <c r="I131" s="69"/>
+      <c r="E131" s="76"/>
+      <c r="F131" s="70"/>
+      <c r="G131" s="70"/>
+      <c r="H131" s="70"/>
+      <c r="I131" s="70"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="76" t="s">
+      <c r="A132" s="77" t="s">
         <v>347</v>
       </c>
-      <c r="B132" s="77" t="s">
+      <c r="B132" s="78" t="s">
         <v>348</v>
       </c>
       <c r="C132" s="18"/>
       <c r="D132" s="8"/>
-      <c r="E132" s="91" t="s">
+      <c r="E132" s="92" t="s">
         <v>349</v>
       </c>
-      <c r="F132" s="69"/>
-      <c r="G132" s="69"/>
-      <c r="H132" s="69"/>
-      <c r="I132" s="69"/>
+      <c r="F132" s="70"/>
+      <c r="G132" s="70"/>
+      <c r="H132" s="70"/>
+      <c r="I132" s="70"/>
     </row>
     <row r="133" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="92" t="s">
+      <c r="A133" s="93" t="s">
         <v>350</v>
       </c>
-      <c r="B133" s="93" t="s">
+      <c r="B133" s="94" t="s">
         <v>351</v>
       </c>
       <c r="C133" s="18"/>
       <c r="D133" s="8"/>
-      <c r="E133" s="75"/>
-      <c r="F133" s="69"/>
-      <c r="G133" s="69"/>
-      <c r="H133" s="69"/>
-      <c r="I133" s="69"/>
+      <c r="E133" s="76"/>
+      <c r="F133" s="70"/>
+      <c r="G133" s="70"/>
+      <c r="H133" s="70"/>
+      <c r="I133" s="70"/>
     </row>
     <row r="134" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="94" t="s">
+      <c r="A134" s="95" t="s">
         <v>352</v>
       </c>
-      <c r="B134" s="93" t="s">
+      <c r="B134" s="94" t="s">
         <v>353</v>
       </c>
-      <c r="C134" s="69"/>
-      <c r="D134" s="69"/>
-      <c r="E134" s="69"/>
-      <c r="F134" s="69"/>
-      <c r="G134" s="69"/>
-      <c r="H134" s="69"/>
-      <c r="I134" s="69"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="70"/>
+      <c r="E134" s="70"/>
+      <c r="F134" s="70"/>
+      <c r="G134" s="70"/>
+      <c r="H134" s="70"/>
+      <c r="I134" s="70"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="94" t="s">
+      <c r="A135" s="95" t="s">
         <v>354</v>
       </c>
-      <c r="B135" s="93" t="s">
+      <c r="B135" s="94" t="s">
         <v>355</v>
       </c>
-      <c r="C135" s="69"/>
-      <c r="D135" s="69"/>
-      <c r="E135" s="69"/>
-      <c r="F135" s="69"/>
-      <c r="G135" s="69"/>
-      <c r="H135" s="69"/>
-      <c r="I135" s="69"/>
+      <c r="C135" s="70"/>
+      <c r="D135" s="70"/>
+      <c r="E135" s="70"/>
+      <c r="F135" s="70"/>
+      <c r="G135" s="70"/>
+      <c r="H135" s="70"/>
+      <c r="I135" s="70"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="94" t="s">
+      <c r="A136" s="95" t="s">
         <v>356</v>
       </c>
-      <c r="B136" s="93" t="s">
+      <c r="B136" s="94" t="s">
         <v>357</v>
       </c>
-      <c r="C136" s="69"/>
-      <c r="D136" s="69"/>
-      <c r="E136" s="69"/>
-      <c r="F136" s="69"/>
-      <c r="G136" s="69"/>
-      <c r="H136" s="69"/>
-      <c r="I136" s="69"/>
+      <c r="C136" s="70"/>
+      <c r="D136" s="70"/>
+      <c r="E136" s="70"/>
+      <c r="F136" s="70"/>
+      <c r="G136" s="70"/>
+      <c r="H136" s="70"/>
+      <c r="I136" s="70"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="94" t="s">
+      <c r="A137" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="B137" s="93" t="s">
+      <c r="B137" s="94" t="s">
         <v>359</v>
       </c>
-      <c r="C137" s="69"/>
-      <c r="D137" s="69"/>
-      <c r="E137" s="69"/>
-      <c r="F137" s="69"/>
-      <c r="G137" s="69"/>
-      <c r="H137" s="69"/>
-      <c r="I137" s="69"/>
+      <c r="C137" s="70"/>
+      <c r="D137" s="70"/>
+      <c r="E137" s="70"/>
+      <c r="F137" s="70"/>
+      <c r="G137" s="70"/>
+      <c r="H137" s="70"/>
+      <c r="I137" s="70"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="94" t="s">
+      <c r="A138" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="B138" s="93" t="s">
+      <c r="B138" s="94" t="s">
         <v>361</v>
       </c>
-      <c r="C138" s="69"/>
-      <c r="D138" s="69"/>
-      <c r="E138" s="69"/>
-      <c r="F138" s="69"/>
-      <c r="G138" s="69"/>
-      <c r="H138" s="69"/>
-      <c r="I138" s="69"/>
+      <c r="C138" s="70"/>
+      <c r="D138" s="70"/>
+      <c r="E138" s="70"/>
+      <c r="F138" s="70"/>
+      <c r="G138" s="70"/>
+      <c r="H138" s="70"/>
+      <c r="I138" s="70"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="94" t="s">
+      <c r="A139" s="95" t="s">
         <v>362</v>
       </c>
-      <c r="B139" s="93" t="s">
+      <c r="B139" s="94" t="s">
         <v>363</v>
       </c>
-      <c r="C139" s="69"/>
-      <c r="D139" s="69"/>
-      <c r="E139" s="69"/>
-      <c r="F139" s="69"/>
-      <c r="G139" s="69"/>
-      <c r="H139" s="69"/>
-      <c r="I139" s="69"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="70"/>
+      <c r="E139" s="70"/>
+      <c r="F139" s="70"/>
+      <c r="G139" s="70"/>
+      <c r="H139" s="70"/>
+      <c r="I139" s="70"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="69"/>
-      <c r="C140" s="69"/>
-      <c r="D140" s="69"/>
-      <c r="E140" s="69"/>
-      <c r="F140" s="69"/>
-      <c r="G140" s="69"/>
-      <c r="H140" s="69"/>
-      <c r="I140" s="69"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="70"/>
+      <c r="D140" s="70"/>
+      <c r="E140" s="70"/>
+      <c r="F140" s="70"/>
+      <c r="G140" s="70"/>
+      <c r="H140" s="70"/>
+      <c r="I140" s="70"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="69"/>
-      <c r="C141" s="69"/>
-      <c r="D141" s="69"/>
-      <c r="E141" s="69"/>
-      <c r="F141" s="69"/>
-      <c r="G141" s="69"/>
-      <c r="H141" s="69"/>
-      <c r="I141" s="69"/>
+      <c r="B141" s="70"/>
+      <c r="C141" s="70"/>
+      <c r="D141" s="70"/>
+      <c r="E141" s="70"/>
+      <c r="F141" s="70"/>
+      <c r="G141" s="70"/>
+      <c r="H141" s="70"/>
+      <c r="I141" s="70"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="69"/>
-      <c r="C142" s="69"/>
-      <c r="D142" s="69"/>
-      <c r="E142" s="69"/>
-      <c r="F142" s="69"/>
-      <c r="G142" s="69"/>
-      <c r="H142" s="69"/>
-      <c r="I142" s="69"/>
+      <c r="B142" s="70"/>
+      <c r="C142" s="70"/>
+      <c r="D142" s="70"/>
+      <c r="E142" s="70"/>
+      <c r="F142" s="70"/>
+      <c r="G142" s="70"/>
+      <c r="H142" s="70"/>
+      <c r="I142" s="70"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="69"/>
-      <c r="B143" s="69"/>
-      <c r="C143" s="69"/>
-      <c r="D143" s="69"/>
-      <c r="E143" s="69"/>
-      <c r="F143" s="69"/>
-      <c r="G143" s="69"/>
-      <c r="H143" s="69"/>
-      <c r="I143" s="69"/>
+      <c r="A143" s="70"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="70"/>
+      <c r="D143" s="70"/>
+      <c r="E143" s="70"/>
+      <c r="F143" s="70"/>
+      <c r="G143" s="70"/>
+      <c r="H143" s="70"/>
+      <c r="I143" s="70"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="69"/>
-      <c r="B144" s="69"/>
-      <c r="C144" s="69"/>
-      <c r="D144" s="69"/>
-      <c r="E144" s="69"/>
-      <c r="F144" s="69"/>
-      <c r="G144" s="69"/>
-      <c r="H144" s="69"/>
-      <c r="I144" s="69"/>
+      <c r="A144" s="70"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="70"/>
+      <c r="F144" s="70"/>
+      <c r="G144" s="70"/>
+      <c r="H144" s="70"/>
+      <c r="I144" s="70"/>
     </row>
     <row r="145" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="69"/>
-      <c r="B145" s="95" t="s">
+      <c r="A145" s="70"/>
+      <c r="B145" s="96" t="s">
         <v>364</v>
       </c>
-      <c r="C145" s="69"/>
-      <c r="D145" s="69"/>
-      <c r="E145" s="69"/>
-      <c r="F145" s="69"/>
-      <c r="G145" s="69"/>
-      <c r="H145" s="69"/>
-      <c r="I145" s="69"/>
+      <c r="C145" s="70"/>
+      <c r="D145" s="70"/>
+      <c r="E145" s="70"/>
+      <c r="F145" s="70"/>
+      <c r="G145" s="70"/>
+      <c r="H145" s="70"/>
+      <c r="I145" s="70"/>
     </row>
     <row r="146" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="96"/>
-      <c r="B146" s="97" t="s">
+      <c r="A146" s="97"/>
+      <c r="B146" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="C146" s="97" t="s">
+      <c r="C146" s="98" t="s">
         <v>366</v>
       </c>
-      <c r="D146" s="98" t="s">
+      <c r="D146" s="99" t="s">
         <v>367</v>
       </c>
       <c r="E146" s="8" t="s">
@@ -5698,1905 +5703,1905 @@
       <c r="F146" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G146" s="69"/>
-      <c r="H146" s="69"/>
-      <c r="I146" s="69"/>
+      <c r="G146" s="70"/>
+      <c r="H146" s="70"/>
+      <c r="I146" s="70"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="99"/>
-      <c r="B147" s="69"/>
-      <c r="C147" s="69"/>
-      <c r="D147" s="69"/>
-      <c r="E147" s="69"/>
-      <c r="F147" s="69"/>
-      <c r="G147" s="69"/>
-      <c r="H147" s="69"/>
-      <c r="I147" s="69"/>
+      <c r="A147" s="100"/>
+      <c r="B147" s="70"/>
+      <c r="C147" s="70"/>
+      <c r="D147" s="70"/>
+      <c r="E147" s="70"/>
+      <c r="F147" s="70"/>
+      <c r="G147" s="70"/>
+      <c r="H147" s="70"/>
+      <c r="I147" s="70"/>
     </row>
     <row r="148" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="100" t="s">
+      <c r="A148" s="101" t="s">
         <v>368</v>
       </c>
-      <c r="B148" s="101" t="s">
+      <c r="B148" s="102" t="s">
         <v>369</v>
       </c>
-      <c r="C148" s="102" t="s">
+      <c r="C148" s="103" t="s">
         <v>370</v>
       </c>
-      <c r="D148" s="103" t="s">
+      <c r="D148" s="104" t="s">
         <v>371</v>
       </c>
-      <c r="E148" s="104" t="s">
+      <c r="E148" s="105" t="s">
         <v>372</v>
       </c>
-      <c r="F148" s="105" t="s">
+      <c r="F148" s="106" t="s">
         <v>373</v>
       </c>
-      <c r="G148" s="69"/>
-      <c r="H148" s="69"/>
-      <c r="I148" s="69"/>
+      <c r="G148" s="70"/>
+      <c r="H148" s="70"/>
+      <c r="I148" s="70"/>
     </row>
     <row r="149" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="100"/>
-      <c r="B149" s="106" t="s">
+      <c r="A149" s="101"/>
+      <c r="B149" s="107" t="s">
         <v>374</v>
       </c>
-      <c r="C149" s="107" t="s">
+      <c r="C149" s="108" t="s">
         <v>375</v>
       </c>
-      <c r="D149" s="108" t="s">
+      <c r="D149" s="109" t="s">
         <v>376</v>
       </c>
-      <c r="E149" s="109" t="s">
+      <c r="E149" s="110" t="s">
         <v>377</v>
       </c>
-      <c r="F149" s="105" t="s">
+      <c r="F149" s="106" t="s">
         <v>378</v>
       </c>
-      <c r="G149" s="69"/>
-      <c r="H149" s="69"/>
-      <c r="I149" s="69"/>
+      <c r="G149" s="70"/>
+      <c r="H149" s="70"/>
+      <c r="I149" s="70"/>
     </row>
     <row r="150" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="100"/>
-      <c r="B150" s="110" t="s">
+      <c r="A150" s="101"/>
+      <c r="B150" s="111" t="s">
         <v>379</v>
       </c>
-      <c r="C150" s="111" t="s">
+      <c r="C150" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D150" s="112" t="s">
+      <c r="D150" s="113" t="s">
         <v>381</v>
       </c>
-      <c r="E150" s="113" t="s">
+      <c r="E150" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="114" t="s">
+      <c r="F150" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="89" t="s">
+      <c r="G150" s="90" t="s">
         <v>382</v>
       </c>
-      <c r="H150" s="69"/>
-      <c r="I150" s="69"/>
-      <c r="J150" s="69"/>
-      <c r="K150" s="69"/>
-      <c r="L150" s="69"/>
+      <c r="H150" s="70"/>
+      <c r="I150" s="70"/>
+      <c r="J150" s="70"/>
+      <c r="K150" s="70"/>
+      <c r="L150" s="70"/>
     </row>
     <row r="151" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="100"/>
-      <c r="B151" s="115" t="s">
+      <c r="A151" s="101"/>
+      <c r="B151" s="116" t="s">
         <v>383</v>
       </c>
-      <c r="C151" s="111" t="s">
+      <c r="C151" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="D151" s="112" t="s">
+      <c r="D151" s="113" t="s">
         <v>384</v>
       </c>
-      <c r="E151" s="113" t="s">
+      <c r="E151" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="F151" s="114" t="s">
+      <c r="F151" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="G151" s="89" t="s">
+      <c r="G151" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="H151" s="69"/>
-      <c r="I151" s="69"/>
-      <c r="J151" s="69"/>
-      <c r="K151" s="69"/>
-      <c r="L151" s="69"/>
+      <c r="H151" s="70"/>
+      <c r="I151" s="70"/>
+      <c r="J151" s="70"/>
+      <c r="K151" s="70"/>
+      <c r="L151" s="70"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="100"/>
-      <c r="B152" s="116" t="s">
+      <c r="A152" s="101"/>
+      <c r="B152" s="117" t="s">
         <v>386</v>
       </c>
-      <c r="C152" s="117" t="s">
+      <c r="C152" s="118" t="s">
         <v>380</v>
       </c>
-      <c r="D152" s="118" t="s">
+      <c r="D152" s="119" t="s">
         <v>387</v>
       </c>
-      <c r="E152" s="119" t="s">
+      <c r="E152" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="F152" s="120" t="s">
+      <c r="F152" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="G152" s="69"/>
-      <c r="H152" s="69"/>
-      <c r="I152" s="69"/>
-      <c r="J152" s="69"/>
-      <c r="K152" s="69"/>
-      <c r="L152" s="69"/>
+      <c r="G152" s="70"/>
+      <c r="H152" s="70"/>
+      <c r="I152" s="70"/>
+      <c r="J152" s="70"/>
+      <c r="K152" s="70"/>
+      <c r="L152" s="70"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="69"/>
-      <c r="B153" s="69"/>
-      <c r="C153" s="69"/>
-      <c r="D153" s="69"/>
-      <c r="E153" s="69"/>
-      <c r="F153" s="69"/>
-      <c r="G153" s="69"/>
-      <c r="H153" s="69"/>
-      <c r="I153" s="69"/>
-      <c r="J153" s="69"/>
-      <c r="K153" s="69"/>
-      <c r="L153" s="69"/>
+      <c r="A153" s="70"/>
+      <c r="B153" s="70"/>
+      <c r="C153" s="70"/>
+      <c r="D153" s="70"/>
+      <c r="E153" s="70"/>
+      <c r="F153" s="70"/>
+      <c r="G153" s="70"/>
+      <c r="H153" s="70"/>
+      <c r="I153" s="70"/>
+      <c r="J153" s="70"/>
+      <c r="K153" s="70"/>
+      <c r="L153" s="70"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="69"/>
-      <c r="B154" s="69"/>
-      <c r="C154" s="69"/>
-      <c r="D154" s="69"/>
-      <c r="E154" s="69"/>
-      <c r="F154" s="69"/>
-      <c r="G154" s="69"/>
-      <c r="H154" s="69"/>
-      <c r="I154" s="69"/>
-      <c r="J154" s="69"/>
-      <c r="K154" s="69"/>
-      <c r="L154" s="69"/>
+      <c r="A154" s="70"/>
+      <c r="B154" s="70"/>
+      <c r="C154" s="70"/>
+      <c r="D154" s="70"/>
+      <c r="E154" s="70"/>
+      <c r="F154" s="70"/>
+      <c r="G154" s="70"/>
+      <c r="H154" s="70"/>
+      <c r="I154" s="70"/>
+      <c r="J154" s="70"/>
+      <c r="K154" s="70"/>
+      <c r="L154" s="70"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="69"/>
-      <c r="B155" s="69"/>
-      <c r="C155" s="69"/>
-      <c r="D155" s="69"/>
-      <c r="E155" s="69"/>
-      <c r="F155" s="69"/>
-      <c r="G155" s="69"/>
-      <c r="H155" s="69"/>
-      <c r="I155" s="69"/>
-      <c r="J155" s="69"/>
-      <c r="K155" s="69"/>
-      <c r="L155" s="69"/>
+      <c r="A155" s="70"/>
+      <c r="B155" s="70"/>
+      <c r="C155" s="70"/>
+      <c r="D155" s="70"/>
+      <c r="E155" s="70"/>
+      <c r="F155" s="70"/>
+      <c r="G155" s="70"/>
+      <c r="H155" s="70"/>
+      <c r="I155" s="70"/>
+      <c r="J155" s="70"/>
+      <c r="K155" s="70"/>
+      <c r="L155" s="70"/>
     </row>
     <row r="156" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="121" t="s">
+      <c r="A156" s="122" t="s">
         <v>388</v>
       </c>
-      <c r="B156" s="89" t="s">
+      <c r="B156" s="90" t="s">
         <v>389</v>
       </c>
-      <c r="C156" s="69"/>
-      <c r="D156" s="69"/>
-      <c r="E156" s="69"/>
-      <c r="F156" s="69"/>
-      <c r="G156" s="69"/>
-      <c r="H156" s="69"/>
-      <c r="I156" s="69"/>
-      <c r="J156" s="69"/>
-      <c r="K156" s="69"/>
-      <c r="L156" s="69"/>
+      <c r="C156" s="70"/>
+      <c r="D156" s="70"/>
+      <c r="E156" s="70"/>
+      <c r="F156" s="70"/>
+      <c r="G156" s="70"/>
+      <c r="H156" s="70"/>
+      <c r="I156" s="70"/>
+      <c r="J156" s="70"/>
+      <c r="K156" s="70"/>
+      <c r="L156" s="70"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="69"/>
-      <c r="B157" s="69"/>
-      <c r="C157" s="69"/>
-      <c r="D157" s="69"/>
-      <c r="E157" s="69"/>
-      <c r="F157" s="69"/>
-      <c r="G157" s="69"/>
-      <c r="H157" s="69"/>
-      <c r="I157" s="69"/>
+      <c r="A157" s="70"/>
+      <c r="B157" s="70"/>
+      <c r="C157" s="70"/>
+      <c r="D157" s="70"/>
+      <c r="E157" s="70"/>
+      <c r="F157" s="70"/>
+      <c r="G157" s="70"/>
+      <c r="H157" s="70"/>
+      <c r="I157" s="70"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="69"/>
-      <c r="B158" s="69"/>
-      <c r="C158" s="69"/>
-      <c r="D158" s="69"/>
-      <c r="E158" s="69"/>
-      <c r="F158" s="69"/>
-      <c r="G158" s="69"/>
-      <c r="H158" s="69"/>
-      <c r="I158" s="69"/>
+      <c r="A158" s="70"/>
+      <c r="B158" s="70"/>
+      <c r="C158" s="70"/>
+      <c r="D158" s="70"/>
+      <c r="E158" s="70"/>
+      <c r="F158" s="70"/>
+      <c r="G158" s="70"/>
+      <c r="H158" s="70"/>
+      <c r="I158" s="70"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="69"/>
-      <c r="B159" s="69"/>
-      <c r="C159" s="69"/>
-      <c r="D159" s="69"/>
-      <c r="E159" s="69"/>
-      <c r="F159" s="69"/>
-      <c r="G159" s="69"/>
-      <c r="H159" s="69"/>
-      <c r="I159" s="69"/>
+      <c r="A159" s="70"/>
+      <c r="B159" s="70"/>
+      <c r="C159" s="70"/>
+      <c r="D159" s="70"/>
+      <c r="E159" s="70"/>
+      <c r="F159" s="70"/>
+      <c r="G159" s="70"/>
+      <c r="H159" s="70"/>
+      <c r="I159" s="70"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="69"/>
-      <c r="B160" s="69"/>
-      <c r="C160" s="69"/>
-      <c r="D160" s="69"/>
-      <c r="E160" s="69"/>
-      <c r="F160" s="69"/>
-      <c r="G160" s="69"/>
-      <c r="H160" s="69"/>
-      <c r="I160" s="69"/>
+      <c r="A160" s="70"/>
+      <c r="B160" s="70"/>
+      <c r="C160" s="70"/>
+      <c r="D160" s="70"/>
+      <c r="E160" s="70"/>
+      <c r="F160" s="70"/>
+      <c r="G160" s="70"/>
+      <c r="H160" s="70"/>
+      <c r="I160" s="70"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="69"/>
-      <c r="B161" s="69"/>
-      <c r="C161" s="69"/>
-      <c r="D161" s="69"/>
-      <c r="E161" s="69"/>
-      <c r="F161" s="69"/>
-      <c r="G161" s="69"/>
-      <c r="H161" s="69"/>
-      <c r="I161" s="69"/>
+      <c r="A161" s="70"/>
+      <c r="B161" s="70"/>
+      <c r="C161" s="70"/>
+      <c r="D161" s="70"/>
+      <c r="E161" s="70"/>
+      <c r="F161" s="70"/>
+      <c r="G161" s="70"/>
+      <c r="H161" s="70"/>
+      <c r="I161" s="70"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="69"/>
-      <c r="B162" s="69"/>
-      <c r="C162" s="69"/>
-      <c r="D162" s="69"/>
-      <c r="E162" s="69"/>
-      <c r="F162" s="69"/>
-      <c r="G162" s="69"/>
-      <c r="H162" s="69"/>
-      <c r="I162" s="69"/>
+      <c r="A162" s="70"/>
+      <c r="B162" s="70"/>
+      <c r="C162" s="70"/>
+      <c r="D162" s="70"/>
+      <c r="E162" s="70"/>
+      <c r="F162" s="70"/>
+      <c r="G162" s="70"/>
+      <c r="H162" s="70"/>
+      <c r="I162" s="70"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="69"/>
-      <c r="B163" s="69"/>
-      <c r="C163" s="69"/>
-      <c r="D163" s="69"/>
-      <c r="E163" s="69"/>
-      <c r="F163" s="69"/>
-      <c r="G163" s="69"/>
-      <c r="H163" s="69"/>
-      <c r="I163" s="69"/>
+      <c r="A163" s="70"/>
+      <c r="B163" s="70"/>
+      <c r="C163" s="70"/>
+      <c r="D163" s="70"/>
+      <c r="E163" s="70"/>
+      <c r="F163" s="70"/>
+      <c r="G163" s="70"/>
+      <c r="H163" s="70"/>
+      <c r="I163" s="70"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="69"/>
-      <c r="B164" s="69"/>
-      <c r="C164" s="69"/>
-      <c r="D164" s="69"/>
-      <c r="E164" s="69"/>
-      <c r="F164" s="69"/>
-      <c r="G164" s="69"/>
-      <c r="H164" s="69"/>
-      <c r="I164" s="69"/>
+      <c r="A164" s="70"/>
+      <c r="B164" s="70"/>
+      <c r="C164" s="70"/>
+      <c r="D164" s="70"/>
+      <c r="E164" s="70"/>
+      <c r="F164" s="70"/>
+      <c r="G164" s="70"/>
+      <c r="H164" s="70"/>
+      <c r="I164" s="70"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="69"/>
-      <c r="B165" s="69"/>
-      <c r="C165" s="69"/>
-      <c r="D165" s="69"/>
-      <c r="E165" s="69"/>
-      <c r="F165" s="69"/>
-      <c r="G165" s="69"/>
-      <c r="H165" s="69"/>
-      <c r="I165" s="69"/>
+      <c r="A165" s="70"/>
+      <c r="B165" s="70"/>
+      <c r="C165" s="70"/>
+      <c r="D165" s="70"/>
+      <c r="E165" s="70"/>
+      <c r="F165" s="70"/>
+      <c r="G165" s="70"/>
+      <c r="H165" s="70"/>
+      <c r="I165" s="70"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="69"/>
-      <c r="B166" s="69"/>
-      <c r="C166" s="69"/>
-      <c r="D166" s="69"/>
-      <c r="E166" s="69"/>
-      <c r="F166" s="69"/>
-      <c r="G166" s="69"/>
-      <c r="H166" s="69"/>
-      <c r="I166" s="69"/>
+      <c r="A166" s="70"/>
+      <c r="B166" s="70"/>
+      <c r="C166" s="70"/>
+      <c r="D166" s="70"/>
+      <c r="E166" s="70"/>
+      <c r="F166" s="70"/>
+      <c r="G166" s="70"/>
+      <c r="H166" s="70"/>
+      <c r="I166" s="70"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="69"/>
-      <c r="B167" s="69"/>
-      <c r="C167" s="69"/>
-      <c r="D167" s="69"/>
-      <c r="E167" s="69"/>
-      <c r="F167" s="69"/>
-      <c r="G167" s="69"/>
-      <c r="H167" s="69"/>
-      <c r="I167" s="69"/>
+      <c r="A167" s="70"/>
+      <c r="B167" s="70"/>
+      <c r="C167" s="70"/>
+      <c r="D167" s="70"/>
+      <c r="E167" s="70"/>
+      <c r="F167" s="70"/>
+      <c r="G167" s="70"/>
+      <c r="H167" s="70"/>
+      <c r="I167" s="70"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="69"/>
-      <c r="B168" s="69"/>
-      <c r="C168" s="69"/>
-      <c r="D168" s="69"/>
-      <c r="E168" s="69"/>
-      <c r="F168" s="69"/>
-      <c r="G168" s="69"/>
-      <c r="H168" s="69"/>
-      <c r="I168" s="69"/>
+      <c r="A168" s="70"/>
+      <c r="B168" s="70"/>
+      <c r="C168" s="70"/>
+      <c r="D168" s="70"/>
+      <c r="E168" s="70"/>
+      <c r="F168" s="70"/>
+      <c r="G168" s="70"/>
+      <c r="H168" s="70"/>
+      <c r="I168" s="70"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="69"/>
-      <c r="B169" s="69"/>
-      <c r="C169" s="69"/>
-      <c r="D169" s="69"/>
-      <c r="E169" s="69"/>
-      <c r="F169" s="69"/>
-      <c r="G169" s="69"/>
-      <c r="H169" s="69"/>
-      <c r="I169" s="69"/>
+      <c r="A169" s="70"/>
+      <c r="B169" s="70"/>
+      <c r="C169" s="70"/>
+      <c r="D169" s="70"/>
+      <c r="E169" s="70"/>
+      <c r="F169" s="70"/>
+      <c r="G169" s="70"/>
+      <c r="H169" s="70"/>
+      <c r="I169" s="70"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="69"/>
-      <c r="B170" s="69"/>
-      <c r="C170" s="69"/>
-      <c r="D170" s="69"/>
-      <c r="E170" s="69"/>
-      <c r="F170" s="69"/>
-      <c r="G170" s="69"/>
-      <c r="H170" s="69"/>
-      <c r="I170" s="69"/>
+      <c r="A170" s="70"/>
+      <c r="B170" s="70"/>
+      <c r="C170" s="70"/>
+      <c r="D170" s="70"/>
+      <c r="E170" s="70"/>
+      <c r="F170" s="70"/>
+      <c r="G170" s="70"/>
+      <c r="H170" s="70"/>
+      <c r="I170" s="70"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="69"/>
-      <c r="B171" s="69"/>
-      <c r="C171" s="69"/>
-      <c r="D171" s="69"/>
-      <c r="E171" s="69"/>
-      <c r="F171" s="69"/>
-      <c r="G171" s="69"/>
-      <c r="H171" s="69"/>
-      <c r="I171" s="69"/>
+      <c r="A171" s="70"/>
+      <c r="B171" s="70"/>
+      <c r="C171" s="70"/>
+      <c r="D171" s="70"/>
+      <c r="E171" s="70"/>
+      <c r="F171" s="70"/>
+      <c r="G171" s="70"/>
+      <c r="H171" s="70"/>
+      <c r="I171" s="70"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="69"/>
-      <c r="B172" s="69"/>
-      <c r="C172" s="69"/>
-      <c r="D172" s="69"/>
-      <c r="E172" s="69"/>
-      <c r="F172" s="69"/>
-      <c r="G172" s="69"/>
-      <c r="H172" s="69"/>
-      <c r="I172" s="69"/>
+      <c r="A172" s="70"/>
+      <c r="B172" s="70"/>
+      <c r="C172" s="70"/>
+      <c r="D172" s="70"/>
+      <c r="E172" s="70"/>
+      <c r="F172" s="70"/>
+      <c r="G172" s="70"/>
+      <c r="H172" s="70"/>
+      <c r="I172" s="70"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="69"/>
-      <c r="B173" s="69"/>
-      <c r="C173" s="69"/>
-      <c r="D173" s="69"/>
-      <c r="E173" s="69"/>
-      <c r="F173" s="69"/>
-      <c r="G173" s="69"/>
-      <c r="H173" s="69"/>
-      <c r="I173" s="69"/>
+      <c r="A173" s="70"/>
+      <c r="B173" s="70"/>
+      <c r="C173" s="70"/>
+      <c r="D173" s="70"/>
+      <c r="E173" s="70"/>
+      <c r="F173" s="70"/>
+      <c r="G173" s="70"/>
+      <c r="H173" s="70"/>
+      <c r="I173" s="70"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="69"/>
-      <c r="B174" s="69"/>
-      <c r="C174" s="69"/>
-      <c r="D174" s="69"/>
-      <c r="E174" s="69"/>
-      <c r="F174" s="69"/>
-      <c r="G174" s="69"/>
-      <c r="H174" s="69"/>
-      <c r="I174" s="69"/>
+      <c r="A174" s="70"/>
+      <c r="B174" s="70"/>
+      <c r="C174" s="70"/>
+      <c r="D174" s="70"/>
+      <c r="E174" s="70"/>
+      <c r="F174" s="70"/>
+      <c r="G174" s="70"/>
+      <c r="H174" s="70"/>
+      <c r="I174" s="70"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="69"/>
-      <c r="B175" s="69"/>
-      <c r="C175" s="69"/>
-      <c r="D175" s="69"/>
-      <c r="E175" s="69"/>
-      <c r="F175" s="69"/>
-      <c r="G175" s="69"/>
-      <c r="H175" s="69"/>
-      <c r="I175" s="69"/>
+      <c r="A175" s="70"/>
+      <c r="B175" s="70"/>
+      <c r="C175" s="70"/>
+      <c r="D175" s="70"/>
+      <c r="E175" s="70"/>
+      <c r="F175" s="70"/>
+      <c r="G175" s="70"/>
+      <c r="H175" s="70"/>
+      <c r="I175" s="70"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="69"/>
-      <c r="B176" s="69"/>
-      <c r="C176" s="69"/>
-      <c r="D176" s="69"/>
-      <c r="E176" s="69"/>
-      <c r="F176" s="69"/>
-      <c r="G176" s="69"/>
-      <c r="H176" s="69"/>
-      <c r="I176" s="69"/>
+      <c r="A176" s="70"/>
+      <c r="B176" s="70"/>
+      <c r="C176" s="70"/>
+      <c r="D176" s="70"/>
+      <c r="E176" s="70"/>
+      <c r="F176" s="70"/>
+      <c r="G176" s="70"/>
+      <c r="H176" s="70"/>
+      <c r="I176" s="70"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="69"/>
-      <c r="B177" s="69"/>
-      <c r="C177" s="69"/>
-      <c r="D177" s="69"/>
-      <c r="E177" s="69"/>
-      <c r="F177" s="69"/>
-      <c r="G177" s="69"/>
-      <c r="H177" s="69"/>
-      <c r="I177" s="69"/>
+      <c r="A177" s="70"/>
+      <c r="B177" s="70"/>
+      <c r="C177" s="70"/>
+      <c r="D177" s="70"/>
+      <c r="E177" s="70"/>
+      <c r="F177" s="70"/>
+      <c r="G177" s="70"/>
+      <c r="H177" s="70"/>
+      <c r="I177" s="70"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="69"/>
-      <c r="B178" s="69"/>
-      <c r="C178" s="69"/>
-      <c r="D178" s="69"/>
-      <c r="E178" s="69"/>
-      <c r="F178" s="69"/>
-      <c r="G178" s="69"/>
-      <c r="H178" s="69"/>
-      <c r="I178" s="69"/>
+      <c r="A178" s="70"/>
+      <c r="B178" s="70"/>
+      <c r="C178" s="70"/>
+      <c r="D178" s="70"/>
+      <c r="E178" s="70"/>
+      <c r="F178" s="70"/>
+      <c r="G178" s="70"/>
+      <c r="H178" s="70"/>
+      <c r="I178" s="70"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="69"/>
-      <c r="B179" s="69"/>
-      <c r="C179" s="69"/>
-      <c r="D179" s="69"/>
-      <c r="E179" s="69"/>
-      <c r="F179" s="69"/>
-      <c r="G179" s="69"/>
-      <c r="H179" s="69"/>
-      <c r="I179" s="69"/>
+      <c r="A179" s="70"/>
+      <c r="B179" s="70"/>
+      <c r="C179" s="70"/>
+      <c r="D179" s="70"/>
+      <c r="E179" s="70"/>
+      <c r="F179" s="70"/>
+      <c r="G179" s="70"/>
+      <c r="H179" s="70"/>
+      <c r="I179" s="70"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="69"/>
-      <c r="B180" s="69"/>
-      <c r="C180" s="69"/>
-      <c r="D180" s="69"/>
-      <c r="E180" s="69"/>
-      <c r="F180" s="69"/>
-      <c r="G180" s="69"/>
-      <c r="H180" s="69"/>
-      <c r="I180" s="69"/>
+      <c r="A180" s="70"/>
+      <c r="B180" s="70"/>
+      <c r="C180" s="70"/>
+      <c r="D180" s="70"/>
+      <c r="E180" s="70"/>
+      <c r="F180" s="70"/>
+      <c r="G180" s="70"/>
+      <c r="H180" s="70"/>
+      <c r="I180" s="70"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="69"/>
-      <c r="B181" s="69"/>
-      <c r="C181" s="69"/>
-      <c r="D181" s="69"/>
-      <c r="E181" s="69"/>
-      <c r="F181" s="69"/>
-      <c r="G181" s="69"/>
-      <c r="H181" s="69"/>
-      <c r="I181" s="69"/>
+      <c r="A181" s="70"/>
+      <c r="B181" s="70"/>
+      <c r="C181" s="70"/>
+      <c r="D181" s="70"/>
+      <c r="E181" s="70"/>
+      <c r="F181" s="70"/>
+      <c r="G181" s="70"/>
+      <c r="H181" s="70"/>
+      <c r="I181" s="70"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="69"/>
-      <c r="B182" s="69"/>
-      <c r="C182" s="69"/>
-      <c r="D182" s="69"/>
-      <c r="E182" s="69"/>
-      <c r="F182" s="69"/>
-      <c r="G182" s="69"/>
-      <c r="H182" s="69"/>
-      <c r="I182" s="69"/>
+      <c r="A182" s="70"/>
+      <c r="B182" s="70"/>
+      <c r="C182" s="70"/>
+      <c r="D182" s="70"/>
+      <c r="E182" s="70"/>
+      <c r="F182" s="70"/>
+      <c r="G182" s="70"/>
+      <c r="H182" s="70"/>
+      <c r="I182" s="70"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="69"/>
-      <c r="B183" s="69"/>
-      <c r="C183" s="69"/>
-      <c r="D183" s="69"/>
-      <c r="E183" s="69"/>
-      <c r="F183" s="69"/>
-      <c r="G183" s="69"/>
-      <c r="H183" s="69"/>
-      <c r="I183" s="69"/>
+      <c r="A183" s="70"/>
+      <c r="B183" s="70"/>
+      <c r="C183" s="70"/>
+      <c r="D183" s="70"/>
+      <c r="E183" s="70"/>
+      <c r="F183" s="70"/>
+      <c r="G183" s="70"/>
+      <c r="H183" s="70"/>
+      <c r="I183" s="70"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="69"/>
-      <c r="B184" s="69"/>
-      <c r="C184" s="69"/>
-      <c r="D184" s="69"/>
-      <c r="E184" s="69"/>
-      <c r="F184" s="69"/>
-      <c r="G184" s="69"/>
-      <c r="H184" s="69"/>
-      <c r="I184" s="69"/>
+      <c r="A184" s="70"/>
+      <c r="B184" s="70"/>
+      <c r="C184" s="70"/>
+      <c r="D184" s="70"/>
+      <c r="E184" s="70"/>
+      <c r="F184" s="70"/>
+      <c r="G184" s="70"/>
+      <c r="H184" s="70"/>
+      <c r="I184" s="70"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="69"/>
-      <c r="B185" s="69"/>
-      <c r="C185" s="69"/>
-      <c r="D185" s="69"/>
-      <c r="E185" s="69"/>
-      <c r="F185" s="69"/>
-      <c r="G185" s="69"/>
-      <c r="H185" s="69"/>
-      <c r="I185" s="69"/>
+      <c r="A185" s="70"/>
+      <c r="B185" s="70"/>
+      <c r="C185" s="70"/>
+      <c r="D185" s="70"/>
+      <c r="E185" s="70"/>
+      <c r="F185" s="70"/>
+      <c r="G185" s="70"/>
+      <c r="H185" s="70"/>
+      <c r="I185" s="70"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="69"/>
-      <c r="B186" s="69"/>
-      <c r="C186" s="69"/>
-      <c r="D186" s="69"/>
-      <c r="E186" s="69"/>
-      <c r="F186" s="69"/>
-      <c r="G186" s="69"/>
-      <c r="H186" s="69"/>
-      <c r="I186" s="69"/>
+      <c r="A186" s="70"/>
+      <c r="B186" s="70"/>
+      <c r="C186" s="70"/>
+      <c r="D186" s="70"/>
+      <c r="E186" s="70"/>
+      <c r="F186" s="70"/>
+      <c r="G186" s="70"/>
+      <c r="H186" s="70"/>
+      <c r="I186" s="70"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="69"/>
-      <c r="B187" s="69"/>
-      <c r="C187" s="69"/>
-      <c r="D187" s="69"/>
-      <c r="E187" s="69"/>
-      <c r="F187" s="69"/>
-      <c r="G187" s="69"/>
-      <c r="H187" s="69"/>
-      <c r="I187" s="69"/>
+      <c r="A187" s="70"/>
+      <c r="B187" s="70"/>
+      <c r="C187" s="70"/>
+      <c r="D187" s="70"/>
+      <c r="E187" s="70"/>
+      <c r="F187" s="70"/>
+      <c r="G187" s="70"/>
+      <c r="H187" s="70"/>
+      <c r="I187" s="70"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="69"/>
-      <c r="B188" s="69"/>
-      <c r="C188" s="69"/>
-      <c r="D188" s="69"/>
-      <c r="E188" s="69"/>
-      <c r="F188" s="69"/>
-      <c r="G188" s="69"/>
-      <c r="H188" s="69"/>
-      <c r="I188" s="69"/>
+      <c r="A188" s="70"/>
+      <c r="B188" s="70"/>
+      <c r="C188" s="70"/>
+      <c r="D188" s="70"/>
+      <c r="E188" s="70"/>
+      <c r="F188" s="70"/>
+      <c r="G188" s="70"/>
+      <c r="H188" s="70"/>
+      <c r="I188" s="70"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="69"/>
-      <c r="B189" s="69"/>
-      <c r="C189" s="69"/>
-      <c r="D189" s="69"/>
-      <c r="E189" s="69"/>
-      <c r="F189" s="69"/>
-      <c r="G189" s="69"/>
-      <c r="H189" s="69"/>
-      <c r="I189" s="69"/>
+      <c r="A189" s="70"/>
+      <c r="B189" s="70"/>
+      <c r="C189" s="70"/>
+      <c r="D189" s="70"/>
+      <c r="E189" s="70"/>
+      <c r="F189" s="70"/>
+      <c r="G189" s="70"/>
+      <c r="H189" s="70"/>
+      <c r="I189" s="70"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="69"/>
-      <c r="B190" s="69"/>
-      <c r="C190" s="69"/>
-      <c r="D190" s="69"/>
-      <c r="E190" s="69"/>
-      <c r="F190" s="69"/>
-      <c r="G190" s="69"/>
-      <c r="H190" s="69"/>
-      <c r="I190" s="69"/>
+      <c r="A190" s="70"/>
+      <c r="B190" s="70"/>
+      <c r="C190" s="70"/>
+      <c r="D190" s="70"/>
+      <c r="E190" s="70"/>
+      <c r="F190" s="70"/>
+      <c r="G190" s="70"/>
+      <c r="H190" s="70"/>
+      <c r="I190" s="70"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="69"/>
-      <c r="B191" s="69"/>
-      <c r="C191" s="69"/>
-      <c r="D191" s="69"/>
-      <c r="E191" s="69"/>
-      <c r="F191" s="69"/>
-      <c r="G191" s="69"/>
-      <c r="H191" s="69"/>
-      <c r="I191" s="69"/>
+      <c r="A191" s="70"/>
+      <c r="B191" s="70"/>
+      <c r="C191" s="70"/>
+      <c r="D191" s="70"/>
+      <c r="E191" s="70"/>
+      <c r="F191" s="70"/>
+      <c r="G191" s="70"/>
+      <c r="H191" s="70"/>
+      <c r="I191" s="70"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="69"/>
-      <c r="B192" s="69"/>
-      <c r="C192" s="69"/>
-      <c r="D192" s="69"/>
-      <c r="E192" s="69"/>
-      <c r="F192" s="69"/>
-      <c r="G192" s="69"/>
-      <c r="H192" s="69"/>
-      <c r="I192" s="69"/>
+      <c r="A192" s="70"/>
+      <c r="B192" s="70"/>
+      <c r="C192" s="70"/>
+      <c r="D192" s="70"/>
+      <c r="E192" s="70"/>
+      <c r="F192" s="70"/>
+      <c r="G192" s="70"/>
+      <c r="H192" s="70"/>
+      <c r="I192" s="70"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="69"/>
-      <c r="B193" s="69"/>
-      <c r="C193" s="69"/>
-      <c r="D193" s="69"/>
-      <c r="E193" s="69"/>
-      <c r="F193" s="69"/>
-      <c r="G193" s="69"/>
-      <c r="H193" s="69"/>
-      <c r="I193" s="69"/>
+      <c r="A193" s="70"/>
+      <c r="B193" s="70"/>
+      <c r="C193" s="70"/>
+      <c r="D193" s="70"/>
+      <c r="E193" s="70"/>
+      <c r="F193" s="70"/>
+      <c r="G193" s="70"/>
+      <c r="H193" s="70"/>
+      <c r="I193" s="70"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="69"/>
-      <c r="B194" s="69"/>
-      <c r="C194" s="69"/>
-      <c r="D194" s="69"/>
-      <c r="E194" s="69"/>
-      <c r="F194" s="69"/>
-      <c r="G194" s="69"/>
-      <c r="H194" s="69"/>
-      <c r="I194" s="69"/>
+      <c r="A194" s="70"/>
+      <c r="B194" s="70"/>
+      <c r="C194" s="70"/>
+      <c r="D194" s="70"/>
+      <c r="E194" s="70"/>
+      <c r="F194" s="70"/>
+      <c r="G194" s="70"/>
+      <c r="H194" s="70"/>
+      <c r="I194" s="70"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="69"/>
-      <c r="B195" s="69"/>
-      <c r="C195" s="69"/>
-      <c r="D195" s="69"/>
-      <c r="E195" s="69"/>
-      <c r="F195" s="69"/>
-      <c r="G195" s="69"/>
-      <c r="H195" s="69"/>
-      <c r="I195" s="69"/>
+      <c r="A195" s="70"/>
+      <c r="B195" s="70"/>
+      <c r="C195" s="70"/>
+      <c r="D195" s="70"/>
+      <c r="E195" s="70"/>
+      <c r="F195" s="70"/>
+      <c r="G195" s="70"/>
+      <c r="H195" s="70"/>
+      <c r="I195" s="70"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="69"/>
-      <c r="B196" s="69"/>
-      <c r="C196" s="69"/>
-      <c r="D196" s="69"/>
-      <c r="E196" s="69"/>
-      <c r="F196" s="69"/>
-      <c r="G196" s="69"/>
-      <c r="H196" s="69"/>
-      <c r="I196" s="69"/>
+      <c r="A196" s="70"/>
+      <c r="B196" s="70"/>
+      <c r="C196" s="70"/>
+      <c r="D196" s="70"/>
+      <c r="E196" s="70"/>
+      <c r="F196" s="70"/>
+      <c r="G196" s="70"/>
+      <c r="H196" s="70"/>
+      <c r="I196" s="70"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="69"/>
-      <c r="B197" s="69"/>
-      <c r="C197" s="69"/>
-      <c r="D197" s="69"/>
-      <c r="E197" s="69"/>
-      <c r="F197" s="69"/>
-      <c r="G197" s="69"/>
-      <c r="H197" s="69"/>
-      <c r="I197" s="69"/>
+      <c r="A197" s="70"/>
+      <c r="B197" s="70"/>
+      <c r="C197" s="70"/>
+      <c r="D197" s="70"/>
+      <c r="E197" s="70"/>
+      <c r="F197" s="70"/>
+      <c r="G197" s="70"/>
+      <c r="H197" s="70"/>
+      <c r="I197" s="70"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="69"/>
-      <c r="B198" s="69"/>
-      <c r="C198" s="69"/>
-      <c r="D198" s="69"/>
-      <c r="E198" s="69"/>
-      <c r="F198" s="69"/>
-      <c r="G198" s="69"/>
-      <c r="H198" s="69"/>
-      <c r="I198" s="69"/>
+      <c r="A198" s="70"/>
+      <c r="B198" s="70"/>
+      <c r="C198" s="70"/>
+      <c r="D198" s="70"/>
+      <c r="E198" s="70"/>
+      <c r="F198" s="70"/>
+      <c r="G198" s="70"/>
+      <c r="H198" s="70"/>
+      <c r="I198" s="70"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="69"/>
-      <c r="B199" s="69"/>
-      <c r="C199" s="69"/>
-      <c r="D199" s="69"/>
-      <c r="E199" s="69"/>
-      <c r="F199" s="69"/>
-      <c r="G199" s="69"/>
-      <c r="H199" s="69"/>
-      <c r="I199" s="69"/>
+      <c r="A199" s="70"/>
+      <c r="B199" s="70"/>
+      <c r="C199" s="70"/>
+      <c r="D199" s="70"/>
+      <c r="E199" s="70"/>
+      <c r="F199" s="70"/>
+      <c r="G199" s="70"/>
+      <c r="H199" s="70"/>
+      <c r="I199" s="70"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="69"/>
-      <c r="B200" s="69"/>
-      <c r="C200" s="69"/>
-      <c r="D200" s="69"/>
-      <c r="E200" s="69"/>
-      <c r="F200" s="69"/>
-      <c r="G200" s="69"/>
-      <c r="H200" s="69"/>
-      <c r="I200" s="69"/>
+      <c r="A200" s="70"/>
+      <c r="B200" s="70"/>
+      <c r="C200" s="70"/>
+      <c r="D200" s="70"/>
+      <c r="E200" s="70"/>
+      <c r="F200" s="70"/>
+      <c r="G200" s="70"/>
+      <c r="H200" s="70"/>
+      <c r="I200" s="70"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="69"/>
-      <c r="B201" s="69"/>
-      <c r="C201" s="69"/>
-      <c r="D201" s="69"/>
-      <c r="E201" s="69"/>
-      <c r="F201" s="69"/>
-      <c r="G201" s="69"/>
-      <c r="H201" s="69"/>
-      <c r="I201" s="69"/>
+      <c r="A201" s="70"/>
+      <c r="B201" s="70"/>
+      <c r="C201" s="70"/>
+      <c r="D201" s="70"/>
+      <c r="E201" s="70"/>
+      <c r="F201" s="70"/>
+      <c r="G201" s="70"/>
+      <c r="H201" s="70"/>
+      <c r="I201" s="70"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="69"/>
-      <c r="B202" s="69"/>
-      <c r="C202" s="69"/>
-      <c r="D202" s="69"/>
-      <c r="E202" s="69"/>
-      <c r="F202" s="69"/>
-      <c r="G202" s="69"/>
-      <c r="H202" s="69"/>
-      <c r="I202" s="69"/>
+      <c r="A202" s="70"/>
+      <c r="B202" s="70"/>
+      <c r="C202" s="70"/>
+      <c r="D202" s="70"/>
+      <c r="E202" s="70"/>
+      <c r="F202" s="70"/>
+      <c r="G202" s="70"/>
+      <c r="H202" s="70"/>
+      <c r="I202" s="70"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="69"/>
-      <c r="B203" s="69"/>
-      <c r="C203" s="69"/>
-      <c r="D203" s="69"/>
-      <c r="E203" s="69"/>
-      <c r="F203" s="69"/>
-      <c r="G203" s="69"/>
-      <c r="H203" s="69"/>
-      <c r="I203" s="69"/>
+      <c r="A203" s="70"/>
+      <c r="B203" s="70"/>
+      <c r="C203" s="70"/>
+      <c r="D203" s="70"/>
+      <c r="E203" s="70"/>
+      <c r="F203" s="70"/>
+      <c r="G203" s="70"/>
+      <c r="H203" s="70"/>
+      <c r="I203" s="70"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="69"/>
-      <c r="B204" s="69"/>
-      <c r="C204" s="69"/>
-      <c r="D204" s="69"/>
-      <c r="E204" s="69"/>
-      <c r="F204" s="69"/>
-      <c r="G204" s="69"/>
-      <c r="H204" s="69"/>
-      <c r="I204" s="69"/>
+      <c r="A204" s="70"/>
+      <c r="B204" s="70"/>
+      <c r="C204" s="70"/>
+      <c r="D204" s="70"/>
+      <c r="E204" s="70"/>
+      <c r="F204" s="70"/>
+      <c r="G204" s="70"/>
+      <c r="H204" s="70"/>
+      <c r="I204" s="70"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="69"/>
-      <c r="B205" s="69"/>
-      <c r="C205" s="69"/>
-      <c r="D205" s="69"/>
-      <c r="E205" s="69"/>
-      <c r="F205" s="69"/>
-      <c r="G205" s="69"/>
-      <c r="H205" s="69"/>
-      <c r="I205" s="69"/>
+      <c r="A205" s="70"/>
+      <c r="B205" s="70"/>
+      <c r="C205" s="70"/>
+      <c r="D205" s="70"/>
+      <c r="E205" s="70"/>
+      <c r="F205" s="70"/>
+      <c r="G205" s="70"/>
+      <c r="H205" s="70"/>
+      <c r="I205" s="70"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="69"/>
-      <c r="B206" s="69"/>
-      <c r="C206" s="69"/>
-      <c r="D206" s="69"/>
-      <c r="E206" s="69"/>
-      <c r="F206" s="69"/>
-      <c r="G206" s="69"/>
-      <c r="H206" s="69"/>
-      <c r="I206" s="69"/>
+      <c r="A206" s="70"/>
+      <c r="B206" s="70"/>
+      <c r="C206" s="70"/>
+      <c r="D206" s="70"/>
+      <c r="E206" s="70"/>
+      <c r="F206" s="70"/>
+      <c r="G206" s="70"/>
+      <c r="H206" s="70"/>
+      <c r="I206" s="70"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="69"/>
-      <c r="B207" s="69"/>
-      <c r="C207" s="69"/>
-      <c r="D207" s="69"/>
-      <c r="E207" s="69"/>
-      <c r="F207" s="69"/>
-      <c r="G207" s="69"/>
-      <c r="H207" s="69"/>
-      <c r="I207" s="69"/>
+      <c r="A207" s="70"/>
+      <c r="B207" s="70"/>
+      <c r="C207" s="70"/>
+      <c r="D207" s="70"/>
+      <c r="E207" s="70"/>
+      <c r="F207" s="70"/>
+      <c r="G207" s="70"/>
+      <c r="H207" s="70"/>
+      <c r="I207" s="70"/>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="69"/>
-      <c r="B208" s="69"/>
-      <c r="C208" s="69"/>
-      <c r="D208" s="69"/>
-      <c r="E208" s="69"/>
-      <c r="F208" s="69"/>
-      <c r="G208" s="69"/>
-      <c r="H208" s="69"/>
-      <c r="I208" s="69"/>
+      <c r="A208" s="70"/>
+      <c r="B208" s="70"/>
+      <c r="C208" s="70"/>
+      <c r="D208" s="70"/>
+      <c r="E208" s="70"/>
+      <c r="F208" s="70"/>
+      <c r="G208" s="70"/>
+      <c r="H208" s="70"/>
+      <c r="I208" s="70"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="69"/>
-      <c r="B209" s="69"/>
-      <c r="C209" s="69"/>
-      <c r="D209" s="69"/>
-      <c r="E209" s="69"/>
-      <c r="F209" s="69"/>
-      <c r="G209" s="69"/>
-      <c r="H209" s="69"/>
-      <c r="I209" s="69"/>
+      <c r="A209" s="70"/>
+      <c r="B209" s="70"/>
+      <c r="C209" s="70"/>
+      <c r="D209" s="70"/>
+      <c r="E209" s="70"/>
+      <c r="F209" s="70"/>
+      <c r="G209" s="70"/>
+      <c r="H209" s="70"/>
+      <c r="I209" s="70"/>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="69"/>
-      <c r="B210" s="69"/>
-      <c r="C210" s="69"/>
-      <c r="D210" s="69"/>
-      <c r="E210" s="69"/>
-      <c r="F210" s="69"/>
-      <c r="G210" s="69"/>
-      <c r="H210" s="69"/>
-      <c r="I210" s="69"/>
+      <c r="A210" s="70"/>
+      <c r="B210" s="70"/>
+      <c r="C210" s="70"/>
+      <c r="D210" s="70"/>
+      <c r="E210" s="70"/>
+      <c r="F210" s="70"/>
+      <c r="G210" s="70"/>
+      <c r="H210" s="70"/>
+      <c r="I210" s="70"/>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="69"/>
-      <c r="B211" s="69"/>
-      <c r="C211" s="69"/>
-      <c r="D211" s="69"/>
-      <c r="E211" s="69"/>
-      <c r="F211" s="69"/>
-      <c r="G211" s="69"/>
-      <c r="H211" s="69"/>
-      <c r="I211" s="69"/>
+      <c r="A211" s="70"/>
+      <c r="B211" s="70"/>
+      <c r="C211" s="70"/>
+      <c r="D211" s="70"/>
+      <c r="E211" s="70"/>
+      <c r="F211" s="70"/>
+      <c r="G211" s="70"/>
+      <c r="H211" s="70"/>
+      <c r="I211" s="70"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="69"/>
-      <c r="B212" s="69"/>
-      <c r="C212" s="69"/>
-      <c r="D212" s="69"/>
-      <c r="E212" s="69"/>
-      <c r="F212" s="69"/>
-      <c r="G212" s="69"/>
-      <c r="H212" s="69"/>
-      <c r="I212" s="69"/>
+      <c r="A212" s="70"/>
+      <c r="B212" s="70"/>
+      <c r="C212" s="70"/>
+      <c r="D212" s="70"/>
+      <c r="E212" s="70"/>
+      <c r="F212" s="70"/>
+      <c r="G212" s="70"/>
+      <c r="H212" s="70"/>
+      <c r="I212" s="70"/>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="69"/>
-      <c r="B213" s="69"/>
-      <c r="C213" s="69"/>
-      <c r="D213" s="69"/>
-      <c r="E213" s="69"/>
-      <c r="F213" s="69"/>
-      <c r="G213" s="69"/>
-      <c r="H213" s="69"/>
-      <c r="I213" s="69"/>
+      <c r="A213" s="70"/>
+      <c r="B213" s="70"/>
+      <c r="C213" s="70"/>
+      <c r="D213" s="70"/>
+      <c r="E213" s="70"/>
+      <c r="F213" s="70"/>
+      <c r="G213" s="70"/>
+      <c r="H213" s="70"/>
+      <c r="I213" s="70"/>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="69"/>
-      <c r="B214" s="69"/>
-      <c r="C214" s="69"/>
-      <c r="D214" s="69"/>
-      <c r="E214" s="69"/>
-      <c r="F214" s="69"/>
-      <c r="G214" s="69"/>
-      <c r="H214" s="69"/>
-      <c r="I214" s="69"/>
+      <c r="A214" s="70"/>
+      <c r="B214" s="70"/>
+      <c r="C214" s="70"/>
+      <c r="D214" s="70"/>
+      <c r="E214" s="70"/>
+      <c r="F214" s="70"/>
+      <c r="G214" s="70"/>
+      <c r="H214" s="70"/>
+      <c r="I214" s="70"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="69"/>
-      <c r="B215" s="69"/>
-      <c r="C215" s="69"/>
-      <c r="D215" s="69"/>
-      <c r="E215" s="69"/>
-      <c r="F215" s="69"/>
-      <c r="G215" s="69"/>
-      <c r="H215" s="69"/>
-      <c r="I215" s="69"/>
+      <c r="A215" s="70"/>
+      <c r="B215" s="70"/>
+      <c r="C215" s="70"/>
+      <c r="D215" s="70"/>
+      <c r="E215" s="70"/>
+      <c r="F215" s="70"/>
+      <c r="G215" s="70"/>
+      <c r="H215" s="70"/>
+      <c r="I215" s="70"/>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="69"/>
-      <c r="B216" s="69"/>
-      <c r="C216" s="69"/>
-      <c r="D216" s="69"/>
-      <c r="E216" s="69"/>
-      <c r="F216" s="69"/>
-      <c r="G216" s="69"/>
-      <c r="H216" s="69"/>
-      <c r="I216" s="69"/>
+      <c r="A216" s="70"/>
+      <c r="B216" s="70"/>
+      <c r="C216" s="70"/>
+      <c r="D216" s="70"/>
+      <c r="E216" s="70"/>
+      <c r="F216" s="70"/>
+      <c r="G216" s="70"/>
+      <c r="H216" s="70"/>
+      <c r="I216" s="70"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="69"/>
-      <c r="B217" s="69"/>
-      <c r="C217" s="69"/>
-      <c r="D217" s="69"/>
-      <c r="E217" s="69"/>
-      <c r="F217" s="69"/>
-      <c r="G217" s="69"/>
-      <c r="H217" s="69"/>
-      <c r="I217" s="69"/>
+      <c r="A217" s="70"/>
+      <c r="B217" s="70"/>
+      <c r="C217" s="70"/>
+      <c r="D217" s="70"/>
+      <c r="E217" s="70"/>
+      <c r="F217" s="70"/>
+      <c r="G217" s="70"/>
+      <c r="H217" s="70"/>
+      <c r="I217" s="70"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="69"/>
-      <c r="B218" s="69"/>
-      <c r="C218" s="69"/>
-      <c r="D218" s="69"/>
-      <c r="E218" s="69"/>
-      <c r="F218" s="69"/>
-      <c r="G218" s="69"/>
-      <c r="H218" s="69"/>
-      <c r="I218" s="69"/>
+      <c r="A218" s="70"/>
+      <c r="B218" s="70"/>
+      <c r="C218" s="70"/>
+      <c r="D218" s="70"/>
+      <c r="E218" s="70"/>
+      <c r="F218" s="70"/>
+      <c r="G218" s="70"/>
+      <c r="H218" s="70"/>
+      <c r="I218" s="70"/>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="69"/>
-      <c r="B219" s="69"/>
-      <c r="C219" s="69"/>
-      <c r="D219" s="69"/>
-      <c r="E219" s="69"/>
-      <c r="F219" s="69"/>
-      <c r="G219" s="69"/>
-      <c r="H219" s="69"/>
-      <c r="I219" s="69"/>
+      <c r="A219" s="70"/>
+      <c r="B219" s="70"/>
+      <c r="C219" s="70"/>
+      <c r="D219" s="70"/>
+      <c r="E219" s="70"/>
+      <c r="F219" s="70"/>
+      <c r="G219" s="70"/>
+      <c r="H219" s="70"/>
+      <c r="I219" s="70"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="69"/>
-      <c r="B220" s="69"/>
-      <c r="C220" s="69"/>
-      <c r="D220" s="69"/>
-      <c r="E220" s="69"/>
-      <c r="F220" s="69"/>
-      <c r="G220" s="69"/>
-      <c r="H220" s="69"/>
-      <c r="I220" s="69"/>
+      <c r="A220" s="70"/>
+      <c r="B220" s="70"/>
+      <c r="C220" s="70"/>
+      <c r="D220" s="70"/>
+      <c r="E220" s="70"/>
+      <c r="F220" s="70"/>
+      <c r="G220" s="70"/>
+      <c r="H220" s="70"/>
+      <c r="I220" s="70"/>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="69"/>
-      <c r="B221" s="69"/>
-      <c r="C221" s="69"/>
-      <c r="D221" s="69"/>
-      <c r="E221" s="69"/>
-      <c r="F221" s="69"/>
-      <c r="G221" s="69"/>
-      <c r="H221" s="69"/>
-      <c r="I221" s="69"/>
+      <c r="A221" s="70"/>
+      <c r="B221" s="70"/>
+      <c r="C221" s="70"/>
+      <c r="D221" s="70"/>
+      <c r="E221" s="70"/>
+      <c r="F221" s="70"/>
+      <c r="G221" s="70"/>
+      <c r="H221" s="70"/>
+      <c r="I221" s="70"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="69"/>
-      <c r="B222" s="69"/>
-      <c r="C222" s="69"/>
-      <c r="D222" s="69"/>
-      <c r="E222" s="69"/>
-      <c r="F222" s="69"/>
-      <c r="G222" s="69"/>
-      <c r="H222" s="69"/>
-      <c r="I222" s="69"/>
+      <c r="A222" s="70"/>
+      <c r="B222" s="70"/>
+      <c r="C222" s="70"/>
+      <c r="D222" s="70"/>
+      <c r="E222" s="70"/>
+      <c r="F222" s="70"/>
+      <c r="G222" s="70"/>
+      <c r="H222" s="70"/>
+      <c r="I222" s="70"/>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="69"/>
-      <c r="B223" s="69"/>
-      <c r="C223" s="69"/>
-      <c r="D223" s="69"/>
-      <c r="E223" s="69"/>
-      <c r="F223" s="69"/>
-      <c r="G223" s="69"/>
-      <c r="H223" s="69"/>
-      <c r="I223" s="69"/>
+      <c r="A223" s="70"/>
+      <c r="B223" s="70"/>
+      <c r="C223" s="70"/>
+      <c r="D223" s="70"/>
+      <c r="E223" s="70"/>
+      <c r="F223" s="70"/>
+      <c r="G223" s="70"/>
+      <c r="H223" s="70"/>
+      <c r="I223" s="70"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="69"/>
-      <c r="B224" s="69"/>
-      <c r="C224" s="69"/>
-      <c r="D224" s="69"/>
-      <c r="E224" s="69"/>
-      <c r="F224" s="69"/>
-      <c r="G224" s="69"/>
-      <c r="H224" s="69"/>
-      <c r="I224" s="69"/>
+      <c r="A224" s="70"/>
+      <c r="B224" s="70"/>
+      <c r="C224" s="70"/>
+      <c r="D224" s="70"/>
+      <c r="E224" s="70"/>
+      <c r="F224" s="70"/>
+      <c r="G224" s="70"/>
+      <c r="H224" s="70"/>
+      <c r="I224" s="70"/>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="69"/>
-      <c r="B225" s="69"/>
-      <c r="C225" s="69"/>
-      <c r="D225" s="69"/>
-      <c r="E225" s="69"/>
-      <c r="F225" s="69"/>
-      <c r="G225" s="69"/>
-      <c r="H225" s="69"/>
-      <c r="I225" s="69"/>
+      <c r="A225" s="70"/>
+      <c r="B225" s="70"/>
+      <c r="C225" s="70"/>
+      <c r="D225" s="70"/>
+      <c r="E225" s="70"/>
+      <c r="F225" s="70"/>
+      <c r="G225" s="70"/>
+      <c r="H225" s="70"/>
+      <c r="I225" s="70"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="69"/>
-      <c r="B226" s="69"/>
-      <c r="C226" s="69"/>
-      <c r="D226" s="69"/>
-      <c r="E226" s="69"/>
-      <c r="F226" s="69"/>
-      <c r="G226" s="69"/>
-      <c r="H226" s="69"/>
-      <c r="I226" s="69"/>
+      <c r="A226" s="70"/>
+      <c r="B226" s="70"/>
+      <c r="C226" s="70"/>
+      <c r="D226" s="70"/>
+      <c r="E226" s="70"/>
+      <c r="F226" s="70"/>
+      <c r="G226" s="70"/>
+      <c r="H226" s="70"/>
+      <c r="I226" s="70"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="69"/>
-      <c r="B227" s="69"/>
-      <c r="C227" s="69"/>
-      <c r="D227" s="69"/>
-      <c r="E227" s="69"/>
-      <c r="F227" s="69"/>
-      <c r="G227" s="69"/>
-      <c r="H227" s="69"/>
-      <c r="I227" s="69"/>
+      <c r="A227" s="70"/>
+      <c r="B227" s="70"/>
+      <c r="C227" s="70"/>
+      <c r="D227" s="70"/>
+      <c r="E227" s="70"/>
+      <c r="F227" s="70"/>
+      <c r="G227" s="70"/>
+      <c r="H227" s="70"/>
+      <c r="I227" s="70"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="69"/>
-      <c r="B228" s="69"/>
-      <c r="C228" s="69"/>
-      <c r="D228" s="69"/>
-      <c r="E228" s="69"/>
-      <c r="F228" s="69"/>
-      <c r="G228" s="69"/>
-      <c r="H228" s="69"/>
-      <c r="I228" s="69"/>
+      <c r="A228" s="70"/>
+      <c r="B228" s="70"/>
+      <c r="C228" s="70"/>
+      <c r="D228" s="70"/>
+      <c r="E228" s="70"/>
+      <c r="F228" s="70"/>
+      <c r="G228" s="70"/>
+      <c r="H228" s="70"/>
+      <c r="I228" s="70"/>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="69"/>
-      <c r="B229" s="69"/>
-      <c r="C229" s="69"/>
-      <c r="D229" s="69"/>
-      <c r="E229" s="69"/>
-      <c r="F229" s="69"/>
-      <c r="G229" s="69"/>
-      <c r="H229" s="69"/>
-      <c r="I229" s="69"/>
+      <c r="A229" s="70"/>
+      <c r="B229" s="70"/>
+      <c r="C229" s="70"/>
+      <c r="D229" s="70"/>
+      <c r="E229" s="70"/>
+      <c r="F229" s="70"/>
+      <c r="G229" s="70"/>
+      <c r="H229" s="70"/>
+      <c r="I229" s="70"/>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="69"/>
-      <c r="B230" s="69"/>
-      <c r="C230" s="69"/>
-      <c r="D230" s="69"/>
-      <c r="E230" s="69"/>
-      <c r="F230" s="69"/>
-      <c r="G230" s="69"/>
-      <c r="H230" s="69"/>
-      <c r="I230" s="69"/>
+      <c r="A230" s="70"/>
+      <c r="B230" s="70"/>
+      <c r="C230" s="70"/>
+      <c r="D230" s="70"/>
+      <c r="E230" s="70"/>
+      <c r="F230" s="70"/>
+      <c r="G230" s="70"/>
+      <c r="H230" s="70"/>
+      <c r="I230" s="70"/>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="69"/>
-      <c r="B231" s="69"/>
-      <c r="C231" s="69"/>
-      <c r="D231" s="69"/>
-      <c r="E231" s="69"/>
-      <c r="F231" s="69"/>
-      <c r="G231" s="69"/>
-      <c r="H231" s="69"/>
-      <c r="I231" s="69"/>
+      <c r="A231" s="70"/>
+      <c r="B231" s="70"/>
+      <c r="C231" s="70"/>
+      <c r="D231" s="70"/>
+      <c r="E231" s="70"/>
+      <c r="F231" s="70"/>
+      <c r="G231" s="70"/>
+      <c r="H231" s="70"/>
+      <c r="I231" s="70"/>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="69"/>
-      <c r="B232" s="69"/>
-      <c r="C232" s="69"/>
-      <c r="D232" s="69"/>
-      <c r="E232" s="69"/>
-      <c r="F232" s="69"/>
-      <c r="G232" s="69"/>
-      <c r="H232" s="69"/>
-      <c r="I232" s="69"/>
+      <c r="A232" s="70"/>
+      <c r="B232" s="70"/>
+      <c r="C232" s="70"/>
+      <c r="D232" s="70"/>
+      <c r="E232" s="70"/>
+      <c r="F232" s="70"/>
+      <c r="G232" s="70"/>
+      <c r="H232" s="70"/>
+      <c r="I232" s="70"/>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="69"/>
-      <c r="B233" s="69"/>
-      <c r="C233" s="69"/>
-      <c r="D233" s="69"/>
-      <c r="E233" s="69"/>
-      <c r="F233" s="69"/>
-      <c r="G233" s="69"/>
-      <c r="H233" s="69"/>
-      <c r="I233" s="69"/>
+      <c r="A233" s="70"/>
+      <c r="B233" s="70"/>
+      <c r="C233" s="70"/>
+      <c r="D233" s="70"/>
+      <c r="E233" s="70"/>
+      <c r="F233" s="70"/>
+      <c r="G233" s="70"/>
+      <c r="H233" s="70"/>
+      <c r="I233" s="70"/>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="69"/>
-      <c r="B234" s="69"/>
-      <c r="C234" s="69"/>
-      <c r="D234" s="69"/>
-      <c r="E234" s="69"/>
-      <c r="F234" s="69"/>
-      <c r="G234" s="69"/>
-      <c r="H234" s="69"/>
-      <c r="I234" s="69"/>
+      <c r="A234" s="70"/>
+      <c r="B234" s="70"/>
+      <c r="C234" s="70"/>
+      <c r="D234" s="70"/>
+      <c r="E234" s="70"/>
+      <c r="F234" s="70"/>
+      <c r="G234" s="70"/>
+      <c r="H234" s="70"/>
+      <c r="I234" s="70"/>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="69"/>
-      <c r="B235" s="69"/>
-      <c r="C235" s="69"/>
-      <c r="D235" s="69"/>
-      <c r="E235" s="69"/>
-      <c r="F235" s="69"/>
-      <c r="G235" s="69"/>
-      <c r="H235" s="69"/>
-      <c r="I235" s="69"/>
+      <c r="A235" s="70"/>
+      <c r="B235" s="70"/>
+      <c r="C235" s="70"/>
+      <c r="D235" s="70"/>
+      <c r="E235" s="70"/>
+      <c r="F235" s="70"/>
+      <c r="G235" s="70"/>
+      <c r="H235" s="70"/>
+      <c r="I235" s="70"/>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="69"/>
-      <c r="B236" s="69"/>
-      <c r="C236" s="69"/>
-      <c r="D236" s="69"/>
-      <c r="E236" s="69"/>
-      <c r="F236" s="69"/>
-      <c r="G236" s="69"/>
-      <c r="H236" s="69"/>
-      <c r="I236" s="69"/>
+      <c r="A236" s="70"/>
+      <c r="B236" s="70"/>
+      <c r="C236" s="70"/>
+      <c r="D236" s="70"/>
+      <c r="E236" s="70"/>
+      <c r="F236" s="70"/>
+      <c r="G236" s="70"/>
+      <c r="H236" s="70"/>
+      <c r="I236" s="70"/>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="69"/>
-      <c r="B237" s="69"/>
-      <c r="C237" s="69"/>
-      <c r="D237" s="69"/>
-      <c r="E237" s="69"/>
-      <c r="F237" s="69"/>
-      <c r="G237" s="69"/>
-      <c r="H237" s="69"/>
-      <c r="I237" s="69"/>
+      <c r="A237" s="70"/>
+      <c r="B237" s="70"/>
+      <c r="C237" s="70"/>
+      <c r="D237" s="70"/>
+      <c r="E237" s="70"/>
+      <c r="F237" s="70"/>
+      <c r="G237" s="70"/>
+      <c r="H237" s="70"/>
+      <c r="I237" s="70"/>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="69"/>
-      <c r="B238" s="69"/>
-      <c r="C238" s="69"/>
-      <c r="D238" s="69"/>
-      <c r="E238" s="69"/>
-      <c r="F238" s="69"/>
-      <c r="G238" s="69"/>
-      <c r="H238" s="69"/>
-      <c r="I238" s="69"/>
+      <c r="A238" s="70"/>
+      <c r="B238" s="70"/>
+      <c r="C238" s="70"/>
+      <c r="D238" s="70"/>
+      <c r="E238" s="70"/>
+      <c r="F238" s="70"/>
+      <c r="G238" s="70"/>
+      <c r="H238" s="70"/>
+      <c r="I238" s="70"/>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="69"/>
-      <c r="B239" s="69"/>
-      <c r="C239" s="69"/>
-      <c r="D239" s="69"/>
-      <c r="E239" s="69"/>
-      <c r="F239" s="69"/>
-      <c r="G239" s="69"/>
-      <c r="H239" s="69"/>
-      <c r="I239" s="69"/>
+      <c r="A239" s="70"/>
+      <c r="B239" s="70"/>
+      <c r="C239" s="70"/>
+      <c r="D239" s="70"/>
+      <c r="E239" s="70"/>
+      <c r="F239" s="70"/>
+      <c r="G239" s="70"/>
+      <c r="H239" s="70"/>
+      <c r="I239" s="70"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="69"/>
-      <c r="B240" s="69"/>
-      <c r="C240" s="69"/>
-      <c r="D240" s="69"/>
-      <c r="E240" s="69"/>
-      <c r="F240" s="69"/>
-      <c r="G240" s="69"/>
-      <c r="H240" s="69"/>
-      <c r="I240" s="69"/>
+      <c r="A240" s="70"/>
+      <c r="B240" s="70"/>
+      <c r="C240" s="70"/>
+      <c r="D240" s="70"/>
+      <c r="E240" s="70"/>
+      <c r="F240" s="70"/>
+      <c r="G240" s="70"/>
+      <c r="H240" s="70"/>
+      <c r="I240" s="70"/>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="69"/>
-      <c r="B241" s="69"/>
-      <c r="C241" s="69"/>
-      <c r="D241" s="69"/>
-      <c r="E241" s="69"/>
-      <c r="F241" s="69"/>
-      <c r="G241" s="69"/>
-      <c r="H241" s="69"/>
-      <c r="I241" s="69"/>
+      <c r="A241" s="70"/>
+      <c r="B241" s="70"/>
+      <c r="C241" s="70"/>
+      <c r="D241" s="70"/>
+      <c r="E241" s="70"/>
+      <c r="F241" s="70"/>
+      <c r="G241" s="70"/>
+      <c r="H241" s="70"/>
+      <c r="I241" s="70"/>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="69"/>
-      <c r="B242" s="69"/>
-      <c r="C242" s="69"/>
-      <c r="D242" s="69"/>
-      <c r="E242" s="69"/>
-      <c r="F242" s="69"/>
-      <c r="G242" s="69"/>
-      <c r="H242" s="69"/>
-      <c r="I242" s="69"/>
+      <c r="A242" s="70"/>
+      <c r="B242" s="70"/>
+      <c r="C242" s="70"/>
+      <c r="D242" s="70"/>
+      <c r="E242" s="70"/>
+      <c r="F242" s="70"/>
+      <c r="G242" s="70"/>
+      <c r="H242" s="70"/>
+      <c r="I242" s="70"/>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="69"/>
-      <c r="B243" s="69"/>
-      <c r="C243" s="69"/>
-      <c r="D243" s="69"/>
-      <c r="E243" s="69"/>
-      <c r="F243" s="69"/>
-      <c r="G243" s="69"/>
-      <c r="H243" s="69"/>
-      <c r="I243" s="69"/>
+      <c r="A243" s="70"/>
+      <c r="B243" s="70"/>
+      <c r="C243" s="70"/>
+      <c r="D243" s="70"/>
+      <c r="E243" s="70"/>
+      <c r="F243" s="70"/>
+      <c r="G243" s="70"/>
+      <c r="H243" s="70"/>
+      <c r="I243" s="70"/>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="69"/>
-      <c r="B244" s="69"/>
-      <c r="C244" s="69"/>
-      <c r="D244" s="69"/>
-      <c r="E244" s="69"/>
-      <c r="F244" s="69"/>
-      <c r="G244" s="69"/>
-      <c r="H244" s="69"/>
-      <c r="I244" s="69"/>
+      <c r="A244" s="70"/>
+      <c r="B244" s="70"/>
+      <c r="C244" s="70"/>
+      <c r="D244" s="70"/>
+      <c r="E244" s="70"/>
+      <c r="F244" s="70"/>
+      <c r="G244" s="70"/>
+      <c r="H244" s="70"/>
+      <c r="I244" s="70"/>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="69"/>
-      <c r="B245" s="69"/>
-      <c r="C245" s="69"/>
-      <c r="D245" s="69"/>
-      <c r="E245" s="69"/>
-      <c r="F245" s="69"/>
-      <c r="G245" s="69"/>
-      <c r="H245" s="69"/>
-      <c r="I245" s="69"/>
+      <c r="A245" s="70"/>
+      <c r="B245" s="70"/>
+      <c r="C245" s="70"/>
+      <c r="D245" s="70"/>
+      <c r="E245" s="70"/>
+      <c r="F245" s="70"/>
+      <c r="G245" s="70"/>
+      <c r="H245" s="70"/>
+      <c r="I245" s="70"/>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="69"/>
-      <c r="B246" s="69"/>
-      <c r="C246" s="69"/>
-      <c r="D246" s="69"/>
-      <c r="E246" s="69"/>
-      <c r="F246" s="69"/>
-      <c r="G246" s="69"/>
-      <c r="H246" s="69"/>
-      <c r="I246" s="69"/>
+      <c r="A246" s="70"/>
+      <c r="B246" s="70"/>
+      <c r="C246" s="70"/>
+      <c r="D246" s="70"/>
+      <c r="E246" s="70"/>
+      <c r="F246" s="70"/>
+      <c r="G246" s="70"/>
+      <c r="H246" s="70"/>
+      <c r="I246" s="70"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="69"/>
-      <c r="B247" s="69"/>
-      <c r="C247" s="69"/>
-      <c r="D247" s="69"/>
-      <c r="E247" s="69"/>
-      <c r="F247" s="69"/>
-      <c r="G247" s="69"/>
-      <c r="H247" s="69"/>
-      <c r="I247" s="69"/>
+      <c r="A247" s="70"/>
+      <c r="B247" s="70"/>
+      <c r="C247" s="70"/>
+      <c r="D247" s="70"/>
+      <c r="E247" s="70"/>
+      <c r="F247" s="70"/>
+      <c r="G247" s="70"/>
+      <c r="H247" s="70"/>
+      <c r="I247" s="70"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="69"/>
-      <c r="B248" s="69"/>
-      <c r="C248" s="69"/>
-      <c r="D248" s="69"/>
-      <c r="E248" s="69"/>
-      <c r="F248" s="69"/>
-      <c r="G248" s="69"/>
-      <c r="H248" s="69"/>
-      <c r="I248" s="69"/>
+      <c r="A248" s="70"/>
+      <c r="B248" s="70"/>
+      <c r="C248" s="70"/>
+      <c r="D248" s="70"/>
+      <c r="E248" s="70"/>
+      <c r="F248" s="70"/>
+      <c r="G248" s="70"/>
+      <c r="H248" s="70"/>
+      <c r="I248" s="70"/>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="69"/>
-      <c r="B249" s="69"/>
-      <c r="C249" s="69"/>
-      <c r="D249" s="69"/>
-      <c r="E249" s="69"/>
-      <c r="F249" s="69"/>
-      <c r="G249" s="69"/>
-      <c r="H249" s="69"/>
-      <c r="I249" s="69"/>
+      <c r="A249" s="70"/>
+      <c r="B249" s="70"/>
+      <c r="C249" s="70"/>
+      <c r="D249" s="70"/>
+      <c r="E249" s="70"/>
+      <c r="F249" s="70"/>
+      <c r="G249" s="70"/>
+      <c r="H249" s="70"/>
+      <c r="I249" s="70"/>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="69"/>
-      <c r="B250" s="69"/>
-      <c r="C250" s="69"/>
-      <c r="D250" s="69"/>
-      <c r="E250" s="69"/>
-      <c r="F250" s="69"/>
-      <c r="G250" s="69"/>
-      <c r="H250" s="69"/>
-      <c r="I250" s="69"/>
+      <c r="A250" s="70"/>
+      <c r="B250" s="70"/>
+      <c r="C250" s="70"/>
+      <c r="D250" s="70"/>
+      <c r="E250" s="70"/>
+      <c r="F250" s="70"/>
+      <c r="G250" s="70"/>
+      <c r="H250" s="70"/>
+      <c r="I250" s="70"/>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="69"/>
-      <c r="B251" s="69"/>
-      <c r="C251" s="69"/>
-      <c r="D251" s="69"/>
-      <c r="E251" s="69"/>
-      <c r="F251" s="69"/>
-      <c r="G251" s="69"/>
-      <c r="H251" s="69"/>
-      <c r="I251" s="69"/>
+      <c r="A251" s="70"/>
+      <c r="B251" s="70"/>
+      <c r="C251" s="70"/>
+      <c r="D251" s="70"/>
+      <c r="E251" s="70"/>
+      <c r="F251" s="70"/>
+      <c r="G251" s="70"/>
+      <c r="H251" s="70"/>
+      <c r="I251" s="70"/>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="69"/>
-      <c r="B252" s="69"/>
-      <c r="C252" s="69"/>
-      <c r="D252" s="69"/>
-      <c r="E252" s="69"/>
-      <c r="F252" s="69"/>
-      <c r="G252" s="69"/>
-      <c r="H252" s="69"/>
-      <c r="I252" s="69"/>
+      <c r="A252" s="70"/>
+      <c r="B252" s="70"/>
+      <c r="C252" s="70"/>
+      <c r="D252" s="70"/>
+      <c r="E252" s="70"/>
+      <c r="F252" s="70"/>
+      <c r="G252" s="70"/>
+      <c r="H252" s="70"/>
+      <c r="I252" s="70"/>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="69"/>
-      <c r="B253" s="69"/>
-      <c r="C253" s="69"/>
-      <c r="D253" s="69"/>
-      <c r="E253" s="69"/>
-      <c r="F253" s="69"/>
-      <c r="G253" s="69"/>
-      <c r="H253" s="69"/>
-      <c r="I253" s="69"/>
+      <c r="A253" s="70"/>
+      <c r="B253" s="70"/>
+      <c r="C253" s="70"/>
+      <c r="D253" s="70"/>
+      <c r="E253" s="70"/>
+      <c r="F253" s="70"/>
+      <c r="G253" s="70"/>
+      <c r="H253" s="70"/>
+      <c r="I253" s="70"/>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="69"/>
-      <c r="B254" s="69"/>
-      <c r="C254" s="69"/>
-      <c r="D254" s="69"/>
-      <c r="E254" s="69"/>
-      <c r="F254" s="69"/>
-      <c r="G254" s="69"/>
-      <c r="H254" s="69"/>
-      <c r="I254" s="69"/>
+      <c r="A254" s="70"/>
+      <c r="B254" s="70"/>
+      <c r="C254" s="70"/>
+      <c r="D254" s="70"/>
+      <c r="E254" s="70"/>
+      <c r="F254" s="70"/>
+      <c r="G254" s="70"/>
+      <c r="H254" s="70"/>
+      <c r="I254" s="70"/>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="69"/>
-      <c r="B255" s="69"/>
-      <c r="C255" s="69"/>
-      <c r="D255" s="69"/>
-      <c r="E255" s="69"/>
-      <c r="F255" s="69"/>
-      <c r="G255" s="69"/>
-      <c r="H255" s="69"/>
-      <c r="I255" s="69"/>
+      <c r="A255" s="70"/>
+      <c r="B255" s="70"/>
+      <c r="C255" s="70"/>
+      <c r="D255" s="70"/>
+      <c r="E255" s="70"/>
+      <c r="F255" s="70"/>
+      <c r="G255" s="70"/>
+      <c r="H255" s="70"/>
+      <c r="I255" s="70"/>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="69"/>
-      <c r="B256" s="69"/>
-      <c r="C256" s="69"/>
-      <c r="D256" s="69"/>
-      <c r="E256" s="69"/>
-      <c r="F256" s="69"/>
-      <c r="G256" s="69"/>
-      <c r="H256" s="69"/>
-      <c r="I256" s="69"/>
+      <c r="A256" s="70"/>
+      <c r="B256" s="70"/>
+      <c r="C256" s="70"/>
+      <c r="D256" s="70"/>
+      <c r="E256" s="70"/>
+      <c r="F256" s="70"/>
+      <c r="G256" s="70"/>
+      <c r="H256" s="70"/>
+      <c r="I256" s="70"/>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="69"/>
-      <c r="B257" s="69"/>
-      <c r="C257" s="69"/>
-      <c r="D257" s="69"/>
-      <c r="E257" s="69"/>
-      <c r="F257" s="69"/>
-      <c r="G257" s="69"/>
-      <c r="H257" s="69"/>
-      <c r="I257" s="69"/>
+      <c r="A257" s="70"/>
+      <c r="B257" s="70"/>
+      <c r="C257" s="70"/>
+      <c r="D257" s="70"/>
+      <c r="E257" s="70"/>
+      <c r="F257" s="70"/>
+      <c r="G257" s="70"/>
+      <c r="H257" s="70"/>
+      <c r="I257" s="70"/>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="69"/>
-      <c r="B258" s="69"/>
-      <c r="C258" s="69"/>
-      <c r="D258" s="69"/>
-      <c r="E258" s="69"/>
-      <c r="F258" s="69"/>
-      <c r="G258" s="69"/>
-      <c r="H258" s="69"/>
-      <c r="I258" s="69"/>
+      <c r="A258" s="70"/>
+      <c r="B258" s="70"/>
+      <c r="C258" s="70"/>
+      <c r="D258" s="70"/>
+      <c r="E258" s="70"/>
+      <c r="F258" s="70"/>
+      <c r="G258" s="70"/>
+      <c r="H258" s="70"/>
+      <c r="I258" s="70"/>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="69"/>
-      <c r="B259" s="69"/>
-      <c r="C259" s="69"/>
-      <c r="D259" s="69"/>
-      <c r="E259" s="69"/>
-      <c r="F259" s="69"/>
-      <c r="G259" s="69"/>
-      <c r="H259" s="69"/>
-      <c r="I259" s="69"/>
+      <c r="A259" s="70"/>
+      <c r="B259" s="70"/>
+      <c r="C259" s="70"/>
+      <c r="D259" s="70"/>
+      <c r="E259" s="70"/>
+      <c r="F259" s="70"/>
+      <c r="G259" s="70"/>
+      <c r="H259" s="70"/>
+      <c r="I259" s="70"/>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="69"/>
-      <c r="B260" s="69"/>
-      <c r="C260" s="69"/>
-      <c r="D260" s="69"/>
-      <c r="E260" s="69"/>
-      <c r="F260" s="69"/>
-      <c r="G260" s="69"/>
-      <c r="H260" s="69"/>
-      <c r="I260" s="69"/>
+      <c r="A260" s="70"/>
+      <c r="B260" s="70"/>
+      <c r="C260" s="70"/>
+      <c r="D260" s="70"/>
+      <c r="E260" s="70"/>
+      <c r="F260" s="70"/>
+      <c r="G260" s="70"/>
+      <c r="H260" s="70"/>
+      <c r="I260" s="70"/>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="69"/>
-      <c r="B261" s="69"/>
-      <c r="C261" s="69"/>
-      <c r="D261" s="69"/>
-      <c r="E261" s="69"/>
-      <c r="F261" s="69"/>
-      <c r="G261" s="69"/>
-      <c r="H261" s="69"/>
-      <c r="I261" s="69"/>
+      <c r="A261" s="70"/>
+      <c r="B261" s="70"/>
+      <c r="C261" s="70"/>
+      <c r="D261" s="70"/>
+      <c r="E261" s="70"/>
+      <c r="F261" s="70"/>
+      <c r="G261" s="70"/>
+      <c r="H261" s="70"/>
+      <c r="I261" s="70"/>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="69"/>
-      <c r="B262" s="69"/>
-      <c r="C262" s="69"/>
-      <c r="D262" s="69"/>
-      <c r="E262" s="69"/>
-      <c r="F262" s="69"/>
-      <c r="G262" s="69"/>
-      <c r="H262" s="69"/>
-      <c r="I262" s="69"/>
+      <c r="A262" s="70"/>
+      <c r="B262" s="70"/>
+      <c r="C262" s="70"/>
+      <c r="D262" s="70"/>
+      <c r="E262" s="70"/>
+      <c r="F262" s="70"/>
+      <c r="G262" s="70"/>
+      <c r="H262" s="70"/>
+      <c r="I262" s="70"/>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="69"/>
-      <c r="B263" s="69"/>
-      <c r="C263" s="69"/>
-      <c r="D263" s="69"/>
-      <c r="E263" s="69"/>
-      <c r="F263" s="69"/>
-      <c r="G263" s="69"/>
-      <c r="H263" s="69"/>
-      <c r="I263" s="69"/>
+      <c r="A263" s="70"/>
+      <c r="B263" s="70"/>
+      <c r="C263" s="70"/>
+      <c r="D263" s="70"/>
+      <c r="E263" s="70"/>
+      <c r="F263" s="70"/>
+      <c r="G263" s="70"/>
+      <c r="H263" s="70"/>
+      <c r="I263" s="70"/>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="69"/>
-      <c r="B264" s="69"/>
-      <c r="C264" s="69"/>
-      <c r="D264" s="69"/>
-      <c r="E264" s="69"/>
-      <c r="F264" s="69"/>
-      <c r="G264" s="69"/>
-      <c r="H264" s="69"/>
-      <c r="I264" s="69"/>
+      <c r="A264" s="70"/>
+      <c r="B264" s="70"/>
+      <c r="C264" s="70"/>
+      <c r="D264" s="70"/>
+      <c r="E264" s="70"/>
+      <c r="F264" s="70"/>
+      <c r="G264" s="70"/>
+      <c r="H264" s="70"/>
+      <c r="I264" s="70"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="69"/>
-      <c r="B265" s="69"/>
-      <c r="C265" s="69"/>
-      <c r="D265" s="69"/>
-      <c r="E265" s="69"/>
-      <c r="F265" s="69"/>
-      <c r="G265" s="69"/>
-      <c r="H265" s="69"/>
-      <c r="I265" s="69"/>
+      <c r="A265" s="70"/>
+      <c r="B265" s="70"/>
+      <c r="C265" s="70"/>
+      <c r="D265" s="70"/>
+      <c r="E265" s="70"/>
+      <c r="F265" s="70"/>
+      <c r="G265" s="70"/>
+      <c r="H265" s="70"/>
+      <c r="I265" s="70"/>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="69"/>
-      <c r="B266" s="69"/>
-      <c r="C266" s="69"/>
-      <c r="D266" s="69"/>
-      <c r="E266" s="69"/>
-      <c r="F266" s="69"/>
-      <c r="G266" s="69"/>
-      <c r="H266" s="69"/>
-      <c r="I266" s="69"/>
+      <c r="A266" s="70"/>
+      <c r="B266" s="70"/>
+      <c r="C266" s="70"/>
+      <c r="D266" s="70"/>
+      <c r="E266" s="70"/>
+      <c r="F266" s="70"/>
+      <c r="G266" s="70"/>
+      <c r="H266" s="70"/>
+      <c r="I266" s="70"/>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="69"/>
-      <c r="B267" s="69"/>
-      <c r="C267" s="69"/>
-      <c r="D267" s="69"/>
-      <c r="E267" s="69"/>
-      <c r="F267" s="69"/>
-      <c r="G267" s="69"/>
-      <c r="H267" s="69"/>
-      <c r="I267" s="69"/>
+      <c r="A267" s="70"/>
+      <c r="B267" s="70"/>
+      <c r="C267" s="70"/>
+      <c r="D267" s="70"/>
+      <c r="E267" s="70"/>
+      <c r="F267" s="70"/>
+      <c r="G267" s="70"/>
+      <c r="H267" s="70"/>
+      <c r="I267" s="70"/>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="69"/>
-      <c r="B268" s="69"/>
-      <c r="C268" s="69"/>
-      <c r="D268" s="69"/>
-      <c r="E268" s="69"/>
-      <c r="F268" s="69"/>
-      <c r="G268" s="69"/>
-      <c r="H268" s="69"/>
-      <c r="I268" s="69"/>
+      <c r="A268" s="70"/>
+      <c r="B268" s="70"/>
+      <c r="C268" s="70"/>
+      <c r="D268" s="70"/>
+      <c r="E268" s="70"/>
+      <c r="F268" s="70"/>
+      <c r="G268" s="70"/>
+      <c r="H268" s="70"/>
+      <c r="I268" s="70"/>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="69"/>
-      <c r="B269" s="69"/>
-      <c r="C269" s="69"/>
-      <c r="D269" s="69"/>
-      <c r="E269" s="69"/>
-      <c r="F269" s="69"/>
-      <c r="G269" s="69"/>
-      <c r="H269" s="69"/>
-      <c r="I269" s="69"/>
+      <c r="A269" s="70"/>
+      <c r="B269" s="70"/>
+      <c r="C269" s="70"/>
+      <c r="D269" s="70"/>
+      <c r="E269" s="70"/>
+      <c r="F269" s="70"/>
+      <c r="G269" s="70"/>
+      <c r="H269" s="70"/>
+      <c r="I269" s="70"/>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="69"/>
-      <c r="B270" s="69"/>
-      <c r="C270" s="69"/>
-      <c r="D270" s="69"/>
-      <c r="E270" s="69"/>
-      <c r="F270" s="69"/>
-      <c r="G270" s="69"/>
-      <c r="H270" s="69"/>
-      <c r="I270" s="69"/>
+      <c r="A270" s="70"/>
+      <c r="B270" s="70"/>
+      <c r="C270" s="70"/>
+      <c r="D270" s="70"/>
+      <c r="E270" s="70"/>
+      <c r="F270" s="70"/>
+      <c r="G270" s="70"/>
+      <c r="H270" s="70"/>
+      <c r="I270" s="70"/>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="69"/>
-      <c r="B271" s="69"/>
-      <c r="C271" s="69"/>
-      <c r="D271" s="69"/>
-      <c r="E271" s="69"/>
-      <c r="F271" s="69"/>
-      <c r="G271" s="69"/>
-      <c r="H271" s="69"/>
-      <c r="I271" s="69"/>
+      <c r="A271" s="70"/>
+      <c r="B271" s="70"/>
+      <c r="C271" s="70"/>
+      <c r="D271" s="70"/>
+      <c r="E271" s="70"/>
+      <c r="F271" s="70"/>
+      <c r="G271" s="70"/>
+      <c r="H271" s="70"/>
+      <c r="I271" s="70"/>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="69"/>
-      <c r="B272" s="69"/>
-      <c r="C272" s="69"/>
-      <c r="D272" s="69"/>
-      <c r="E272" s="69"/>
-      <c r="F272" s="69"/>
-      <c r="G272" s="69"/>
-      <c r="H272" s="69"/>
-      <c r="I272" s="69"/>
+      <c r="A272" s="70"/>
+      <c r="B272" s="70"/>
+      <c r="C272" s="70"/>
+      <c r="D272" s="70"/>
+      <c r="E272" s="70"/>
+      <c r="F272" s="70"/>
+      <c r="G272" s="70"/>
+      <c r="H272" s="70"/>
+      <c r="I272" s="70"/>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="69"/>
-      <c r="B273" s="69"/>
-      <c r="C273" s="69"/>
-      <c r="D273" s="69"/>
-      <c r="E273" s="69"/>
-      <c r="F273" s="69"/>
-      <c r="G273" s="69"/>
-      <c r="H273" s="69"/>
-      <c r="I273" s="69"/>
+      <c r="A273" s="70"/>
+      <c r="B273" s="70"/>
+      <c r="C273" s="70"/>
+      <c r="D273" s="70"/>
+      <c r="E273" s="70"/>
+      <c r="F273" s="70"/>
+      <c r="G273" s="70"/>
+      <c r="H273" s="70"/>
+      <c r="I273" s="70"/>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="69"/>
-      <c r="B274" s="69"/>
-      <c r="C274" s="69"/>
-      <c r="D274" s="69"/>
-      <c r="E274" s="69"/>
-      <c r="F274" s="69"/>
-      <c r="G274" s="69"/>
-      <c r="H274" s="69"/>
-      <c r="I274" s="69"/>
+      <c r="A274" s="70"/>
+      <c r="B274" s="70"/>
+      <c r="C274" s="70"/>
+      <c r="D274" s="70"/>
+      <c r="E274" s="70"/>
+      <c r="F274" s="70"/>
+      <c r="G274" s="70"/>
+      <c r="H274" s="70"/>
+      <c r="I274" s="70"/>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="69"/>
-      <c r="B275" s="69"/>
-      <c r="C275" s="69"/>
-      <c r="D275" s="69"/>
-      <c r="E275" s="69"/>
-      <c r="F275" s="69"/>
-      <c r="G275" s="69"/>
-      <c r="H275" s="69"/>
-      <c r="I275" s="69"/>
+      <c r="A275" s="70"/>
+      <c r="B275" s="70"/>
+      <c r="C275" s="70"/>
+      <c r="D275" s="70"/>
+      <c r="E275" s="70"/>
+      <c r="F275" s="70"/>
+      <c r="G275" s="70"/>
+      <c r="H275" s="70"/>
+      <c r="I275" s="70"/>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="69"/>
-      <c r="B276" s="69"/>
-      <c r="C276" s="69"/>
-      <c r="D276" s="69"/>
-      <c r="E276" s="69"/>
-      <c r="F276" s="69"/>
-      <c r="G276" s="69"/>
-      <c r="H276" s="69"/>
-      <c r="I276" s="69"/>
+      <c r="A276" s="70"/>
+      <c r="B276" s="70"/>
+      <c r="C276" s="70"/>
+      <c r="D276" s="70"/>
+      <c r="E276" s="70"/>
+      <c r="F276" s="70"/>
+      <c r="G276" s="70"/>
+      <c r="H276" s="70"/>
+      <c r="I276" s="70"/>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="69"/>
-      <c r="B277" s="69"/>
-      <c r="C277" s="69"/>
-      <c r="D277" s="69"/>
-      <c r="E277" s="69"/>
-      <c r="F277" s="69"/>
-      <c r="G277" s="69"/>
-      <c r="H277" s="69"/>
-      <c r="I277" s="69"/>
+      <c r="A277" s="70"/>
+      <c r="B277" s="70"/>
+      <c r="C277" s="70"/>
+      <c r="D277" s="70"/>
+      <c r="E277" s="70"/>
+      <c r="F277" s="70"/>
+      <c r="G277" s="70"/>
+      <c r="H277" s="70"/>
+      <c r="I277" s="70"/>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="69"/>
-      <c r="B278" s="69"/>
-      <c r="C278" s="69"/>
-      <c r="D278" s="69"/>
-      <c r="E278" s="69"/>
-      <c r="F278" s="69"/>
-      <c r="G278" s="69"/>
-      <c r="H278" s="69"/>
-      <c r="I278" s="69"/>
+      <c r="A278" s="70"/>
+      <c r="B278" s="70"/>
+      <c r="C278" s="70"/>
+      <c r="D278" s="70"/>
+      <c r="E278" s="70"/>
+      <c r="F278" s="70"/>
+      <c r="G278" s="70"/>
+      <c r="H278" s="70"/>
+      <c r="I278" s="70"/>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="69"/>
-      <c r="B279" s="69"/>
-      <c r="C279" s="69"/>
-      <c r="D279" s="69"/>
-      <c r="E279" s="69"/>
-      <c r="F279" s="69"/>
-      <c r="G279" s="69"/>
-      <c r="H279" s="69"/>
-      <c r="I279" s="69"/>
+      <c r="A279" s="70"/>
+      <c r="B279" s="70"/>
+      <c r="C279" s="70"/>
+      <c r="D279" s="70"/>
+      <c r="E279" s="70"/>
+      <c r="F279" s="70"/>
+      <c r="G279" s="70"/>
+      <c r="H279" s="70"/>
+      <c r="I279" s="70"/>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="69"/>
-      <c r="B280" s="69"/>
-      <c r="C280" s="69"/>
-      <c r="D280" s="69"/>
-      <c r="E280" s="69"/>
-      <c r="F280" s="69"/>
-      <c r="G280" s="69"/>
-      <c r="H280" s="69"/>
-      <c r="I280" s="69"/>
+      <c r="A280" s="70"/>
+      <c r="B280" s="70"/>
+      <c r="C280" s="70"/>
+      <c r="D280" s="70"/>
+      <c r="E280" s="70"/>
+      <c r="F280" s="70"/>
+      <c r="G280" s="70"/>
+      <c r="H280" s="70"/>
+      <c r="I280" s="70"/>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="69"/>
-      <c r="B281" s="69"/>
-      <c r="C281" s="69"/>
-      <c r="D281" s="69"/>
-      <c r="E281" s="69"/>
-      <c r="F281" s="69"/>
-      <c r="G281" s="69"/>
-      <c r="H281" s="69"/>
-      <c r="I281" s="69"/>
+      <c r="A281" s="70"/>
+      <c r="B281" s="70"/>
+      <c r="C281" s="70"/>
+      <c r="D281" s="70"/>
+      <c r="E281" s="70"/>
+      <c r="F281" s="70"/>
+      <c r="G281" s="70"/>
+      <c r="H281" s="70"/>
+      <c r="I281" s="70"/>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="69"/>
-      <c r="B282" s="69"/>
-      <c r="C282" s="69"/>
-      <c r="D282" s="69"/>
-      <c r="E282" s="69"/>
-      <c r="F282" s="69"/>
-      <c r="G282" s="69"/>
-      <c r="H282" s="69"/>
-      <c r="I282" s="69"/>
+      <c r="A282" s="70"/>
+      <c r="B282" s="70"/>
+      <c r="C282" s="70"/>
+      <c r="D282" s="70"/>
+      <c r="E282" s="70"/>
+      <c r="F282" s="70"/>
+      <c r="G282" s="70"/>
+      <c r="H282" s="70"/>
+      <c r="I282" s="70"/>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="69"/>
-      <c r="B283" s="69"/>
-      <c r="C283" s="69"/>
-      <c r="D283" s="69"/>
-      <c r="E283" s="69"/>
-      <c r="F283" s="69"/>
-      <c r="G283" s="69"/>
-      <c r="H283" s="69"/>
-      <c r="I283" s="69"/>
+      <c r="A283" s="70"/>
+      <c r="B283" s="70"/>
+      <c r="C283" s="70"/>
+      <c r="D283" s="70"/>
+      <c r="E283" s="70"/>
+      <c r="F283" s="70"/>
+      <c r="G283" s="70"/>
+      <c r="H283" s="70"/>
+      <c r="I283" s="70"/>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="69"/>
-      <c r="B284" s="69"/>
-      <c r="C284" s="69"/>
-      <c r="D284" s="69"/>
-      <c r="E284" s="69"/>
-      <c r="F284" s="69"/>
-      <c r="G284" s="69"/>
-      <c r="H284" s="69"/>
-      <c r="I284" s="69"/>
+      <c r="A284" s="70"/>
+      <c r="B284" s="70"/>
+      <c r="C284" s="70"/>
+      <c r="D284" s="70"/>
+      <c r="E284" s="70"/>
+      <c r="F284" s="70"/>
+      <c r="G284" s="70"/>
+      <c r="H284" s="70"/>
+      <c r="I284" s="70"/>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="69"/>
-      <c r="B285" s="69"/>
-      <c r="C285" s="69"/>
-      <c r="D285" s="69"/>
-      <c r="E285" s="69"/>
-      <c r="F285" s="69"/>
-      <c r="G285" s="69"/>
-      <c r="H285" s="69"/>
-      <c r="I285" s="69"/>
+      <c r="A285" s="70"/>
+      <c r="B285" s="70"/>
+      <c r="C285" s="70"/>
+      <c r="D285" s="70"/>
+      <c r="E285" s="70"/>
+      <c r="F285" s="70"/>
+      <c r="G285" s="70"/>
+      <c r="H285" s="70"/>
+      <c r="I285" s="70"/>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="69"/>
-      <c r="B286" s="69"/>
-      <c r="C286" s="69"/>
-      <c r="D286" s="69"/>
-      <c r="E286" s="69"/>
-      <c r="F286" s="69"/>
-      <c r="G286" s="69"/>
-      <c r="H286" s="69"/>
-      <c r="I286" s="69"/>
+      <c r="A286" s="70"/>
+      <c r="B286" s="70"/>
+      <c r="C286" s="70"/>
+      <c r="D286" s="70"/>
+      <c r="E286" s="70"/>
+      <c r="F286" s="70"/>
+      <c r="G286" s="70"/>
+      <c r="H286" s="70"/>
+      <c r="I286" s="70"/>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="69"/>
-      <c r="B287" s="69"/>
-      <c r="C287" s="69"/>
-      <c r="D287" s="69"/>
-      <c r="E287" s="69"/>
-      <c r="F287" s="69"/>
-      <c r="G287" s="69"/>
-      <c r="H287" s="69"/>
-      <c r="I287" s="69"/>
+      <c r="A287" s="70"/>
+      <c r="B287" s="70"/>
+      <c r="C287" s="70"/>
+      <c r="D287" s="70"/>
+      <c r="E287" s="70"/>
+      <c r="F287" s="70"/>
+      <c r="G287" s="70"/>
+      <c r="H287" s="70"/>
+      <c r="I287" s="70"/>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="69"/>
-      <c r="B288" s="69"/>
-      <c r="C288" s="69"/>
-      <c r="D288" s="69"/>
-      <c r="E288" s="69"/>
-      <c r="F288" s="69"/>
-      <c r="G288" s="69"/>
-      <c r="H288" s="69"/>
-      <c r="I288" s="69"/>
+      <c r="A288" s="70"/>
+      <c r="B288" s="70"/>
+      <c r="C288" s="70"/>
+      <c r="D288" s="70"/>
+      <c r="E288" s="70"/>
+      <c r="F288" s="70"/>
+      <c r="G288" s="70"/>
+      <c r="H288" s="70"/>
+      <c r="I288" s="70"/>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="69"/>
-      <c r="B289" s="69"/>
-      <c r="C289" s="69"/>
-      <c r="D289" s="69"/>
-      <c r="E289" s="69"/>
-      <c r="F289" s="69"/>
-      <c r="G289" s="69"/>
-      <c r="H289" s="69"/>
-      <c r="I289" s="69"/>
+      <c r="A289" s="70"/>
+      <c r="B289" s="70"/>
+      <c r="C289" s="70"/>
+      <c r="D289" s="70"/>
+      <c r="E289" s="70"/>
+      <c r="F289" s="70"/>
+      <c r="G289" s="70"/>
+      <c r="H289" s="70"/>
+      <c r="I289" s="70"/>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="69"/>
-      <c r="B290" s="69"/>
-      <c r="C290" s="69"/>
-      <c r="D290" s="69"/>
-      <c r="E290" s="69"/>
-      <c r="F290" s="69"/>
-      <c r="G290" s="69"/>
-      <c r="H290" s="69"/>
-      <c r="I290" s="69"/>
+      <c r="A290" s="70"/>
+      <c r="B290" s="70"/>
+      <c r="C290" s="70"/>
+      <c r="D290" s="70"/>
+      <c r="E290" s="70"/>
+      <c r="F290" s="70"/>
+      <c r="G290" s="70"/>
+      <c r="H290" s="70"/>
+      <c r="I290" s="70"/>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="69"/>
-      <c r="B291" s="69"/>
-      <c r="C291" s="69"/>
-      <c r="D291" s="69"/>
-      <c r="E291" s="69"/>
-      <c r="F291" s="69"/>
-      <c r="G291" s="69"/>
-      <c r="H291" s="69"/>
-      <c r="I291" s="69"/>
+      <c r="A291" s="70"/>
+      <c r="B291" s="70"/>
+      <c r="C291" s="70"/>
+      <c r="D291" s="70"/>
+      <c r="E291" s="70"/>
+      <c r="F291" s="70"/>
+      <c r="G291" s="70"/>
+      <c r="H291" s="70"/>
+      <c r="I291" s="70"/>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="69"/>
-      <c r="B292" s="69"/>
-      <c r="C292" s="69"/>
-      <c r="D292" s="69"/>
-      <c r="E292" s="69"/>
-      <c r="F292" s="69"/>
-      <c r="G292" s="69"/>
-      <c r="H292" s="69"/>
-      <c r="I292" s="69"/>
+      <c r="A292" s="70"/>
+      <c r="B292" s="70"/>
+      <c r="C292" s="70"/>
+      <c r="D292" s="70"/>
+      <c r="E292" s="70"/>
+      <c r="F292" s="70"/>
+      <c r="G292" s="70"/>
+      <c r="H292" s="70"/>
+      <c r="I292" s="70"/>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="69"/>
-      <c r="B293" s="69"/>
-      <c r="C293" s="69"/>
-      <c r="D293" s="69"/>
-      <c r="E293" s="69"/>
-      <c r="F293" s="69"/>
-      <c r="G293" s="69"/>
-      <c r="H293" s="69"/>
-      <c r="I293" s="69"/>
+      <c r="A293" s="70"/>
+      <c r="B293" s="70"/>
+      <c r="C293" s="70"/>
+      <c r="D293" s="70"/>
+      <c r="E293" s="70"/>
+      <c r="F293" s="70"/>
+      <c r="G293" s="70"/>
+      <c r="H293" s="70"/>
+      <c r="I293" s="70"/>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="69"/>
-      <c r="B294" s="69"/>
-      <c r="C294" s="69"/>
-      <c r="D294" s="69"/>
-      <c r="E294" s="69"/>
-      <c r="F294" s="69"/>
-      <c r="G294" s="69"/>
-      <c r="H294" s="69"/>
-      <c r="I294" s="69"/>
+      <c r="A294" s="70"/>
+      <c r="B294" s="70"/>
+      <c r="C294" s="70"/>
+      <c r="D294" s="70"/>
+      <c r="E294" s="70"/>
+      <c r="F294" s="70"/>
+      <c r="G294" s="70"/>
+      <c r="H294" s="70"/>
+      <c r="I294" s="70"/>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="69"/>
-      <c r="B295" s="69"/>
-      <c r="C295" s="69"/>
-      <c r="D295" s="69"/>
-      <c r="E295" s="69"/>
-      <c r="F295" s="69"/>
-      <c r="G295" s="69"/>
-      <c r="H295" s="69"/>
-      <c r="I295" s="69"/>
+      <c r="A295" s="70"/>
+      <c r="B295" s="70"/>
+      <c r="C295" s="70"/>
+      <c r="D295" s="70"/>
+      <c r="E295" s="70"/>
+      <c r="F295" s="70"/>
+      <c r="G295" s="70"/>
+      <c r="H295" s="70"/>
+      <c r="I295" s="70"/>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="69"/>
-      <c r="B296" s="69"/>
-      <c r="C296" s="69"/>
-      <c r="D296" s="69"/>
-      <c r="E296" s="69"/>
-      <c r="F296" s="69"/>
-      <c r="G296" s="69"/>
-      <c r="H296" s="69"/>
-      <c r="I296" s="69"/>
+      <c r="A296" s="70"/>
+      <c r="B296" s="70"/>
+      <c r="C296" s="70"/>
+      <c r="D296" s="70"/>
+      <c r="E296" s="70"/>
+      <c r="F296" s="70"/>
+      <c r="G296" s="70"/>
+      <c r="H296" s="70"/>
+      <c r="I296" s="70"/>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="69"/>
-      <c r="B297" s="69"/>
-      <c r="C297" s="69"/>
-      <c r="D297" s="69"/>
-      <c r="E297" s="69"/>
-      <c r="F297" s="69"/>
-      <c r="G297" s="69"/>
-      <c r="H297" s="69"/>
-      <c r="I297" s="69"/>
+      <c r="A297" s="70"/>
+      <c r="B297" s="70"/>
+      <c r="C297" s="70"/>
+      <c r="D297" s="70"/>
+      <c r="E297" s="70"/>
+      <c r="F297" s="70"/>
+      <c r="G297" s="70"/>
+      <c r="H297" s="70"/>
+      <c r="I297" s="70"/>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="69"/>
-      <c r="B298" s="69"/>
-      <c r="C298" s="69"/>
-      <c r="D298" s="69"/>
-      <c r="E298" s="69"/>
-      <c r="F298" s="69"/>
-      <c r="G298" s="69"/>
-      <c r="H298" s="69"/>
-      <c r="I298" s="69"/>
+      <c r="A298" s="70"/>
+      <c r="B298" s="70"/>
+      <c r="C298" s="70"/>
+      <c r="D298" s="70"/>
+      <c r="E298" s="70"/>
+      <c r="F298" s="70"/>
+      <c r="G298" s="70"/>
+      <c r="H298" s="70"/>
+      <c r="I298" s="70"/>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="69"/>
-      <c r="B299" s="69"/>
-      <c r="C299" s="69"/>
-      <c r="D299" s="69"/>
-      <c r="E299" s="69"/>
-      <c r="F299" s="69"/>
-      <c r="G299" s="69"/>
-      <c r="H299" s="69"/>
-      <c r="I299" s="69"/>
+      <c r="A299" s="70"/>
+      <c r="B299" s="70"/>
+      <c r="C299" s="70"/>
+      <c r="D299" s="70"/>
+      <c r="E299" s="70"/>
+      <c r="F299" s="70"/>
+      <c r="G299" s="70"/>
+      <c r="H299" s="70"/>
+      <c r="I299" s="70"/>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="69"/>
-      <c r="B300" s="69"/>
-      <c r="C300" s="69"/>
-      <c r="D300" s="69"/>
-      <c r="E300" s="69"/>
-      <c r="F300" s="69"/>
-      <c r="G300" s="69"/>
-      <c r="H300" s="69"/>
-      <c r="I300" s="69"/>
+      <c r="A300" s="70"/>
+      <c r="B300" s="70"/>
+      <c r="C300" s="70"/>
+      <c r="D300" s="70"/>
+      <c r="E300" s="70"/>
+      <c r="F300" s="70"/>
+      <c r="G300" s="70"/>
+      <c r="H300" s="70"/>
+      <c r="I300" s="70"/>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="69"/>
-      <c r="B301" s="69"/>
-      <c r="C301" s="69"/>
-      <c r="D301" s="69"/>
-      <c r="E301" s="69"/>
-      <c r="F301" s="69"/>
-      <c r="G301" s="69"/>
-      <c r="H301" s="69"/>
-      <c r="I301" s="69"/>
+      <c r="A301" s="70"/>
+      <c r="B301" s="70"/>
+      <c r="C301" s="70"/>
+      <c r="D301" s="70"/>
+      <c r="E301" s="70"/>
+      <c r="F301" s="70"/>
+      <c r="G301" s="70"/>
+      <c r="H301" s="70"/>
+      <c r="I301" s="70"/>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="69"/>
-      <c r="B302" s="69"/>
-      <c r="C302" s="69"/>
-      <c r="D302" s="69"/>
-      <c r="E302" s="69"/>
-      <c r="F302" s="69"/>
-      <c r="G302" s="69"/>
-      <c r="H302" s="69"/>
-      <c r="I302" s="69"/>
+      <c r="A302" s="70"/>
+      <c r="B302" s="70"/>
+      <c r="C302" s="70"/>
+      <c r="D302" s="70"/>
+      <c r="E302" s="70"/>
+      <c r="F302" s="70"/>
+      <c r="G302" s="70"/>
+      <c r="H302" s="70"/>
+      <c r="I302" s="70"/>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="69"/>
-      <c r="B303" s="69"/>
-      <c r="C303" s="69"/>
-      <c r="D303" s="69"/>
-      <c r="E303" s="69"/>
-      <c r="F303" s="69"/>
-      <c r="G303" s="69"/>
-      <c r="H303" s="69"/>
-      <c r="I303" s="69"/>
+      <c r="A303" s="70"/>
+      <c r="B303" s="70"/>
+      <c r="C303" s="70"/>
+      <c r="D303" s="70"/>
+      <c r="E303" s="70"/>
+      <c r="F303" s="70"/>
+      <c r="G303" s="70"/>
+      <c r="H303" s="70"/>
+      <c r="I303" s="70"/>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="69"/>
-      <c r="B304" s="69"/>
-      <c r="C304" s="69"/>
-      <c r="D304" s="69"/>
-      <c r="E304" s="69"/>
-      <c r="F304" s="69"/>
-      <c r="G304" s="69"/>
-      <c r="H304" s="69"/>
-      <c r="I304" s="69"/>
+      <c r="A304" s="70"/>
+      <c r="B304" s="70"/>
+      <c r="C304" s="70"/>
+      <c r="D304" s="70"/>
+      <c r="E304" s="70"/>
+      <c r="F304" s="70"/>
+      <c r="G304" s="70"/>
+      <c r="H304" s="70"/>
+      <c r="I304" s="70"/>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="69"/>
-      <c r="B305" s="69"/>
-      <c r="C305" s="69"/>
-      <c r="D305" s="69"/>
-      <c r="E305" s="69"/>
-      <c r="F305" s="69"/>
-      <c r="G305" s="69"/>
-      <c r="H305" s="69"/>
-      <c r="I305" s="69"/>
+      <c r="A305" s="70"/>
+      <c r="B305" s="70"/>
+      <c r="C305" s="70"/>
+      <c r="D305" s="70"/>
+      <c r="E305" s="70"/>
+      <c r="F305" s="70"/>
+      <c r="G305" s="70"/>
+      <c r="H305" s="70"/>
+      <c r="I305" s="70"/>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="69"/>
-      <c r="B306" s="69"/>
-      <c r="C306" s="69"/>
-      <c r="D306" s="69"/>
-      <c r="E306" s="69"/>
-      <c r="F306" s="69"/>
-      <c r="G306" s="69"/>
-      <c r="H306" s="69"/>
-      <c r="I306" s="69"/>
+      <c r="A306" s="70"/>
+      <c r="B306" s="70"/>
+      <c r="C306" s="70"/>
+      <c r="D306" s="70"/>
+      <c r="E306" s="70"/>
+      <c r="F306" s="70"/>
+      <c r="G306" s="70"/>
+      <c r="H306" s="70"/>
+      <c r="I306" s="70"/>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="69"/>
-      <c r="B307" s="69"/>
-      <c r="C307" s="69"/>
-      <c r="D307" s="69"/>
-      <c r="E307" s="69"/>
-      <c r="F307" s="69"/>
-      <c r="G307" s="69"/>
-      <c r="H307" s="69"/>
-      <c r="I307" s="69"/>
+      <c r="A307" s="70"/>
+      <c r="B307" s="70"/>
+      <c r="C307" s="70"/>
+      <c r="D307" s="70"/>
+      <c r="E307" s="70"/>
+      <c r="F307" s="70"/>
+      <c r="G307" s="70"/>
+      <c r="H307" s="70"/>
+      <c r="I307" s="70"/>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="69"/>
-      <c r="B308" s="69"/>
-      <c r="C308" s="69"/>
-      <c r="D308" s="69"/>
-      <c r="E308" s="69"/>
-      <c r="F308" s="69"/>
-      <c r="G308" s="69"/>
-      <c r="H308" s="69"/>
-      <c r="I308" s="69"/>
+      <c r="A308" s="70"/>
+      <c r="B308" s="70"/>
+      <c r="C308" s="70"/>
+      <c r="D308" s="70"/>
+      <c r="E308" s="70"/>
+      <c r="F308" s="70"/>
+      <c r="G308" s="70"/>
+      <c r="H308" s="70"/>
+      <c r="I308" s="70"/>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="69"/>
-      <c r="B309" s="69"/>
-      <c r="C309" s="69"/>
-      <c r="D309" s="69"/>
-      <c r="E309" s="69"/>
-      <c r="F309" s="69"/>
-      <c r="G309" s="69"/>
-      <c r="H309" s="69"/>
-      <c r="I309" s="69"/>
+      <c r="A309" s="70"/>
+      <c r="B309" s="70"/>
+      <c r="C309" s="70"/>
+      <c r="D309" s="70"/>
+      <c r="E309" s="70"/>
+      <c r="F309" s="70"/>
+      <c r="G309" s="70"/>
+      <c r="H309" s="70"/>
+      <c r="I309" s="70"/>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="69"/>
-      <c r="B310" s="69"/>
-      <c r="C310" s="69"/>
-      <c r="D310" s="69"/>
-      <c r="E310" s="69"/>
-      <c r="F310" s="69"/>
-      <c r="G310" s="69"/>
-      <c r="H310" s="69"/>
-      <c r="I310" s="69"/>
+      <c r="A310" s="70"/>
+      <c r="B310" s="70"/>
+      <c r="C310" s="70"/>
+      <c r="D310" s="70"/>
+      <c r="E310" s="70"/>
+      <c r="F310" s="70"/>
+      <c r="G310" s="70"/>
+      <c r="H310" s="70"/>
+      <c r="I310" s="70"/>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="69"/>
-      <c r="B311" s="69"/>
-      <c r="C311" s="69"/>
-      <c r="D311" s="69"/>
-      <c r="E311" s="69"/>
-      <c r="F311" s="69"/>
-      <c r="G311" s="69"/>
-      <c r="H311" s="69"/>
-      <c r="I311" s="69"/>
+      <c r="A311" s="70"/>
+      <c r="B311" s="70"/>
+      <c r="C311" s="70"/>
+      <c r="D311" s="70"/>
+      <c r="E311" s="70"/>
+      <c r="F311" s="70"/>
+      <c r="G311" s="70"/>
+      <c r="H311" s="70"/>
+      <c r="I311" s="70"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Registros para logica" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Registros" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Questions" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Registros!$A$1:$J$1</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="398">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -235,11 +236,32 @@
     <t xml:space="preserve">Activacion Solenoide 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Binario (0000 00 0 0000 0000)=ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aire para vacio
+    <t xml:space="preserve">Binario (0000 0000 0000 0000)=ON</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Aire para vacio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 Is this value correct??</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Activacion Solenoide 3</t>
@@ -1453,6 +1475,143 @@
 el recirculado?</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tengo que enviar los datos de cada sensor conectado al IOLink master 
+A un registro del HMI?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manifold, aire para vacio, activacion selenoide 2 (aire para vacio)
+El valor es 0x00? Este valor no puede ser correcto</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">sobre los niveles de cubeta, e.g
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cubeta llena entre el 100 y 80 </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Lleno</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">)Cubeta llena entre el 100 y 80 </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Lleno</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+Aqui 100 y 80 es %?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">tiempo de recirculado registro  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">HR-001A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, esta en segundos la unidad?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">De los registros de status necesito saber la funcion de los siguientes:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> -Selección de tiempo de duración de recirculado manual o de modo ciclico
+- Tiempo de duración recirculado ciclico
+- Intervalo entre recirculado manual y recirculado ciclico
+Si se va a mostrar el status por que no hay un registro
+En el HMI para ellos?
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1462,7 +1621,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot; $&quot;* #,##0.00\ ;&quot;-$&quot;* #,##0.00\ ;&quot; $&quot;* \-#\ ;\ @\ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1499,12 +1658,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1574,8 +1727,49 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1603,7 +1797,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FF339966"/>
+        <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1640,6 +1834,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD8CE"/>
         <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1893,7 +2093,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="129">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2018,7 +2218,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2054,7 +2254,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2162,7 +2362,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2178,11 +2378,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2262,7 +2462,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2274,11 +2474,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2382,8 +2582,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2446,9 +2670,9 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF70AD47"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC9211E"/>
@@ -2471,11 +2695,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
@@ -2501,8 +2725,8 @@
   </sheetPr>
   <dimension ref="A1:L311"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B150" activeCellId="0" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7649,4 +7873,70 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="123" width="60.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="123" width="43.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="123" width="47.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="123" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="124" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" s="124" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" s="124" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="71.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="125" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="71.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="126" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="71.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="127" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="123" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="143.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="128" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Registros para logica" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Registros" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Questions" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Registros para logica" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Registros" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Questions" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Registros!$A$1:$J$1</definedName>
@@ -27,7 +27,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>Unknown Author</author>
   </authors>
   <commentList>
     <comment ref="B133" authorId="0">
@@ -37,7 +37,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">These goes to the HMI, will add the sensor reading to be displayed here, which are the values from IOLink data</t>
         </r>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="402">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -236,7 +235,7 @@
     <t xml:space="preserve">Activacion Solenoide 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Binario (0000 0000 0000 0000)=ON</t>
+    <t xml:space="preserve">Binario (0000 0010 0000 0000)=ON</t>
   </si>
   <si>
     <r>
@@ -1485,8 +1484,10 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">tengo que enviar los datos de cada sensor conectado al IOLink master 
-A un registro del HMI?</t>
+    <t xml:space="preserve">tengo que enviar los datos de cada sensor conectado al IOLink master hacia un registro del HMI?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
   </si>
   <si>
     <t xml:space="preserve">Manifold, aire para vacio, activacion selenoide 2 (aire para vacio)
@@ -1506,51 +1507,64 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cubeta llena entre el 100 y 80 </t>
     </r>
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Lleno</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)Cubeta llena entre el 100 y 80 </t>
     </r>
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Lleno</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
-Aqui 100 y 80 es %?</t>
+Aqui 100 y 80 es %?, como calcular el bucket size 
+Como se relaciona con los registros
+Distancia para cubeta 1
+HR-001C
+Distancia para cubeta 2
+HR-001D
+Distancia para cubeta 3
+HR-001E
+</t>
     </r>
   </si>
   <si>
@@ -1570,6 +1584,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">HR-001A</t>
     </r>
@@ -1583,6 +1598,9 @@
       </rPr>
       <t xml:space="preserve">, esta en segundos la unidad?</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">seg</t>
   </si>
   <si>
     <r>
@@ -1600,8 +1618,8 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> -Selección de tiempo de duración de recirculado manual o de modo ciclico
@@ -1612,6 +1630,46 @@
 </t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">como calcular este paso en el flujo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="ArialMT"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Cae presión X bares
+con respecto a
+presión objetivo y la
+bomba vuelve a</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">use reg as params</t>
+  </si>
 </sst>
 </file>
 
@@ -1621,7 +1679,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot; $&quot;* #,##0.00\ ;&quot;-$&quot;* #,##0.00\ ;&quot; $&quot;* \-#\ ;\ @\ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1725,6 +1783,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1735,38 +1807,40 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
-      <charset val="1"/>
+      <sz val="16"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="ArialMT"/>
+      <family val="0"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2093,376 +2167,380 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2478,135 +2556,139 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2621,6 +2703,23 @@
     <cellStyle name="Moneda 2" xfId="20"/>
     <cellStyle name="Moneda 3" xfId="21"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2674,7 +2773,7 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF70AD47"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF1A1A1A"/>
       <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -2688,29 +2787,135 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A96:C97 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="5" style="0" width="10.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="5" style="1" width="10.67"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2719,5113 +2924,5113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L311"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B150" activeCellId="0" sqref="B150"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A96" activeCellId="0" sqref="A96:C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="49.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="26.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="61.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="45.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="34.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="24.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="49.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="2" width="11.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="10" t="n">
         <v>1002</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="15" t="n">
         <v>1003</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+    <row r="4" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="18" t="n">
         <v>2002</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="22" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="18" t="n">
         <v>3002</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="13" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="25" t="n">
         <v>3003</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="22" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="23" t="s">
+    <row r="7" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9"/>
+      <c r="B7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="17" t="n">
+      <c r="C7" s="18" t="n">
         <v>3004</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
-      <c r="B8" s="24" t="s">
+    <row r="8" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9"/>
+      <c r="B8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="24" t="n">
+      <c r="C8" s="25" t="n">
         <v>3052</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="21" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="28" t="s">
+    <row r="9" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9"/>
+      <c r="B9" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="17" t="n">
+      <c r="C9" s="18" t="n">
         <v>3053</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="12" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+    <row r="10" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="17" t="n">
+      <c r="C10" s="18" t="n">
         <v>4002</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="12" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="29" t="n">
+      <c r="C11" s="30" t="n">
         <v>5051</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="29" t="n">
+      <c r="E11" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="30" t="s">
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="31" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="29" t="n">
+      <c r="C12" s="30" t="n">
         <v>5052</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29" t="s">
+      <c r="G12" s="30"/>
+      <c r="H12" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="30"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="29" t="n">
+      <c r="C13" s="30" t="n">
         <v>5052</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="31" t="s">
+      <c r="G13" s="30"/>
+      <c r="H13" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="30"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="29" t="n">
+      <c r="C14" s="30" t="n">
         <v>5052</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="32" t="s">
+      <c r="G14" s="30"/>
+      <c r="H14" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="30"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="33" t="n">
+      <c r="C15" s="34" t="n">
         <v>5052</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="35" t="s">
+      <c r="G15" s="34"/>
+      <c r="H15" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="29" t="s">
+      <c r="I15" s="13"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9"/>
+      <c r="B16" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="29" t="n">
+      <c r="C16" s="30" t="n">
         <v>5052</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="32" t="s">
+      <c r="G16" s="30"/>
+      <c r="H16" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="29" t="s">
+      <c r="I16" s="13"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9"/>
+      <c r="B17" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="29" t="n">
+      <c r="C17" s="30" t="n">
         <v>5052</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="32" t="s">
+      <c r="G17" s="30"/>
+      <c r="H17" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="30"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="29" t="n">
+      <c r="C18" s="30" t="n">
         <v>5052</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29" t="s">
+      <c r="G18" s="30"/>
+      <c r="H18" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="30"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="29" t="n">
+      <c r="C19" s="30" t="n">
         <v>5052</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29" t="s">
+      <c r="G19" s="30"/>
+      <c r="H19" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="30"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="37" t="n">
+      <c r="C20" s="38" t="n">
         <v>6060</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="37" t="n">
+      <c r="E20" s="38" t="n">
         <v>22</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39" t="s">
+      <c r="G20" s="39"/>
+      <c r="H20" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="40" t="s">
+      <c r="I20" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="41" t="n">
+      <c r="A21" s="9"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="42" t="n">
         <v>6061</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="41" t="n">
+      <c r="E21" s="42" t="n">
         <v>3628</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="22" t="s">
+      <c r="G21" s="43"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="41" t="n">
+      <c r="A22" s="9"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="42" t="n">
         <v>6062</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="41" t="n">
+      <c r="E22" s="42" t="n">
         <v>256</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="22" t="s">
+      <c r="G22" s="43"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="41" t="n">
+      <c r="A23" s="9"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="42" t="n">
         <v>6063</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="41" t="n">
+      <c r="E23" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="22" t="s">
+      <c r="G23" s="43"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="41" t="n">
+      <c r="A24" s="9"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="42" t="n">
         <v>6064</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="41" t="n">
+      <c r="E24" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="22" t="s">
+      <c r="G24" s="43"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="41" t="n">
+      <c r="A25" s="9"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="42" t="n">
         <v>6065</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="41" t="n">
+      <c r="E25" s="42" t="n">
         <v>256</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="22" t="s">
+      <c r="G25" s="43"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="41" t="n">
+      <c r="A26" s="9"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="42" t="n">
         <v>6066</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="41" t="n">
+      <c r="E26" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="22" t="s">
+      <c r="G26" s="43"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="43" t="n">
+      <c r="A27" s="9"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="44" t="n">
         <v>6067</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="43" t="n">
+      <c r="E27" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="22" t="s">
+      <c r="G27" s="45"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="41" t="n">
+      <c r="C28" s="42" t="n">
         <v>6060</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="41" t="n">
+      <c r="E28" s="42" t="n">
         <v>16</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="39" t="s">
+      <c r="G28" s="43"/>
+      <c r="H28" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I28" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="22" t="s">
+      <c r="I28" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="41" t="n">
+      <c r="A29" s="9"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="42" t="n">
         <v>6061</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="41" t="n">
+      <c r="E29" s="42" t="n">
         <v>3328</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="22" t="s">
+      <c r="G29" s="43"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="41" t="n">
+      <c r="A30" s="9"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="42" t="n">
         <v>6062</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="41" t="n">
+      <c r="E30" s="42" t="n">
         <v>5645</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="22" t="s">
+      <c r="G30" s="43"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="41" t="n">
+      <c r="A31" s="9"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="42" t="n">
         <v>6063</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="41" t="n">
+      <c r="E31" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="22" t="s">
+      <c r="G31" s="43"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="41" t="n">
+      <c r="A32" s="9"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="42" t="n">
         <v>6064</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="41" t="n">
+      <c r="E32" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="22" t="s">
+      <c r="G32" s="43"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="41" t="n">
+      <c r="A33" s="9"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="42" t="n">
         <v>6065</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="41" t="n">
+      <c r="E33" s="42" t="n">
         <v>256</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="22" t="s">
+      <c r="G33" s="43"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="41" t="n">
+      <c r="A34" s="9"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="42" t="n">
         <v>6066</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="41" t="n">
+      <c r="E34" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="F34" s="41" t="s">
+      <c r="F34" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="22" t="s">
+      <c r="G34" s="43"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="41" t="n">
+      <c r="A35" s="9"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="42" t="n">
         <v>6067</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="41" t="n">
+      <c r="E35" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="22" t="s">
+      <c r="G35" s="43"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
-      <c r="B36" s="46" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="47" t="n">
+      <c r="C36" s="48" t="n">
         <v>6060</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="47" t="n">
+      <c r="E36" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F36" s="47" t="s">
+      <c r="F36" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="48"/>
-      <c r="H36" s="49" t="s">
+      <c r="G36" s="49"/>
+      <c r="H36" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="I36" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="22" t="s">
+      <c r="I36" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="50" t="n">
+      <c r="A37" s="9"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="51" t="n">
         <v>6061</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="50" t="n">
+      <c r="E37" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="F37" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="51"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="22" t="s">
+      <c r="G37" s="52"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="50" t="n">
+      <c r="A38" s="9"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="51" t="n">
         <v>6062</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="50" t="n">
+      <c r="E38" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F38" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="51"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="22" t="s">
+      <c r="G38" s="52"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="50" t="n">
+      <c r="A39" s="9"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="51" t="n">
         <v>6063</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="50" t="n">
+      <c r="E39" s="51" t="n">
         <v>1046</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="51"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="22" t="s">
+      <c r="G39" s="52"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="50" t="n">
+      <c r="A40" s="9"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="51" t="n">
         <v>6064</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="50" t="n">
+      <c r="E40" s="51" t="n">
         <v>3328</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="F40" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="22" t="s">
+      <c r="G40" s="52"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="50" t="n">
+      <c r="A41" s="9"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="51" t="n">
         <v>6065</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="50" t="n">
+      <c r="E41" s="51" t="n">
         <v>260</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="22" t="s">
+      <c r="G41" s="52"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="50" t="n">
+      <c r="A42" s="9"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="51" t="n">
         <v>6066</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="50" t="n">
+      <c r="E42" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="51"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="22" t="s">
+      <c r="G42" s="52"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="52" t="n">
+      <c r="A43" s="9"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="53" t="n">
         <v>6067</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="52" t="n">
+      <c r="E43" s="53" t="n">
         <v>1024</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="53"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" s="22" t="s">
+      <c r="G43" s="54"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8"/>
-      <c r="B44" s="54" t="s">
+      <c r="A44" s="9"/>
+      <c r="B44" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="50" t="n">
+      <c r="C44" s="51" t="n">
         <v>6060</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="50" t="n">
+      <c r="E44" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="51"/>
-      <c r="H44" s="49" t="s">
+      <c r="G44" s="52"/>
+      <c r="H44" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="I44" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="22" t="s">
+      <c r="I44" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="50" t="n">
+      <c r="A45" s="9"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="51" t="n">
         <v>6061</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="50" t="n">
+      <c r="E45" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="F45" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="51"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="22" t="s">
+      <c r="G45" s="52"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="50" t="n">
+      <c r="A46" s="9"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="51" t="n">
         <v>6062</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="50" t="n">
+      <c r="E46" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="F46" s="50" t="s">
+      <c r="F46" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="51"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" s="22" t="s">
+      <c r="G46" s="52"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="50" t="n">
+      <c r="A47" s="9"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="51" t="n">
         <v>6063</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="50" t="n">
+      <c r="E47" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="F47" s="50" t="s">
+      <c r="F47" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" s="22" t="s">
+      <c r="G47" s="52"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="50" t="n">
+      <c r="A48" s="9"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="51" t="n">
         <v>6064</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="50" t="n">
+      <c r="E48" s="51" t="n">
         <v>3332</v>
       </c>
-      <c r="F48" s="50" t="s">
+      <c r="F48" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" s="22" t="s">
+      <c r="G48" s="52"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="50" t="n">
+      <c r="A49" s="9"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="51" t="n">
         <v>6065</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="50" t="n">
+      <c r="E49" s="51" t="n">
         <v>1549</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" s="22" t="s">
+      <c r="G49" s="52"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="50" t="n">
+      <c r="A50" s="9"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="51" t="n">
         <v>6066</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="50" t="n">
+      <c r="E50" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="F50" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="51"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" s="22" t="s">
+      <c r="G50" s="52"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="50" t="n">
+      <c r="A51" s="9"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="51" t="n">
         <v>6067</v>
       </c>
-      <c r="D51" s="50" t="s">
+      <c r="D51" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="50" t="n">
+      <c r="E51" s="51" t="n">
         <v>1024</v>
       </c>
-      <c r="F51" s="50" t="s">
+      <c r="F51" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="51"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" s="22" t="s">
+      <c r="G51" s="52"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8"/>
-      <c r="B52" s="55" t="s">
+      <c r="A52" s="9"/>
+      <c r="B52" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="56" t="n">
+      <c r="C52" s="57" t="n">
         <v>6060</v>
       </c>
-      <c r="D52" s="56" t="s">
+      <c r="D52" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="56" t="n">
+      <c r="E52" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="F52" s="56" t="s">
+      <c r="F52" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="57"/>
-      <c r="H52" s="58" t="s">
+      <c r="G52" s="58"/>
+      <c r="H52" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="I52" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="22" t="s">
+      <c r="I52" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="59" t="n">
+      <c r="A53" s="9"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="60" t="n">
         <v>6061</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="59" t="n">
+      <c r="E53" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="F53" s="59" t="s">
+      <c r="F53" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="60"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="22" t="s">
+      <c r="G53" s="61"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="59" t="n">
+      <c r="A54" s="9"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="60" t="n">
         <v>6062</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="59" t="n">
+      <c r="E54" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="F54" s="59" t="s">
+      <c r="F54" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="60"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" s="22" t="s">
+      <c r="G54" s="61"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="59" t="n">
+      <c r="A55" s="9"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="60" t="n">
         <v>6063</v>
       </c>
-      <c r="D55" s="59" t="s">
+      <c r="D55" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="59" t="n">
+      <c r="E55" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="F55" s="59" t="s">
+      <c r="F55" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="60"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" s="22" t="s">
+      <c r="G55" s="61"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="59" t="n">
+      <c r="A56" s="9"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="60" t="n">
         <v>6064</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="59" t="n">
+      <c r="E56" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="F56" s="59" t="s">
+      <c r="F56" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="60"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="22" t="s">
+      <c r="G56" s="61"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="59" t="n">
+      <c r="A57" s="9"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="60" t="n">
         <v>6065</v>
       </c>
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="59" t="n">
+      <c r="E57" s="60" t="n">
         <v>13</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G57" s="60"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" s="22" t="s">
+      <c r="G57" s="61"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="59" t="n">
+      <c r="A58" s="9"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="60" t="n">
         <v>6066</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="59" t="n">
+      <c r="E58" s="60" t="n">
         <v>15</v>
       </c>
-      <c r="F58" s="59" t="s">
+      <c r="F58" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="60"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" s="22" t="s">
+      <c r="G58" s="61"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="61" t="n">
+      <c r="A59" s="9"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="62" t="n">
         <v>6067</v>
       </c>
-      <c r="D59" s="61" t="s">
+      <c r="D59" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="61" t="n">
+      <c r="E59" s="62" t="n">
         <v>256</v>
       </c>
-      <c r="F59" s="61" t="s">
+      <c r="F59" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="62"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" s="22" t="s">
+      <c r="G59" s="63"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8"/>
-      <c r="B60" s="27" t="s">
+      <c r="A60" s="9"/>
+      <c r="B60" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="63" t="n">
+      <c r="C60" s="64" t="n">
         <v>6060</v>
       </c>
-      <c r="D60" s="63" t="s">
+      <c r="D60" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="63" t="n">
+      <c r="E60" s="64" t="n">
         <v>23</v>
       </c>
-      <c r="F60" s="63" t="s">
+      <c r="F60" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="64"/>
-      <c r="H60" s="65" t="s">
+      <c r="G60" s="65"/>
+      <c r="H60" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="I60" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" s="22" t="s">
+      <c r="I60" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="63" t="n">
+      <c r="A61" s="9"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="64" t="n">
         <v>6061</v>
       </c>
-      <c r="D61" s="63" t="s">
+      <c r="D61" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E61" s="63" t="n">
+      <c r="E61" s="64" t="n">
         <v>1024</v>
       </c>
-      <c r="F61" s="63" t="s">
+      <c r="F61" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="64"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="22" t="s">
+      <c r="G61" s="65"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="63" t="n">
+      <c r="A62" s="9"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="64" t="n">
         <v>6062</v>
       </c>
-      <c r="D62" s="63" t="s">
+      <c r="D62" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="63" t="n">
+      <c r="E62" s="64" t="n">
         <v>5892</v>
       </c>
-      <c r="F62" s="63" t="s">
+      <c r="F62" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="64"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J62" s="22" t="s">
+      <c r="G62" s="65"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="63" t="n">
+      <c r="A63" s="9"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="64" t="n">
         <v>6063</v>
       </c>
-      <c r="D63" s="63" t="s">
+      <c r="D63" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="63" t="n">
+      <c r="E63" s="64" t="n">
         <v>23</v>
       </c>
-      <c r="F63" s="63" t="s">
+      <c r="F63" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="64"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" s="22" t="s">
+      <c r="G63" s="65"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="63" t="n">
+      <c r="A64" s="9"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="64" t="n">
         <v>6064</v>
       </c>
-      <c r="D64" s="63" t="s">
+      <c r="D64" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="63" t="n">
+      <c r="E64" s="64" t="n">
         <v>1024</v>
       </c>
-      <c r="F64" s="63" t="s">
+      <c r="F64" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="64"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J64" s="22" t="s">
+      <c r="G64" s="65"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="63" t="n">
+      <c r="A65" s="9"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="64" t="n">
         <v>6065</v>
       </c>
-      <c r="D65" s="63" t="s">
+      <c r="D65" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="63" t="n">
+      <c r="E65" s="64" t="n">
         <v>5892</v>
       </c>
-      <c r="F65" s="63" t="s">
+      <c r="F65" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="64"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" s="22" t="s">
+      <c r="G65" s="65"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="63" t="n">
+      <c r="A66" s="9"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="64" t="n">
         <v>6066</v>
       </c>
-      <c r="D66" s="63" t="s">
+      <c r="D66" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E66" s="63" t="n">
+      <c r="E66" s="64" t="n">
         <v>4119</v>
       </c>
-      <c r="F66" s="63" t="s">
+      <c r="F66" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="64"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66" s="22" t="s">
+      <c r="G66" s="65"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="63" t="n">
+      <c r="A67" s="9"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="64" t="n">
         <v>6067</v>
       </c>
-      <c r="D67" s="63" t="s">
+      <c r="D67" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E67" s="63" t="n">
+      <c r="E67" s="64" t="n">
         <v>1024</v>
       </c>
-      <c r="F67" s="63" t="s">
+      <c r="F67" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="64"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8"/>
-      <c r="B68" s="28" t="s">
+      <c r="G67" s="65"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9"/>
+      <c r="B68" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="17" t="n">
+      <c r="C68" s="18" t="n">
         <v>6052</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="17" t="s">
+      <c r="F68" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="12" t="s">
+      <c r="G68" s="20"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J68" s="13" t="s">
+      <c r="J68" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
+    <row r="69" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="17" t="n">
+      <c r="C69" s="18" t="n">
         <v>7051</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E69" s="66" t="s">
+      <c r="E69" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F69" s="17" t="s">
+      <c r="F69" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="19"/>
-      <c r="H69" s="67" t="s">
+      <c r="G69" s="20"/>
+      <c r="H69" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="I69" s="68" t="s">
+      <c r="I69" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="J69" s="69" t="s">
+      <c r="J69" s="70" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="70"/>
+      <c r="E70" s="71"/>
     </row>
     <row r="71" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="71"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="8" t="s">
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="72" t="s">
+      <c r="A73" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="73"/>
-      <c r="H73" s="70" t="s">
+      <c r="B73" s="73"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="70"/>
+      <c r="I73" s="71"/>
     </row>
     <row r="74" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="74" t="s">
+      <c r="D74" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="E74" s="75" t="s">
+      <c r="E74" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="F74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
+      <c r="F74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
     </row>
     <row r="75" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D75" s="76" t="s">
+      <c r="D75" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="E75" s="76" t="s">
+      <c r="E75" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F75" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
     </row>
     <row r="76" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D76" s="76" t="s">
+      <c r="D76" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="76" t="s">
+      <c r="E76" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F76" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="77" t="s">
+      <c r="A77" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="78" t="s">
+      <c r="B77" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="76" t="s">
+      <c r="D77" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E77" s="76" t="s">
+      <c r="E77" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="F77" s="70"/>
-    </row>
-    <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="77" t="s">
+      <c r="F77" s="71"/>
+    </row>
+    <row r="78" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="78" t="s">
+      <c r="B78" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="76" t="s">
+      <c r="D78" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="E78" s="76" t="s">
+      <c r="E78" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="F78" s="70"/>
+      <c r="F78" s="71"/>
     </row>
     <row r="79" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="79" t="s">
+      <c r="A79" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D79" s="76" t="s">
+      <c r="D79" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="E79" s="76" t="s">
+      <c r="E79" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="F79" s="70"/>
+      <c r="F79" s="71"/>
     </row>
     <row r="80" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="80" t="s">
+      <c r="A80" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D80" s="76" t="s">
+      <c r="D80" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="76" t="s">
+      <c r="E80" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="F80" s="70"/>
+      <c r="F80" s="71"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D81" s="76" t="s">
+      <c r="D81" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="E81" s="76" t="s">
+      <c r="E81" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="F81" s="70"/>
-    </row>
-    <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="23" t="s">
+      <c r="F81" s="71"/>
+    </row>
+    <row r="82" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D82" s="76" t="s">
+      <c r="D82" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="E82" s="76" t="s">
+      <c r="E82" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="F82" s="70"/>
+      <c r="F82" s="71"/>
     </row>
     <row r="83" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D83" s="76" t="s">
+      <c r="D83" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="E83" s="76" t="s">
+      <c r="E83" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="F83" s="70"/>
+      <c r="F83" s="71"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D84" s="76" t="s">
+      <c r="D84" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="E84" s="76" t="s">
+      <c r="E84" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="F84" s="70"/>
-      <c r="G84" s="70"/>
-      <c r="H84" s="70"/>
-      <c r="I84" s="70"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="71"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D85" s="76" t="s">
+      <c r="D85" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="E85" s="76" t="s">
+      <c r="E85" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="70"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="71"/>
+      <c r="I85" s="71"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D86" s="76" t="s">
+      <c r="D86" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="E86" s="76" t="s">
+      <c r="E86" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="F86" s="30" t="s">
+      <c r="F86" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="30"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="31"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D87" s="76" t="s">
+      <c r="D87" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="E87" s="76" t="s">
+      <c r="E87" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="I87" s="70"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
+      <c r="I87" s="71"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="77" t="s">
+      <c r="A88" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="B88" s="78" t="s">
+      <c r="B88" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D88" s="81" t="s">
+      <c r="D88" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="E88" s="76" t="s">
+      <c r="E88" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-    </row>
-    <row r="89" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="23" t="s">
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+    </row>
+    <row r="89" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D89" s="76" t="s">
+      <c r="D89" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="E89" s="76" t="s">
+      <c r="E89" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="70"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="71"/>
+      <c r="I89" s="71"/>
     </row>
     <row r="90" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D90" s="76" t="s">
+      <c r="D90" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="E90" s="76" t="s">
+      <c r="E90" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="F90" s="30" t="s">
+      <c r="F90" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="31"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="77" t="s">
+      <c r="A91" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="B91" s="78" t="s">
+      <c r="B91" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D91" s="82" t="s">
+      <c r="D91" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="E91" s="76" t="s">
+      <c r="E91" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="70"/>
-    </row>
-    <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="77" t="s">
+      <c r="F91" s="71"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="71"/>
+      <c r="I91" s="71"/>
+    </row>
+    <row r="92" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="B92" s="78" t="s">
+      <c r="B92" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D92" s="76" t="s">
+      <c r="D92" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="E92" s="76" t="s">
+      <c r="E92" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="F92" s="70"/>
-      <c r="G92" s="70"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="70"/>
-    </row>
-    <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="83" t="s">
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="71"/>
+    </row>
+    <row r="93" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="B93" s="78" t="s">
+      <c r="B93" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D93" s="76" t="s">
+      <c r="D93" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="E93" s="76" t="s">
+      <c r="E93" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="F93" s="70"/>
-      <c r="G93" s="70"/>
-      <c r="H93" s="70"/>
-      <c r="I93" s="70"/>
-    </row>
-    <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="84" t="s">
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="71"/>
+    </row>
+    <row r="94" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="78" t="s">
+      <c r="B94" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D94" s="76" t="s">
+      <c r="D94" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="E94" s="76" t="s">
+      <c r="E94" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="F94" s="70"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="70"/>
-      <c r="I94" s="70"/>
-    </row>
-    <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="80" t="s">
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="71"/>
+    </row>
+    <row r="95" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D95" s="76" t="s">
+      <c r="D95" s="77" t="s">
         <v>196</v>
       </c>
-      <c r="E95" s="76" t="s">
+      <c r="E95" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="F95" s="70"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="71"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="80" t="s">
+      <c r="A96" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D96" s="76" t="s">
+      <c r="D96" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="E96" s="76" t="s">
+      <c r="E96" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="F96" s="70"/>
-      <c r="G96" s="70"/>
-      <c r="H96" s="70"/>
-      <c r="I96" s="70"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="71"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="80" t="s">
+      <c r="A97" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D97" s="76" t="s">
+      <c r="D97" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="E97" s="76" t="s">
+      <c r="E97" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="F97" s="70"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="70"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="71"/>
+      <c r="H97" s="71"/>
+      <c r="I97" s="71"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="80" t="s">
+      <c r="A98" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D98" s="81" t="s">
+      <c r="D98" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="E98" s="76" t="s">
+      <c r="E98" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="F98" s="70"/>
-      <c r="G98" s="70"/>
-      <c r="H98" s="70"/>
-      <c r="I98" s="70"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="71"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="80" t="s">
+      <c r="A99" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="D99" s="76" t="s">
+      <c r="D99" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="E99" s="76" t="s">
+      <c r="E99" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="70"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="71"/>
+      <c r="I99" s="71"/>
     </row>
     <row r="100" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="D100" s="76" t="s">
+      <c r="D100" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="E100" s="76" t="s">
+      <c r="E100" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="F100" s="30" t="s">
+      <c r="F100" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="30"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="D101" s="76" t="s">
+      <c r="D101" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="E101" s="76" t="s">
+      <c r="E101" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="70"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="71"/>
+      <c r="H101" s="71"/>
+      <c r="I101" s="71"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="D102" s="76" t="s">
+      <c r="D102" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="E102" s="76" t="s">
+      <c r="E102" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="F102" s="70"/>
-      <c r="G102" s="70"/>
-      <c r="H102" s="70"/>
-      <c r="I102" s="70"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="71"/>
     </row>
     <row r="103" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="80" t="s">
+      <c r="A103" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="D103" s="76" t="s">
+      <c r="D103" s="77" t="s">
         <v>227</v>
       </c>
-      <c r="E103" s="76" t="s">
+      <c r="E103" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="70"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="71"/>
+      <c r="H103" s="71"/>
+      <c r="I103" s="71"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="80" t="s">
+      <c r="A104" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D104" s="76" t="s">
+      <c r="D104" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="E104" s="76" t="s">
+      <c r="E104" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="F104" s="70"/>
-      <c r="G104" s="70"/>
-      <c r="H104" s="70"/>
-      <c r="I104" s="70"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="71"/>
+      <c r="I104" s="71"/>
     </row>
     <row r="105" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="23" t="s">
+      <c r="A105" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="D105" s="76" t="s">
+      <c r="D105" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="E105" s="76" t="s">
+      <c r="E105" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="F105" s="70"/>
-      <c r="G105" s="70"/>
-      <c r="H105" s="70"/>
-      <c r="I105" s="70"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="71"/>
     </row>
     <row r="106" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="85" t="s">
+      <c r="A106" s="86" t="s">
         <v>235</v>
       </c>
-      <c r="B106" s="78" t="s">
+      <c r="B106" s="79" t="s">
         <v>236</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E106" s="76" t="s">
+      <c r="E106" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-    </row>
-    <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="83" t="s">
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+    </row>
+    <row r="107" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="84" t="s">
         <v>241</v>
       </c>
-      <c r="B107" s="78" t="s">
+      <c r="B107" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E107" s="76" t="s">
+      <c r="E107" s="77" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="77" t="s">
+      <c r="A108" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="B108" s="78" t="s">
+      <c r="B108" s="79" t="s">
         <v>246</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E108" s="76" t="s">
+      <c r="E108" s="77" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="77" t="s">
+      <c r="A109" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="B109" s="78" t="s">
+      <c r="B109" s="79" t="s">
         <v>250</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E109" s="76" t="s">
+      <c r="E109" s="77" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="86" t="s">
+      <c r="A110" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E110" s="76" t="s">
+      <c r="E110" s="77" t="s">
         <v>257</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-    </row>
-    <row r="111" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="86" t="s">
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+    </row>
+    <row r="111" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E111" s="76" t="s">
+      <c r="E111" s="77" t="s">
         <v>257</v>
       </c>
-      <c r="F111" s="87" t="s">
+      <c r="F111" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="G111" s="70"/>
-      <c r="H111" s="70"/>
-      <c r="I111" s="70"/>
+      <c r="G111" s="71"/>
+      <c r="H111" s="71"/>
+      <c r="I111" s="71"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="80" t="s">
+      <c r="A112" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E112" s="76" t="s">
+      <c r="E112" s="77" t="s">
         <v>257</v>
       </c>
-      <c r="F112" s="8" t="s">
+      <c r="F112" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="80" t="s">
+      <c r="A113" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C113" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E113" s="76" t="s">
+      <c r="E113" s="77" t="s">
         <v>257</v>
       </c>
-      <c r="G113" s="70"/>
-      <c r="H113" s="70"/>
-      <c r="I113" s="70"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="71"/>
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="86" t="s">
+      <c r="A114" s="87" t="s">
         <v>271</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="D114" s="21" t="s">
+      <c r="D114" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="E114" s="76" t="s">
+      <c r="E114" s="77" t="s">
         <v>257</v>
       </c>
-      <c r="F114" s="88" t="s">
+      <c r="F114" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="G114" s="88"/>
-      <c r="H114" s="88"/>
-      <c r="I114" s="88"/>
-      <c r="J114" s="88"/>
+      <c r="G114" s="89"/>
+      <c r="H114" s="89"/>
+      <c r="I114" s="89"/>
+      <c r="J114" s="89"/>
     </row>
     <row r="115" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="23" t="s">
+      <c r="A115" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="D115" s="76" t="s">
+      <c r="D115" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="E115" s="76" t="s">
+      <c r="E115" s="77" t="s">
         <v>257</v>
       </c>
-      <c r="F115" s="70"/>
-      <c r="G115" s="70"/>
-      <c r="H115" s="70"/>
-      <c r="I115" s="70"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="71"/>
+      <c r="H115" s="71"/>
+      <c r="I115" s="71"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="77" t="s">
+      <c r="A116" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="B116" s="78" t="s">
+      <c r="B116" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E116" s="76" t="s">
+      <c r="E116" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="F116" s="70"/>
-      <c r="G116" s="70"/>
-      <c r="H116" s="70"/>
-      <c r="I116" s="70"/>
+      <c r="F116" s="71"/>
+      <c r="G116" s="71"/>
+      <c r="H116" s="71"/>
+      <c r="I116" s="71"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="77" t="s">
+      <c r="A117" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="B117" s="78" t="s">
+      <c r="B117" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E117" s="76" t="s">
+      <c r="E117" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="F117" s="70"/>
-      <c r="G117" s="70"/>
-      <c r="H117" s="70"/>
-      <c r="I117" s="70"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="77" t="s">
+      <c r="A118" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="B118" s="78" t="s">
+      <c r="B118" s="79" t="s">
         <v>289</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="E118" s="76" t="s">
+      <c r="E118" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="F118" s="70"/>
-      <c r="G118" s="70"/>
-      <c r="H118" s="70"/>
-      <c r="I118" s="70"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="71"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="77" t="s">
+      <c r="A119" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="B119" s="78" t="s">
+      <c r="B119" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="E119" s="76" t="s">
+      <c r="E119" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="F119" s="70"/>
-      <c r="G119" s="70"/>
-      <c r="H119" s="70"/>
-      <c r="I119" s="70"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="71"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="77" t="s">
+      <c r="A120" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="B120" s="78" t="s">
+      <c r="B120" s="79" t="s">
         <v>297</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="E120" s="76" t="s">
+      <c r="E120" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="77" t="s">
+      <c r="A121" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="B121" s="78" t="s">
+      <c r="B121" s="79" t="s">
         <v>301</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E121" s="76" t="s">
+      <c r="E121" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="F121" s="89" t="s">
+      <c r="F121" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="G121" s="70"/>
-      <c r="H121" s="70"/>
-      <c r="I121" s="70"/>
+      <c r="G121" s="71"/>
+      <c r="H121" s="71"/>
+      <c r="I121" s="71"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="77" t="s">
+      <c r="A122" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="B122" s="78" t="s">
+      <c r="B122" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E122" s="76" t="s">
+      <c r="E122" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="F122" s="70"/>
-      <c r="G122" s="70"/>
-      <c r="H122" s="70"/>
-      <c r="I122" s="70"/>
-    </row>
-    <row r="123" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="23" t="s">
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="71"/>
+      <c r="I122" s="71"/>
+    </row>
+    <row r="123" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="E123" s="76" t="s">
+      <c r="E123" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="F123" s="90" t="s">
+      <c r="F123" s="91" t="s">
         <v>313</v>
       </c>
-      <c r="G123" s="70"/>
-      <c r="H123" s="70"/>
-      <c r="I123" s="70"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="71"/>
+      <c r="I123" s="71"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="23" t="s">
+      <c r="A124" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E124" s="76" t="s">
+      <c r="E124" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="F124" s="70"/>
-      <c r="G124" s="70"/>
-      <c r="H124" s="70"/>
-      <c r="I124" s="70"/>
+      <c r="F124" s="71"/>
+      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
+      <c r="I124" s="71"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="23" t="s">
+      <c r="A125" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C125" s="18" t="s">
+      <c r="C125" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E125" s="76" t="s">
+      <c r="E125" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="F125" s="70"/>
-      <c r="G125" s="70"/>
-      <c r="H125" s="70"/>
-      <c r="I125" s="70"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="71"/>
+      <c r="H125" s="71"/>
+      <c r="I125" s="71"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="77" t="s">
+      <c r="A126" s="78" t="s">
         <v>322</v>
       </c>
-      <c r="B126" s="78" t="s">
+      <c r="B126" s="79" t="s">
         <v>323</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="E126" s="76" t="s">
+      <c r="E126" s="77" t="s">
         <v>326</v>
       </c>
-      <c r="F126" s="70"/>
-      <c r="G126" s="70"/>
-      <c r="H126" s="70"/>
-      <c r="I126" s="70"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="71"/>
+      <c r="I126" s="71"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="77" t="s">
+      <c r="A127" s="78" t="s">
         <v>327</v>
       </c>
-      <c r="B127" s="78" t="s">
+      <c r="B127" s="79" t="s">
         <v>328</v>
       </c>
-      <c r="C127" s="18" t="s">
+      <c r="C127" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="E127" s="76" t="s">
+      <c r="E127" s="77" t="s">
         <v>326</v>
       </c>
-      <c r="F127" s="70"/>
-      <c r="G127" s="70"/>
-      <c r="H127" s="70"/>
-      <c r="I127" s="70"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="71"/>
+      <c r="H127" s="71"/>
+      <c r="I127" s="71"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="77" t="s">
+      <c r="A128" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="B128" s="78" t="s">
+      <c r="B128" s="79" t="s">
         <v>332</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="E128" s="76" t="s">
+      <c r="E128" s="77" t="s">
         <v>326</v>
       </c>
-      <c r="F128" s="70"/>
-      <c r="G128" s="70"/>
-      <c r="H128" s="70"/>
-      <c r="I128" s="70"/>
-    </row>
-    <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="91" t="s">
+      <c r="F128" s="71"/>
+      <c r="G128" s="71"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="71"/>
+    </row>
+    <row r="129" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="92" t="s">
         <v>335</v>
       </c>
-      <c r="B129" s="78" t="s">
+      <c r="B129" s="79" t="s">
         <v>336</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="E129" s="76" t="s">
+      <c r="E129" s="77" t="s">
         <v>326</v>
       </c>
-      <c r="F129" s="90" t="s">
+      <c r="F129" s="91" t="s">
         <v>339</v>
       </c>
-      <c r="G129" s="70"/>
-      <c r="H129" s="70"/>
-      <c r="I129" s="70"/>
+      <c r="G129" s="71"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="71"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="77" t="s">
+      <c r="A130" s="78" t="s">
         <v>340</v>
       </c>
-      <c r="B130" s="78" t="s">
+      <c r="B130" s="79" t="s">
         <v>341</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="E130" s="76" t="s">
+      <c r="E130" s="77" t="s">
         <v>326</v>
       </c>
-      <c r="F130" s="70"/>
-      <c r="G130" s="70"/>
-      <c r="H130" s="70"/>
-      <c r="I130" s="70"/>
+      <c r="F130" s="71"/>
+      <c r="G130" s="71"/>
+      <c r="H130" s="71"/>
+      <c r="I130" s="71"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="77" t="s">
+      <c r="A131" s="78" t="s">
         <v>344</v>
       </c>
-      <c r="B131" s="78" t="s">
+      <c r="B131" s="79" t="s">
         <v>345</v>
       </c>
-      <c r="C131" s="18"/>
-      <c r="D131" s="8" t="s">
+      <c r="C131" s="19"/>
+      <c r="D131" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="E131" s="76"/>
-      <c r="F131" s="70"/>
-      <c r="G131" s="70"/>
-      <c r="H131" s="70"/>
-      <c r="I131" s="70"/>
+      <c r="E131" s="77"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="71"/>
+      <c r="I131" s="71"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="77" t="s">
+      <c r="A132" s="78" t="s">
         <v>347</v>
       </c>
-      <c r="B132" s="78" t="s">
+      <c r="B132" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="C132" s="18"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="92" t="s">
+      <c r="C132" s="19"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="93" t="s">
         <v>349</v>
       </c>
-      <c r="F132" s="70"/>
-      <c r="G132" s="70"/>
-      <c r="H132" s="70"/>
-      <c r="I132" s="70"/>
-    </row>
-    <row r="133" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="93" t="s">
+      <c r="F132" s="71"/>
+      <c r="G132" s="71"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="71"/>
+    </row>
+    <row r="133" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="94" t="s">
         <v>350</v>
       </c>
-      <c r="B133" s="94" t="s">
+      <c r="B133" s="95" t="s">
         <v>351</v>
       </c>
-      <c r="C133" s="18"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="76"/>
-      <c r="F133" s="70"/>
-      <c r="G133" s="70"/>
-      <c r="H133" s="70"/>
-      <c r="I133" s="70"/>
-    </row>
-    <row r="134" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="95" t="s">
+      <c r="C133" s="19"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="77"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="71"/>
+      <c r="H133" s="71"/>
+      <c r="I133" s="71"/>
+    </row>
+    <row r="134" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="96" t="s">
         <v>352</v>
       </c>
-      <c r="B134" s="94" t="s">
+      <c r="B134" s="95" t="s">
         <v>353</v>
       </c>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="70"/>
-      <c r="F134" s="70"/>
-      <c r="G134" s="70"/>
-      <c r="H134" s="70"/>
-      <c r="I134" s="70"/>
+      <c r="C134" s="71"/>
+      <c r="D134" s="71"/>
+      <c r="E134" s="71"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="71"/>
+      <c r="I134" s="71"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="95" t="s">
+      <c r="A135" s="96" t="s">
         <v>354</v>
       </c>
-      <c r="B135" s="94" t="s">
+      <c r="B135" s="95" t="s">
         <v>355</v>
       </c>
-      <c r="C135" s="70"/>
-      <c r="D135" s="70"/>
-      <c r="E135" s="70"/>
-      <c r="F135" s="70"/>
-      <c r="G135" s="70"/>
-      <c r="H135" s="70"/>
-      <c r="I135" s="70"/>
+      <c r="C135" s="71"/>
+      <c r="D135" s="71"/>
+      <c r="E135" s="71"/>
+      <c r="F135" s="71"/>
+      <c r="G135" s="71"/>
+      <c r="H135" s="71"/>
+      <c r="I135" s="71"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="95" t="s">
+      <c r="A136" s="96" t="s">
         <v>356</v>
       </c>
-      <c r="B136" s="94" t="s">
+      <c r="B136" s="95" t="s">
         <v>357</v>
       </c>
-      <c r="C136" s="70"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="70"/>
-      <c r="F136" s="70"/>
-      <c r="G136" s="70"/>
-      <c r="H136" s="70"/>
-      <c r="I136" s="70"/>
+      <c r="C136" s="71"/>
+      <c r="D136" s="71"/>
+      <c r="E136" s="71"/>
+      <c r="F136" s="71"/>
+      <c r="G136" s="71"/>
+      <c r="H136" s="71"/>
+      <c r="I136" s="71"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="95" t="s">
+      <c r="A137" s="96" t="s">
         <v>358</v>
       </c>
-      <c r="B137" s="94" t="s">
+      <c r="B137" s="95" t="s">
         <v>359</v>
       </c>
-      <c r="C137" s="70"/>
-      <c r="D137" s="70"/>
-      <c r="E137" s="70"/>
-      <c r="F137" s="70"/>
-      <c r="G137" s="70"/>
-      <c r="H137" s="70"/>
-      <c r="I137" s="70"/>
+      <c r="C137" s="71"/>
+      <c r="D137" s="71"/>
+      <c r="E137" s="71"/>
+      <c r="F137" s="71"/>
+      <c r="G137" s="71"/>
+      <c r="H137" s="71"/>
+      <c r="I137" s="71"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="95" t="s">
+      <c r="A138" s="96" t="s">
         <v>360</v>
       </c>
-      <c r="B138" s="94" t="s">
+      <c r="B138" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="C138" s="70"/>
-      <c r="D138" s="70"/>
-      <c r="E138" s="70"/>
-      <c r="F138" s="70"/>
-      <c r="G138" s="70"/>
-      <c r="H138" s="70"/>
-      <c r="I138" s="70"/>
+      <c r="C138" s="71"/>
+      <c r="D138" s="71"/>
+      <c r="E138" s="71"/>
+      <c r="F138" s="71"/>
+      <c r="G138" s="71"/>
+      <c r="H138" s="71"/>
+      <c r="I138" s="71"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="95" t="s">
+      <c r="A139" s="96" t="s">
         <v>362</v>
       </c>
-      <c r="B139" s="94" t="s">
+      <c r="B139" s="95" t="s">
         <v>363</v>
       </c>
-      <c r="C139" s="70"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="70"/>
-      <c r="F139" s="70"/>
-      <c r="G139" s="70"/>
-      <c r="H139" s="70"/>
-      <c r="I139" s="70"/>
+      <c r="C139" s="71"/>
+      <c r="D139" s="71"/>
+      <c r="E139" s="71"/>
+      <c r="F139" s="71"/>
+      <c r="G139" s="71"/>
+      <c r="H139" s="71"/>
+      <c r="I139" s="71"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="70"/>
-      <c r="C140" s="70"/>
-      <c r="D140" s="70"/>
-      <c r="E140" s="70"/>
-      <c r="F140" s="70"/>
-      <c r="G140" s="70"/>
-      <c r="H140" s="70"/>
-      <c r="I140" s="70"/>
+      <c r="B140" s="71"/>
+      <c r="C140" s="71"/>
+      <c r="D140" s="71"/>
+      <c r="E140" s="71"/>
+      <c r="F140" s="71"/>
+      <c r="G140" s="71"/>
+      <c r="H140" s="71"/>
+      <c r="I140" s="71"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="70"/>
-      <c r="C141" s="70"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="70"/>
-      <c r="F141" s="70"/>
-      <c r="G141" s="70"/>
-      <c r="H141" s="70"/>
-      <c r="I141" s="70"/>
+      <c r="B141" s="71"/>
+      <c r="C141" s="71"/>
+      <c r="D141" s="71"/>
+      <c r="E141" s="71"/>
+      <c r="F141" s="71"/>
+      <c r="G141" s="71"/>
+      <c r="H141" s="71"/>
+      <c r="I141" s="71"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="70"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="70"/>
-      <c r="E142" s="70"/>
-      <c r="F142" s="70"/>
-      <c r="G142" s="70"/>
-      <c r="H142" s="70"/>
-      <c r="I142" s="70"/>
+      <c r="B142" s="71"/>
+      <c r="C142" s="71"/>
+      <c r="D142" s="71"/>
+      <c r="E142" s="71"/>
+      <c r="F142" s="71"/>
+      <c r="G142" s="71"/>
+      <c r="H142" s="71"/>
+      <c r="I142" s="71"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="70"/>
-      <c r="B143" s="70"/>
-      <c r="C143" s="70"/>
-      <c r="D143" s="70"/>
-      <c r="E143" s="70"/>
-      <c r="F143" s="70"/>
-      <c r="G143" s="70"/>
-      <c r="H143" s="70"/>
-      <c r="I143" s="70"/>
+      <c r="A143" s="71"/>
+      <c r="B143" s="71"/>
+      <c r="C143" s="71"/>
+      <c r="D143" s="71"/>
+      <c r="E143" s="71"/>
+      <c r="F143" s="71"/>
+      <c r="G143" s="71"/>
+      <c r="H143" s="71"/>
+      <c r="I143" s="71"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="70"/>
-      <c r="B144" s="70"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="70"/>
-      <c r="F144" s="70"/>
-      <c r="G144" s="70"/>
-      <c r="H144" s="70"/>
-      <c r="I144" s="70"/>
+      <c r="A144" s="71"/>
+      <c r="B144" s="71"/>
+      <c r="C144" s="71"/>
+      <c r="D144" s="71"/>
+      <c r="E144" s="71"/>
+      <c r="F144" s="71"/>
+      <c r="G144" s="71"/>
+      <c r="H144" s="71"/>
+      <c r="I144" s="71"/>
     </row>
     <row r="145" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="70"/>
-      <c r="B145" s="96" t="s">
+      <c r="A145" s="71"/>
+      <c r="B145" s="97" t="s">
         <v>364</v>
       </c>
-      <c r="C145" s="70"/>
-      <c r="D145" s="70"/>
-      <c r="E145" s="70"/>
-      <c r="F145" s="70"/>
-      <c r="G145" s="70"/>
-      <c r="H145" s="70"/>
-      <c r="I145" s="70"/>
-    </row>
-    <row r="146" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="97"/>
-      <c r="B146" s="98" t="s">
+      <c r="C145" s="71"/>
+      <c r="D145" s="71"/>
+      <c r="E145" s="71"/>
+      <c r="F145" s="71"/>
+      <c r="G145" s="71"/>
+      <c r="H145" s="71"/>
+      <c r="I145" s="71"/>
+    </row>
+    <row r="146" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="98"/>
+      <c r="B146" s="99" t="s">
         <v>365</v>
       </c>
-      <c r="C146" s="98" t="s">
+      <c r="C146" s="99" t="s">
         <v>366</v>
       </c>
-      <c r="D146" s="99" t="s">
+      <c r="D146" s="100" t="s">
         <v>367</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E146" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F146" s="30" t="s">
+      <c r="F146" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G146" s="70"/>
-      <c r="H146" s="70"/>
-      <c r="I146" s="70"/>
+      <c r="G146" s="71"/>
+      <c r="H146" s="71"/>
+      <c r="I146" s="71"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="100"/>
-      <c r="B147" s="70"/>
-      <c r="C147" s="70"/>
-      <c r="D147" s="70"/>
-      <c r="E147" s="70"/>
-      <c r="F147" s="70"/>
-      <c r="G147" s="70"/>
-      <c r="H147" s="70"/>
-      <c r="I147" s="70"/>
+      <c r="A147" s="101"/>
+      <c r="B147" s="71"/>
+      <c r="C147" s="71"/>
+      <c r="D147" s="71"/>
+      <c r="E147" s="71"/>
+      <c r="F147" s="71"/>
+      <c r="G147" s="71"/>
+      <c r="H147" s="71"/>
+      <c r="I147" s="71"/>
     </row>
     <row r="148" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="101" t="s">
+      <c r="A148" s="102" t="s">
         <v>368</v>
       </c>
-      <c r="B148" s="102" t="s">
+      <c r="B148" s="103" t="s">
         <v>369</v>
       </c>
-      <c r="C148" s="103" t="s">
+      <c r="C148" s="104" t="s">
         <v>370</v>
       </c>
-      <c r="D148" s="104" t="s">
+      <c r="D148" s="105" t="s">
         <v>371</v>
       </c>
-      <c r="E148" s="105" t="s">
+      <c r="E148" s="106" t="s">
         <v>372</v>
       </c>
-      <c r="F148" s="106" t="s">
+      <c r="F148" s="107" t="s">
         <v>373</v>
       </c>
-      <c r="G148" s="70"/>
-      <c r="H148" s="70"/>
-      <c r="I148" s="70"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="71"/>
+      <c r="I148" s="71"/>
     </row>
     <row r="149" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="101"/>
-      <c r="B149" s="107" t="s">
+      <c r="A149" s="102"/>
+      <c r="B149" s="108" t="s">
         <v>374</v>
       </c>
-      <c r="C149" s="108" t="s">
+      <c r="C149" s="109" t="s">
         <v>375</v>
       </c>
-      <c r="D149" s="109" t="s">
+      <c r="D149" s="110" t="s">
         <v>376</v>
       </c>
-      <c r="E149" s="110" t="s">
+      <c r="E149" s="111" t="s">
         <v>377</v>
       </c>
-      <c r="F149" s="106" t="s">
+      <c r="F149" s="107" t="s">
         <v>378</v>
       </c>
-      <c r="G149" s="70"/>
-      <c r="H149" s="70"/>
-      <c r="I149" s="70"/>
-    </row>
-    <row r="150" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="101"/>
-      <c r="B150" s="111" t="s">
+      <c r="G149" s="71"/>
+      <c r="H149" s="71"/>
+      <c r="I149" s="71"/>
+    </row>
+    <row r="150" customFormat="false" ht="93.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="102"/>
+      <c r="B150" s="112" t="s">
         <v>379</v>
       </c>
-      <c r="C150" s="112" t="s">
+      <c r="C150" s="113" t="s">
         <v>380</v>
       </c>
-      <c r="D150" s="113" t="s">
+      <c r="D150" s="114" t="s">
         <v>381</v>
       </c>
-      <c r="E150" s="114" t="s">
+      <c r="E150" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="115" t="s">
+      <c r="F150" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="90" t="s">
+      <c r="G150" s="91" t="s">
         <v>382</v>
       </c>
-      <c r="H150" s="70"/>
-      <c r="I150" s="70"/>
-      <c r="J150" s="70"/>
-      <c r="K150" s="70"/>
-      <c r="L150" s="70"/>
-    </row>
-    <row r="151" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="101"/>
-      <c r="B151" s="116" t="s">
+      <c r="H150" s="71"/>
+      <c r="I150" s="71"/>
+      <c r="J150" s="71"/>
+      <c r="K150" s="71"/>
+      <c r="L150" s="71"/>
+    </row>
+    <row r="151" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="102"/>
+      <c r="B151" s="117" t="s">
         <v>383</v>
       </c>
-      <c r="C151" s="112" t="s">
+      <c r="C151" s="113" t="s">
         <v>380</v>
       </c>
-      <c r="D151" s="113" t="s">
+      <c r="D151" s="114" t="s">
         <v>384</v>
       </c>
-      <c r="E151" s="114" t="s">
+      <c r="E151" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="F151" s="115" t="s">
+      <c r="F151" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="G151" s="90" t="s">
+      <c r="G151" s="91" t="s">
         <v>385</v>
       </c>
-      <c r="H151" s="70"/>
-      <c r="I151" s="70"/>
-      <c r="J151" s="70"/>
-      <c r="K151" s="70"/>
-      <c r="L151" s="70"/>
+      <c r="H151" s="71"/>
+      <c r="I151" s="71"/>
+      <c r="J151" s="71"/>
+      <c r="K151" s="71"/>
+      <c r="L151" s="71"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="101"/>
-      <c r="B152" s="117" t="s">
+      <c r="A152" s="102"/>
+      <c r="B152" s="118" t="s">
         <v>386</v>
       </c>
-      <c r="C152" s="118" t="s">
+      <c r="C152" s="119" t="s">
         <v>380</v>
       </c>
-      <c r="D152" s="119" t="s">
+      <c r="D152" s="120" t="s">
         <v>387</v>
       </c>
-      <c r="E152" s="120" t="s">
+      <c r="E152" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="F152" s="121" t="s">
+      <c r="F152" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="G152" s="70"/>
-      <c r="H152" s="70"/>
-      <c r="I152" s="70"/>
-      <c r="J152" s="70"/>
-      <c r="K152" s="70"/>
-      <c r="L152" s="70"/>
+      <c r="G152" s="71"/>
+      <c r="H152" s="71"/>
+      <c r="I152" s="71"/>
+      <c r="J152" s="71"/>
+      <c r="K152" s="71"/>
+      <c r="L152" s="71"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="70"/>
-      <c r="B153" s="70"/>
-      <c r="C153" s="70"/>
-      <c r="D153" s="70"/>
-      <c r="E153" s="70"/>
-      <c r="F153" s="70"/>
-      <c r="G153" s="70"/>
-      <c r="H153" s="70"/>
-      <c r="I153" s="70"/>
-      <c r="J153" s="70"/>
-      <c r="K153" s="70"/>
-      <c r="L153" s="70"/>
+      <c r="A153" s="71"/>
+      <c r="B153" s="71"/>
+      <c r="C153" s="71"/>
+      <c r="D153" s="71"/>
+      <c r="E153" s="71"/>
+      <c r="F153" s="71"/>
+      <c r="G153" s="71"/>
+      <c r="H153" s="71"/>
+      <c r="I153" s="71"/>
+      <c r="J153" s="71"/>
+      <c r="K153" s="71"/>
+      <c r="L153" s="71"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="70"/>
-      <c r="B154" s="70"/>
-      <c r="C154" s="70"/>
-      <c r="D154" s="70"/>
-      <c r="E154" s="70"/>
-      <c r="F154" s="70"/>
-      <c r="G154" s="70"/>
-      <c r="H154" s="70"/>
-      <c r="I154" s="70"/>
-      <c r="J154" s="70"/>
-      <c r="K154" s="70"/>
-      <c r="L154" s="70"/>
+      <c r="A154" s="71"/>
+      <c r="B154" s="71"/>
+      <c r="C154" s="71"/>
+      <c r="D154" s="71"/>
+      <c r="E154" s="71"/>
+      <c r="F154" s="71"/>
+      <c r="G154" s="71"/>
+      <c r="H154" s="71"/>
+      <c r="I154" s="71"/>
+      <c r="J154" s="71"/>
+      <c r="K154" s="71"/>
+      <c r="L154" s="71"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="70"/>
-      <c r="B155" s="70"/>
-      <c r="C155" s="70"/>
-      <c r="D155" s="70"/>
-      <c r="E155" s="70"/>
-      <c r="F155" s="70"/>
-      <c r="G155" s="70"/>
-      <c r="H155" s="70"/>
-      <c r="I155" s="70"/>
-      <c r="J155" s="70"/>
-      <c r="K155" s="70"/>
-      <c r="L155" s="70"/>
-    </row>
-    <row r="156" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="122" t="s">
+      <c r="A155" s="71"/>
+      <c r="B155" s="71"/>
+      <c r="C155" s="71"/>
+      <c r="D155" s="71"/>
+      <c r="E155" s="71"/>
+      <c r="F155" s="71"/>
+      <c r="G155" s="71"/>
+      <c r="H155" s="71"/>
+      <c r="I155" s="71"/>
+      <c r="J155" s="71"/>
+      <c r="K155" s="71"/>
+      <c r="L155" s="71"/>
+    </row>
+    <row r="156" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="123" t="s">
         <v>388</v>
       </c>
-      <c r="B156" s="90" t="s">
+      <c r="B156" s="91" t="s">
         <v>389</v>
       </c>
-      <c r="C156" s="70"/>
-      <c r="D156" s="70"/>
-      <c r="E156" s="70"/>
-      <c r="F156" s="70"/>
-      <c r="G156" s="70"/>
-      <c r="H156" s="70"/>
-      <c r="I156" s="70"/>
-      <c r="J156" s="70"/>
-      <c r="K156" s="70"/>
-      <c r="L156" s="70"/>
+      <c r="C156" s="71"/>
+      <c r="D156" s="71"/>
+      <c r="E156" s="71"/>
+      <c r="F156" s="71"/>
+      <c r="G156" s="71"/>
+      <c r="H156" s="71"/>
+      <c r="I156" s="71"/>
+      <c r="J156" s="71"/>
+      <c r="K156" s="71"/>
+      <c r="L156" s="71"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="70"/>
-      <c r="B157" s="70"/>
-      <c r="C157" s="70"/>
-      <c r="D157" s="70"/>
-      <c r="E157" s="70"/>
-      <c r="F157" s="70"/>
-      <c r="G157" s="70"/>
-      <c r="H157" s="70"/>
-      <c r="I157" s="70"/>
+      <c r="A157" s="71"/>
+      <c r="B157" s="71"/>
+      <c r="C157" s="71"/>
+      <c r="D157" s="71"/>
+      <c r="E157" s="71"/>
+      <c r="F157" s="71"/>
+      <c r="G157" s="71"/>
+      <c r="H157" s="71"/>
+      <c r="I157" s="71"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="70"/>
-      <c r="B158" s="70"/>
-      <c r="C158" s="70"/>
-      <c r="D158" s="70"/>
-      <c r="E158" s="70"/>
-      <c r="F158" s="70"/>
-      <c r="G158" s="70"/>
-      <c r="H158" s="70"/>
-      <c r="I158" s="70"/>
+      <c r="A158" s="71"/>
+      <c r="B158" s="71"/>
+      <c r="C158" s="71"/>
+      <c r="D158" s="71"/>
+      <c r="E158" s="71"/>
+      <c r="F158" s="71"/>
+      <c r="G158" s="71"/>
+      <c r="H158" s="71"/>
+      <c r="I158" s="71"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="70"/>
-      <c r="B159" s="70"/>
-      <c r="C159" s="70"/>
-      <c r="D159" s="70"/>
-      <c r="E159" s="70"/>
-      <c r="F159" s="70"/>
-      <c r="G159" s="70"/>
-      <c r="H159" s="70"/>
-      <c r="I159" s="70"/>
+      <c r="A159" s="71"/>
+      <c r="B159" s="71"/>
+      <c r="C159" s="71"/>
+      <c r="D159" s="71"/>
+      <c r="E159" s="71"/>
+      <c r="F159" s="71"/>
+      <c r="G159" s="71"/>
+      <c r="H159" s="71"/>
+      <c r="I159" s="71"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="70"/>
-      <c r="B160" s="70"/>
-      <c r="C160" s="70"/>
-      <c r="D160" s="70"/>
-      <c r="E160" s="70"/>
-      <c r="F160" s="70"/>
-      <c r="G160" s="70"/>
-      <c r="H160" s="70"/>
-      <c r="I160" s="70"/>
+      <c r="A160" s="71"/>
+      <c r="B160" s="71"/>
+      <c r="C160" s="71"/>
+      <c r="D160" s="71"/>
+      <c r="E160" s="71"/>
+      <c r="F160" s="71"/>
+      <c r="G160" s="71"/>
+      <c r="H160" s="71"/>
+      <c r="I160" s="71"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="70"/>
-      <c r="B161" s="70"/>
-      <c r="C161" s="70"/>
-      <c r="D161" s="70"/>
-      <c r="E161" s="70"/>
-      <c r="F161" s="70"/>
-      <c r="G161" s="70"/>
-      <c r="H161" s="70"/>
-      <c r="I161" s="70"/>
+      <c r="A161" s="71"/>
+      <c r="B161" s="71"/>
+      <c r="C161" s="71"/>
+      <c r="D161" s="71"/>
+      <c r="E161" s="71"/>
+      <c r="F161" s="71"/>
+      <c r="G161" s="71"/>
+      <c r="H161" s="71"/>
+      <c r="I161" s="71"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="70"/>
-      <c r="B162" s="70"/>
-      <c r="C162" s="70"/>
-      <c r="D162" s="70"/>
-      <c r="E162" s="70"/>
-      <c r="F162" s="70"/>
-      <c r="G162" s="70"/>
-      <c r="H162" s="70"/>
-      <c r="I162" s="70"/>
+      <c r="A162" s="71"/>
+      <c r="B162" s="71"/>
+      <c r="C162" s="71"/>
+      <c r="D162" s="71"/>
+      <c r="E162" s="71"/>
+      <c r="F162" s="71"/>
+      <c r="G162" s="71"/>
+      <c r="H162" s="71"/>
+      <c r="I162" s="71"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="70"/>
-      <c r="B163" s="70"/>
-      <c r="C163" s="70"/>
-      <c r="D163" s="70"/>
-      <c r="E163" s="70"/>
-      <c r="F163" s="70"/>
-      <c r="G163" s="70"/>
-      <c r="H163" s="70"/>
-      <c r="I163" s="70"/>
+      <c r="A163" s="71"/>
+      <c r="B163" s="71"/>
+      <c r="C163" s="71"/>
+      <c r="D163" s="71"/>
+      <c r="E163" s="71"/>
+      <c r="F163" s="71"/>
+      <c r="G163" s="71"/>
+      <c r="H163" s="71"/>
+      <c r="I163" s="71"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="70"/>
-      <c r="B164" s="70"/>
-      <c r="C164" s="70"/>
-      <c r="D164" s="70"/>
-      <c r="E164" s="70"/>
-      <c r="F164" s="70"/>
-      <c r="G164" s="70"/>
-      <c r="H164" s="70"/>
-      <c r="I164" s="70"/>
+      <c r="A164" s="71"/>
+      <c r="B164" s="71"/>
+      <c r="C164" s="71"/>
+      <c r="D164" s="71"/>
+      <c r="E164" s="71"/>
+      <c r="F164" s="71"/>
+      <c r="G164" s="71"/>
+      <c r="H164" s="71"/>
+      <c r="I164" s="71"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="70"/>
-      <c r="B165" s="70"/>
-      <c r="C165" s="70"/>
-      <c r="D165" s="70"/>
-      <c r="E165" s="70"/>
-      <c r="F165" s="70"/>
-      <c r="G165" s="70"/>
-      <c r="H165" s="70"/>
-      <c r="I165" s="70"/>
+      <c r="A165" s="71"/>
+      <c r="B165" s="71"/>
+      <c r="C165" s="71"/>
+      <c r="D165" s="71"/>
+      <c r="E165" s="71"/>
+      <c r="F165" s="71"/>
+      <c r="G165" s="71"/>
+      <c r="H165" s="71"/>
+      <c r="I165" s="71"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="70"/>
-      <c r="B166" s="70"/>
-      <c r="C166" s="70"/>
-      <c r="D166" s="70"/>
-      <c r="E166" s="70"/>
-      <c r="F166" s="70"/>
-      <c r="G166" s="70"/>
-      <c r="H166" s="70"/>
-      <c r="I166" s="70"/>
+      <c r="A166" s="71"/>
+      <c r="B166" s="71"/>
+      <c r="C166" s="71"/>
+      <c r="D166" s="71"/>
+      <c r="E166" s="71"/>
+      <c r="F166" s="71"/>
+      <c r="G166" s="71"/>
+      <c r="H166" s="71"/>
+      <c r="I166" s="71"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="70"/>
-      <c r="B167" s="70"/>
-      <c r="C167" s="70"/>
-      <c r="D167" s="70"/>
-      <c r="E167" s="70"/>
-      <c r="F167" s="70"/>
-      <c r="G167" s="70"/>
-      <c r="H167" s="70"/>
-      <c r="I167" s="70"/>
+      <c r="A167" s="71"/>
+      <c r="B167" s="71"/>
+      <c r="C167" s="71"/>
+      <c r="D167" s="71"/>
+      <c r="E167" s="71"/>
+      <c r="F167" s="71"/>
+      <c r="G167" s="71"/>
+      <c r="H167" s="71"/>
+      <c r="I167" s="71"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="70"/>
-      <c r="B168" s="70"/>
-      <c r="C168" s="70"/>
-      <c r="D168" s="70"/>
-      <c r="E168" s="70"/>
-      <c r="F168" s="70"/>
-      <c r="G168" s="70"/>
-      <c r="H168" s="70"/>
-      <c r="I168" s="70"/>
+      <c r="A168" s="71"/>
+      <c r="B168" s="71"/>
+      <c r="C168" s="71"/>
+      <c r="D168" s="71"/>
+      <c r="E168" s="71"/>
+      <c r="F168" s="71"/>
+      <c r="G168" s="71"/>
+      <c r="H168" s="71"/>
+      <c r="I168" s="71"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="70"/>
-      <c r="B169" s="70"/>
-      <c r="C169" s="70"/>
-      <c r="D169" s="70"/>
-      <c r="E169" s="70"/>
-      <c r="F169" s="70"/>
-      <c r="G169" s="70"/>
-      <c r="H169" s="70"/>
-      <c r="I169" s="70"/>
+      <c r="A169" s="71"/>
+      <c r="B169" s="71"/>
+      <c r="C169" s="71"/>
+      <c r="D169" s="71"/>
+      <c r="E169" s="71"/>
+      <c r="F169" s="71"/>
+      <c r="G169" s="71"/>
+      <c r="H169" s="71"/>
+      <c r="I169" s="71"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="70"/>
-      <c r="B170" s="70"/>
-      <c r="C170" s="70"/>
-      <c r="D170" s="70"/>
-      <c r="E170" s="70"/>
-      <c r="F170" s="70"/>
-      <c r="G170" s="70"/>
-      <c r="H170" s="70"/>
-      <c r="I170" s="70"/>
+      <c r="A170" s="71"/>
+      <c r="B170" s="71"/>
+      <c r="C170" s="71"/>
+      <c r="D170" s="71"/>
+      <c r="E170" s="71"/>
+      <c r="F170" s="71"/>
+      <c r="G170" s="71"/>
+      <c r="H170" s="71"/>
+      <c r="I170" s="71"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="70"/>
-      <c r="B171" s="70"/>
-      <c r="C171" s="70"/>
-      <c r="D171" s="70"/>
-      <c r="E171" s="70"/>
-      <c r="F171" s="70"/>
-      <c r="G171" s="70"/>
-      <c r="H171" s="70"/>
-      <c r="I171" s="70"/>
+      <c r="A171" s="71"/>
+      <c r="B171" s="71"/>
+      <c r="C171" s="71"/>
+      <c r="D171" s="71"/>
+      <c r="E171" s="71"/>
+      <c r="F171" s="71"/>
+      <c r="G171" s="71"/>
+      <c r="H171" s="71"/>
+      <c r="I171" s="71"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="70"/>
-      <c r="B172" s="70"/>
-      <c r="C172" s="70"/>
-      <c r="D172" s="70"/>
-      <c r="E172" s="70"/>
-      <c r="F172" s="70"/>
-      <c r="G172" s="70"/>
-      <c r="H172" s="70"/>
-      <c r="I172" s="70"/>
+      <c r="A172" s="71"/>
+      <c r="B172" s="71"/>
+      <c r="C172" s="71"/>
+      <c r="D172" s="71"/>
+      <c r="E172" s="71"/>
+      <c r="F172" s="71"/>
+      <c r="G172" s="71"/>
+      <c r="H172" s="71"/>
+      <c r="I172" s="71"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="70"/>
-      <c r="B173" s="70"/>
-      <c r="C173" s="70"/>
-      <c r="D173" s="70"/>
-      <c r="E173" s="70"/>
-      <c r="F173" s="70"/>
-      <c r="G173" s="70"/>
-      <c r="H173" s="70"/>
-      <c r="I173" s="70"/>
+      <c r="A173" s="71"/>
+      <c r="B173" s="71"/>
+      <c r="C173" s="71"/>
+      <c r="D173" s="71"/>
+      <c r="E173" s="71"/>
+      <c r="F173" s="71"/>
+      <c r="G173" s="71"/>
+      <c r="H173" s="71"/>
+      <c r="I173" s="71"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="70"/>
-      <c r="B174" s="70"/>
-      <c r="C174" s="70"/>
-      <c r="D174" s="70"/>
-      <c r="E174" s="70"/>
-      <c r="F174" s="70"/>
-      <c r="G174" s="70"/>
-      <c r="H174" s="70"/>
-      <c r="I174" s="70"/>
+      <c r="A174" s="71"/>
+      <c r="B174" s="71"/>
+      <c r="C174" s="71"/>
+      <c r="D174" s="71"/>
+      <c r="E174" s="71"/>
+      <c r="F174" s="71"/>
+      <c r="G174" s="71"/>
+      <c r="H174" s="71"/>
+      <c r="I174" s="71"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="70"/>
-      <c r="B175" s="70"/>
-      <c r="C175" s="70"/>
-      <c r="D175" s="70"/>
-      <c r="E175" s="70"/>
-      <c r="F175" s="70"/>
-      <c r="G175" s="70"/>
-      <c r="H175" s="70"/>
-      <c r="I175" s="70"/>
+      <c r="A175" s="71"/>
+      <c r="B175" s="71"/>
+      <c r="C175" s="71"/>
+      <c r="D175" s="71"/>
+      <c r="E175" s="71"/>
+      <c r="F175" s="71"/>
+      <c r="G175" s="71"/>
+      <c r="H175" s="71"/>
+      <c r="I175" s="71"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="70"/>
-      <c r="B176" s="70"/>
-      <c r="C176" s="70"/>
-      <c r="D176" s="70"/>
-      <c r="E176" s="70"/>
-      <c r="F176" s="70"/>
-      <c r="G176" s="70"/>
-      <c r="H176" s="70"/>
-      <c r="I176" s="70"/>
+      <c r="A176" s="71"/>
+      <c r="B176" s="71"/>
+      <c r="C176" s="71"/>
+      <c r="D176" s="71"/>
+      <c r="E176" s="71"/>
+      <c r="F176" s="71"/>
+      <c r="G176" s="71"/>
+      <c r="H176" s="71"/>
+      <c r="I176" s="71"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="70"/>
-      <c r="B177" s="70"/>
-      <c r="C177" s="70"/>
-      <c r="D177" s="70"/>
-      <c r="E177" s="70"/>
-      <c r="F177" s="70"/>
-      <c r="G177" s="70"/>
-      <c r="H177" s="70"/>
-      <c r="I177" s="70"/>
+      <c r="A177" s="71"/>
+      <c r="B177" s="71"/>
+      <c r="C177" s="71"/>
+      <c r="D177" s="71"/>
+      <c r="E177" s="71"/>
+      <c r="F177" s="71"/>
+      <c r="G177" s="71"/>
+      <c r="H177" s="71"/>
+      <c r="I177" s="71"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="70"/>
-      <c r="B178" s="70"/>
-      <c r="C178" s="70"/>
-      <c r="D178" s="70"/>
-      <c r="E178" s="70"/>
-      <c r="F178" s="70"/>
-      <c r="G178" s="70"/>
-      <c r="H178" s="70"/>
-      <c r="I178" s="70"/>
+      <c r="A178" s="71"/>
+      <c r="B178" s="71"/>
+      <c r="C178" s="71"/>
+      <c r="D178" s="71"/>
+      <c r="E178" s="71"/>
+      <c r="F178" s="71"/>
+      <c r="G178" s="71"/>
+      <c r="H178" s="71"/>
+      <c r="I178" s="71"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="70"/>
-      <c r="B179" s="70"/>
-      <c r="C179" s="70"/>
-      <c r="D179" s="70"/>
-      <c r="E179" s="70"/>
-      <c r="F179" s="70"/>
-      <c r="G179" s="70"/>
-      <c r="H179" s="70"/>
-      <c r="I179" s="70"/>
+      <c r="A179" s="71"/>
+      <c r="B179" s="71"/>
+      <c r="C179" s="71"/>
+      <c r="D179" s="71"/>
+      <c r="E179" s="71"/>
+      <c r="F179" s="71"/>
+      <c r="G179" s="71"/>
+      <c r="H179" s="71"/>
+      <c r="I179" s="71"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="70"/>
-      <c r="B180" s="70"/>
-      <c r="C180" s="70"/>
-      <c r="D180" s="70"/>
-      <c r="E180" s="70"/>
-      <c r="F180" s="70"/>
-      <c r="G180" s="70"/>
-      <c r="H180" s="70"/>
-      <c r="I180" s="70"/>
+      <c r="A180" s="71"/>
+      <c r="B180" s="71"/>
+      <c r="C180" s="71"/>
+      <c r="D180" s="71"/>
+      <c r="E180" s="71"/>
+      <c r="F180" s="71"/>
+      <c r="G180" s="71"/>
+      <c r="H180" s="71"/>
+      <c r="I180" s="71"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="70"/>
-      <c r="B181" s="70"/>
-      <c r="C181" s="70"/>
-      <c r="D181" s="70"/>
-      <c r="E181" s="70"/>
-      <c r="F181" s="70"/>
-      <c r="G181" s="70"/>
-      <c r="H181" s="70"/>
-      <c r="I181" s="70"/>
+      <c r="A181" s="71"/>
+      <c r="B181" s="71"/>
+      <c r="C181" s="71"/>
+      <c r="D181" s="71"/>
+      <c r="E181" s="71"/>
+      <c r="F181" s="71"/>
+      <c r="G181" s="71"/>
+      <c r="H181" s="71"/>
+      <c r="I181" s="71"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="70"/>
-      <c r="B182" s="70"/>
-      <c r="C182" s="70"/>
-      <c r="D182" s="70"/>
-      <c r="E182" s="70"/>
-      <c r="F182" s="70"/>
-      <c r="G182" s="70"/>
-      <c r="H182" s="70"/>
-      <c r="I182" s="70"/>
+      <c r="A182" s="71"/>
+      <c r="B182" s="71"/>
+      <c r="C182" s="71"/>
+      <c r="D182" s="71"/>
+      <c r="E182" s="71"/>
+      <c r="F182" s="71"/>
+      <c r="G182" s="71"/>
+      <c r="H182" s="71"/>
+      <c r="I182" s="71"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="70"/>
-      <c r="B183" s="70"/>
-      <c r="C183" s="70"/>
-      <c r="D183" s="70"/>
-      <c r="E183" s="70"/>
-      <c r="F183" s="70"/>
-      <c r="G183" s="70"/>
-      <c r="H183" s="70"/>
-      <c r="I183" s="70"/>
+      <c r="A183" s="71"/>
+      <c r="B183" s="71"/>
+      <c r="C183" s="71"/>
+      <c r="D183" s="71"/>
+      <c r="E183" s="71"/>
+      <c r="F183" s="71"/>
+      <c r="G183" s="71"/>
+      <c r="H183" s="71"/>
+      <c r="I183" s="71"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="70"/>
-      <c r="B184" s="70"/>
-      <c r="C184" s="70"/>
-      <c r="D184" s="70"/>
-      <c r="E184" s="70"/>
-      <c r="F184" s="70"/>
-      <c r="G184" s="70"/>
-      <c r="H184" s="70"/>
-      <c r="I184" s="70"/>
+      <c r="A184" s="71"/>
+      <c r="B184" s="71"/>
+      <c r="C184" s="71"/>
+      <c r="D184" s="71"/>
+      <c r="E184" s="71"/>
+      <c r="F184" s="71"/>
+      <c r="G184" s="71"/>
+      <c r="H184" s="71"/>
+      <c r="I184" s="71"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="70"/>
-      <c r="B185" s="70"/>
-      <c r="C185" s="70"/>
-      <c r="D185" s="70"/>
-      <c r="E185" s="70"/>
-      <c r="F185" s="70"/>
-      <c r="G185" s="70"/>
-      <c r="H185" s="70"/>
-      <c r="I185" s="70"/>
+      <c r="A185" s="71"/>
+      <c r="B185" s="71"/>
+      <c r="C185" s="71"/>
+      <c r="D185" s="71"/>
+      <c r="E185" s="71"/>
+      <c r="F185" s="71"/>
+      <c r="G185" s="71"/>
+      <c r="H185" s="71"/>
+      <c r="I185" s="71"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="70"/>
-      <c r="B186" s="70"/>
-      <c r="C186" s="70"/>
-      <c r="D186" s="70"/>
-      <c r="E186" s="70"/>
-      <c r="F186" s="70"/>
-      <c r="G186" s="70"/>
-      <c r="H186" s="70"/>
-      <c r="I186" s="70"/>
+      <c r="A186" s="71"/>
+      <c r="B186" s="71"/>
+      <c r="C186" s="71"/>
+      <c r="D186" s="71"/>
+      <c r="E186" s="71"/>
+      <c r="F186" s="71"/>
+      <c r="G186" s="71"/>
+      <c r="H186" s="71"/>
+      <c r="I186" s="71"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="70"/>
-      <c r="B187" s="70"/>
-      <c r="C187" s="70"/>
-      <c r="D187" s="70"/>
-      <c r="E187" s="70"/>
-      <c r="F187" s="70"/>
-      <c r="G187" s="70"/>
-      <c r="H187" s="70"/>
-      <c r="I187" s="70"/>
+      <c r="A187" s="71"/>
+      <c r="B187" s="71"/>
+      <c r="C187" s="71"/>
+      <c r="D187" s="71"/>
+      <c r="E187" s="71"/>
+      <c r="F187" s="71"/>
+      <c r="G187" s="71"/>
+      <c r="H187" s="71"/>
+      <c r="I187" s="71"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="70"/>
-      <c r="B188" s="70"/>
-      <c r="C188" s="70"/>
-      <c r="D188" s="70"/>
-      <c r="E188" s="70"/>
-      <c r="F188" s="70"/>
-      <c r="G188" s="70"/>
-      <c r="H188" s="70"/>
-      <c r="I188" s="70"/>
+      <c r="A188" s="71"/>
+      <c r="B188" s="71"/>
+      <c r="C188" s="71"/>
+      <c r="D188" s="71"/>
+      <c r="E188" s="71"/>
+      <c r="F188" s="71"/>
+      <c r="G188" s="71"/>
+      <c r="H188" s="71"/>
+      <c r="I188" s="71"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="70"/>
-      <c r="B189" s="70"/>
-      <c r="C189" s="70"/>
-      <c r="D189" s="70"/>
-      <c r="E189" s="70"/>
-      <c r="F189" s="70"/>
-      <c r="G189" s="70"/>
-      <c r="H189" s="70"/>
-      <c r="I189" s="70"/>
+      <c r="A189" s="71"/>
+      <c r="B189" s="71"/>
+      <c r="C189" s="71"/>
+      <c r="D189" s="71"/>
+      <c r="E189" s="71"/>
+      <c r="F189" s="71"/>
+      <c r="G189" s="71"/>
+      <c r="H189" s="71"/>
+      <c r="I189" s="71"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="70"/>
-      <c r="B190" s="70"/>
-      <c r="C190" s="70"/>
-      <c r="D190" s="70"/>
-      <c r="E190" s="70"/>
-      <c r="F190" s="70"/>
-      <c r="G190" s="70"/>
-      <c r="H190" s="70"/>
-      <c r="I190" s="70"/>
+      <c r="A190" s="71"/>
+      <c r="B190" s="71"/>
+      <c r="C190" s="71"/>
+      <c r="D190" s="71"/>
+      <c r="E190" s="71"/>
+      <c r="F190" s="71"/>
+      <c r="G190" s="71"/>
+      <c r="H190" s="71"/>
+      <c r="I190" s="71"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="70"/>
-      <c r="B191" s="70"/>
-      <c r="C191" s="70"/>
-      <c r="D191" s="70"/>
-      <c r="E191" s="70"/>
-      <c r="F191" s="70"/>
-      <c r="G191" s="70"/>
-      <c r="H191" s="70"/>
-      <c r="I191" s="70"/>
+      <c r="A191" s="71"/>
+      <c r="B191" s="71"/>
+      <c r="C191" s="71"/>
+      <c r="D191" s="71"/>
+      <c r="E191" s="71"/>
+      <c r="F191" s="71"/>
+      <c r="G191" s="71"/>
+      <c r="H191" s="71"/>
+      <c r="I191" s="71"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="70"/>
-      <c r="B192" s="70"/>
-      <c r="C192" s="70"/>
-      <c r="D192" s="70"/>
-      <c r="E192" s="70"/>
-      <c r="F192" s="70"/>
-      <c r="G192" s="70"/>
-      <c r="H192" s="70"/>
-      <c r="I192" s="70"/>
+      <c r="A192" s="71"/>
+      <c r="B192" s="71"/>
+      <c r="C192" s="71"/>
+      <c r="D192" s="71"/>
+      <c r="E192" s="71"/>
+      <c r="F192" s="71"/>
+      <c r="G192" s="71"/>
+      <c r="H192" s="71"/>
+      <c r="I192" s="71"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="70"/>
-      <c r="B193" s="70"/>
-      <c r="C193" s="70"/>
-      <c r="D193" s="70"/>
-      <c r="E193" s="70"/>
-      <c r="F193" s="70"/>
-      <c r="G193" s="70"/>
-      <c r="H193" s="70"/>
-      <c r="I193" s="70"/>
+      <c r="A193" s="71"/>
+      <c r="B193" s="71"/>
+      <c r="C193" s="71"/>
+      <c r="D193" s="71"/>
+      <c r="E193" s="71"/>
+      <c r="F193" s="71"/>
+      <c r="G193" s="71"/>
+      <c r="H193" s="71"/>
+      <c r="I193" s="71"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="70"/>
-      <c r="B194" s="70"/>
-      <c r="C194" s="70"/>
-      <c r="D194" s="70"/>
-      <c r="E194" s="70"/>
-      <c r="F194" s="70"/>
-      <c r="G194" s="70"/>
-      <c r="H194" s="70"/>
-      <c r="I194" s="70"/>
+      <c r="A194" s="71"/>
+      <c r="B194" s="71"/>
+      <c r="C194" s="71"/>
+      <c r="D194" s="71"/>
+      <c r="E194" s="71"/>
+      <c r="F194" s="71"/>
+      <c r="G194" s="71"/>
+      <c r="H194" s="71"/>
+      <c r="I194" s="71"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="70"/>
-      <c r="B195" s="70"/>
-      <c r="C195" s="70"/>
-      <c r="D195" s="70"/>
-      <c r="E195" s="70"/>
-      <c r="F195" s="70"/>
-      <c r="G195" s="70"/>
-      <c r="H195" s="70"/>
-      <c r="I195" s="70"/>
+      <c r="A195" s="71"/>
+      <c r="B195" s="71"/>
+      <c r="C195" s="71"/>
+      <c r="D195" s="71"/>
+      <c r="E195" s="71"/>
+      <c r="F195" s="71"/>
+      <c r="G195" s="71"/>
+      <c r="H195" s="71"/>
+      <c r="I195" s="71"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="70"/>
-      <c r="B196" s="70"/>
-      <c r="C196" s="70"/>
-      <c r="D196" s="70"/>
-      <c r="E196" s="70"/>
-      <c r="F196" s="70"/>
-      <c r="G196" s="70"/>
-      <c r="H196" s="70"/>
-      <c r="I196" s="70"/>
+      <c r="A196" s="71"/>
+      <c r="B196" s="71"/>
+      <c r="C196" s="71"/>
+      <c r="D196" s="71"/>
+      <c r="E196" s="71"/>
+      <c r="F196" s="71"/>
+      <c r="G196" s="71"/>
+      <c r="H196" s="71"/>
+      <c r="I196" s="71"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="70"/>
-      <c r="B197" s="70"/>
-      <c r="C197" s="70"/>
-      <c r="D197" s="70"/>
-      <c r="E197" s="70"/>
-      <c r="F197" s="70"/>
-      <c r="G197" s="70"/>
-      <c r="H197" s="70"/>
-      <c r="I197" s="70"/>
+      <c r="A197" s="71"/>
+      <c r="B197" s="71"/>
+      <c r="C197" s="71"/>
+      <c r="D197" s="71"/>
+      <c r="E197" s="71"/>
+      <c r="F197" s="71"/>
+      <c r="G197" s="71"/>
+      <c r="H197" s="71"/>
+      <c r="I197" s="71"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="70"/>
-      <c r="B198" s="70"/>
-      <c r="C198" s="70"/>
-      <c r="D198" s="70"/>
-      <c r="E198" s="70"/>
-      <c r="F198" s="70"/>
-      <c r="G198" s="70"/>
-      <c r="H198" s="70"/>
-      <c r="I198" s="70"/>
+      <c r="A198" s="71"/>
+      <c r="B198" s="71"/>
+      <c r="C198" s="71"/>
+      <c r="D198" s="71"/>
+      <c r="E198" s="71"/>
+      <c r="F198" s="71"/>
+      <c r="G198" s="71"/>
+      <c r="H198" s="71"/>
+      <c r="I198" s="71"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="70"/>
-      <c r="B199" s="70"/>
-      <c r="C199" s="70"/>
-      <c r="D199" s="70"/>
-      <c r="E199" s="70"/>
-      <c r="F199" s="70"/>
-      <c r="G199" s="70"/>
-      <c r="H199" s="70"/>
-      <c r="I199" s="70"/>
+      <c r="A199" s="71"/>
+      <c r="B199" s="71"/>
+      <c r="C199" s="71"/>
+      <c r="D199" s="71"/>
+      <c r="E199" s="71"/>
+      <c r="F199" s="71"/>
+      <c r="G199" s="71"/>
+      <c r="H199" s="71"/>
+      <c r="I199" s="71"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="70"/>
-      <c r="B200" s="70"/>
-      <c r="C200" s="70"/>
-      <c r="D200" s="70"/>
-      <c r="E200" s="70"/>
-      <c r="F200" s="70"/>
-      <c r="G200" s="70"/>
-      <c r="H200" s="70"/>
-      <c r="I200" s="70"/>
+      <c r="A200" s="71"/>
+      <c r="B200" s="71"/>
+      <c r="C200" s="71"/>
+      <c r="D200" s="71"/>
+      <c r="E200" s="71"/>
+      <c r="F200" s="71"/>
+      <c r="G200" s="71"/>
+      <c r="H200" s="71"/>
+      <c r="I200" s="71"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="70"/>
-      <c r="B201" s="70"/>
-      <c r="C201" s="70"/>
-      <c r="D201" s="70"/>
-      <c r="E201" s="70"/>
-      <c r="F201" s="70"/>
-      <c r="G201" s="70"/>
-      <c r="H201" s="70"/>
-      <c r="I201" s="70"/>
+      <c r="A201" s="71"/>
+      <c r="B201" s="71"/>
+      <c r="C201" s="71"/>
+      <c r="D201" s="71"/>
+      <c r="E201" s="71"/>
+      <c r="F201" s="71"/>
+      <c r="G201" s="71"/>
+      <c r="H201" s="71"/>
+      <c r="I201" s="71"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="70"/>
-      <c r="B202" s="70"/>
-      <c r="C202" s="70"/>
-      <c r="D202" s="70"/>
-      <c r="E202" s="70"/>
-      <c r="F202" s="70"/>
-      <c r="G202" s="70"/>
-      <c r="H202" s="70"/>
-      <c r="I202" s="70"/>
+      <c r="A202" s="71"/>
+      <c r="B202" s="71"/>
+      <c r="C202" s="71"/>
+      <c r="D202" s="71"/>
+      <c r="E202" s="71"/>
+      <c r="F202" s="71"/>
+      <c r="G202" s="71"/>
+      <c r="H202" s="71"/>
+      <c r="I202" s="71"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="70"/>
-      <c r="B203" s="70"/>
-      <c r="C203" s="70"/>
-      <c r="D203" s="70"/>
-      <c r="E203" s="70"/>
-      <c r="F203" s="70"/>
-      <c r="G203" s="70"/>
-      <c r="H203" s="70"/>
-      <c r="I203" s="70"/>
+      <c r="A203" s="71"/>
+      <c r="B203" s="71"/>
+      <c r="C203" s="71"/>
+      <c r="D203" s="71"/>
+      <c r="E203" s="71"/>
+      <c r="F203" s="71"/>
+      <c r="G203" s="71"/>
+      <c r="H203" s="71"/>
+      <c r="I203" s="71"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="70"/>
-      <c r="B204" s="70"/>
-      <c r="C204" s="70"/>
-      <c r="D204" s="70"/>
-      <c r="E204" s="70"/>
-      <c r="F204" s="70"/>
-      <c r="G204" s="70"/>
-      <c r="H204" s="70"/>
-      <c r="I204" s="70"/>
+      <c r="A204" s="71"/>
+      <c r="B204" s="71"/>
+      <c r="C204" s="71"/>
+      <c r="D204" s="71"/>
+      <c r="E204" s="71"/>
+      <c r="F204" s="71"/>
+      <c r="G204" s="71"/>
+      <c r="H204" s="71"/>
+      <c r="I204" s="71"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="70"/>
-      <c r="B205" s="70"/>
-      <c r="C205" s="70"/>
-      <c r="D205" s="70"/>
-      <c r="E205" s="70"/>
-      <c r="F205" s="70"/>
-      <c r="G205" s="70"/>
-      <c r="H205" s="70"/>
-      <c r="I205" s="70"/>
+      <c r="A205" s="71"/>
+      <c r="B205" s="71"/>
+      <c r="C205" s="71"/>
+      <c r="D205" s="71"/>
+      <c r="E205" s="71"/>
+      <c r="F205" s="71"/>
+      <c r="G205" s="71"/>
+      <c r="H205" s="71"/>
+      <c r="I205" s="71"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="70"/>
-      <c r="B206" s="70"/>
-      <c r="C206" s="70"/>
-      <c r="D206" s="70"/>
-      <c r="E206" s="70"/>
-      <c r="F206" s="70"/>
-      <c r="G206" s="70"/>
-      <c r="H206" s="70"/>
-      <c r="I206" s="70"/>
+      <c r="A206" s="71"/>
+      <c r="B206" s="71"/>
+      <c r="C206" s="71"/>
+      <c r="D206" s="71"/>
+      <c r="E206" s="71"/>
+      <c r="F206" s="71"/>
+      <c r="G206" s="71"/>
+      <c r="H206" s="71"/>
+      <c r="I206" s="71"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="70"/>
-      <c r="B207" s="70"/>
-      <c r="C207" s="70"/>
-      <c r="D207" s="70"/>
-      <c r="E207" s="70"/>
-      <c r="F207" s="70"/>
-      <c r="G207" s="70"/>
-      <c r="H207" s="70"/>
-      <c r="I207" s="70"/>
+      <c r="A207" s="71"/>
+      <c r="B207" s="71"/>
+      <c r="C207" s="71"/>
+      <c r="D207" s="71"/>
+      <c r="E207" s="71"/>
+      <c r="F207" s="71"/>
+      <c r="G207" s="71"/>
+      <c r="H207" s="71"/>
+      <c r="I207" s="71"/>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="70"/>
-      <c r="B208" s="70"/>
-      <c r="C208" s="70"/>
-      <c r="D208" s="70"/>
-      <c r="E208" s="70"/>
-      <c r="F208" s="70"/>
-      <c r="G208" s="70"/>
-      <c r="H208" s="70"/>
-      <c r="I208" s="70"/>
+      <c r="A208" s="71"/>
+      <c r="B208" s="71"/>
+      <c r="C208" s="71"/>
+      <c r="D208" s="71"/>
+      <c r="E208" s="71"/>
+      <c r="F208" s="71"/>
+      <c r="G208" s="71"/>
+      <c r="H208" s="71"/>
+      <c r="I208" s="71"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="70"/>
-      <c r="B209" s="70"/>
-      <c r="C209" s="70"/>
-      <c r="D209" s="70"/>
-      <c r="E209" s="70"/>
-      <c r="F209" s="70"/>
-      <c r="G209" s="70"/>
-      <c r="H209" s="70"/>
-      <c r="I209" s="70"/>
+      <c r="A209" s="71"/>
+      <c r="B209" s="71"/>
+      <c r="C209" s="71"/>
+      <c r="D209" s="71"/>
+      <c r="E209" s="71"/>
+      <c r="F209" s="71"/>
+      <c r="G209" s="71"/>
+      <c r="H209" s="71"/>
+      <c r="I209" s="71"/>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="70"/>
-      <c r="B210" s="70"/>
-      <c r="C210" s="70"/>
-      <c r="D210" s="70"/>
-      <c r="E210" s="70"/>
-      <c r="F210" s="70"/>
-      <c r="G210" s="70"/>
-      <c r="H210" s="70"/>
-      <c r="I210" s="70"/>
+      <c r="A210" s="71"/>
+      <c r="B210" s="71"/>
+      <c r="C210" s="71"/>
+      <c r="D210" s="71"/>
+      <c r="E210" s="71"/>
+      <c r="F210" s="71"/>
+      <c r="G210" s="71"/>
+      <c r="H210" s="71"/>
+      <c r="I210" s="71"/>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="70"/>
-      <c r="B211" s="70"/>
-      <c r="C211" s="70"/>
-      <c r="D211" s="70"/>
-      <c r="E211" s="70"/>
-      <c r="F211" s="70"/>
-      <c r="G211" s="70"/>
-      <c r="H211" s="70"/>
-      <c r="I211" s="70"/>
+      <c r="A211" s="71"/>
+      <c r="B211" s="71"/>
+      <c r="C211" s="71"/>
+      <c r="D211" s="71"/>
+      <c r="E211" s="71"/>
+      <c r="F211" s="71"/>
+      <c r="G211" s="71"/>
+      <c r="H211" s="71"/>
+      <c r="I211" s="71"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="70"/>
-      <c r="B212" s="70"/>
-      <c r="C212" s="70"/>
-      <c r="D212" s="70"/>
-      <c r="E212" s="70"/>
-      <c r="F212" s="70"/>
-      <c r="G212" s="70"/>
-      <c r="H212" s="70"/>
-      <c r="I212" s="70"/>
+      <c r="A212" s="71"/>
+      <c r="B212" s="71"/>
+      <c r="C212" s="71"/>
+      <c r="D212" s="71"/>
+      <c r="E212" s="71"/>
+      <c r="F212" s="71"/>
+      <c r="G212" s="71"/>
+      <c r="H212" s="71"/>
+      <c r="I212" s="71"/>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="70"/>
-      <c r="B213" s="70"/>
-      <c r="C213" s="70"/>
-      <c r="D213" s="70"/>
-      <c r="E213" s="70"/>
-      <c r="F213" s="70"/>
-      <c r="G213" s="70"/>
-      <c r="H213" s="70"/>
-      <c r="I213" s="70"/>
+      <c r="A213" s="71"/>
+      <c r="B213" s="71"/>
+      <c r="C213" s="71"/>
+      <c r="D213" s="71"/>
+      <c r="E213" s="71"/>
+      <c r="F213" s="71"/>
+      <c r="G213" s="71"/>
+      <c r="H213" s="71"/>
+      <c r="I213" s="71"/>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="70"/>
-      <c r="B214" s="70"/>
-      <c r="C214" s="70"/>
-      <c r="D214" s="70"/>
-      <c r="E214" s="70"/>
-      <c r="F214" s="70"/>
-      <c r="G214" s="70"/>
-      <c r="H214" s="70"/>
-      <c r="I214" s="70"/>
+      <c r="A214" s="71"/>
+      <c r="B214" s="71"/>
+      <c r="C214" s="71"/>
+      <c r="D214" s="71"/>
+      <c r="E214" s="71"/>
+      <c r="F214" s="71"/>
+      <c r="G214" s="71"/>
+      <c r="H214" s="71"/>
+      <c r="I214" s="71"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="70"/>
-      <c r="B215" s="70"/>
-      <c r="C215" s="70"/>
-      <c r="D215" s="70"/>
-      <c r="E215" s="70"/>
-      <c r="F215" s="70"/>
-      <c r="G215" s="70"/>
-      <c r="H215" s="70"/>
-      <c r="I215" s="70"/>
+      <c r="A215" s="71"/>
+      <c r="B215" s="71"/>
+      <c r="C215" s="71"/>
+      <c r="D215" s="71"/>
+      <c r="E215" s="71"/>
+      <c r="F215" s="71"/>
+      <c r="G215" s="71"/>
+      <c r="H215" s="71"/>
+      <c r="I215" s="71"/>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="70"/>
-      <c r="B216" s="70"/>
-      <c r="C216" s="70"/>
-      <c r="D216" s="70"/>
-      <c r="E216" s="70"/>
-      <c r="F216" s="70"/>
-      <c r="G216" s="70"/>
-      <c r="H216" s="70"/>
-      <c r="I216" s="70"/>
+      <c r="A216" s="71"/>
+      <c r="B216" s="71"/>
+      <c r="C216" s="71"/>
+      <c r="D216" s="71"/>
+      <c r="E216" s="71"/>
+      <c r="F216" s="71"/>
+      <c r="G216" s="71"/>
+      <c r="H216" s="71"/>
+      <c r="I216" s="71"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="70"/>
-      <c r="B217" s="70"/>
-      <c r="C217" s="70"/>
-      <c r="D217" s="70"/>
-      <c r="E217" s="70"/>
-      <c r="F217" s="70"/>
-      <c r="G217" s="70"/>
-      <c r="H217" s="70"/>
-      <c r="I217" s="70"/>
+      <c r="A217" s="71"/>
+      <c r="B217" s="71"/>
+      <c r="C217" s="71"/>
+      <c r="D217" s="71"/>
+      <c r="E217" s="71"/>
+      <c r="F217" s="71"/>
+      <c r="G217" s="71"/>
+      <c r="H217" s="71"/>
+      <c r="I217" s="71"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="70"/>
-      <c r="B218" s="70"/>
-      <c r="C218" s="70"/>
-      <c r="D218" s="70"/>
-      <c r="E218" s="70"/>
-      <c r="F218" s="70"/>
-      <c r="G218" s="70"/>
-      <c r="H218" s="70"/>
-      <c r="I218" s="70"/>
+      <c r="A218" s="71"/>
+      <c r="B218" s="71"/>
+      <c r="C218" s="71"/>
+      <c r="D218" s="71"/>
+      <c r="E218" s="71"/>
+      <c r="F218" s="71"/>
+      <c r="G218" s="71"/>
+      <c r="H218" s="71"/>
+      <c r="I218" s="71"/>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="70"/>
-      <c r="B219" s="70"/>
-      <c r="C219" s="70"/>
-      <c r="D219" s="70"/>
-      <c r="E219" s="70"/>
-      <c r="F219" s="70"/>
-      <c r="G219" s="70"/>
-      <c r="H219" s="70"/>
-      <c r="I219" s="70"/>
+      <c r="A219" s="71"/>
+      <c r="B219" s="71"/>
+      <c r="C219" s="71"/>
+      <c r="D219" s="71"/>
+      <c r="E219" s="71"/>
+      <c r="F219" s="71"/>
+      <c r="G219" s="71"/>
+      <c r="H219" s="71"/>
+      <c r="I219" s="71"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="70"/>
-      <c r="B220" s="70"/>
-      <c r="C220" s="70"/>
-      <c r="D220" s="70"/>
-      <c r="E220" s="70"/>
-      <c r="F220" s="70"/>
-      <c r="G220" s="70"/>
-      <c r="H220" s="70"/>
-      <c r="I220" s="70"/>
+      <c r="A220" s="71"/>
+      <c r="B220" s="71"/>
+      <c r="C220" s="71"/>
+      <c r="D220" s="71"/>
+      <c r="E220" s="71"/>
+      <c r="F220" s="71"/>
+      <c r="G220" s="71"/>
+      <c r="H220" s="71"/>
+      <c r="I220" s="71"/>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="70"/>
-      <c r="B221" s="70"/>
-      <c r="C221" s="70"/>
-      <c r="D221" s="70"/>
-      <c r="E221" s="70"/>
-      <c r="F221" s="70"/>
-      <c r="G221" s="70"/>
-      <c r="H221" s="70"/>
-      <c r="I221" s="70"/>
+      <c r="A221" s="71"/>
+      <c r="B221" s="71"/>
+      <c r="C221" s="71"/>
+      <c r="D221" s="71"/>
+      <c r="E221" s="71"/>
+      <c r="F221" s="71"/>
+      <c r="G221" s="71"/>
+      <c r="H221" s="71"/>
+      <c r="I221" s="71"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="70"/>
-      <c r="B222" s="70"/>
-      <c r="C222" s="70"/>
-      <c r="D222" s="70"/>
-      <c r="E222" s="70"/>
-      <c r="F222" s="70"/>
-      <c r="G222" s="70"/>
-      <c r="H222" s="70"/>
-      <c r="I222" s="70"/>
+      <c r="A222" s="71"/>
+      <c r="B222" s="71"/>
+      <c r="C222" s="71"/>
+      <c r="D222" s="71"/>
+      <c r="E222" s="71"/>
+      <c r="F222" s="71"/>
+      <c r="G222" s="71"/>
+      <c r="H222" s="71"/>
+      <c r="I222" s="71"/>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="70"/>
-      <c r="B223" s="70"/>
-      <c r="C223" s="70"/>
-      <c r="D223" s="70"/>
-      <c r="E223" s="70"/>
-      <c r="F223" s="70"/>
-      <c r="G223" s="70"/>
-      <c r="H223" s="70"/>
-      <c r="I223" s="70"/>
+      <c r="A223" s="71"/>
+      <c r="B223" s="71"/>
+      <c r="C223" s="71"/>
+      <c r="D223" s="71"/>
+      <c r="E223" s="71"/>
+      <c r="F223" s="71"/>
+      <c r="G223" s="71"/>
+      <c r="H223" s="71"/>
+      <c r="I223" s="71"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="70"/>
-      <c r="B224" s="70"/>
-      <c r="C224" s="70"/>
-      <c r="D224" s="70"/>
-      <c r="E224" s="70"/>
-      <c r="F224" s="70"/>
-      <c r="G224" s="70"/>
-      <c r="H224" s="70"/>
-      <c r="I224" s="70"/>
+      <c r="A224" s="71"/>
+      <c r="B224" s="71"/>
+      <c r="C224" s="71"/>
+      <c r="D224" s="71"/>
+      <c r="E224" s="71"/>
+      <c r="F224" s="71"/>
+      <c r="G224" s="71"/>
+      <c r="H224" s="71"/>
+      <c r="I224" s="71"/>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="70"/>
-      <c r="B225" s="70"/>
-      <c r="C225" s="70"/>
-      <c r="D225" s="70"/>
-      <c r="E225" s="70"/>
-      <c r="F225" s="70"/>
-      <c r="G225" s="70"/>
-      <c r="H225" s="70"/>
-      <c r="I225" s="70"/>
+      <c r="A225" s="71"/>
+      <c r="B225" s="71"/>
+      <c r="C225" s="71"/>
+      <c r="D225" s="71"/>
+      <c r="E225" s="71"/>
+      <c r="F225" s="71"/>
+      <c r="G225" s="71"/>
+      <c r="H225" s="71"/>
+      <c r="I225" s="71"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="70"/>
-      <c r="B226" s="70"/>
-      <c r="C226" s="70"/>
-      <c r="D226" s="70"/>
-      <c r="E226" s="70"/>
-      <c r="F226" s="70"/>
-      <c r="G226" s="70"/>
-      <c r="H226" s="70"/>
-      <c r="I226" s="70"/>
+      <c r="A226" s="71"/>
+      <c r="B226" s="71"/>
+      <c r="C226" s="71"/>
+      <c r="D226" s="71"/>
+      <c r="E226" s="71"/>
+      <c r="F226" s="71"/>
+      <c r="G226" s="71"/>
+      <c r="H226" s="71"/>
+      <c r="I226" s="71"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="70"/>
-      <c r="B227" s="70"/>
-      <c r="C227" s="70"/>
-      <c r="D227" s="70"/>
-      <c r="E227" s="70"/>
-      <c r="F227" s="70"/>
-      <c r="G227" s="70"/>
-      <c r="H227" s="70"/>
-      <c r="I227" s="70"/>
+      <c r="A227" s="71"/>
+      <c r="B227" s="71"/>
+      <c r="C227" s="71"/>
+      <c r="D227" s="71"/>
+      <c r="E227" s="71"/>
+      <c r="F227" s="71"/>
+      <c r="G227" s="71"/>
+      <c r="H227" s="71"/>
+      <c r="I227" s="71"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="70"/>
-      <c r="B228" s="70"/>
-      <c r="C228" s="70"/>
-      <c r="D228" s="70"/>
-      <c r="E228" s="70"/>
-      <c r="F228" s="70"/>
-      <c r="G228" s="70"/>
-      <c r="H228" s="70"/>
-      <c r="I228" s="70"/>
+      <c r="A228" s="71"/>
+      <c r="B228" s="71"/>
+      <c r="C228" s="71"/>
+      <c r="D228" s="71"/>
+      <c r="E228" s="71"/>
+      <c r="F228" s="71"/>
+      <c r="G228" s="71"/>
+      <c r="H228" s="71"/>
+      <c r="I228" s="71"/>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="70"/>
-      <c r="B229" s="70"/>
-      <c r="C229" s="70"/>
-      <c r="D229" s="70"/>
-      <c r="E229" s="70"/>
-      <c r="F229" s="70"/>
-      <c r="G229" s="70"/>
-      <c r="H229" s="70"/>
-      <c r="I229" s="70"/>
+      <c r="A229" s="71"/>
+      <c r="B229" s="71"/>
+      <c r="C229" s="71"/>
+      <c r="D229" s="71"/>
+      <c r="E229" s="71"/>
+      <c r="F229" s="71"/>
+      <c r="G229" s="71"/>
+      <c r="H229" s="71"/>
+      <c r="I229" s="71"/>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="70"/>
-      <c r="B230" s="70"/>
-      <c r="C230" s="70"/>
-      <c r="D230" s="70"/>
-      <c r="E230" s="70"/>
-      <c r="F230" s="70"/>
-      <c r="G230" s="70"/>
-      <c r="H230" s="70"/>
-      <c r="I230" s="70"/>
+      <c r="A230" s="71"/>
+      <c r="B230" s="71"/>
+      <c r="C230" s="71"/>
+      <c r="D230" s="71"/>
+      <c r="E230" s="71"/>
+      <c r="F230" s="71"/>
+      <c r="G230" s="71"/>
+      <c r="H230" s="71"/>
+      <c r="I230" s="71"/>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="70"/>
-      <c r="B231" s="70"/>
-      <c r="C231" s="70"/>
-      <c r="D231" s="70"/>
-      <c r="E231" s="70"/>
-      <c r="F231" s="70"/>
-      <c r="G231" s="70"/>
-      <c r="H231" s="70"/>
-      <c r="I231" s="70"/>
+      <c r="A231" s="71"/>
+      <c r="B231" s="71"/>
+      <c r="C231" s="71"/>
+      <c r="D231" s="71"/>
+      <c r="E231" s="71"/>
+      <c r="F231" s="71"/>
+      <c r="G231" s="71"/>
+      <c r="H231" s="71"/>
+      <c r="I231" s="71"/>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="70"/>
-      <c r="B232" s="70"/>
-      <c r="C232" s="70"/>
-      <c r="D232" s="70"/>
-      <c r="E232" s="70"/>
-      <c r="F232" s="70"/>
-      <c r="G232" s="70"/>
-      <c r="H232" s="70"/>
-      <c r="I232" s="70"/>
+      <c r="A232" s="71"/>
+      <c r="B232" s="71"/>
+      <c r="C232" s="71"/>
+      <c r="D232" s="71"/>
+      <c r="E232" s="71"/>
+      <c r="F232" s="71"/>
+      <c r="G232" s="71"/>
+      <c r="H232" s="71"/>
+      <c r="I232" s="71"/>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="70"/>
-      <c r="B233" s="70"/>
-      <c r="C233" s="70"/>
-      <c r="D233" s="70"/>
-      <c r="E233" s="70"/>
-      <c r="F233" s="70"/>
-      <c r="G233" s="70"/>
-      <c r="H233" s="70"/>
-      <c r="I233" s="70"/>
+      <c r="A233" s="71"/>
+      <c r="B233" s="71"/>
+      <c r="C233" s="71"/>
+      <c r="D233" s="71"/>
+      <c r="E233" s="71"/>
+      <c r="F233" s="71"/>
+      <c r="G233" s="71"/>
+      <c r="H233" s="71"/>
+      <c r="I233" s="71"/>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="70"/>
-      <c r="B234" s="70"/>
-      <c r="C234" s="70"/>
-      <c r="D234" s="70"/>
-      <c r="E234" s="70"/>
-      <c r="F234" s="70"/>
-      <c r="G234" s="70"/>
-      <c r="H234" s="70"/>
-      <c r="I234" s="70"/>
+      <c r="A234" s="71"/>
+      <c r="B234" s="71"/>
+      <c r="C234" s="71"/>
+      <c r="D234" s="71"/>
+      <c r="E234" s="71"/>
+      <c r="F234" s="71"/>
+      <c r="G234" s="71"/>
+      <c r="H234" s="71"/>
+      <c r="I234" s="71"/>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="70"/>
-      <c r="B235" s="70"/>
-      <c r="C235" s="70"/>
-      <c r="D235" s="70"/>
-      <c r="E235" s="70"/>
-      <c r="F235" s="70"/>
-      <c r="G235" s="70"/>
-      <c r="H235" s="70"/>
-      <c r="I235" s="70"/>
+      <c r="A235" s="71"/>
+      <c r="B235" s="71"/>
+      <c r="C235" s="71"/>
+      <c r="D235" s="71"/>
+      <c r="E235" s="71"/>
+      <c r="F235" s="71"/>
+      <c r="G235" s="71"/>
+      <c r="H235" s="71"/>
+      <c r="I235" s="71"/>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="70"/>
-      <c r="B236" s="70"/>
-      <c r="C236" s="70"/>
-      <c r="D236" s="70"/>
-      <c r="E236" s="70"/>
-      <c r="F236" s="70"/>
-      <c r="G236" s="70"/>
-      <c r="H236" s="70"/>
-      <c r="I236" s="70"/>
+      <c r="A236" s="71"/>
+      <c r="B236" s="71"/>
+      <c r="C236" s="71"/>
+      <c r="D236" s="71"/>
+      <c r="E236" s="71"/>
+      <c r="F236" s="71"/>
+      <c r="G236" s="71"/>
+      <c r="H236" s="71"/>
+      <c r="I236" s="71"/>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="70"/>
-      <c r="B237" s="70"/>
-      <c r="C237" s="70"/>
-      <c r="D237" s="70"/>
-      <c r="E237" s="70"/>
-      <c r="F237" s="70"/>
-      <c r="G237" s="70"/>
-      <c r="H237" s="70"/>
-      <c r="I237" s="70"/>
+      <c r="A237" s="71"/>
+      <c r="B237" s="71"/>
+      <c r="C237" s="71"/>
+      <c r="D237" s="71"/>
+      <c r="E237" s="71"/>
+      <c r="F237" s="71"/>
+      <c r="G237" s="71"/>
+      <c r="H237" s="71"/>
+      <c r="I237" s="71"/>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="70"/>
-      <c r="B238" s="70"/>
-      <c r="C238" s="70"/>
-      <c r="D238" s="70"/>
-      <c r="E238" s="70"/>
-      <c r="F238" s="70"/>
-      <c r="G238" s="70"/>
-      <c r="H238" s="70"/>
-      <c r="I238" s="70"/>
+      <c r="A238" s="71"/>
+      <c r="B238" s="71"/>
+      <c r="C238" s="71"/>
+      <c r="D238" s="71"/>
+      <c r="E238" s="71"/>
+      <c r="F238" s="71"/>
+      <c r="G238" s="71"/>
+      <c r="H238" s="71"/>
+      <c r="I238" s="71"/>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="70"/>
-      <c r="B239" s="70"/>
-      <c r="C239" s="70"/>
-      <c r="D239" s="70"/>
-      <c r="E239" s="70"/>
-      <c r="F239" s="70"/>
-      <c r="G239" s="70"/>
-      <c r="H239" s="70"/>
-      <c r="I239" s="70"/>
+      <c r="A239" s="71"/>
+      <c r="B239" s="71"/>
+      <c r="C239" s="71"/>
+      <c r="D239" s="71"/>
+      <c r="E239" s="71"/>
+      <c r="F239" s="71"/>
+      <c r="G239" s="71"/>
+      <c r="H239" s="71"/>
+      <c r="I239" s="71"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="70"/>
-      <c r="B240" s="70"/>
-      <c r="C240" s="70"/>
-      <c r="D240" s="70"/>
-      <c r="E240" s="70"/>
-      <c r="F240" s="70"/>
-      <c r="G240" s="70"/>
-      <c r="H240" s="70"/>
-      <c r="I240" s="70"/>
+      <c r="A240" s="71"/>
+      <c r="B240" s="71"/>
+      <c r="C240" s="71"/>
+      <c r="D240" s="71"/>
+      <c r="E240" s="71"/>
+      <c r="F240" s="71"/>
+      <c r="G240" s="71"/>
+      <c r="H240" s="71"/>
+      <c r="I240" s="71"/>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="70"/>
-      <c r="B241" s="70"/>
-      <c r="C241" s="70"/>
-      <c r="D241" s="70"/>
-      <c r="E241" s="70"/>
-      <c r="F241" s="70"/>
-      <c r="G241" s="70"/>
-      <c r="H241" s="70"/>
-      <c r="I241" s="70"/>
+      <c r="A241" s="71"/>
+      <c r="B241" s="71"/>
+      <c r="C241" s="71"/>
+      <c r="D241" s="71"/>
+      <c r="E241" s="71"/>
+      <c r="F241" s="71"/>
+      <c r="G241" s="71"/>
+      <c r="H241" s="71"/>
+      <c r="I241" s="71"/>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="70"/>
-      <c r="B242" s="70"/>
-      <c r="C242" s="70"/>
-      <c r="D242" s="70"/>
-      <c r="E242" s="70"/>
-      <c r="F242" s="70"/>
-      <c r="G242" s="70"/>
-      <c r="H242" s="70"/>
-      <c r="I242" s="70"/>
+      <c r="A242" s="71"/>
+      <c r="B242" s="71"/>
+      <c r="C242" s="71"/>
+      <c r="D242" s="71"/>
+      <c r="E242" s="71"/>
+      <c r="F242" s="71"/>
+      <c r="G242" s="71"/>
+      <c r="H242" s="71"/>
+      <c r="I242" s="71"/>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="70"/>
-      <c r="B243" s="70"/>
-      <c r="C243" s="70"/>
-      <c r="D243" s="70"/>
-      <c r="E243" s="70"/>
-      <c r="F243" s="70"/>
-      <c r="G243" s="70"/>
-      <c r="H243" s="70"/>
-      <c r="I243" s="70"/>
+      <c r="A243" s="71"/>
+      <c r="B243" s="71"/>
+      <c r="C243" s="71"/>
+      <c r="D243" s="71"/>
+      <c r="E243" s="71"/>
+      <c r="F243" s="71"/>
+      <c r="G243" s="71"/>
+      <c r="H243" s="71"/>
+      <c r="I243" s="71"/>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="70"/>
-      <c r="B244" s="70"/>
-      <c r="C244" s="70"/>
-      <c r="D244" s="70"/>
-      <c r="E244" s="70"/>
-      <c r="F244" s="70"/>
-      <c r="G244" s="70"/>
-      <c r="H244" s="70"/>
-      <c r="I244" s="70"/>
+      <c r="A244" s="71"/>
+      <c r="B244" s="71"/>
+      <c r="C244" s="71"/>
+      <c r="D244" s="71"/>
+      <c r="E244" s="71"/>
+      <c r="F244" s="71"/>
+      <c r="G244" s="71"/>
+      <c r="H244" s="71"/>
+      <c r="I244" s="71"/>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="70"/>
-      <c r="B245" s="70"/>
-      <c r="C245" s="70"/>
-      <c r="D245" s="70"/>
-      <c r="E245" s="70"/>
-      <c r="F245" s="70"/>
-      <c r="G245" s="70"/>
-      <c r="H245" s="70"/>
-      <c r="I245" s="70"/>
+      <c r="A245" s="71"/>
+      <c r="B245" s="71"/>
+      <c r="C245" s="71"/>
+      <c r="D245" s="71"/>
+      <c r="E245" s="71"/>
+      <c r="F245" s="71"/>
+      <c r="G245" s="71"/>
+      <c r="H245" s="71"/>
+      <c r="I245" s="71"/>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="70"/>
-      <c r="B246" s="70"/>
-      <c r="C246" s="70"/>
-      <c r="D246" s="70"/>
-      <c r="E246" s="70"/>
-      <c r="F246" s="70"/>
-      <c r="G246" s="70"/>
-      <c r="H246" s="70"/>
-      <c r="I246" s="70"/>
+      <c r="A246" s="71"/>
+      <c r="B246" s="71"/>
+      <c r="C246" s="71"/>
+      <c r="D246" s="71"/>
+      <c r="E246" s="71"/>
+      <c r="F246" s="71"/>
+      <c r="G246" s="71"/>
+      <c r="H246" s="71"/>
+      <c r="I246" s="71"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="70"/>
-      <c r="B247" s="70"/>
-      <c r="C247" s="70"/>
-      <c r="D247" s="70"/>
-      <c r="E247" s="70"/>
-      <c r="F247" s="70"/>
-      <c r="G247" s="70"/>
-      <c r="H247" s="70"/>
-      <c r="I247" s="70"/>
+      <c r="A247" s="71"/>
+      <c r="B247" s="71"/>
+      <c r="C247" s="71"/>
+      <c r="D247" s="71"/>
+      <c r="E247" s="71"/>
+      <c r="F247" s="71"/>
+      <c r="G247" s="71"/>
+      <c r="H247" s="71"/>
+      <c r="I247" s="71"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="70"/>
-      <c r="B248" s="70"/>
-      <c r="C248" s="70"/>
-      <c r="D248" s="70"/>
-      <c r="E248" s="70"/>
-      <c r="F248" s="70"/>
-      <c r="G248" s="70"/>
-      <c r="H248" s="70"/>
-      <c r="I248" s="70"/>
+      <c r="A248" s="71"/>
+      <c r="B248" s="71"/>
+      <c r="C248" s="71"/>
+      <c r="D248" s="71"/>
+      <c r="E248" s="71"/>
+      <c r="F248" s="71"/>
+      <c r="G248" s="71"/>
+      <c r="H248" s="71"/>
+      <c r="I248" s="71"/>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="70"/>
-      <c r="B249" s="70"/>
-      <c r="C249" s="70"/>
-      <c r="D249" s="70"/>
-      <c r="E249" s="70"/>
-      <c r="F249" s="70"/>
-      <c r="G249" s="70"/>
-      <c r="H249" s="70"/>
-      <c r="I249" s="70"/>
+      <c r="A249" s="71"/>
+      <c r="B249" s="71"/>
+      <c r="C249" s="71"/>
+      <c r="D249" s="71"/>
+      <c r="E249" s="71"/>
+      <c r="F249" s="71"/>
+      <c r="G249" s="71"/>
+      <c r="H249" s="71"/>
+      <c r="I249" s="71"/>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="70"/>
-      <c r="B250" s="70"/>
-      <c r="C250" s="70"/>
-      <c r="D250" s="70"/>
-      <c r="E250" s="70"/>
-      <c r="F250" s="70"/>
-      <c r="G250" s="70"/>
-      <c r="H250" s="70"/>
-      <c r="I250" s="70"/>
+      <c r="A250" s="71"/>
+      <c r="B250" s="71"/>
+      <c r="C250" s="71"/>
+      <c r="D250" s="71"/>
+      <c r="E250" s="71"/>
+      <c r="F250" s="71"/>
+      <c r="G250" s="71"/>
+      <c r="H250" s="71"/>
+      <c r="I250" s="71"/>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="70"/>
-      <c r="B251" s="70"/>
-      <c r="C251" s="70"/>
-      <c r="D251" s="70"/>
-      <c r="E251" s="70"/>
-      <c r="F251" s="70"/>
-      <c r="G251" s="70"/>
-      <c r="H251" s="70"/>
-      <c r="I251" s="70"/>
+      <c r="A251" s="71"/>
+      <c r="B251" s="71"/>
+      <c r="C251" s="71"/>
+      <c r="D251" s="71"/>
+      <c r="E251" s="71"/>
+      <c r="F251" s="71"/>
+      <c r="G251" s="71"/>
+      <c r="H251" s="71"/>
+      <c r="I251" s="71"/>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="70"/>
-      <c r="B252" s="70"/>
-      <c r="C252" s="70"/>
-      <c r="D252" s="70"/>
-      <c r="E252" s="70"/>
-      <c r="F252" s="70"/>
-      <c r="G252" s="70"/>
-      <c r="H252" s="70"/>
-      <c r="I252" s="70"/>
+      <c r="A252" s="71"/>
+      <c r="B252" s="71"/>
+      <c r="C252" s="71"/>
+      <c r="D252" s="71"/>
+      <c r="E252" s="71"/>
+      <c r="F252" s="71"/>
+      <c r="G252" s="71"/>
+      <c r="H252" s="71"/>
+      <c r="I252" s="71"/>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="70"/>
-      <c r="B253" s="70"/>
-      <c r="C253" s="70"/>
-      <c r="D253" s="70"/>
-      <c r="E253" s="70"/>
-      <c r="F253" s="70"/>
-      <c r="G253" s="70"/>
-      <c r="H253" s="70"/>
-      <c r="I253" s="70"/>
+      <c r="A253" s="71"/>
+      <c r="B253" s="71"/>
+      <c r="C253" s="71"/>
+      <c r="D253" s="71"/>
+      <c r="E253" s="71"/>
+      <c r="F253" s="71"/>
+      <c r="G253" s="71"/>
+      <c r="H253" s="71"/>
+      <c r="I253" s="71"/>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="70"/>
-      <c r="B254" s="70"/>
-      <c r="C254" s="70"/>
-      <c r="D254" s="70"/>
-      <c r="E254" s="70"/>
-      <c r="F254" s="70"/>
-      <c r="G254" s="70"/>
-      <c r="H254" s="70"/>
-      <c r="I254" s="70"/>
+      <c r="A254" s="71"/>
+      <c r="B254" s="71"/>
+      <c r="C254" s="71"/>
+      <c r="D254" s="71"/>
+      <c r="E254" s="71"/>
+      <c r="F254" s="71"/>
+      <c r="G254" s="71"/>
+      <c r="H254" s="71"/>
+      <c r="I254" s="71"/>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="70"/>
-      <c r="B255" s="70"/>
-      <c r="C255" s="70"/>
-      <c r="D255" s="70"/>
-      <c r="E255" s="70"/>
-      <c r="F255" s="70"/>
-      <c r="G255" s="70"/>
-      <c r="H255" s="70"/>
-      <c r="I255" s="70"/>
+      <c r="A255" s="71"/>
+      <c r="B255" s="71"/>
+      <c r="C255" s="71"/>
+      <c r="D255" s="71"/>
+      <c r="E255" s="71"/>
+      <c r="F255" s="71"/>
+      <c r="G255" s="71"/>
+      <c r="H255" s="71"/>
+      <c r="I255" s="71"/>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="70"/>
-      <c r="B256" s="70"/>
-      <c r="C256" s="70"/>
-      <c r="D256" s="70"/>
-      <c r="E256" s="70"/>
-      <c r="F256" s="70"/>
-      <c r="G256" s="70"/>
-      <c r="H256" s="70"/>
-      <c r="I256" s="70"/>
+      <c r="A256" s="71"/>
+      <c r="B256" s="71"/>
+      <c r="C256" s="71"/>
+      <c r="D256" s="71"/>
+      <c r="E256" s="71"/>
+      <c r="F256" s="71"/>
+      <c r="G256" s="71"/>
+      <c r="H256" s="71"/>
+      <c r="I256" s="71"/>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="70"/>
-      <c r="B257" s="70"/>
-      <c r="C257" s="70"/>
-      <c r="D257" s="70"/>
-      <c r="E257" s="70"/>
-      <c r="F257" s="70"/>
-      <c r="G257" s="70"/>
-      <c r="H257" s="70"/>
-      <c r="I257" s="70"/>
+      <c r="A257" s="71"/>
+      <c r="B257" s="71"/>
+      <c r="C257" s="71"/>
+      <c r="D257" s="71"/>
+      <c r="E257" s="71"/>
+      <c r="F257" s="71"/>
+      <c r="G257" s="71"/>
+      <c r="H257" s="71"/>
+      <c r="I257" s="71"/>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="70"/>
-      <c r="B258" s="70"/>
-      <c r="C258" s="70"/>
-      <c r="D258" s="70"/>
-      <c r="E258" s="70"/>
-      <c r="F258" s="70"/>
-      <c r="G258" s="70"/>
-      <c r="H258" s="70"/>
-      <c r="I258" s="70"/>
+      <c r="A258" s="71"/>
+      <c r="B258" s="71"/>
+      <c r="C258" s="71"/>
+      <c r="D258" s="71"/>
+      <c r="E258" s="71"/>
+      <c r="F258" s="71"/>
+      <c r="G258" s="71"/>
+      <c r="H258" s="71"/>
+      <c r="I258" s="71"/>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="70"/>
-      <c r="B259" s="70"/>
-      <c r="C259" s="70"/>
-      <c r="D259" s="70"/>
-      <c r="E259" s="70"/>
-      <c r="F259" s="70"/>
-      <c r="G259" s="70"/>
-      <c r="H259" s="70"/>
-      <c r="I259" s="70"/>
+      <c r="A259" s="71"/>
+      <c r="B259" s="71"/>
+      <c r="C259" s="71"/>
+      <c r="D259" s="71"/>
+      <c r="E259" s="71"/>
+      <c r="F259" s="71"/>
+      <c r="G259" s="71"/>
+      <c r="H259" s="71"/>
+      <c r="I259" s="71"/>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="70"/>
-      <c r="B260" s="70"/>
-      <c r="C260" s="70"/>
-      <c r="D260" s="70"/>
-      <c r="E260" s="70"/>
-      <c r="F260" s="70"/>
-      <c r="G260" s="70"/>
-      <c r="H260" s="70"/>
-      <c r="I260" s="70"/>
+      <c r="A260" s="71"/>
+      <c r="B260" s="71"/>
+      <c r="C260" s="71"/>
+      <c r="D260" s="71"/>
+      <c r="E260" s="71"/>
+      <c r="F260" s="71"/>
+      <c r="G260" s="71"/>
+      <c r="H260" s="71"/>
+      <c r="I260" s="71"/>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="70"/>
-      <c r="B261" s="70"/>
-      <c r="C261" s="70"/>
-      <c r="D261" s="70"/>
-      <c r="E261" s="70"/>
-      <c r="F261" s="70"/>
-      <c r="G261" s="70"/>
-      <c r="H261" s="70"/>
-      <c r="I261" s="70"/>
+      <c r="A261" s="71"/>
+      <c r="B261" s="71"/>
+      <c r="C261" s="71"/>
+      <c r="D261" s="71"/>
+      <c r="E261" s="71"/>
+      <c r="F261" s="71"/>
+      <c r="G261" s="71"/>
+      <c r="H261" s="71"/>
+      <c r="I261" s="71"/>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="70"/>
-      <c r="B262" s="70"/>
-      <c r="C262" s="70"/>
-      <c r="D262" s="70"/>
-      <c r="E262" s="70"/>
-      <c r="F262" s="70"/>
-      <c r="G262" s="70"/>
-      <c r="H262" s="70"/>
-      <c r="I262" s="70"/>
+      <c r="A262" s="71"/>
+      <c r="B262" s="71"/>
+      <c r="C262" s="71"/>
+      <c r="D262" s="71"/>
+      <c r="E262" s="71"/>
+      <c r="F262" s="71"/>
+      <c r="G262" s="71"/>
+      <c r="H262" s="71"/>
+      <c r="I262" s="71"/>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="70"/>
-      <c r="B263" s="70"/>
-      <c r="C263" s="70"/>
-      <c r="D263" s="70"/>
-      <c r="E263" s="70"/>
-      <c r="F263" s="70"/>
-      <c r="G263" s="70"/>
-      <c r="H263" s="70"/>
-      <c r="I263" s="70"/>
+      <c r="A263" s="71"/>
+      <c r="B263" s="71"/>
+      <c r="C263" s="71"/>
+      <c r="D263" s="71"/>
+      <c r="E263" s="71"/>
+      <c r="F263" s="71"/>
+      <c r="G263" s="71"/>
+      <c r="H263" s="71"/>
+      <c r="I263" s="71"/>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="70"/>
-      <c r="B264" s="70"/>
-      <c r="C264" s="70"/>
-      <c r="D264" s="70"/>
-      <c r="E264" s="70"/>
-      <c r="F264" s="70"/>
-      <c r="G264" s="70"/>
-      <c r="H264" s="70"/>
-      <c r="I264" s="70"/>
+      <c r="A264" s="71"/>
+      <c r="B264" s="71"/>
+      <c r="C264" s="71"/>
+      <c r="D264" s="71"/>
+      <c r="E264" s="71"/>
+      <c r="F264" s="71"/>
+      <c r="G264" s="71"/>
+      <c r="H264" s="71"/>
+      <c r="I264" s="71"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="70"/>
-      <c r="B265" s="70"/>
-      <c r="C265" s="70"/>
-      <c r="D265" s="70"/>
-      <c r="E265" s="70"/>
-      <c r="F265" s="70"/>
-      <c r="G265" s="70"/>
-      <c r="H265" s="70"/>
-      <c r="I265" s="70"/>
+      <c r="A265" s="71"/>
+      <c r="B265" s="71"/>
+      <c r="C265" s="71"/>
+      <c r="D265" s="71"/>
+      <c r="E265" s="71"/>
+      <c r="F265" s="71"/>
+      <c r="G265" s="71"/>
+      <c r="H265" s="71"/>
+      <c r="I265" s="71"/>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="70"/>
-      <c r="B266" s="70"/>
-      <c r="C266" s="70"/>
-      <c r="D266" s="70"/>
-      <c r="E266" s="70"/>
-      <c r="F266" s="70"/>
-      <c r="G266" s="70"/>
-      <c r="H266" s="70"/>
-      <c r="I266" s="70"/>
+      <c r="A266" s="71"/>
+      <c r="B266" s="71"/>
+      <c r="C266" s="71"/>
+      <c r="D266" s="71"/>
+      <c r="E266" s="71"/>
+      <c r="F266" s="71"/>
+      <c r="G266" s="71"/>
+      <c r="H266" s="71"/>
+      <c r="I266" s="71"/>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="70"/>
-      <c r="B267" s="70"/>
-      <c r="C267" s="70"/>
-      <c r="D267" s="70"/>
-      <c r="E267" s="70"/>
-      <c r="F267" s="70"/>
-      <c r="G267" s="70"/>
-      <c r="H267" s="70"/>
-      <c r="I267" s="70"/>
+      <c r="A267" s="71"/>
+      <c r="B267" s="71"/>
+      <c r="C267" s="71"/>
+      <c r="D267" s="71"/>
+      <c r="E267" s="71"/>
+      <c r="F267" s="71"/>
+      <c r="G267" s="71"/>
+      <c r="H267" s="71"/>
+      <c r="I267" s="71"/>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="70"/>
-      <c r="B268" s="70"/>
-      <c r="C268" s="70"/>
-      <c r="D268" s="70"/>
-      <c r="E268" s="70"/>
-      <c r="F268" s="70"/>
-      <c r="G268" s="70"/>
-      <c r="H268" s="70"/>
-      <c r="I268" s="70"/>
+      <c r="A268" s="71"/>
+      <c r="B268" s="71"/>
+      <c r="C268" s="71"/>
+      <c r="D268" s="71"/>
+      <c r="E268" s="71"/>
+      <c r="F268" s="71"/>
+      <c r="G268" s="71"/>
+      <c r="H268" s="71"/>
+      <c r="I268" s="71"/>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="70"/>
-      <c r="B269" s="70"/>
-      <c r="C269" s="70"/>
-      <c r="D269" s="70"/>
-      <c r="E269" s="70"/>
-      <c r="F269" s="70"/>
-      <c r="G269" s="70"/>
-      <c r="H269" s="70"/>
-      <c r="I269" s="70"/>
+      <c r="A269" s="71"/>
+      <c r="B269" s="71"/>
+      <c r="C269" s="71"/>
+      <c r="D269" s="71"/>
+      <c r="E269" s="71"/>
+      <c r="F269" s="71"/>
+      <c r="G269" s="71"/>
+      <c r="H269" s="71"/>
+      <c r="I269" s="71"/>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="70"/>
-      <c r="B270" s="70"/>
-      <c r="C270" s="70"/>
-      <c r="D270" s="70"/>
-      <c r="E270" s="70"/>
-      <c r="F270" s="70"/>
-      <c r="G270" s="70"/>
-      <c r="H270" s="70"/>
-      <c r="I270" s="70"/>
+      <c r="A270" s="71"/>
+      <c r="B270" s="71"/>
+      <c r="C270" s="71"/>
+      <c r="D270" s="71"/>
+      <c r="E270" s="71"/>
+      <c r="F270" s="71"/>
+      <c r="G270" s="71"/>
+      <c r="H270" s="71"/>
+      <c r="I270" s="71"/>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="70"/>
-      <c r="B271" s="70"/>
-      <c r="C271" s="70"/>
-      <c r="D271" s="70"/>
-      <c r="E271" s="70"/>
-      <c r="F271" s="70"/>
-      <c r="G271" s="70"/>
-      <c r="H271" s="70"/>
-      <c r="I271" s="70"/>
+      <c r="A271" s="71"/>
+      <c r="B271" s="71"/>
+      <c r="C271" s="71"/>
+      <c r="D271" s="71"/>
+      <c r="E271" s="71"/>
+      <c r="F271" s="71"/>
+      <c r="G271" s="71"/>
+      <c r="H271" s="71"/>
+      <c r="I271" s="71"/>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="70"/>
-      <c r="B272" s="70"/>
-      <c r="C272" s="70"/>
-      <c r="D272" s="70"/>
-      <c r="E272" s="70"/>
-      <c r="F272" s="70"/>
-      <c r="G272" s="70"/>
-      <c r="H272" s="70"/>
-      <c r="I272" s="70"/>
+      <c r="A272" s="71"/>
+      <c r="B272" s="71"/>
+      <c r="C272" s="71"/>
+      <c r="D272" s="71"/>
+      <c r="E272" s="71"/>
+      <c r="F272" s="71"/>
+      <c r="G272" s="71"/>
+      <c r="H272" s="71"/>
+      <c r="I272" s="71"/>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="70"/>
-      <c r="B273" s="70"/>
-      <c r="C273" s="70"/>
-      <c r="D273" s="70"/>
-      <c r="E273" s="70"/>
-      <c r="F273" s="70"/>
-      <c r="G273" s="70"/>
-      <c r="H273" s="70"/>
-      <c r="I273" s="70"/>
+      <c r="A273" s="71"/>
+      <c r="B273" s="71"/>
+      <c r="C273" s="71"/>
+      <c r="D273" s="71"/>
+      <c r="E273" s="71"/>
+      <c r="F273" s="71"/>
+      <c r="G273" s="71"/>
+      <c r="H273" s="71"/>
+      <c r="I273" s="71"/>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="70"/>
-      <c r="B274" s="70"/>
-      <c r="C274" s="70"/>
-      <c r="D274" s="70"/>
-      <c r="E274" s="70"/>
-      <c r="F274" s="70"/>
-      <c r="G274" s="70"/>
-      <c r="H274" s="70"/>
-      <c r="I274" s="70"/>
+      <c r="A274" s="71"/>
+      <c r="B274" s="71"/>
+      <c r="C274" s="71"/>
+      <c r="D274" s="71"/>
+      <c r="E274" s="71"/>
+      <c r="F274" s="71"/>
+      <c r="G274" s="71"/>
+      <c r="H274" s="71"/>
+      <c r="I274" s="71"/>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="70"/>
-      <c r="B275" s="70"/>
-      <c r="C275" s="70"/>
-      <c r="D275" s="70"/>
-      <c r="E275" s="70"/>
-      <c r="F275" s="70"/>
-      <c r="G275" s="70"/>
-      <c r="H275" s="70"/>
-      <c r="I275" s="70"/>
+      <c r="A275" s="71"/>
+      <c r="B275" s="71"/>
+      <c r="C275" s="71"/>
+      <c r="D275" s="71"/>
+      <c r="E275" s="71"/>
+      <c r="F275" s="71"/>
+      <c r="G275" s="71"/>
+      <c r="H275" s="71"/>
+      <c r="I275" s="71"/>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="70"/>
-      <c r="B276" s="70"/>
-      <c r="C276" s="70"/>
-      <c r="D276" s="70"/>
-      <c r="E276" s="70"/>
-      <c r="F276" s="70"/>
-      <c r="G276" s="70"/>
-      <c r="H276" s="70"/>
-      <c r="I276" s="70"/>
+      <c r="A276" s="71"/>
+      <c r="B276" s="71"/>
+      <c r="C276" s="71"/>
+      <c r="D276" s="71"/>
+      <c r="E276" s="71"/>
+      <c r="F276" s="71"/>
+      <c r="G276" s="71"/>
+      <c r="H276" s="71"/>
+      <c r="I276" s="71"/>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="70"/>
-      <c r="B277" s="70"/>
-      <c r="C277" s="70"/>
-      <c r="D277" s="70"/>
-      <c r="E277" s="70"/>
-      <c r="F277" s="70"/>
-      <c r="G277" s="70"/>
-      <c r="H277" s="70"/>
-      <c r="I277" s="70"/>
+      <c r="A277" s="71"/>
+      <c r="B277" s="71"/>
+      <c r="C277" s="71"/>
+      <c r="D277" s="71"/>
+      <c r="E277" s="71"/>
+      <c r="F277" s="71"/>
+      <c r="G277" s="71"/>
+      <c r="H277" s="71"/>
+      <c r="I277" s="71"/>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="70"/>
-      <c r="B278" s="70"/>
-      <c r="C278" s="70"/>
-      <c r="D278" s="70"/>
-      <c r="E278" s="70"/>
-      <c r="F278" s="70"/>
-      <c r="G278" s="70"/>
-      <c r="H278" s="70"/>
-      <c r="I278" s="70"/>
+      <c r="A278" s="71"/>
+      <c r="B278" s="71"/>
+      <c r="C278" s="71"/>
+      <c r="D278" s="71"/>
+      <c r="E278" s="71"/>
+      <c r="F278" s="71"/>
+      <c r="G278" s="71"/>
+      <c r="H278" s="71"/>
+      <c r="I278" s="71"/>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="70"/>
-      <c r="B279" s="70"/>
-      <c r="C279" s="70"/>
-      <c r="D279" s="70"/>
-      <c r="E279" s="70"/>
-      <c r="F279" s="70"/>
-      <c r="G279" s="70"/>
-      <c r="H279" s="70"/>
-      <c r="I279" s="70"/>
+      <c r="A279" s="71"/>
+      <c r="B279" s="71"/>
+      <c r="C279" s="71"/>
+      <c r="D279" s="71"/>
+      <c r="E279" s="71"/>
+      <c r="F279" s="71"/>
+      <c r="G279" s="71"/>
+      <c r="H279" s="71"/>
+      <c r="I279" s="71"/>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="70"/>
-      <c r="B280" s="70"/>
-      <c r="C280" s="70"/>
-      <c r="D280" s="70"/>
-      <c r="E280" s="70"/>
-      <c r="F280" s="70"/>
-      <c r="G280" s="70"/>
-      <c r="H280" s="70"/>
-      <c r="I280" s="70"/>
+      <c r="A280" s="71"/>
+      <c r="B280" s="71"/>
+      <c r="C280" s="71"/>
+      <c r="D280" s="71"/>
+      <c r="E280" s="71"/>
+      <c r="F280" s="71"/>
+      <c r="G280" s="71"/>
+      <c r="H280" s="71"/>
+      <c r="I280" s="71"/>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="70"/>
-      <c r="B281" s="70"/>
-      <c r="C281" s="70"/>
-      <c r="D281" s="70"/>
-      <c r="E281" s="70"/>
-      <c r="F281" s="70"/>
-      <c r="G281" s="70"/>
-      <c r="H281" s="70"/>
-      <c r="I281" s="70"/>
+      <c r="A281" s="71"/>
+      <c r="B281" s="71"/>
+      <c r="C281" s="71"/>
+      <c r="D281" s="71"/>
+      <c r="E281" s="71"/>
+      <c r="F281" s="71"/>
+      <c r="G281" s="71"/>
+      <c r="H281" s="71"/>
+      <c r="I281" s="71"/>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="70"/>
-      <c r="B282" s="70"/>
-      <c r="C282" s="70"/>
-      <c r="D282" s="70"/>
-      <c r="E282" s="70"/>
-      <c r="F282" s="70"/>
-      <c r="G282" s="70"/>
-      <c r="H282" s="70"/>
-      <c r="I282" s="70"/>
+      <c r="A282" s="71"/>
+      <c r="B282" s="71"/>
+      <c r="C282" s="71"/>
+      <c r="D282" s="71"/>
+      <c r="E282" s="71"/>
+      <c r="F282" s="71"/>
+      <c r="G282" s="71"/>
+      <c r="H282" s="71"/>
+      <c r="I282" s="71"/>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="70"/>
-      <c r="B283" s="70"/>
-      <c r="C283" s="70"/>
-      <c r="D283" s="70"/>
-      <c r="E283" s="70"/>
-      <c r="F283" s="70"/>
-      <c r="G283" s="70"/>
-      <c r="H283" s="70"/>
-      <c r="I283" s="70"/>
+      <c r="A283" s="71"/>
+      <c r="B283" s="71"/>
+      <c r="C283" s="71"/>
+      <c r="D283" s="71"/>
+      <c r="E283" s="71"/>
+      <c r="F283" s="71"/>
+      <c r="G283" s="71"/>
+      <c r="H283" s="71"/>
+      <c r="I283" s="71"/>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="70"/>
-      <c r="B284" s="70"/>
-      <c r="C284" s="70"/>
-      <c r="D284" s="70"/>
-      <c r="E284" s="70"/>
-      <c r="F284" s="70"/>
-      <c r="G284" s="70"/>
-      <c r="H284" s="70"/>
-      <c r="I284" s="70"/>
+      <c r="A284" s="71"/>
+      <c r="B284" s="71"/>
+      <c r="C284" s="71"/>
+      <c r="D284" s="71"/>
+      <c r="E284" s="71"/>
+      <c r="F284" s="71"/>
+      <c r="G284" s="71"/>
+      <c r="H284" s="71"/>
+      <c r="I284" s="71"/>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="70"/>
-      <c r="B285" s="70"/>
-      <c r="C285" s="70"/>
-      <c r="D285" s="70"/>
-      <c r="E285" s="70"/>
-      <c r="F285" s="70"/>
-      <c r="G285" s="70"/>
-      <c r="H285" s="70"/>
-      <c r="I285" s="70"/>
+      <c r="A285" s="71"/>
+      <c r="B285" s="71"/>
+      <c r="C285" s="71"/>
+      <c r="D285" s="71"/>
+      <c r="E285" s="71"/>
+      <c r="F285" s="71"/>
+      <c r="G285" s="71"/>
+      <c r="H285" s="71"/>
+      <c r="I285" s="71"/>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="70"/>
-      <c r="B286" s="70"/>
-      <c r="C286" s="70"/>
-      <c r="D286" s="70"/>
-      <c r="E286" s="70"/>
-      <c r="F286" s="70"/>
-      <c r="G286" s="70"/>
-      <c r="H286" s="70"/>
-      <c r="I286" s="70"/>
+      <c r="A286" s="71"/>
+      <c r="B286" s="71"/>
+      <c r="C286" s="71"/>
+      <c r="D286" s="71"/>
+      <c r="E286" s="71"/>
+      <c r="F286" s="71"/>
+      <c r="G286" s="71"/>
+      <c r="H286" s="71"/>
+      <c r="I286" s="71"/>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="70"/>
-      <c r="B287" s="70"/>
-      <c r="C287" s="70"/>
-      <c r="D287" s="70"/>
-      <c r="E287" s="70"/>
-      <c r="F287" s="70"/>
-      <c r="G287" s="70"/>
-      <c r="H287" s="70"/>
-      <c r="I287" s="70"/>
+      <c r="A287" s="71"/>
+      <c r="B287" s="71"/>
+      <c r="C287" s="71"/>
+      <c r="D287" s="71"/>
+      <c r="E287" s="71"/>
+      <c r="F287" s="71"/>
+      <c r="G287" s="71"/>
+      <c r="H287" s="71"/>
+      <c r="I287" s="71"/>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="70"/>
-      <c r="B288" s="70"/>
-      <c r="C288" s="70"/>
-      <c r="D288" s="70"/>
-      <c r="E288" s="70"/>
-      <c r="F288" s="70"/>
-      <c r="G288" s="70"/>
-      <c r="H288" s="70"/>
-      <c r="I288" s="70"/>
+      <c r="A288" s="71"/>
+      <c r="B288" s="71"/>
+      <c r="C288" s="71"/>
+      <c r="D288" s="71"/>
+      <c r="E288" s="71"/>
+      <c r="F288" s="71"/>
+      <c r="G288" s="71"/>
+      <c r="H288" s="71"/>
+      <c r="I288" s="71"/>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="70"/>
-      <c r="B289" s="70"/>
-      <c r="C289" s="70"/>
-      <c r="D289" s="70"/>
-      <c r="E289" s="70"/>
-      <c r="F289" s="70"/>
-      <c r="G289" s="70"/>
-      <c r="H289" s="70"/>
-      <c r="I289" s="70"/>
+      <c r="A289" s="71"/>
+      <c r="B289" s="71"/>
+      <c r="C289" s="71"/>
+      <c r="D289" s="71"/>
+      <c r="E289" s="71"/>
+      <c r="F289" s="71"/>
+      <c r="G289" s="71"/>
+      <c r="H289" s="71"/>
+      <c r="I289" s="71"/>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="70"/>
-      <c r="B290" s="70"/>
-      <c r="C290" s="70"/>
-      <c r="D290" s="70"/>
-      <c r="E290" s="70"/>
-      <c r="F290" s="70"/>
-      <c r="G290" s="70"/>
-      <c r="H290" s="70"/>
-      <c r="I290" s="70"/>
+      <c r="A290" s="71"/>
+      <c r="B290" s="71"/>
+      <c r="C290" s="71"/>
+      <c r="D290" s="71"/>
+      <c r="E290" s="71"/>
+      <c r="F290" s="71"/>
+      <c r="G290" s="71"/>
+      <c r="H290" s="71"/>
+      <c r="I290" s="71"/>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="70"/>
-      <c r="B291" s="70"/>
-      <c r="C291" s="70"/>
-      <c r="D291" s="70"/>
-      <c r="E291" s="70"/>
-      <c r="F291" s="70"/>
-      <c r="G291" s="70"/>
-      <c r="H291" s="70"/>
-      <c r="I291" s="70"/>
+      <c r="A291" s="71"/>
+      <c r="B291" s="71"/>
+      <c r="C291" s="71"/>
+      <c r="D291" s="71"/>
+      <c r="E291" s="71"/>
+      <c r="F291" s="71"/>
+      <c r="G291" s="71"/>
+      <c r="H291" s="71"/>
+      <c r="I291" s="71"/>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="70"/>
-      <c r="B292" s="70"/>
-      <c r="C292" s="70"/>
-      <c r="D292" s="70"/>
-      <c r="E292" s="70"/>
-      <c r="F292" s="70"/>
-      <c r="G292" s="70"/>
-      <c r="H292" s="70"/>
-      <c r="I292" s="70"/>
+      <c r="A292" s="71"/>
+      <c r="B292" s="71"/>
+      <c r="C292" s="71"/>
+      <c r="D292" s="71"/>
+      <c r="E292" s="71"/>
+      <c r="F292" s="71"/>
+      <c r="G292" s="71"/>
+      <c r="H292" s="71"/>
+      <c r="I292" s="71"/>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="70"/>
-      <c r="B293" s="70"/>
-      <c r="C293" s="70"/>
-      <c r="D293" s="70"/>
-      <c r="E293" s="70"/>
-      <c r="F293" s="70"/>
-      <c r="G293" s="70"/>
-      <c r="H293" s="70"/>
-      <c r="I293" s="70"/>
+      <c r="A293" s="71"/>
+      <c r="B293" s="71"/>
+      <c r="C293" s="71"/>
+      <c r="D293" s="71"/>
+      <c r="E293" s="71"/>
+      <c r="F293" s="71"/>
+      <c r="G293" s="71"/>
+      <c r="H293" s="71"/>
+      <c r="I293" s="71"/>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="70"/>
-      <c r="B294" s="70"/>
-      <c r="C294" s="70"/>
-      <c r="D294" s="70"/>
-      <c r="E294" s="70"/>
-      <c r="F294" s="70"/>
-      <c r="G294" s="70"/>
-      <c r="H294" s="70"/>
-      <c r="I294" s="70"/>
+      <c r="A294" s="71"/>
+      <c r="B294" s="71"/>
+      <c r="C294" s="71"/>
+      <c r="D294" s="71"/>
+      <c r="E294" s="71"/>
+      <c r="F294" s="71"/>
+      <c r="G294" s="71"/>
+      <c r="H294" s="71"/>
+      <c r="I294" s="71"/>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="70"/>
-      <c r="B295" s="70"/>
-      <c r="C295" s="70"/>
-      <c r="D295" s="70"/>
-      <c r="E295" s="70"/>
-      <c r="F295" s="70"/>
-      <c r="G295" s="70"/>
-      <c r="H295" s="70"/>
-      <c r="I295" s="70"/>
+      <c r="A295" s="71"/>
+      <c r="B295" s="71"/>
+      <c r="C295" s="71"/>
+      <c r="D295" s="71"/>
+      <c r="E295" s="71"/>
+      <c r="F295" s="71"/>
+      <c r="G295" s="71"/>
+      <c r="H295" s="71"/>
+      <c r="I295" s="71"/>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="70"/>
-      <c r="B296" s="70"/>
-      <c r="C296" s="70"/>
-      <c r="D296" s="70"/>
-      <c r="E296" s="70"/>
-      <c r="F296" s="70"/>
-      <c r="G296" s="70"/>
-      <c r="H296" s="70"/>
-      <c r="I296" s="70"/>
+      <c r="A296" s="71"/>
+      <c r="B296" s="71"/>
+      <c r="C296" s="71"/>
+      <c r="D296" s="71"/>
+      <c r="E296" s="71"/>
+      <c r="F296" s="71"/>
+      <c r="G296" s="71"/>
+      <c r="H296" s="71"/>
+      <c r="I296" s="71"/>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="70"/>
-      <c r="B297" s="70"/>
-      <c r="C297" s="70"/>
-      <c r="D297" s="70"/>
-      <c r="E297" s="70"/>
-      <c r="F297" s="70"/>
-      <c r="G297" s="70"/>
-      <c r="H297" s="70"/>
-      <c r="I297" s="70"/>
+      <c r="A297" s="71"/>
+      <c r="B297" s="71"/>
+      <c r="C297" s="71"/>
+      <c r="D297" s="71"/>
+      <c r="E297" s="71"/>
+      <c r="F297" s="71"/>
+      <c r="G297" s="71"/>
+      <c r="H297" s="71"/>
+      <c r="I297" s="71"/>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="70"/>
-      <c r="B298" s="70"/>
-      <c r="C298" s="70"/>
-      <c r="D298" s="70"/>
-      <c r="E298" s="70"/>
-      <c r="F298" s="70"/>
-      <c r="G298" s="70"/>
-      <c r="H298" s="70"/>
-      <c r="I298" s="70"/>
+      <c r="A298" s="71"/>
+      <c r="B298" s="71"/>
+      <c r="C298" s="71"/>
+      <c r="D298" s="71"/>
+      <c r="E298" s="71"/>
+      <c r="F298" s="71"/>
+      <c r="G298" s="71"/>
+      <c r="H298" s="71"/>
+      <c r="I298" s="71"/>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="70"/>
-      <c r="B299" s="70"/>
-      <c r="C299" s="70"/>
-      <c r="D299" s="70"/>
-      <c r="E299" s="70"/>
-      <c r="F299" s="70"/>
-      <c r="G299" s="70"/>
-      <c r="H299" s="70"/>
-      <c r="I299" s="70"/>
+      <c r="A299" s="71"/>
+      <c r="B299" s="71"/>
+      <c r="C299" s="71"/>
+      <c r="D299" s="71"/>
+      <c r="E299" s="71"/>
+      <c r="F299" s="71"/>
+      <c r="G299" s="71"/>
+      <c r="H299" s="71"/>
+      <c r="I299" s="71"/>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="70"/>
-      <c r="B300" s="70"/>
-      <c r="C300" s="70"/>
-      <c r="D300" s="70"/>
-      <c r="E300" s="70"/>
-      <c r="F300" s="70"/>
-      <c r="G300" s="70"/>
-      <c r="H300" s="70"/>
-      <c r="I300" s="70"/>
+      <c r="A300" s="71"/>
+      <c r="B300" s="71"/>
+      <c r="C300" s="71"/>
+      <c r="D300" s="71"/>
+      <c r="E300" s="71"/>
+      <c r="F300" s="71"/>
+      <c r="G300" s="71"/>
+      <c r="H300" s="71"/>
+      <c r="I300" s="71"/>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="70"/>
-      <c r="B301" s="70"/>
-      <c r="C301" s="70"/>
-      <c r="D301" s="70"/>
-      <c r="E301" s="70"/>
-      <c r="F301" s="70"/>
-      <c r="G301" s="70"/>
-      <c r="H301" s="70"/>
-      <c r="I301" s="70"/>
+      <c r="A301" s="71"/>
+      <c r="B301" s="71"/>
+      <c r="C301" s="71"/>
+      <c r="D301" s="71"/>
+      <c r="E301" s="71"/>
+      <c r="F301" s="71"/>
+      <c r="G301" s="71"/>
+      <c r="H301" s="71"/>
+      <c r="I301" s="71"/>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="70"/>
-      <c r="B302" s="70"/>
-      <c r="C302" s="70"/>
-      <c r="D302" s="70"/>
-      <c r="E302" s="70"/>
-      <c r="F302" s="70"/>
-      <c r="G302" s="70"/>
-      <c r="H302" s="70"/>
-      <c r="I302" s="70"/>
+      <c r="A302" s="71"/>
+      <c r="B302" s="71"/>
+      <c r="C302" s="71"/>
+      <c r="D302" s="71"/>
+      <c r="E302" s="71"/>
+      <c r="F302" s="71"/>
+      <c r="G302" s="71"/>
+      <c r="H302" s="71"/>
+      <c r="I302" s="71"/>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="70"/>
-      <c r="B303" s="70"/>
-      <c r="C303" s="70"/>
-      <c r="D303" s="70"/>
-      <c r="E303" s="70"/>
-      <c r="F303" s="70"/>
-      <c r="G303" s="70"/>
-      <c r="H303" s="70"/>
-      <c r="I303" s="70"/>
+      <c r="A303" s="71"/>
+      <c r="B303" s="71"/>
+      <c r="C303" s="71"/>
+      <c r="D303" s="71"/>
+      <c r="E303" s="71"/>
+      <c r="F303" s="71"/>
+      <c r="G303" s="71"/>
+      <c r="H303" s="71"/>
+      <c r="I303" s="71"/>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="70"/>
-      <c r="B304" s="70"/>
-      <c r="C304" s="70"/>
-      <c r="D304" s="70"/>
-      <c r="E304" s="70"/>
-      <c r="F304" s="70"/>
-      <c r="G304" s="70"/>
-      <c r="H304" s="70"/>
-      <c r="I304" s="70"/>
+      <c r="A304" s="71"/>
+      <c r="B304" s="71"/>
+      <c r="C304" s="71"/>
+      <c r="D304" s="71"/>
+      <c r="E304" s="71"/>
+      <c r="F304" s="71"/>
+      <c r="G304" s="71"/>
+      <c r="H304" s="71"/>
+      <c r="I304" s="71"/>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="70"/>
-      <c r="B305" s="70"/>
-      <c r="C305" s="70"/>
-      <c r="D305" s="70"/>
-      <c r="E305" s="70"/>
-      <c r="F305" s="70"/>
-      <c r="G305" s="70"/>
-      <c r="H305" s="70"/>
-      <c r="I305" s="70"/>
+      <c r="A305" s="71"/>
+      <c r="B305" s="71"/>
+      <c r="C305" s="71"/>
+      <c r="D305" s="71"/>
+      <c r="E305" s="71"/>
+      <c r="F305" s="71"/>
+      <c r="G305" s="71"/>
+      <c r="H305" s="71"/>
+      <c r="I305" s="71"/>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="70"/>
-      <c r="B306" s="70"/>
-      <c r="C306" s="70"/>
-      <c r="D306" s="70"/>
-      <c r="E306" s="70"/>
-      <c r="F306" s="70"/>
-      <c r="G306" s="70"/>
-      <c r="H306" s="70"/>
-      <c r="I306" s="70"/>
+      <c r="A306" s="71"/>
+      <c r="B306" s="71"/>
+      <c r="C306" s="71"/>
+      <c r="D306" s="71"/>
+      <c r="E306" s="71"/>
+      <c r="F306" s="71"/>
+      <c r="G306" s="71"/>
+      <c r="H306" s="71"/>
+      <c r="I306" s="71"/>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="70"/>
-      <c r="B307" s="70"/>
-      <c r="C307" s="70"/>
-      <c r="D307" s="70"/>
-      <c r="E307" s="70"/>
-      <c r="F307" s="70"/>
-      <c r="G307" s="70"/>
-      <c r="H307" s="70"/>
-      <c r="I307" s="70"/>
+      <c r="A307" s="71"/>
+      <c r="B307" s="71"/>
+      <c r="C307" s="71"/>
+      <c r="D307" s="71"/>
+      <c r="E307" s="71"/>
+      <c r="F307" s="71"/>
+      <c r="G307" s="71"/>
+      <c r="H307" s="71"/>
+      <c r="I307" s="71"/>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="70"/>
-      <c r="B308" s="70"/>
-      <c r="C308" s="70"/>
-      <c r="D308" s="70"/>
-      <c r="E308" s="70"/>
-      <c r="F308" s="70"/>
-      <c r="G308" s="70"/>
-      <c r="H308" s="70"/>
-      <c r="I308" s="70"/>
+      <c r="A308" s="71"/>
+      <c r="B308" s="71"/>
+      <c r="C308" s="71"/>
+      <c r="D308" s="71"/>
+      <c r="E308" s="71"/>
+      <c r="F308" s="71"/>
+      <c r="G308" s="71"/>
+      <c r="H308" s="71"/>
+      <c r="I308" s="71"/>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="70"/>
-      <c r="B309" s="70"/>
-      <c r="C309" s="70"/>
-      <c r="D309" s="70"/>
-      <c r="E309" s="70"/>
-      <c r="F309" s="70"/>
-      <c r="G309" s="70"/>
-      <c r="H309" s="70"/>
-      <c r="I309" s="70"/>
+      <c r="A309" s="71"/>
+      <c r="B309" s="71"/>
+      <c r="C309" s="71"/>
+      <c r="D309" s="71"/>
+      <c r="E309" s="71"/>
+      <c r="F309" s="71"/>
+      <c r="G309" s="71"/>
+      <c r="H309" s="71"/>
+      <c r="I309" s="71"/>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="70"/>
-      <c r="B310" s="70"/>
-      <c r="C310" s="70"/>
-      <c r="D310" s="70"/>
-      <c r="E310" s="70"/>
-      <c r="F310" s="70"/>
-      <c r="G310" s="70"/>
-      <c r="H310" s="70"/>
-      <c r="I310" s="70"/>
+      <c r="A310" s="71"/>
+      <c r="B310" s="71"/>
+      <c r="C310" s="71"/>
+      <c r="D310" s="71"/>
+      <c r="E310" s="71"/>
+      <c r="F310" s="71"/>
+      <c r="G310" s="71"/>
+      <c r="H310" s="71"/>
+      <c r="I310" s="71"/>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="70"/>
-      <c r="B311" s="70"/>
-      <c r="C311" s="70"/>
-      <c r="D311" s="70"/>
-      <c r="E311" s="70"/>
-      <c r="F311" s="70"/>
-      <c r="G311" s="70"/>
-      <c r="H311" s="70"/>
-      <c r="I311" s="70"/>
+      <c r="A311" s="71"/>
+      <c r="B311" s="71"/>
+      <c r="C311" s="71"/>
+      <c r="D311" s="71"/>
+      <c r="E311" s="71"/>
+      <c r="F311" s="71"/>
+      <c r="G311" s="71"/>
+      <c r="H311" s="71"/>
+      <c r="I311" s="71"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
@@ -7864,8 +8069,8 @@
     <mergeCell ref="A148:A152"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7876,64 +8081,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A96:C97 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="123" width="60.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="123" width="43.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="123" width="47.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="123" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="124" width="75.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="124" width="43.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="124" width="47.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="124" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="125" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="126" t="s">
         <v>390</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="126" t="s">
         <v>391</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="126" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="71.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="127" t="s">
         <v>393</v>
       </c>
+      <c r="B2" s="124" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="71.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="126" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="71.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="127" t="s">
+      <c r="A3" s="127" t="s">
         <v>395</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="239.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="128" t="s">
+        <v>396</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="123" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="143.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="128" t="s">
+      <c r="A5" s="129" t="s">
         <v>397</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="134.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="130" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="127" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="124" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Registros para logica" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Registros" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Questions" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Registros para logica" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Registros" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Questions" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Registros!$A$1:$J$1</definedName>
@@ -27,7 +27,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>Unknown Author</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B133" authorId="0">
@@ -37,6 +37,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">These goes to the HMI, will add the sensor reading to be displayed here, which are the values from IOLink data</t>
         </r>
@@ -1783,6 +1784,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2167,7 +2169,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="130">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2665,10 +2667,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2703,23 +2701,6 @@
     <cellStyle name="Moneda 2" xfId="20"/>
     <cellStyle name="Moneda 3" xfId="21"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2787,135 +2768,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A96:C97 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="5" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="5" style="1" width="10.66"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2924,14 +2799,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L311"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A96" activeCellId="0" sqref="A96:C97"/>
+      <selection pane="topLeft" activeCell="A96" activeCellId="0" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8069,8 +7944,8 @@
     <mergeCell ref="A148:A152"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8081,14 +7956,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A96:C97 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8097,22 +7972,21 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="124" width="43.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="124" width="47.92"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="124" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="125" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>390</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="125" t="s">
         <v>391</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="125" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="71.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="126" t="s">
         <v>393</v>
       </c>
       <c r="B2" s="124" t="s">
@@ -8120,17 +7994,17 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="71.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="126" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="239.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="127" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="128" t="s">
         <v>397</v>
       </c>
       <c r="B5" s="124" t="s">
@@ -8138,12 +8012,12 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="134.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="129" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="126" t="s">
         <v>400</v>
       </c>
       <c r="B7" s="124" t="s">
@@ -8153,7 +8027,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="390">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -1305,43 +1305,6 @@
   <si>
     <t xml:space="preserve">HEX --------DEC
 HR-0023 – HR-40035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensor_material_pressure </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-HR-0024 – HR-40036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensor_material_temperature </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR-0025 – HR-40037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensor_laser_distance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR-0026 -HR-40038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensor_pressure_regulator_read_set </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR-0027 – HR-40039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensor_pressure_regulator_read_real </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR-0028 – HR-40040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sensor_pressure_regulator_valve_read_state </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR-0029 – HR-40041</t>
   </si>
   <si>
     <t xml:space="preserve">These are HMI registers</t>
@@ -1680,7 +1643,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot; $&quot;* #,##0.00\ ;&quot;-$&quot;* #,##0.00\ ;&quot; $&quot;* \-#\ ;\ @\ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1751,7 +1714,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFDEE6EF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFDEE6EF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -1855,7 +1825,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDE8CB"/>
-        <bgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFDEE6EF"/>
       </patternFill>
     </fill>
     <fill>
@@ -2169,7 +2139,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2554,11 +2524,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2662,31 +2636,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2722,7 +2696,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFD7"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -2806,7 +2780,7 @@
   <dimension ref="A1:L311"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A96" activeCellId="0" sqref="A96"/>
+      <selection pane="topLeft" activeCell="B142" activeCellId="0" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5835,13 +5809,9 @@
       <c r="H133" s="71"/>
       <c r="I133" s="71"/>
     </row>
-    <row r="134" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="96" t="s">
-        <v>352</v>
-      </c>
-      <c r="B134" s="95" t="s">
-        <v>353</v>
-      </c>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="96"/>
+      <c r="B134" s="97"/>
       <c r="C134" s="71"/>
       <c r="D134" s="71"/>
       <c r="E134" s="71"/>
@@ -5851,12 +5821,8 @@
       <c r="I134" s="71"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="96" t="s">
-        <v>354</v>
-      </c>
-      <c r="B135" s="95" t="s">
-        <v>355</v>
-      </c>
+      <c r="A135" s="96"/>
+      <c r="B135" s="97"/>
       <c r="C135" s="71"/>
       <c r="D135" s="71"/>
       <c r="E135" s="71"/>
@@ -5866,12 +5832,8 @@
       <c r="I135" s="71"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="96" t="s">
-        <v>356</v>
-      </c>
-      <c r="B136" s="95" t="s">
-        <v>357</v>
-      </c>
+      <c r="A136" s="96"/>
+      <c r="B136" s="97"/>
       <c r="C136" s="71"/>
       <c r="D136" s="71"/>
       <c r="E136" s="71"/>
@@ -5881,12 +5843,8 @@
       <c r="I136" s="71"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="96" t="s">
-        <v>358</v>
-      </c>
-      <c r="B137" s="95" t="s">
-        <v>359</v>
-      </c>
+      <c r="A137" s="96"/>
+      <c r="B137" s="97"/>
       <c r="C137" s="71"/>
       <c r="D137" s="71"/>
       <c r="E137" s="71"/>
@@ -5896,12 +5854,8 @@
       <c r="I137" s="71"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="96" t="s">
-        <v>360</v>
-      </c>
-      <c r="B138" s="95" t="s">
-        <v>361</v>
-      </c>
+      <c r="A138" s="96"/>
+      <c r="B138" s="97"/>
       <c r="C138" s="71"/>
       <c r="D138" s="71"/>
       <c r="E138" s="71"/>
@@ -5911,12 +5865,8 @@
       <c r="I138" s="71"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="96" t="s">
-        <v>362</v>
-      </c>
-      <c r="B139" s="95" t="s">
-        <v>363</v>
-      </c>
+      <c r="A139" s="96"/>
+      <c r="B139" s="97"/>
       <c r="C139" s="71"/>
       <c r="D139" s="71"/>
       <c r="E139" s="71"/>
@@ -5979,8 +5929,8 @@
     </row>
     <row r="145" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="71"/>
-      <c r="B145" s="97" t="s">
-        <v>364</v>
+      <c r="B145" s="98" t="s">
+        <v>352</v>
       </c>
       <c r="C145" s="71"/>
       <c r="D145" s="71"/>
@@ -5991,15 +5941,15 @@
       <c r="I145" s="71"/>
     </row>
     <row r="146" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="98"/>
-      <c r="B146" s="99" t="s">
-        <v>365</v>
-      </c>
-      <c r="C146" s="99" t="s">
-        <v>366</v>
-      </c>
-      <c r="D146" s="100" t="s">
-        <v>367</v>
+      <c r="A146" s="99"/>
+      <c r="B146" s="100" t="s">
+        <v>353</v>
+      </c>
+      <c r="C146" s="100" t="s">
+        <v>354</v>
+      </c>
+      <c r="D146" s="101" t="s">
+        <v>355</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>7</v>
@@ -6012,7 +5962,7 @@
       <c r="I146" s="71"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="101"/>
+      <c r="A147" s="102"/>
       <c r="B147" s="71"/>
       <c r="C147" s="71"/>
       <c r="D147" s="71"/>
@@ -6023,68 +5973,68 @@
       <c r="I147" s="71"/>
     </row>
     <row r="148" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="102" t="s">
-        <v>368</v>
-      </c>
-      <c r="B148" s="103" t="s">
-        <v>369</v>
-      </c>
-      <c r="C148" s="104" t="s">
-        <v>370</v>
-      </c>
-      <c r="D148" s="105" t="s">
-        <v>371</v>
-      </c>
-      <c r="E148" s="106" t="s">
-        <v>372</v>
-      </c>
-      <c r="F148" s="107" t="s">
-        <v>373</v>
+      <c r="A148" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="B148" s="104" t="s">
+        <v>357</v>
+      </c>
+      <c r="C148" s="105" t="s">
+        <v>358</v>
+      </c>
+      <c r="D148" s="106" t="s">
+        <v>359</v>
+      </c>
+      <c r="E148" s="107" t="s">
+        <v>360</v>
+      </c>
+      <c r="F148" s="108" t="s">
+        <v>361</v>
       </c>
       <c r="G148" s="71"/>
       <c r="H148" s="71"/>
       <c r="I148" s="71"/>
     </row>
     <row r="149" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="102"/>
-      <c r="B149" s="108" t="s">
-        <v>374</v>
-      </c>
-      <c r="C149" s="109" t="s">
-        <v>375</v>
-      </c>
-      <c r="D149" s="110" t="s">
-        <v>376</v>
-      </c>
-      <c r="E149" s="111" t="s">
-        <v>377</v>
-      </c>
-      <c r="F149" s="107" t="s">
-        <v>378</v>
+      <c r="A149" s="103"/>
+      <c r="B149" s="109" t="s">
+        <v>362</v>
+      </c>
+      <c r="C149" s="110" t="s">
+        <v>363</v>
+      </c>
+      <c r="D149" s="111" t="s">
+        <v>364</v>
+      </c>
+      <c r="E149" s="112" t="s">
+        <v>365</v>
+      </c>
+      <c r="F149" s="108" t="s">
+        <v>366</v>
       </c>
       <c r="G149" s="71"/>
       <c r="H149" s="71"/>
       <c r="I149" s="71"/>
     </row>
     <row r="150" customFormat="false" ht="93.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="102"/>
-      <c r="B150" s="112" t="s">
-        <v>379</v>
-      </c>
-      <c r="C150" s="113" t="s">
-        <v>380</v>
-      </c>
-      <c r="D150" s="114" t="s">
-        <v>381</v>
-      </c>
-      <c r="E150" s="115" t="s">
+      <c r="A150" s="103"/>
+      <c r="B150" s="113" t="s">
+        <v>367</v>
+      </c>
+      <c r="C150" s="114" t="s">
+        <v>368</v>
+      </c>
+      <c r="D150" s="115" t="s">
+        <v>369</v>
+      </c>
+      <c r="E150" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="116" t="s">
+      <c r="F150" s="117" t="s">
         <v>12</v>
       </c>
       <c r="G150" s="91" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="H150" s="71"/>
       <c r="I150" s="71"/>
@@ -6093,24 +6043,24 @@
       <c r="L150" s="71"/>
     </row>
     <row r="151" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="102"/>
-      <c r="B151" s="117" t="s">
-        <v>383</v>
-      </c>
-      <c r="C151" s="113" t="s">
-        <v>380</v>
-      </c>
-      <c r="D151" s="114" t="s">
-        <v>384</v>
-      </c>
-      <c r="E151" s="115" t="s">
+      <c r="A151" s="103"/>
+      <c r="B151" s="118" t="s">
+        <v>371</v>
+      </c>
+      <c r="C151" s="114" t="s">
+        <v>368</v>
+      </c>
+      <c r="D151" s="115" t="s">
+        <v>372</v>
+      </c>
+      <c r="E151" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="F151" s="116" t="s">
+      <c r="F151" s="117" t="s">
         <v>12</v>
       </c>
       <c r="G151" s="91" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H151" s="71"/>
       <c r="I151" s="71"/>
@@ -6119,20 +6069,20 @@
       <c r="L151" s="71"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="102"/>
-      <c r="B152" s="118" t="s">
-        <v>386</v>
-      </c>
-      <c r="C152" s="119" t="s">
-        <v>380</v>
-      </c>
-      <c r="D152" s="120" t="s">
-        <v>387</v>
-      </c>
-      <c r="E152" s="121" t="s">
+      <c r="A152" s="103"/>
+      <c r="B152" s="119" t="s">
+        <v>374</v>
+      </c>
+      <c r="C152" s="120" t="s">
+        <v>368</v>
+      </c>
+      <c r="D152" s="121" t="s">
+        <v>375</v>
+      </c>
+      <c r="E152" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="F152" s="122" t="s">
+      <c r="F152" s="123" t="s">
         <v>12</v>
       </c>
       <c r="G152" s="71"/>
@@ -6185,11 +6135,11 @@
       <c r="L155" s="71"/>
     </row>
     <row r="156" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="123" t="s">
-        <v>388</v>
+      <c r="A156" s="124" t="s">
+        <v>376</v>
       </c>
       <c r="B156" s="91" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C156" s="71"/>
       <c r="D156" s="71"/>
@@ -7968,60 +7918,60 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="124" width="75.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="124" width="43.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="124" width="47.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="124" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="125" width="75.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="125" width="43.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="125" width="47.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="125" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="125" t="s">
-        <v>390</v>
-      </c>
-      <c r="B1" s="125" t="s">
-        <v>391</v>
-      </c>
-      <c r="C1" s="125" t="s">
-        <v>392</v>
+      <c r="A1" s="126" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="126" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="126" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="71.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="126" t="s">
-        <v>393</v>
-      </c>
-      <c r="B2" s="124" t="s">
-        <v>394</v>
+      <c r="A2" s="127" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="125" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="71.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="126" t="s">
-        <v>395</v>
+      <c r="A3" s="127" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="239.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="127" t="s">
-        <v>396</v>
+      <c r="A4" s="128" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="128" t="s">
-        <v>397</v>
-      </c>
-      <c r="B5" s="124" t="s">
-        <v>398</v>
+      <c r="A5" s="129" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" s="125" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="134.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="129" t="s">
-        <v>399</v>
+      <c r="A6" s="130" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="126" t="s">
-        <v>400</v>
-      </c>
-      <c r="B7" s="124" t="s">
-        <v>401</v>
+      <c r="A7" s="127" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="125" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -22,29 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="B133" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">These goes to the HMI, will add the sensor reading to be displayed here, which are the values from IOLink data</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1291,7 +1268,7 @@
     <t xml:space="preserve">seleccio de tamaño de cubeta (1, 2, 3)</t>
   </si>
   <si>
-    <t xml:space="preserve">bares de presion limite</t>
+    <t xml:space="preserve">param_pressure_guard_limit</t>
   </si>
   <si>
     <t xml:space="preserve">HR-0022</t>
@@ -1300,7 +1277,7 @@
     <t xml:space="preserve">NEW</t>
   </si>
   <si>
-    <t xml:space="preserve">sensor_manual_recycle_count</t>
+    <t xml:space="preserve">status_manual_recycle_count</t>
   </si>
   <si>
     <t xml:space="preserve">HEX --------DEC
@@ -1705,6 +1682,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF1E6A39"/>
@@ -1748,12 +1731,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2139,7 +2116,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2512,7 +2489,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2524,15 +2505,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2636,7 +2617,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2750,7 +2731,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A134:B134 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2779,8 +2760,8 @@
   </sheetPr>
   <dimension ref="A1:L311"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B142" activeCellId="0" sqref="B142"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A134" activeCellId="0" sqref="A134:B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5778,7 +5759,7 @@
       <c r="I131" s="71"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="78" t="s">
+      <c r="A132" s="93" t="s">
         <v>347</v>
       </c>
       <c r="B132" s="79" t="s">
@@ -5786,7 +5767,7 @@
       </c>
       <c r="C132" s="19"/>
       <c r="D132" s="9"/>
-      <c r="E132" s="93" t="s">
+      <c r="E132" s="94" t="s">
         <v>349</v>
       </c>
       <c r="F132" s="71"/>
@@ -5795,10 +5776,10 @@
       <c r="I132" s="71"/>
     </row>
     <row r="133" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="94" t="s">
+      <c r="A133" s="95" t="s">
         <v>350</v>
       </c>
-      <c r="B133" s="95" t="s">
+      <c r="B133" s="96" t="s">
         <v>351</v>
       </c>
       <c r="C133" s="19"/>
@@ -5810,8 +5791,8 @@
       <c r="I133" s="71"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="96"/>
-      <c r="B134" s="97"/>
+      <c r="A134" s="95"/>
+      <c r="B134" s="96"/>
       <c r="C134" s="71"/>
       <c r="D134" s="71"/>
       <c r="E134" s="71"/>
@@ -5821,8 +5802,8 @@
       <c r="I134" s="71"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="96"/>
-      <c r="B135" s="97"/>
+      <c r="A135" s="97"/>
+      <c r="B135" s="98"/>
       <c r="C135" s="71"/>
       <c r="D135" s="71"/>
       <c r="E135" s="71"/>
@@ -5832,8 +5813,8 @@
       <c r="I135" s="71"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="96"/>
-      <c r="B136" s="97"/>
+      <c r="A136" s="97"/>
+      <c r="B136" s="98"/>
       <c r="C136" s="71"/>
       <c r="D136" s="71"/>
       <c r="E136" s="71"/>
@@ -5843,8 +5824,8 @@
       <c r="I136" s="71"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="96"/>
-      <c r="B137" s="97"/>
+      <c r="A137" s="97"/>
+      <c r="B137" s="98"/>
       <c r="C137" s="71"/>
       <c r="D137" s="71"/>
       <c r="E137" s="71"/>
@@ -5854,8 +5835,8 @@
       <c r="I137" s="71"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="96"/>
-      <c r="B138" s="97"/>
+      <c r="A138" s="97"/>
+      <c r="B138" s="98"/>
       <c r="C138" s="71"/>
       <c r="D138" s="71"/>
       <c r="E138" s="71"/>
@@ -5865,8 +5846,8 @@
       <c r="I138" s="71"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="96"/>
-      <c r="B139" s="97"/>
+      <c r="A139" s="97"/>
+      <c r="B139" s="98"/>
       <c r="C139" s="71"/>
       <c r="D139" s="71"/>
       <c r="E139" s="71"/>
@@ -5929,7 +5910,7 @@
     </row>
     <row r="145" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="71"/>
-      <c r="B145" s="98" t="s">
+      <c r="B145" s="99" t="s">
         <v>352</v>
       </c>
       <c r="C145" s="71"/>
@@ -5941,14 +5922,14 @@
       <c r="I145" s="71"/>
     </row>
     <row r="146" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="99"/>
-      <c r="B146" s="100" t="s">
+      <c r="A146" s="100"/>
+      <c r="B146" s="101" t="s">
         <v>353</v>
       </c>
-      <c r="C146" s="100" t="s">
+      <c r="C146" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="D146" s="101" t="s">
+      <c r="D146" s="102" t="s">
         <v>355</v>
       </c>
       <c r="E146" s="9" t="s">
@@ -5962,7 +5943,7 @@
       <c r="I146" s="71"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="102"/>
+      <c r="A147" s="103"/>
       <c r="B147" s="71"/>
       <c r="C147" s="71"/>
       <c r="D147" s="71"/>
@@ -5973,22 +5954,22 @@
       <c r="I147" s="71"/>
     </row>
     <row r="148" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="103" t="s">
+      <c r="A148" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="B148" s="104" t="s">
+      <c r="B148" s="105" t="s">
         <v>357</v>
       </c>
-      <c r="C148" s="105" t="s">
+      <c r="C148" s="106" t="s">
         <v>358</v>
       </c>
-      <c r="D148" s="106" t="s">
+      <c r="D148" s="107" t="s">
         <v>359</v>
       </c>
-      <c r="E148" s="107" t="s">
+      <c r="E148" s="108" t="s">
         <v>360</v>
       </c>
-      <c r="F148" s="108" t="s">
+      <c r="F148" s="109" t="s">
         <v>361</v>
       </c>
       <c r="G148" s="71"/>
@@ -5996,20 +5977,20 @@
       <c r="I148" s="71"/>
     </row>
     <row r="149" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="103"/>
-      <c r="B149" s="109" t="s">
+      <c r="A149" s="104"/>
+      <c r="B149" s="110" t="s">
         <v>362</v>
       </c>
-      <c r="C149" s="110" t="s">
+      <c r="C149" s="111" t="s">
         <v>363</v>
       </c>
-      <c r="D149" s="111" t="s">
+      <c r="D149" s="112" t="s">
         <v>364</v>
       </c>
-      <c r="E149" s="112" t="s">
+      <c r="E149" s="113" t="s">
         <v>365</v>
       </c>
-      <c r="F149" s="108" t="s">
+      <c r="F149" s="109" t="s">
         <v>366</v>
       </c>
       <c r="G149" s="71"/>
@@ -6017,20 +5998,20 @@
       <c r="I149" s="71"/>
     </row>
     <row r="150" customFormat="false" ht="93.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="103"/>
-      <c r="B150" s="113" t="s">
+      <c r="A150" s="104"/>
+      <c r="B150" s="114" t="s">
         <v>367</v>
       </c>
-      <c r="C150" s="114" t="s">
+      <c r="C150" s="115" t="s">
         <v>368</v>
       </c>
-      <c r="D150" s="115" t="s">
+      <c r="D150" s="116" t="s">
         <v>369</v>
       </c>
-      <c r="E150" s="116" t="s">
+      <c r="E150" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="117" t="s">
+      <c r="F150" s="118" t="s">
         <v>12</v>
       </c>
       <c r="G150" s="91" t="s">
@@ -6043,20 +6024,20 @@
       <c r="L150" s="71"/>
     </row>
     <row r="151" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="103"/>
-      <c r="B151" s="118" t="s">
+      <c r="A151" s="104"/>
+      <c r="B151" s="119" t="s">
         <v>371</v>
       </c>
-      <c r="C151" s="114" t="s">
+      <c r="C151" s="115" t="s">
         <v>368</v>
       </c>
-      <c r="D151" s="115" t="s">
+      <c r="D151" s="116" t="s">
         <v>372</v>
       </c>
-      <c r="E151" s="116" t="s">
+      <c r="E151" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="F151" s="117" t="s">
+      <c r="F151" s="118" t="s">
         <v>12</v>
       </c>
       <c r="G151" s="91" t="s">
@@ -6069,20 +6050,20 @@
       <c r="L151" s="71"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="103"/>
-      <c r="B152" s="119" t="s">
+      <c r="A152" s="104"/>
+      <c r="B152" s="120" t="s">
         <v>374</v>
       </c>
-      <c r="C152" s="120" t="s">
+      <c r="C152" s="121" t="s">
         <v>368</v>
       </c>
-      <c r="D152" s="121" t="s">
+      <c r="D152" s="122" t="s">
         <v>375</v>
       </c>
-      <c r="E152" s="122" t="s">
+      <c r="E152" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="F152" s="123" t="s">
+      <c r="F152" s="124" t="s">
         <v>12</v>
       </c>
       <c r="G152" s="71"/>
@@ -6135,7 +6116,7 @@
       <c r="L155" s="71"/>
     </row>
     <row r="156" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="124" t="s">
+      <c r="A156" s="125" t="s">
         <v>376</v>
       </c>
       <c r="B156" s="91" t="s">
@@ -7900,8 +7881,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7913,64 +7893,64 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A134:B134 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="125" width="75.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="125" width="43.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="125" width="47.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="125" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="126" width="75.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="126" width="43.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="126" width="47.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="126" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="127" t="s">
         <v>379</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="127" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="71.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="128" t="s">
         <v>381</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="126" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="71.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="128" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="239.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="129" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="130" t="s">
         <v>385</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="126" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="134.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="131" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="128" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="126" t="s">
         <v>389</v>
       </c>
     </row>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Registros para logica" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="391">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -858,6 +858,9 @@
   </si>
   <si>
     <t xml:space="preserve">Botón para despresurizar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como despresurizar?</t>
   </si>
   <si>
     <t xml:space="preserve">CB-0013</t>
@@ -1620,7 +1623,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot; $&quot;* #,##0.00\ ;&quot;-$&quot;* #,##0.00\ ;&quot; $&quot;* \-#\ ;\ @\ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1791,8 +1794,14 @@
       <family val="0"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1851,6 +1860,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF5CE"/>
         <bgColor rgb="FFFFFFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
@@ -2116,7 +2131,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2461,6 +2476,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2497,11 +2516,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2625,7 +2644,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2643,6 +2662,10 @@
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2674,7 +2697,7 @@
       <rgbColor rgb="FF0093D9"/>
       <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFDEE6EF"/>
@@ -2731,7 +2754,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A134:B134 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2760,8 +2783,8 @@
   </sheetPr>
   <dimension ref="A1:L311"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A134" activeCellId="0" sqref="A134:B134"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F99" activeCellId="0" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5075,7 +5098,9 @@
       <c r="E99" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="F99" s="71"/>
+      <c r="F99" s="86" t="s">
+        <v>213</v>
+      </c>
       <c r="G99" s="71"/>
       <c r="H99" s="71"/>
       <c r="I99" s="71"/>
@@ -5085,19 +5110,19 @@
         <v>105</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D100" s="77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E100" s="77" t="s">
         <v>181</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G100" s="31"/>
       <c r="H100" s="31"/>
@@ -5109,13 +5134,13 @@
         <v>132</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D101" s="77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E101" s="77" t="s">
         <v>181</v>
@@ -5127,16 +5152,16 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D102" s="77" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E102" s="77" t="s">
         <v>181</v>
@@ -5148,19 +5173,19 @@
     </row>
     <row r="103" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="81" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D103" s="77" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E103" s="77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F103" s="71"/>
       <c r="G103" s="71"/>
@@ -5169,19 +5194,19 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D104" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="E104" s="77" t="s">
         <v>229</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D104" s="77" t="s">
-        <v>232</v>
-      </c>
-      <c r="E104" s="77" t="s">
-        <v>228</v>
       </c>
       <c r="F104" s="71"/>
       <c r="G104" s="71"/>
@@ -5193,16 +5218,16 @@
         <v>149</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D105" s="77" t="s">
         <v>152</v>
       </c>
       <c r="E105" s="77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F105" s="71"/>
       <c r="G105" s="71"/>
@@ -5210,23 +5235,23 @@
       <c r="I105" s="71"/>
     </row>
     <row r="106" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="86" t="s">
-        <v>235</v>
+      <c r="A106" s="87" t="s">
+        <v>236</v>
       </c>
       <c r="B106" s="79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E106" s="77" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
@@ -5235,73 +5260,73 @@
     </row>
     <row r="107" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="84" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B107" s="79" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E107" s="77" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="78" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B108" s="79" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E108" s="77" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="78" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B109" s="79" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E109" s="77" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="87" t="s">
-        <v>253</v>
+      <c r="A110" s="88" t="s">
+        <v>254</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E110" s="77" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
@@ -5309,23 +5334,23 @@
       <c r="J110" s="9"/>
     </row>
     <row r="111" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="87" t="s">
-        <v>259</v>
+      <c r="A111" s="88" t="s">
+        <v>260</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E111" s="77" t="s">
-        <v>257</v>
-      </c>
-      <c r="F111" s="88" t="s">
-        <v>263</v>
+        <v>258</v>
+      </c>
+      <c r="F111" s="89" t="s">
+        <v>264</v>
       </c>
       <c r="G111" s="71"/>
       <c r="H111" s="71"/>
@@ -5333,22 +5358,22 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="81" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>200</v>
       </c>
       <c r="E112" s="77" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
@@ -5356,63 +5381,63 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="81" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>204</v>
       </c>
       <c r="E113" s="77" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G113" s="71"/>
       <c r="H113" s="71"/>
       <c r="I113" s="71"/>
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="87" t="s">
-        <v>271</v>
+      <c r="A114" s="88" t="s">
+        <v>272</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E114" s="77" t="s">
-        <v>257</v>
-      </c>
-      <c r="F114" s="89" t="s">
-        <v>275</v>
-      </c>
-      <c r="G114" s="89"/>
-      <c r="H114" s="89"/>
-      <c r="I114" s="89"/>
-      <c r="J114" s="89"/>
+        <v>258</v>
+      </c>
+      <c r="F114" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="G114" s="90"/>
+      <c r="H114" s="90"/>
+      <c r="I114" s="90"/>
+      <c r="J114" s="90"/>
     </row>
     <row r="115" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D115" s="77" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E115" s="77" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F115" s="71"/>
       <c r="G115" s="71"/>
@@ -5421,19 +5446,19 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B116" s="79" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E116" s="77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F116" s="71"/>
       <c r="G116" s="71"/>
@@ -5442,19 +5467,19 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="B117" s="79" t="s">
+        <v>286</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E117" s="77" t="s">
         <v>284</v>
-      </c>
-      <c r="B117" s="79" t="s">
-        <v>285</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E117" s="77" t="s">
-        <v>283</v>
       </c>
       <c r="F117" s="71"/>
       <c r="G117" s="71"/>
@@ -5463,19 +5488,19 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="78" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B118" s="79" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E118" s="77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F118" s="71"/>
       <c r="G118" s="71"/>
@@ -5484,19 +5509,19 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="78" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B119" s="79" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E119" s="77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F119" s="71"/>
       <c r="G119" s="71"/>
@@ -5505,19 +5530,19 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="78" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B120" s="79" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E120" s="77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
@@ -5527,22 +5552,22 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="78" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B121" s="79" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E121" s="77" t="s">
-        <v>283</v>
-      </c>
-      <c r="F121" s="90" t="s">
-        <v>304</v>
+        <v>284</v>
+      </c>
+      <c r="F121" s="91" t="s">
+        <v>305</v>
       </c>
       <c r="G121" s="71"/>
       <c r="H121" s="71"/>
@@ -5550,19 +5575,19 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="78" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B122" s="79" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E122" s="77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F122" s="71"/>
       <c r="G122" s="71"/>
@@ -5571,22 +5596,22 @@
     </row>
     <row r="123" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E123" s="77" t="s">
-        <v>283</v>
-      </c>
-      <c r="F123" s="91" t="s">
-        <v>313</v>
+        <v>284</v>
+      </c>
+      <c r="F123" s="92" t="s">
+        <v>314</v>
       </c>
       <c r="G123" s="71"/>
       <c r="H123" s="71"/>
@@ -5594,19 +5619,19 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E124" s="77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F124" s="71"/>
       <c r="G124" s="71"/>
@@ -5615,19 +5640,19 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="24" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E125" s="77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F125" s="71"/>
       <c r="G125" s="71"/>
@@ -5636,19 +5661,19 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B126" s="79" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E126" s="77" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F126" s="71"/>
       <c r="G126" s="71"/>
@@ -5657,19 +5682,19 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="B127" s="79" t="s">
+        <v>329</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E127" s="77" t="s">
         <v>327</v>
-      </c>
-      <c r="B127" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="E127" s="77" t="s">
-        <v>326</v>
       </c>
       <c r="F127" s="71"/>
       <c r="G127" s="71"/>
@@ -5678,19 +5703,19 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="78" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B128" s="79" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E128" s="77" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F128" s="71"/>
       <c r="G128" s="71"/>
@@ -5698,23 +5723,23 @@
       <c r="I128" s="71"/>
     </row>
     <row r="129" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="92" t="s">
-        <v>335</v>
+      <c r="A129" s="93" t="s">
+        <v>336</v>
       </c>
       <c r="B129" s="79" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E129" s="77" t="s">
-        <v>326</v>
-      </c>
-      <c r="F129" s="91" t="s">
-        <v>339</v>
+        <v>327</v>
+      </c>
+      <c r="F129" s="92" t="s">
+        <v>340</v>
       </c>
       <c r="G129" s="71"/>
       <c r="H129" s="71"/>
@@ -5722,19 +5747,19 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="78" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B130" s="79" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E130" s="77" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F130" s="71"/>
       <c r="G130" s="71"/>
@@ -5743,14 +5768,14 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="78" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B131" s="79" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C131" s="19"/>
       <c r="D131" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E131" s="77"/>
       <c r="F131" s="71"/>
@@ -5759,16 +5784,16 @@
       <c r="I131" s="71"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="93" t="s">
-        <v>347</v>
+      <c r="A132" s="94" t="s">
+        <v>348</v>
       </c>
       <c r="B132" s="79" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C132" s="19"/>
       <c r="D132" s="9"/>
-      <c r="E132" s="94" t="s">
-        <v>349</v>
+      <c r="E132" s="95" t="s">
+        <v>350</v>
       </c>
       <c r="F132" s="71"/>
       <c r="G132" s="71"/>
@@ -5776,11 +5801,11 @@
       <c r="I132" s="71"/>
     </row>
     <row r="133" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="95" t="s">
-        <v>350</v>
-      </c>
-      <c r="B133" s="96" t="s">
+      <c r="A133" s="96" t="s">
         <v>351</v>
+      </c>
+      <c r="B133" s="97" t="s">
+        <v>352</v>
       </c>
       <c r="C133" s="19"/>
       <c r="D133" s="9"/>
@@ -5791,8 +5816,8 @@
       <c r="I133" s="71"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="95"/>
-      <c r="B134" s="96"/>
+      <c r="A134" s="96"/>
+      <c r="B134" s="97"/>
       <c r="C134" s="71"/>
       <c r="D134" s="71"/>
       <c r="E134" s="71"/>
@@ -5802,8 +5827,8 @@
       <c r="I134" s="71"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="97"/>
-      <c r="B135" s="98"/>
+      <c r="A135" s="98"/>
+      <c r="B135" s="99"/>
       <c r="C135" s="71"/>
       <c r="D135" s="71"/>
       <c r="E135" s="71"/>
@@ -5813,8 +5838,8 @@
       <c r="I135" s="71"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="97"/>
-      <c r="B136" s="98"/>
+      <c r="A136" s="98"/>
+      <c r="B136" s="99"/>
       <c r="C136" s="71"/>
       <c r="D136" s="71"/>
       <c r="E136" s="71"/>
@@ -5824,8 +5849,8 @@
       <c r="I136" s="71"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="97"/>
-      <c r="B137" s="98"/>
+      <c r="A137" s="98"/>
+      <c r="B137" s="99"/>
       <c r="C137" s="71"/>
       <c r="D137" s="71"/>
       <c r="E137" s="71"/>
@@ -5835,8 +5860,8 @@
       <c r="I137" s="71"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="97"/>
-      <c r="B138" s="98"/>
+      <c r="A138" s="98"/>
+      <c r="B138" s="99"/>
       <c r="C138" s="71"/>
       <c r="D138" s="71"/>
       <c r="E138" s="71"/>
@@ -5846,8 +5871,8 @@
       <c r="I138" s="71"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="97"/>
-      <c r="B139" s="98"/>
+      <c r="A139" s="98"/>
+      <c r="B139" s="99"/>
       <c r="C139" s="71"/>
       <c r="D139" s="71"/>
       <c r="E139" s="71"/>
@@ -5910,8 +5935,8 @@
     </row>
     <row r="145" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="71"/>
-      <c r="B145" s="99" t="s">
-        <v>352</v>
+      <c r="B145" s="100" t="s">
+        <v>353</v>
       </c>
       <c r="C145" s="71"/>
       <c r="D145" s="71"/>
@@ -5922,15 +5947,15 @@
       <c r="I145" s="71"/>
     </row>
     <row r="146" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="100"/>
-      <c r="B146" s="101" t="s">
-        <v>353</v>
-      </c>
-      <c r="C146" s="101" t="s">
+      <c r="A146" s="101"/>
+      <c r="B146" s="102" t="s">
         <v>354</v>
       </c>
-      <c r="D146" s="102" t="s">
+      <c r="C146" s="102" t="s">
         <v>355</v>
+      </c>
+      <c r="D146" s="103" t="s">
+        <v>356</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>7</v>
@@ -5943,7 +5968,7 @@
       <c r="I146" s="71"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="103"/>
+      <c r="A147" s="104"/>
       <c r="B147" s="71"/>
       <c r="C147" s="71"/>
       <c r="D147" s="71"/>
@@ -5954,68 +5979,68 @@
       <c r="I147" s="71"/>
     </row>
     <row r="148" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="104" t="s">
-        <v>356</v>
-      </c>
-      <c r="B148" s="105" t="s">
+      <c r="A148" s="105" t="s">
         <v>357</v>
       </c>
-      <c r="C148" s="106" t="s">
+      <c r="B148" s="106" t="s">
         <v>358</v>
       </c>
-      <c r="D148" s="107" t="s">
+      <c r="C148" s="107" t="s">
         <v>359</v>
       </c>
-      <c r="E148" s="108" t="s">
+      <c r="D148" s="108" t="s">
         <v>360</v>
       </c>
-      <c r="F148" s="109" t="s">
+      <c r="E148" s="109" t="s">
         <v>361</v>
+      </c>
+      <c r="F148" s="110" t="s">
+        <v>362</v>
       </c>
       <c r="G148" s="71"/>
       <c r="H148" s="71"/>
       <c r="I148" s="71"/>
     </row>
     <row r="149" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="104"/>
-      <c r="B149" s="110" t="s">
-        <v>362</v>
-      </c>
-      <c r="C149" s="111" t="s">
+      <c r="A149" s="105"/>
+      <c r="B149" s="111" t="s">
         <v>363</v>
       </c>
-      <c r="D149" s="112" t="s">
+      <c r="C149" s="112" t="s">
         <v>364</v>
       </c>
-      <c r="E149" s="113" t="s">
+      <c r="D149" s="113" t="s">
         <v>365</v>
       </c>
-      <c r="F149" s="109" t="s">
+      <c r="E149" s="114" t="s">
         <v>366</v>
+      </c>
+      <c r="F149" s="110" t="s">
+        <v>367</v>
       </c>
       <c r="G149" s="71"/>
       <c r="H149" s="71"/>
       <c r="I149" s="71"/>
     </row>
     <row r="150" customFormat="false" ht="93.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="104"/>
-      <c r="B150" s="114" t="s">
-        <v>367</v>
-      </c>
-      <c r="C150" s="115" t="s">
+      <c r="A150" s="105"/>
+      <c r="B150" s="115" t="s">
         <v>368</v>
       </c>
-      <c r="D150" s="116" t="s">
+      <c r="C150" s="116" t="s">
         <v>369</v>
       </c>
-      <c r="E150" s="117" t="s">
+      <c r="D150" s="117" t="s">
+        <v>370</v>
+      </c>
+      <c r="E150" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="F150" s="118" t="s">
+      <c r="F150" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="91" t="s">
-        <v>370</v>
+      <c r="G150" s="92" t="s">
+        <v>371</v>
       </c>
       <c r="H150" s="71"/>
       <c r="I150" s="71"/>
@@ -6024,24 +6049,24 @@
       <c r="L150" s="71"/>
     </row>
     <row r="151" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="104"/>
-      <c r="B151" s="119" t="s">
-        <v>371</v>
-      </c>
-      <c r="C151" s="115" t="s">
-        <v>368</v>
-      </c>
-      <c r="D151" s="116" t="s">
+      <c r="A151" s="105"/>
+      <c r="B151" s="120" t="s">
         <v>372</v>
       </c>
-      <c r="E151" s="117" t="s">
+      <c r="C151" s="116" t="s">
+        <v>369</v>
+      </c>
+      <c r="D151" s="117" t="s">
+        <v>373</v>
+      </c>
+      <c r="E151" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="F151" s="118" t="s">
+      <c r="F151" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="G151" s="91" t="s">
-        <v>373</v>
+      <c r="G151" s="92" t="s">
+        <v>374</v>
       </c>
       <c r="H151" s="71"/>
       <c r="I151" s="71"/>
@@ -6050,20 +6075,20 @@
       <c r="L151" s="71"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="104"/>
-      <c r="B152" s="120" t="s">
-        <v>374</v>
-      </c>
-      <c r="C152" s="121" t="s">
-        <v>368</v>
-      </c>
-      <c r="D152" s="122" t="s">
+      <c r="A152" s="105"/>
+      <c r="B152" s="121" t="s">
         <v>375</v>
       </c>
-      <c r="E152" s="123" t="s">
+      <c r="C152" s="122" t="s">
+        <v>369</v>
+      </c>
+      <c r="D152" s="123" t="s">
+        <v>376</v>
+      </c>
+      <c r="E152" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="F152" s="124" t="s">
+      <c r="F152" s="125" t="s">
         <v>12</v>
       </c>
       <c r="G152" s="71"/>
@@ -6116,11 +6141,11 @@
       <c r="L155" s="71"/>
     </row>
     <row r="156" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="125" t="s">
-        <v>376</v>
-      </c>
-      <c r="B156" s="91" t="s">
+      <c r="A156" s="126" t="s">
         <v>377</v>
+      </c>
+      <c r="B156" s="92" t="s">
+        <v>378</v>
       </c>
       <c r="C156" s="71"/>
       <c r="D156" s="71"/>
@@ -7890,68 +7915,73 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A134:B134 B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="126" width="75.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="126" width="43.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="126" width="47.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="126" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="127" width="75.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="127" width="43.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="127" width="47.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="127" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="127" t="s">
-        <v>378</v>
-      </c>
-      <c r="B1" s="127" t="s">
+      <c r="A1" s="128" t="s">
         <v>379</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="B1" s="128" t="s">
         <v>380</v>
       </c>
+      <c r="C1" s="128" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="71.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="128" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" s="126" t="s">
+      <c r="A2" s="129" t="s">
         <v>382</v>
       </c>
+      <c r="B2" s="127" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="71.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="128" t="s">
-        <v>383</v>
+      <c r="A3" s="129" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="239.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="129" t="s">
-        <v>384</v>
+      <c r="A4" s="130" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="130" t="s">
-        <v>385</v>
-      </c>
-      <c r="B5" s="126" t="s">
+      <c r="A5" s="131" t="s">
         <v>386</v>
       </c>
+      <c r="B5" s="127" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="134.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="131" t="s">
-        <v>387</v>
+      <c r="A6" s="132" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="128" t="s">
-        <v>388</v>
-      </c>
-      <c r="B7" s="126" t="s">
+      <c r="A7" s="129" t="s">
         <v>389</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="133" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="392">
   <si>
     <t xml:space="preserve">Elemento IOLink</t>
   </si>
@@ -800,7 +800,27 @@
     <t xml:space="preserve">Tiempo que durá recirculando el material cuando activas el recirculado ciclico</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-llenado de linea</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Pre-llenado de linea
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF127622"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">** TBD</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">CB-000E</t>
@@ -896,7 +916,26 @@
     <t xml:space="preserve">Pantalla Home</t>
   </si>
   <si>
-    <t xml:space="preserve">Carrito recirculado</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Carrito recirculado
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF127622"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">** TBD</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">CB-0016</t>
@@ -911,7 +950,26 @@
     <t xml:space="preserve">1:1</t>
   </si>
   <si>
-    <t xml:space="preserve">Recirculado retractil</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Recirculado retractil
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF127622"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">** TBD</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">CB-0017</t>
@@ -1614,6 +1672,9 @@
   <si>
     <t xml:space="preserve">use reg as params</t>
   </si>
+  <si>
+    <t xml:space="preserve">cual es la diferencia en la accion del recirculado retractil y de “carrito”?</t>
+  </si>
 </sst>
 </file>
 
@@ -1623,7 +1684,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot; $&quot;* #,##0.00\ ;&quot;-$&quot;* #,##0.00\ ;&quot; $&quot;* \-#\ ;\ @\ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1683,6 +1744,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF127622"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF127622"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1817,7 +1891,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0093D9"/>
-        <bgColor rgb="FF008080"/>
+        <bgColor rgb="FF0066CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -2508,11 +2582,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2524,15 +2598,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2636,35 +2710,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2690,7 +2764,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF1E6A39"/>
+      <rgbColor rgb="FF127622"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -2711,7 +2785,7 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF1E6A39"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -2783,8 +2857,8 @@
   </sheetPr>
   <dimension ref="A1:L311"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F99" activeCellId="0" sqref="F99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B106" activeCellId="0" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4998,8 +5072,8 @@
       <c r="H94" s="71"/>
       <c r="I94" s="71"/>
     </row>
-    <row r="95" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="81" t="s">
+    <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="80" t="s">
         <v>193</v>
       </c>
       <c r="B95" s="9" t="s">
@@ -5172,7 +5246,7 @@
       <c r="I102" s="71"/>
     </row>
     <row r="103" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="81" t="s">
+      <c r="A103" s="80" t="s">
         <v>225</v>
       </c>
       <c r="B103" s="9" t="s">
@@ -5192,8 +5266,8 @@
       <c r="H103" s="71"/>
       <c r="I103" s="71"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="81" t="s">
+    <row r="104" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="80" t="s">
         <v>230</v>
       </c>
       <c r="B104" s="9" t="s">
@@ -7915,15 +7989,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="127" width="75.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="127" width="82.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="127" width="43.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="127" width="47.92"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="127" width="11.52"/>
@@ -7982,6 +8056,11 @@
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="133" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="127" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Tabla_de_registros_HMI_Ivan.xlsx
+++ b/documentation/Tabla_de_registros_HMI_Ivan.xlsx
@@ -5,15 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Registros para logica" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Registros" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Questions" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Registros" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Questions" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Registros!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Registros!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -933,6 +932,7 @@
         <color rgb="FF127622"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">** TBD</t>
     </r>
@@ -967,6 +967,7 @@
         <color rgb="FF127622"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">** TBD</t>
     </r>
@@ -1684,7 +1685,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot; $&quot;* #,##0.00\ ;&quot;-$&quot;* #,##0.00\ ;&quot; $&quot;* \-#\ ;\ @\ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1751,18 +1752,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF127622"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1867,12 +1856,6 @@
       <name val="ArialMT"/>
       <family val="0"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2205,15 +2188,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="132">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2582,11 +2561,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2598,15 +2573,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2710,35 +2685,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2825,5117 +2800,5087 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="5" style="1" width="10.66"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:L311"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B106" activeCellId="0" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="26.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="61.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="45.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="34.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="24.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="49.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="2" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="24.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="49.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="9" t="n">
         <v>1002</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="14" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="14" t="n">
         <v>1003</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="C4" s="17" t="n">
         <v>2002</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="23" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="17" t="n">
         <v>3002</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="24" t="n">
         <v>3003</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="23" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="18" t="n">
+      <c r="C7" s="17" t="n">
         <v>3004</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="14" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="24" t="n">
         <v>3052</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="22" t="s">
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="18" t="n">
+      <c r="C9" s="17" t="n">
         <v>3053</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="13" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="18" t="n">
+      <c r="C10" s="17" t="n">
         <v>4002</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="13" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="30" t="n">
+      <c r="C11" s="29" t="n">
         <v>5051</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="30" t="n">
+      <c r="E11" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="31" t="s">
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="30" t="n">
+      <c r="C12" s="29" t="n">
         <v>5052</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="31"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="30" t="n">
+      <c r="C13" s="29" t="n">
         <v>5052</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="32" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="31"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="30" t="n">
+      <c r="C14" s="29" t="n">
         <v>5052</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="33" t="s">
+      <c r="G14" s="29"/>
+      <c r="H14" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="31"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="34" t="n">
+      <c r="C15" s="33" t="n">
         <v>5052</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="36" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="31"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="30" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="30" t="n">
+      <c r="C16" s="29" t="n">
         <v>5052</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="33" t="s">
+      <c r="G16" s="29"/>
+      <c r="H16" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="31"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="30" t="n">
+      <c r="C17" s="29" t="n">
         <v>5052</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="33" t="s">
+      <c r="G17" s="29"/>
+      <c r="H17" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="31"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="30" t="n">
+      <c r="C18" s="29" t="n">
         <v>5052</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30" t="s">
+      <c r="G18" s="29"/>
+      <c r="H18" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="31"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="30" t="n">
+      <c r="C19" s="29" t="n">
         <v>5052</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30" t="s">
+      <c r="G19" s="29"/>
+      <c r="H19" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="31"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="38" t="n">
+      <c r="C20" s="37" t="n">
         <v>6060</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="38" t="n">
+      <c r="E20" s="37" t="n">
         <v>22</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40" t="s">
+      <c r="G20" s="38"/>
+      <c r="H20" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="41" t="s">
+      <c r="I20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="40" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="42" t="n">
+      <c r="A21" s="8"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="41" t="n">
         <v>6061</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="42" t="n">
+      <c r="E21" s="41" t="n">
         <v>3628</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="23" t="s">
+      <c r="G21" s="42"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="42" t="n">
+      <c r="A22" s="8"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="41" t="n">
         <v>6062</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="42" t="n">
+      <c r="E22" s="41" t="n">
         <v>256</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="23" t="s">
+      <c r="G22" s="42"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="42" t="n">
+      <c r="A23" s="8"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="41" t="n">
         <v>6063</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="42" t="n">
+      <c r="E23" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="23" t="s">
+      <c r="G23" s="42"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="42" t="n">
+      <c r="A24" s="8"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="41" t="n">
         <v>6064</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="42" t="n">
+      <c r="E24" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="23" t="s">
+      <c r="G24" s="42"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="42" t="n">
+      <c r="A25" s="8"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="41" t="n">
         <v>6065</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="42" t="n">
+      <c r="E25" s="41" t="n">
         <v>256</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="23" t="s">
+      <c r="G25" s="42"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="42" t="n">
+      <c r="A26" s="8"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="41" t="n">
         <v>6066</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="42" t="n">
+      <c r="E26" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="23" t="s">
+      <c r="G26" s="42"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="44" t="n">
+      <c r="A27" s="8"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="43" t="n">
         <v>6067</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="44" t="n">
+      <c r="E27" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="23" t="s">
+      <c r="G27" s="44"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
-      <c r="B28" s="46" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="42" t="n">
+      <c r="C28" s="41" t="n">
         <v>6060</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="42" t="n">
+      <c r="E28" s="41" t="n">
         <v>16</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="40" t="s">
+      <c r="G28" s="42"/>
+      <c r="H28" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="I28" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="23" t="s">
+      <c r="I28" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="42" t="n">
+      <c r="A29" s="8"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="41" t="n">
         <v>6061</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="42" t="n">
+      <c r="E29" s="41" t="n">
         <v>3328</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="23" t="s">
+      <c r="G29" s="42"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="42" t="n">
+      <c r="A30" s="8"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="41" t="n">
         <v>6062</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="42" t="n">
+      <c r="E30" s="41" t="n">
         <v>5645</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="23" t="s">
+      <c r="G30" s="42"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="42" t="n">
+      <c r="A31" s="8"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="41" t="n">
         <v>6063</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="42" t="n">
+      <c r="E31" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="23" t="s">
+      <c r="G31" s="42"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="42" t="n">
+      <c r="A32" s="8"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="41" t="n">
         <v>6064</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="42" t="n">
+      <c r="E32" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="42" t="s">
+      <c r="F32" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="43"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="23" t="s">
+      <c r="G32" s="42"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="42" t="n">
+      <c r="A33" s="8"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="41" t="n">
         <v>6065</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="42" t="n">
+      <c r="E33" s="41" t="n">
         <v>256</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="43"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="23" t="s">
+      <c r="G33" s="42"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="42" t="n">
+      <c r="A34" s="8"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="41" t="n">
         <v>6066</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="42" t="n">
+      <c r="E34" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="43"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="23" t="s">
+      <c r="G34" s="42"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="42" t="n">
+      <c r="A35" s="8"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="41" t="n">
         <v>6067</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="42" t="n">
+      <c r="E35" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="23" t="s">
+      <c r="G35" s="42"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="B36" s="47" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="48" t="n">
+      <c r="C36" s="47" t="n">
         <v>6060</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="48" t="n">
+      <c r="E36" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="49"/>
-      <c r="H36" s="50" t="s">
+      <c r="G36" s="48"/>
+      <c r="H36" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="I36" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="23" t="s">
+      <c r="I36" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="51" t="n">
+      <c r="A37" s="8"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="50" t="n">
         <v>6061</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="51" t="n">
+      <c r="E37" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="F37" s="51" t="s">
+      <c r="F37" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="52"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="23" t="s">
+      <c r="G37" s="51"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="51" t="n">
+      <c r="A38" s="8"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="50" t="n">
         <v>6062</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="51" t="n">
+      <c r="E38" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="F38" s="51" t="s">
+      <c r="F38" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="52"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="23" t="s">
+      <c r="G38" s="51"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="51" t="n">
+      <c r="A39" s="8"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="50" t="n">
         <v>6063</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="51" t="n">
+      <c r="E39" s="50" t="n">
         <v>1046</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="52"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="23" t="s">
+      <c r="G39" s="51"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="51" t="n">
+      <c r="A40" s="8"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="50" t="n">
         <v>6064</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="51" t="n">
+      <c r="E40" s="50" t="n">
         <v>3328</v>
       </c>
-      <c r="F40" s="51" t="s">
+      <c r="F40" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="52"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="23" t="s">
+      <c r="G40" s="51"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="51" t="n">
+      <c r="A41" s="8"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="50" t="n">
         <v>6065</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="51" t="n">
+      <c r="E41" s="50" t="n">
         <v>260</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="52"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="23" t="s">
+      <c r="G41" s="51"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="51" t="n">
+      <c r="A42" s="8"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="50" t="n">
         <v>6066</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="51" t="n">
+      <c r="E42" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="F42" s="51" t="s">
+      <c r="F42" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="52"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="23" t="s">
+      <c r="G42" s="51"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="53" t="n">
+      <c r="A43" s="8"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="52" t="n">
         <v>6067</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="53" t="n">
+      <c r="E43" s="52" t="n">
         <v>1024</v>
       </c>
-      <c r="F43" s="53" t="s">
+      <c r="F43" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="54"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" s="23" t="s">
+      <c r="G43" s="53"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9"/>
-      <c r="B44" s="55" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="51" t="n">
+      <c r="C44" s="50" t="n">
         <v>6060</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="51" t="n">
+      <c r="E44" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="F44" s="51" t="s">
+      <c r="F44" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="52"/>
-      <c r="H44" s="50" t="s">
+      <c r="G44" s="51"/>
+      <c r="H44" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="I44" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="23" t="s">
+      <c r="I44" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="51" t="n">
+      <c r="A45" s="8"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="50" t="n">
         <v>6061</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="51" t="n">
+      <c r="E45" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="52"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="23" t="s">
+      <c r="G45" s="51"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="51" t="n">
+      <c r="A46" s="8"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="50" t="n">
         <v>6062</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="D46" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="51" t="n">
+      <c r="E46" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="F46" s="51" t="s">
+      <c r="F46" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="52"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" s="23" t="s">
+      <c r="G46" s="51"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="51" t="n">
+      <c r="A47" s="8"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="50" t="n">
         <v>6063</v>
       </c>
-      <c r="D47" s="51" t="s">
+      <c r="D47" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="51" t="n">
+      <c r="E47" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="F47" s="51" t="s">
+      <c r="F47" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="52"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" s="23" t="s">
+      <c r="G47" s="51"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="51" t="n">
+      <c r="A48" s="8"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="50" t="n">
         <v>6064</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="51" t="n">
+      <c r="E48" s="50" t="n">
         <v>3332</v>
       </c>
-      <c r="F48" s="51" t="s">
+      <c r="F48" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="52"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" s="23" t="s">
+      <c r="G48" s="51"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="51" t="n">
+      <c r="A49" s="8"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="50" t="n">
         <v>6065</v>
       </c>
-      <c r="D49" s="51" t="s">
+      <c r="D49" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="51" t="n">
+      <c r="E49" s="50" t="n">
         <v>1549</v>
       </c>
-      <c r="F49" s="51" t="s">
+      <c r="F49" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="52"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" s="23" t="s">
+      <c r="G49" s="51"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="51" t="n">
+      <c r="A50" s="8"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="50" t="n">
         <v>6066</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="51" t="n">
+      <c r="E50" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="F50" s="51" t="s">
+      <c r="F50" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="52"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" s="23" t="s">
+      <c r="G50" s="51"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="51" t="n">
+      <c r="A51" s="8"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="50" t="n">
         <v>6067</v>
       </c>
-      <c r="D51" s="51" t="s">
+      <c r="D51" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="51" t="n">
+      <c r="E51" s="50" t="n">
         <v>1024</v>
       </c>
-      <c r="F51" s="51" t="s">
+      <c r="F51" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="52"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" s="23" t="s">
+      <c r="G51" s="51"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9"/>
-      <c r="B52" s="56" t="s">
+      <c r="A52" s="8"/>
+      <c r="B52" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="57" t="n">
+      <c r="C52" s="56" t="n">
         <v>6060</v>
       </c>
-      <c r="D52" s="57" t="s">
+      <c r="D52" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="57" t="n">
+      <c r="E52" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="F52" s="57" t="s">
+      <c r="F52" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="58"/>
-      <c r="H52" s="59" t="s">
+      <c r="G52" s="57"/>
+      <c r="H52" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="I52" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="23" t="s">
+      <c r="I52" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="60" t="n">
+      <c r="A53" s="8"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="59" t="n">
         <v>6061</v>
       </c>
-      <c r="D53" s="60" t="s">
+      <c r="D53" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="60" t="n">
+      <c r="E53" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="F53" s="60" t="s">
+      <c r="F53" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="61"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="23" t="s">
+      <c r="G53" s="60"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="60" t="n">
+      <c r="A54" s="8"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="59" t="n">
         <v>6062</v>
       </c>
-      <c r="D54" s="60" t="s">
+      <c r="D54" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="60" t="n">
+      <c r="E54" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="F54" s="60" t="s">
+      <c r="F54" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="61"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" s="23" t="s">
+      <c r="G54" s="60"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="60" t="n">
+      <c r="A55" s="8"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="59" t="n">
         <v>6063</v>
       </c>
-      <c r="D55" s="60" t="s">
+      <c r="D55" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="60" t="n">
+      <c r="E55" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="F55" s="60" t="s">
+      <c r="F55" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" s="23" t="s">
+      <c r="G55" s="60"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="60" t="n">
+      <c r="A56" s="8"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="59" t="n">
         <v>6064</v>
       </c>
-      <c r="D56" s="60" t="s">
+      <c r="D56" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="60" t="n">
+      <c r="E56" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="F56" s="60" t="s">
+      <c r="F56" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="61"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="23" t="s">
+      <c r="G56" s="60"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-    